--- a/models/ard-arm-cardiac/source/ard-arm-cardiac.xlsx
+++ b/models/ard-arm-cardiac/source/ard-arm-cardiac.xlsx
@@ -11,8 +11,9 @@
     <sheet state="visible" name="nodes" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="groups" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="publications" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="localConventions" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="neurons" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="contributors" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="localConventions" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="neurons" sheetId="11" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="1345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2345" uniqueCount="1357">
   <si>
     <t>id</t>
   </si>
@@ -3889,6 +3890,42 @@
   </si>
   <si>
     <t>Review of Neurocardiology: Structure-Based Function</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Jeffrey Ardell</t>
+  </si>
+  <si>
+    <t>Still awaiting permission</t>
+  </si>
+  <si>
+    <t>Drew Armor</t>
+  </si>
+  <si>
+    <t>need to send email for permission</t>
+  </si>
+  <si>
+    <t>Peter Hunter</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-0638-5274</t>
+  </si>
+  <si>
+    <t>Bernard de Bono</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-2308-8813</t>
+  </si>
+  <si>
+    <t>Monique Surles-Zeigler</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-7509-4801</t>
+  </si>
+  <si>
+    <t>Thomas H Gillespie</t>
   </si>
   <si>
     <t>prefix</t>
@@ -4093,7 +4130,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -4174,10 +4211,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <name val="Arial"/>
-    </font>
-    <font/>
-    <font>
       <b/>
       <sz val="9.0"/>
       <color rgb="FF008000"/>
@@ -4191,6 +4224,15 @@
     <font>
       <color theme="1"/>
       <name val="Droid Sans Mono"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font/>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <u/>
@@ -4309,7 +4351,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="158">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4687,9 +4729,6 @@
     <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="8" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -4702,23 +4741,8 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -4732,7 +4756,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -4744,35 +4768,44 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -4781,10 +4814,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4800,6 +4833,10 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -5082,19 +5119,164 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="39.29"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="147" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B2" s="148" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="147" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B3" s="149" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="147" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B4" s="150" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="147" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B5" s="150" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="147" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B6" s="150" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="147" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B7" s="150" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="147" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B8" s="150" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="147" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B9" s="150" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="147" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B10" s="150" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="147" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B11" s="150" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B12" s="151" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="26" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B13" s="152" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="26" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B14" s="153" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="B3"/>
+    <hyperlink r:id="rId3" ref="B4"/>
+    <hyperlink r:id="rId4" ref="B5"/>
+    <hyperlink r:id="rId5" ref="B6"/>
+    <hyperlink r:id="rId6" ref="B7"/>
+    <hyperlink r:id="rId7" ref="B8"/>
+    <hyperlink r:id="rId8" ref="B9"/>
+    <hyperlink r:id="rId9" ref="B10"/>
+    <hyperlink r:id="rId10" ref="B11"/>
+    <hyperlink r:id="rId11" ref="B12"/>
+    <hyperlink r:id="rId12" ref="B13"/>
+    <hyperlink r:id="rId13" ref="B14"/>
+  </hyperlinks>
+  <drawing r:id="rId14"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="s">
-        <v>1307</v>
+        <v>1319</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>1308</v>
+        <v>1320</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>1309</v>
+        <v>1321</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>1310</v>
+        <v>1322</v>
       </c>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
@@ -5110,13 +5292,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>1311</v>
+        <v>1323</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>1312</v>
+        <v>1324</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>1313</v>
+        <v>1325</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
@@ -5157,13 +5339,13 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>1314</v>
+        <v>1326</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>1315</v>
+        <v>1327</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>1316</v>
+        <v>1328</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -5180,10 +5362,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>1317</v>
+        <v>1329</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>1318</v>
+        <v>1330</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -5198,10 +5380,10 @@
     <row r="7">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
-        <v>1319</v>
+        <v>1331</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>1318</v>
+        <v>1330</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -5216,10 +5398,10 @@
     <row r="8">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
-        <v>1320</v>
+        <v>1332</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>1318</v>
+        <v>1330</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -5234,10 +5416,10 @@
     <row r="9">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
-        <v>1321</v>
+        <v>1333</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>1318</v>
+        <v>1330</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -5265,10 +5447,10 @@
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>1322</v>
+        <v>1334</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>1323</v>
+        <v>1335</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -5283,10 +5465,10 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>1324</v>
-      </c>
-      <c r="B12" s="157" t="s">
-        <v>1325</v>
+        <v>1336</v>
+      </c>
+      <c r="B12" s="154" t="s">
+        <v>1337</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -5301,10 +5483,10 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>1326</v>
-      </c>
-      <c r="B13" s="157" t="s">
-        <v>1327</v>
+        <v>1338</v>
+      </c>
+      <c r="B13" s="154" t="s">
+        <v>1339</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -5319,10 +5501,10 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>1328</v>
-      </c>
-      <c r="B14" s="157" t="s">
-        <v>1329</v>
+        <v>1340</v>
+      </c>
+      <c r="B14" s="154" t="s">
+        <v>1341</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -5337,10 +5519,10 @@
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>1330</v>
-      </c>
-      <c r="B15" s="157" t="s">
-        <v>1331</v>
+        <v>1342</v>
+      </c>
+      <c r="B15" s="154" t="s">
+        <v>1343</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -5369,10 +5551,10 @@
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>1332</v>
+        <v>1344</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>1333</v>
+        <v>1345</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -5387,28 +5569,28 @@
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
-        <v>1334</v>
+        <v>1346</v>
       </c>
       <c r="B18" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="158"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="158"/>
-      <c r="K18" s="158"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="155"/>
+      <c r="H18" s="155"/>
+      <c r="I18" s="155"/>
+      <c r="J18" s="155"/>
+      <c r="K18" s="155"/>
       <c r="L18" s="17"/>
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>1335</v>
+        <v>1347</v>
       </c>
       <c r="B19" s="92" t="s">
-        <v>1336</v>
+        <v>1348</v>
       </c>
       <c r="L19" s="17"/>
     </row>
@@ -5437,65 +5619,65 @@
       <c r="L25" s="17"/>
     </row>
     <row r="26">
-      <c r="A26" s="158" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B26" s="159" t="s">
-        <v>1338</v>
+      <c r="A26" s="155" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B26" s="156" t="s">
+        <v>1350</v>
       </c>
       <c r="L26" s="17"/>
     </row>
     <row r="27">
-      <c r="A27" s="158" t="s">
-        <v>1339</v>
-      </c>
-      <c r="B27" s="160" t="s">
-        <v>1340</v>
+      <c r="A27" s="155" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B27" s="157" t="s">
+        <v>1352</v>
       </c>
       <c r="L27" s="17"/>
     </row>
     <row r="28">
-      <c r="A28" s="158" t="s">
-        <v>1341</v>
-      </c>
-      <c r="B28" s="154" t="s">
-        <v>1342</v>
-      </c>
-      <c r="C28" s="159"/>
-      <c r="D28" s="159"/>
-      <c r="E28" s="159"/>
-      <c r="F28" s="159"/>
-      <c r="G28" s="159"/>
-      <c r="H28" s="159"/>
-      <c r="I28" s="159"/>
-      <c r="J28" s="159"/>
-      <c r="K28" s="159"/>
+      <c r="A28" s="155" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B28" s="151" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="156"/>
       <c r="L28" s="17"/>
     </row>
     <row r="29" hidden="1">
       <c r="A29" s="17" t="s">
-        <v>1343</v>
+        <v>1355</v>
       </c>
       <c r="L29" s="17"/>
     </row>
     <row r="30" hidden="1">
       <c r="A30" s="17" t="s">
-        <v>1344</v>
+        <v>1356</v>
       </c>
       <c r="L30" s="17"/>
     </row>
     <row r="31">
       <c r="A31" s="17"/>
-      <c r="B31" s="158"/>
-      <c r="C31" s="158"/>
-      <c r="D31" s="158"/>
-      <c r="E31" s="158"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="158"/>
-      <c r="J31" s="158"/>
-      <c r="K31" s="158"/>
+      <c r="B31" s="155"/>
+      <c r="C31" s="155"/>
+      <c r="D31" s="155"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="155"/>
+      <c r="G31" s="155"/>
+      <c r="H31" s="155"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="155"/>
+      <c r="K31" s="155"/>
       <c r="L31" s="17"/>
     </row>
   </sheetData>
@@ -15998,7 +16180,7 @@
         <v>742</v>
       </c>
       <c r="D110" s="26"/>
-      <c r="E110" s="127" t="s">
+      <c r="E110" s="25" t="s">
         <v>350</v>
       </c>
       <c r="F110" s="14" t="s">
@@ -16029,7 +16211,7 @@
         <v>742</v>
       </c>
       <c r="D111" s="122"/>
-      <c r="E111" s="128" t="s">
+      <c r="E111" s="127" t="s">
         <v>350</v>
       </c>
       <c r="F111" s="123" t="s">
@@ -16041,7 +16223,7 @@
       <c r="H111" s="124"/>
       <c r="I111" s="125"/>
       <c r="J111" s="125"/>
-      <c r="K111" s="129" t="s">
+      <c r="K111" s="128" t="s">
         <v>920</v>
       </c>
       <c r="L111" s="126" t="s">
@@ -16060,7 +16242,7 @@
         <v>742</v>
       </c>
       <c r="D112" s="122"/>
-      <c r="E112" s="128" t="s">
+      <c r="E112" s="127" t="s">
         <v>350</v>
       </c>
       <c r="F112" s="123" t="s">
@@ -16072,7 +16254,7 @@
       <c r="H112" s="124"/>
       <c r="I112" s="125"/>
       <c r="J112" s="125"/>
-      <c r="K112" s="129" t="s">
+      <c r="K112" s="128" t="s">
         <v>925</v>
       </c>
       <c r="L112" s="126" t="s">
@@ -16091,7 +16273,7 @@
         <v>742</v>
       </c>
       <c r="D113" s="122"/>
-      <c r="E113" s="128" t="s">
+      <c r="E113" s="127" t="s">
         <v>350</v>
       </c>
       <c r="F113" s="123" t="s">
@@ -16103,7 +16285,7 @@
       <c r="H113" s="124"/>
       <c r="I113" s="125"/>
       <c r="J113" s="125"/>
-      <c r="K113" s="129" t="s">
+      <c r="K113" s="128" t="s">
         <v>920</v>
       </c>
       <c r="L113" s="126" t="s">
@@ -16199,7 +16381,7 @@
       <c r="K116" s="93">
         <v>0.0</v>
       </c>
-      <c r="L116" s="130" t="s">
+      <c r="L116" s="129" t="s">
         <v>287</v>
       </c>
       <c r="M116" s="17"/>
@@ -16739,7 +16921,7 @@
         <v>742</v>
       </c>
       <c r="D134" s="26"/>
-      <c r="E134" s="127" t="s">
+      <c r="E134" s="25" t="s">
         <v>350</v>
       </c>
       <c r="F134" s="14" t="s">
@@ -16801,7 +16983,7 @@
         <v>742</v>
       </c>
       <c r="D136" s="26"/>
-      <c r="E136" s="127" t="s">
+      <c r="E136" s="25" t="s">
         <v>350</v>
       </c>
       <c r="F136" s="5" t="s">
@@ -16894,7 +17076,7 @@
         <v>739</v>
       </c>
       <c r="D139" s="26"/>
-      <c r="E139" s="127" t="s">
+      <c r="E139" s="25" t="s">
         <v>360</v>
       </c>
       <c r="F139" s="14" t="s">
@@ -16924,7 +17106,7 @@
       <c r="C140" s="106" t="s">
         <v>742</v>
       </c>
-      <c r="D140" s="131"/>
+      <c r="D140" s="130"/>
       <c r="E140" s="25" t="s">
         <v>350</v>
       </c>
@@ -16955,8 +17137,8 @@
       <c r="C141" s="106" t="s">
         <v>739</v>
       </c>
-      <c r="D141" s="131"/>
-      <c r="E141" s="127" t="s">
+      <c r="D141" s="130"/>
+      <c r="E141" s="25" t="s">
         <v>360</v>
       </c>
       <c r="F141" s="14" t="s">
@@ -16986,7 +17168,7 @@
       <c r="C142" s="106" t="s">
         <v>742</v>
       </c>
-      <c r="D142" s="131"/>
+      <c r="D142" s="130"/>
       <c r="E142" s="25" t="s">
         <v>350</v>
       </c>
@@ -17011,14 +17193,14 @@
       <c r="A143" s="25" t="s">
         <v>1175</v>
       </c>
-      <c r="B143" s="132" t="s">
+      <c r="B143" s="14" t="s">
         <v>1176</v>
       </c>
       <c r="C143" s="106" t="s">
         <v>739</v>
       </c>
-      <c r="D143" s="131"/>
-      <c r="E143" s="127" t="s">
+      <c r="D143" s="130"/>
+      <c r="E143" s="25" t="s">
         <v>360</v>
       </c>
       <c r="F143" s="14" t="s">
@@ -17042,13 +17224,13 @@
       <c r="A144" s="25" t="s">
         <v>1177</v>
       </c>
-      <c r="B144" s="132" t="s">
+      <c r="B144" s="14" t="s">
         <v>1178</v>
       </c>
       <c r="C144" s="106" t="s">
         <v>742</v>
       </c>
-      <c r="D144" s="131"/>
+      <c r="D144" s="130"/>
       <c r="E144" s="25" t="s">
         <v>350</v>
       </c>
@@ -17073,14 +17255,14 @@
       <c r="A145" s="25" t="s">
         <v>1181</v>
       </c>
-      <c r="B145" s="132" t="s">
+      <c r="B145" s="14" t="s">
         <v>1182</v>
       </c>
       <c r="C145" s="106" t="s">
         <v>739</v>
       </c>
-      <c r="D145" s="131"/>
-      <c r="E145" s="127" t="s">
+      <c r="D145" s="130"/>
+      <c r="E145" s="25" t="s">
         <v>360</v>
       </c>
       <c r="F145" s="14" t="s">
@@ -17104,13 +17286,13 @@
       <c r="A146" s="42" t="s">
         <v>1183</v>
       </c>
-      <c r="B146" s="133" t="s">
+      <c r="B146" s="37" t="s">
         <v>1184</v>
       </c>
       <c r="C146" s="104" t="s">
         <v>742</v>
       </c>
-      <c r="D146" s="134"/>
+      <c r="D146" s="131"/>
       <c r="E146" s="42" t="s">
         <v>350</v>
       </c>
@@ -17135,14 +17317,14 @@
       <c r="A147" s="25" t="s">
         <v>1187</v>
       </c>
-      <c r="B147" s="132" t="s">
+      <c r="B147" s="14" t="s">
         <v>1188</v>
       </c>
       <c r="C147" s="106" t="s">
         <v>739</v>
       </c>
-      <c r="D147" s="131"/>
-      <c r="E147" s="127" t="s">
+      <c r="D147" s="130"/>
+      <c r="E147" s="25" t="s">
         <v>360</v>
       </c>
       <c r="F147" s="14" t="s">
@@ -17166,13 +17348,13 @@
       <c r="A148" s="42" t="s">
         <v>1189</v>
       </c>
-      <c r="B148" s="133" t="s">
+      <c r="B148" s="37" t="s">
         <v>1190</v>
       </c>
       <c r="C148" s="104" t="s">
         <v>742</v>
       </c>
-      <c r="D148" s="134"/>
+      <c r="D148" s="131"/>
       <c r="E148" s="42" t="s">
         <v>350</v>
       </c>
@@ -17203,8 +17385,8 @@
       <c r="C149" s="106" t="s">
         <v>739</v>
       </c>
-      <c r="D149" s="131"/>
-      <c r="E149" s="127" t="s">
+      <c r="D149" s="130"/>
+      <c r="E149" s="25" t="s">
         <v>360</v>
       </c>
       <c r="F149" s="14" t="s">
@@ -17228,20 +17410,20 @@
       <c r="A150" s="42" t="s">
         <v>1195</v>
       </c>
-      <c r="B150" s="133" t="s">
+      <c r="B150" s="37" t="s">
         <v>1196</v>
       </c>
       <c r="C150" s="104" t="s">
         <v>742</v>
       </c>
-      <c r="D150" s="134"/>
+      <c r="D150" s="131"/>
       <c r="E150" s="42" t="s">
         <v>350</v>
       </c>
       <c r="F150" s="37" t="s">
         <v>713</v>
       </c>
-      <c r="G150" s="135" t="s">
+      <c r="G150" s="98" t="s">
         <v>1197</v>
       </c>
       <c r="H150" s="44"/>
@@ -17259,20 +17441,20 @@
       <c r="A151" s="25" t="s">
         <v>1199</v>
       </c>
-      <c r="B151" s="132" t="s">
+      <c r="B151" s="14" t="s">
         <v>1200</v>
       </c>
       <c r="C151" s="106" t="s">
         <v>739</v>
       </c>
-      <c r="D151" s="131"/>
-      <c r="E151" s="127" t="s">
+      <c r="D151" s="130"/>
+      <c r="E151" s="25" t="s">
         <v>360</v>
       </c>
       <c r="F151" s="14" t="s">
         <v>715</v>
       </c>
-      <c r="G151" s="136" t="s">
+      <c r="G151" s="5" t="s">
         <v>1163</v>
       </c>
       <c r="H151" s="13"/>
@@ -17290,20 +17472,20 @@
       <c r="A152" s="42" t="s">
         <v>1201</v>
       </c>
-      <c r="B152" s="133" t="s">
+      <c r="B152" s="37" t="s">
         <v>1202</v>
       </c>
       <c r="C152" s="104" t="s">
         <v>742</v>
       </c>
-      <c r="D152" s="134"/>
+      <c r="D152" s="131"/>
       <c r="E152" s="42" t="s">
         <v>350</v>
       </c>
       <c r="F152" s="37" t="s">
         <v>716</v>
       </c>
-      <c r="G152" s="135" t="s">
+      <c r="G152" s="98" t="s">
         <v>1203</v>
       </c>
       <c r="H152" s="44"/>
@@ -17321,14 +17503,14 @@
       <c r="A153" s="25" t="s">
         <v>1205</v>
       </c>
-      <c r="B153" s="132" t="s">
+      <c r="B153" s="14" t="s">
         <v>1206</v>
       </c>
       <c r="C153" s="106" t="s">
         <v>739</v>
       </c>
-      <c r="D153" s="131"/>
-      <c r="E153" s="127" t="s">
+      <c r="D153" s="130"/>
+      <c r="E153" s="25" t="s">
         <v>360</v>
       </c>
       <c r="F153" s="14" t="s">
@@ -17352,20 +17534,20 @@
       <c r="A154" s="42" t="s">
         <v>1207</v>
       </c>
-      <c r="B154" s="133" t="s">
+      <c r="B154" s="37" t="s">
         <v>1208</v>
       </c>
       <c r="C154" s="104" t="s">
         <v>742</v>
       </c>
-      <c r="D154" s="134"/>
+      <c r="D154" s="131"/>
       <c r="E154" s="42" t="s">
         <v>350</v>
       </c>
       <c r="F154" s="37" t="s">
         <v>719</v>
       </c>
-      <c r="G154" s="135" t="s">
+      <c r="G154" s="98" t="s">
         <v>1209</v>
       </c>
       <c r="H154" s="44"/>
@@ -17383,14 +17565,14 @@
       <c r="A155" s="25" t="s">
         <v>1211</v>
       </c>
-      <c r="B155" s="132" t="s">
+      <c r="B155" s="14" t="s">
         <v>1212</v>
       </c>
       <c r="C155" s="106" t="s">
         <v>739</v>
       </c>
-      <c r="D155" s="131"/>
-      <c r="E155" s="127" t="s">
+      <c r="D155" s="130"/>
+      <c r="E155" s="25" t="s">
         <v>360</v>
       </c>
       <c r="F155" s="14" t="s">
@@ -17414,20 +17596,20 @@
       <c r="A156" s="42" t="s">
         <v>1213</v>
       </c>
-      <c r="B156" s="133" t="s">
+      <c r="B156" s="37" t="s">
         <v>1214</v>
       </c>
       <c r="C156" s="104" t="s">
         <v>742</v>
       </c>
-      <c r="D156" s="134"/>
+      <c r="D156" s="131"/>
       <c r="E156" s="42" t="s">
         <v>350</v>
       </c>
       <c r="F156" s="37" t="s">
         <v>722</v>
       </c>
-      <c r="G156" s="135" t="s">
+      <c r="G156" s="98" t="s">
         <v>1215</v>
       </c>
       <c r="H156" s="44"/>
@@ -17442,7 +17624,7 @@
       <c r="M156" s="54"/>
     </row>
     <row r="157">
-      <c r="A157" s="137" t="s">
+      <c r="A157" s="42" t="s">
         <v>1217</v>
       </c>
       <c r="B157" s="37" t="s">
@@ -17451,14 +17633,14 @@
       <c r="C157" s="104" t="s">
         <v>739</v>
       </c>
-      <c r="D157" s="134"/>
+      <c r="D157" s="131"/>
       <c r="E157" s="40" t="s">
         <v>360</v>
       </c>
-      <c r="F157" s="135" t="s">
+      <c r="F157" s="98" t="s">
         <v>1163</v>
       </c>
-      <c r="G157" s="138" t="s">
+      <c r="G157" s="132" t="s">
         <v>701</v>
       </c>
       <c r="H157" s="44"/>
@@ -17473,7 +17655,7 @@
       <c r="M157" s="54"/>
     </row>
     <row r="158">
-      <c r="A158" s="137" t="s">
+      <c r="A158" s="42" t="s">
         <v>1219</v>
       </c>
       <c r="B158" s="37" t="s">
@@ -17482,7 +17664,7 @@
       <c r="C158" s="104" t="s">
         <v>739</v>
       </c>
-      <c r="D158" s="134"/>
+      <c r="D158" s="131"/>
       <c r="E158" s="55" t="s">
         <v>357</v>
       </c>
@@ -17504,7 +17686,7 @@
       <c r="M158" s="54"/>
     </row>
     <row r="159">
-      <c r="A159" s="137" t="s">
+      <c r="A159" s="42" t="s">
         <v>1221</v>
       </c>
       <c r="B159" s="37" t="s">
@@ -17513,7 +17695,7 @@
       <c r="C159" s="104" t="s">
         <v>739</v>
       </c>
-      <c r="D159" s="134"/>
+      <c r="D159" s="131"/>
       <c r="E159" s="55" t="s">
         <v>357</v>
       </c>
@@ -17566,7 +17748,7 @@
       <c r="M160" s="54"/>
     </row>
     <row r="161">
-      <c r="A161" s="139" t="s">
+      <c r="A161" s="133" t="s">
         <v>1225</v>
       </c>
       <c r="B161" s="37" t="s">
@@ -17597,7 +17779,7 @@
       <c r="M161" s="54"/>
     </row>
     <row r="162">
-      <c r="A162" s="139" t="s">
+      <c r="A162" s="133" t="s">
         <v>1227</v>
       </c>
       <c r="B162" s="37" t="s">
@@ -17716,7 +17898,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="134" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -17725,19 +17907,19 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="140" t="s">
+      <c r="D1" s="134" t="s">
         <v>723</v>
       </c>
-      <c r="E1" s="140" t="s">
+      <c r="E1" s="134" t="s">
         <v>1233</v>
       </c>
-      <c r="F1" s="140" t="s">
+      <c r="F1" s="134" t="s">
         <v>1234</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>1235</v>
       </c>
-      <c r="H1" s="141" t="s">
+      <c r="H1" s="135" t="s">
         <v>599</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -17754,9 +17936,9 @@
       <c r="C2" s="5" t="s">
         <v>1238</v>
       </c>
-      <c r="D2" s="142"/>
-      <c r="F2" s="141"/>
-      <c r="H2" s="143"/>
+      <c r="D2" s="136"/>
+      <c r="F2" s="135"/>
+      <c r="H2" s="137"/>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
@@ -17768,10 +17950,10 @@
       <c r="C3" s="5" t="s">
         <v>1240</v>
       </c>
-      <c r="D3" s="143"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="H3" s="141"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="H3" s="135"/>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
@@ -17783,10 +17965,10 @@
       <c r="C4" s="5" t="s">
         <v>1242</v>
       </c>
-      <c r="D4" s="143"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="H4" s="141"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="H4" s="135"/>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
@@ -17798,10 +17980,10 @@
       <c r="C5" s="5" t="s">
         <v>1244</v>
       </c>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="H5" s="143"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="H5" s="137"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
@@ -17813,9 +17995,9 @@
       <c r="C6" s="5" t="s">
         <v>1246</v>
       </c>
-      <c r="D6" s="141"/>
+      <c r="D6" s="135"/>
       <c r="E6" s="92"/>
-      <c r="F6" s="144"/>
+      <c r="F6" s="138"/>
       <c r="H6" s="5" t="s">
         <v>1247</v>
       </c>
@@ -17830,10 +18012,10 @@
       <c r="C7" s="5" t="s">
         <v>1249</v>
       </c>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="H7" s="141"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="H7" s="135"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
@@ -17845,11 +18027,11 @@
       <c r="C8" s="5" t="s">
         <v>1251</v>
       </c>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="141"/>
-      <c r="H8" s="141"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="135"/>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
@@ -17861,10 +18043,10 @@
       <c r="C9" s="5" t="s">
         <v>1253</v>
       </c>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="H9" s="141"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="H9" s="135"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
@@ -17876,10 +18058,10 @@
       <c r="C10" s="5" t="s">
         <v>1255</v>
       </c>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="141"/>
-      <c r="H10" s="143"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="135"/>
+      <c r="H10" s="137"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
@@ -17891,17 +18073,17 @@
       <c r="C11" s="5" t="s">
         <v>1257</v>
       </c>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="141"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="135"/>
     </row>
     <row r="12">
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="141"/>
-      <c r="H12" s="141"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="H12" s="135"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
@@ -17913,11 +18095,11 @@
       <c r="C13" s="5" t="s">
         <v>1259</v>
       </c>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="135"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
@@ -17929,10 +18111,10 @@
       <c r="C14" s="5" t="s">
         <v>1261</v>
       </c>
-      <c r="D14" s="141"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="141"/>
-      <c r="H14" s="141"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="H14" s="135"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
@@ -17944,10 +18126,10 @@
       <c r="C15" s="5" t="s">
         <v>1263</v>
       </c>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="141"/>
-      <c r="H15" s="143"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="135"/>
+      <c r="H15" s="137"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
@@ -17959,11 +18141,11 @@
       <c r="C16" s="5" t="s">
         <v>1265</v>
       </c>
-      <c r="D16" s="141"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
@@ -17975,9 +18157,9 @@
       <c r="C17" s="5" t="s">
         <v>1267</v>
       </c>
-      <c r="D17" s="143"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="141"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="135"/>
       <c r="H17" s="5" t="s">
         <v>1247</v>
       </c>
@@ -17992,9 +18174,9 @@
       <c r="C18" s="5" t="s">
         <v>1269</v>
       </c>
-      <c r="E18" s="141"/>
-      <c r="F18" s="145"/>
-      <c r="H18" s="141"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="139"/>
+      <c r="H18" s="135"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
@@ -18006,8 +18188,8 @@
       <c r="C19" s="5" t="s">
         <v>1271</v>
       </c>
-      <c r="E19" s="141"/>
-      <c r="F19" s="145"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="139"/>
       <c r="H19" s="5" t="s">
         <v>1247</v>
       </c>
@@ -18032,7 +18214,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="140" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -18044,19 +18226,19 @@
       <c r="D1" s="1" t="s">
         <v>1273</v>
       </c>
-      <c r="E1" s="147" t="s">
+      <c r="E1" s="141" t="s">
         <v>1274</v>
       </c>
-      <c r="F1" s="147" t="s">
+      <c r="F1" s="141" t="s">
         <v>1275</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="142" t="s">
         <v>1247</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="C2" s="149" t="s">
+      <c r="C2" s="143" t="s">
         <v>1276</v>
       </c>
       <c r="D2" s="5"/>
@@ -18084,138 +18266,74 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="2" max="2" width="39.29"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1279</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2">
+      <c r="B2" s="144" t="s">
         <v>1280</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="150" t="s">
+      <c r="C2" s="5" t="s">
         <v>1281</v>
       </c>
-      <c r="B2" s="151" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="145" t="s">
         <v>1282</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="150" t="s">
+      <c r="C3" s="5" t="s">
         <v>1283</v>
       </c>
-      <c r="B3" s="152" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="145" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="150" t="s">
+      <c r="C4" s="5" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="146" t="s">
         <v>1285</v>
       </c>
-      <c r="B4" s="153" t="s">
+      <c r="B5" s="5" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="150" t="s">
+    <row r="6">
+      <c r="A6" s="146" t="s">
         <v>1287</v>
       </c>
-      <c r="B5" s="153" t="s">
+      <c r="B6" s="5" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="150" t="s">
+    <row r="7">
+      <c r="A7" s="146" t="s">
         <v>1289</v>
       </c>
-      <c r="B6" s="153" t="s">
+      <c r="B7" s="5" t="s">
         <v>1290</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="150" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B7" s="153" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="150" t="s">
-        <v>1293</v>
-      </c>
-      <c r="B8" s="153" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="150" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B9" s="153" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="150" t="s">
-        <v>1297</v>
-      </c>
-      <c r="B10" s="153" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="150" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B11" s="153" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="s">
-        <v>1301</v>
-      </c>
-      <c r="B12" s="154" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="26" t="s">
-        <v>1303</v>
-      </c>
-      <c r="B13" s="155" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="26" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B14" s="156" t="s">
-        <v>1306</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="B3"/>
-    <hyperlink r:id="rId3" ref="B4"/>
-    <hyperlink r:id="rId4" ref="B5"/>
-    <hyperlink r:id="rId5" ref="B6"/>
-    <hyperlink r:id="rId6" ref="B7"/>
-    <hyperlink r:id="rId7" ref="B8"/>
-    <hyperlink r:id="rId8" ref="B9"/>
-    <hyperlink r:id="rId9" ref="B10"/>
-    <hyperlink r:id="rId10" ref="B11"/>
-    <hyperlink r:id="rId11" ref="B12"/>
-    <hyperlink r:id="rId12" ref="B13"/>
-    <hyperlink r:id="rId13" ref="B14"/>
+    <hyperlink r:id="rId1" ref="A5"/>
+    <hyperlink r:id="rId2" ref="A6"/>
+    <hyperlink r:id="rId3" ref="A7"/>
   </hyperlinks>
-  <drawing r:id="rId14"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/models/ard-arm-cardiac/source/ard-arm-cardiac.xlsx
+++ b/models/ard-arm-cardiac/source/ard-arm-cardiac.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="1391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="1393">
   <si>
     <t>id</t>
   </si>
@@ -3250,6 +3250,9 @@
     <t>Dendrite to right ventricle-layer 1_Neuron 13 (aacar)</t>
   </si>
   <si>
+    <t>external</t>
+  </si>
+  <si>
     <t>id_new</t>
   </si>
   <si>
@@ -3434,6 +3437,9 @@
   </si>
   <si>
     <t>Peripheral nervous system tissue</t>
+  </si>
+  <si>
+    <t>UBERON:0003714</t>
   </si>
   <si>
     <t>UBERON:0000010</t>
@@ -5632,114 +5638,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="98" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="B1" s="98" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="244" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="B2" s="245" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="244" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="B3" s="246" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="244" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="B4" s="247" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="244" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="B5" s="247" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="244" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="B6" s="247" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="244" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="B7" s="247" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="244" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="B8" s="247" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="244" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="B9" s="247" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="244" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="B10" s="247" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="244" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="B11" s="247" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="B12" s="248" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="25" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="B13" s="249" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="25" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="B14" s="250" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
     </row>
   </sheetData>
@@ -5774,16 +5780,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
@@ -5799,13 +5805,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
@@ -5846,13 +5852,13 @@
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -5869,10 +5875,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -5887,10 +5893,10 @@
     <row r="7">
       <c r="A7" s="16"/>
       <c r="B7" s="16" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -5905,10 +5911,10 @@
     <row r="8">
       <c r="A8" s="16"/>
       <c r="B8" s="16" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>1363</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>1361</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
@@ -5923,10 +5929,10 @@
     <row r="9">
       <c r="A9" s="16"/>
       <c r="B9" s="16" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
@@ -5954,10 +5960,10 @@
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -5972,10 +5978,10 @@
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="B12" s="251" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -5990,10 +5996,10 @@
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="B13" s="251" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -6008,10 +6014,10 @@
     </row>
     <row r="14">
       <c r="A14" s="16" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="B14" s="251" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -6026,10 +6032,10 @@
     </row>
     <row r="15">
       <c r="A15" s="16" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="B15" s="251" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -6044,10 +6050,10 @@
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="B16" s="83" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -6062,10 +6068,10 @@
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -6094,10 +6100,10 @@
     </row>
     <row r="19">
       <c r="A19" s="16" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="B19" s="83" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -6112,7 +6118,7 @@
     </row>
     <row r="20">
       <c r="A20" s="16" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="B20" s="106" t="s">
         <v>6</v>
@@ -6130,10 +6136,10 @@
     </row>
     <row r="21">
       <c r="A21" s="16" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="B21" s="106" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="L21" s="16"/>
     </row>
@@ -6163,28 +6169,28 @@
     </row>
     <row r="28">
       <c r="A28" s="252" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="B28" s="253" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="L28" s="16"/>
     </row>
     <row r="29">
       <c r="A29" s="252" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="B29" s="254" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="L29" s="16"/>
     </row>
     <row r="30">
       <c r="A30" s="252" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="B30" s="248" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="C30" s="253"/>
       <c r="D30" s="253"/>
@@ -6199,13 +6205,13 @@
     </row>
     <row r="31" hidden="1">
       <c r="A31" s="16" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="L31" s="16"/>
     </row>
     <row r="32" hidden="1">
       <c r="A32" s="16" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="L32" s="16"/>
     </row>
@@ -15987,10 +15993,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="18.25"/>
-    <col customWidth="1" min="3" max="3" width="23.0"/>
-    <col customWidth="1" min="4" max="4" width="25.25"/>
-    <col customWidth="1" min="5" max="5" width="12.75"/>
+    <col customWidth="1" min="2" max="2" width="29.13"/>
+    <col customWidth="1" min="3" max="4" width="23.0"/>
+    <col customWidth="1" min="5" max="5" width="25.25"/>
+    <col customWidth="1" min="6" max="6" width="12.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -16003,706 +16009,767 @@
       <c r="C1" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="198" t="s">
+      <c r="D1" s="200" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E1" s="198" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="201" t="s">
-        <v>1065</v>
+      <c r="F1" s="201" t="s">
+        <v>1066</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="202" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B2" s="203" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C2" s="204" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D2" s="205"/>
-      <c r="E2" s="206"/>
+        <v>1069</v>
+      </c>
+      <c r="D2" s="204"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="206"/>
     </row>
     <row r="3">
       <c r="A3" s="202" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B3" s="203" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C3" s="203" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D3" s="207"/>
-      <c r="E3" s="201" t="s">
         <v>1072</v>
+      </c>
+      <c r="D3" s="203"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="201" t="s">
+        <v>1073</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="202" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B4" s="203" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C4" s="203" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D4" s="208"/>
-      <c r="E4" s="206"/>
+        <v>1076</v>
+      </c>
+      <c r="D4" s="203"/>
+      <c r="E4" s="208"/>
+      <c r="F4" s="206"/>
     </row>
     <row r="5">
       <c r="A5" s="202" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B5" s="203" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C5" s="203" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D5" s="208"/>
-      <c r="E5" s="206"/>
+        <v>1079</v>
+      </c>
+      <c r="D5" s="203"/>
+      <c r="E5" s="208"/>
+      <c r="F5" s="206"/>
     </row>
     <row r="6">
       <c r="A6" s="202" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B6" s="209" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C6" s="203" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D6" s="207"/>
-      <c r="E6" s="206"/>
+        <v>1082</v>
+      </c>
+      <c r="D6" s="203"/>
+      <c r="E6" s="207"/>
+      <c r="F6" s="206"/>
     </row>
     <row r="7">
       <c r="A7" s="202" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B7" s="210" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C7" s="203" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D7" s="201"/>
-      <c r="E7" s="206"/>
+        <v>1085</v>
+      </c>
+      <c r="D7" s="203"/>
+      <c r="E7" s="201"/>
+      <c r="F7" s="206"/>
     </row>
     <row r="8">
       <c r="A8" s="202" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B8" s="210" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="C8" s="203" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D8" s="201"/>
-      <c r="E8" s="206"/>
+        <v>1069</v>
+      </c>
+      <c r="D8" s="203"/>
+      <c r="E8" s="201"/>
+      <c r="F8" s="206"/>
     </row>
     <row r="9">
       <c r="A9" s="202" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B9" s="210" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C9" s="211" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D9" s="212"/>
-      <c r="E9" s="206"/>
+        <v>1090</v>
+      </c>
+      <c r="D9" s="211"/>
+      <c r="E9" s="212"/>
+      <c r="F9" s="206"/>
     </row>
     <row r="10">
       <c r="A10" s="202" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B10" s="210" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C10" s="203" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D10" s="201"/>
-      <c r="E10" s="206"/>
+        <v>1093</v>
+      </c>
+      <c r="D10" s="203"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="206"/>
     </row>
     <row r="11">
       <c r="A11" s="202" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B11" s="203" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C11" s="203" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D11" s="206"/>
+        <v>1096</v>
+      </c>
+      <c r="D11" s="203"/>
       <c r="E11" s="206"/>
+      <c r="F11" s="206"/>
     </row>
     <row r="12">
       <c r="A12" s="202" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B12" s="213" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C12" s="213" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D12" s="206"/>
+        <v>1099</v>
+      </c>
+      <c r="D12" s="213"/>
       <c r="E12" s="206"/>
+      <c r="F12" s="206"/>
     </row>
     <row r="13">
       <c r="A13" s="202" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B13" s="214" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C13" s="213" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D13" s="206"/>
+        <v>1102</v>
+      </c>
+      <c r="D13" s="213"/>
       <c r="E13" s="206"/>
+      <c r="F13" s="206"/>
     </row>
     <row r="14">
       <c r="A14" s="202" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B14" s="214" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C14" s="213" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D14" s="206"/>
+        <v>1105</v>
+      </c>
+      <c r="D14" s="213"/>
       <c r="E14" s="206"/>
+      <c r="F14" s="206"/>
     </row>
     <row r="15">
       <c r="A15" s="202" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B15" s="214" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C15" s="213" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D15" s="206"/>
+        <v>1108</v>
+      </c>
+      <c r="D15" s="213"/>
       <c r="E15" s="206"/>
+      <c r="F15" s="206"/>
     </row>
     <row r="16">
       <c r="A16" s="202" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B16" s="214" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C16" s="213" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D16" s="206"/>
+        <v>1111</v>
+      </c>
+      <c r="D16" s="213"/>
       <c r="E16" s="206"/>
+      <c r="F16" s="206"/>
     </row>
     <row r="17">
       <c r="A17" s="202" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B17" s="214" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="C17" s="213" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D17" s="206"/>
+        <v>1114</v>
+      </c>
+      <c r="D17" s="213"/>
       <c r="E17" s="206"/>
+      <c r="F17" s="206"/>
     </row>
     <row r="18">
       <c r="A18" s="202" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B18" s="214" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C18" s="213" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D18" s="206"/>
+        <v>1117</v>
+      </c>
+      <c r="D18" s="213"/>
       <c r="E18" s="206"/>
+      <c r="F18" s="206"/>
     </row>
     <row r="19">
       <c r="A19" s="202" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B19" s="214" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="C19" s="213" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D19" s="206"/>
+        <v>1120</v>
+      </c>
+      <c r="D19" s="213"/>
       <c r="E19" s="206"/>
+      <c r="F19" s="206"/>
     </row>
     <row r="20">
       <c r="A20" s="202" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B20" s="214" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="C20" s="215" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D20" s="206"/>
+        <v>1090</v>
+      </c>
+      <c r="D20" s="215"/>
       <c r="E20" s="206"/>
+      <c r="F20" s="206"/>
     </row>
     <row r="21">
       <c r="A21" s="202" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B21" s="216" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="C21" s="213" t="s">
-        <v>1124</v>
-      </c>
-      <c r="D21" s="206"/>
+        <v>1125</v>
+      </c>
+      <c r="D21" s="213"/>
       <c r="E21" s="206"/>
+      <c r="F21" s="206"/>
     </row>
     <row r="22">
       <c r="A22" s="202" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B22" s="214" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C22" s="217" t="s">
         <v>1127</v>
       </c>
-      <c r="D22" s="201"/>
-      <c r="E22" s="206"/>
+      <c r="C22" s="5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D22" s="217" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E22" s="201"/>
+      <c r="F22" s="206"/>
     </row>
     <row r="23">
       <c r="A23" s="202" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="B23" s="218" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="C23" s="219" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D23" s="206"/>
+        <v>1132</v>
+      </c>
+      <c r="D23" s="219"/>
       <c r="E23" s="206"/>
+      <c r="F23" s="206"/>
     </row>
     <row r="24">
       <c r="A24" s="202" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="B24" s="218" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="C24" s="219" t="s">
-        <v>1133</v>
-      </c>
-      <c r="D24" s="206"/>
+        <v>1135</v>
+      </c>
+      <c r="D24" s="219"/>
       <c r="E24" s="206"/>
+      <c r="F24" s="206"/>
     </row>
     <row r="25">
       <c r="A25" s="202" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="B25" s="218" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C25" s="219" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D25" s="219" t="s">
         <v>453</v>
       </c>
-      <c r="D25" s="201"/>
-      <c r="E25" s="206"/>
+      <c r="E25" s="201"/>
+      <c r="F25" s="206"/>
     </row>
     <row r="26">
       <c r="A26" s="202" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="B26" s="213" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="C26" s="213" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D26" s="201"/>
-      <c r="E26" s="206"/>
+        <v>1140</v>
+      </c>
+      <c r="D26" s="213"/>
+      <c r="E26" s="201"/>
+      <c r="F26" s="206"/>
     </row>
     <row r="27">
       <c r="A27" s="202" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="B27" s="213" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="C27" s="213" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D27" s="206"/>
+        <v>1143</v>
+      </c>
+      <c r="D27" s="213"/>
       <c r="E27" s="206"/>
+      <c r="F27" s="206"/>
     </row>
     <row r="28">
       <c r="A28" s="202" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="B28" s="213" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="C28" s="213" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D28" s="206"/>
+        <v>1146</v>
+      </c>
+      <c r="D28" s="213"/>
       <c r="E28" s="206"/>
+      <c r="F28" s="206"/>
     </row>
     <row r="29">
       <c r="A29" s="202" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="B29" s="220" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="C29" s="210" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D29" s="221"/>
+        <v>1149</v>
+      </c>
+      <c r="D29" s="210"/>
+      <c r="E29" s="221"/>
     </row>
     <row r="30">
       <c r="A30" s="202" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="B30" s="220" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="C30" s="210" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D30" s="221"/>
+        <v>1152</v>
+      </c>
+      <c r="D30" s="210"/>
+      <c r="E30" s="221"/>
     </row>
     <row r="31">
       <c r="A31" s="202" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="B31" s="220" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="C31" s="210" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D31" s="221"/>
+        <v>1155</v>
+      </c>
+      <c r="D31" s="210"/>
+      <c r="E31" s="221"/>
     </row>
     <row r="32">
       <c r="A32" s="202" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="B32" s="220" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="C32" s="210" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D32" s="221"/>
+        <v>1158</v>
+      </c>
+      <c r="D32" s="210"/>
+      <c r="E32" s="221"/>
     </row>
     <row r="33">
       <c r="A33" s="202" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="B33" s="220" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="C33" s="210" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D33" s="221"/>
+        <v>1161</v>
+      </c>
+      <c r="D33" s="210"/>
+      <c r="E33" s="221"/>
     </row>
     <row r="34">
       <c r="A34" s="202" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="B34" s="220" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="C34" s="210" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D34" s="221"/>
+        <v>1164</v>
+      </c>
+      <c r="D34" s="210"/>
+      <c r="E34" s="221"/>
     </row>
     <row r="35">
       <c r="A35" s="202" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="B35" s="220" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="C35" s="210" t="s">
-        <v>1165</v>
-      </c>
-      <c r="D35" s="221"/>
+        <v>1167</v>
+      </c>
+      <c r="D35" s="210"/>
+      <c r="E35" s="221"/>
     </row>
     <row r="36">
       <c r="A36" s="202" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="B36" s="220" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C36" s="210" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D36" s="221"/>
+        <v>1170</v>
+      </c>
+      <c r="D36" s="210"/>
+      <c r="E36" s="221"/>
     </row>
     <row r="37">
       <c r="A37" s="202" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="B37" s="220" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="C37" s="210" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D37" s="221"/>
+        <v>1173</v>
+      </c>
+      <c r="D37" s="210"/>
+      <c r="E37" s="221"/>
     </row>
     <row r="38">
       <c r="A38" s="202" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="B38" s="220" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="C38" s="210" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D38" s="221"/>
+        <v>1176</v>
+      </c>
+      <c r="D38" s="210"/>
+      <c r="E38" s="221"/>
     </row>
     <row r="39">
       <c r="A39" s="202" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="B39" s="222" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="C39" s="218" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D39" s="223"/>
-      <c r="E39" s="206"/>
+        <v>1179</v>
+      </c>
+      <c r="D39" s="218"/>
+      <c r="E39" s="223"/>
+      <c r="F39" s="206"/>
     </row>
     <row r="40">
       <c r="A40" s="202" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="B40" s="222" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="C40" s="218" t="s">
-        <v>1180</v>
-      </c>
-      <c r="D40" s="224"/>
-      <c r="E40" s="206"/>
+        <v>1182</v>
+      </c>
+      <c r="D40" s="218"/>
+      <c r="E40" s="224"/>
+      <c r="F40" s="206"/>
     </row>
     <row r="41">
       <c r="A41" s="202" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="B41" s="222" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="C41" s="218" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D41" s="223"/>
-      <c r="E41" s="206"/>
+        <v>1185</v>
+      </c>
+      <c r="D41" s="218"/>
+      <c r="E41" s="223"/>
+      <c r="F41" s="206"/>
     </row>
     <row r="42">
       <c r="A42" s="202" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="B42" s="222" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C42" s="225" t="s">
-        <v>1185</v>
-      </c>
-      <c r="D42" s="206"/>
+        <v>1187</v>
+      </c>
+      <c r="D42" s="225"/>
       <c r="E42" s="206"/>
+      <c r="F42" s="206"/>
     </row>
     <row r="43">
       <c r="A43" s="202" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="B43" s="226" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="C43" s="225" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D43" s="206"/>
+        <v>1190</v>
+      </c>
+      <c r="D43" s="225"/>
       <c r="E43" s="206"/>
+      <c r="F43" s="206"/>
     </row>
     <row r="44">
       <c r="A44" s="202" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="B44" s="226" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="C44" s="227" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D44" s="206"/>
+        <v>1193</v>
+      </c>
+      <c r="D44" s="227"/>
       <c r="E44" s="206"/>
+      <c r="F44" s="206"/>
     </row>
     <row r="45" ht="20.25" customHeight="1">
       <c r="A45" s="202" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="C45" s="228" t="s">
         <v>308</v>
       </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="32"/>
+      <c r="D45" s="228"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="32"/>
     </row>
     <row r="46">
       <c r="A46" s="202" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="32"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="32"/>
     </row>
     <row r="47">
       <c r="A47" s="202" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="C47" s="205" t="s">
         <v>315</v>
       </c>
-      <c r="D47" s="16"/>
-      <c r="E47" s="30"/>
+      <c r="D47" s="205"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="30"/>
     </row>
     <row r="48">
       <c r="A48" s="202" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="C48" s="205" t="s">
         <v>318</v>
       </c>
-      <c r="D48" s="16"/>
-      <c r="E48" s="30"/>
+      <c r="D48" s="205"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="30"/>
     </row>
     <row r="49">
       <c r="A49" s="202" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="C49" s="137" t="s">
         <v>321</v>
       </c>
-      <c r="D49" s="16"/>
-      <c r="E49" s="30"/>
+      <c r="D49" s="137"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="30"/>
     </row>
     <row r="50">
       <c r="A50" s="202" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="C50" s="137" t="s">
         <v>324</v>
       </c>
-      <c r="D50" s="16"/>
-      <c r="E50" s="30"/>
+      <c r="D50" s="137"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="30"/>
     </row>
     <row r="51">
       <c r="A51" s="202" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="C51" s="205" t="s">
         <v>327</v>
       </c>
-      <c r="D51" s="16"/>
-      <c r="E51" s="30"/>
+      <c r="D51" s="205"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="30"/>
     </row>
     <row r="52">
       <c r="A52" s="202" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="C52" s="137" t="s">
         <v>330</v>
       </c>
-      <c r="D52" s="16"/>
-      <c r="E52" s="30"/>
+      <c r="D52" s="137"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="30"/>
     </row>
     <row r="53">
       <c r="A53" s="202" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="C53" s="205" t="s">
         <v>333</v>
       </c>
-      <c r="D53" s="16"/>
-      <c r="E53" s="30"/>
+      <c r="D53" s="205"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="30"/>
     </row>
     <row r="54">
       <c r="A54" s="229" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="B54" s="230" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="C54" s="231" t="s">
         <v>336</v>
       </c>
-      <c r="D54" s="232"/>
-      <c r="E54" s="233"/>
+      <c r="D54" s="231"/>
+      <c r="E54" s="232"/>
+      <c r="F54" s="233"/>
     </row>
     <row r="55">
       <c r="A55" s="202" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D55" s="16"/>
-      <c r="E55" s="30"/>
+        <v>1216</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="30"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -16734,13 +16801,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>12</v>
@@ -16751,7 +16818,7 @@
     </row>
     <row r="2">
       <c r="A2" s="24" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>481</v>
@@ -16767,7 +16834,7 @@
     </row>
     <row r="3">
       <c r="A3" s="24" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>491</v>
@@ -16783,7 +16850,7 @@
     </row>
     <row r="4">
       <c r="A4" s="24" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>499</v>
@@ -16799,7 +16866,7 @@
     </row>
     <row r="5">
       <c r="A5" s="24" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="14" t="s">
@@ -16816,7 +16883,7 @@
     </row>
     <row r="6">
       <c r="A6" s="24" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="14" t="s">
@@ -16833,7 +16900,7 @@
     </row>
     <row r="7">
       <c r="A7" s="24" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="14" t="s">
@@ -16850,7 +16917,7 @@
     </row>
     <row r="8">
       <c r="A8" s="24" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="14" t="s">
@@ -16867,7 +16934,7 @@
     </row>
     <row r="9">
       <c r="A9" s="24" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="14" t="s">
@@ -16884,7 +16951,7 @@
     </row>
     <row r="10">
       <c r="A10" s="24" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="14" t="s">
@@ -16901,7 +16968,7 @@
     </row>
     <row r="11">
       <c r="A11" s="24" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="14" t="s">
@@ -16918,7 +16985,7 @@
     </row>
     <row r="12">
       <c r="A12" s="24" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="14" t="s">
@@ -16935,7 +17002,7 @@
     </row>
     <row r="13">
       <c r="A13" s="24" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="14" t="s">
@@ -16952,7 +17019,7 @@
     </row>
     <row r="14">
       <c r="A14" s="24" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="14" t="s">
@@ -16969,7 +17036,7 @@
     </row>
     <row r="15">
       <c r="A15" s="24" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="14" t="s">
@@ -16986,7 +17053,7 @@
     </row>
     <row r="16">
       <c r="A16" s="24" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="14" t="s">
@@ -17003,7 +17070,7 @@
     </row>
     <row r="17">
       <c r="A17" s="24" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="14" t="s">
@@ -17020,7 +17087,7 @@
     </row>
     <row r="18">
       <c r="A18" s="24" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="14" t="s">
@@ -17037,7 +17104,7 @@
     </row>
     <row r="19">
       <c r="A19" s="24" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="14" t="s">
@@ -17054,7 +17121,7 @@
     </row>
     <row r="20">
       <c r="A20" s="24" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="14" t="s">
@@ -17071,7 +17138,7 @@
     </row>
     <row r="21">
       <c r="A21" s="24" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="14" t="s">
@@ -17088,7 +17155,7 @@
     </row>
     <row r="22">
       <c r="A22" s="24" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="14" t="s">
@@ -17105,7 +17172,7 @@
     </row>
     <row r="23">
       <c r="A23" s="24" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="14" t="s">
@@ -17122,7 +17189,7 @@
     </row>
     <row r="24">
       <c r="A24" s="24" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="14" t="s">
@@ -17139,7 +17206,7 @@
     </row>
     <row r="25">
       <c r="A25" s="24" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="14" t="s">
@@ -17156,7 +17223,7 @@
     </row>
     <row r="26">
       <c r="A26" s="24" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="14" t="s">
@@ -17173,7 +17240,7 @@
     </row>
     <row r="27">
       <c r="A27" s="24" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="14" t="s">
@@ -17190,7 +17257,7 @@
     </row>
     <row r="28">
       <c r="A28" s="24" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="14" t="s">
@@ -17207,7 +17274,7 @@
     </row>
     <row r="29">
       <c r="A29" s="24" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="14" t="s">
@@ -17224,7 +17291,7 @@
     </row>
     <row r="30">
       <c r="A30" s="24" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="14" t="s">
@@ -17241,7 +17308,7 @@
     </row>
     <row r="31">
       <c r="A31" s="24" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="14" t="s">
@@ -17258,7 +17325,7 @@
     </row>
     <row r="32">
       <c r="A32" s="24" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="14" t="s">
@@ -17275,7 +17342,7 @@
     </row>
     <row r="33">
       <c r="A33" s="24" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="14" t="s">
@@ -17292,7 +17359,7 @@
     </row>
     <row r="34">
       <c r="A34" s="24" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="14" t="s">
@@ -17309,7 +17376,7 @@
     </row>
     <row r="35">
       <c r="A35" s="24" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="B35" s="16"/>
       <c r="C35" s="14" t="s">
@@ -17326,7 +17393,7 @@
     </row>
     <row r="36">
       <c r="A36" s="24" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="B36" s="16"/>
       <c r="C36" s="14" t="s">
@@ -17343,7 +17410,7 @@
     </row>
     <row r="37">
       <c r="A37" s="24" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="14" t="s">
@@ -17360,7 +17427,7 @@
     </row>
     <row r="38">
       <c r="A38" s="24" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="14" t="s">
@@ -17377,7 +17444,7 @@
     </row>
     <row r="39">
       <c r="A39" s="24" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="B39" s="16"/>
       <c r="C39" s="14" t="s">
@@ -17394,7 +17461,7 @@
     </row>
     <row r="40">
       <c r="A40" s="24" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="B40" s="16"/>
       <c r="C40" s="14" t="s">
@@ -17411,7 +17478,7 @@
     </row>
     <row r="41">
       <c r="A41" s="24" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="B41" s="16"/>
       <c r="C41" s="14" t="s">
@@ -17428,7 +17495,7 @@
     </row>
     <row r="42">
       <c r="A42" s="24" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="B42" s="16"/>
       <c r="C42" s="14" t="s">
@@ -17475,10 +17542,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="2">
@@ -17488,7 +17555,7 @@
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
@@ -17500,7 +17567,7 @@
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
@@ -17547,22 +17614,22 @@
         <v>462</v>
       </c>
       <c r="E1" s="235" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="F1" s="235" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="H1" s="236" t="s">
         <v>471</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="2">
@@ -17570,16 +17637,16 @@
         <v>380</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="D2" s="237"/>
       <c r="F2" s="236"/>
       <c r="H2" s="238"/>
       <c r="J2" s="5" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="3">
@@ -17587,17 +17654,17 @@
         <v>383</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="D3" s="238"/>
       <c r="E3" s="236"/>
       <c r="F3" s="236"/>
       <c r="H3" s="236"/>
       <c r="J3" s="5" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="4">
@@ -17605,17 +17672,17 @@
         <v>386</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="D4" s="238"/>
       <c r="E4" s="236"/>
       <c r="F4" s="236"/>
       <c r="H4" s="236"/>
       <c r="J4" s="5" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="5">
@@ -17623,17 +17690,17 @@
         <v>388</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="D5" s="236"/>
       <c r="E5" s="236"/>
       <c r="F5" s="236"/>
       <c r="H5" s="238"/>
       <c r="J5" s="5" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="6">
@@ -17641,10 +17708,10 @@
         <v>391</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="D6" s="236"/>
       <c r="E6" s="106"/>
@@ -17653,7 +17720,7 @@
         <v>458</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="7">
@@ -17661,17 +17728,17 @@
         <v>398</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="D7" s="236"/>
       <c r="E7" s="236"/>
       <c r="F7" s="236"/>
       <c r="H7" s="236"/>
       <c r="J7" s="5" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="8">
@@ -17679,10 +17746,10 @@
         <v>412</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="D8" s="236"/>
       <c r="E8" s="236"/>
@@ -17690,7 +17757,7 @@
       <c r="G8" s="236"/>
       <c r="H8" s="236"/>
       <c r="J8" s="5" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="9">
@@ -17698,17 +17765,17 @@
         <v>418</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="D9" s="236"/>
       <c r="E9" s="236"/>
       <c r="F9" s="236"/>
       <c r="H9" s="236"/>
       <c r="J9" s="5" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="10">
@@ -17716,17 +17783,17 @@
         <v>424</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="D10" s="236"/>
       <c r="E10" s="236"/>
       <c r="F10" s="236"/>
       <c r="H10" s="238"/>
       <c r="J10" s="5" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="11">
@@ -17734,10 +17801,10 @@
         <v>430</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="D11" s="236"/>
       <c r="E11" s="236"/>
@@ -17745,7 +17812,7 @@
       <c r="G11" s="236"/>
       <c r="H11" s="236"/>
       <c r="J11" s="14" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="12">
@@ -17753,10 +17820,10 @@
         <v>415</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="D12" s="236"/>
       <c r="E12" s="236"/>
@@ -17764,7 +17831,7 @@
       <c r="G12" s="236"/>
       <c r="H12" s="236"/>
       <c r="J12" s="5" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="13">
@@ -17772,17 +17839,17 @@
         <v>421</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="D13" s="236"/>
       <c r="E13" s="236"/>
       <c r="F13" s="236"/>
       <c r="H13" s="236"/>
       <c r="J13" s="5" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="14">
@@ -17790,17 +17857,17 @@
         <v>427</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="D14" s="236"/>
       <c r="E14" s="236"/>
       <c r="F14" s="236"/>
       <c r="H14" s="238"/>
       <c r="J14" s="5" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="15">
@@ -17808,10 +17875,10 @@
         <v>433</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="D15" s="236"/>
       <c r="E15" s="236"/>
@@ -17819,7 +17886,7 @@
       <c r="G15" s="236"/>
       <c r="H15" s="236"/>
       <c r="J15" s="14" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="16">
@@ -17827,10 +17894,10 @@
         <v>435</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="D16" s="238"/>
       <c r="E16" s="236"/>
@@ -17839,7 +17906,7 @@
         <v>458</v>
       </c>
       <c r="J16" s="240" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="17">
@@ -17847,18 +17914,18 @@
         <v>438</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="E17" s="236"/>
       <c r="F17" s="241"/>
       <c r="H17" s="34" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="J17" s="240" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="18">
@@ -17866,10 +17933,10 @@
         <v>442</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="E18" s="236"/>
       <c r="F18" s="241"/>
@@ -17877,7 +17944,7 @@
         <v>458</v>
       </c>
       <c r="J18" s="240" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
     </row>
   </sheetData>
@@ -17903,66 +17970,66 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="242" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="242" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>1315</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1313</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="242" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="5" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5"/>
       <c r="B6" s="243" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5"/>
       <c r="B7" s="243" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
     </row>
   </sheetData>

--- a/models/ard-arm-cardiac/source/ard-arm-cardiac.xlsx
+++ b/models/ard-arm-cardiac/source/ard-arm-cardiac.xlsx
@@ -888,7 +888,7 @@
     <t>A80, A81, A75, A76, A77, A78</t>
   </si>
   <si>
-    <t>0,0,5,5,5,5</t>
+    <t>5,5,0,0,0,0</t>
   </si>
   <si>
     <t>A83, A87, A88, A89, A90, A91</t>
@@ -4428,7 +4428,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4467,14 +4467,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="0"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -4503,8 +4503,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA4C2F4"/>
+        <bgColor rgb="FFA4C2F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFEA9999"/>
         <bgColor rgb="FFEA9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8E7CC3"/>
+        <bgColor rgb="FF8E7CC3"/>
       </patternFill>
     </fill>
     <fill>
@@ -4579,7 +4591,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="267">
+  <cellXfs count="271">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4738,45 +4750,48 @@
     <xf borderId="2" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4837,7 +4852,7 @@
     <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -4858,7 +4873,7 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -4999,7 +5014,7 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5017,127 +5032,136 @@
     <xf borderId="0" fillId="5" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="16" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="17" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="17" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="17" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="17" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="17" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="17" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="17" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="17" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="18" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="16" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5146,7 +5170,7 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="18" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -5173,7 +5197,7 @@
     <xf borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="17" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="19" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5185,7 +5209,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="18" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="20" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5194,7 +5218,7 @@
     <xf borderId="0" fillId="9" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="19" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="21" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5234,7 +5258,7 @@
     <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="20" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="22" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5246,7 +5270,7 @@
     <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="20" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="22" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5285,7 +5309,7 @@
     <xf borderId="0" fillId="3" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5671,90 +5695,90 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="108" t="s">
         <v>1324</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="108" t="s">
         <v>1325</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="260" t="s">
         <v>1326</v>
       </c>
-      <c r="B2" s="257" t="s">
+      <c r="B2" s="261" t="s">
         <v>1327</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="260" t="s">
         <v>1328</v>
       </c>
-      <c r="B3" s="258" t="s">
+      <c r="B3" s="262" t="s">
         <v>1329</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="256" t="s">
+      <c r="A4" s="260" t="s">
         <v>1330</v>
       </c>
-      <c r="B4" s="259" t="s">
+      <c r="B4" s="263" t="s">
         <v>1331</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="256" t="s">
+      <c r="A5" s="260" t="s">
         <v>1332</v>
       </c>
-      <c r="B5" s="259" t="s">
+      <c r="B5" s="263" t="s">
         <v>1333</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="256" t="s">
+      <c r="A6" s="260" t="s">
         <v>1334</v>
       </c>
-      <c r="B6" s="259" t="s">
+      <c r="B6" s="263" t="s">
         <v>1335</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="256" t="s">
+      <c r="A7" s="260" t="s">
         <v>1336</v>
       </c>
-      <c r="B7" s="259" t="s">
+      <c r="B7" s="263" t="s">
         <v>1337</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="256" t="s">
+      <c r="A8" s="260" t="s">
         <v>1338</v>
       </c>
-      <c r="B8" s="259" t="s">
+      <c r="B8" s="263" t="s">
         <v>1339</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="256" t="s">
+      <c r="A9" s="260" t="s">
         <v>1340</v>
       </c>
-      <c r="B9" s="259" t="s">
+      <c r="B9" s="263" t="s">
         <v>1341</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="256" t="s">
+      <c r="A10" s="260" t="s">
         <v>1342</v>
       </c>
-      <c r="B10" s="259" t="s">
+      <c r="B10" s="263" t="s">
         <v>1343</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="256" t="s">
+      <c r="A11" s="260" t="s">
         <v>1344</v>
       </c>
-      <c r="B11" s="259" t="s">
+      <c r="B11" s="263" t="s">
         <v>1345</v>
       </c>
     </row>
@@ -5762,7 +5786,7 @@
       <c r="A12" s="5" t="s">
         <v>1346</v>
       </c>
-      <c r="B12" s="260" t="s">
+      <c r="B12" s="264" t="s">
         <v>1347</v>
       </c>
     </row>
@@ -5770,7 +5794,7 @@
       <c r="A13" s="25" t="s">
         <v>1348</v>
       </c>
-      <c r="B13" s="261" t="s">
+      <c r="B13" s="265" t="s">
         <v>1349</v>
       </c>
     </row>
@@ -5778,7 +5802,7 @@
       <c r="A14" s="25" t="s">
         <v>1350</v>
       </c>
-      <c r="B14" s="262" t="s">
+      <c r="B14" s="266" t="s">
         <v>1351</v>
       </c>
     </row>
@@ -6014,7 +6038,7 @@
       <c r="A12" s="16" t="s">
         <v>1369</v>
       </c>
-      <c r="B12" s="263" t="s">
+      <c r="B12" s="267" t="s">
         <v>1370</v>
       </c>
       <c r="C12" s="16"/>
@@ -6032,7 +6056,7 @@
       <c r="A13" s="16" t="s">
         <v>1371</v>
       </c>
-      <c r="B13" s="263" t="s">
+      <c r="B13" s="267" t="s">
         <v>1372</v>
       </c>
       <c r="C13" s="16"/>
@@ -6050,7 +6074,7 @@
       <c r="A14" s="16" t="s">
         <v>1373</v>
       </c>
-      <c r="B14" s="263" t="s">
+      <c r="B14" s="267" t="s">
         <v>1374</v>
       </c>
       <c r="C14" s="16"/>
@@ -6068,7 +6092,7 @@
       <c r="A15" s="16" t="s">
         <v>1375</v>
       </c>
-      <c r="B15" s="263" t="s">
+      <c r="B15" s="267" t="s">
         <v>1376</v>
       </c>
       <c r="C15" s="16"/>
@@ -6086,7 +6110,7 @@
       <c r="A16" s="14" t="s">
         <v>1377</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="93" t="s">
         <v>1378</v>
       </c>
       <c r="C16" s="16"/>
@@ -6136,7 +6160,7 @@
       <c r="A19" s="16" t="s">
         <v>1380</v>
       </c>
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="93" t="s">
         <v>1381</v>
       </c>
       <c r="C19" s="16"/>
@@ -6154,25 +6178,25 @@
       <c r="A20" s="16" t="s">
         <v>1382</v>
       </c>
-      <c r="B20" s="115" t="s">
+      <c r="B20" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="264"/>
-      <c r="D20" s="264"/>
-      <c r="E20" s="264"/>
-      <c r="F20" s="264"/>
-      <c r="G20" s="264"/>
-      <c r="H20" s="264"/>
-      <c r="I20" s="264"/>
-      <c r="J20" s="264"/>
-      <c r="K20" s="264"/>
+      <c r="C20" s="268"/>
+      <c r="D20" s="268"/>
+      <c r="E20" s="268"/>
+      <c r="F20" s="268"/>
+      <c r="G20" s="268"/>
+      <c r="H20" s="268"/>
+      <c r="I20" s="268"/>
+      <c r="J20" s="268"/>
+      <c r="K20" s="268"/>
       <c r="L20" s="16"/>
     </row>
     <row r="21">
       <c r="A21" s="16" t="s">
         <v>1383</v>
       </c>
-      <c r="B21" s="115" t="s">
+      <c r="B21" s="116" t="s">
         <v>1384</v>
       </c>
       <c r="L21" s="16"/>
@@ -6202,39 +6226,39 @@
       <c r="L27" s="16"/>
     </row>
     <row r="28">
-      <c r="A28" s="264" t="s">
+      <c r="A28" s="268" t="s">
         <v>1385</v>
       </c>
-      <c r="B28" s="265" t="s">
+      <c r="B28" s="269" t="s">
         <v>1386</v>
       </c>
       <c r="L28" s="16"/>
     </row>
     <row r="29">
-      <c r="A29" s="264" t="s">
+      <c r="A29" s="268" t="s">
         <v>1387</v>
       </c>
-      <c r="B29" s="266" t="s">
+      <c r="B29" s="270" t="s">
         <v>1388</v>
       </c>
       <c r="L29" s="16"/>
     </row>
     <row r="30">
-      <c r="A30" s="264" t="s">
+      <c r="A30" s="268" t="s">
         <v>1389</v>
       </c>
-      <c r="B30" s="260" t="s">
+      <c r="B30" s="264" t="s">
         <v>1390</v>
       </c>
-      <c r="C30" s="265"/>
-      <c r="D30" s="265"/>
-      <c r="E30" s="265"/>
-      <c r="F30" s="265"/>
-      <c r="G30" s="265"/>
-      <c r="H30" s="265"/>
-      <c r="I30" s="265"/>
-      <c r="J30" s="265"/>
-      <c r="K30" s="265"/>
+      <c r="C30" s="269"/>
+      <c r="D30" s="269"/>
+      <c r="E30" s="269"/>
+      <c r="F30" s="269"/>
+      <c r="G30" s="269"/>
+      <c r="H30" s="269"/>
+      <c r="I30" s="269"/>
+      <c r="J30" s="269"/>
+      <c r="K30" s="269"/>
       <c r="L30" s="16"/>
     </row>
     <row r="31" hidden="1">
@@ -6251,16 +6275,16 @@
     </row>
     <row r="33">
       <c r="A33" s="16"/>
-      <c r="B33" s="264"/>
-      <c r="C33" s="264"/>
-      <c r="D33" s="264"/>
-      <c r="E33" s="264"/>
-      <c r="F33" s="264"/>
-      <c r="G33" s="264"/>
-      <c r="H33" s="264"/>
-      <c r="I33" s="264"/>
-      <c r="J33" s="264"/>
-      <c r="K33" s="264"/>
+      <c r="B33" s="268"/>
+      <c r="C33" s="268"/>
+      <c r="D33" s="268"/>
+      <c r="E33" s="268"/>
+      <c r="F33" s="268"/>
+      <c r="G33" s="268"/>
+      <c r="H33" s="268"/>
+      <c r="I33" s="268"/>
+      <c r="J33" s="268"/>
+      <c r="K33" s="268"/>
       <c r="L33" s="16"/>
     </row>
   </sheetData>
@@ -6300,8 +6324,8 @@
     <col customWidth="1" min="6" max="6" width="2.75"/>
     <col customWidth="1" min="7" max="7" width="36.13"/>
     <col customWidth="1" min="8" max="8" width="9.5"/>
-    <col customWidth="1" min="9" max="9" width="1.5"/>
-    <col customWidth="1" min="10" max="10" width="1.63"/>
+    <col customWidth="1" min="9" max="9" width="3.75"/>
+    <col customWidth="1" min="10" max="10" width="4.0"/>
     <col customWidth="1" min="11" max="11" width="9.63"/>
     <col customWidth="1" min="12" max="13" width="8.88"/>
     <col customWidth="1" min="14" max="14" width="14.25"/>
@@ -8425,7 +8449,7 @@
       <c r="G75" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="H75" s="24" t="s">
+      <c r="H75" s="54" t="s">
         <v>278</v>
       </c>
       <c r="I75" s="16"/>
@@ -8442,32 +8466,32 @@
       <c r="R75" s="16"/>
     </row>
     <row r="76">
-      <c r="A76" s="54" t="s">
+      <c r="A76" s="55" t="s">
         <v>280</v>
       </c>
-      <c r="B76" s="55" t="s">
+      <c r="B76" s="56" t="s">
         <v>281</v>
       </c>
-      <c r="C76" s="56" t="s">
+      <c r="C76" s="57" t="s">
         <v>282</v>
       </c>
-      <c r="D76" s="57"/>
-      <c r="E76" s="58"/>
-      <c r="F76" s="57"/>
-      <c r="G76" s="59"/>
-      <c r="H76" s="59"/>
-      <c r="I76" s="57"/>
-      <c r="J76" s="57"/>
-      <c r="K76" s="55" t="s">
+      <c r="D76" s="58"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="58"/>
+      <c r="G76" s="60"/>
+      <c r="H76" s="60"/>
+      <c r="I76" s="58"/>
+      <c r="J76" s="58"/>
+      <c r="K76" s="56" t="s">
         <v>283</v>
       </c>
-      <c r="L76" s="58"/>
-      <c r="M76" s="57"/>
-      <c r="N76" s="59"/>
-      <c r="O76" s="57"/>
-      <c r="P76" s="57"/>
-      <c r="Q76" s="57"/>
-      <c r="R76" s="57"/>
+      <c r="L76" s="59"/>
+      <c r="M76" s="58"/>
+      <c r="N76" s="60"/>
+      <c r="O76" s="58"/>
+      <c r="P76" s="58"/>
+      <c r="Q76" s="58"/>
+      <c r="R76" s="58"/>
     </row>
     <row r="77">
       <c r="A77" s="40" t="s">
@@ -8476,14 +8500,14 @@
       <c r="B77" s="41" t="s">
         <v>285</v>
       </c>
-      <c r="C77" s="60" t="s">
+      <c r="C77" s="61" t="s">
         <v>286</v>
       </c>
       <c r="D77" s="43"/>
       <c r="E77" s="44"/>
       <c r="F77" s="43"/>
-      <c r="G77" s="61"/>
-      <c r="H77" s="61"/>
+      <c r="G77" s="62"/>
+      <c r="H77" s="62"/>
       <c r="I77" s="43"/>
       <c r="J77" s="43"/>
       <c r="K77" s="41" t="s">
@@ -8498,32 +8522,32 @@
       <c r="R77" s="43"/>
     </row>
     <row r="78">
-      <c r="A78" s="54" t="s">
+      <c r="A78" s="55" t="s">
         <v>287</v>
       </c>
-      <c r="B78" s="55" t="s">
+      <c r="B78" s="56" t="s">
         <v>288</v>
       </c>
-      <c r="C78" s="62" t="s">
+      <c r="C78" s="63" t="s">
         <v>289</v>
       </c>
-      <c r="D78" s="57"/>
-      <c r="E78" s="58"/>
-      <c r="F78" s="57"/>
-      <c r="G78" s="63"/>
-      <c r="H78" s="64"/>
-      <c r="I78" s="57"/>
-      <c r="J78" s="57"/>
-      <c r="K78" s="55" t="s">
+      <c r="D78" s="58"/>
+      <c r="E78" s="59"/>
+      <c r="F78" s="58"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="65"/>
+      <c r="I78" s="58"/>
+      <c r="J78" s="58"/>
+      <c r="K78" s="56" t="s">
         <v>283</v>
       </c>
-      <c r="L78" s="58"/>
-      <c r="M78" s="57"/>
-      <c r="N78" s="63"/>
-      <c r="O78" s="57"/>
-      <c r="P78" s="57"/>
-      <c r="Q78" s="57"/>
-      <c r="R78" s="57"/>
+      <c r="L78" s="59"/>
+      <c r="M78" s="58"/>
+      <c r="N78" s="64"/>
+      <c r="O78" s="58"/>
+      <c r="P78" s="58"/>
+      <c r="Q78" s="58"/>
+      <c r="R78" s="58"/>
     </row>
     <row r="79">
       <c r="A79" s="40" t="s">
@@ -8532,14 +8556,14 @@
       <c r="B79" s="41" t="s">
         <v>291</v>
       </c>
-      <c r="C79" s="60" t="s">
+      <c r="C79" s="61" t="s">
         <v>292</v>
       </c>
       <c r="D79" s="43"/>
-      <c r="E79" s="65"/>
+      <c r="E79" s="66"/>
       <c r="F79" s="43"/>
       <c r="G79" s="45"/>
-      <c r="H79" s="61"/>
+      <c r="H79" s="62"/>
       <c r="I79" s="43"/>
       <c r="J79" s="43"/>
       <c r="K79" s="41" t="s">
@@ -8554,7 +8578,7 @@
       <c r="R79" s="43"/>
     </row>
     <row r="80">
-      <c r="A80" s="66" t="s">
+      <c r="A80" s="67" t="s">
         <v>293</v>
       </c>
       <c r="B80" s="14" t="s">
@@ -8566,16 +8590,16 @@
       <c r="D80" s="16"/>
       <c r="E80" s="50"/>
       <c r="F80" s="16"/>
-      <c r="G80" s="67"/>
+      <c r="G80" s="68"/>
       <c r="H80" s="24"/>
       <c r="I80" s="16"/>
       <c r="J80" s="16"/>
-      <c r="K80" s="68" t="s">
+      <c r="K80" s="69" t="s">
         <v>296</v>
       </c>
       <c r="L80" s="25"/>
       <c r="M80" s="16"/>
-      <c r="N80" s="69"/>
+      <c r="N80" s="70"/>
       <c r="O80" s="16"/>
       <c r="P80" s="16"/>
       <c r="Q80" s="16"/>
@@ -8588,11 +8612,11 @@
       <c r="B81" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="C81" s="70" t="s">
+      <c r="C81" s="71" t="s">
         <v>299</v>
       </c>
       <c r="D81" s="16"/>
-      <c r="E81" s="71"/>
+      <c r="E81" s="72"/>
       <c r="F81" s="16"/>
       <c r="G81" s="24" t="s">
         <v>300</v>
@@ -8618,11 +8642,11 @@
       <c r="B82" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="C82" s="70" t="s">
+      <c r="C82" s="71" t="s">
         <v>304</v>
       </c>
       <c r="D82" s="16"/>
-      <c r="E82" s="71"/>
+      <c r="E82" s="72"/>
       <c r="F82" s="16"/>
       <c r="G82" s="24" t="s">
         <v>305</v>
@@ -8682,7 +8706,7 @@
         <v>312</v>
       </c>
       <c r="D84" s="16"/>
-      <c r="E84" s="71"/>
+      <c r="E84" s="72"/>
       <c r="F84" s="16"/>
       <c r="G84" s="15"/>
       <c r="H84" s="24"/>
@@ -8708,13 +8732,13 @@
         <v>315</v>
       </c>
       <c r="D85" s="16"/>
-      <c r="E85" s="71"/>
+      <c r="E85" s="72"/>
       <c r="F85" s="16"/>
       <c r="G85" s="25"/>
       <c r="H85" s="17"/>
       <c r="I85" s="16"/>
       <c r="J85" s="16"/>
-      <c r="K85" s="72"/>
+      <c r="K85" s="73"/>
       <c r="L85" s="25"/>
       <c r="M85" s="16"/>
       <c r="N85" s="25"/>
@@ -8724,32 +8748,32 @@
       <c r="R85" s="16"/>
     </row>
     <row r="86">
-      <c r="A86" s="73" t="s">
+      <c r="A86" s="74" t="s">
         <v>316</v>
       </c>
-      <c r="B86" s="74" t="s">
+      <c r="B86" s="75" t="s">
         <v>317</v>
       </c>
-      <c r="C86" s="74" t="s">
+      <c r="C86" s="75" t="s">
         <v>318</v>
       </c>
-      <c r="D86" s="75"/>
-      <c r="E86" s="76"/>
-      <c r="F86" s="75"/>
-      <c r="G86" s="77"/>
-      <c r="H86" s="78"/>
-      <c r="I86" s="75"/>
-      <c r="J86" s="75"/>
-      <c r="K86" s="79" t="s">
+      <c r="D86" s="76"/>
+      <c r="E86" s="77"/>
+      <c r="F86" s="76"/>
+      <c r="G86" s="78"/>
+      <c r="H86" s="79"/>
+      <c r="I86" s="76"/>
+      <c r="J86" s="76"/>
+      <c r="K86" s="80" t="s">
         <v>296</v>
       </c>
-      <c r="L86" s="77"/>
-      <c r="M86" s="75"/>
-      <c r="N86" s="77"/>
-      <c r="O86" s="75"/>
-      <c r="P86" s="75"/>
-      <c r="Q86" s="75"/>
-      <c r="R86" s="75"/>
+      <c r="L86" s="78"/>
+      <c r="M86" s="76"/>
+      <c r="N86" s="78"/>
+      <c r="O86" s="76"/>
+      <c r="P86" s="76"/>
+      <c r="Q86" s="76"/>
+      <c r="R86" s="76"/>
     </row>
     <row r="87">
       <c r="A87" s="15" t="s">
@@ -8762,13 +8786,13 @@
         <v>321</v>
       </c>
       <c r="D87" s="16"/>
-      <c r="E87" s="71"/>
+      <c r="E87" s="72"/>
       <c r="F87" s="16"/>
       <c r="G87" s="14"/>
       <c r="H87" s="17"/>
       <c r="I87" s="16"/>
       <c r="J87" s="16"/>
-      <c r="K87" s="72"/>
+      <c r="K87" s="73"/>
       <c r="L87" s="25"/>
       <c r="M87" s="16"/>
       <c r="N87" s="25"/>
@@ -8788,13 +8812,13 @@
         <v>324</v>
       </c>
       <c r="D88" s="16"/>
-      <c r="E88" s="71"/>
+      <c r="E88" s="72"/>
       <c r="F88" s="16"/>
       <c r="G88" s="25"/>
       <c r="H88" s="17"/>
       <c r="I88" s="16"/>
       <c r="J88" s="16"/>
-      <c r="K88" s="72"/>
+      <c r="K88" s="73"/>
       <c r="L88" s="25"/>
       <c r="M88" s="16"/>
       <c r="N88" s="25"/>
@@ -8814,13 +8838,13 @@
         <v>327</v>
       </c>
       <c r="D89" s="16"/>
-      <c r="E89" s="71"/>
+      <c r="E89" s="72"/>
       <c r="F89" s="16"/>
       <c r="G89" s="25"/>
       <c r="H89" s="17"/>
       <c r="I89" s="16"/>
       <c r="J89" s="16"/>
-      <c r="K89" s="72"/>
+      <c r="K89" s="73"/>
       <c r="L89" s="25"/>
       <c r="M89" s="16"/>
       <c r="N89" s="25"/>
@@ -8840,13 +8864,13 @@
         <v>330</v>
       </c>
       <c r="D90" s="16"/>
-      <c r="E90" s="71"/>
+      <c r="E90" s="72"/>
       <c r="F90" s="16"/>
       <c r="G90" s="25"/>
       <c r="H90" s="17"/>
       <c r="I90" s="16"/>
       <c r="J90" s="16"/>
-      <c r="K90" s="72"/>
+      <c r="K90" s="73"/>
       <c r="L90" s="25"/>
       <c r="M90" s="16"/>
       <c r="N90" s="25"/>
@@ -8866,13 +8890,13 @@
         <v>333</v>
       </c>
       <c r="D91" s="16"/>
-      <c r="E91" s="71"/>
+      <c r="E91" s="72"/>
       <c r="F91" s="16"/>
       <c r="G91" s="25"/>
       <c r="H91" s="17"/>
       <c r="I91" s="16"/>
       <c r="J91" s="16"/>
-      <c r="K91" s="72"/>
+      <c r="K91" s="73"/>
       <c r="L91" s="25"/>
       <c r="M91" s="16"/>
       <c r="N91" s="25"/>
@@ -8882,49 +8906,49 @@
       <c r="R91" s="16"/>
     </row>
     <row r="92">
-      <c r="A92" s="80" t="s">
+      <c r="A92" s="81" t="s">
         <v>334</v>
       </c>
-      <c r="B92" s="81" t="s">
+      <c r="B92" s="82" t="s">
         <v>335</v>
       </c>
-      <c r="C92" s="80" t="s">
+      <c r="C92" s="81" t="s">
         <v>336</v>
       </c>
-      <c r="D92" s="82"/>
-      <c r="E92" s="83"/>
-      <c r="F92" s="82"/>
-      <c r="G92" s="80"/>
-      <c r="H92" s="84"/>
-      <c r="I92" s="82"/>
-      <c r="J92" s="82"/>
-      <c r="K92" s="85"/>
-      <c r="L92" s="86"/>
-      <c r="M92" s="82"/>
-      <c r="N92" s="86"/>
-      <c r="O92" s="82"/>
-      <c r="P92" s="82"/>
-      <c r="Q92" s="82"/>
-      <c r="R92" s="82"/>
+      <c r="D92" s="83"/>
+      <c r="E92" s="84"/>
+      <c r="F92" s="83"/>
+      <c r="G92" s="81"/>
+      <c r="H92" s="85"/>
+      <c r="I92" s="83"/>
+      <c r="J92" s="83"/>
+      <c r="K92" s="86"/>
+      <c r="L92" s="87"/>
+      <c r="M92" s="83"/>
+      <c r="N92" s="87"/>
+      <c r="O92" s="83"/>
+      <c r="P92" s="83"/>
+      <c r="Q92" s="83"/>
+      <c r="R92" s="83"/>
     </row>
     <row r="93">
       <c r="A93" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="B93" s="87" t="s">
+      <c r="B93" s="88" t="s">
         <v>338</v>
       </c>
       <c r="C93" s="28" t="s">
         <v>339</v>
       </c>
       <c r="D93" s="16"/>
-      <c r="E93" s="71"/>
+      <c r="E93" s="72"/>
       <c r="F93" s="16"/>
       <c r="G93" s="25"/>
       <c r="H93" s="17"/>
       <c r="I93" s="16"/>
       <c r="J93" s="16"/>
-      <c r="K93" s="72"/>
+      <c r="K93" s="73"/>
       <c r="L93" s="25"/>
       <c r="M93" s="16"/>
       <c r="N93" s="25"/>
@@ -8937,7 +8961,7 @@
       <c r="A94" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="B94" s="87" t="s">
+      <c r="B94" s="88" t="s">
         <v>341</v>
       </c>
       <c r="C94" s="28" t="s">
@@ -8950,7 +8974,7 @@
       <c r="H94" s="17"/>
       <c r="I94" s="16"/>
       <c r="J94" s="16"/>
-      <c r="K94" s="72"/>
+      <c r="K94" s="73"/>
       <c r="L94" s="25"/>
       <c r="M94" s="16"/>
       <c r="N94" s="25"/>
@@ -8963,10 +8987,10 @@
       <c r="A95" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="B95" s="87" t="s">
+      <c r="B95" s="88" t="s">
         <v>344</v>
       </c>
-      <c r="C95" s="88" t="s">
+      <c r="C95" s="89" t="s">
         <v>345</v>
       </c>
       <c r="D95" s="16"/>
@@ -8976,7 +9000,7 @@
       <c r="H95" s="17"/>
       <c r="I95" s="16"/>
       <c r="J95" s="16"/>
-      <c r="K95" s="72"/>
+      <c r="K95" s="73"/>
       <c r="L95" s="25"/>
       <c r="M95" s="16"/>
       <c r="N95" s="25"/>
@@ -8986,7 +9010,7 @@
       <c r="R95" s="16"/>
     </row>
     <row r="96" ht="30.0" customHeight="1">
-      <c r="A96" s="66" t="s">
+      <c r="A96" s="67" t="s">
         <v>346</v>
       </c>
       <c r="B96" s="14" t="s">
@@ -8996,13 +9020,13 @@
         <v>348</v>
       </c>
       <c r="D96" s="16"/>
-      <c r="E96" s="89"/>
+      <c r="E96" s="90"/>
       <c r="F96" s="16"/>
       <c r="G96" s="25"/>
       <c r="H96" s="17"/>
       <c r="I96" s="16"/>
       <c r="J96" s="16"/>
-      <c r="K96" s="68" t="s">
+      <c r="K96" s="69" t="s">
         <v>296</v>
       </c>
       <c r="L96" s="25"/>
@@ -9024,7 +9048,7 @@
         <v>350</v>
       </c>
       <c r="D97" s="16"/>
-      <c r="E97" s="89" t="b">
+      <c r="E97" s="90" t="b">
         <v>1</v>
       </c>
       <c r="F97" s="16"/>
@@ -9032,7 +9056,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="16"/>
       <c r="J97" s="16"/>
-      <c r="K97" s="90" t="s">
+      <c r="K97" s="91" t="s">
         <v>351</v>
       </c>
       <c r="L97" s="25"/>
@@ -9046,7 +9070,7 @@
       <c r="R97" s="16"/>
     </row>
     <row r="98">
-      <c r="A98" s="91" t="s">
+      <c r="A98" s="92" t="s">
         <v>353</v>
       </c>
       <c r="B98" s="14" t="s">
@@ -9064,7 +9088,7 @@
       <c r="H98" s="17"/>
       <c r="I98" s="16"/>
       <c r="J98" s="16"/>
-      <c r="K98" s="92" t="s">
+      <c r="K98" s="93" t="s">
         <v>356</v>
       </c>
       <c r="L98" s="14"/>
@@ -9076,7 +9100,7 @@
       <c r="R98" s="16"/>
     </row>
     <row r="99">
-      <c r="A99" s="93" t="s">
+      <c r="A99" s="94" t="s">
         <v>357</v>
       </c>
       <c r="B99" s="14" t="s">
@@ -9096,7 +9120,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="16"/>
       <c r="J99" s="16"/>
-      <c r="K99" s="92"/>
+      <c r="K99" s="93"/>
       <c r="L99" s="14">
         <v>229.0</v>
       </c>
@@ -9121,15 +9145,15 @@
       <c r="E100" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="F100" s="94" t="s">
+      <c r="F100" s="95" t="s">
         <v>362</v>
       </c>
       <c r="G100" s="25"/>
       <c r="H100" s="17"/>
       <c r="I100" s="16"/>
       <c r="J100" s="48"/>
-      <c r="K100" s="92"/>
-      <c r="L100" s="95">
+      <c r="K100" s="93"/>
+      <c r="L100" s="96">
         <v>229.0</v>
       </c>
       <c r="M100" s="16"/>
@@ -9153,14 +9177,14 @@
       <c r="E101" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="F101" s="96" t="s">
+      <c r="F101" s="97" t="s">
         <v>366</v>
       </c>
       <c r="G101" s="25"/>
       <c r="H101" s="17"/>
       <c r="I101" s="16"/>
       <c r="J101" s="16"/>
-      <c r="K101" s="92" t="s">
+      <c r="K101" s="93" t="s">
         <v>356</v>
       </c>
       <c r="L101" s="16"/>
@@ -9185,14 +9209,14 @@
       <c r="E102" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="F102" s="96" t="s">
+      <c r="F102" s="97" t="s">
         <v>369</v>
       </c>
       <c r="G102" s="25"/>
       <c r="H102" s="17"/>
       <c r="I102" s="16"/>
       <c r="J102" s="16"/>
-      <c r="K102" s="92" t="s">
+      <c r="K102" s="93" t="s">
         <v>356</v>
       </c>
       <c r="L102" s="16"/>
@@ -9207,7 +9231,7 @@
       <c r="A103" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="B103" s="68" t="s">
+      <c r="B103" s="69" t="s">
         <v>371</v>
       </c>
       <c r="C103" s="25" t="s">
@@ -9217,14 +9241,14 @@
       <c r="E103" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="F103" s="96" t="s">
+      <c r="F103" s="97" t="s">
         <v>366</v>
       </c>
       <c r="G103" s="25"/>
       <c r="H103" s="17"/>
       <c r="I103" s="16"/>
       <c r="J103" s="16"/>
-      <c r="K103" s="92" t="s">
+      <c r="K103" s="93" t="s">
         <v>356</v>
       </c>
       <c r="L103" s="16"/>
@@ -9239,7 +9263,7 @@
       <c r="A104" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="B104" s="68" t="s">
+      <c r="B104" s="69" t="s">
         <v>374</v>
       </c>
       <c r="C104" s="25" t="s">
@@ -9249,7 +9273,7 @@
       <c r="E104" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="F104" s="96" t="s">
+      <c r="F104" s="97" t="s">
         <v>369</v>
       </c>
       <c r="G104" s="25"/>
@@ -9276,7 +9300,7 @@
         <v>377</v>
       </c>
       <c r="D105" s="48"/>
-      <c r="E105" s="97" t="b">
+      <c r="E105" s="98" t="b">
         <v>1</v>
       </c>
       <c r="F105" s="15" t="s">
@@ -9307,7 +9331,7 @@
       </c>
       <c r="D106" s="48"/>
       <c r="E106" s="50"/>
-      <c r="F106" s="96" t="s">
+      <c r="F106" s="97" t="s">
         <v>369</v>
       </c>
       <c r="G106" s="15"/>
@@ -9339,7 +9363,7 @@
       </c>
       <c r="D107" s="48"/>
       <c r="E107" s="25"/>
-      <c r="F107" s="96" t="s">
+      <c r="F107" s="97" t="s">
         <v>369</v>
       </c>
       <c r="G107" s="16"/>
@@ -9371,7 +9395,7 @@
       </c>
       <c r="D108" s="48"/>
       <c r="E108" s="25"/>
-      <c r="F108" s="96" t="s">
+      <c r="F108" s="97" t="s">
         <v>369</v>
       </c>
       <c r="G108" s="16"/>
@@ -9403,7 +9427,7 @@
       </c>
       <c r="D109" s="48"/>
       <c r="E109" s="25"/>
-      <c r="F109" s="96" t="s">
+      <c r="F109" s="97" t="s">
         <v>369</v>
       </c>
       <c r="G109" s="16"/>
@@ -9435,7 +9459,7 @@
       </c>
       <c r="D110" s="48"/>
       <c r="E110" s="25"/>
-      <c r="F110" s="96" t="s">
+      <c r="F110" s="97" t="s">
         <v>369</v>
       </c>
       <c r="G110" s="16"/>
@@ -9465,7 +9489,7 @@
       </c>
       <c r="D111" s="48"/>
       <c r="E111" s="25"/>
-      <c r="F111" s="96" t="s">
+      <c r="F111" s="97" t="s">
         <v>369</v>
       </c>
       <c r="G111" s="16"/>
@@ -9497,7 +9521,7 @@
       </c>
       <c r="D112" s="48"/>
       <c r="E112" s="25"/>
-      <c r="F112" s="96" t="s">
+      <c r="F112" s="97" t="s">
         <v>369</v>
       </c>
       <c r="G112" s="16"/>
@@ -9527,7 +9551,7 @@
       </c>
       <c r="D113" s="48"/>
       <c r="E113" s="25"/>
-      <c r="F113" s="96" t="s">
+      <c r="F113" s="97" t="s">
         <v>369</v>
       </c>
       <c r="G113" s="16"/>
@@ -9557,7 +9581,7 @@
       </c>
       <c r="D114" s="48"/>
       <c r="E114" s="25"/>
-      <c r="F114" s="96" t="s">
+      <c r="F114" s="97" t="s">
         <v>369</v>
       </c>
       <c r="G114" s="16"/>
@@ -9587,7 +9611,7 @@
       </c>
       <c r="D115" s="48"/>
       <c r="E115" s="25"/>
-      <c r="F115" s="96" t="s">
+      <c r="F115" s="97" t="s">
         <v>369</v>
       </c>
       <c r="G115" s="16"/>
@@ -9617,7 +9641,7 @@
       </c>
       <c r="D116" s="48"/>
       <c r="E116" s="25"/>
-      <c r="F116" s="96" t="s">
+      <c r="F116" s="97" t="s">
         <v>369</v>
       </c>
       <c r="G116" s="16"/>
@@ -9647,7 +9671,7 @@
       </c>
       <c r="D117" s="48"/>
       <c r="E117" s="25"/>
-      <c r="F117" s="96" t="s">
+      <c r="F117" s="97" t="s">
         <v>369</v>
       </c>
       <c r="G117" s="16"/>
@@ -9679,7 +9703,7 @@
       </c>
       <c r="D118" s="48"/>
       <c r="E118" s="25"/>
-      <c r="F118" s="96" t="s">
+      <c r="F118" s="97" t="s">
         <v>369</v>
       </c>
       <c r="G118" s="13"/>
@@ -9709,7 +9733,7 @@
       </c>
       <c r="D119" s="48"/>
       <c r="E119" s="25"/>
-      <c r="F119" s="96" t="s">
+      <c r="F119" s="97" t="s">
         <v>369</v>
       </c>
       <c r="G119" s="16"/>
@@ -9739,7 +9763,7 @@
       </c>
       <c r="D120" s="48"/>
       <c r="E120" s="25"/>
-      <c r="F120" s="96" t="s">
+      <c r="F120" s="97" t="s">
         <v>369</v>
       </c>
       <c r="G120" s="16"/>
@@ -9769,7 +9793,7 @@
       </c>
       <c r="D121" s="48"/>
       <c r="E121" s="25"/>
-      <c r="F121" s="96" t="s">
+      <c r="F121" s="97" t="s">
         <v>369</v>
       </c>
       <c r="G121" s="16"/>
@@ -9799,7 +9823,7 @@
       </c>
       <c r="D122" s="48"/>
       <c r="E122" s="25"/>
-      <c r="F122" s="96" t="s">
+      <c r="F122" s="97" t="s">
         <v>369</v>
       </c>
       <c r="G122" s="16"/>
@@ -9829,7 +9853,7 @@
       </c>
       <c r="D123" s="48"/>
       <c r="E123" s="25"/>
-      <c r="F123" s="96" t="s">
+      <c r="F123" s="97" t="s">
         <v>369</v>
       </c>
       <c r="G123" s="16"/>
@@ -9859,7 +9883,7 @@
       </c>
       <c r="D124" s="48"/>
       <c r="E124" s="25"/>
-      <c r="F124" s="96" t="s">
+      <c r="F124" s="97" t="s">
         <v>369</v>
       </c>
       <c r="G124" s="16"/>
@@ -9889,7 +9913,7 @@
       </c>
       <c r="D125" s="48"/>
       <c r="E125" s="25"/>
-      <c r="F125" s="96" t="s">
+      <c r="F125" s="97" t="s">
         <v>369</v>
       </c>
       <c r="G125" s="16"/>
@@ -9919,7 +9943,7 @@
       </c>
       <c r="D126" s="48"/>
       <c r="E126" s="25"/>
-      <c r="F126" s="96" t="s">
+      <c r="F126" s="97" t="s">
         <v>369</v>
       </c>
       <c r="G126" s="16"/>
@@ -9949,7 +9973,7 @@
       </c>
       <c r="D127" s="48"/>
       <c r="E127" s="25"/>
-      <c r="F127" s="96" t="s">
+      <c r="F127" s="97" t="s">
         <v>369</v>
       </c>
       <c r="G127" s="16"/>
@@ -9981,7 +10005,7 @@
       </c>
       <c r="D128" s="48"/>
       <c r="E128" s="25"/>
-      <c r="F128" s="96" t="s">
+      <c r="F128" s="97" t="s">
         <v>369</v>
       </c>
       <c r="G128" s="16"/>
@@ -10013,7 +10037,7 @@
       </c>
       <c r="D129" s="48"/>
       <c r="E129" s="25"/>
-      <c r="F129" s="96" t="s">
+      <c r="F129" s="97" t="s">
         <v>369</v>
       </c>
       <c r="G129" s="16"/>
@@ -10045,7 +10069,7 @@
       </c>
       <c r="D130" s="48"/>
       <c r="E130" s="25"/>
-      <c r="F130" s="96" t="s">
+      <c r="F130" s="97" t="s">
         <v>369</v>
       </c>
       <c r="G130" s="16"/>
@@ -10077,7 +10101,7 @@
       </c>
       <c r="D131" s="48"/>
       <c r="E131" s="25"/>
-      <c r="F131" s="96" t="s">
+      <c r="F131" s="97" t="s">
         <v>369</v>
       </c>
       <c r="G131" s="16"/>
@@ -10109,7 +10133,7 @@
       </c>
       <c r="D132" s="48"/>
       <c r="E132" s="25"/>
-      <c r="F132" s="96" t="s">
+      <c r="F132" s="97" t="s">
         <v>369</v>
       </c>
       <c r="G132" s="16"/>
@@ -10141,7 +10165,7 @@
       </c>
       <c r="D133" s="48"/>
       <c r="E133" s="25"/>
-      <c r="F133" s="96" t="s">
+      <c r="F133" s="97" t="s">
         <v>369</v>
       </c>
       <c r="G133" s="16"/>
@@ -10173,7 +10197,7 @@
       </c>
       <c r="D134" s="48"/>
       <c r="E134" s="25"/>
-      <c r="F134" s="96" t="s">
+      <c r="F134" s="97" t="s">
         <v>369</v>
       </c>
       <c r="G134" s="16"/>
@@ -10205,7 +10229,7 @@
       </c>
       <c r="D135" s="48"/>
       <c r="E135" s="25"/>
-      <c r="F135" s="96" t="s">
+      <c r="F135" s="97" t="s">
         <v>369</v>
       </c>
       <c r="G135" s="16"/>
@@ -10226,66 +10250,66 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="98" t="s">
+      <c r="A136" s="99" t="s">
         <v>436</v>
       </c>
-      <c r="B136" s="99" t="s">
+      <c r="B136" s="100" t="s">
         <v>437</v>
       </c>
-      <c r="C136" s="100" t="s">
+      <c r="C136" s="101" t="s">
         <v>379</v>
       </c>
-      <c r="D136" s="101"/>
-      <c r="E136" s="102"/>
-      <c r="F136" s="103" t="s">
+      <c r="D136" s="102"/>
+      <c r="E136" s="103"/>
+      <c r="F136" s="104" t="s">
         <v>369</v>
       </c>
-      <c r="G136" s="104"/>
-      <c r="H136" s="105"/>
-      <c r="I136" s="104"/>
-      <c r="J136" s="104"/>
-      <c r="K136" s="102"/>
-      <c r="L136" s="99">
+      <c r="G136" s="105"/>
+      <c r="H136" s="106"/>
+      <c r="I136" s="105"/>
+      <c r="J136" s="105"/>
+      <c r="K136" s="103"/>
+      <c r="L136" s="100">
         <v>229.0</v>
       </c>
-      <c r="M136" s="104"/>
-      <c r="N136" s="104"/>
-      <c r="O136" s="104"/>
-      <c r="P136" s="104"/>
-      <c r="Q136" s="104"/>
-      <c r="R136" s="99" t="s">
+      <c r="M136" s="105"/>
+      <c r="N136" s="105"/>
+      <c r="O136" s="105"/>
+      <c r="P136" s="105"/>
+      <c r="Q136" s="105"/>
+      <c r="R136" s="100" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="98" t="s">
+      <c r="A137" s="99" t="s">
         <v>439</v>
       </c>
-      <c r="B137" s="99" t="s">
+      <c r="B137" s="100" t="s">
         <v>440</v>
       </c>
-      <c r="C137" s="100" t="s">
+      <c r="C137" s="101" t="s">
         <v>379</v>
       </c>
-      <c r="D137" s="101"/>
-      <c r="E137" s="102"/>
-      <c r="F137" s="103" t="s">
+      <c r="D137" s="102"/>
+      <c r="E137" s="103"/>
+      <c r="F137" s="104" t="s">
         <v>369</v>
       </c>
-      <c r="G137" s="104"/>
-      <c r="H137" s="105"/>
-      <c r="I137" s="104"/>
-      <c r="J137" s="104"/>
-      <c r="K137" s="102"/>
-      <c r="L137" s="99">
+      <c r="G137" s="105"/>
+      <c r="H137" s="106"/>
+      <c r="I137" s="105"/>
+      <c r="J137" s="105"/>
+      <c r="K137" s="103"/>
+      <c r="L137" s="100">
         <v>229.0</v>
       </c>
-      <c r="M137" s="104"/>
-      <c r="N137" s="104"/>
-      <c r="O137" s="104"/>
-      <c r="P137" s="104"/>
-      <c r="Q137" s="104"/>
-      <c r="R137" s="104"/>
+      <c r="M137" s="105"/>
+      <c r="N137" s="105"/>
+      <c r="O137" s="105"/>
+      <c r="P137" s="105"/>
+      <c r="Q137" s="105"/>
+      <c r="R137" s="105"/>
     </row>
     <row r="138">
       <c r="A138" s="24" t="s">
@@ -10299,7 +10323,7 @@
       </c>
       <c r="D138" s="48"/>
       <c r="E138" s="25"/>
-      <c r="F138" s="96" t="s">
+      <c r="F138" s="97" t="s">
         <v>369</v>
       </c>
       <c r="G138" s="16"/>
@@ -10331,7 +10355,7 @@
       </c>
       <c r="D139" s="48"/>
       <c r="E139" s="25"/>
-      <c r="F139" s="96" t="s">
+      <c r="F139" s="97" t="s">
         <v>369</v>
       </c>
       <c r="G139" s="16"/>
@@ -10361,7 +10385,7 @@
       </c>
       <c r="D140" s="48"/>
       <c r="E140" s="25"/>
-      <c r="F140" s="96" t="s">
+      <c r="F140" s="97" t="s">
         <v>369</v>
       </c>
       <c r="G140" s="16"/>
@@ -10391,7 +10415,7 @@
       </c>
       <c r="D141" s="48"/>
       <c r="E141" s="25"/>
-      <c r="F141" s="96" t="s">
+      <c r="F141" s="97" t="s">
         <v>369</v>
       </c>
       <c r="G141" s="16"/>
@@ -10421,7 +10445,7 @@
       </c>
       <c r="D142" s="48"/>
       <c r="E142" s="25"/>
-      <c r="F142" s="96" t="s">
+      <c r="F142" s="97" t="s">
         <v>369</v>
       </c>
       <c r="G142" s="16"/>
@@ -10451,7 +10475,7 @@
       </c>
       <c r="D143" s="48"/>
       <c r="E143" s="25"/>
-      <c r="F143" s="96" t="s">
+      <c r="F143" s="97" t="s">
         <v>369</v>
       </c>
       <c r="G143" s="16"/>
@@ -10481,7 +10505,7 @@
       </c>
       <c r="D144" s="48"/>
       <c r="E144" s="25"/>
-      <c r="F144" s="96" t="s">
+      <c r="F144" s="97" t="s">
         <v>369</v>
       </c>
       <c r="G144" s="16"/>
@@ -10511,7 +10535,7 @@
       </c>
       <c r="D145" s="48"/>
       <c r="E145" s="25"/>
-      <c r="F145" s="96" t="s">
+      <c r="F145" s="97" t="s">
         <v>369</v>
       </c>
       <c r="G145" s="16"/>
@@ -10541,7 +10565,7 @@
       </c>
       <c r="D146" s="48"/>
       <c r="E146" s="25"/>
-      <c r="F146" s="96" t="s">
+      <c r="F146" s="97" t="s">
         <v>369</v>
       </c>
       <c r="G146" s="16"/>
@@ -10571,7 +10595,7 @@
       </c>
       <c r="D147" s="48"/>
       <c r="E147" s="25"/>
-      <c r="F147" s="96"/>
+      <c r="F147" s="97"/>
       <c r="G147" s="16"/>
       <c r="H147" s="17"/>
       <c r="I147" s="16"/>
@@ -10606,16 +10630,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="108" t="s">
         <v>454</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="108" t="s">
         <v>455</v>
       </c>
       <c r="E1" s="48" t="s">
@@ -10626,11 +10650,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="109" t="s">
         <v>458</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="110" t="s">
         <v>459</v>
       </c>
       <c r="D2" s="5"/>
@@ -10683,7 +10707,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="111" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -10707,16 +10731,16 @@
       <c r="I1" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="J1" s="111" t="s">
+      <c r="J1" s="112" t="s">
         <v>467</v>
       </c>
-      <c r="K1" s="110" t="s">
+      <c r="K1" s="111" t="s">
         <v>468</v>
       </c>
-      <c r="L1" s="112" t="s">
+      <c r="L1" s="113" t="s">
         <v>469</v>
       </c>
-      <c r="M1" s="113" t="s">
+      <c r="M1" s="114" t="s">
         <v>470</v>
       </c>
       <c r="N1" s="14" t="s">
@@ -10727,13 +10751,13 @@
       <c r="A2" s="14" t="s">
         <v>472</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="115" t="s">
         <v>473</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>474</v>
       </c>
-      <c r="D2" s="115" t="s">
+      <c r="D2" s="116" t="s">
         <v>475</v>
       </c>
       <c r="E2" s="16"/>
@@ -10743,7 +10767,7 @@
       <c r="G2" s="25" t="s">
         <v>477</v>
       </c>
-      <c r="H2" s="114">
+      <c r="H2" s="115">
         <v>100.0</v>
       </c>
       <c r="I2" s="16"/>
@@ -10757,44 +10781,44 @@
       <c r="A3" s="32" t="s">
         <v>478</v>
       </c>
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="117" t="s">
         <v>479</v>
       </c>
       <c r="C3" s="39" t="s">
         <v>480</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="118" t="s">
+      <c r="D3" s="118"/>
+      <c r="E3" s="119" t="s">
         <v>370</v>
       </c>
       <c r="F3" s="32" t="s">
         <v>481</v>
       </c>
       <c r="G3" s="39"/>
-      <c r="H3" s="119"/>
+      <c r="H3" s="120"/>
       <c r="I3" s="34"/>
       <c r="J3" s="34"/>
-      <c r="K3" s="116">
+      <c r="K3" s="117">
         <v>0.0</v>
       </c>
-      <c r="L3" s="116" t="s">
+      <c r="L3" s="117" t="s">
         <v>266</v>
       </c>
-      <c r="M3" s="116"/>
+      <c r="M3" s="117"/>
       <c r="N3" s="34"/>
     </row>
     <row r="4">
       <c r="A4" s="19" t="s">
         <v>482</v>
       </c>
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="121" t="s">
         <v>483</v>
       </c>
       <c r="C4" s="39" t="s">
         <v>484</v>
       </c>
       <c r="D4" s="39"/>
-      <c r="E4" s="118" t="s">
+      <c r="E4" s="119" t="s">
         <v>363</v>
       </c>
       <c r="F4" s="32" t="s">
@@ -10803,26 +10827,26 @@
       <c r="G4" s="32" t="s">
         <v>486</v>
       </c>
-      <c r="H4" s="119"/>
+      <c r="H4" s="120"/>
       <c r="I4" s="34"/>
       <c r="J4" s="34"/>
-      <c r="K4" s="116" t="s">
+      <c r="K4" s="117" t="s">
         <v>487</v>
       </c>
-      <c r="L4" s="121" t="s">
+      <c r="L4" s="122" t="s">
         <v>488</v>
       </c>
-      <c r="M4" s="121"/>
+      <c r="M4" s="122"/>
       <c r="N4" s="34"/>
     </row>
     <row r="5">
       <c r="A5" s="24" t="s">
         <v>489</v>
       </c>
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="123" t="s">
         <v>490</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="124" t="s">
         <v>480</v>
       </c>
       <c r="D5" s="25"/>
@@ -10835,26 +10859,26 @@
       <c r="G5" s="14" t="s">
         <v>492</v>
       </c>
-      <c r="H5" s="124"/>
+      <c r="H5" s="125"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
-      <c r="K5" s="122">
+      <c r="K5" s="123">
         <v>0.0</v>
       </c>
-      <c r="L5" s="125" t="s">
+      <c r="L5" s="126" t="s">
         <v>230</v>
       </c>
-      <c r="M5" s="125"/>
+      <c r="M5" s="126"/>
       <c r="N5" s="16"/>
     </row>
     <row r="6">
       <c r="A6" s="24" t="s">
         <v>493</v>
       </c>
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="123" t="s">
         <v>494</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="124" t="s">
         <v>484</v>
       </c>
       <c r="D6" s="25"/>
@@ -10867,26 +10891,26 @@
       <c r="G6" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="H6" s="124"/>
+      <c r="H6" s="125"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
-      <c r="K6" s="122">
+      <c r="K6" s="123">
         <v>0.0</v>
       </c>
-      <c r="L6" s="125" t="s">
+      <c r="L6" s="126" t="s">
         <v>230</v>
       </c>
-      <c r="M6" s="125"/>
+      <c r="M6" s="126"/>
       <c r="N6" s="16"/>
     </row>
     <row r="7">
       <c r="A7" s="24" t="s">
         <v>497</v>
       </c>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="115" t="s">
         <v>498</v>
       </c>
-      <c r="C7" s="123" t="s">
+      <c r="C7" s="124" t="s">
         <v>480</v>
       </c>
       <c r="D7" s="25"/>
@@ -10899,58 +10923,58 @@
       <c r="G7" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="H7" s="124"/>
+      <c r="H7" s="125"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="K7" s="122">
+      <c r="K7" s="123">
         <v>0.0</v>
       </c>
-      <c r="L7" s="125" t="s">
+      <c r="L7" s="126" t="s">
         <v>225</v>
       </c>
-      <c r="M7" s="125"/>
+      <c r="M7" s="126"/>
       <c r="N7" s="16"/>
     </row>
     <row r="8">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="127" t="s">
         <v>501</v>
       </c>
-      <c r="B8" s="127" t="s">
+      <c r="B8" s="128" t="s">
         <v>502</v>
       </c>
-      <c r="C8" s="123" t="s">
+      <c r="C8" s="124" t="s">
         <v>484</v>
       </c>
-      <c r="D8" s="128"/>
+      <c r="D8" s="129"/>
       <c r="E8" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="F8" s="129" t="s">
+      <c r="F8" s="130" t="s">
         <v>503</v>
       </c>
-      <c r="G8" s="130" t="s">
+      <c r="G8" s="131" t="s">
         <v>504</v>
       </c>
-      <c r="H8" s="131"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="132"/>
-      <c r="K8" s="133">
+      <c r="H8" s="132"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="133"/>
+      <c r="K8" s="134">
         <v>0.0</v>
       </c>
-      <c r="L8" s="134" t="s">
+      <c r="L8" s="135" t="s">
         <v>225</v>
       </c>
-      <c r="M8" s="134"/>
-      <c r="N8" s="132"/>
+      <c r="M8" s="135"/>
+      <c r="N8" s="133"/>
     </row>
     <row r="9">
       <c r="A9" s="24" t="s">
         <v>505</v>
       </c>
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="123" t="s">
         <v>506</v>
       </c>
-      <c r="C9" s="123" t="s">
+      <c r="C9" s="124" t="s">
         <v>480</v>
       </c>
       <c r="D9" s="25"/>
@@ -10961,26 +10985,26 @@
         <v>507</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="124"/>
+      <c r="H9" s="125"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
-      <c r="K9" s="122">
+      <c r="K9" s="123">
         <v>0.0</v>
       </c>
-      <c r="L9" s="125" t="s">
+      <c r="L9" s="126" t="s">
         <v>258</v>
       </c>
-      <c r="M9" s="125"/>
+      <c r="M9" s="126"/>
       <c r="N9" s="16"/>
     </row>
     <row r="10">
       <c r="A10" s="24" t="s">
         <v>508</v>
       </c>
-      <c r="B10" s="122" t="s">
+      <c r="B10" s="123" t="s">
         <v>509</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="124" t="s">
         <v>484</v>
       </c>
       <c r="D10" s="25"/>
@@ -10996,23 +11020,23 @@
       <c r="H10" s="13"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="122" t="s">
+      <c r="K10" s="123" t="s">
         <v>512</v>
       </c>
-      <c r="L10" s="125" t="s">
+      <c r="L10" s="126" t="s">
         <v>513</v>
       </c>
-      <c r="M10" s="125"/>
+      <c r="M10" s="126"/>
       <c r="N10" s="16"/>
     </row>
     <row r="11">
       <c r="A11" s="24" t="s">
         <v>514</v>
       </c>
-      <c r="B11" s="135" t="s">
+      <c r="B11" s="136" t="s">
         <v>515</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="124" t="s">
         <v>480</v>
       </c>
       <c r="D11" s="25"/>
@@ -11026,23 +11050,23 @@
       <c r="H11" s="13"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
-      <c r="K11" s="122">
+      <c r="K11" s="123">
         <v>0.0</v>
       </c>
-      <c r="L11" s="125" t="s">
+      <c r="L11" s="126" t="s">
         <v>262</v>
       </c>
-      <c r="M11" s="125"/>
+      <c r="M11" s="126"/>
       <c r="N11" s="16"/>
     </row>
     <row r="12">
       <c r="A12" s="15" t="s">
         <v>517</v>
       </c>
-      <c r="B12" s="135" t="s">
+      <c r="B12" s="136" t="s">
         <v>518</v>
       </c>
-      <c r="C12" s="123" t="s">
+      <c r="C12" s="124" t="s">
         <v>484</v>
       </c>
       <c r="D12" s="25"/>
@@ -11058,23 +11082,23 @@
       <c r="H12" s="13"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="122" t="s">
+      <c r="K12" s="123" t="s">
         <v>512</v>
       </c>
-      <c r="L12" s="125" t="s">
+      <c r="L12" s="126" t="s">
         <v>520</v>
       </c>
-      <c r="M12" s="125"/>
+      <c r="M12" s="126"/>
       <c r="N12" s="16"/>
     </row>
     <row r="13">
       <c r="A13" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="B13" s="122" t="s">
+      <c r="B13" s="123" t="s">
         <v>522</v>
       </c>
-      <c r="C13" s="123" t="s">
+      <c r="C13" s="124" t="s">
         <v>484</v>
       </c>
       <c r="D13" s="25"/>
@@ -11090,23 +11114,23 @@
       <c r="H13" s="13"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
-      <c r="K13" s="122" t="s">
+      <c r="K13" s="123" t="s">
         <v>524</v>
       </c>
-      <c r="L13" s="125" t="s">
+      <c r="L13" s="126" t="s">
         <v>525</v>
       </c>
-      <c r="M13" s="125"/>
+      <c r="M13" s="126"/>
       <c r="N13" s="16"/>
     </row>
     <row r="14">
       <c r="A14" s="15" t="s">
         <v>526</v>
       </c>
-      <c r="B14" s="122" t="s">
+      <c r="B14" s="123" t="s">
         <v>527</v>
       </c>
-      <c r="C14" s="123" t="s">
+      <c r="C14" s="124" t="s">
         <v>484</v>
       </c>
       <c r="D14" s="25"/>
@@ -11122,239 +11146,239 @@
       <c r="H14" s="13"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="122" t="s">
+      <c r="K14" s="123" t="s">
         <v>524</v>
       </c>
-      <c r="L14" s="125" t="s">
+      <c r="L14" s="126" t="s">
         <v>529</v>
       </c>
-      <c r="M14" s="125"/>
+      <c r="M14" s="126"/>
       <c r="N14" s="16"/>
     </row>
     <row r="15">
-      <c r="A15" s="136" t="s">
+      <c r="A15" s="137" t="s">
         <v>530</v>
       </c>
-      <c r="B15" s="120" t="s">
+      <c r="B15" s="121" t="s">
         <v>531</v>
       </c>
       <c r="C15" s="39" t="s">
         <v>480</v>
       </c>
       <c r="D15" s="39"/>
-      <c r="E15" s="118" t="s">
+      <c r="E15" s="119" t="s">
         <v>370</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>532</v>
       </c>
-      <c r="G15" s="137"/>
+      <c r="G15" s="138"/>
       <c r="H15" s="36"/>
       <c r="I15" s="34"/>
       <c r="J15" s="34"/>
-      <c r="K15" s="120">
+      <c r="K15" s="121">
         <v>6.0</v>
       </c>
-      <c r="L15" s="138" t="s">
+      <c r="L15" s="139" t="s">
         <v>69</v>
       </c>
-      <c r="M15" s="138"/>
+      <c r="M15" s="139"/>
       <c r="N15" s="34"/>
     </row>
     <row r="16">
-      <c r="A16" s="136" t="s">
+      <c r="A16" s="137" t="s">
         <v>533</v>
       </c>
-      <c r="B16" s="120" t="s">
+      <c r="B16" s="121" t="s">
         <v>534</v>
       </c>
       <c r="C16" s="39" t="s">
         <v>480</v>
       </c>
       <c r="D16" s="39"/>
-      <c r="E16" s="118" t="s">
+      <c r="E16" s="119" t="s">
         <v>370</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>535</v>
       </c>
-      <c r="G16" s="137"/>
+      <c r="G16" s="138"/>
       <c r="H16" s="36"/>
       <c r="I16" s="34"/>
       <c r="J16" s="34"/>
-      <c r="K16" s="120">
+      <c r="K16" s="121">
         <v>6.0</v>
       </c>
-      <c r="L16" s="138" t="s">
+      <c r="L16" s="139" t="s">
         <v>65</v>
       </c>
-      <c r="M16" s="138"/>
+      <c r="M16" s="139"/>
       <c r="N16" s="34"/>
     </row>
     <row r="17">
-      <c r="A17" s="126" t="s">
+      <c r="A17" s="127" t="s">
         <v>536</v>
       </c>
-      <c r="B17" s="133" t="s">
+      <c r="B17" s="134" t="s">
         <v>537</v>
       </c>
-      <c r="C17" s="128" t="s">
+      <c r="C17" s="129" t="s">
         <v>480</v>
       </c>
-      <c r="D17" s="128"/>
-      <c r="E17" s="139" t="s">
+      <c r="D17" s="129"/>
+      <c r="E17" s="140" t="s">
         <v>370</v>
       </c>
-      <c r="F17" s="129" t="s">
+      <c r="F17" s="130" t="s">
         <v>538</v>
       </c>
-      <c r="G17" s="140"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="132"/>
-      <c r="K17" s="133">
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="133"/>
+      <c r="K17" s="134">
         <v>6.0</v>
       </c>
-      <c r="L17" s="134" t="s">
+      <c r="L17" s="135" t="s">
         <v>61</v>
       </c>
-      <c r="M17" s="134"/>
-      <c r="N17" s="132"/>
+      <c r="M17" s="135"/>
+      <c r="N17" s="133"/>
     </row>
     <row r="18">
-      <c r="A18" s="136" t="s">
+      <c r="A18" s="137" t="s">
         <v>539</v>
       </c>
-      <c r="B18" s="120" t="s">
+      <c r="B18" s="121" t="s">
         <v>540</v>
       </c>
       <c r="C18" s="39" t="s">
         <v>480</v>
       </c>
       <c r="D18" s="39"/>
-      <c r="E18" s="118" t="s">
+      <c r="E18" s="119" t="s">
         <v>370</v>
       </c>
       <c r="F18" s="32" t="s">
         <v>541</v>
       </c>
-      <c r="G18" s="137"/>
+      <c r="G18" s="138"/>
       <c r="H18" s="36"/>
       <c r="I18" s="34"/>
       <c r="J18" s="34"/>
-      <c r="K18" s="120">
+      <c r="K18" s="121">
         <v>6.0</v>
       </c>
-      <c r="L18" s="138" t="s">
+      <c r="L18" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="M18" s="138"/>
+      <c r="M18" s="139"/>
       <c r="N18" s="34"/>
     </row>
     <row r="19">
-      <c r="A19" s="136" t="s">
+      <c r="A19" s="137" t="s">
         <v>542</v>
       </c>
-      <c r="B19" s="120" t="s">
+      <c r="B19" s="121" t="s">
         <v>543</v>
       </c>
       <c r="C19" s="39" t="s">
         <v>480</v>
       </c>
       <c r="D19" s="39"/>
-      <c r="E19" s="118" t="s">
+      <c r="E19" s="119" t="s">
         <v>370</v>
       </c>
       <c r="F19" s="32" t="s">
         <v>544</v>
       </c>
-      <c r="G19" s="137"/>
+      <c r="G19" s="138"/>
       <c r="H19" s="36"/>
       <c r="I19" s="34"/>
       <c r="J19" s="34"/>
-      <c r="K19" s="116">
+      <c r="K19" s="117">
         <v>6.0</v>
       </c>
-      <c r="L19" s="138" t="s">
+      <c r="L19" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="M19" s="138"/>
+      <c r="M19" s="139"/>
       <c r="N19" s="34"/>
     </row>
     <row r="20">
-      <c r="A20" s="136" t="s">
+      <c r="A20" s="137" t="s">
         <v>545</v>
       </c>
-      <c r="B20" s="120" t="s">
+      <c r="B20" s="121" t="s">
         <v>546</v>
       </c>
       <c r="C20" s="39" t="s">
         <v>480</v>
       </c>
       <c r="D20" s="39"/>
-      <c r="E20" s="118" t="s">
+      <c r="E20" s="119" t="s">
         <v>370</v>
       </c>
       <c r="F20" s="32" t="s">
         <v>547</v>
       </c>
-      <c r="G20" s="142"/>
+      <c r="G20" s="143"/>
       <c r="H20" s="36"/>
       <c r="I20" s="34"/>
       <c r="J20" s="34"/>
-      <c r="K20" s="116">
+      <c r="K20" s="117">
         <v>6.0</v>
       </c>
-      <c r="L20" s="138" t="s">
+      <c r="L20" s="139" t="s">
         <v>48</v>
       </c>
-      <c r="M20" s="138"/>
+      <c r="M20" s="139"/>
       <c r="N20" s="34"/>
     </row>
     <row r="21">
-      <c r="A21" s="136" t="s">
+      <c r="A21" s="137" t="s">
         <v>548</v>
       </c>
-      <c r="B21" s="120" t="s">
+      <c r="B21" s="121" t="s">
         <v>549</v>
       </c>
       <c r="C21" s="39" t="s">
         <v>484</v>
       </c>
       <c r="D21" s="39"/>
-      <c r="E21" s="118" t="s">
+      <c r="E21" s="119" t="s">
         <v>367</v>
       </c>
       <c r="F21" s="32" t="s">
         <v>550</v>
       </c>
-      <c r="G21" s="143" t="s">
+      <c r="G21" s="144" t="s">
         <v>551</v>
       </c>
       <c r="H21" s="36"/>
       <c r="I21" s="34"/>
       <c r="J21" s="34"/>
-      <c r="K21" s="120" t="s">
+      <c r="K21" s="121" t="s">
         <v>552</v>
       </c>
-      <c r="L21" s="138" t="s">
+      <c r="L21" s="139" t="s">
         <v>553</v>
       </c>
-      <c r="M21" s="138"/>
+      <c r="M21" s="139"/>
       <c r="N21" s="34"/>
     </row>
     <row r="22">
-      <c r="A22" s="136" t="s">
+      <c r="A22" s="137" t="s">
         <v>554</v>
       </c>
-      <c r="B22" s="120" t="s">
+      <c r="B22" s="121" t="s">
         <v>555</v>
       </c>
       <c r="C22" s="39" t="s">
         <v>484</v>
       </c>
       <c r="D22" s="39"/>
-      <c r="E22" s="118" t="s">
+      <c r="E22" s="119" t="s">
         <v>367</v>
       </c>
       <c r="F22" s="32" t="s">
@@ -11366,27 +11390,27 @@
       <c r="H22" s="36"/>
       <c r="I22" s="34"/>
       <c r="J22" s="34"/>
-      <c r="K22" s="120" t="s">
+      <c r="K22" s="121" t="s">
         <v>552</v>
       </c>
-      <c r="L22" s="138" t="s">
+      <c r="L22" s="139" t="s">
         <v>558</v>
       </c>
-      <c r="M22" s="138"/>
+      <c r="M22" s="139"/>
       <c r="N22" s="34"/>
     </row>
     <row r="23">
-      <c r="A23" s="136" t="s">
+      <c r="A23" s="137" t="s">
         <v>559</v>
       </c>
-      <c r="B23" s="120" t="s">
+      <c r="B23" s="121" t="s">
         <v>560</v>
       </c>
       <c r="C23" s="39" t="s">
         <v>484</v>
       </c>
       <c r="D23" s="39"/>
-      <c r="E23" s="118" t="s">
+      <c r="E23" s="119" t="s">
         <v>367</v>
       </c>
       <c r="F23" s="32" t="s">
@@ -11398,27 +11422,27 @@
       <c r="H23" s="36"/>
       <c r="I23" s="34"/>
       <c r="J23" s="34"/>
-      <c r="K23" s="120" t="s">
+      <c r="K23" s="121" t="s">
         <v>552</v>
       </c>
-      <c r="L23" s="138" t="s">
+      <c r="L23" s="139" t="s">
         <v>563</v>
       </c>
-      <c r="M23" s="138"/>
+      <c r="M23" s="139"/>
       <c r="N23" s="34"/>
     </row>
     <row r="24">
-      <c r="A24" s="136" t="s">
+      <c r="A24" s="137" t="s">
         <v>564</v>
       </c>
-      <c r="B24" s="120" t="s">
+      <c r="B24" s="121" t="s">
         <v>565</v>
       </c>
       <c r="C24" s="39" t="s">
         <v>484</v>
       </c>
       <c r="D24" s="39"/>
-      <c r="E24" s="118" t="s">
+      <c r="E24" s="119" t="s">
         <v>367</v>
       </c>
       <c r="F24" s="32" t="s">
@@ -11430,27 +11454,27 @@
       <c r="H24" s="36"/>
       <c r="I24" s="34"/>
       <c r="J24" s="34"/>
-      <c r="K24" s="120" t="s">
+      <c r="K24" s="121" t="s">
         <v>552</v>
       </c>
-      <c r="L24" s="138" t="s">
+      <c r="L24" s="139" t="s">
         <v>568</v>
       </c>
-      <c r="M24" s="138"/>
+      <c r="M24" s="139"/>
       <c r="N24" s="34"/>
     </row>
     <row r="25">
-      <c r="A25" s="136" t="s">
+      <c r="A25" s="137" t="s">
         <v>569</v>
       </c>
-      <c r="B25" s="120" t="s">
+      <c r="B25" s="121" t="s">
         <v>570</v>
       </c>
       <c r="C25" s="39" t="s">
         <v>484</v>
       </c>
       <c r="D25" s="39"/>
-      <c r="E25" s="118" t="s">
+      <c r="E25" s="119" t="s">
         <v>367</v>
       </c>
       <c r="F25" s="32" t="s">
@@ -11462,27 +11486,27 @@
       <c r="H25" s="36"/>
       <c r="I25" s="34"/>
       <c r="J25" s="34"/>
-      <c r="K25" s="120" t="s">
+      <c r="K25" s="121" t="s">
         <v>552</v>
       </c>
-      <c r="L25" s="138" t="s">
+      <c r="L25" s="139" t="s">
         <v>573</v>
       </c>
-      <c r="M25" s="138"/>
+      <c r="M25" s="139"/>
       <c r="N25" s="34"/>
     </row>
     <row r="26">
-      <c r="A26" s="136" t="s">
+      <c r="A26" s="137" t="s">
         <v>574</v>
       </c>
-      <c r="B26" s="120" t="s">
+      <c r="B26" s="121" t="s">
         <v>575</v>
       </c>
       <c r="C26" s="39" t="s">
         <v>484</v>
       </c>
       <c r="D26" s="39"/>
-      <c r="E26" s="118" t="s">
+      <c r="E26" s="119" t="s">
         <v>367</v>
       </c>
       <c r="F26" s="32" t="s">
@@ -11494,124 +11518,124 @@
       <c r="H26" s="36"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
-      <c r="K26" s="120" t="s">
+      <c r="K26" s="121" t="s">
         <v>552</v>
       </c>
-      <c r="L26" s="138" t="s">
+      <c r="L26" s="139" t="s">
         <v>578</v>
       </c>
-      <c r="M26" s="138"/>
+      <c r="M26" s="139"/>
       <c r="N26" s="34"/>
     </row>
     <row r="27">
-      <c r="A27" s="136" t="s">
+      <c r="A27" s="137" t="s">
         <v>579</v>
       </c>
-      <c r="B27" s="120" t="s">
+      <c r="B27" s="121" t="s">
         <v>580</v>
       </c>
-      <c r="C27" s="144" t="s">
+      <c r="C27" s="145" t="s">
         <v>484</v>
       </c>
       <c r="D27" s="39"/>
-      <c r="E27" s="118" t="s">
+      <c r="E27" s="119" t="s">
         <v>363</v>
       </c>
-      <c r="F27" s="145" t="s">
+      <c r="F27" s="146" t="s">
         <v>581</v>
       </c>
-      <c r="G27" s="142" t="s">
+      <c r="G27" s="143" t="s">
         <v>582</v>
       </c>
       <c r="H27" s="36"/>
       <c r="I27" s="34"/>
       <c r="J27" s="34"/>
-      <c r="K27" s="116">
+      <c r="K27" s="117">
         <v>0.0</v>
       </c>
-      <c r="L27" s="146" t="s">
+      <c r="L27" s="147" t="s">
         <v>306</v>
       </c>
-      <c r="M27" s="146"/>
+      <c r="M27" s="147"/>
       <c r="N27" s="34"/>
     </row>
     <row r="28">
-      <c r="A28" s="136" t="s">
+      <c r="A28" s="137" t="s">
         <v>583</v>
       </c>
-      <c r="B28" s="120" t="s">
+      <c r="B28" s="121" t="s">
         <v>584</v>
       </c>
-      <c r="C28" s="144" t="s">
+      <c r="C28" s="145" t="s">
         <v>484</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="118" t="s">
+      <c r="E28" s="119" t="s">
         <v>363</v>
       </c>
       <c r="F28" s="41" t="s">
         <v>581</v>
       </c>
-      <c r="G28" s="142" t="s">
+      <c r="G28" s="143" t="s">
         <v>585</v>
       </c>
       <c r="H28" s="36"/>
       <c r="I28" s="34"/>
       <c r="J28" s="34"/>
-      <c r="K28" s="116" t="s">
+      <c r="K28" s="117" t="s">
         <v>586</v>
       </c>
-      <c r="L28" s="146" t="s">
+      <c r="L28" s="147" t="s">
         <v>587</v>
       </c>
-      <c r="M28" s="146"/>
+      <c r="M28" s="147"/>
       <c r="N28" s="34"/>
     </row>
     <row r="29">
-      <c r="A29" s="126" t="s">
+      <c r="A29" s="127" t="s">
         <v>588</v>
       </c>
-      <c r="B29" s="133" t="s">
+      <c r="B29" s="134" t="s">
         <v>589</v>
       </c>
-      <c r="C29" s="147" t="s">
+      <c r="C29" s="148" t="s">
         <v>484</v>
       </c>
-      <c r="D29" s="128"/>
-      <c r="E29" s="139" t="s">
+      <c r="D29" s="129"/>
+      <c r="E29" s="140" t="s">
         <v>363</v>
       </c>
       <c r="F29" s="41" t="s">
         <v>581</v>
       </c>
-      <c r="G29" s="130" t="s">
+      <c r="G29" s="131" t="s">
         <v>590</v>
       </c>
-      <c r="H29" s="141"/>
-      <c r="I29" s="132"/>
-      <c r="J29" s="132"/>
-      <c r="K29" s="127" t="s">
+      <c r="H29" s="142"/>
+      <c r="I29" s="133"/>
+      <c r="J29" s="133"/>
+      <c r="K29" s="128" t="s">
         <v>586</v>
       </c>
-      <c r="L29" s="148" t="s">
+      <c r="L29" s="149" t="s">
         <v>591</v>
       </c>
-      <c r="M29" s="148"/>
-      <c r="N29" s="132"/>
+      <c r="M29" s="149"/>
+      <c r="N29" s="133"/>
     </row>
     <row r="30">
-      <c r="A30" s="149" t="s">
+      <c r="A30" s="54" t="s">
         <v>592</v>
       </c>
       <c r="B30" s="150"/>
-      <c r="C30" s="144" t="s">
+      <c r="C30" s="145" t="s">
         <v>484</v>
       </c>
       <c r="D30" s="151"/>
-      <c r="E30" s="149" t="s">
+      <c r="E30" s="54" t="s">
         <v>367</v>
       </c>
-      <c r="F30" s="143" t="s">
+      <c r="F30" s="144" t="s">
         <v>551</v>
       </c>
       <c r="G30" s="152" t="s">
@@ -11620,10 +11644,10 @@
       <c r="H30" s="153"/>
       <c r="I30" s="154"/>
       <c r="J30" s="154"/>
-      <c r="K30" s="138" t="s">
+      <c r="K30" s="139" t="s">
         <v>594</v>
       </c>
-      <c r="L30" s="138" t="s">
+      <c r="L30" s="139" t="s">
         <v>595</v>
       </c>
       <c r="M30" s="155" t="s">
@@ -11635,15 +11659,15 @@
       <c r="A31" s="14" t="s">
         <v>597</v>
       </c>
-      <c r="B31" s="122"/>
-      <c r="C31" s="144" t="s">
+      <c r="B31" s="123"/>
+      <c r="C31" s="145" t="s">
         <v>484</v>
       </c>
       <c r="D31" s="25"/>
       <c r="E31" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="F31" s="143" t="s">
+      <c r="F31" s="144" t="s">
         <v>551</v>
       </c>
       <c r="G31" s="14" t="s">
@@ -11652,21 +11676,21 @@
       <c r="H31" s="13"/>
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
-      <c r="K31" s="114">
+      <c r="K31" s="115">
         <v>0.0</v>
       </c>
-      <c r="L31" s="122" t="s">
+      <c r="L31" s="123" t="s">
         <v>206</v>
       </c>
-      <c r="M31" s="122"/>
+      <c r="M31" s="123"/>
       <c r="N31" s="16"/>
     </row>
     <row r="32">
       <c r="A32" s="14" t="s">
         <v>599</v>
       </c>
-      <c r="B32" s="122"/>
-      <c r="C32" s="144" t="s">
+      <c r="B32" s="123"/>
+      <c r="C32" s="145" t="s">
         <v>484</v>
       </c>
       <c r="D32" s="25"/>
@@ -11682,21 +11706,21 @@
       <c r="H32" s="13"/>
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="114">
+      <c r="K32" s="115">
         <v>0.0</v>
       </c>
-      <c r="L32" s="122" t="s">
+      <c r="L32" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="M32" s="122"/>
+      <c r="M32" s="123"/>
       <c r="N32" s="16"/>
     </row>
     <row r="33">
       <c r="A33" s="14" t="s">
         <v>601</v>
       </c>
-      <c r="B33" s="122"/>
-      <c r="C33" s="144" t="s">
+      <c r="B33" s="123"/>
+      <c r="C33" s="145" t="s">
         <v>484</v>
       </c>
       <c r="D33" s="25"/>
@@ -11712,21 +11736,21 @@
       <c r="H33" s="13"/>
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
-      <c r="K33" s="114">
+      <c r="K33" s="115">
         <v>0.0</v>
       </c>
-      <c r="L33" s="122" t="s">
+      <c r="L33" s="123" t="s">
         <v>198</v>
       </c>
-      <c r="M33" s="122"/>
+      <c r="M33" s="123"/>
       <c r="N33" s="16"/>
     </row>
     <row r="34">
       <c r="A34" s="14" t="s">
         <v>603</v>
       </c>
-      <c r="B34" s="122"/>
-      <c r="C34" s="144" t="s">
+      <c r="B34" s="123"/>
+      <c r="C34" s="145" t="s">
         <v>484</v>
       </c>
       <c r="D34" s="25"/>
@@ -11742,21 +11766,21 @@
       <c r="H34" s="13"/>
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
-      <c r="K34" s="114">
+      <c r="K34" s="115">
         <v>0.0</v>
       </c>
-      <c r="L34" s="122" t="s">
+      <c r="L34" s="123" t="s">
         <v>194</v>
       </c>
-      <c r="M34" s="122"/>
+      <c r="M34" s="123"/>
       <c r="N34" s="16"/>
     </row>
     <row r="35">
       <c r="A35" s="14" t="s">
         <v>605</v>
       </c>
-      <c r="B35" s="122"/>
-      <c r="C35" s="144" t="s">
+      <c r="B35" s="123"/>
+      <c r="C35" s="145" t="s">
         <v>484</v>
       </c>
       <c r="D35" s="25"/>
@@ -11772,21 +11796,21 @@
       <c r="H35" s="13"/>
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
-      <c r="K35" s="114">
+      <c r="K35" s="115">
         <v>0.0</v>
       </c>
-      <c r="L35" s="122" t="s">
+      <c r="L35" s="123" t="s">
         <v>190</v>
       </c>
-      <c r="M35" s="122"/>
+      <c r="M35" s="123"/>
       <c r="N35" s="16"/>
     </row>
     <row r="36">
       <c r="A36" s="14" t="s">
         <v>607</v>
       </c>
-      <c r="B36" s="122"/>
-      <c r="C36" s="144" t="s">
+      <c r="B36" s="123"/>
+      <c r="C36" s="145" t="s">
         <v>484</v>
       </c>
       <c r="D36" s="25"/>
@@ -11802,21 +11826,21 @@
       <c r="H36" s="13"/>
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
-      <c r="K36" s="114">
+      <c r="K36" s="115">
         <v>0.0</v>
       </c>
-      <c r="L36" s="122" t="s">
+      <c r="L36" s="123" t="s">
         <v>186</v>
       </c>
-      <c r="M36" s="122"/>
+      <c r="M36" s="123"/>
       <c r="N36" s="16"/>
     </row>
     <row r="37">
       <c r="A37" s="14" t="s">
         <v>609</v>
       </c>
-      <c r="B37" s="122"/>
-      <c r="C37" s="144" t="s">
+      <c r="B37" s="123"/>
+      <c r="C37" s="145" t="s">
         <v>484</v>
       </c>
       <c r="D37" s="25"/>
@@ -11832,21 +11856,21 @@
       <c r="H37" s="13"/>
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
-      <c r="K37" s="114">
+      <c r="K37" s="115">
         <v>0.0</v>
       </c>
-      <c r="L37" s="124" t="s">
+      <c r="L37" s="125" t="s">
         <v>225</v>
       </c>
-      <c r="M37" s="124"/>
+      <c r="M37" s="125"/>
       <c r="N37" s="16"/>
     </row>
     <row r="38">
       <c r="A38" s="14" t="s">
         <v>612</v>
       </c>
-      <c r="B38" s="122"/>
-      <c r="C38" s="144" t="s">
+      <c r="B38" s="123"/>
+      <c r="C38" s="145" t="s">
         <v>484</v>
       </c>
       <c r="D38" s="25"/>
@@ -11862,21 +11886,21 @@
       <c r="H38" s="13"/>
       <c r="I38" s="16"/>
       <c r="J38" s="16"/>
-      <c r="K38" s="114">
+      <c r="K38" s="115">
         <v>0.0</v>
       </c>
-      <c r="L38" s="124" t="s">
+      <c r="L38" s="125" t="s">
         <v>230</v>
       </c>
-      <c r="M38" s="124"/>
+      <c r="M38" s="125"/>
       <c r="N38" s="16"/>
     </row>
     <row r="39">
       <c r="A39" s="14" t="s">
         <v>615</v>
       </c>
-      <c r="B39" s="122"/>
-      <c r="C39" s="144" t="s">
+      <c r="B39" s="123"/>
+      <c r="C39" s="145" t="s">
         <v>484</v>
       </c>
       <c r="D39" s="25"/>
@@ -11892,28 +11916,28 @@
       <c r="H39" s="13"/>
       <c r="I39" s="16"/>
       <c r="J39" s="16"/>
-      <c r="K39" s="114">
+      <c r="K39" s="115">
         <v>0.0</v>
       </c>
-      <c r="L39" s="124" t="s">
+      <c r="L39" s="125" t="s">
         <v>234</v>
       </c>
-      <c r="M39" s="124"/>
+      <c r="M39" s="125"/>
       <c r="N39" s="16"/>
     </row>
     <row r="40">
-      <c r="A40" s="143" t="s">
+      <c r="A40" s="144" t="s">
         <v>617</v>
       </c>
-      <c r="B40" s="122"/>
-      <c r="C40" s="144" t="s">
+      <c r="B40" s="123"/>
+      <c r="C40" s="145" t="s">
         <v>484</v>
       </c>
       <c r="D40" s="25"/>
-      <c r="E40" s="149" t="s">
+      <c r="E40" s="54" t="s">
         <v>367</v>
       </c>
-      <c r="F40" s="143" t="s">
+      <c r="F40" s="144" t="s">
         <v>551</v>
       </c>
       <c r="G40" s="41" t="s">
@@ -11922,25 +11946,25 @@
       <c r="H40" s="13"/>
       <c r="I40" s="16"/>
       <c r="J40" s="16"/>
-      <c r="K40" s="114">
+      <c r="K40" s="115">
         <v>0.0</v>
       </c>
-      <c r="L40" s="122" t="s">
+      <c r="L40" s="123" t="s">
         <v>206</v>
       </c>
-      <c r="M40" s="124"/>
+      <c r="M40" s="125"/>
       <c r="N40" s="16"/>
     </row>
     <row r="41">
       <c r="A41" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="B41" s="122"/>
-      <c r="C41" s="144" t="s">
+      <c r="B41" s="123"/>
+      <c r="C41" s="145" t="s">
         <v>484</v>
       </c>
       <c r="D41" s="25"/>
-      <c r="E41" s="149" t="s">
+      <c r="E41" s="54" t="s">
         <v>367</v>
       </c>
       <c r="F41" s="14" t="s">
@@ -11952,25 +11976,25 @@
       <c r="H41" s="13"/>
       <c r="I41" s="16"/>
       <c r="J41" s="16"/>
-      <c r="K41" s="114">
+      <c r="K41" s="115">
         <v>0.0</v>
       </c>
-      <c r="L41" s="122" t="s">
+      <c r="L41" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="M41" s="124"/>
+      <c r="M41" s="125"/>
       <c r="N41" s="16"/>
     </row>
     <row r="42">
       <c r="A42" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="B42" s="122"/>
-      <c r="C42" s="144" t="s">
+      <c r="B42" s="123"/>
+      <c r="C42" s="145" t="s">
         <v>484</v>
       </c>
       <c r="D42" s="25"/>
-      <c r="E42" s="149" t="s">
+      <c r="E42" s="54" t="s">
         <v>367</v>
       </c>
       <c r="F42" s="14" t="s">
@@ -11982,25 +12006,25 @@
       <c r="H42" s="13"/>
       <c r="I42" s="16"/>
       <c r="J42" s="16"/>
-      <c r="K42" s="114">
+      <c r="K42" s="115">
         <v>0.0</v>
       </c>
-      <c r="L42" s="122" t="s">
+      <c r="L42" s="123" t="s">
         <v>198</v>
       </c>
-      <c r="M42" s="124"/>
+      <c r="M42" s="125"/>
       <c r="N42" s="16"/>
     </row>
     <row r="43">
       <c r="A43" s="14" t="s">
         <v>620</v>
       </c>
-      <c r="B43" s="122"/>
-      <c r="C43" s="144" t="s">
+      <c r="B43" s="123"/>
+      <c r="C43" s="145" t="s">
         <v>484</v>
       </c>
       <c r="D43" s="25"/>
-      <c r="E43" s="149" t="s">
+      <c r="E43" s="54" t="s">
         <v>367</v>
       </c>
       <c r="F43" s="14" t="s">
@@ -12012,25 +12036,25 @@
       <c r="H43" s="13"/>
       <c r="I43" s="16"/>
       <c r="J43" s="16"/>
-      <c r="K43" s="114">
+      <c r="K43" s="115">
         <v>0.0</v>
       </c>
-      <c r="L43" s="122" t="s">
+      <c r="L43" s="123" t="s">
         <v>194</v>
       </c>
-      <c r="M43" s="124"/>
+      <c r="M43" s="125"/>
       <c r="N43" s="16"/>
     </row>
     <row r="44">
       <c r="A44" s="32" t="s">
         <v>621</v>
       </c>
-      <c r="B44" s="120"/>
-      <c r="C44" s="144" t="s">
+      <c r="B44" s="121"/>
+      <c r="C44" s="145" t="s">
         <v>484</v>
       </c>
       <c r="D44" s="39"/>
-      <c r="E44" s="136" t="s">
+      <c r="E44" s="137" t="s">
         <v>367</v>
       </c>
       <c r="F44" s="32" t="s">
@@ -12042,10 +12066,10 @@
       <c r="H44" s="36"/>
       <c r="I44" s="34"/>
       <c r="J44" s="34"/>
-      <c r="K44" s="116">
+      <c r="K44" s="117">
         <v>0.0</v>
       </c>
-      <c r="L44" s="120" t="s">
+      <c r="L44" s="121" t="s">
         <v>190</v>
       </c>
       <c r="M44" s="38"/>
@@ -12055,12 +12079,12 @@
       <c r="A45" s="32" t="s">
         <v>622</v>
       </c>
-      <c r="B45" s="120"/>
-      <c r="C45" s="144" t="s">
+      <c r="B45" s="121"/>
+      <c r="C45" s="145" t="s">
         <v>484</v>
       </c>
       <c r="D45" s="39"/>
-      <c r="E45" s="136" t="s">
+      <c r="E45" s="137" t="s">
         <v>367</v>
       </c>
       <c r="F45" s="32" t="s">
@@ -12072,20 +12096,20 @@
       <c r="H45" s="36"/>
       <c r="I45" s="34"/>
       <c r="J45" s="34"/>
-      <c r="K45" s="116">
+      <c r="K45" s="117">
         <v>0.0</v>
       </c>
-      <c r="L45" s="120" t="s">
+      <c r="L45" s="121" t="s">
         <v>186</v>
       </c>
-      <c r="M45" s="120"/>
+      <c r="M45" s="121"/>
       <c r="N45" s="34"/>
     </row>
     <row r="46">
       <c r="A46" s="24" t="s">
         <v>623</v>
       </c>
-      <c r="B46" s="122" t="s">
+      <c r="B46" s="123" t="s">
         <v>624</v>
       </c>
       <c r="C46" s="156" t="s">
@@ -12104,20 +12128,20 @@
       <c r="H46" s="13"/>
       <c r="I46" s="16"/>
       <c r="J46" s="16"/>
-      <c r="K46" s="114" t="s">
+      <c r="K46" s="115" t="s">
         <v>512</v>
       </c>
       <c r="L46" s="157" t="s">
         <v>627</v>
       </c>
-      <c r="M46" s="122"/>
+      <c r="M46" s="123"/>
       <c r="N46" s="16"/>
     </row>
     <row r="47">
       <c r="A47" s="24" t="s">
         <v>628</v>
       </c>
-      <c r="B47" s="122" t="s">
+      <c r="B47" s="123" t="s">
         <v>629</v>
       </c>
       <c r="C47" s="156" t="s">
@@ -12136,20 +12160,20 @@
       <c r="H47" s="13"/>
       <c r="I47" s="16"/>
       <c r="J47" s="16"/>
-      <c r="K47" s="114" t="s">
+      <c r="K47" s="115" t="s">
         <v>512</v>
       </c>
       <c r="L47" s="157" t="s">
         <v>631</v>
       </c>
-      <c r="M47" s="122"/>
+      <c r="M47" s="123"/>
       <c r="N47" s="16"/>
     </row>
     <row r="48">
       <c r="A48" s="24" t="s">
         <v>632</v>
       </c>
-      <c r="B48" s="122" t="s">
+      <c r="B48" s="123" t="s">
         <v>633</v>
       </c>
       <c r="C48" s="156" t="s">
@@ -12168,20 +12192,20 @@
       <c r="H48" s="13"/>
       <c r="I48" s="16"/>
       <c r="J48" s="16"/>
-      <c r="K48" s="114" t="s">
+      <c r="K48" s="115" t="s">
         <v>512</v>
       </c>
       <c r="L48" s="157" t="s">
         <v>635</v>
       </c>
-      <c r="M48" s="122"/>
+      <c r="M48" s="123"/>
       <c r="N48" s="16"/>
     </row>
     <row r="49">
       <c r="A49" s="24" t="s">
         <v>636</v>
       </c>
-      <c r="B49" s="122" t="s">
+      <c r="B49" s="123" t="s">
         <v>637</v>
       </c>
       <c r="C49" s="156" t="s">
@@ -12200,20 +12224,20 @@
       <c r="H49" s="13"/>
       <c r="I49" s="16"/>
       <c r="J49" s="16"/>
-      <c r="K49" s="114" t="s">
+      <c r="K49" s="115" t="s">
         <v>512</v>
       </c>
       <c r="L49" s="157" t="s">
         <v>639</v>
       </c>
-      <c r="M49" s="122"/>
+      <c r="M49" s="123"/>
       <c r="N49" s="16"/>
     </row>
     <row r="50">
       <c r="A50" s="24" t="s">
         <v>640</v>
       </c>
-      <c r="B50" s="122" t="s">
+      <c r="B50" s="123" t="s">
         <v>641</v>
       </c>
       <c r="C50" s="156" t="s">
@@ -12232,20 +12256,20 @@
       <c r="H50" s="13"/>
       <c r="I50" s="16"/>
       <c r="J50" s="16"/>
-      <c r="K50" s="114" t="s">
+      <c r="K50" s="115" t="s">
         <v>512</v>
       </c>
       <c r="L50" s="157" t="s">
         <v>643</v>
       </c>
-      <c r="M50" s="122"/>
+      <c r="M50" s="123"/>
       <c r="N50" s="16"/>
     </row>
     <row r="51">
       <c r="A51" s="24" t="s">
         <v>644</v>
       </c>
-      <c r="B51" s="122" t="s">
+      <c r="B51" s="123" t="s">
         <v>645</v>
       </c>
       <c r="C51" s="156" t="s">
@@ -12264,20 +12288,20 @@
       <c r="H51" s="13"/>
       <c r="I51" s="16"/>
       <c r="J51" s="16"/>
-      <c r="K51" s="114" t="s">
+      <c r="K51" s="115" t="s">
         <v>512</v>
       </c>
       <c r="L51" s="157" t="s">
         <v>647</v>
       </c>
-      <c r="M51" s="122"/>
+      <c r="M51" s="123"/>
       <c r="N51" s="16"/>
     </row>
     <row r="52">
       <c r="A52" s="24" t="s">
         <v>648</v>
       </c>
-      <c r="B52" s="122" t="s">
+      <c r="B52" s="123" t="s">
         <v>649</v>
       </c>
       <c r="C52" s="156" t="s">
@@ -12296,20 +12320,20 @@
       <c r="H52" s="13"/>
       <c r="I52" s="16"/>
       <c r="J52" s="16"/>
-      <c r="K52" s="114">
+      <c r="K52" s="115">
         <v>0.0</v>
       </c>
-      <c r="L52" s="122" t="s">
+      <c r="L52" s="123" t="s">
         <v>225</v>
       </c>
-      <c r="M52" s="122"/>
+      <c r="M52" s="123"/>
       <c r="N52" s="16"/>
     </row>
     <row r="53">
       <c r="A53" s="24" t="s">
         <v>651</v>
       </c>
-      <c r="B53" s="122" t="s">
+      <c r="B53" s="123" t="s">
         <v>652</v>
       </c>
       <c r="C53" s="156" t="s">
@@ -12328,20 +12352,20 @@
       <c r="H53" s="13"/>
       <c r="I53" s="16"/>
       <c r="J53" s="16"/>
-      <c r="K53" s="114">
+      <c r="K53" s="115">
         <v>0.0</v>
       </c>
-      <c r="L53" s="122" t="s">
+      <c r="L53" s="123" t="s">
         <v>230</v>
       </c>
-      <c r="M53" s="122"/>
+      <c r="M53" s="123"/>
       <c r="N53" s="16"/>
     </row>
     <row r="54">
       <c r="A54" s="24" t="s">
         <v>654</v>
       </c>
-      <c r="B54" s="122" t="s">
+      <c r="B54" s="123" t="s">
         <v>655</v>
       </c>
       <c r="C54" s="156" t="s">
@@ -12360,13 +12384,13 @@
       <c r="H54" s="13"/>
       <c r="I54" s="16"/>
       <c r="J54" s="16"/>
-      <c r="K54" s="114">
+      <c r="K54" s="115">
         <v>0.0</v>
       </c>
-      <c r="L54" s="122" t="s">
+      <c r="L54" s="123" t="s">
         <v>234</v>
       </c>
-      <c r="M54" s="122"/>
+      <c r="M54" s="123"/>
       <c r="N54" s="16"/>
     </row>
     <row r="55">
@@ -12415,10 +12439,10 @@
       <c r="E56" s="165" t="s">
         <v>370</v>
       </c>
-      <c r="F56" s="55" t="s">
+      <c r="F56" s="56" t="s">
         <v>662</v>
       </c>
-      <c r="G56" s="63"/>
+      <c r="G56" s="64"/>
       <c r="H56" s="166"/>
       <c r="I56" s="167"/>
       <c r="J56" s="167"/>
@@ -12435,7 +12459,7 @@
       <c r="A57" s="24" t="s">
         <v>663</v>
       </c>
-      <c r="B57" s="122" t="s">
+      <c r="B57" s="123" t="s">
         <v>664</v>
       </c>
       <c r="C57" s="156" t="s">
@@ -12445,27 +12469,27 @@
       <c r="E57" s="169" t="s">
         <v>370</v>
       </c>
-      <c r="F57" s="55" t="s">
+      <c r="F57" s="56" t="s">
         <v>665</v>
       </c>
-      <c r="G57" s="63"/>
-      <c r="H57" s="63"/>
-      <c r="I57" s="57"/>
-      <c r="J57" s="57"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="58"/>
+      <c r="J57" s="58"/>
       <c r="K57" s="170">
         <v>0.0</v>
       </c>
       <c r="L57" s="157" t="s">
         <v>190</v>
       </c>
-      <c r="M57" s="122"/>
+      <c r="M57" s="123"/>
       <c r="N57" s="16"/>
     </row>
     <row r="58">
       <c r="A58" s="24" t="s">
         <v>666</v>
       </c>
-      <c r="B58" s="122" t="s">
+      <c r="B58" s="123" t="s">
         <v>667</v>
       </c>
       <c r="C58" s="156" t="s">
@@ -12475,27 +12499,27 @@
       <c r="E58" s="169" t="s">
         <v>370</v>
       </c>
-      <c r="F58" s="55" t="s">
+      <c r="F58" s="56" t="s">
         <v>668</v>
       </c>
-      <c r="G58" s="63"/>
-      <c r="H58" s="63"/>
-      <c r="I58" s="57"/>
-      <c r="J58" s="57"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="58"/>
+      <c r="J58" s="58"/>
       <c r="K58" s="170">
         <v>0.0</v>
       </c>
       <c r="L58" s="157" t="s">
         <v>194</v>
       </c>
-      <c r="M58" s="122"/>
+      <c r="M58" s="123"/>
       <c r="N58" s="16"/>
     </row>
     <row r="59">
       <c r="A59" s="24" t="s">
         <v>669</v>
       </c>
-      <c r="B59" s="122" t="s">
+      <c r="B59" s="123" t="s">
         <v>670</v>
       </c>
       <c r="C59" s="156" t="s">
@@ -12505,27 +12529,27 @@
       <c r="E59" s="169" t="s">
         <v>370</v>
       </c>
-      <c r="F59" s="55" t="s">
+      <c r="F59" s="56" t="s">
         <v>671</v>
       </c>
-      <c r="G59" s="63"/>
-      <c r="H59" s="63"/>
-      <c r="I59" s="57"/>
-      <c r="J59" s="57"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="58"/>
+      <c r="J59" s="58"/>
       <c r="K59" s="170">
         <v>0.0</v>
       </c>
       <c r="L59" s="157" t="s">
         <v>198</v>
       </c>
-      <c r="M59" s="122"/>
+      <c r="M59" s="123"/>
       <c r="N59" s="16"/>
     </row>
     <row r="60">
       <c r="A60" s="24" t="s">
         <v>672</v>
       </c>
-      <c r="B60" s="122" t="s">
+      <c r="B60" s="123" t="s">
         <v>673</v>
       </c>
       <c r="C60" s="156" t="s">
@@ -12535,27 +12559,27 @@
       <c r="E60" s="169" t="s">
         <v>370</v>
       </c>
-      <c r="F60" s="55" t="s">
+      <c r="F60" s="56" t="s">
         <v>674</v>
       </c>
-      <c r="G60" s="63"/>
-      <c r="H60" s="63"/>
-      <c r="I60" s="57"/>
-      <c r="J60" s="57"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="58"/>
+      <c r="J60" s="58"/>
       <c r="K60" s="170">
         <v>0.0</v>
       </c>
       <c r="L60" s="157" t="s">
         <v>202</v>
       </c>
-      <c r="M60" s="122"/>
+      <c r="M60" s="123"/>
       <c r="N60" s="16"/>
     </row>
     <row r="61">
       <c r="A61" s="24" t="s">
         <v>675</v>
       </c>
-      <c r="B61" s="122" t="s">
+      <c r="B61" s="123" t="s">
         <v>676</v>
       </c>
       <c r="C61" s="156" t="s">
@@ -12565,27 +12589,27 @@
       <c r="E61" s="169" t="s">
         <v>370</v>
       </c>
-      <c r="F61" s="55" t="s">
+      <c r="F61" s="56" t="s">
         <v>677</v>
       </c>
-      <c r="G61" s="63"/>
-      <c r="H61" s="63"/>
-      <c r="I61" s="57"/>
-      <c r="J61" s="57"/>
+      <c r="G61" s="64"/>
+      <c r="H61" s="64"/>
+      <c r="I61" s="58"/>
+      <c r="J61" s="58"/>
       <c r="K61" s="170">
         <v>0.0</v>
       </c>
       <c r="L61" s="171" t="s">
         <v>206</v>
       </c>
-      <c r="M61" s="122"/>
+      <c r="M61" s="123"/>
       <c r="N61" s="16"/>
     </row>
     <row r="62">
       <c r="A62" s="24" t="s">
         <v>678</v>
       </c>
-      <c r="B62" s="122" t="s">
+      <c r="B62" s="123" t="s">
         <v>679</v>
       </c>
       <c r="C62" s="156" t="s">
@@ -12602,20 +12626,20 @@
       <c r="H62" s="13"/>
       <c r="I62" s="16"/>
       <c r="J62" s="16"/>
-      <c r="K62" s="114">
+      <c r="K62" s="115">
         <v>0.0</v>
       </c>
-      <c r="L62" s="122" t="s">
+      <c r="L62" s="123" t="s">
         <v>225</v>
       </c>
-      <c r="M62" s="122"/>
+      <c r="M62" s="123"/>
       <c r="N62" s="16"/>
     </row>
     <row r="63">
       <c r="A63" s="24" t="s">
         <v>681</v>
       </c>
-      <c r="B63" s="122" t="s">
+      <c r="B63" s="123" t="s">
         <v>682</v>
       </c>
       <c r="C63" s="156" t="s">
@@ -12632,20 +12656,20 @@
       <c r="H63" s="13"/>
       <c r="I63" s="16"/>
       <c r="J63" s="16"/>
-      <c r="K63" s="114">
+      <c r="K63" s="115">
         <v>0.0</v>
       </c>
-      <c r="L63" s="122" t="s">
+      <c r="L63" s="123" t="s">
         <v>230</v>
       </c>
-      <c r="M63" s="122"/>
+      <c r="M63" s="123"/>
       <c r="N63" s="16"/>
     </row>
     <row r="64">
       <c r="A64" s="24" t="s">
         <v>684</v>
       </c>
-      <c r="B64" s="122" t="s">
+      <c r="B64" s="123" t="s">
         <v>685</v>
       </c>
       <c r="C64" s="156" t="s">
@@ -12662,20 +12686,20 @@
       <c r="H64" s="13"/>
       <c r="I64" s="16"/>
       <c r="J64" s="16"/>
-      <c r="K64" s="114">
+      <c r="K64" s="115">
         <v>0.0</v>
       </c>
-      <c r="L64" s="122" t="s">
+      <c r="L64" s="123" t="s">
         <v>234</v>
       </c>
-      <c r="M64" s="122"/>
+      <c r="M64" s="123"/>
       <c r="N64" s="16"/>
     </row>
     <row r="65">
       <c r="A65" s="24" t="s">
         <v>687</v>
       </c>
-      <c r="B65" s="122" t="s">
+      <c r="B65" s="123" t="s">
         <v>688</v>
       </c>
       <c r="C65" s="156" t="s">
@@ -12692,20 +12716,20 @@
       <c r="H65" s="13"/>
       <c r="I65" s="16"/>
       <c r="J65" s="16"/>
-      <c r="K65" s="114">
+      <c r="K65" s="115">
         <v>0.0</v>
       </c>
-      <c r="L65" s="122" t="s">
+      <c r="L65" s="123" t="s">
         <v>306</v>
       </c>
-      <c r="M65" s="122"/>
+      <c r="M65" s="123"/>
       <c r="N65" s="16"/>
     </row>
     <row r="66">
       <c r="A66" s="24" t="s">
         <v>690</v>
       </c>
-      <c r="B66" s="122" t="s">
+      <c r="B66" s="123" t="s">
         <v>691</v>
       </c>
       <c r="C66" s="156" t="s">
@@ -12718,26 +12742,26 @@
       <c r="F66" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="G66" s="15" t="s">
+      <c r="G66" s="172" t="s">
         <v>692</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="16"/>
       <c r="J66" s="16"/>
-      <c r="K66" s="172" t="s">
+      <c r="K66" s="173" t="s">
         <v>693</v>
       </c>
-      <c r="L66" s="173" t="s">
+      <c r="L66" s="174" t="s">
         <v>694</v>
       </c>
-      <c r="M66" s="173"/>
+      <c r="M66" s="174"/>
       <c r="N66" s="16"/>
     </row>
     <row r="67">
       <c r="A67" s="24" t="s">
         <v>695</v>
       </c>
-      <c r="B67" s="122" t="s">
+      <c r="B67" s="123" t="s">
         <v>696</v>
       </c>
       <c r="C67" s="156" t="s">
@@ -12756,20 +12780,20 @@
       <c r="H67" s="13"/>
       <c r="I67" s="16"/>
       <c r="J67" s="16"/>
-      <c r="K67" s="114" t="s">
+      <c r="K67" s="115" t="s">
         <v>586</v>
       </c>
-      <c r="L67" s="122" t="s">
+      <c r="L67" s="123" t="s">
         <v>587</v>
       </c>
-      <c r="M67" s="122"/>
+      <c r="M67" s="123"/>
       <c r="N67" s="16"/>
     </row>
     <row r="68">
       <c r="A68" s="24" t="s">
         <v>698</v>
       </c>
-      <c r="B68" s="122" t="s">
+      <c r="B68" s="123" t="s">
         <v>699</v>
       </c>
       <c r="C68" s="156" t="s">
@@ -12779,7 +12803,7 @@
       <c r="E68" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="F68" s="14" t="s">
+      <c r="F68" s="175" t="s">
         <v>692</v>
       </c>
       <c r="G68" s="15" t="s">
@@ -12801,7 +12825,7 @@
       <c r="A69" s="24" t="s">
         <v>701</v>
       </c>
-      <c r="B69" s="122" t="s">
+      <c r="B69" s="123" t="s">
         <v>702</v>
       </c>
       <c r="C69" s="156" t="s">
@@ -12811,7 +12835,7 @@
       <c r="E69" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="F69" s="14" t="s">
+      <c r="F69" s="175" t="s">
         <v>692</v>
       </c>
       <c r="G69" s="15" t="s">
@@ -12820,20 +12844,20 @@
       <c r="H69" s="13"/>
       <c r="I69" s="16"/>
       <c r="J69" s="16"/>
-      <c r="K69" s="174" t="s">
+      <c r="K69" s="176" t="s">
         <v>704</v>
       </c>
-      <c r="L69" s="122" t="s">
+      <c r="L69" s="123" t="s">
         <v>705</v>
       </c>
-      <c r="M69" s="122"/>
+      <c r="M69" s="123"/>
       <c r="N69" s="16"/>
     </row>
     <row r="70">
       <c r="A70" s="24" t="s">
         <v>706</v>
       </c>
-      <c r="B70" s="122" t="s">
+      <c r="B70" s="123" t="s">
         <v>707</v>
       </c>
       <c r="C70" s="156" t="s">
@@ -12843,7 +12867,7 @@
       <c r="E70" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="F70" s="14" t="s">
+      <c r="F70" s="175" t="s">
         <v>692</v>
       </c>
       <c r="G70" s="15" t="s">
@@ -12852,20 +12876,20 @@
       <c r="H70" s="13"/>
       <c r="I70" s="16"/>
       <c r="J70" s="16"/>
-      <c r="K70" s="174" t="s">
+      <c r="K70" s="176" t="s">
         <v>709</v>
       </c>
-      <c r="L70" s="122" t="s">
+      <c r="L70" s="123" t="s">
         <v>710</v>
       </c>
-      <c r="M70" s="122"/>
+      <c r="M70" s="123"/>
       <c r="N70" s="16"/>
     </row>
     <row r="71">
       <c r="A71" s="24" t="s">
         <v>711</v>
       </c>
-      <c r="B71" s="122" t="s">
+      <c r="B71" s="123" t="s">
         <v>712</v>
       </c>
       <c r="C71" s="156" t="s">
@@ -12875,7 +12899,7 @@
       <c r="E71" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="F71" s="14" t="s">
+      <c r="F71" s="175" t="s">
         <v>692</v>
       </c>
       <c r="G71" s="15" t="s">
@@ -12884,20 +12908,20 @@
       <c r="H71" s="13"/>
       <c r="I71" s="16"/>
       <c r="J71" s="16"/>
-      <c r="K71" s="174" t="s">
+      <c r="K71" s="176" t="s">
         <v>704</v>
       </c>
-      <c r="L71" s="122" t="s">
+      <c r="L71" s="123" t="s">
         <v>714</v>
       </c>
-      <c r="M71" s="122"/>
+      <c r="M71" s="123"/>
       <c r="N71" s="16"/>
     </row>
     <row r="72">
       <c r="A72" s="24" t="s">
         <v>715</v>
       </c>
-      <c r="B72" s="122" t="s">
+      <c r="B72" s="123" t="s">
         <v>716</v>
       </c>
       <c r="C72" s="156" t="s">
@@ -12907,7 +12931,7 @@
       <c r="E72" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="F72" s="14" t="s">
+      <c r="F72" s="175" t="s">
         <v>692</v>
       </c>
       <c r="G72" s="15" t="s">
@@ -12916,20 +12940,20 @@
       <c r="H72" s="13"/>
       <c r="I72" s="16"/>
       <c r="J72" s="16"/>
-      <c r="K72" s="174" t="s">
+      <c r="K72" s="176" t="s">
         <v>709</v>
       </c>
-      <c r="L72" s="122" t="s">
+      <c r="L72" s="123" t="s">
         <v>718</v>
       </c>
-      <c r="M72" s="122"/>
+      <c r="M72" s="123"/>
       <c r="N72" s="16"/>
     </row>
     <row r="73">
       <c r="A73" s="24" t="s">
         <v>719</v>
       </c>
-      <c r="B73" s="122" t="s">
+      <c r="B73" s="123" t="s">
         <v>720</v>
       </c>
       <c r="C73" s="156" t="s">
@@ -12942,26 +12966,26 @@
       <c r="F73" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="G73" s="15" t="s">
+      <c r="G73" s="177" t="s">
         <v>721</v>
       </c>
       <c r="H73" s="13"/>
       <c r="I73" s="16"/>
       <c r="J73" s="16"/>
-      <c r="K73" s="172" t="s">
+      <c r="K73" s="173" t="s">
         <v>693</v>
       </c>
-      <c r="L73" s="173" t="s">
+      <c r="L73" s="174" t="s">
         <v>722</v>
       </c>
-      <c r="M73" s="173"/>
+      <c r="M73" s="174"/>
       <c r="N73" s="16"/>
     </row>
     <row r="74">
       <c r="A74" s="24" t="s">
         <v>723</v>
       </c>
-      <c r="B74" s="122" t="s">
+      <c r="B74" s="123" t="s">
         <v>724</v>
       </c>
       <c r="C74" s="156" t="s">
@@ -12980,20 +13004,20 @@
       <c r="H74" s="13"/>
       <c r="I74" s="16"/>
       <c r="J74" s="16"/>
-      <c r="K74" s="114" t="s">
+      <c r="K74" s="115" t="s">
         <v>586</v>
       </c>
-      <c r="L74" s="122" t="s">
+      <c r="L74" s="123" t="s">
         <v>591</v>
       </c>
-      <c r="M74" s="122"/>
+      <c r="M74" s="123"/>
       <c r="N74" s="16"/>
     </row>
     <row r="75">
       <c r="A75" s="24" t="s">
         <v>726</v>
       </c>
-      <c r="B75" s="122" t="s">
+      <c r="B75" s="123" t="s">
         <v>699</v>
       </c>
       <c r="C75" s="156" t="s">
@@ -13003,7 +13027,7 @@
       <c r="E75" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="F75" s="14" t="s">
+      <c r="F75" s="178" t="s">
         <v>721</v>
       </c>
       <c r="G75" s="15" t="s">
@@ -13025,7 +13049,7 @@
       <c r="A76" s="24" t="s">
         <v>728</v>
       </c>
-      <c r="B76" s="122" t="s">
+      <c r="B76" s="123" t="s">
         <v>729</v>
       </c>
       <c r="C76" s="156" t="s">
@@ -13035,7 +13059,7 @@
       <c r="E76" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="F76" s="15" t="s">
+      <c r="F76" s="177" t="s">
         <v>721</v>
       </c>
       <c r="G76" s="15" t="s">
@@ -13044,20 +13068,20 @@
       <c r="H76" s="13"/>
       <c r="I76" s="16"/>
       <c r="J76" s="16"/>
-      <c r="K76" s="175" t="s">
+      <c r="K76" s="179" t="s">
         <v>704</v>
       </c>
-      <c r="L76" s="122" t="s">
+      <c r="L76" s="123" t="s">
         <v>731</v>
       </c>
-      <c r="M76" s="122"/>
+      <c r="M76" s="123"/>
       <c r="N76" s="16"/>
     </row>
     <row r="77">
       <c r="A77" s="24" t="s">
         <v>732</v>
       </c>
-      <c r="B77" s="122" t="s">
+      <c r="B77" s="123" t="s">
         <v>733</v>
       </c>
       <c r="C77" s="156" t="s">
@@ -13067,7 +13091,7 @@
       <c r="E77" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="F77" s="15" t="s">
+      <c r="F77" s="177" t="s">
         <v>721</v>
       </c>
       <c r="G77" s="15" t="s">
@@ -13076,20 +13100,20 @@
       <c r="H77" s="13"/>
       <c r="I77" s="16"/>
       <c r="J77" s="16"/>
-      <c r="K77" s="175" t="s">
+      <c r="K77" s="179" t="s">
         <v>709</v>
       </c>
-      <c r="L77" s="122" t="s">
+      <c r="L77" s="123" t="s">
         <v>735</v>
       </c>
-      <c r="M77" s="122"/>
+      <c r="M77" s="123"/>
       <c r="N77" s="16"/>
     </row>
     <row r="78">
       <c r="A78" s="24" t="s">
         <v>736</v>
       </c>
-      <c r="B78" s="122" t="s">
+      <c r="B78" s="123" t="s">
         <v>737</v>
       </c>
       <c r="C78" s="156" t="s">
@@ -13099,7 +13123,7 @@
       <c r="E78" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="F78" s="15" t="s">
+      <c r="F78" s="177" t="s">
         <v>721</v>
       </c>
       <c r="G78" s="15" t="s">
@@ -13108,20 +13132,20 @@
       <c r="H78" s="13"/>
       <c r="I78" s="16"/>
       <c r="J78" s="16"/>
-      <c r="K78" s="114" t="s">
+      <c r="K78" s="115" t="s">
         <v>704</v>
       </c>
-      <c r="L78" s="122" t="s">
+      <c r="L78" s="123" t="s">
         <v>705</v>
       </c>
-      <c r="M78" s="122"/>
+      <c r="M78" s="123"/>
       <c r="N78" s="16"/>
     </row>
     <row r="79">
       <c r="A79" s="24" t="s">
         <v>739</v>
       </c>
-      <c r="B79" s="122" t="s">
+      <c r="B79" s="123" t="s">
         <v>740</v>
       </c>
       <c r="C79" s="156" t="s">
@@ -13131,7 +13155,7 @@
       <c r="E79" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="F79" s="15" t="s">
+      <c r="F79" s="177" t="s">
         <v>721</v>
       </c>
       <c r="G79" s="15" t="s">
@@ -13140,190 +13164,190 @@
       <c r="H79" s="13"/>
       <c r="I79" s="16"/>
       <c r="J79" s="16"/>
-      <c r="K79" s="114" t="s">
+      <c r="K79" s="115" t="s">
         <v>709</v>
       </c>
-      <c r="L79" s="122" t="s">
+      <c r="L79" s="123" t="s">
         <v>710</v>
       </c>
-      <c r="M79" s="122"/>
+      <c r="M79" s="123"/>
       <c r="N79" s="16"/>
     </row>
     <row r="80">
-      <c r="A80" s="126" t="s">
+      <c r="A80" s="127" t="s">
         <v>742</v>
       </c>
-      <c r="B80" s="133" t="s">
+      <c r="B80" s="134" t="s">
         <v>743</v>
       </c>
-      <c r="C80" s="147" t="s">
+      <c r="C80" s="148" t="s">
         <v>480</v>
       </c>
-      <c r="D80" s="128"/>
-      <c r="E80" s="139" t="s">
+      <c r="D80" s="129"/>
+      <c r="E80" s="140" t="s">
         <v>370</v>
       </c>
-      <c r="F80" s="129" t="s">
+      <c r="F80" s="130" t="s">
         <v>744</v>
       </c>
-      <c r="G80" s="130" t="s">
+      <c r="G80" s="131" t="s">
         <v>745</v>
       </c>
       <c r="H80" s="13"/>
       <c r="I80" s="16"/>
       <c r="J80" s="16"/>
-      <c r="K80" s="114">
+      <c r="K80" s="115">
         <v>0.0</v>
       </c>
-      <c r="L80" s="122" t="s">
+      <c r="L80" s="123" t="s">
         <v>297</v>
       </c>
-      <c r="M80" s="122"/>
+      <c r="M80" s="123"/>
       <c r="N80" s="16"/>
     </row>
     <row r="81">
-      <c r="A81" s="136" t="s">
+      <c r="A81" s="137" t="s">
         <v>746</v>
       </c>
-      <c r="B81" s="120" t="s">
+      <c r="B81" s="121" t="s">
         <v>747</v>
       </c>
-      <c r="C81" s="144" t="s">
+      <c r="C81" s="145" t="s">
         <v>484</v>
       </c>
       <c r="D81" s="39"/>
-      <c r="E81" s="118" t="s">
+      <c r="E81" s="119" t="s">
         <v>367</v>
       </c>
       <c r="F81" s="32" t="s">
         <v>748</v>
       </c>
-      <c r="G81" s="176" t="s">
+      <c r="G81" s="180" t="s">
         <v>749</v>
       </c>
       <c r="H81" s="36"/>
       <c r="I81" s="34"/>
       <c r="J81" s="34"/>
-      <c r="K81" s="116" t="s">
+      <c r="K81" s="117" t="s">
         <v>524</v>
       </c>
-      <c r="L81" s="120" t="s">
+      <c r="L81" s="121" t="s">
         <v>750</v>
       </c>
-      <c r="M81" s="120"/>
+      <c r="M81" s="121"/>
       <c r="N81" s="34"/>
     </row>
     <row r="82">
-      <c r="A82" s="136" t="s">
+      <c r="A82" s="137" t="s">
         <v>751</v>
       </c>
-      <c r="B82" s="120" t="s">
+      <c r="B82" s="121" t="s">
         <v>752</v>
       </c>
-      <c r="C82" s="144" t="s">
+      <c r="C82" s="145" t="s">
         <v>484</v>
       </c>
       <c r="D82" s="39"/>
-      <c r="E82" s="118" t="s">
+      <c r="E82" s="119" t="s">
         <v>363</v>
       </c>
-      <c r="F82" s="176" t="s">
+      <c r="F82" s="180" t="s">
         <v>749</v>
       </c>
-      <c r="G82" s="142" t="s">
+      <c r="G82" s="143" t="s">
         <v>753</v>
       </c>
       <c r="H82" s="36"/>
       <c r="I82" s="34"/>
       <c r="J82" s="34"/>
-      <c r="K82" s="116">
+      <c r="K82" s="117">
         <v>0.0</v>
       </c>
-      <c r="L82" s="120" t="s">
+      <c r="L82" s="121" t="s">
         <v>274</v>
       </c>
-      <c r="M82" s="120"/>
+      <c r="M82" s="121"/>
       <c r="N82" s="34"/>
     </row>
     <row r="83">
-      <c r="A83" s="136" t="s">
+      <c r="A83" s="137" t="s">
         <v>754</v>
       </c>
-      <c r="B83" s="120" t="s">
+      <c r="B83" s="121" t="s">
         <v>755</v>
       </c>
-      <c r="C83" s="144" t="s">
+      <c r="C83" s="145" t="s">
         <v>484</v>
       </c>
       <c r="D83" s="39"/>
-      <c r="E83" s="118" t="s">
+      <c r="E83" s="119" t="s">
         <v>363</v>
       </c>
-      <c r="F83" s="176" t="s">
+      <c r="F83" s="180" t="s">
         <v>749</v>
       </c>
-      <c r="G83" s="142" t="s">
+      <c r="G83" s="143" t="s">
         <v>756</v>
       </c>
       <c r="H83" s="36"/>
       <c r="I83" s="34"/>
       <c r="J83" s="34"/>
-      <c r="K83" s="116" t="s">
+      <c r="K83" s="117" t="s">
         <v>704</v>
       </c>
-      <c r="L83" s="120" t="s">
+      <c r="L83" s="121" t="s">
         <v>757</v>
       </c>
-      <c r="M83" s="120"/>
+      <c r="M83" s="121"/>
       <c r="N83" s="34"/>
     </row>
     <row r="84">
-      <c r="A84" s="136" t="s">
+      <c r="A84" s="137" t="s">
         <v>758</v>
       </c>
-      <c r="B84" s="120" t="s">
+      <c r="B84" s="121" t="s">
         <v>759</v>
       </c>
-      <c r="C84" s="144" t="s">
+      <c r="C84" s="145" t="s">
         <v>484</v>
       </c>
       <c r="D84" s="39"/>
-      <c r="E84" s="118" t="s">
+      <c r="E84" s="119" t="s">
         <v>363</v>
       </c>
-      <c r="F84" s="176" t="s">
+      <c r="F84" s="180" t="s">
         <v>749</v>
       </c>
-      <c r="G84" s="142" t="s">
+      <c r="G84" s="143" t="s">
         <v>760</v>
       </c>
       <c r="H84" s="36"/>
       <c r="I84" s="34"/>
       <c r="J84" s="34"/>
-      <c r="K84" s="116" t="s">
+      <c r="K84" s="117" t="s">
         <v>709</v>
       </c>
-      <c r="L84" s="120" t="s">
+      <c r="L84" s="121" t="s">
         <v>761</v>
       </c>
-      <c r="M84" s="120"/>
+      <c r="M84" s="121"/>
       <c r="N84" s="34"/>
     </row>
     <row r="85">
-      <c r="A85" s="136" t="s">
+      <c r="A85" s="137" t="s">
         <v>762</v>
       </c>
-      <c r="B85" s="120" t="s">
+      <c r="B85" s="121" t="s">
         <v>763</v>
       </c>
-      <c r="C85" s="144" t="s">
+      <c r="C85" s="145" t="s">
         <v>484</v>
       </c>
       <c r="D85" s="39"/>
-      <c r="E85" s="118" t="s">
+      <c r="E85" s="119" t="s">
         <v>363</v>
       </c>
-      <c r="F85" s="176" t="s">
+      <c r="F85" s="180" t="s">
         <v>749</v>
       </c>
       <c r="G85" s="32" t="s">
@@ -13332,30 +13356,30 @@
       <c r="H85" s="36"/>
       <c r="I85" s="34"/>
       <c r="J85" s="34"/>
-      <c r="K85" s="116" t="s">
+      <c r="K85" s="117" t="s">
         <v>704</v>
       </c>
-      <c r="L85" s="120" t="s">
+      <c r="L85" s="121" t="s">
         <v>731</v>
       </c>
-      <c r="M85" s="120"/>
+      <c r="M85" s="121"/>
       <c r="N85" s="34"/>
     </row>
     <row r="86">
-      <c r="A86" s="136" t="s">
+      <c r="A86" s="137" t="s">
         <v>765</v>
       </c>
-      <c r="B86" s="120" t="s">
+      <c r="B86" s="121" t="s">
         <v>766</v>
       </c>
-      <c r="C86" s="144" t="s">
+      <c r="C86" s="145" t="s">
         <v>484</v>
       </c>
       <c r="D86" s="39"/>
-      <c r="E86" s="118" t="s">
+      <c r="E86" s="119" t="s">
         <v>363</v>
       </c>
-      <c r="F86" s="176" t="s">
+      <c r="F86" s="180" t="s">
         <v>749</v>
       </c>
       <c r="G86" s="32" t="s">
@@ -13364,57 +13388,57 @@
       <c r="H86" s="36"/>
       <c r="I86" s="34"/>
       <c r="J86" s="34"/>
-      <c r="K86" s="116" t="s">
+      <c r="K86" s="117" t="s">
         <v>709</v>
       </c>
-      <c r="L86" s="120" t="s">
+      <c r="L86" s="121" t="s">
         <v>735</v>
       </c>
-      <c r="M86" s="120"/>
+      <c r="M86" s="121"/>
       <c r="N86" s="34"/>
     </row>
     <row r="87">
-      <c r="A87" s="177" t="s">
+      <c r="A87" s="181" t="s">
         <v>768</v>
       </c>
-      <c r="B87" s="178" t="s">
+      <c r="B87" s="182" t="s">
         <v>769</v>
       </c>
-      <c r="C87" s="179" t="s">
+      <c r="C87" s="183" t="s">
         <v>480</v>
       </c>
-      <c r="D87" s="180"/>
-      <c r="E87" s="181" t="s">
+      <c r="D87" s="184"/>
+      <c r="E87" s="185" t="s">
         <v>370</v>
       </c>
-      <c r="F87" s="182" t="s">
+      <c r="F87" s="186" t="s">
         <v>770</v>
       </c>
-      <c r="G87" s="182"/>
-      <c r="H87" s="183"/>
-      <c r="I87" s="184"/>
-      <c r="J87" s="184"/>
-      <c r="K87" s="178">
+      <c r="G87" s="186"/>
+      <c r="H87" s="187"/>
+      <c r="I87" s="188"/>
+      <c r="J87" s="188"/>
+      <c r="K87" s="182">
         <v>0.0</v>
       </c>
-      <c r="L87" s="178" t="s">
+      <c r="L87" s="182" t="s">
         <v>302</v>
       </c>
-      <c r="M87" s="178"/>
-      <c r="N87" s="184"/>
+      <c r="M87" s="182"/>
+      <c r="N87" s="188"/>
     </row>
     <row r="88">
-      <c r="A88" s="136" t="s">
+      <c r="A88" s="137" t="s">
         <v>771</v>
       </c>
-      <c r="B88" s="120" t="s">
+      <c r="B88" s="121" t="s">
         <v>772</v>
       </c>
-      <c r="C88" s="144" t="s">
+      <c r="C88" s="145" t="s">
         <v>484</v>
       </c>
       <c r="D88" s="39"/>
-      <c r="E88" s="118" t="s">
+      <c r="E88" s="119" t="s">
         <v>367</v>
       </c>
       <c r="F88" s="32" t="s">
@@ -13426,27 +13450,27 @@
       <c r="H88" s="36"/>
       <c r="I88" s="34"/>
       <c r="J88" s="34"/>
-      <c r="K88" s="116" t="s">
+      <c r="K88" s="117" t="s">
         <v>524</v>
       </c>
-      <c r="L88" s="120" t="s">
+      <c r="L88" s="121" t="s">
         <v>775</v>
       </c>
-      <c r="M88" s="120"/>
+      <c r="M88" s="121"/>
       <c r="N88" s="34"/>
     </row>
     <row r="89">
-      <c r="A89" s="136" t="s">
+      <c r="A89" s="137" t="s">
         <v>776</v>
       </c>
-      <c r="B89" s="120" t="s">
+      <c r="B89" s="121" t="s">
         <v>777</v>
       </c>
-      <c r="C89" s="144" t="s">
+      <c r="C89" s="145" t="s">
         <v>484</v>
       </c>
       <c r="D89" s="39"/>
-      <c r="E89" s="118" t="s">
+      <c r="E89" s="119" t="s">
         <v>363</v>
       </c>
       <c r="F89" s="41" t="s">
@@ -13458,27 +13482,27 @@
       <c r="H89" s="36"/>
       <c r="I89" s="34"/>
       <c r="J89" s="34"/>
-      <c r="K89" s="116">
+      <c r="K89" s="117">
         <v>0.0</v>
       </c>
-      <c r="L89" s="120" t="s">
+      <c r="L89" s="121" t="s">
         <v>274</v>
       </c>
-      <c r="M89" s="120"/>
+      <c r="M89" s="121"/>
       <c r="N89" s="34"/>
     </row>
     <row r="90">
-      <c r="A90" s="136" t="s">
+      <c r="A90" s="137" t="s">
         <v>779</v>
       </c>
-      <c r="B90" s="120" t="s">
+      <c r="B90" s="121" t="s">
         <v>780</v>
       </c>
-      <c r="C90" s="144" t="s">
+      <c r="C90" s="145" t="s">
         <v>484</v>
       </c>
       <c r="D90" s="39"/>
-      <c r="E90" s="118" t="s">
+      <c r="E90" s="119" t="s">
         <v>363</v>
       </c>
       <c r="F90" s="41" t="s">
@@ -13490,27 +13514,27 @@
       <c r="H90" s="36"/>
       <c r="I90" s="34"/>
       <c r="J90" s="34"/>
-      <c r="K90" s="174" t="s">
+      <c r="K90" s="176" t="s">
         <v>704</v>
       </c>
-      <c r="L90" s="120" t="s">
+      <c r="L90" s="121" t="s">
         <v>714</v>
       </c>
-      <c r="M90" s="120"/>
+      <c r="M90" s="121"/>
       <c r="N90" s="34"/>
     </row>
     <row r="91">
-      <c r="A91" s="136" t="s">
+      <c r="A91" s="137" t="s">
         <v>782</v>
       </c>
-      <c r="B91" s="120" t="s">
+      <c r="B91" s="121" t="s">
         <v>783</v>
       </c>
-      <c r="C91" s="144" t="s">
+      <c r="C91" s="145" t="s">
         <v>484</v>
       </c>
       <c r="D91" s="39"/>
-      <c r="E91" s="118" t="s">
+      <c r="E91" s="119" t="s">
         <v>363</v>
       </c>
       <c r="F91" s="41" t="s">
@@ -13522,84 +13546,84 @@
       <c r="H91" s="36"/>
       <c r="I91" s="34"/>
       <c r="J91" s="34"/>
-      <c r="K91" s="174" t="s">
+      <c r="K91" s="176" t="s">
         <v>709</v>
       </c>
-      <c r="L91" s="120" t="s">
+      <c r="L91" s="121" t="s">
         <v>785</v>
       </c>
-      <c r="M91" s="120"/>
+      <c r="M91" s="121"/>
       <c r="N91" s="34"/>
     </row>
     <row r="92">
-      <c r="A92" s="126" t="s">
+      <c r="A92" s="127" t="s">
         <v>786</v>
       </c>
-      <c r="B92" s="133" t="s">
+      <c r="B92" s="134" t="s">
         <v>787</v>
       </c>
-      <c r="C92" s="147" t="s">
+      <c r="C92" s="148" t="s">
         <v>484</v>
       </c>
-      <c r="D92" s="128"/>
-      <c r="E92" s="139" t="s">
+      <c r="D92" s="129"/>
+      <c r="E92" s="140" t="s">
         <v>363</v>
       </c>
       <c r="F92" s="41" t="s">
         <v>774</v>
       </c>
-      <c r="G92" s="129" t="s">
+      <c r="G92" s="130" t="s">
         <v>788</v>
       </c>
-      <c r="H92" s="141"/>
-      <c r="I92" s="132"/>
-      <c r="J92" s="132"/>
-      <c r="K92" s="127" t="s">
+      <c r="H92" s="142"/>
+      <c r="I92" s="133"/>
+      <c r="J92" s="133"/>
+      <c r="K92" s="128" t="s">
         <v>704</v>
       </c>
-      <c r="L92" s="133" t="s">
+      <c r="L92" s="134" t="s">
         <v>705</v>
       </c>
-      <c r="M92" s="133"/>
-      <c r="N92" s="132"/>
+      <c r="M92" s="134"/>
+      <c r="N92" s="133"/>
     </row>
     <row r="93">
-      <c r="A93" s="126" t="s">
+      <c r="A93" s="127" t="s">
         <v>789</v>
       </c>
-      <c r="B93" s="133" t="s">
+      <c r="B93" s="134" t="s">
         <v>790</v>
       </c>
-      <c r="C93" s="147" t="s">
+      <c r="C93" s="148" t="s">
         <v>484</v>
       </c>
-      <c r="D93" s="128"/>
-      <c r="E93" s="139" t="s">
+      <c r="D93" s="129"/>
+      <c r="E93" s="140" t="s">
         <v>363</v>
       </c>
       <c r="F93" s="41" t="s">
         <v>774</v>
       </c>
-      <c r="G93" s="129" t="s">
+      <c r="G93" s="130" t="s">
         <v>791</v>
       </c>
-      <c r="H93" s="141"/>
-      <c r="I93" s="132"/>
-      <c r="J93" s="132"/>
-      <c r="K93" s="127" t="s">
+      <c r="H93" s="142"/>
+      <c r="I93" s="133"/>
+      <c r="J93" s="133"/>
+      <c r="K93" s="128" t="s">
         <v>709</v>
       </c>
-      <c r="L93" s="133" t="s">
+      <c r="L93" s="134" t="s">
         <v>710</v>
       </c>
-      <c r="M93" s="133"/>
-      <c r="N93" s="132"/>
+      <c r="M93" s="134"/>
+      <c r="N93" s="133"/>
     </row>
     <row r="94">
       <c r="A94" s="24" t="s">
         <v>792</v>
       </c>
-      <c r="B94" s="122" t="s">
+      <c r="B94" s="123" t="s">
         <v>793</v>
       </c>
       <c r="C94" s="156" t="s">
@@ -13616,20 +13640,20 @@
       <c r="H94" s="13"/>
       <c r="I94" s="16"/>
       <c r="J94" s="16"/>
-      <c r="K94" s="114">
+      <c r="K94" s="115">
         <v>0.0</v>
       </c>
-      <c r="L94" s="122" t="s">
+      <c r="L94" s="123" t="s">
         <v>297</v>
       </c>
-      <c r="M94" s="122"/>
+      <c r="M94" s="123"/>
       <c r="N94" s="16"/>
     </row>
     <row r="95">
       <c r="A95" s="24" t="s">
         <v>795</v>
       </c>
-      <c r="B95" s="122" t="s">
+      <c r="B95" s="123" t="s">
         <v>796</v>
       </c>
       <c r="C95" s="156" t="s">
@@ -13648,20 +13672,20 @@
       <c r="H95" s="13"/>
       <c r="I95" s="16"/>
       <c r="J95" s="16"/>
-      <c r="K95" s="116" t="s">
+      <c r="K95" s="117" t="s">
         <v>524</v>
       </c>
-      <c r="L95" s="120" t="s">
+      <c r="L95" s="121" t="s">
         <v>750</v>
       </c>
-      <c r="M95" s="120"/>
+      <c r="M95" s="121"/>
       <c r="N95" s="16"/>
     </row>
     <row r="96">
       <c r="A96" s="24" t="s">
         <v>799</v>
       </c>
-      <c r="B96" s="122" t="s">
+      <c r="B96" s="123" t="s">
         <v>800</v>
       </c>
       <c r="C96" s="156" t="s">
@@ -13680,20 +13704,20 @@
       <c r="H96" s="13"/>
       <c r="I96" s="16"/>
       <c r="J96" s="16"/>
-      <c r="K96" s="114">
+      <c r="K96" s="115">
         <v>0.0</v>
       </c>
-      <c r="L96" s="122" t="s">
+      <c r="L96" s="123" t="s">
         <v>274</v>
       </c>
-      <c r="M96" s="122"/>
+      <c r="M96" s="123"/>
       <c r="N96" s="16"/>
     </row>
     <row r="97">
       <c r="A97" s="24" t="s">
         <v>802</v>
       </c>
-      <c r="B97" s="122" t="s">
+      <c r="B97" s="123" t="s">
         <v>803</v>
       </c>
       <c r="C97" s="156" t="s">
@@ -13712,20 +13736,20 @@
       <c r="H97" s="13"/>
       <c r="I97" s="16"/>
       <c r="J97" s="16"/>
-      <c r="K97" s="114" t="s">
+      <c r="K97" s="115" t="s">
         <v>704</v>
       </c>
-      <c r="L97" s="122" t="s">
+      <c r="L97" s="123" t="s">
         <v>757</v>
       </c>
-      <c r="M97" s="122"/>
+      <c r="M97" s="123"/>
       <c r="N97" s="16"/>
     </row>
     <row r="98">
       <c r="A98" s="24" t="s">
         <v>805</v>
       </c>
-      <c r="B98" s="122" t="s">
+      <c r="B98" s="123" t="s">
         <v>806</v>
       </c>
       <c r="C98" s="156" t="s">
@@ -13744,20 +13768,20 @@
       <c r="H98" s="13"/>
       <c r="I98" s="16"/>
       <c r="J98" s="16"/>
-      <c r="K98" s="114" t="s">
+      <c r="K98" s="115" t="s">
         <v>709</v>
       </c>
-      <c r="L98" s="122" t="s">
+      <c r="L98" s="123" t="s">
         <v>761</v>
       </c>
-      <c r="M98" s="122"/>
+      <c r="M98" s="123"/>
       <c r="N98" s="16"/>
     </row>
     <row r="99">
       <c r="A99" s="24" t="s">
         <v>808</v>
       </c>
-      <c r="B99" s="122" t="s">
+      <c r="B99" s="123" t="s">
         <v>809</v>
       </c>
       <c r="C99" s="156" t="s">
@@ -13776,20 +13800,20 @@
       <c r="H99" s="13"/>
       <c r="I99" s="16"/>
       <c r="J99" s="16"/>
-      <c r="K99" s="114" t="s">
+      <c r="K99" s="115" t="s">
         <v>704</v>
       </c>
-      <c r="L99" s="122" t="s">
+      <c r="L99" s="123" t="s">
         <v>731</v>
       </c>
-      <c r="M99" s="122"/>
+      <c r="M99" s="123"/>
       <c r="N99" s="16"/>
     </row>
     <row r="100">
       <c r="A100" s="24" t="s">
         <v>811</v>
       </c>
-      <c r="B100" s="122" t="s">
+      <c r="B100" s="123" t="s">
         <v>809</v>
       </c>
       <c r="C100" s="156" t="s">
@@ -13808,20 +13832,20 @@
       <c r="H100" s="13"/>
       <c r="I100" s="16"/>
       <c r="J100" s="16"/>
-      <c r="K100" s="114" t="s">
+      <c r="K100" s="115" t="s">
         <v>709</v>
       </c>
-      <c r="L100" s="122" t="s">
+      <c r="L100" s="123" t="s">
         <v>735</v>
       </c>
-      <c r="M100" s="122"/>
+      <c r="M100" s="123"/>
       <c r="N100" s="16"/>
     </row>
     <row r="101">
       <c r="A101" s="24" t="s">
         <v>813</v>
       </c>
-      <c r="B101" s="122" t="s">
+      <c r="B101" s="123" t="s">
         <v>814</v>
       </c>
       <c r="C101" s="156" t="s">
@@ -13838,20 +13862,20 @@
       <c r="H101" s="13"/>
       <c r="I101" s="16"/>
       <c r="J101" s="16"/>
-      <c r="K101" s="122">
+      <c r="K101" s="123">
         <v>0.0</v>
       </c>
-      <c r="L101" s="122" t="s">
+      <c r="L101" s="123" t="s">
         <v>302</v>
       </c>
-      <c r="M101" s="122"/>
+      <c r="M101" s="123"/>
       <c r="N101" s="16"/>
     </row>
     <row r="102">
       <c r="A102" s="24" t="s">
         <v>816</v>
       </c>
-      <c r="B102" s="122" t="s">
+      <c r="B102" s="123" t="s">
         <v>817</v>
       </c>
       <c r="C102" s="156" t="s">
@@ -13870,20 +13894,20 @@
       <c r="H102" s="13"/>
       <c r="I102" s="16"/>
       <c r="J102" s="16"/>
-      <c r="K102" s="114" t="s">
+      <c r="K102" s="115" t="s">
         <v>524</v>
       </c>
-      <c r="L102" s="122" t="s">
+      <c r="L102" s="123" t="s">
         <v>820</v>
       </c>
-      <c r="M102" s="122"/>
+      <c r="M102" s="123"/>
       <c r="N102" s="16"/>
     </row>
     <row r="103">
       <c r="A103" s="24" t="s">
         <v>821</v>
       </c>
-      <c r="B103" s="122" t="s">
+      <c r="B103" s="123" t="s">
         <v>822</v>
       </c>
       <c r="C103" s="156" t="s">
@@ -13902,20 +13926,20 @@
       <c r="H103" s="13"/>
       <c r="I103" s="16"/>
       <c r="J103" s="16"/>
-      <c r="K103" s="114">
+      <c r="K103" s="115">
         <v>0.0</v>
       </c>
-      <c r="L103" s="122" t="s">
+      <c r="L103" s="123" t="s">
         <v>274</v>
       </c>
-      <c r="M103" s="122"/>
+      <c r="M103" s="123"/>
       <c r="N103" s="16"/>
     </row>
     <row r="104">
       <c r="A104" s="24" t="s">
         <v>824</v>
       </c>
-      <c r="B104" s="122" t="s">
+      <c r="B104" s="123" t="s">
         <v>825</v>
       </c>
       <c r="C104" s="156" t="s">
@@ -13934,20 +13958,20 @@
       <c r="H104" s="13"/>
       <c r="I104" s="16"/>
       <c r="J104" s="16"/>
-      <c r="K104" s="114" t="s">
+      <c r="K104" s="115" t="s">
         <v>704</v>
       </c>
-      <c r="L104" s="122" t="s">
+      <c r="L104" s="123" t="s">
         <v>714</v>
       </c>
-      <c r="M104" s="122"/>
+      <c r="M104" s="123"/>
       <c r="N104" s="16"/>
     </row>
     <row r="105">
       <c r="A105" s="24" t="s">
         <v>827</v>
       </c>
-      <c r="B105" s="122" t="s">
+      <c r="B105" s="123" t="s">
         <v>828</v>
       </c>
       <c r="C105" s="156" t="s">
@@ -13966,52 +13990,52 @@
       <c r="H105" s="13"/>
       <c r="I105" s="16"/>
       <c r="J105" s="16"/>
-      <c r="K105" s="114" t="s">
+      <c r="K105" s="115" t="s">
         <v>709</v>
       </c>
-      <c r="L105" s="122" t="s">
+      <c r="L105" s="123" t="s">
         <v>785</v>
       </c>
-      <c r="M105" s="122"/>
+      <c r="M105" s="123"/>
       <c r="N105" s="16"/>
     </row>
     <row r="106">
-      <c r="A106" s="126" t="s">
+      <c r="A106" s="127" t="s">
         <v>830</v>
       </c>
-      <c r="B106" s="133" t="s">
+      <c r="B106" s="134" t="s">
         <v>831</v>
       </c>
-      <c r="C106" s="147" t="s">
+      <c r="C106" s="148" t="s">
         <v>484</v>
       </c>
-      <c r="D106" s="128"/>
-      <c r="E106" s="139" t="s">
+      <c r="D106" s="129"/>
+      <c r="E106" s="140" t="s">
         <v>363</v>
       </c>
-      <c r="F106" s="129" t="s">
+      <c r="F106" s="130" t="s">
         <v>819</v>
       </c>
-      <c r="G106" s="129" t="s">
+      <c r="G106" s="130" t="s">
         <v>832</v>
       </c>
-      <c r="H106" s="141"/>
-      <c r="I106" s="132"/>
-      <c r="J106" s="132"/>
-      <c r="K106" s="175" t="s">
+      <c r="H106" s="142"/>
+      <c r="I106" s="133"/>
+      <c r="J106" s="133"/>
+      <c r="K106" s="179" t="s">
         <v>704</v>
       </c>
-      <c r="L106" s="133" t="s">
+      <c r="L106" s="134" t="s">
         <v>705</v>
       </c>
-      <c r="M106" s="133"/>
-      <c r="N106" s="132"/>
+      <c r="M106" s="134"/>
+      <c r="N106" s="133"/>
     </row>
     <row r="107">
       <c r="A107" s="24" t="s">
         <v>833</v>
       </c>
-      <c r="B107" s="122" t="s">
+      <c r="B107" s="123" t="s">
         <v>834</v>
       </c>
       <c r="C107" s="156" t="s">
@@ -14024,63 +14048,63 @@
       <c r="F107" s="14" t="s">
         <v>819</v>
       </c>
-      <c r="G107" s="185" t="s">
+      <c r="G107" s="189" t="s">
         <v>832</v>
       </c>
       <c r="H107" s="13"/>
       <c r="I107" s="16"/>
       <c r="J107" s="16"/>
-      <c r="K107" s="175" t="s">
+      <c r="K107" s="179" t="s">
         <v>709</v>
       </c>
-      <c r="L107" s="122" t="s">
+      <c r="L107" s="123" t="s">
         <v>710</v>
       </c>
-      <c r="M107" s="122"/>
+      <c r="M107" s="123"/>
       <c r="N107" s="16"/>
     </row>
     <row r="108">
-      <c r="A108" s="186" t="s">
+      <c r="A108" s="190" t="s">
         <v>835</v>
       </c>
-      <c r="B108" s="122" t="s">
+      <c r="B108" s="123" t="s">
         <v>836</v>
       </c>
-      <c r="C108" s="144" t="s">
+      <c r="C108" s="145" t="s">
         <v>480</v>
       </c>
       <c r="D108" s="39"/>
-      <c r="E108" s="136" t="s">
+      <c r="E108" s="137" t="s">
         <v>363</v>
       </c>
       <c r="F108" s="32" t="s">
         <v>837</v>
       </c>
-      <c r="G108" s="137"/>
+      <c r="G108" s="138"/>
       <c r="H108" s="36"/>
       <c r="I108" s="34"/>
       <c r="J108" s="34"/>
-      <c r="K108" s="116">
+      <c r="K108" s="117">
         <v>0.0</v>
       </c>
-      <c r="L108" s="120" t="s">
+      <c r="L108" s="121" t="s">
         <v>297</v>
       </c>
-      <c r="M108" s="120"/>
+      <c r="M108" s="121"/>
       <c r="N108" s="34"/>
     </row>
     <row r="109">
-      <c r="A109" s="136" t="s">
+      <c r="A109" s="137" t="s">
         <v>838</v>
       </c>
-      <c r="B109" s="120" t="s">
+      <c r="B109" s="121" t="s">
         <v>839</v>
       </c>
-      <c r="C109" s="144" t="s">
+      <c r="C109" s="145" t="s">
         <v>484</v>
       </c>
       <c r="D109" s="39"/>
-      <c r="E109" s="149" t="s">
+      <c r="E109" s="54" t="s">
         <v>373</v>
       </c>
       <c r="F109" s="32" t="s">
@@ -14092,123 +14116,123 @@
       <c r="H109" s="36"/>
       <c r="I109" s="34"/>
       <c r="J109" s="34"/>
-      <c r="K109" s="116" t="s">
+      <c r="K109" s="117" t="s">
         <v>524</v>
       </c>
-      <c r="L109" s="120" t="s">
+      <c r="L109" s="121" t="s">
         <v>750</v>
       </c>
-      <c r="M109" s="120"/>
+      <c r="M109" s="121"/>
       <c r="N109" s="34"/>
     </row>
     <row r="110">
-      <c r="A110" s="136" t="s">
+      <c r="A110" s="137" t="s">
         <v>842</v>
       </c>
-      <c r="B110" s="120" t="s">
+      <c r="B110" s="121" t="s">
         <v>843</v>
       </c>
-      <c r="C110" s="144" t="s">
+      <c r="C110" s="145" t="s">
         <v>484</v>
       </c>
       <c r="D110" s="39"/>
-      <c r="E110" s="187" t="s">
+      <c r="E110" s="191" t="s">
         <v>370</v>
       </c>
       <c r="F110" s="32" t="s">
         <v>841</v>
       </c>
-      <c r="G110" s="142" t="s">
+      <c r="G110" s="143" t="s">
         <v>844</v>
       </c>
       <c r="H110" s="36"/>
       <c r="I110" s="34"/>
       <c r="J110" s="34"/>
-      <c r="K110" s="116">
+      <c r="K110" s="117">
         <v>0.0</v>
       </c>
-      <c r="L110" s="188" t="s">
+      <c r="L110" s="192" t="s">
         <v>274</v>
       </c>
-      <c r="M110" s="188"/>
+      <c r="M110" s="192"/>
       <c r="N110" s="34"/>
     </row>
     <row r="111">
-      <c r="A111" s="136" t="s">
+      <c r="A111" s="137" t="s">
         <v>845</v>
       </c>
-      <c r="B111" s="120" t="s">
+      <c r="B111" s="121" t="s">
         <v>846</v>
       </c>
-      <c r="C111" s="144" t="s">
+      <c r="C111" s="145" t="s">
         <v>484</v>
       </c>
       <c r="D111" s="39"/>
-      <c r="E111" s="187" t="s">
+      <c r="E111" s="191" t="s">
         <v>370</v>
       </c>
       <c r="F111" s="32" t="s">
         <v>841</v>
       </c>
-      <c r="G111" s="142" t="s">
+      <c r="G111" s="143" t="s">
         <v>847</v>
       </c>
       <c r="H111" s="36"/>
       <c r="I111" s="34"/>
       <c r="J111" s="34"/>
-      <c r="K111" s="175" t="s">
+      <c r="K111" s="179" t="s">
         <v>704</v>
       </c>
-      <c r="L111" s="120" t="s">
+      <c r="L111" s="121" t="s">
         <v>731</v>
       </c>
-      <c r="M111" s="120"/>
+      <c r="M111" s="121"/>
       <c r="N111" s="34"/>
     </row>
     <row r="112">
-      <c r="A112" s="136" t="s">
+      <c r="A112" s="137" t="s">
         <v>848</v>
       </c>
-      <c r="B112" s="120" t="s">
+      <c r="B112" s="121" t="s">
         <v>849</v>
       </c>
-      <c r="C112" s="144" t="s">
+      <c r="C112" s="145" t="s">
         <v>484</v>
       </c>
       <c r="D112" s="39"/>
-      <c r="E112" s="187" t="s">
+      <c r="E112" s="191" t="s">
         <v>370</v>
       </c>
       <c r="F112" s="32" t="s">
         <v>841</v>
       </c>
-      <c r="G112" s="142" t="s">
+      <c r="G112" s="143" t="s">
         <v>850</v>
       </c>
       <c r="H112" s="36"/>
       <c r="I112" s="34"/>
       <c r="J112" s="34"/>
-      <c r="K112" s="175" t="s">
+      <c r="K112" s="179" t="s">
         <v>709</v>
       </c>
-      <c r="L112" s="120" t="s">
+      <c r="L112" s="121" t="s">
         <v>851</v>
       </c>
-      <c r="M112" s="120"/>
+      <c r="M112" s="121"/>
       <c r="N112" s="34"/>
     </row>
     <row r="113">
-      <c r="A113" s="136" t="s">
+      <c r="A113" s="137" t="s">
         <v>852</v>
       </c>
-      <c r="B113" s="120" t="s">
+      <c r="B113" s="121" t="s">
         <v>853</v>
       </c>
-      <c r="C113" s="144" t="s">
+      <c r="C113" s="145" t="s">
         <v>484</v>
       </c>
       <c r="D113" s="39"/>
-      <c r="E113" s="187" t="s">
+      <c r="E113" s="191" t="s">
         <v>370</v>
       </c>
       <c r="F113" s="32" t="s">
@@ -14220,27 +14244,27 @@
       <c r="H113" s="36"/>
       <c r="I113" s="34"/>
       <c r="J113" s="34"/>
-      <c r="K113" s="175" t="s">
+      <c r="K113" s="179" t="s">
         <v>704</v>
       </c>
-      <c r="L113" s="120" t="s">
+      <c r="L113" s="121" t="s">
         <v>731</v>
       </c>
-      <c r="M113" s="120"/>
+      <c r="M113" s="121"/>
       <c r="N113" s="34"/>
     </row>
     <row r="114">
-      <c r="A114" s="136" t="s">
+      <c r="A114" s="137" t="s">
         <v>855</v>
       </c>
-      <c r="B114" s="120" t="s">
+      <c r="B114" s="121" t="s">
         <v>856</v>
       </c>
-      <c r="C114" s="144" t="s">
+      <c r="C114" s="145" t="s">
         <v>484</v>
       </c>
       <c r="D114" s="39"/>
-      <c r="E114" s="187" t="s">
+      <c r="E114" s="191" t="s">
         <v>370</v>
       </c>
       <c r="F114" s="32" t="s">
@@ -14252,38 +14276,38 @@
       <c r="H114" s="36"/>
       <c r="I114" s="34"/>
       <c r="J114" s="34"/>
-      <c r="K114" s="175" t="s">
+      <c r="K114" s="179" t="s">
         <v>709</v>
       </c>
-      <c r="L114" s="120" t="s">
+      <c r="L114" s="121" t="s">
         <v>735</v>
       </c>
-      <c r="M114" s="120"/>
+      <c r="M114" s="121"/>
       <c r="N114" s="34"/>
     </row>
     <row r="115">
-      <c r="A115" s="59" t="s">
+      <c r="A115" s="60" t="s">
         <v>858</v>
       </c>
       <c r="B115" s="157" t="s">
         <v>859</v>
       </c>
-      <c r="C115" s="189" t="s">
+      <c r="C115" s="193" t="s">
         <v>480</v>
       </c>
-      <c r="D115" s="58"/>
-      <c r="E115" s="149" t="s">
+      <c r="D115" s="59"/>
+      <c r="E115" s="54" t="s">
         <v>363</v>
       </c>
-      <c r="F115" s="55" t="s">
+      <c r="F115" s="56" t="s">
         <v>860</v>
       </c>
-      <c r="G115" s="55" t="s">
+      <c r="G115" s="56" t="s">
         <v>861</v>
       </c>
-      <c r="H115" s="63"/>
-      <c r="I115" s="57"/>
-      <c r="J115" s="57"/>
+      <c r="H115" s="64"/>
+      <c r="I115" s="58"/>
+      <c r="J115" s="58"/>
       <c r="K115" s="157">
         <v>0.0</v>
       </c>
@@ -14291,20 +14315,20 @@
         <v>302</v>
       </c>
       <c r="M115" s="157"/>
-      <c r="N115" s="57"/>
+      <c r="N115" s="58"/>
     </row>
     <row r="116">
-      <c r="A116" s="136" t="s">
+      <c r="A116" s="137" t="s">
         <v>862</v>
       </c>
-      <c r="B116" s="120" t="s">
+      <c r="B116" s="121" t="s">
         <v>863</v>
       </c>
-      <c r="C116" s="144" t="s">
+      <c r="C116" s="145" t="s">
         <v>484</v>
       </c>
       <c r="D116" s="39"/>
-      <c r="E116" s="149" t="s">
+      <c r="E116" s="54" t="s">
         <v>373</v>
       </c>
       <c r="F116" s="32" t="s">
@@ -14316,27 +14340,27 @@
       <c r="H116" s="36"/>
       <c r="I116" s="34"/>
       <c r="J116" s="34"/>
-      <c r="K116" s="116" t="s">
+      <c r="K116" s="117" t="s">
         <v>524</v>
       </c>
-      <c r="L116" s="120" t="s">
+      <c r="L116" s="121" t="s">
         <v>775</v>
       </c>
-      <c r="M116" s="120"/>
+      <c r="M116" s="121"/>
       <c r="N116" s="34"/>
     </row>
     <row r="117">
-      <c r="A117" s="136" t="s">
+      <c r="A117" s="137" t="s">
         <v>866</v>
       </c>
-      <c r="B117" s="120" t="s">
+      <c r="B117" s="121" t="s">
         <v>867</v>
       </c>
-      <c r="C117" s="144" t="s">
+      <c r="C117" s="145" t="s">
         <v>484</v>
       </c>
       <c r="D117" s="39"/>
-      <c r="E117" s="187" t="s">
+      <c r="E117" s="191" t="s">
         <v>370</v>
       </c>
       <c r="F117" s="41" t="s">
@@ -14348,151 +14372,151 @@
       <c r="H117" s="36"/>
       <c r="I117" s="34"/>
       <c r="J117" s="34"/>
-      <c r="K117" s="116">
+      <c r="K117" s="117">
         <v>0.0</v>
       </c>
-      <c r="L117" s="188" t="s">
+      <c r="L117" s="192" t="s">
         <v>274</v>
       </c>
-      <c r="M117" s="188"/>
+      <c r="M117" s="192"/>
       <c r="N117" s="34"/>
     </row>
     <row r="118">
-      <c r="A118" s="59" t="s">
+      <c r="A118" s="60" t="s">
         <v>869</v>
       </c>
       <c r="B118" s="157" t="s">
         <v>870</v>
       </c>
-      <c r="C118" s="189" t="s">
+      <c r="C118" s="193" t="s">
         <v>484</v>
       </c>
-      <c r="D118" s="58"/>
-      <c r="E118" s="187" t="s">
+      <c r="D118" s="59"/>
+      <c r="E118" s="191" t="s">
         <v>370</v>
       </c>
       <c r="F118" s="41" t="s">
         <v>865</v>
       </c>
-      <c r="G118" s="55" t="s">
+      <c r="G118" s="56" t="s">
         <v>871</v>
       </c>
-      <c r="H118" s="63"/>
-      <c r="I118" s="57"/>
-      <c r="J118" s="57"/>
-      <c r="K118" s="175" t="s">
+      <c r="H118" s="64"/>
+      <c r="I118" s="58"/>
+      <c r="J118" s="58"/>
+      <c r="K118" s="179" t="s">
         <v>704</v>
       </c>
       <c r="L118" s="157" t="s">
         <v>714</v>
       </c>
       <c r="M118" s="157"/>
-      <c r="N118" s="57"/>
+      <c r="N118" s="58"/>
     </row>
     <row r="119">
-      <c r="A119" s="59" t="s">
+      <c r="A119" s="60" t="s">
         <v>872</v>
       </c>
       <c r="B119" s="157" t="s">
         <v>873</v>
       </c>
-      <c r="C119" s="189" t="s">
+      <c r="C119" s="193" t="s">
         <v>484</v>
       </c>
-      <c r="D119" s="58"/>
-      <c r="E119" s="187" t="s">
+      <c r="D119" s="59"/>
+      <c r="E119" s="191" t="s">
         <v>370</v>
       </c>
       <c r="F119" s="41" t="s">
         <v>865</v>
       </c>
-      <c r="G119" s="55" t="s">
+      <c r="G119" s="56" t="s">
         <v>874</v>
       </c>
-      <c r="H119" s="63"/>
-      <c r="I119" s="57"/>
-      <c r="J119" s="57"/>
-      <c r="K119" s="175" t="s">
+      <c r="H119" s="64"/>
+      <c r="I119" s="58"/>
+      <c r="J119" s="58"/>
+      <c r="K119" s="179" t="s">
         <v>709</v>
       </c>
       <c r="L119" s="157" t="s">
         <v>785</v>
       </c>
       <c r="M119" s="157"/>
-      <c r="N119" s="57"/>
+      <c r="N119" s="58"/>
     </row>
     <row r="120">
-      <c r="A120" s="59" t="s">
+      <c r="A120" s="60" t="s">
         <v>875</v>
       </c>
       <c r="B120" s="157" t="s">
         <v>876</v>
       </c>
-      <c r="C120" s="189" t="s">
+      <c r="C120" s="193" t="s">
         <v>484</v>
       </c>
-      <c r="D120" s="58"/>
-      <c r="E120" s="187" t="s">
+      <c r="D120" s="59"/>
+      <c r="E120" s="191" t="s">
         <v>370</v>
       </c>
       <c r="F120" s="41" t="s">
         <v>865</v>
       </c>
-      <c r="G120" s="55" t="s">
+      <c r="G120" s="56" t="s">
         <v>877</v>
       </c>
-      <c r="H120" s="63"/>
-      <c r="I120" s="57"/>
-      <c r="J120" s="57"/>
-      <c r="K120" s="175" t="s">
+      <c r="H120" s="64"/>
+      <c r="I120" s="58"/>
+      <c r="J120" s="58"/>
+      <c r="K120" s="179" t="s">
         <v>704</v>
       </c>
       <c r="L120" s="157" t="s">
         <v>705</v>
       </c>
       <c r="M120" s="157"/>
-      <c r="N120" s="57"/>
+      <c r="N120" s="58"/>
     </row>
     <row r="121">
-      <c r="A121" s="126" t="s">
+      <c r="A121" s="127" t="s">
         <v>878</v>
       </c>
-      <c r="B121" s="133" t="s">
+      <c r="B121" s="134" t="s">
         <v>879</v>
       </c>
-      <c r="C121" s="147" t="s">
+      <c r="C121" s="148" t="s">
         <v>484</v>
       </c>
-      <c r="D121" s="128"/>
-      <c r="E121" s="187" t="s">
+      <c r="D121" s="129"/>
+      <c r="E121" s="191" t="s">
         <v>370</v>
       </c>
       <c r="F121" s="41" t="s">
         <v>865</v>
       </c>
-      <c r="G121" s="129" t="s">
+      <c r="G121" s="130" t="s">
         <v>880</v>
       </c>
-      <c r="H121" s="141"/>
-      <c r="I121" s="132"/>
-      <c r="J121" s="132"/>
-      <c r="K121" s="175" t="s">
+      <c r="H121" s="142"/>
+      <c r="I121" s="133"/>
+      <c r="J121" s="133"/>
+      <c r="K121" s="179" t="s">
         <v>709</v>
       </c>
-      <c r="L121" s="133" t="s">
+      <c r="L121" s="134" t="s">
         <v>710</v>
       </c>
-      <c r="M121" s="133"/>
-      <c r="N121" s="132"/>
+      <c r="M121" s="134"/>
+      <c r="N121" s="133"/>
     </row>
     <row r="122">
       <c r="A122" s="24" t="s">
         <v>881</v>
       </c>
-      <c r="B122" s="122" t="s">
+      <c r="B122" s="123" t="s">
         <v>882</v>
       </c>
-      <c r="C122" s="190" t="s">
+      <c r="C122" s="194" t="s">
         <v>480</v>
       </c>
       <c r="D122" s="25"/>
@@ -14508,23 +14532,23 @@
       <c r="H122" s="13"/>
       <c r="I122" s="16"/>
       <c r="J122" s="16"/>
-      <c r="K122" s="122">
+      <c r="K122" s="123">
         <v>0.0</v>
       </c>
-      <c r="L122" s="122" t="s">
+      <c r="L122" s="123" t="s">
         <v>297</v>
       </c>
-      <c r="M122" s="122"/>
+      <c r="M122" s="123"/>
       <c r="N122" s="16"/>
     </row>
     <row r="123">
       <c r="A123" s="24" t="s">
         <v>885</v>
       </c>
-      <c r="B123" s="122" t="s">
+      <c r="B123" s="123" t="s">
         <v>886</v>
       </c>
-      <c r="C123" s="190" t="s">
+      <c r="C123" s="194" t="s">
         <v>484</v>
       </c>
       <c r="D123" s="25"/>
@@ -14540,23 +14564,23 @@
       <c r="H123" s="13"/>
       <c r="I123" s="16"/>
       <c r="J123" s="16"/>
-      <c r="K123" s="114">
+      <c r="K123" s="115">
         <v>0.0</v>
       </c>
-      <c r="L123" s="191" t="s">
+      <c r="L123" s="195" t="s">
         <v>297</v>
       </c>
-      <c r="M123" s="191"/>
+      <c r="M123" s="195"/>
       <c r="N123" s="16"/>
     </row>
     <row r="124">
       <c r="A124" s="24" t="s">
         <v>889</v>
       </c>
-      <c r="B124" s="122" t="s">
+      <c r="B124" s="123" t="s">
         <v>890</v>
       </c>
-      <c r="C124" s="190" t="s">
+      <c r="C124" s="194" t="s">
         <v>480</v>
       </c>
       <c r="D124" s="25"/>
@@ -14570,23 +14594,23 @@
       <c r="H124" s="13"/>
       <c r="I124" s="16"/>
       <c r="J124" s="16"/>
-      <c r="K124" s="114">
+      <c r="K124" s="115">
         <v>0.0</v>
       </c>
-      <c r="L124" s="122" t="s">
+      <c r="L124" s="123" t="s">
         <v>302</v>
       </c>
-      <c r="M124" s="122"/>
+      <c r="M124" s="123"/>
       <c r="N124" s="16"/>
     </row>
     <row r="125">
       <c r="A125" s="24" t="s">
         <v>892</v>
       </c>
-      <c r="B125" s="122" t="s">
+      <c r="B125" s="123" t="s">
         <v>893</v>
       </c>
-      <c r="C125" s="190" t="s">
+      <c r="C125" s="194" t="s">
         <v>484</v>
       </c>
       <c r="D125" s="25"/>
@@ -14602,27 +14626,27 @@
       <c r="H125" s="13"/>
       <c r="I125" s="16"/>
       <c r="J125" s="16"/>
-      <c r="K125" s="114">
+      <c r="K125" s="115">
         <v>0.0</v>
       </c>
-      <c r="L125" s="114" t="s">
+      <c r="L125" s="115" t="s">
         <v>302</v>
       </c>
-      <c r="M125" s="114"/>
+      <c r="M125" s="115"/>
       <c r="N125" s="16"/>
     </row>
     <row r="126">
-      <c r="A126" s="136" t="s">
+      <c r="A126" s="137" t="s">
         <v>896</v>
       </c>
-      <c r="B126" s="120" t="s">
+      <c r="B126" s="121" t="s">
         <v>897</v>
       </c>
-      <c r="C126" s="144" t="s">
+      <c r="C126" s="145" t="s">
         <v>480</v>
       </c>
       <c r="D126" s="39"/>
-      <c r="E126" s="136" t="s">
+      <c r="E126" s="137" t="s">
         <v>373</v>
       </c>
       <c r="F126" s="32" t="s">
@@ -14634,27 +14658,27 @@
       <c r="H126" s="36"/>
       <c r="I126" s="34"/>
       <c r="J126" s="34"/>
-      <c r="K126" s="120" t="s">
+      <c r="K126" s="121" t="s">
         <v>512</v>
       </c>
-      <c r="L126" s="146" t="s">
+      <c r="L126" s="147" t="s">
         <v>900</v>
       </c>
-      <c r="M126" s="146"/>
+      <c r="M126" s="147"/>
       <c r="N126" s="34"/>
     </row>
     <row r="127">
-      <c r="A127" s="136" t="s">
+      <c r="A127" s="137" t="s">
         <v>901</v>
       </c>
-      <c r="B127" s="120" t="s">
+      <c r="B127" s="121" t="s">
         <v>902</v>
       </c>
-      <c r="C127" s="144" t="s">
+      <c r="C127" s="145" t="s">
         <v>484</v>
       </c>
       <c r="D127" s="39"/>
-      <c r="E127" s="118" t="s">
+      <c r="E127" s="119" t="s">
         <v>363</v>
       </c>
       <c r="F127" s="32" t="s">
@@ -14666,219 +14690,219 @@
       <c r="H127" s="36"/>
       <c r="I127" s="34"/>
       <c r="J127" s="34"/>
-      <c r="K127" s="120" t="s">
+      <c r="K127" s="121" t="s">
         <v>257</v>
       </c>
-      <c r="L127" s="146" t="s">
+      <c r="L127" s="147" t="s">
         <v>905</v>
       </c>
-      <c r="M127" s="146"/>
+      <c r="M127" s="147"/>
       <c r="N127" s="34"/>
     </row>
     <row r="128">
-      <c r="A128" s="136" t="s">
+      <c r="A128" s="137" t="s">
         <v>906</v>
       </c>
-      <c r="B128" s="116" t="s">
+      <c r="B128" s="117" t="s">
         <v>907</v>
       </c>
-      <c r="C128" s="144" t="s">
+      <c r="C128" s="145" t="s">
         <v>480</v>
       </c>
       <c r="D128" s="39"/>
-      <c r="E128" s="118" t="s">
+      <c r="E128" s="119" t="s">
         <v>370</v>
       </c>
       <c r="F128" s="32" t="s">
         <v>899</v>
       </c>
-      <c r="G128" s="142" t="s">
+      <c r="G128" s="143" t="s">
         <v>908</v>
       </c>
       <c r="H128" s="36"/>
       <c r="I128" s="34"/>
       <c r="J128" s="34"/>
-      <c r="K128" s="120">
+      <c r="K128" s="121">
         <v>0.0</v>
       </c>
-      <c r="L128" s="146" t="s">
+      <c r="L128" s="147" t="s">
         <v>274</v>
       </c>
-      <c r="M128" s="146"/>
+      <c r="M128" s="147"/>
       <c r="N128" s="34"/>
     </row>
     <row r="129">
-      <c r="A129" s="136" t="s">
+      <c r="A129" s="137" t="s">
         <v>909</v>
       </c>
-      <c r="B129" s="116" t="s">
+      <c r="B129" s="117" t="s">
         <v>910</v>
       </c>
-      <c r="C129" s="144" t="s">
+      <c r="C129" s="145" t="s">
         <v>480</v>
       </c>
       <c r="D129" s="39"/>
-      <c r="E129" s="118" t="s">
+      <c r="E129" s="119" t="s">
         <v>370</v>
       </c>
       <c r="F129" s="32" t="s">
         <v>899</v>
       </c>
-      <c r="G129" s="142" t="s">
+      <c r="G129" s="143" t="s">
         <v>911</v>
       </c>
       <c r="H129" s="36"/>
       <c r="I129" s="34"/>
       <c r="J129" s="34"/>
-      <c r="K129" s="192" t="s">
+      <c r="K129" s="196" t="s">
         <v>704</v>
       </c>
-      <c r="L129" s="146" t="s">
+      <c r="L129" s="147" t="s">
         <v>757</v>
       </c>
-      <c r="M129" s="146"/>
+      <c r="M129" s="147"/>
       <c r="N129" s="34"/>
     </row>
     <row r="130">
-      <c r="A130" s="136" t="s">
+      <c r="A130" s="137" t="s">
         <v>912</v>
       </c>
-      <c r="B130" s="116" t="s">
+      <c r="B130" s="117" t="s">
         <v>913</v>
       </c>
-      <c r="C130" s="144" t="s">
+      <c r="C130" s="145" t="s">
         <v>480</v>
       </c>
       <c r="D130" s="39"/>
-      <c r="E130" s="118" t="s">
+      <c r="E130" s="119" t="s">
         <v>370</v>
       </c>
       <c r="F130" s="32" t="s">
         <v>899</v>
       </c>
-      <c r="G130" s="142" t="s">
+      <c r="G130" s="143" t="s">
         <v>914</v>
       </c>
       <c r="H130" s="36"/>
       <c r="I130" s="34"/>
       <c r="J130" s="34"/>
-      <c r="K130" s="192" t="s">
+      <c r="K130" s="196" t="s">
         <v>709</v>
       </c>
-      <c r="L130" s="146" t="s">
+      <c r="L130" s="147" t="s">
         <v>761</v>
       </c>
-      <c r="M130" s="146"/>
+      <c r="M130" s="147"/>
       <c r="N130" s="34"/>
     </row>
     <row r="131">
-      <c r="A131" s="136" t="s">
+      <c r="A131" s="137" t="s">
         <v>915</v>
       </c>
-      <c r="B131" s="116" t="s">
+      <c r="B131" s="117" t="s">
         <v>916</v>
       </c>
-      <c r="C131" s="144" t="s">
+      <c r="C131" s="145" t="s">
         <v>480</v>
       </c>
       <c r="D131" s="39"/>
-      <c r="E131" s="136" t="s">
+      <c r="E131" s="137" t="s">
         <v>373</v>
       </c>
       <c r="F131" s="32" t="s">
         <v>899</v>
       </c>
-      <c r="G131" s="142" t="s">
+      <c r="G131" s="143" t="s">
         <v>917</v>
       </c>
       <c r="H131" s="36"/>
       <c r="I131" s="34"/>
       <c r="J131" s="34"/>
-      <c r="K131" s="120">
+      <c r="K131" s="121">
         <v>0.0</v>
       </c>
-      <c r="L131" s="146" t="s">
+      <c r="L131" s="147" t="s">
         <v>918</v>
       </c>
-      <c r="M131" s="146"/>
+      <c r="M131" s="147"/>
       <c r="N131" s="34"/>
     </row>
     <row r="132">
-      <c r="A132" s="136" t="s">
+      <c r="A132" s="137" t="s">
         <v>919</v>
       </c>
-      <c r="B132" s="116" t="s">
+      <c r="B132" s="117" t="s">
         <v>920</v>
       </c>
-      <c r="C132" s="144" t="s">
+      <c r="C132" s="145" t="s">
         <v>480</v>
       </c>
       <c r="D132" s="39"/>
-      <c r="E132" s="136" t="s">
+      <c r="E132" s="137" t="s">
         <v>373</v>
       </c>
       <c r="F132" s="32" t="s">
         <v>917</v>
       </c>
-      <c r="G132" s="142" t="s">
+      <c r="G132" s="143" t="s">
         <v>921</v>
       </c>
       <c r="H132" s="36"/>
       <c r="I132" s="34"/>
       <c r="J132" s="34"/>
-      <c r="K132" s="120">
+      <c r="K132" s="121">
         <v>0.0</v>
       </c>
-      <c r="L132" s="146" t="s">
+      <c r="L132" s="147" t="s">
         <v>918</v>
       </c>
-      <c r="M132" s="146"/>
+      <c r="M132" s="147"/>
       <c r="N132" s="34"/>
     </row>
     <row r="133">
-      <c r="A133" s="136" t="s">
+      <c r="A133" s="137" t="s">
         <v>922</v>
       </c>
-      <c r="B133" s="116" t="s">
+      <c r="B133" s="117" t="s">
         <v>923</v>
       </c>
-      <c r="C133" s="144" t="s">
+      <c r="C133" s="145" t="s">
         <v>480</v>
       </c>
       <c r="D133" s="39"/>
-      <c r="E133" s="118" t="s">
+      <c r="E133" s="119" t="s">
         <v>370</v>
       </c>
       <c r="F133" s="32" t="s">
         <v>921</v>
       </c>
-      <c r="G133" s="142" t="s">
+      <c r="G133" s="143" t="s">
         <v>924</v>
       </c>
       <c r="H133" s="36"/>
       <c r="I133" s="34"/>
       <c r="J133" s="34"/>
-      <c r="K133" s="192" t="s">
+      <c r="K133" s="196" t="s">
         <v>704</v>
       </c>
-      <c r="L133" s="146" t="s">
+      <c r="L133" s="147" t="s">
         <v>714</v>
       </c>
-      <c r="M133" s="146"/>
+      <c r="M133" s="147"/>
       <c r="N133" s="34"/>
     </row>
     <row r="134">
-      <c r="A134" s="136" t="s">
+      <c r="A134" s="137" t="s">
         <v>925</v>
       </c>
-      <c r="B134" s="116" t="s">
+      <c r="B134" s="117" t="s">
         <v>926</v>
       </c>
-      <c r="C134" s="144" t="s">
+      <c r="C134" s="145" t="s">
         <v>480</v>
       </c>
       <c r="D134" s="39"/>
-      <c r="E134" s="118" t="s">
+      <c r="E134" s="119" t="s">
         <v>370</v>
       </c>
       <c r="F134" s="32" t="s">
@@ -14890,59 +14914,59 @@
       <c r="H134" s="36"/>
       <c r="I134" s="34"/>
       <c r="J134" s="34"/>
-      <c r="K134" s="192" t="s">
+      <c r="K134" s="196" t="s">
         <v>709</v>
       </c>
-      <c r="L134" s="146" t="s">
+      <c r="L134" s="147" t="s">
         <v>785</v>
       </c>
-      <c r="M134" s="146"/>
+      <c r="M134" s="147"/>
       <c r="N134" s="32"/>
     </row>
     <row r="135">
-      <c r="A135" s="136" t="s">
+      <c r="A135" s="137" t="s">
         <v>928</v>
       </c>
-      <c r="B135" s="116" t="s">
+      <c r="B135" s="117" t="s">
         <v>929</v>
       </c>
-      <c r="C135" s="144" t="s">
+      <c r="C135" s="145" t="s">
         <v>480</v>
       </c>
       <c r="D135" s="39"/>
-      <c r="E135" s="118" t="s">
+      <c r="E135" s="119" t="s">
         <v>370</v>
       </c>
       <c r="F135" s="32" t="s">
         <v>921</v>
       </c>
-      <c r="G135" s="142" t="s">
+      <c r="G135" s="143" t="s">
         <v>930</v>
       </c>
       <c r="H135" s="36"/>
       <c r="I135" s="34"/>
       <c r="J135" s="34"/>
-      <c r="K135" s="120">
+      <c r="K135" s="121">
         <v>0.0</v>
       </c>
-      <c r="L135" s="146" t="s">
+      <c r="L135" s="147" t="s">
         <v>274</v>
       </c>
-      <c r="M135" s="146"/>
+      <c r="M135" s="147"/>
       <c r="N135" s="34"/>
     </row>
     <row r="136">
-      <c r="A136" s="136" t="s">
+      <c r="A136" s="137" t="s">
         <v>931</v>
       </c>
-      <c r="B136" s="116" t="s">
+      <c r="B136" s="117" t="s">
         <v>932</v>
       </c>
-      <c r="C136" s="144" t="s">
+      <c r="C136" s="145" t="s">
         <v>480</v>
       </c>
       <c r="D136" s="39"/>
-      <c r="E136" s="118" t="s">
+      <c r="E136" s="119" t="s">
         <v>370</v>
       </c>
       <c r="F136" s="32" t="s">
@@ -14957,24 +14981,24 @@
       <c r="K136" s="150" t="s">
         <v>704</v>
       </c>
-      <c r="L136" s="146" t="s">
+      <c r="L136" s="147" t="s">
         <v>934</v>
       </c>
-      <c r="M136" s="146"/>
+      <c r="M136" s="147"/>
       <c r="N136" s="32"/>
     </row>
     <row r="137">
-      <c r="A137" s="136" t="s">
+      <c r="A137" s="137" t="s">
         <v>935</v>
       </c>
-      <c r="B137" s="116" t="s">
+      <c r="B137" s="117" t="s">
         <v>936</v>
       </c>
-      <c r="C137" s="144" t="s">
+      <c r="C137" s="145" t="s">
         <v>480</v>
       </c>
       <c r="D137" s="39"/>
-      <c r="E137" s="118" t="s">
+      <c r="E137" s="119" t="s">
         <v>370</v>
       </c>
       <c r="F137" s="32" t="s">
@@ -14989,116 +15013,116 @@
       <c r="K137" s="150" t="s">
         <v>709</v>
       </c>
-      <c r="L137" s="146" t="s">
+      <c r="L137" s="147" t="s">
         <v>938</v>
       </c>
-      <c r="M137" s="146"/>
+      <c r="M137" s="147"/>
       <c r="N137" s="32"/>
     </row>
     <row r="138">
-      <c r="A138" s="136" t="s">
+      <c r="A138" s="137" t="s">
         <v>939</v>
       </c>
-      <c r="B138" s="116" t="s">
+      <c r="B138" s="117" t="s">
         <v>940</v>
       </c>
-      <c r="C138" s="144" t="s">
+      <c r="C138" s="145" t="s">
         <v>480</v>
       </c>
       <c r="D138" s="39"/>
-      <c r="E138" s="136" t="s">
+      <c r="E138" s="137" t="s">
         <v>373</v>
       </c>
       <c r="F138" s="32" t="s">
         <v>917</v>
       </c>
-      <c r="G138" s="142" t="s">
+      <c r="G138" s="143" t="s">
         <v>941</v>
       </c>
       <c r="H138" s="36"/>
       <c r="I138" s="34"/>
       <c r="J138" s="34"/>
-      <c r="K138" s="120">
+      <c r="K138" s="121">
         <v>0.0</v>
       </c>
-      <c r="L138" s="146" t="s">
+      <c r="L138" s="147" t="s">
         <v>274</v>
       </c>
-      <c r="M138" s="146"/>
+      <c r="M138" s="147"/>
       <c r="N138" s="34"/>
     </row>
     <row r="139">
-      <c r="A139" s="136" t="s">
+      <c r="A139" s="137" t="s">
         <v>942</v>
       </c>
-      <c r="B139" s="116" t="s">
+      <c r="B139" s="117" t="s">
         <v>943</v>
       </c>
-      <c r="C139" s="144" t="s">
+      <c r="C139" s="145" t="s">
         <v>480</v>
       </c>
       <c r="D139" s="39"/>
-      <c r="E139" s="118" t="s">
+      <c r="E139" s="119" t="s">
         <v>370</v>
       </c>
       <c r="F139" s="32" t="s">
         <v>941</v>
       </c>
-      <c r="G139" s="142" t="s">
+      <c r="G139" s="143" t="s">
         <v>944</v>
       </c>
       <c r="H139" s="36"/>
       <c r="I139" s="34"/>
       <c r="J139" s="34"/>
-      <c r="K139" s="120" t="s">
+      <c r="K139" s="121" t="s">
         <v>945</v>
       </c>
-      <c r="L139" s="146" t="s">
+      <c r="L139" s="147" t="s">
         <v>946</v>
       </c>
-      <c r="M139" s="146"/>
+      <c r="M139" s="147"/>
       <c r="N139" s="34"/>
     </row>
     <row r="140">
-      <c r="A140" s="193" t="s">
+      <c r="A140" s="197" t="s">
         <v>947</v>
       </c>
-      <c r="B140" s="194" t="s">
+      <c r="B140" s="198" t="s">
         <v>948</v>
       </c>
-      <c r="C140" s="195" t="s">
+      <c r="C140" s="199" t="s">
         <v>480</v>
       </c>
-      <c r="D140" s="195"/>
-      <c r="E140" s="196" t="s">
+      <c r="D140" s="199"/>
+      <c r="E140" s="200" t="s">
         <v>370</v>
       </c>
       <c r="F140" s="32" t="s">
         <v>941</v>
       </c>
-      <c r="G140" s="142" t="s">
+      <c r="G140" s="143" t="s">
         <v>949</v>
       </c>
-      <c r="H140" s="197"/>
-      <c r="I140" s="198"/>
-      <c r="J140" s="198"/>
-      <c r="K140" s="199" t="s">
+      <c r="H140" s="201"/>
+      <c r="I140" s="202"/>
+      <c r="J140" s="202"/>
+      <c r="K140" s="203" t="s">
         <v>945</v>
       </c>
-      <c r="L140" s="200" t="s">
+      <c r="L140" s="204" t="s">
         <v>950</v>
       </c>
-      <c r="M140" s="200"/>
-      <c r="N140" s="198"/>
+      <c r="M140" s="204"/>
+      <c r="N140" s="202"/>
     </row>
     <row r="141">
       <c r="A141" s="24" t="s">
         <v>951</v>
       </c>
-      <c r="B141" s="114" t="s">
+      <c r="B141" s="115" t="s">
         <v>952</v>
       </c>
-      <c r="C141" s="190" t="s">
+      <c r="C141" s="194" t="s">
         <v>480</v>
       </c>
       <c r="D141" s="25"/>
@@ -15108,29 +15132,29 @@
       <c r="F141" s="14" t="s">
         <v>953</v>
       </c>
-      <c r="G141" s="201" t="s">
+      <c r="G141" s="205" t="s">
         <v>954</v>
       </c>
       <c r="H141" s="13"/>
       <c r="I141" s="16"/>
       <c r="J141" s="16"/>
-      <c r="K141" s="122">
+      <c r="K141" s="123">
         <v>0.0</v>
       </c>
-      <c r="L141" s="202" t="s">
+      <c r="L141" s="206" t="s">
         <v>230</v>
       </c>
-      <c r="M141" s="202"/>
+      <c r="M141" s="206"/>
       <c r="N141" s="16"/>
     </row>
     <row r="142">
       <c r="A142" s="24" t="s">
         <v>955</v>
       </c>
-      <c r="B142" s="114" t="s">
+      <c r="B142" s="115" t="s">
         <v>956</v>
       </c>
-      <c r="C142" s="190" t="s">
+      <c r="C142" s="194" t="s">
         <v>484</v>
       </c>
       <c r="D142" s="25"/>
@@ -15146,23 +15170,23 @@
       <c r="H142" s="13"/>
       <c r="I142" s="16"/>
       <c r="J142" s="16"/>
-      <c r="K142" s="122">
+      <c r="K142" s="123">
         <v>0.0</v>
       </c>
-      <c r="L142" s="202" t="s">
+      <c r="L142" s="206" t="s">
         <v>230</v>
       </c>
-      <c r="M142" s="202"/>
+      <c r="M142" s="206"/>
       <c r="N142" s="16"/>
     </row>
     <row r="143">
       <c r="A143" s="24" t="s">
         <v>959</v>
       </c>
-      <c r="B143" s="114" t="s">
+      <c r="B143" s="115" t="s">
         <v>960</v>
       </c>
-      <c r="C143" s="190" t="s">
+      <c r="C143" s="194" t="s">
         <v>480</v>
       </c>
       <c r="D143" s="25"/>
@@ -15172,29 +15196,29 @@
       <c r="F143" s="14" t="s">
         <v>961</v>
       </c>
-      <c r="G143" s="201" t="s">
+      <c r="G143" s="205" t="s">
         <v>954</v>
       </c>
       <c r="H143" s="13"/>
       <c r="I143" s="16"/>
       <c r="J143" s="16"/>
-      <c r="K143" s="122">
+      <c r="K143" s="123">
         <v>0.0</v>
       </c>
-      <c r="L143" s="202" t="s">
+      <c r="L143" s="206" t="s">
         <v>225</v>
       </c>
-      <c r="M143" s="202"/>
+      <c r="M143" s="206"/>
       <c r="N143" s="16"/>
     </row>
     <row r="144">
       <c r="A144" s="24" t="s">
         <v>962</v>
       </c>
-      <c r="B144" s="114" t="s">
+      <c r="B144" s="115" t="s">
         <v>963</v>
       </c>
-      <c r="C144" s="190" t="s">
+      <c r="C144" s="194" t="s">
         <v>484</v>
       </c>
       <c r="D144" s="25"/>
@@ -15210,30 +15234,30 @@
       <c r="H144" s="13"/>
       <c r="I144" s="16"/>
       <c r="J144" s="16"/>
-      <c r="K144" s="122">
+      <c r="K144" s="123">
         <v>0.0</v>
       </c>
-      <c r="L144" s="202" t="s">
+      <c r="L144" s="206" t="s">
         <v>225</v>
       </c>
-      <c r="M144" s="202"/>
+      <c r="M144" s="206"/>
       <c r="N144" s="16"/>
     </row>
     <row r="145">
-      <c r="A145" s="126" t="s">
+      <c r="A145" s="127" t="s">
         <v>966</v>
       </c>
-      <c r="B145" s="114" t="s">
+      <c r="B145" s="115" t="s">
         <v>967</v>
       </c>
-      <c r="C145" s="190" t="s">
+      <c r="C145" s="194" t="s">
         <v>480</v>
       </c>
       <c r="D145" s="25"/>
       <c r="E145" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="F145" s="201" t="s">
+      <c r="F145" s="205" t="s">
         <v>954</v>
       </c>
       <c r="G145" s="5" t="s">
@@ -15242,30 +15266,30 @@
       <c r="H145" s="13"/>
       <c r="I145" s="16"/>
       <c r="J145" s="16"/>
-      <c r="K145" s="122">
+      <c r="K145" s="123">
         <v>3.0</v>
       </c>
-      <c r="L145" s="202" t="s">
+      <c r="L145" s="206" t="s">
         <v>346</v>
       </c>
-      <c r="M145" s="202"/>
+      <c r="M145" s="206"/>
       <c r="N145" s="16"/>
     </row>
     <row r="146">
-      <c r="A146" s="126" t="s">
+      <c r="A146" s="127" t="s">
         <v>969</v>
       </c>
-      <c r="B146" s="114" t="s">
+      <c r="B146" s="115" t="s">
         <v>970</v>
       </c>
-      <c r="C146" s="190" t="s">
+      <c r="C146" s="194" t="s">
         <v>480</v>
       </c>
       <c r="D146" s="25"/>
       <c r="E146" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="F146" s="201" t="s">
+      <c r="F146" s="205" t="s">
         <v>954</v>
       </c>
       <c r="G146" s="5" t="s">
@@ -15274,59 +15298,59 @@
       <c r="H146" s="13"/>
       <c r="I146" s="16"/>
       <c r="J146" s="16"/>
-      <c r="K146" s="122">
+      <c r="K146" s="123">
         <v>3.0</v>
       </c>
-      <c r="L146" s="202" t="s">
+      <c r="L146" s="206" t="s">
         <v>293</v>
       </c>
-      <c r="M146" s="202"/>
+      <c r="M146" s="206"/>
       <c r="N146" s="16"/>
     </row>
     <row r="147">
-      <c r="A147" s="136" t="s">
+      <c r="A147" s="137" t="s">
         <v>972</v>
       </c>
-      <c r="B147" s="116" t="s">
+      <c r="B147" s="117" t="s">
         <v>973</v>
       </c>
-      <c r="C147" s="144" t="s">
+      <c r="C147" s="145" t="s">
         <v>480</v>
       </c>
       <c r="D147" s="39"/>
-      <c r="E147" s="136" t="s">
+      <c r="E147" s="137" t="s">
         <v>373</v>
       </c>
       <c r="F147" s="32" t="s">
         <v>974</v>
       </c>
-      <c r="G147" s="142" t="s">
+      <c r="G147" s="143" t="s">
         <v>975</v>
       </c>
       <c r="H147" s="36"/>
       <c r="I147" s="34"/>
       <c r="J147" s="34"/>
-      <c r="K147" s="133" t="s">
+      <c r="K147" s="134" t="s">
         <v>512</v>
       </c>
-      <c r="L147" s="146" t="s">
+      <c r="L147" s="147" t="s">
         <v>976</v>
       </c>
-      <c r="M147" s="146"/>
+      <c r="M147" s="147"/>
       <c r="N147" s="34"/>
     </row>
     <row r="148">
-      <c r="A148" s="136" t="s">
+      <c r="A148" s="137" t="s">
         <v>977</v>
       </c>
-      <c r="B148" s="116" t="s">
+      <c r="B148" s="117" t="s">
         <v>978</v>
       </c>
-      <c r="C148" s="144" t="s">
+      <c r="C148" s="145" t="s">
         <v>484</v>
       </c>
-      <c r="D148" s="203"/>
-      <c r="E148" s="136" t="s">
+      <c r="D148" s="207"/>
+      <c r="E148" s="137" t="s">
         <v>363</v>
       </c>
       <c r="F148" s="32" t="s">
@@ -15338,7 +15362,7 @@
       <c r="H148" s="38"/>
       <c r="I148" s="34"/>
       <c r="J148" s="34"/>
-      <c r="K148" s="204" t="s">
+      <c r="K148" s="208" t="s">
         <v>981</v>
       </c>
       <c r="L148" s="5" t="s">
@@ -15348,61 +15372,61 @@
       <c r="N148" s="34"/>
     </row>
     <row r="149">
-      <c r="A149" s="136" t="s">
+      <c r="A149" s="137" t="s">
         <v>983</v>
       </c>
-      <c r="B149" s="116" t="s">
+      <c r="B149" s="117" t="s">
         <v>984</v>
       </c>
-      <c r="C149" s="144" t="s">
+      <c r="C149" s="145" t="s">
         <v>480</v>
       </c>
-      <c r="D149" s="203"/>
-      <c r="E149" s="136" t="s">
+      <c r="D149" s="207"/>
+      <c r="E149" s="137" t="s">
         <v>373</v>
       </c>
       <c r="F149" s="32" t="s">
         <v>985</v>
       </c>
-      <c r="G149" s="142" t="s">
+      <c r="G149" s="143" t="s">
         <v>975</v>
       </c>
       <c r="H149" s="38"/>
       <c r="I149" s="34"/>
       <c r="J149" s="34"/>
-      <c r="K149" s="133" t="s">
+      <c r="K149" s="134" t="s">
         <v>512</v>
       </c>
-      <c r="L149" s="205" t="s">
+      <c r="L149" s="209" t="s">
         <v>986</v>
       </c>
-      <c r="M149" s="205"/>
+      <c r="M149" s="209"/>
       <c r="N149" s="34"/>
     </row>
     <row r="150">
-      <c r="A150" s="136" t="s">
+      <c r="A150" s="137" t="s">
         <v>987</v>
       </c>
-      <c r="B150" s="116" t="s">
+      <c r="B150" s="117" t="s">
         <v>988</v>
       </c>
-      <c r="C150" s="144" t="s">
+      <c r="C150" s="145" t="s">
         <v>484</v>
       </c>
-      <c r="D150" s="203"/>
-      <c r="E150" s="136" t="s">
+      <c r="D150" s="207"/>
+      <c r="E150" s="137" t="s">
         <v>363</v>
       </c>
       <c r="F150" s="32" t="s">
         <v>989</v>
       </c>
-      <c r="G150" s="142" t="s">
+      <c r="G150" s="143" t="s">
         <v>990</v>
       </c>
       <c r="H150" s="36"/>
       <c r="I150" s="34"/>
       <c r="J150" s="34"/>
-      <c r="K150" s="204" t="s">
+      <c r="K150" s="208" t="s">
         <v>981</v>
       </c>
       <c r="L150" s="5" t="s">
@@ -15412,61 +15436,61 @@
       <c r="N150" s="34"/>
     </row>
     <row r="151">
-      <c r="A151" s="136" t="s">
+      <c r="A151" s="137" t="s">
         <v>992</v>
       </c>
-      <c r="B151" s="116" t="s">
+      <c r="B151" s="117" t="s">
         <v>993</v>
       </c>
-      <c r="C151" s="144" t="s">
+      <c r="C151" s="145" t="s">
         <v>480</v>
       </c>
-      <c r="D151" s="203"/>
-      <c r="E151" s="136" t="s">
+      <c r="D151" s="207"/>
+      <c r="E151" s="137" t="s">
         <v>373</v>
       </c>
       <c r="F151" s="32" t="s">
         <v>994</v>
       </c>
-      <c r="G151" s="142" t="s">
+      <c r="G151" s="143" t="s">
         <v>975</v>
       </c>
       <c r="H151" s="36"/>
       <c r="I151" s="34"/>
       <c r="J151" s="34"/>
-      <c r="K151" s="133" t="s">
+      <c r="K151" s="134" t="s">
         <v>512</v>
       </c>
-      <c r="L151" s="146" t="s">
+      <c r="L151" s="147" t="s">
         <v>995</v>
       </c>
-      <c r="M151" s="146"/>
+      <c r="M151" s="147"/>
       <c r="N151" s="34"/>
     </row>
     <row r="152">
-      <c r="A152" s="136" t="s">
+      <c r="A152" s="137" t="s">
         <v>996</v>
       </c>
-      <c r="B152" s="116" t="s">
+      <c r="B152" s="117" t="s">
         <v>997</v>
       </c>
-      <c r="C152" s="144" t="s">
+      <c r="C152" s="145" t="s">
         <v>484</v>
       </c>
-      <c r="D152" s="203"/>
-      <c r="E152" s="136" t="s">
+      <c r="D152" s="207"/>
+      <c r="E152" s="137" t="s">
         <v>363</v>
       </c>
       <c r="F152" s="32" t="s">
         <v>998</v>
       </c>
-      <c r="G152" s="142" t="s">
+      <c r="G152" s="143" t="s">
         <v>999</v>
       </c>
       <c r="H152" s="36"/>
       <c r="I152" s="34"/>
       <c r="J152" s="34"/>
-      <c r="K152" s="204" t="s">
+      <c r="K152" s="208" t="s">
         <v>981</v>
       </c>
       <c r="L152" s="5" t="s">
@@ -15476,49 +15500,49 @@
       <c r="N152" s="34"/>
     </row>
     <row r="153">
-      <c r="A153" s="136" t="s">
+      <c r="A153" s="137" t="s">
         <v>1001</v>
       </c>
-      <c r="B153" s="116" t="s">
+      <c r="B153" s="117" t="s">
         <v>1002</v>
       </c>
-      <c r="C153" s="144" t="s">
+      <c r="C153" s="145" t="s">
         <v>480</v>
       </c>
-      <c r="D153" s="203"/>
-      <c r="E153" s="136" t="s">
+      <c r="D153" s="207"/>
+      <c r="E153" s="137" t="s">
         <v>373</v>
       </c>
       <c r="F153" s="32" t="s">
         <v>1003</v>
       </c>
-      <c r="G153" s="142" t="s">
+      <c r="G153" s="143" t="s">
         <v>975</v>
       </c>
       <c r="H153" s="36"/>
       <c r="I153" s="34"/>
       <c r="J153" s="34"/>
-      <c r="K153" s="133" t="s">
+      <c r="K153" s="134" t="s">
         <v>512</v>
       </c>
-      <c r="L153" s="148" t="s">
+      <c r="L153" s="149" t="s">
         <v>1004</v>
       </c>
-      <c r="M153" s="148"/>
+      <c r="M153" s="149"/>
       <c r="N153" s="34"/>
     </row>
     <row r="154">
       <c r="A154" s="24" t="s">
         <v>1005</v>
       </c>
-      <c r="B154" s="114" t="s">
+      <c r="B154" s="115" t="s">
         <v>1006</v>
       </c>
       <c r="C154" s="156" t="s">
         <v>484</v>
       </c>
-      <c r="D154" s="206"/>
-      <c r="E154" s="207" t="s">
+      <c r="D154" s="210"/>
+      <c r="E154" s="211" t="s">
         <v>363</v>
       </c>
       <c r="F154" s="14" t="s">
@@ -15530,7 +15554,7 @@
       <c r="H154" s="13"/>
       <c r="I154" s="16"/>
       <c r="J154" s="16"/>
-      <c r="K154" s="204" t="s">
+      <c r="K154" s="208" t="s">
         <v>981</v>
       </c>
       <c r="L154" s="5" t="s">
@@ -15543,46 +15567,46 @@
       <c r="A155" s="24" t="s">
         <v>1010</v>
       </c>
-      <c r="B155" s="114" t="s">
+      <c r="B155" s="115" t="s">
         <v>1011</v>
       </c>
       <c r="C155" s="156" t="s">
         <v>480</v>
       </c>
-      <c r="D155" s="206"/>
+      <c r="D155" s="210"/>
       <c r="E155" s="24" t="s">
         <v>373</v>
       </c>
       <c r="F155" s="14" t="s">
         <v>1012</v>
       </c>
-      <c r="G155" s="208" t="s">
+      <c r="G155" s="212" t="s">
         <v>975</v>
       </c>
       <c r="H155" s="13"/>
       <c r="I155" s="16"/>
       <c r="J155" s="16"/>
-      <c r="K155" s="122" t="s">
+      <c r="K155" s="123" t="s">
         <v>512</v>
       </c>
-      <c r="L155" s="202" t="s">
+      <c r="L155" s="206" t="s">
         <v>1013</v>
       </c>
-      <c r="M155" s="202"/>
+      <c r="M155" s="206"/>
       <c r="N155" s="16"/>
     </row>
     <row r="156">
       <c r="A156" s="24" t="s">
         <v>1014</v>
       </c>
-      <c r="B156" s="114" t="s">
+      <c r="B156" s="115" t="s">
         <v>1015</v>
       </c>
       <c r="C156" s="156" t="s">
         <v>484</v>
       </c>
-      <c r="D156" s="206"/>
-      <c r="E156" s="207" t="s">
+      <c r="D156" s="210"/>
+      <c r="E156" s="211" t="s">
         <v>363</v>
       </c>
       <c r="F156" s="14" t="s">
@@ -15594,7 +15618,7 @@
       <c r="H156" s="13"/>
       <c r="I156" s="16"/>
       <c r="J156" s="16"/>
-      <c r="K156" s="204" t="s">
+      <c r="K156" s="208" t="s">
         <v>981</v>
       </c>
       <c r="L156" s="5" t="s">
@@ -15607,58 +15631,58 @@
       <c r="A157" s="24" t="s">
         <v>1019</v>
       </c>
-      <c r="B157" s="114" t="s">
+      <c r="B157" s="115" t="s">
         <v>1020</v>
       </c>
       <c r="C157" s="156" t="s">
         <v>480</v>
       </c>
-      <c r="D157" s="206"/>
+      <c r="D157" s="210"/>
       <c r="E157" s="24" t="s">
         <v>373</v>
       </c>
       <c r="F157" s="14" t="s">
         <v>1021</v>
       </c>
-      <c r="G157" s="208" t="s">
+      <c r="G157" s="212" t="s">
         <v>975</v>
       </c>
       <c r="H157" s="13"/>
       <c r="I157" s="16"/>
       <c r="J157" s="16"/>
-      <c r="K157" s="122" t="s">
+      <c r="K157" s="123" t="s">
         <v>512</v>
       </c>
-      <c r="L157" s="202" t="s">
+      <c r="L157" s="206" t="s">
         <v>1022</v>
       </c>
-      <c r="M157" s="202"/>
+      <c r="M157" s="206"/>
       <c r="N157" s="16"/>
     </row>
     <row r="158">
       <c r="A158" s="24" t="s">
         <v>1023</v>
       </c>
-      <c r="B158" s="114" t="s">
+      <c r="B158" s="115" t="s">
         <v>1024</v>
       </c>
       <c r="C158" s="156" t="s">
         <v>484</v>
       </c>
-      <c r="D158" s="206"/>
-      <c r="E158" s="207" t="s">
+      <c r="D158" s="210"/>
+      <c r="E158" s="211" t="s">
         <v>363</v>
       </c>
       <c r="F158" s="14" t="s">
         <v>1025</v>
       </c>
-      <c r="G158" s="130" t="s">
+      <c r="G158" s="131" t="s">
         <v>1026</v>
       </c>
       <c r="H158" s="13"/>
       <c r="I158" s="16"/>
       <c r="J158" s="16"/>
-      <c r="K158" s="204" t="s">
+      <c r="K158" s="208" t="s">
         <v>981</v>
       </c>
       <c r="L158" s="5" t="s">
@@ -15671,58 +15695,58 @@
       <c r="A159" s="24" t="s">
         <v>1028</v>
       </c>
-      <c r="B159" s="114" t="s">
+      <c r="B159" s="115" t="s">
         <v>1029</v>
       </c>
       <c r="C159" s="156" t="s">
         <v>480</v>
       </c>
-      <c r="D159" s="206"/>
+      <c r="D159" s="210"/>
       <c r="E159" s="24" t="s">
         <v>373</v>
       </c>
       <c r="F159" s="14" t="s">
         <v>1030</v>
       </c>
-      <c r="G159" s="208" t="s">
+      <c r="G159" s="212" t="s">
         <v>975</v>
       </c>
       <c r="H159" s="13"/>
       <c r="I159" s="16"/>
       <c r="J159" s="16"/>
-      <c r="K159" s="122" t="s">
+      <c r="K159" s="123" t="s">
         <v>512</v>
       </c>
-      <c r="L159" s="202" t="s">
+      <c r="L159" s="206" t="s">
         <v>1031</v>
       </c>
-      <c r="M159" s="202"/>
+      <c r="M159" s="206"/>
       <c r="N159" s="16"/>
     </row>
     <row r="160">
       <c r="A160" s="24" t="s">
         <v>1032</v>
       </c>
-      <c r="B160" s="114" t="s">
+      <c r="B160" s="115" t="s">
         <v>1033</v>
       </c>
       <c r="C160" s="156" t="s">
         <v>484</v>
       </c>
-      <c r="D160" s="206"/>
-      <c r="E160" s="207" t="s">
+      <c r="D160" s="210"/>
+      <c r="E160" s="211" t="s">
         <v>363</v>
       </c>
       <c r="F160" s="14" t="s">
         <v>1034</v>
       </c>
-      <c r="G160" s="130" t="s">
+      <c r="G160" s="131" t="s">
         <v>1035</v>
       </c>
       <c r="H160" s="13"/>
       <c r="I160" s="16"/>
       <c r="J160" s="16"/>
-      <c r="K160" s="204" t="s">
+      <c r="K160" s="208" t="s">
         <v>981</v>
       </c>
       <c r="L160" s="5" t="s">
@@ -15735,58 +15759,58 @@
       <c r="A161" s="24" t="s">
         <v>1037</v>
       </c>
-      <c r="B161" s="114" t="s">
+      <c r="B161" s="115" t="s">
         <v>1038</v>
       </c>
       <c r="C161" s="156" t="s">
         <v>480</v>
       </c>
-      <c r="D161" s="206"/>
+      <c r="D161" s="210"/>
       <c r="E161" s="24" t="s">
         <v>373</v>
       </c>
       <c r="F161" s="14" t="s">
         <v>1039</v>
       </c>
-      <c r="G161" s="208" t="s">
+      <c r="G161" s="212" t="s">
         <v>975</v>
       </c>
       <c r="H161" s="13"/>
       <c r="I161" s="16"/>
       <c r="J161" s="16"/>
-      <c r="K161" s="122" t="s">
+      <c r="K161" s="123" t="s">
         <v>512</v>
       </c>
-      <c r="L161" s="202" t="s">
+      <c r="L161" s="206" t="s">
         <v>1040</v>
       </c>
-      <c r="M161" s="202"/>
+      <c r="M161" s="206"/>
       <c r="N161" s="16"/>
     </row>
     <row r="162">
       <c r="A162" s="24" t="s">
         <v>1041</v>
       </c>
-      <c r="B162" s="114" t="s">
+      <c r="B162" s="115" t="s">
         <v>1042</v>
       </c>
       <c r="C162" s="156" t="s">
         <v>484</v>
       </c>
-      <c r="D162" s="206"/>
-      <c r="E162" s="207" t="s">
+      <c r="D162" s="210"/>
+      <c r="E162" s="211" t="s">
         <v>363</v>
       </c>
       <c r="F162" s="14" t="s">
         <v>1043</v>
       </c>
-      <c r="G162" s="130" t="s">
+      <c r="G162" s="131" t="s">
         <v>1044</v>
       </c>
       <c r="H162" s="13"/>
       <c r="I162" s="16"/>
       <c r="J162" s="16"/>
-      <c r="K162" s="204" t="s">
+      <c r="K162" s="208" t="s">
         <v>981</v>
       </c>
       <c r="L162" s="5" t="s">
@@ -15799,58 +15823,58 @@
       <c r="A163" s="24" t="s">
         <v>1046</v>
       </c>
-      <c r="B163" s="114" t="s">
+      <c r="B163" s="115" t="s">
         <v>1047</v>
       </c>
       <c r="C163" s="156" t="s">
         <v>480</v>
       </c>
-      <c r="D163" s="206"/>
+      <c r="D163" s="210"/>
       <c r="E163" s="24" t="s">
         <v>373</v>
       </c>
       <c r="F163" s="14" t="s">
         <v>1048</v>
       </c>
-      <c r="G163" s="208" t="s">
+      <c r="G163" s="212" t="s">
         <v>975</v>
       </c>
       <c r="H163" s="13"/>
       <c r="I163" s="16"/>
       <c r="J163" s="16"/>
-      <c r="K163" s="122" t="s">
+      <c r="K163" s="123" t="s">
         <v>512</v>
       </c>
-      <c r="L163" s="202" t="s">
+      <c r="L163" s="206" t="s">
         <v>1049</v>
       </c>
-      <c r="M163" s="202"/>
+      <c r="M163" s="206"/>
       <c r="N163" s="16"/>
     </row>
     <row r="164">
       <c r="A164" s="24" t="s">
         <v>1050</v>
       </c>
-      <c r="B164" s="114" t="s">
+      <c r="B164" s="115" t="s">
         <v>1051</v>
       </c>
       <c r="C164" s="156" t="s">
         <v>484</v>
       </c>
-      <c r="D164" s="206"/>
-      <c r="E164" s="207" t="s">
+      <c r="D164" s="210"/>
+      <c r="E164" s="211" t="s">
         <v>363</v>
       </c>
       <c r="F164" s="14" t="s">
         <v>1052</v>
       </c>
-      <c r="G164" s="130" t="s">
+      <c r="G164" s="131" t="s">
         <v>1053</v>
       </c>
       <c r="H164" s="13"/>
       <c r="I164" s="16"/>
       <c r="J164" s="16"/>
-      <c r="K164" s="204" t="s">
+      <c r="K164" s="208" t="s">
         <v>981</v>
       </c>
       <c r="L164" s="5" t="s">
@@ -15863,67 +15887,67 @@
       <c r="A165" s="24" t="s">
         <v>1055</v>
       </c>
-      <c r="B165" s="114" t="s">
+      <c r="B165" s="115" t="s">
         <v>1056</v>
       </c>
       <c r="C165" s="156" t="s">
         <v>480</v>
       </c>
-      <c r="D165" s="206"/>
+      <c r="D165" s="210"/>
       <c r="E165" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="F165" s="208" t="s">
+      <c r="F165" s="212" t="s">
         <v>975</v>
       </c>
       <c r="G165" s="5"/>
       <c r="H165" s="13"/>
       <c r="I165" s="16"/>
       <c r="J165" s="16"/>
-      <c r="K165" s="122">
+      <c r="K165" s="123">
         <v>0.0</v>
       </c>
-      <c r="L165" s="202" t="s">
+      <c r="L165" s="206" t="s">
         <v>274</v>
       </c>
-      <c r="M165" s="202"/>
+      <c r="M165" s="206"/>
       <c r="N165" s="16"/>
     </row>
     <row r="166">
       <c r="A166" s="24" t="s">
         <v>1057</v>
       </c>
-      <c r="B166" s="114" t="s">
+      <c r="B166" s="115" t="s">
         <v>1058</v>
       </c>
       <c r="C166" s="156" t="s">
         <v>480</v>
       </c>
-      <c r="D166" s="206"/>
+      <c r="D166" s="210"/>
       <c r="E166" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="F166" s="208" t="s">
+      <c r="F166" s="212" t="s">
         <v>975</v>
       </c>
       <c r="G166" s="14"/>
       <c r="H166" s="13"/>
       <c r="I166" s="16"/>
       <c r="J166" s="16"/>
-      <c r="K166" s="122" t="s">
+      <c r="K166" s="123" t="s">
         <v>704</v>
       </c>
-      <c r="L166" s="202" t="s">
+      <c r="L166" s="206" t="s">
         <v>714</v>
       </c>
-      <c r="M166" s="202"/>
+      <c r="M166" s="206"/>
       <c r="N166" s="16"/>
     </row>
     <row r="167">
       <c r="A167" s="24" t="s">
         <v>1059</v>
       </c>
-      <c r="B167" s="114" t="s">
+      <c r="B167" s="115" t="s">
         <v>1060</v>
       </c>
       <c r="C167" s="156" t="s">
@@ -15933,27 +15957,27 @@
       <c r="E167" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="F167" s="208" t="s">
+      <c r="F167" s="212" t="s">
         <v>975</v>
       </c>
       <c r="G167" s="14"/>
       <c r="H167" s="25"/>
       <c r="I167" s="16"/>
       <c r="J167" s="16"/>
-      <c r="K167" s="122" t="s">
+      <c r="K167" s="123" t="s">
         <v>709</v>
       </c>
-      <c r="L167" s="202" t="s">
+      <c r="L167" s="206" t="s">
         <v>785</v>
       </c>
-      <c r="M167" s="202"/>
+      <c r="M167" s="206"/>
       <c r="N167" s="16"/>
     </row>
     <row r="168">
       <c r="A168" s="18" t="s">
         <v>1061</v>
       </c>
-      <c r="B168" s="114" t="s">
+      <c r="B168" s="115" t="s">
         <v>1062</v>
       </c>
       <c r="C168" s="156" t="s">
@@ -15963,27 +15987,27 @@
       <c r="E168" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="F168" s="208" t="s">
+      <c r="F168" s="212" t="s">
         <v>975</v>
       </c>
       <c r="G168" s="14"/>
       <c r="H168" s="25"/>
       <c r="I168" s="16"/>
       <c r="J168" s="16"/>
-      <c r="K168" s="122" t="s">
+      <c r="K168" s="123" t="s">
         <v>704</v>
       </c>
-      <c r="L168" s="202" t="s">
+      <c r="L168" s="206" t="s">
         <v>705</v>
       </c>
-      <c r="M168" s="202"/>
+      <c r="M168" s="206"/>
       <c r="N168" s="16"/>
     </row>
     <row r="169">
       <c r="A169" s="18" t="s">
         <v>1063</v>
       </c>
-      <c r="B169" s="114" t="s">
+      <c r="B169" s="115" t="s">
         <v>1064</v>
       </c>
       <c r="C169" s="156" t="s">
@@ -15993,20 +16017,20 @@
       <c r="E169" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="F169" s="208" t="s">
+      <c r="F169" s="212" t="s">
         <v>975</v>
       </c>
       <c r="G169" s="14"/>
       <c r="H169" s="25"/>
       <c r="I169" s="16"/>
       <c r="J169" s="16"/>
-      <c r="K169" s="122" t="s">
+      <c r="K169" s="123" t="s">
         <v>709</v>
       </c>
-      <c r="L169" s="202" t="s">
+      <c r="L169" s="206" t="s">
         <v>710</v>
       </c>
-      <c r="M169" s="202"/>
+      <c r="M169" s="206"/>
       <c r="N169" s="16"/>
     </row>
   </sheetData>
@@ -16034,639 +16058,639 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="210" t="s">
+      <c r="B1" s="214" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="211" t="s">
+      <c r="C1" s="215" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="211" t="s">
+      <c r="D1" s="215" t="s">
         <v>1065</v>
       </c>
-      <c r="E1" s="209" t="s">
+      <c r="E1" s="213" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="212" t="s">
+      <c r="F1" s="216" t="s">
         <v>1066</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="213" t="s">
+      <c r="A2" s="217" t="s">
         <v>1067</v>
       </c>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="218" t="s">
         <v>1068</v>
       </c>
-      <c r="C2" s="215" t="s">
+      <c r="C2" s="219" t="s">
         <v>1069</v>
       </c>
-      <c r="D2" s="215"/>
-      <c r="E2" s="216"/>
-      <c r="F2" s="217"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="221"/>
     </row>
     <row r="3">
-      <c r="A3" s="213" t="s">
+      <c r="A3" s="217" t="s">
         <v>1070</v>
       </c>
-      <c r="B3" s="214" t="s">
+      <c r="B3" s="218" t="s">
         <v>1071</v>
       </c>
-      <c r="C3" s="214" t="s">
+      <c r="C3" s="218" t="s">
         <v>1072</v>
       </c>
-      <c r="D3" s="214"/>
-      <c r="E3" s="218"/>
-      <c r="F3" s="212" t="s">
+      <c r="D3" s="218"/>
+      <c r="E3" s="222"/>
+      <c r="F3" s="216" t="s">
         <v>1073</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="213" t="s">
+      <c r="A4" s="217" t="s">
         <v>1074</v>
       </c>
-      <c r="B4" s="214" t="s">
+      <c r="B4" s="218" t="s">
         <v>1075</v>
       </c>
-      <c r="C4" s="214" t="s">
+      <c r="C4" s="218" t="s">
         <v>1076</v>
       </c>
-      <c r="D4" s="214"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="217"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="223"/>
+      <c r="F4" s="221"/>
     </row>
     <row r="5">
-      <c r="A5" s="213" t="s">
+      <c r="A5" s="217" t="s">
         <v>1077</v>
       </c>
-      <c r="B5" s="214" t="s">
+      <c r="B5" s="218" t="s">
         <v>1078</v>
       </c>
-      <c r="C5" s="214" t="s">
+      <c r="C5" s="218" t="s">
         <v>1079</v>
       </c>
-      <c r="D5" s="214"/>
-      <c r="E5" s="219"/>
-      <c r="F5" s="217"/>
+      <c r="D5" s="218"/>
+      <c r="E5" s="223"/>
+      <c r="F5" s="221"/>
     </row>
     <row r="6">
-      <c r="A6" s="213" t="s">
+      <c r="A6" s="217" t="s">
         <v>1080</v>
       </c>
-      <c r="B6" s="220" t="s">
+      <c r="B6" s="224" t="s">
         <v>1081</v>
       </c>
-      <c r="C6" s="214" t="s">
+      <c r="C6" s="218" t="s">
         <v>1082</v>
       </c>
-      <c r="D6" s="214"/>
-      <c r="E6" s="218"/>
-      <c r="F6" s="217"/>
+      <c r="D6" s="218"/>
+      <c r="E6" s="222"/>
+      <c r="F6" s="221"/>
     </row>
     <row r="7">
-      <c r="A7" s="213" t="s">
+      <c r="A7" s="217" t="s">
         <v>1083</v>
       </c>
-      <c r="B7" s="221" t="s">
+      <c r="B7" s="225" t="s">
         <v>1084</v>
       </c>
-      <c r="C7" s="214" t="s">
+      <c r="C7" s="218" t="s">
         <v>1085</v>
       </c>
-      <c r="D7" s="214"/>
-      <c r="E7" s="212"/>
-      <c r="F7" s="217"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="221"/>
     </row>
     <row r="8">
-      <c r="A8" s="213" t="s">
+      <c r="A8" s="217" t="s">
         <v>1086</v>
       </c>
-      <c r="B8" s="221" t="s">
+      <c r="B8" s="225" t="s">
         <v>1087</v>
       </c>
-      <c r="C8" s="214" t="s">
+      <c r="C8" s="218" t="s">
         <v>1069</v>
       </c>
-      <c r="D8" s="214"/>
-      <c r="E8" s="212"/>
-      <c r="F8" s="217"/>
+      <c r="D8" s="218"/>
+      <c r="E8" s="216"/>
+      <c r="F8" s="221"/>
     </row>
     <row r="9">
-      <c r="A9" s="213" t="s">
+      <c r="A9" s="217" t="s">
         <v>1088</v>
       </c>
-      <c r="B9" s="221" t="s">
+      <c r="B9" s="225" t="s">
         <v>1089</v>
       </c>
-      <c r="C9" s="222" t="s">
+      <c r="C9" s="226" t="s">
         <v>1090</v>
       </c>
-      <c r="D9" s="222"/>
-      <c r="E9" s="223"/>
-      <c r="F9" s="217"/>
+      <c r="D9" s="226"/>
+      <c r="E9" s="227"/>
+      <c r="F9" s="221"/>
     </row>
     <row r="10">
-      <c r="A10" s="213" t="s">
+      <c r="A10" s="217" t="s">
         <v>1091</v>
       </c>
-      <c r="B10" s="221" t="s">
+      <c r="B10" s="225" t="s">
         <v>1092</v>
       </c>
-      <c r="C10" s="214" t="s">
+      <c r="C10" s="218" t="s">
         <v>1093</v>
       </c>
-      <c r="D10" s="214"/>
-      <c r="E10" s="212"/>
-      <c r="F10" s="217"/>
+      <c r="D10" s="218"/>
+      <c r="E10" s="216"/>
+      <c r="F10" s="221"/>
     </row>
     <row r="11">
-      <c r="A11" s="213" t="s">
+      <c r="A11" s="217" t="s">
         <v>1094</v>
       </c>
-      <c r="B11" s="214" t="s">
+      <c r="B11" s="218" t="s">
         <v>1095</v>
       </c>
-      <c r="C11" s="214" t="s">
+      <c r="C11" s="218" t="s">
         <v>1096</v>
       </c>
-      <c r="D11" s="214"/>
-      <c r="E11" s="217"/>
-      <c r="F11" s="217"/>
+      <c r="D11" s="218"/>
+      <c r="E11" s="221"/>
+      <c r="F11" s="221"/>
     </row>
     <row r="12">
-      <c r="A12" s="213" t="s">
+      <c r="A12" s="217" t="s">
         <v>1097</v>
       </c>
-      <c r="B12" s="224" t="s">
+      <c r="B12" s="228" t="s">
         <v>1098</v>
       </c>
-      <c r="C12" s="224" t="s">
+      <c r="C12" s="228" t="s">
         <v>1099</v>
       </c>
-      <c r="D12" s="224"/>
-      <c r="E12" s="217"/>
-      <c r="F12" s="217"/>
+      <c r="D12" s="228"/>
+      <c r="E12" s="221"/>
+      <c r="F12" s="221"/>
     </row>
     <row r="13">
-      <c r="A13" s="213" t="s">
+      <c r="A13" s="217" t="s">
         <v>1100</v>
       </c>
-      <c r="B13" s="225" t="s">
+      <c r="B13" s="229" t="s">
         <v>1101</v>
       </c>
-      <c r="C13" s="224" t="s">
+      <c r="C13" s="228" t="s">
         <v>1102</v>
       </c>
-      <c r="D13" s="224"/>
-      <c r="E13" s="217"/>
-      <c r="F13" s="217"/>
+      <c r="D13" s="228"/>
+      <c r="E13" s="221"/>
+      <c r="F13" s="221"/>
     </row>
     <row r="14">
-      <c r="A14" s="213" t="s">
+      <c r="A14" s="217" t="s">
         <v>1103</v>
       </c>
-      <c r="B14" s="225" t="s">
+      <c r="B14" s="229" t="s">
         <v>1104</v>
       </c>
-      <c r="C14" s="224" t="s">
+      <c r="C14" s="228" t="s">
         <v>1105</v>
       </c>
-      <c r="D14" s="224"/>
-      <c r="E14" s="217"/>
-      <c r="F14" s="217"/>
+      <c r="D14" s="228"/>
+      <c r="E14" s="221"/>
+      <c r="F14" s="221"/>
     </row>
     <row r="15">
-      <c r="A15" s="213" t="s">
+      <c r="A15" s="217" t="s">
         <v>1106</v>
       </c>
-      <c r="B15" s="225" t="s">
+      <c r="B15" s="229" t="s">
         <v>1107</v>
       </c>
-      <c r="C15" s="224" t="s">
+      <c r="C15" s="228" t="s">
         <v>1108</v>
       </c>
-      <c r="D15" s="224"/>
-      <c r="E15" s="217"/>
-      <c r="F15" s="217"/>
+      <c r="D15" s="228"/>
+      <c r="E15" s="221"/>
+      <c r="F15" s="221"/>
     </row>
     <row r="16">
-      <c r="A16" s="213" t="s">
+      <c r="A16" s="217" t="s">
         <v>1109</v>
       </c>
-      <c r="B16" s="225" t="s">
+      <c r="B16" s="229" t="s">
         <v>1110</v>
       </c>
-      <c r="C16" s="224" t="s">
+      <c r="C16" s="228" t="s">
         <v>1111</v>
       </c>
-      <c r="D16" s="224"/>
-      <c r="E16" s="217"/>
-      <c r="F16" s="217"/>
+      <c r="D16" s="228"/>
+      <c r="E16" s="221"/>
+      <c r="F16" s="221"/>
     </row>
     <row r="17">
-      <c r="A17" s="213" t="s">
+      <c r="A17" s="217" t="s">
         <v>1112</v>
       </c>
-      <c r="B17" s="225" t="s">
+      <c r="B17" s="229" t="s">
         <v>1113</v>
       </c>
-      <c r="C17" s="224" t="s">
+      <c r="C17" s="228" t="s">
         <v>1114</v>
       </c>
-      <c r="D17" s="224"/>
-      <c r="E17" s="217"/>
-      <c r="F17" s="217"/>
+      <c r="D17" s="228"/>
+      <c r="E17" s="221"/>
+      <c r="F17" s="221"/>
     </row>
     <row r="18">
-      <c r="A18" s="213" t="s">
+      <c r="A18" s="217" t="s">
         <v>1115</v>
       </c>
-      <c r="B18" s="225" t="s">
+      <c r="B18" s="229" t="s">
         <v>1116</v>
       </c>
-      <c r="C18" s="224" t="s">
+      <c r="C18" s="228" t="s">
         <v>1117</v>
       </c>
-      <c r="D18" s="224"/>
-      <c r="E18" s="217"/>
-      <c r="F18" s="217"/>
+      <c r="D18" s="228"/>
+      <c r="E18" s="221"/>
+      <c r="F18" s="221"/>
     </row>
     <row r="19">
-      <c r="A19" s="213" t="s">
+      <c r="A19" s="217" t="s">
         <v>1118</v>
       </c>
-      <c r="B19" s="225" t="s">
+      <c r="B19" s="229" t="s">
         <v>1119</v>
       </c>
-      <c r="C19" s="224" t="s">
+      <c r="C19" s="228" t="s">
         <v>1120</v>
       </c>
-      <c r="D19" s="224"/>
-      <c r="E19" s="217"/>
-      <c r="F19" s="217"/>
+      <c r="D19" s="228"/>
+      <c r="E19" s="221"/>
+      <c r="F19" s="221"/>
     </row>
     <row r="20">
-      <c r="A20" s="213" t="s">
+      <c r="A20" s="217" t="s">
         <v>1121</v>
       </c>
-      <c r="B20" s="225" t="s">
+      <c r="B20" s="229" t="s">
         <v>1122</v>
       </c>
-      <c r="C20" s="226" t="s">
+      <c r="C20" s="230" t="s">
         <v>1090</v>
       </c>
-      <c r="D20" s="226"/>
-      <c r="E20" s="217"/>
-      <c r="F20" s="217"/>
+      <c r="D20" s="230"/>
+      <c r="E20" s="221"/>
+      <c r="F20" s="221"/>
     </row>
     <row r="21">
-      <c r="A21" s="213" t="s">
+      <c r="A21" s="217" t="s">
         <v>1123</v>
       </c>
-      <c r="B21" s="227" t="s">
+      <c r="B21" s="231" t="s">
         <v>1124</v>
       </c>
-      <c r="C21" s="224" t="s">
+      <c r="C21" s="228" t="s">
         <v>1125</v>
       </c>
-      <c r="D21" s="224"/>
-      <c r="E21" s="217"/>
-      <c r="F21" s="217"/>
+      <c r="D21" s="228"/>
+      <c r="E21" s="221"/>
+      <c r="F21" s="221"/>
     </row>
     <row r="22">
-      <c r="A22" s="213" t="s">
+      <c r="A22" s="217" t="s">
         <v>1126</v>
       </c>
-      <c r="B22" s="225" t="s">
+      <c r="B22" s="229" t="s">
         <v>1127</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>1128</v>
       </c>
-      <c r="D22" s="228" t="s">
+      <c r="D22" s="232" t="s">
         <v>1129</v>
       </c>
-      <c r="E22" s="212"/>
-      <c r="F22" s="217"/>
+      <c r="E22" s="216"/>
+      <c r="F22" s="221"/>
     </row>
     <row r="23">
-      <c r="A23" s="213" t="s">
+      <c r="A23" s="217" t="s">
         <v>1130</v>
       </c>
-      <c r="B23" s="229" t="s">
+      <c r="B23" s="233" t="s">
         <v>1131</v>
       </c>
-      <c r="C23" s="230" t="s">
+      <c r="C23" s="234" t="s">
         <v>1132</v>
       </c>
-      <c r="D23" s="230"/>
-      <c r="E23" s="217"/>
-      <c r="F23" s="217"/>
+      <c r="D23" s="234"/>
+      <c r="E23" s="221"/>
+      <c r="F23" s="221"/>
     </row>
     <row r="24">
-      <c r="A24" s="213" t="s">
+      <c r="A24" s="217" t="s">
         <v>1133</v>
       </c>
-      <c r="B24" s="229" t="s">
+      <c r="B24" s="233" t="s">
         <v>1134</v>
       </c>
-      <c r="C24" s="230" t="s">
+      <c r="C24" s="234" t="s">
         <v>1135</v>
       </c>
-      <c r="D24" s="230"/>
-      <c r="E24" s="217"/>
-      <c r="F24" s="217"/>
+      <c r="D24" s="234"/>
+      <c r="E24" s="221"/>
+      <c r="F24" s="221"/>
     </row>
     <row r="25">
-      <c r="A25" s="213" t="s">
+      <c r="A25" s="217" t="s">
         <v>1136</v>
       </c>
-      <c r="B25" s="229" t="s">
+      <c r="B25" s="233" t="s">
         <v>1137</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>1128</v>
       </c>
-      <c r="D25" s="230" t="s">
+      <c r="D25" s="234" t="s">
         <v>453</v>
       </c>
-      <c r="E25" s="212"/>
-      <c r="F25" s="217"/>
+      <c r="E25" s="216"/>
+      <c r="F25" s="221"/>
     </row>
     <row r="26">
-      <c r="A26" s="213" t="s">
+      <c r="A26" s="217" t="s">
         <v>1138</v>
       </c>
-      <c r="B26" s="224" t="s">
+      <c r="B26" s="228" t="s">
         <v>1139</v>
       </c>
-      <c r="C26" s="224" t="s">
+      <c r="C26" s="228" t="s">
         <v>1140</v>
       </c>
-      <c r="D26" s="224"/>
-      <c r="E26" s="212"/>
-      <c r="F26" s="217"/>
+      <c r="D26" s="228"/>
+      <c r="E26" s="216"/>
+      <c r="F26" s="221"/>
     </row>
     <row r="27">
-      <c r="A27" s="213" t="s">
+      <c r="A27" s="217" t="s">
         <v>1141</v>
       </c>
-      <c r="B27" s="224" t="s">
+      <c r="B27" s="228" t="s">
         <v>1142</v>
       </c>
-      <c r="C27" s="224" t="s">
+      <c r="C27" s="228" t="s">
         <v>1143</v>
       </c>
-      <c r="D27" s="224"/>
-      <c r="E27" s="217"/>
-      <c r="F27" s="217"/>
+      <c r="D27" s="228"/>
+      <c r="E27" s="221"/>
+      <c r="F27" s="221"/>
     </row>
     <row r="28">
-      <c r="A28" s="213" t="s">
+      <c r="A28" s="217" t="s">
         <v>1144</v>
       </c>
-      <c r="B28" s="224" t="s">
+      <c r="B28" s="228" t="s">
         <v>1145</v>
       </c>
-      <c r="C28" s="224" t="s">
+      <c r="C28" s="228" t="s">
         <v>1146</v>
       </c>
-      <c r="D28" s="224"/>
-      <c r="E28" s="217"/>
-      <c r="F28" s="217"/>
+      <c r="D28" s="228"/>
+      <c r="E28" s="221"/>
+      <c r="F28" s="221"/>
     </row>
     <row r="29">
-      <c r="A29" s="213" t="s">
+      <c r="A29" s="217" t="s">
         <v>1147</v>
       </c>
-      <c r="B29" s="231" t="s">
+      <c r="B29" s="235" t="s">
         <v>1148</v>
       </c>
-      <c r="C29" s="221" t="s">
+      <c r="C29" s="225" t="s">
         <v>1149</v>
       </c>
-      <c r="D29" s="221"/>
-      <c r="E29" s="232"/>
+      <c r="D29" s="225"/>
+      <c r="E29" s="236"/>
     </row>
     <row r="30">
-      <c r="A30" s="213" t="s">
+      <c r="A30" s="217" t="s">
         <v>1150</v>
       </c>
-      <c r="B30" s="231" t="s">
+      <c r="B30" s="235" t="s">
         <v>1151</v>
       </c>
-      <c r="C30" s="221" t="s">
+      <c r="C30" s="225" t="s">
         <v>1152</v>
       </c>
-      <c r="D30" s="221"/>
-      <c r="E30" s="232"/>
+      <c r="D30" s="225"/>
+      <c r="E30" s="236"/>
     </row>
     <row r="31">
-      <c r="A31" s="213" t="s">
+      <c r="A31" s="217" t="s">
         <v>1153</v>
       </c>
-      <c r="B31" s="231" t="s">
+      <c r="B31" s="235" t="s">
         <v>1154</v>
       </c>
-      <c r="C31" s="221" t="s">
+      <c r="C31" s="225" t="s">
         <v>1155</v>
       </c>
-      <c r="D31" s="221"/>
-      <c r="E31" s="232"/>
+      <c r="D31" s="225"/>
+      <c r="E31" s="236"/>
     </row>
     <row r="32">
-      <c r="A32" s="213" t="s">
+      <c r="A32" s="217" t="s">
         <v>1156</v>
       </c>
-      <c r="B32" s="231" t="s">
+      <c r="B32" s="235" t="s">
         <v>1157</v>
       </c>
-      <c r="C32" s="221" t="s">
+      <c r="C32" s="225" t="s">
         <v>1158</v>
       </c>
-      <c r="D32" s="221"/>
-      <c r="E32" s="232"/>
+      <c r="D32" s="225"/>
+      <c r="E32" s="236"/>
     </row>
     <row r="33">
-      <c r="A33" s="213" t="s">
+      <c r="A33" s="217" t="s">
         <v>1159</v>
       </c>
-      <c r="B33" s="231" t="s">
+      <c r="B33" s="235" t="s">
         <v>1160</v>
       </c>
-      <c r="C33" s="221" t="s">
+      <c r="C33" s="225" t="s">
         <v>1161</v>
       </c>
-      <c r="D33" s="221"/>
-      <c r="E33" s="232"/>
+      <c r="D33" s="225"/>
+      <c r="E33" s="236"/>
     </row>
     <row r="34">
-      <c r="A34" s="213" t="s">
+      <c r="A34" s="217" t="s">
         <v>1162</v>
       </c>
-      <c r="B34" s="231" t="s">
+      <c r="B34" s="235" t="s">
         <v>1163</v>
       </c>
-      <c r="C34" s="221" t="s">
+      <c r="C34" s="225" t="s">
         <v>1164</v>
       </c>
-      <c r="D34" s="221"/>
-      <c r="E34" s="232"/>
+      <c r="D34" s="225"/>
+      <c r="E34" s="236"/>
     </row>
     <row r="35">
-      <c r="A35" s="213" t="s">
+      <c r="A35" s="217" t="s">
         <v>1165</v>
       </c>
-      <c r="B35" s="231" t="s">
+      <c r="B35" s="235" t="s">
         <v>1166</v>
       </c>
-      <c r="C35" s="221" t="s">
+      <c r="C35" s="225" t="s">
         <v>1167</v>
       </c>
-      <c r="D35" s="221"/>
-      <c r="E35" s="232"/>
+      <c r="D35" s="225"/>
+      <c r="E35" s="236"/>
     </row>
     <row r="36">
-      <c r="A36" s="213" t="s">
+      <c r="A36" s="217" t="s">
         <v>1168</v>
       </c>
-      <c r="B36" s="231" t="s">
+      <c r="B36" s="235" t="s">
         <v>1169</v>
       </c>
-      <c r="C36" s="221" t="s">
+      <c r="C36" s="225" t="s">
         <v>1170</v>
       </c>
-      <c r="D36" s="221"/>
-      <c r="E36" s="232"/>
+      <c r="D36" s="225"/>
+      <c r="E36" s="236"/>
     </row>
     <row r="37">
-      <c r="A37" s="213" t="s">
+      <c r="A37" s="217" t="s">
         <v>1171</v>
       </c>
-      <c r="B37" s="231" t="s">
+      <c r="B37" s="235" t="s">
         <v>1172</v>
       </c>
-      <c r="C37" s="221" t="s">
+      <c r="C37" s="225" t="s">
         <v>1173</v>
       </c>
-      <c r="D37" s="221"/>
-      <c r="E37" s="232"/>
+      <c r="D37" s="225"/>
+      <c r="E37" s="236"/>
     </row>
     <row r="38">
-      <c r="A38" s="213" t="s">
+      <c r="A38" s="217" t="s">
         <v>1174</v>
       </c>
-      <c r="B38" s="231" t="s">
+      <c r="B38" s="235" t="s">
         <v>1175</v>
       </c>
-      <c r="C38" s="221" t="s">
+      <c r="C38" s="225" t="s">
         <v>1176</v>
       </c>
-      <c r="D38" s="221"/>
-      <c r="E38" s="232"/>
+      <c r="D38" s="225"/>
+      <c r="E38" s="236"/>
     </row>
     <row r="39">
-      <c r="A39" s="213" t="s">
+      <c r="A39" s="217" t="s">
         <v>1177</v>
       </c>
-      <c r="B39" s="233" t="s">
+      <c r="B39" s="237" t="s">
         <v>1178</v>
       </c>
-      <c r="C39" s="229" t="s">
+      <c r="C39" s="233" t="s">
         <v>1179</v>
       </c>
-      <c r="D39" s="229"/>
-      <c r="E39" s="234"/>
-      <c r="F39" s="217"/>
+      <c r="D39" s="233"/>
+      <c r="E39" s="238"/>
+      <c r="F39" s="221"/>
     </row>
     <row r="40">
-      <c r="A40" s="213" t="s">
+      <c r="A40" s="217" t="s">
         <v>1180</v>
       </c>
-      <c r="B40" s="233" t="s">
+      <c r="B40" s="237" t="s">
         <v>1181</v>
       </c>
-      <c r="C40" s="229" t="s">
+      <c r="C40" s="233" t="s">
         <v>1182</v>
       </c>
-      <c r="D40" s="229"/>
-      <c r="E40" s="235"/>
-      <c r="F40" s="217"/>
+      <c r="D40" s="233"/>
+      <c r="E40" s="239"/>
+      <c r="F40" s="221"/>
     </row>
     <row r="41">
-      <c r="A41" s="213" t="s">
+      <c r="A41" s="217" t="s">
         <v>1183</v>
       </c>
-      <c r="B41" s="233" t="s">
+      <c r="B41" s="237" t="s">
         <v>1184</v>
       </c>
-      <c r="C41" s="229" t="s">
+      <c r="C41" s="233" t="s">
         <v>1185</v>
       </c>
-      <c r="D41" s="229"/>
-      <c r="E41" s="234"/>
-      <c r="F41" s="217"/>
+      <c r="D41" s="233"/>
+      <c r="E41" s="238"/>
+      <c r="F41" s="221"/>
     </row>
     <row r="42">
-      <c r="A42" s="213" t="s">
+      <c r="A42" s="217" t="s">
         <v>1186</v>
       </c>
-      <c r="B42" s="233" t="s">
+      <c r="B42" s="237" t="s">
         <v>1081</v>
       </c>
-      <c r="C42" s="236" t="s">
+      <c r="C42" s="240" t="s">
         <v>1187</v>
       </c>
-      <c r="D42" s="236"/>
-      <c r="E42" s="217"/>
-      <c r="F42" s="217"/>
+      <c r="D42" s="240"/>
+      <c r="E42" s="221"/>
+      <c r="F42" s="221"/>
     </row>
     <row r="43">
-      <c r="A43" s="213" t="s">
+      <c r="A43" s="217" t="s">
         <v>1188</v>
       </c>
-      <c r="B43" s="237" t="s">
+      <c r="B43" s="241" t="s">
         <v>1189</v>
       </c>
-      <c r="C43" s="236" t="s">
+      <c r="C43" s="240" t="s">
         <v>1190</v>
       </c>
-      <c r="D43" s="236"/>
-      <c r="E43" s="217"/>
-      <c r="F43" s="217"/>
+      <c r="D43" s="240"/>
+      <c r="E43" s="221"/>
+      <c r="F43" s="221"/>
     </row>
     <row r="44">
-      <c r="A44" s="213" t="s">
+      <c r="A44" s="217" t="s">
         <v>1191</v>
       </c>
-      <c r="B44" s="237" t="s">
+      <c r="B44" s="241" t="s">
         <v>1192</v>
       </c>
-      <c r="C44" s="238" t="s">
+      <c r="C44" s="242" t="s">
         <v>1193</v>
       </c>
-      <c r="D44" s="238"/>
-      <c r="E44" s="217"/>
-      <c r="F44" s="217"/>
+      <c r="D44" s="242"/>
+      <c r="E44" s="221"/>
+      <c r="F44" s="221"/>
     </row>
     <row r="45" ht="20.25" customHeight="1">
-      <c r="A45" s="213" t="s">
+      <c r="A45" s="217" t="s">
         <v>1194</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>1195</v>
       </c>
-      <c r="C45" s="239" t="s">
+      <c r="C45" s="243" t="s">
         <v>308</v>
       </c>
-      <c r="D45" s="239"/>
+      <c r="D45" s="243"/>
       <c r="E45" s="16"/>
       <c r="F45" s="50"/>
     </row>
     <row r="46">
-      <c r="A46" s="213" t="s">
+      <c r="A46" s="217" t="s">
         <v>1196</v>
       </c>
       <c r="B46" s="14" t="s">
@@ -16680,119 +16704,119 @@
       <c r="F46" s="50"/>
     </row>
     <row r="47">
-      <c r="A47" s="213" t="s">
+      <c r="A47" s="217" t="s">
         <v>1198</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>1199</v>
       </c>
-      <c r="C47" s="216" t="s">
+      <c r="C47" s="220" t="s">
         <v>315</v>
       </c>
-      <c r="D47" s="216"/>
+      <c r="D47" s="220"/>
       <c r="E47" s="16"/>
       <c r="F47" s="30"/>
     </row>
     <row r="48">
-      <c r="A48" s="213" t="s">
+      <c r="A48" s="217" t="s">
         <v>1200</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>1201</v>
       </c>
-      <c r="C48" s="216" t="s">
+      <c r="C48" s="220" t="s">
         <v>318</v>
       </c>
-      <c r="D48" s="216"/>
+      <c r="D48" s="220"/>
       <c r="E48" s="16"/>
       <c r="F48" s="30"/>
     </row>
     <row r="49">
-      <c r="A49" s="213" t="s">
+      <c r="A49" s="217" t="s">
         <v>1202</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>1203</v>
       </c>
-      <c r="C49" s="143" t="s">
+      <c r="C49" s="144" t="s">
         <v>321</v>
       </c>
-      <c r="D49" s="143"/>
+      <c r="D49" s="144"/>
       <c r="E49" s="16"/>
       <c r="F49" s="30"/>
     </row>
     <row r="50">
-      <c r="A50" s="213" t="s">
+      <c r="A50" s="217" t="s">
         <v>1204</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>1205</v>
       </c>
-      <c r="C50" s="143" t="s">
+      <c r="C50" s="144" t="s">
         <v>324</v>
       </c>
-      <c r="D50" s="143"/>
+      <c r="D50" s="144"/>
       <c r="E50" s="16"/>
       <c r="F50" s="30"/>
     </row>
     <row r="51">
-      <c r="A51" s="213" t="s">
+      <c r="A51" s="217" t="s">
         <v>1206</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>1207</v>
       </c>
-      <c r="C51" s="216" t="s">
+      <c r="C51" s="220" t="s">
         <v>327</v>
       </c>
-      <c r="D51" s="216"/>
+      <c r="D51" s="220"/>
       <c r="E51" s="16"/>
       <c r="F51" s="30"/>
     </row>
     <row r="52">
-      <c r="A52" s="213" t="s">
+      <c r="A52" s="217" t="s">
         <v>1208</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>1209</v>
       </c>
-      <c r="C52" s="143" t="s">
+      <c r="C52" s="144" t="s">
         <v>330</v>
       </c>
-      <c r="D52" s="143"/>
+      <c r="D52" s="144"/>
       <c r="E52" s="16"/>
       <c r="F52" s="30"/>
     </row>
     <row r="53">
-      <c r="A53" s="213" t="s">
+      <c r="A53" s="217" t="s">
         <v>1210</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>1211</v>
       </c>
-      <c r="C53" s="216" t="s">
+      <c r="C53" s="220" t="s">
         <v>333</v>
       </c>
-      <c r="D53" s="216"/>
+      <c r="D53" s="220"/>
       <c r="E53" s="16"/>
       <c r="F53" s="30"/>
     </row>
     <row r="54">
-      <c r="A54" s="240" t="s">
+      <c r="A54" s="244" t="s">
         <v>1212</v>
       </c>
-      <c r="B54" s="241" t="s">
+      <c r="B54" s="245" t="s">
         <v>1213</v>
       </c>
-      <c r="C54" s="242" t="s">
+      <c r="C54" s="246" t="s">
         <v>336</v>
       </c>
-      <c r="D54" s="242"/>
-      <c r="E54" s="243"/>
-      <c r="F54" s="244"/>
+      <c r="D54" s="246"/>
+      <c r="E54" s="247"/>
+      <c r="F54" s="248"/>
     </row>
     <row r="55">
-      <c r="A55" s="213" t="s">
+      <c r="A55" s="217" t="s">
         <v>1214</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -16864,7 +16888,7 @@
         <v>269</v>
       </c>
       <c r="F2" s="27"/>
-      <c r="G2" s="245"/>
+      <c r="G2" s="249"/>
     </row>
     <row r="3">
       <c r="A3" s="24" t="s">
@@ -17035,102 +17059,102 @@
       <c r="G12" s="16"/>
     </row>
     <row r="13">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="60" t="s">
         <v>1231</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="55" t="s">
+      <c r="B13" s="58"/>
+      <c r="C13" s="56" t="s">
         <v>662</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="56" t="s">
         <v>625</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E13" s="60" t="s">
         <v>189</v>
       </c>
       <c r="F13" s="27"/>
       <c r="G13" s="16"/>
     </row>
     <row r="14">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="60" t="s">
         <v>1232</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="55" t="s">
+      <c r="B14" s="58"/>
+      <c r="C14" s="56" t="s">
         <v>665</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="69" t="s">
         <v>630</v>
       </c>
-      <c r="E14" s="59" t="s">
+      <c r="E14" s="60" t="s">
         <v>193</v>
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="16"/>
     </row>
     <row r="15">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="60" t="s">
         <v>1233</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="55" t="s">
+      <c r="B15" s="58"/>
+      <c r="C15" s="56" t="s">
         <v>668</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="56" t="s">
         <v>634</v>
       </c>
-      <c r="E15" s="59" t="s">
+      <c r="E15" s="60" t="s">
         <v>197</v>
       </c>
       <c r="F15" s="27"/>
       <c r="G15" s="16"/>
     </row>
     <row r="16">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="60" t="s">
         <v>1234</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="55" t="s">
+      <c r="B16" s="58"/>
+      <c r="C16" s="56" t="s">
         <v>671</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="56" t="s">
         <v>638</v>
       </c>
-      <c r="E16" s="59" t="s">
+      <c r="E16" s="60" t="s">
         <v>201</v>
       </c>
       <c r="F16" s="27"/>
       <c r="G16" s="16"/>
     </row>
     <row r="17">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="60" t="s">
         <v>1235</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="55" t="s">
+      <c r="B17" s="58"/>
+      <c r="C17" s="56" t="s">
         <v>674</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="56" t="s">
         <v>642</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="E17" s="60" t="s">
         <v>205</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="16"/>
     </row>
     <row r="18">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="60" t="s">
         <v>1236</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="55" t="s">
+      <c r="B18" s="58"/>
+      <c r="C18" s="56" t="s">
         <v>677</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="56" t="s">
         <v>646</v>
       </c>
-      <c r="E18" s="59" t="s">
+      <c r="E18" s="60" t="s">
         <v>209</v>
       </c>
       <c r="F18" s="27"/>
@@ -17635,28 +17659,28 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="246" t="s">
+      <c r="A1" s="250" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="108" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="246" t="s">
+      <c r="D1" s="250" t="s">
         <v>462</v>
       </c>
-      <c r="E1" s="246" t="s">
+      <c r="E1" s="250" t="s">
         <v>1265</v>
       </c>
-      <c r="F1" s="246" t="s">
+      <c r="F1" s="250" t="s">
         <v>1266</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>1267</v>
       </c>
-      <c r="H1" s="247" t="s">
+      <c r="H1" s="251" t="s">
         <v>471</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -17676,9 +17700,9 @@
       <c r="C2" s="5" t="s">
         <v>1271</v>
       </c>
-      <c r="D2" s="248"/>
-      <c r="F2" s="247"/>
-      <c r="H2" s="249"/>
+      <c r="D2" s="252"/>
+      <c r="F2" s="251"/>
+      <c r="H2" s="253"/>
       <c r="J2" s="5" t="s">
         <v>1272</v>
       </c>
@@ -17693,10 +17717,10 @@
       <c r="C3" s="5" t="s">
         <v>1274</v>
       </c>
-      <c r="D3" s="249"/>
-      <c r="E3" s="247"/>
-      <c r="F3" s="247"/>
-      <c r="H3" s="247"/>
+      <c r="D3" s="253"/>
+      <c r="E3" s="251"/>
+      <c r="F3" s="251"/>
+      <c r="H3" s="251"/>
       <c r="J3" s="5" t="s">
         <v>1275</v>
       </c>
@@ -17711,10 +17735,10 @@
       <c r="C4" s="5" t="s">
         <v>1277</v>
       </c>
-      <c r="D4" s="249"/>
-      <c r="E4" s="247"/>
-      <c r="F4" s="247"/>
-      <c r="H4" s="247"/>
+      <c r="D4" s="253"/>
+      <c r="E4" s="251"/>
+      <c r="F4" s="251"/>
+      <c r="H4" s="251"/>
       <c r="J4" s="5" t="s">
         <v>1275</v>
       </c>
@@ -17729,10 +17753,10 @@
       <c r="C5" s="5" t="s">
         <v>1279</v>
       </c>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
-      <c r="F5" s="247"/>
-      <c r="H5" s="249"/>
+      <c r="D5" s="251"/>
+      <c r="E5" s="251"/>
+      <c r="F5" s="251"/>
+      <c r="H5" s="253"/>
       <c r="J5" s="5" t="s">
         <v>1280</v>
       </c>
@@ -17747,9 +17771,9 @@
       <c r="C6" s="5" t="s">
         <v>1282</v>
       </c>
-      <c r="D6" s="247"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="250"/>
+      <c r="D6" s="251"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="254"/>
       <c r="H6" s="5" t="s">
         <v>458</v>
       </c>
@@ -17767,10 +17791,10 @@
       <c r="C7" s="5" t="s">
         <v>1285</v>
       </c>
-      <c r="D7" s="247"/>
-      <c r="E7" s="247"/>
-      <c r="F7" s="247"/>
-      <c r="H7" s="247"/>
+      <c r="D7" s="251"/>
+      <c r="E7" s="251"/>
+      <c r="F7" s="251"/>
+      <c r="H7" s="251"/>
       <c r="J7" s="5" t="s">
         <v>1286</v>
       </c>
@@ -17785,11 +17809,11 @@
       <c r="C8" s="5" t="s">
         <v>1288</v>
       </c>
-      <c r="D8" s="247"/>
-      <c r="E8" s="247"/>
-      <c r="F8" s="247"/>
-      <c r="G8" s="247"/>
-      <c r="H8" s="247"/>
+      <c r="D8" s="251"/>
+      <c r="E8" s="251"/>
+      <c r="F8" s="251"/>
+      <c r="G8" s="251"/>
+      <c r="H8" s="251"/>
       <c r="J8" s="5" t="s">
         <v>1289</v>
       </c>
@@ -17804,10 +17828,10 @@
       <c r="C9" s="5" t="s">
         <v>1291</v>
       </c>
-      <c r="D9" s="247"/>
-      <c r="E9" s="247"/>
-      <c r="F9" s="247"/>
-      <c r="H9" s="247"/>
+      <c r="D9" s="251"/>
+      <c r="E9" s="251"/>
+      <c r="F9" s="251"/>
+      <c r="H9" s="251"/>
       <c r="J9" s="5" t="s">
         <v>1286</v>
       </c>
@@ -17822,10 +17846,10 @@
       <c r="C10" s="5" t="s">
         <v>1293</v>
       </c>
-      <c r="D10" s="247"/>
-      <c r="E10" s="247"/>
-      <c r="F10" s="247"/>
-      <c r="H10" s="249"/>
+      <c r="D10" s="251"/>
+      <c r="E10" s="251"/>
+      <c r="F10" s="251"/>
+      <c r="H10" s="253"/>
       <c r="J10" s="5" t="s">
         <v>1294</v>
       </c>
@@ -17840,11 +17864,11 @@
       <c r="C11" s="5" t="s">
         <v>1296</v>
       </c>
-      <c r="D11" s="247"/>
-      <c r="E11" s="247"/>
-      <c r="F11" s="247"/>
-      <c r="G11" s="247"/>
-      <c r="H11" s="247"/>
+      <c r="D11" s="251"/>
+      <c r="E11" s="251"/>
+      <c r="F11" s="251"/>
+      <c r="G11" s="251"/>
+      <c r="H11" s="251"/>
       <c r="J11" s="14" t="s">
         <v>1275</v>
       </c>
@@ -17859,11 +17883,11 @@
       <c r="C12" s="5" t="s">
         <v>1298</v>
       </c>
-      <c r="D12" s="247"/>
-      <c r="E12" s="247"/>
-      <c r="F12" s="247"/>
-      <c r="G12" s="247"/>
-      <c r="H12" s="247"/>
+      <c r="D12" s="251"/>
+      <c r="E12" s="251"/>
+      <c r="F12" s="251"/>
+      <c r="G12" s="251"/>
+      <c r="H12" s="251"/>
       <c r="J12" s="5" t="s">
         <v>1289</v>
       </c>
@@ -17878,10 +17902,10 @@
       <c r="C13" s="5" t="s">
         <v>1300</v>
       </c>
-      <c r="D13" s="247"/>
-      <c r="E13" s="247"/>
-      <c r="F13" s="247"/>
-      <c r="H13" s="247"/>
+      <c r="D13" s="251"/>
+      <c r="E13" s="251"/>
+      <c r="F13" s="251"/>
+      <c r="H13" s="251"/>
       <c r="J13" s="5" t="s">
         <v>1286</v>
       </c>
@@ -17896,10 +17920,10 @@
       <c r="C14" s="5" t="s">
         <v>1302</v>
       </c>
-      <c r="D14" s="247"/>
-      <c r="E14" s="247"/>
-      <c r="F14" s="247"/>
-      <c r="H14" s="249"/>
+      <c r="D14" s="251"/>
+      <c r="E14" s="251"/>
+      <c r="F14" s="251"/>
+      <c r="H14" s="253"/>
       <c r="J14" s="5" t="s">
         <v>1294</v>
       </c>
@@ -17914,11 +17938,11 @@
       <c r="C15" s="5" t="s">
         <v>1304</v>
       </c>
-      <c r="D15" s="247"/>
-      <c r="E15" s="247"/>
-      <c r="F15" s="247"/>
-      <c r="G15" s="247"/>
-      <c r="H15" s="247"/>
+      <c r="D15" s="251"/>
+      <c r="E15" s="251"/>
+      <c r="F15" s="251"/>
+      <c r="G15" s="251"/>
+      <c r="H15" s="251"/>
       <c r="J15" s="14" t="s">
         <v>1275</v>
       </c>
@@ -17933,13 +17957,13 @@
       <c r="C16" s="5" t="s">
         <v>1306</v>
       </c>
-      <c r="D16" s="249"/>
-      <c r="E16" s="247"/>
-      <c r="F16" s="247"/>
+      <c r="D16" s="253"/>
+      <c r="E16" s="251"/>
+      <c r="F16" s="251"/>
       <c r="H16" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="J16" s="251" t="s">
+      <c r="J16" s="255" t="s">
         <v>1294</v>
       </c>
     </row>
@@ -17953,12 +17977,12 @@
       <c r="C17" s="5" t="s">
         <v>1308</v>
       </c>
-      <c r="E17" s="247"/>
-      <c r="F17" s="252"/>
-      <c r="H17" s="253" t="s">
+      <c r="E17" s="251"/>
+      <c r="F17" s="256"/>
+      <c r="H17" s="257" t="s">
         <v>1309</v>
       </c>
-      <c r="J17" s="251" t="s">
+      <c r="J17" s="255" t="s">
         <v>1294</v>
       </c>
     </row>
@@ -17972,12 +17996,12 @@
       <c r="C18" s="5" t="s">
         <v>1311</v>
       </c>
-      <c r="E18" s="247"/>
-      <c r="F18" s="252"/>
+      <c r="E18" s="251"/>
+      <c r="F18" s="256"/>
       <c r="H18" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="J18" s="251" t="s">
+      <c r="J18" s="255" t="s">
         <v>1294</v>
       </c>
     </row>
@@ -18008,7 +18032,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="254" t="s">
+      <c r="A2" s="258" t="s">
         <v>1313</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -18019,7 +18043,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="254" t="s">
+      <c r="A3" s="258" t="s">
         <v>1316</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -18030,7 +18054,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="254" t="s">
+      <c r="A4" s="258" t="s">
         <v>1318</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -18050,7 +18074,7 @@
     </row>
     <row r="6">
       <c r="A6" s="5"/>
-      <c r="B6" s="255" t="s">
+      <c r="B6" s="259" t="s">
         <v>1321</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -18059,7 +18083,7 @@
     </row>
     <row r="7">
       <c r="A7" s="5"/>
-      <c r="B7" s="255" t="s">
+      <c r="B7" s="259" t="s">
         <v>1323</v>
       </c>
       <c r="C7" s="5" t="s">

--- a/models/ard-arm-cardiac/source/ard-arm-cardiac.xlsx
+++ b/models/ard-arm-cardiac/source/ard-arm-cardiac.xlsx
@@ -4428,7 +4428,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4539,6 +4539,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor theme="8"/>
       </patternFill>
@@ -4591,7 +4597,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="271">
+  <cellXfs count="274">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5155,6 +5161,15 @@
     <xf borderId="0" fillId="18" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="19" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="19" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="19" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="7" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -5197,7 +5212,7 @@
     <xf borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="19" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="20" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5209,7 +5224,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="20" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="21" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5218,7 +5233,7 @@
     <xf borderId="0" fillId="9" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="21" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="22" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5258,7 +5273,7 @@
     <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="22" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="23" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5270,7 +5285,7 @@
     <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="22" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="23" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5703,82 +5718,82 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="260" t="s">
+      <c r="A2" s="263" t="s">
         <v>1326</v>
       </c>
-      <c r="B2" s="261" t="s">
+      <c r="B2" s="264" t="s">
         <v>1327</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="260" t="s">
+      <c r="A3" s="263" t="s">
         <v>1328</v>
       </c>
-      <c r="B3" s="262" t="s">
+      <c r="B3" s="265" t="s">
         <v>1329</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="260" t="s">
+      <c r="A4" s="263" t="s">
         <v>1330</v>
       </c>
-      <c r="B4" s="263" t="s">
+      <c r="B4" s="266" t="s">
         <v>1331</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="260" t="s">
+      <c r="A5" s="263" t="s">
         <v>1332</v>
       </c>
-      <c r="B5" s="263" t="s">
+      <c r="B5" s="266" t="s">
         <v>1333</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="260" t="s">
+      <c r="A6" s="263" t="s">
         <v>1334</v>
       </c>
-      <c r="B6" s="263" t="s">
+      <c r="B6" s="266" t="s">
         <v>1335</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="260" t="s">
+      <c r="A7" s="263" t="s">
         <v>1336</v>
       </c>
-      <c r="B7" s="263" t="s">
+      <c r="B7" s="266" t="s">
         <v>1337</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="260" t="s">
+      <c r="A8" s="263" t="s">
         <v>1338</v>
       </c>
-      <c r="B8" s="263" t="s">
+      <c r="B8" s="266" t="s">
         <v>1339</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="260" t="s">
+      <c r="A9" s="263" t="s">
         <v>1340</v>
       </c>
-      <c r="B9" s="263" t="s">
+      <c r="B9" s="266" t="s">
         <v>1341</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="260" t="s">
+      <c r="A10" s="263" t="s">
         <v>1342</v>
       </c>
-      <c r="B10" s="263" t="s">
+      <c r="B10" s="266" t="s">
         <v>1343</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="260" t="s">
+      <c r="A11" s="263" t="s">
         <v>1344</v>
       </c>
-      <c r="B11" s="263" t="s">
+      <c r="B11" s="266" t="s">
         <v>1345</v>
       </c>
     </row>
@@ -5786,7 +5801,7 @@
       <c r="A12" s="5" t="s">
         <v>1346</v>
       </c>
-      <c r="B12" s="264" t="s">
+      <c r="B12" s="267" t="s">
         <v>1347</v>
       </c>
     </row>
@@ -5794,7 +5809,7 @@
       <c r="A13" s="25" t="s">
         <v>1348</v>
       </c>
-      <c r="B13" s="265" t="s">
+      <c r="B13" s="268" t="s">
         <v>1349</v>
       </c>
     </row>
@@ -5802,7 +5817,7 @@
       <c r="A14" s="25" t="s">
         <v>1350</v>
       </c>
-      <c r="B14" s="266" t="s">
+      <c r="B14" s="269" t="s">
         <v>1351</v>
       </c>
     </row>
@@ -6038,7 +6053,7 @@
       <c r="A12" s="16" t="s">
         <v>1369</v>
       </c>
-      <c r="B12" s="267" t="s">
+      <c r="B12" s="270" t="s">
         <v>1370</v>
       </c>
       <c r="C12" s="16"/>
@@ -6056,7 +6071,7 @@
       <c r="A13" s="16" t="s">
         <v>1371</v>
       </c>
-      <c r="B13" s="267" t="s">
+      <c r="B13" s="270" t="s">
         <v>1372</v>
       </c>
       <c r="C13" s="16"/>
@@ -6074,7 +6089,7 @@
       <c r="A14" s="16" t="s">
         <v>1373</v>
       </c>
-      <c r="B14" s="267" t="s">
+      <c r="B14" s="270" t="s">
         <v>1374</v>
       </c>
       <c r="C14" s="16"/>
@@ -6092,7 +6107,7 @@
       <c r="A15" s="16" t="s">
         <v>1375</v>
       </c>
-      <c r="B15" s="267" t="s">
+      <c r="B15" s="270" t="s">
         <v>1376</v>
       </c>
       <c r="C15" s="16"/>
@@ -6181,15 +6196,15 @@
       <c r="B20" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="268"/>
-      <c r="D20" s="268"/>
-      <c r="E20" s="268"/>
-      <c r="F20" s="268"/>
-      <c r="G20" s="268"/>
-      <c r="H20" s="268"/>
-      <c r="I20" s="268"/>
-      <c r="J20" s="268"/>
-      <c r="K20" s="268"/>
+      <c r="C20" s="271"/>
+      <c r="D20" s="271"/>
+      <c r="E20" s="271"/>
+      <c r="F20" s="271"/>
+      <c r="G20" s="271"/>
+      <c r="H20" s="271"/>
+      <c r="I20" s="271"/>
+      <c r="J20" s="271"/>
+      <c r="K20" s="271"/>
       <c r="L20" s="16"/>
     </row>
     <row r="21">
@@ -6226,39 +6241,39 @@
       <c r="L27" s="16"/>
     </row>
     <row r="28">
-      <c r="A28" s="268" t="s">
+      <c r="A28" s="271" t="s">
         <v>1385</v>
       </c>
-      <c r="B28" s="269" t="s">
+      <c r="B28" s="272" t="s">
         <v>1386</v>
       </c>
       <c r="L28" s="16"/>
     </row>
     <row r="29">
-      <c r="A29" s="268" t="s">
+      <c r="A29" s="271" t="s">
         <v>1387</v>
       </c>
-      <c r="B29" s="270" t="s">
+      <c r="B29" s="273" t="s">
         <v>1388</v>
       </c>
       <c r="L29" s="16"/>
     </row>
     <row r="30">
-      <c r="A30" s="268" t="s">
+      <c r="A30" s="271" t="s">
         <v>1389</v>
       </c>
-      <c r="B30" s="264" t="s">
+      <c r="B30" s="267" t="s">
         <v>1390</v>
       </c>
-      <c r="C30" s="269"/>
-      <c r="D30" s="269"/>
-      <c r="E30" s="269"/>
-      <c r="F30" s="269"/>
-      <c r="G30" s="269"/>
-      <c r="H30" s="269"/>
-      <c r="I30" s="269"/>
-      <c r="J30" s="269"/>
-      <c r="K30" s="269"/>
+      <c r="C30" s="272"/>
+      <c r="D30" s="272"/>
+      <c r="E30" s="272"/>
+      <c r="F30" s="272"/>
+      <c r="G30" s="272"/>
+      <c r="H30" s="272"/>
+      <c r="I30" s="272"/>
+      <c r="J30" s="272"/>
+      <c r="K30" s="272"/>
       <c r="L30" s="16"/>
     </row>
     <row r="31" hidden="1">
@@ -6275,16 +6290,16 @@
     </row>
     <row r="33">
       <c r="A33" s="16"/>
-      <c r="B33" s="268"/>
-      <c r="C33" s="268"/>
-      <c r="D33" s="268"/>
-      <c r="E33" s="268"/>
-      <c r="F33" s="268"/>
-      <c r="G33" s="268"/>
-      <c r="H33" s="268"/>
-      <c r="I33" s="268"/>
-      <c r="J33" s="268"/>
-      <c r="K33" s="268"/>
+      <c r="B33" s="271"/>
+      <c r="C33" s="271"/>
+      <c r="D33" s="271"/>
+      <c r="E33" s="271"/>
+      <c r="F33" s="271"/>
+      <c r="G33" s="271"/>
+      <c r="H33" s="271"/>
+      <c r="I33" s="271"/>
+      <c r="J33" s="271"/>
+      <c r="K33" s="271"/>
       <c r="L33" s="16"/>
     </row>
   </sheetData>
@@ -14094,13 +14109,13 @@
       <c r="N108" s="34"/>
     </row>
     <row r="109">
-      <c r="A109" s="137" t="s">
+      <c r="A109" s="191" t="s">
         <v>838</v>
       </c>
-      <c r="B109" s="121" t="s">
+      <c r="B109" s="192" t="s">
         <v>839</v>
       </c>
-      <c r="C109" s="145" t="s">
+      <c r="C109" s="193" t="s">
         <v>484</v>
       </c>
       <c r="D109" s="39"/>
@@ -14126,17 +14141,17 @@
       <c r="N109" s="34"/>
     </row>
     <row r="110">
-      <c r="A110" s="137" t="s">
+      <c r="A110" s="191" t="s">
         <v>842</v>
       </c>
-      <c r="B110" s="121" t="s">
+      <c r="B110" s="192" t="s">
         <v>843</v>
       </c>
-      <c r="C110" s="145" t="s">
+      <c r="C110" s="193" t="s">
         <v>484</v>
       </c>
       <c r="D110" s="39"/>
-      <c r="E110" s="191" t="s">
+      <c r="E110" s="194" t="s">
         <v>370</v>
       </c>
       <c r="F110" s="32" t="s">
@@ -14151,24 +14166,24 @@
       <c r="K110" s="117">
         <v>0.0</v>
       </c>
-      <c r="L110" s="192" t="s">
+      <c r="L110" s="195" t="s">
         <v>274</v>
       </c>
-      <c r="M110" s="192"/>
+      <c r="M110" s="195"/>
       <c r="N110" s="34"/>
     </row>
     <row r="111">
-      <c r="A111" s="137" t="s">
+      <c r="A111" s="191" t="s">
         <v>845</v>
       </c>
-      <c r="B111" s="121" t="s">
+      <c r="B111" s="192" t="s">
         <v>846</v>
       </c>
-      <c r="C111" s="145" t="s">
+      <c r="C111" s="193" t="s">
         <v>484</v>
       </c>
       <c r="D111" s="39"/>
-      <c r="E111" s="191" t="s">
+      <c r="E111" s="194" t="s">
         <v>370</v>
       </c>
       <c r="F111" s="32" t="s">
@@ -14184,23 +14199,23 @@
         <v>704</v>
       </c>
       <c r="L111" s="121" t="s">
-        <v>731</v>
+        <v>757</v>
       </c>
       <c r="M111" s="121"/>
       <c r="N111" s="34"/>
     </row>
     <row r="112">
-      <c r="A112" s="137" t="s">
+      <c r="A112" s="191" t="s">
         <v>848</v>
       </c>
-      <c r="B112" s="121" t="s">
+      <c r="B112" s="192" t="s">
         <v>849</v>
       </c>
-      <c r="C112" s="145" t="s">
+      <c r="C112" s="193" t="s">
         <v>484</v>
       </c>
       <c r="D112" s="39"/>
-      <c r="E112" s="191" t="s">
+      <c r="E112" s="194" t="s">
         <v>370</v>
       </c>
       <c r="F112" s="32" t="s">
@@ -14222,17 +14237,17 @@
       <c r="N112" s="34"/>
     </row>
     <row r="113">
-      <c r="A113" s="137" t="s">
+      <c r="A113" s="191" t="s">
         <v>852</v>
       </c>
-      <c r="B113" s="121" t="s">
+      <c r="B113" s="192" t="s">
         <v>853</v>
       </c>
-      <c r="C113" s="145" t="s">
+      <c r="C113" s="193" t="s">
         <v>484</v>
       </c>
       <c r="D113" s="39"/>
-      <c r="E113" s="191" t="s">
+      <c r="E113" s="194" t="s">
         <v>370</v>
       </c>
       <c r="F113" s="32" t="s">
@@ -14254,17 +14269,17 @@
       <c r="N113" s="34"/>
     </row>
     <row r="114">
-      <c r="A114" s="137" t="s">
+      <c r="A114" s="191" t="s">
         <v>855</v>
       </c>
-      <c r="B114" s="121" t="s">
+      <c r="B114" s="192" t="s">
         <v>856</v>
       </c>
-      <c r="C114" s="145" t="s">
+      <c r="C114" s="193" t="s">
         <v>484</v>
       </c>
       <c r="D114" s="39"/>
-      <c r="E114" s="191" t="s">
+      <c r="E114" s="194" t="s">
         <v>370</v>
       </c>
       <c r="F114" s="32" t="s">
@@ -14292,7 +14307,7 @@
       <c r="B115" s="157" t="s">
         <v>859</v>
       </c>
-      <c r="C115" s="193" t="s">
+      <c r="C115" s="196" t="s">
         <v>480</v>
       </c>
       <c r="D115" s="59"/>
@@ -14360,7 +14375,7 @@
         <v>484</v>
       </c>
       <c r="D117" s="39"/>
-      <c r="E117" s="191" t="s">
+      <c r="E117" s="194" t="s">
         <v>370</v>
       </c>
       <c r="F117" s="41" t="s">
@@ -14375,10 +14390,10 @@
       <c r="K117" s="117">
         <v>0.0</v>
       </c>
-      <c r="L117" s="192" t="s">
+      <c r="L117" s="195" t="s">
         <v>274</v>
       </c>
-      <c r="M117" s="192"/>
+      <c r="M117" s="195"/>
       <c r="N117" s="34"/>
     </row>
     <row r="118">
@@ -14388,11 +14403,11 @@
       <c r="B118" s="157" t="s">
         <v>870</v>
       </c>
-      <c r="C118" s="193" t="s">
+      <c r="C118" s="196" t="s">
         <v>484</v>
       </c>
       <c r="D118" s="59"/>
-      <c r="E118" s="191" t="s">
+      <c r="E118" s="194" t="s">
         <v>370</v>
       </c>
       <c r="F118" s="41" t="s">
@@ -14420,11 +14435,11 @@
       <c r="B119" s="157" t="s">
         <v>873</v>
       </c>
-      <c r="C119" s="193" t="s">
+      <c r="C119" s="196" t="s">
         <v>484</v>
       </c>
       <c r="D119" s="59"/>
-      <c r="E119" s="191" t="s">
+      <c r="E119" s="194" t="s">
         <v>370</v>
       </c>
       <c r="F119" s="41" t="s">
@@ -14452,11 +14467,11 @@
       <c r="B120" s="157" t="s">
         <v>876</v>
       </c>
-      <c r="C120" s="193" t="s">
+      <c r="C120" s="196" t="s">
         <v>484</v>
       </c>
       <c r="D120" s="59"/>
-      <c r="E120" s="191" t="s">
+      <c r="E120" s="194" t="s">
         <v>370</v>
       </c>
       <c r="F120" s="41" t="s">
@@ -14488,7 +14503,7 @@
         <v>484</v>
       </c>
       <c r="D121" s="129"/>
-      <c r="E121" s="191" t="s">
+      <c r="E121" s="194" t="s">
         <v>370</v>
       </c>
       <c r="F121" s="41" t="s">
@@ -14516,7 +14531,7 @@
       <c r="B122" s="123" t="s">
         <v>882</v>
       </c>
-      <c r="C122" s="194" t="s">
+      <c r="C122" s="197" t="s">
         <v>480</v>
       </c>
       <c r="D122" s="25"/>
@@ -14548,7 +14563,7 @@
       <c r="B123" s="123" t="s">
         <v>886</v>
       </c>
-      <c r="C123" s="194" t="s">
+      <c r="C123" s="197" t="s">
         <v>484</v>
       </c>
       <c r="D123" s="25"/>
@@ -14567,10 +14582,10 @@
       <c r="K123" s="115">
         <v>0.0</v>
       </c>
-      <c r="L123" s="195" t="s">
+      <c r="L123" s="198" t="s">
         <v>297</v>
       </c>
-      <c r="M123" s="195"/>
+      <c r="M123" s="198"/>
       <c r="N123" s="16"/>
     </row>
     <row r="124">
@@ -14580,7 +14595,7 @@
       <c r="B124" s="123" t="s">
         <v>890</v>
       </c>
-      <c r="C124" s="194" t="s">
+      <c r="C124" s="197" t="s">
         <v>480</v>
       </c>
       <c r="D124" s="25"/>
@@ -14610,7 +14625,7 @@
       <c r="B125" s="123" t="s">
         <v>893</v>
       </c>
-      <c r="C125" s="194" t="s">
+      <c r="C125" s="197" t="s">
         <v>484</v>
       </c>
       <c r="D125" s="25"/>
@@ -14754,7 +14769,7 @@
       <c r="H129" s="36"/>
       <c r="I129" s="34"/>
       <c r="J129" s="34"/>
-      <c r="K129" s="196" t="s">
+      <c r="K129" s="199" t="s">
         <v>704</v>
       </c>
       <c r="L129" s="147" t="s">
@@ -14786,7 +14801,7 @@
       <c r="H130" s="36"/>
       <c r="I130" s="34"/>
       <c r="J130" s="34"/>
-      <c r="K130" s="196" t="s">
+      <c r="K130" s="199" t="s">
         <v>709</v>
       </c>
       <c r="L130" s="147" t="s">
@@ -14882,7 +14897,7 @@
       <c r="H133" s="36"/>
       <c r="I133" s="34"/>
       <c r="J133" s="34"/>
-      <c r="K133" s="196" t="s">
+      <c r="K133" s="199" t="s">
         <v>704</v>
       </c>
       <c r="L133" s="147" t="s">
@@ -14914,7 +14929,7 @@
       <c r="H134" s="36"/>
       <c r="I134" s="34"/>
       <c r="J134" s="34"/>
-      <c r="K134" s="196" t="s">
+      <c r="K134" s="199" t="s">
         <v>709</v>
       </c>
       <c r="L134" s="147" t="s">
@@ -15084,17 +15099,17 @@
       <c r="N139" s="34"/>
     </row>
     <row r="140">
-      <c r="A140" s="197" t="s">
+      <c r="A140" s="200" t="s">
         <v>947</v>
       </c>
-      <c r="B140" s="198" t="s">
+      <c r="B140" s="201" t="s">
         <v>948</v>
       </c>
-      <c r="C140" s="199" t="s">
+      <c r="C140" s="202" t="s">
         <v>480</v>
       </c>
-      <c r="D140" s="199"/>
-      <c r="E140" s="200" t="s">
+      <c r="D140" s="202"/>
+      <c r="E140" s="203" t="s">
         <v>370</v>
       </c>
       <c r="F140" s="32" t="s">
@@ -15103,17 +15118,17 @@
       <c r="G140" s="143" t="s">
         <v>949</v>
       </c>
-      <c r="H140" s="201"/>
-      <c r="I140" s="202"/>
-      <c r="J140" s="202"/>
-      <c r="K140" s="203" t="s">
+      <c r="H140" s="204"/>
+      <c r="I140" s="205"/>
+      <c r="J140" s="205"/>
+      <c r="K140" s="206" t="s">
         <v>945</v>
       </c>
-      <c r="L140" s="204" t="s">
+      <c r="L140" s="207" t="s">
         <v>950</v>
       </c>
-      <c r="M140" s="204"/>
-      <c r="N140" s="202"/>
+      <c r="M140" s="207"/>
+      <c r="N140" s="205"/>
     </row>
     <row r="141">
       <c r="A141" s="24" t="s">
@@ -15122,7 +15137,7 @@
       <c r="B141" s="115" t="s">
         <v>952</v>
       </c>
-      <c r="C141" s="194" t="s">
+      <c r="C141" s="197" t="s">
         <v>480</v>
       </c>
       <c r="D141" s="25"/>
@@ -15132,7 +15147,7 @@
       <c r="F141" s="14" t="s">
         <v>953</v>
       </c>
-      <c r="G141" s="205" t="s">
+      <c r="G141" s="208" t="s">
         <v>954</v>
       </c>
       <c r="H141" s="13"/>
@@ -15141,10 +15156,10 @@
       <c r="K141" s="123">
         <v>0.0</v>
       </c>
-      <c r="L141" s="206" t="s">
+      <c r="L141" s="209" t="s">
         <v>230</v>
       </c>
-      <c r="M141" s="206"/>
+      <c r="M141" s="209"/>
       <c r="N141" s="16"/>
     </row>
     <row r="142">
@@ -15154,7 +15169,7 @@
       <c r="B142" s="115" t="s">
         <v>956</v>
       </c>
-      <c r="C142" s="194" t="s">
+      <c r="C142" s="197" t="s">
         <v>484</v>
       </c>
       <c r="D142" s="25"/>
@@ -15173,10 +15188,10 @@
       <c r="K142" s="123">
         <v>0.0</v>
       </c>
-      <c r="L142" s="206" t="s">
+      <c r="L142" s="209" t="s">
         <v>230</v>
       </c>
-      <c r="M142" s="206"/>
+      <c r="M142" s="209"/>
       <c r="N142" s="16"/>
     </row>
     <row r="143">
@@ -15186,7 +15201,7 @@
       <c r="B143" s="115" t="s">
         <v>960</v>
       </c>
-      <c r="C143" s="194" t="s">
+      <c r="C143" s="197" t="s">
         <v>480</v>
       </c>
       <c r="D143" s="25"/>
@@ -15196,7 +15211,7 @@
       <c r="F143" s="14" t="s">
         <v>961</v>
       </c>
-      <c r="G143" s="205" t="s">
+      <c r="G143" s="208" t="s">
         <v>954</v>
       </c>
       <c r="H143" s="13"/>
@@ -15205,10 +15220,10 @@
       <c r="K143" s="123">
         <v>0.0</v>
       </c>
-      <c r="L143" s="206" t="s">
+      <c r="L143" s="209" t="s">
         <v>225</v>
       </c>
-      <c r="M143" s="206"/>
+      <c r="M143" s="209"/>
       <c r="N143" s="16"/>
     </row>
     <row r="144">
@@ -15218,7 +15233,7 @@
       <c r="B144" s="115" t="s">
         <v>963</v>
       </c>
-      <c r="C144" s="194" t="s">
+      <c r="C144" s="197" t="s">
         <v>484</v>
       </c>
       <c r="D144" s="25"/>
@@ -15237,10 +15252,10 @@
       <c r="K144" s="123">
         <v>0.0</v>
       </c>
-      <c r="L144" s="206" t="s">
+      <c r="L144" s="209" t="s">
         <v>225</v>
       </c>
-      <c r="M144" s="206"/>
+      <c r="M144" s="209"/>
       <c r="N144" s="16"/>
     </row>
     <row r="145">
@@ -15250,14 +15265,14 @@
       <c r="B145" s="115" t="s">
         <v>967</v>
       </c>
-      <c r="C145" s="194" t="s">
+      <c r="C145" s="197" t="s">
         <v>480</v>
       </c>
       <c r="D145" s="25"/>
       <c r="E145" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="F145" s="205" t="s">
+      <c r="F145" s="208" t="s">
         <v>954</v>
       </c>
       <c r="G145" s="5" t="s">
@@ -15269,10 +15284,10 @@
       <c r="K145" s="123">
         <v>3.0</v>
       </c>
-      <c r="L145" s="206" t="s">
+      <c r="L145" s="209" t="s">
         <v>346</v>
       </c>
-      <c r="M145" s="206"/>
+      <c r="M145" s="209"/>
       <c r="N145" s="16"/>
     </row>
     <row r="146">
@@ -15282,14 +15297,14 @@
       <c r="B146" s="115" t="s">
         <v>970</v>
       </c>
-      <c r="C146" s="194" t="s">
+      <c r="C146" s="197" t="s">
         <v>480</v>
       </c>
       <c r="D146" s="25"/>
       <c r="E146" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="F146" s="205" t="s">
+      <c r="F146" s="208" t="s">
         <v>954</v>
       </c>
       <c r="G146" s="5" t="s">
@@ -15301,10 +15316,10 @@
       <c r="K146" s="123">
         <v>3.0</v>
       </c>
-      <c r="L146" s="206" t="s">
+      <c r="L146" s="209" t="s">
         <v>293</v>
       </c>
-      <c r="M146" s="206"/>
+      <c r="M146" s="209"/>
       <c r="N146" s="16"/>
     </row>
     <row r="147">
@@ -15349,7 +15364,7 @@
       <c r="C148" s="145" t="s">
         <v>484</v>
       </c>
-      <c r="D148" s="207"/>
+      <c r="D148" s="210"/>
       <c r="E148" s="137" t="s">
         <v>363</v>
       </c>
@@ -15362,7 +15377,7 @@
       <c r="H148" s="38"/>
       <c r="I148" s="34"/>
       <c r="J148" s="34"/>
-      <c r="K148" s="208" t="s">
+      <c r="K148" s="211" t="s">
         <v>981</v>
       </c>
       <c r="L148" s="5" t="s">
@@ -15381,7 +15396,7 @@
       <c r="C149" s="145" t="s">
         <v>480</v>
       </c>
-      <c r="D149" s="207"/>
+      <c r="D149" s="210"/>
       <c r="E149" s="137" t="s">
         <v>373</v>
       </c>
@@ -15397,10 +15412,10 @@
       <c r="K149" s="134" t="s">
         <v>512</v>
       </c>
-      <c r="L149" s="209" t="s">
+      <c r="L149" s="212" t="s">
         <v>986</v>
       </c>
-      <c r="M149" s="209"/>
+      <c r="M149" s="212"/>
       <c r="N149" s="34"/>
     </row>
     <row r="150">
@@ -15413,7 +15428,7 @@
       <c r="C150" s="145" t="s">
         <v>484</v>
       </c>
-      <c r="D150" s="207"/>
+      <c r="D150" s="210"/>
       <c r="E150" s="137" t="s">
         <v>363</v>
       </c>
@@ -15426,7 +15441,7 @@
       <c r="H150" s="36"/>
       <c r="I150" s="34"/>
       <c r="J150" s="34"/>
-      <c r="K150" s="208" t="s">
+      <c r="K150" s="211" t="s">
         <v>981</v>
       </c>
       <c r="L150" s="5" t="s">
@@ -15445,7 +15460,7 @@
       <c r="C151" s="145" t="s">
         <v>480</v>
       </c>
-      <c r="D151" s="207"/>
+      <c r="D151" s="210"/>
       <c r="E151" s="137" t="s">
         <v>373</v>
       </c>
@@ -15477,7 +15492,7 @@
       <c r="C152" s="145" t="s">
         <v>484</v>
       </c>
-      <c r="D152" s="207"/>
+      <c r="D152" s="210"/>
       <c r="E152" s="137" t="s">
         <v>363</v>
       </c>
@@ -15490,7 +15505,7 @@
       <c r="H152" s="36"/>
       <c r="I152" s="34"/>
       <c r="J152" s="34"/>
-      <c r="K152" s="208" t="s">
+      <c r="K152" s="211" t="s">
         <v>981</v>
       </c>
       <c r="L152" s="5" t="s">
@@ -15509,7 +15524,7 @@
       <c r="C153" s="145" t="s">
         <v>480</v>
       </c>
-      <c r="D153" s="207"/>
+      <c r="D153" s="210"/>
       <c r="E153" s="137" t="s">
         <v>373</v>
       </c>
@@ -15541,8 +15556,8 @@
       <c r="C154" s="156" t="s">
         <v>484</v>
       </c>
-      <c r="D154" s="210"/>
-      <c r="E154" s="211" t="s">
+      <c r="D154" s="213"/>
+      <c r="E154" s="214" t="s">
         <v>363</v>
       </c>
       <c r="F154" s="14" t="s">
@@ -15554,7 +15569,7 @@
       <c r="H154" s="13"/>
       <c r="I154" s="16"/>
       <c r="J154" s="16"/>
-      <c r="K154" s="208" t="s">
+      <c r="K154" s="211" t="s">
         <v>981</v>
       </c>
       <c r="L154" s="5" t="s">
@@ -15573,14 +15588,14 @@
       <c r="C155" s="156" t="s">
         <v>480</v>
       </c>
-      <c r="D155" s="210"/>
+      <c r="D155" s="213"/>
       <c r="E155" s="24" t="s">
         <v>373</v>
       </c>
       <c r="F155" s="14" t="s">
         <v>1012</v>
       </c>
-      <c r="G155" s="212" t="s">
+      <c r="G155" s="215" t="s">
         <v>975</v>
       </c>
       <c r="H155" s="13"/>
@@ -15589,10 +15604,10 @@
       <c r="K155" s="123" t="s">
         <v>512</v>
       </c>
-      <c r="L155" s="206" t="s">
+      <c r="L155" s="209" t="s">
         <v>1013</v>
       </c>
-      <c r="M155" s="206"/>
+      <c r="M155" s="209"/>
       <c r="N155" s="16"/>
     </row>
     <row r="156">
@@ -15605,8 +15620,8 @@
       <c r="C156" s="156" t="s">
         <v>484</v>
       </c>
-      <c r="D156" s="210"/>
-      <c r="E156" s="211" t="s">
+      <c r="D156" s="213"/>
+      <c r="E156" s="214" t="s">
         <v>363</v>
       </c>
       <c r="F156" s="14" t="s">
@@ -15618,7 +15633,7 @@
       <c r="H156" s="13"/>
       <c r="I156" s="16"/>
       <c r="J156" s="16"/>
-      <c r="K156" s="208" t="s">
+      <c r="K156" s="211" t="s">
         <v>981</v>
       </c>
       <c r="L156" s="5" t="s">
@@ -15637,14 +15652,14 @@
       <c r="C157" s="156" t="s">
         <v>480</v>
       </c>
-      <c r="D157" s="210"/>
+      <c r="D157" s="213"/>
       <c r="E157" s="24" t="s">
         <v>373</v>
       </c>
       <c r="F157" s="14" t="s">
         <v>1021</v>
       </c>
-      <c r="G157" s="212" t="s">
+      <c r="G157" s="215" t="s">
         <v>975</v>
       </c>
       <c r="H157" s="13"/>
@@ -15653,10 +15668,10 @@
       <c r="K157" s="123" t="s">
         <v>512</v>
       </c>
-      <c r="L157" s="206" t="s">
+      <c r="L157" s="209" t="s">
         <v>1022</v>
       </c>
-      <c r="M157" s="206"/>
+      <c r="M157" s="209"/>
       <c r="N157" s="16"/>
     </row>
     <row r="158">
@@ -15669,8 +15684,8 @@
       <c r="C158" s="156" t="s">
         <v>484</v>
       </c>
-      <c r="D158" s="210"/>
-      <c r="E158" s="211" t="s">
+      <c r="D158" s="213"/>
+      <c r="E158" s="214" t="s">
         <v>363</v>
       </c>
       <c r="F158" s="14" t="s">
@@ -15682,7 +15697,7 @@
       <c r="H158" s="13"/>
       <c r="I158" s="16"/>
       <c r="J158" s="16"/>
-      <c r="K158" s="208" t="s">
+      <c r="K158" s="211" t="s">
         <v>981</v>
       </c>
       <c r="L158" s="5" t="s">
@@ -15701,14 +15716,14 @@
       <c r="C159" s="156" t="s">
         <v>480</v>
       </c>
-      <c r="D159" s="210"/>
+      <c r="D159" s="213"/>
       <c r="E159" s="24" t="s">
         <v>373</v>
       </c>
       <c r="F159" s="14" t="s">
         <v>1030</v>
       </c>
-      <c r="G159" s="212" t="s">
+      <c r="G159" s="215" t="s">
         <v>975</v>
       </c>
       <c r="H159" s="13"/>
@@ -15717,10 +15732,10 @@
       <c r="K159" s="123" t="s">
         <v>512</v>
       </c>
-      <c r="L159" s="206" t="s">
+      <c r="L159" s="209" t="s">
         <v>1031</v>
       </c>
-      <c r="M159" s="206"/>
+      <c r="M159" s="209"/>
       <c r="N159" s="16"/>
     </row>
     <row r="160">
@@ -15733,8 +15748,8 @@
       <c r="C160" s="156" t="s">
         <v>484</v>
       </c>
-      <c r="D160" s="210"/>
-      <c r="E160" s="211" t="s">
+      <c r="D160" s="213"/>
+      <c r="E160" s="214" t="s">
         <v>363</v>
       </c>
       <c r="F160" s="14" t="s">
@@ -15746,7 +15761,7 @@
       <c r="H160" s="13"/>
       <c r="I160" s="16"/>
       <c r="J160" s="16"/>
-      <c r="K160" s="208" t="s">
+      <c r="K160" s="211" t="s">
         <v>981</v>
       </c>
       <c r="L160" s="5" t="s">
@@ -15765,14 +15780,14 @@
       <c r="C161" s="156" t="s">
         <v>480</v>
       </c>
-      <c r="D161" s="210"/>
+      <c r="D161" s="213"/>
       <c r="E161" s="24" t="s">
         <v>373</v>
       </c>
       <c r="F161" s="14" t="s">
         <v>1039</v>
       </c>
-      <c r="G161" s="212" t="s">
+      <c r="G161" s="215" t="s">
         <v>975</v>
       </c>
       <c r="H161" s="13"/>
@@ -15781,10 +15796,10 @@
       <c r="K161" s="123" t="s">
         <v>512</v>
       </c>
-      <c r="L161" s="206" t="s">
+      <c r="L161" s="209" t="s">
         <v>1040</v>
       </c>
-      <c r="M161" s="206"/>
+      <c r="M161" s="209"/>
       <c r="N161" s="16"/>
     </row>
     <row r="162">
@@ -15797,8 +15812,8 @@
       <c r="C162" s="156" t="s">
         <v>484</v>
       </c>
-      <c r="D162" s="210"/>
-      <c r="E162" s="211" t="s">
+      <c r="D162" s="213"/>
+      <c r="E162" s="214" t="s">
         <v>363</v>
       </c>
       <c r="F162" s="14" t="s">
@@ -15810,7 +15825,7 @@
       <c r="H162" s="13"/>
       <c r="I162" s="16"/>
       <c r="J162" s="16"/>
-      <c r="K162" s="208" t="s">
+      <c r="K162" s="211" t="s">
         <v>981</v>
       </c>
       <c r="L162" s="5" t="s">
@@ -15829,14 +15844,14 @@
       <c r="C163" s="156" t="s">
         <v>480</v>
       </c>
-      <c r="D163" s="210"/>
+      <c r="D163" s="213"/>
       <c r="E163" s="24" t="s">
         <v>373</v>
       </c>
       <c r="F163" s="14" t="s">
         <v>1048</v>
       </c>
-      <c r="G163" s="212" t="s">
+      <c r="G163" s="215" t="s">
         <v>975</v>
       </c>
       <c r="H163" s="13"/>
@@ -15845,10 +15860,10 @@
       <c r="K163" s="123" t="s">
         <v>512</v>
       </c>
-      <c r="L163" s="206" t="s">
+      <c r="L163" s="209" t="s">
         <v>1049</v>
       </c>
-      <c r="M163" s="206"/>
+      <c r="M163" s="209"/>
       <c r="N163" s="16"/>
     </row>
     <row r="164">
@@ -15861,8 +15876,8 @@
       <c r="C164" s="156" t="s">
         <v>484</v>
       </c>
-      <c r="D164" s="210"/>
-      <c r="E164" s="211" t="s">
+      <c r="D164" s="213"/>
+      <c r="E164" s="214" t="s">
         <v>363</v>
       </c>
       <c r="F164" s="14" t="s">
@@ -15874,7 +15889,7 @@
       <c r="H164" s="13"/>
       <c r="I164" s="16"/>
       <c r="J164" s="16"/>
-      <c r="K164" s="208" t="s">
+      <c r="K164" s="211" t="s">
         <v>981</v>
       </c>
       <c r="L164" s="5" t="s">
@@ -15893,11 +15908,11 @@
       <c r="C165" s="156" t="s">
         <v>480</v>
       </c>
-      <c r="D165" s="210"/>
+      <c r="D165" s="213"/>
       <c r="E165" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="F165" s="212" t="s">
+      <c r="F165" s="215" t="s">
         <v>975</v>
       </c>
       <c r="G165" s="5"/>
@@ -15907,10 +15922,10 @@
       <c r="K165" s="123">
         <v>0.0</v>
       </c>
-      <c r="L165" s="206" t="s">
+      <c r="L165" s="209" t="s">
         <v>274</v>
       </c>
-      <c r="M165" s="206"/>
+      <c r="M165" s="209"/>
       <c r="N165" s="16"/>
     </row>
     <row r="166">
@@ -15923,11 +15938,11 @@
       <c r="C166" s="156" t="s">
         <v>480</v>
       </c>
-      <c r="D166" s="210"/>
+      <c r="D166" s="213"/>
       <c r="E166" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="F166" s="212" t="s">
+      <c r="F166" s="215" t="s">
         <v>975</v>
       </c>
       <c r="G166" s="14"/>
@@ -15937,10 +15952,10 @@
       <c r="K166" s="123" t="s">
         <v>704</v>
       </c>
-      <c r="L166" s="206" t="s">
+      <c r="L166" s="209" t="s">
         <v>714</v>
       </c>
-      <c r="M166" s="206"/>
+      <c r="M166" s="209"/>
       <c r="N166" s="16"/>
     </row>
     <row r="167">
@@ -15957,7 +15972,7 @@
       <c r="E167" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="F167" s="212" t="s">
+      <c r="F167" s="215" t="s">
         <v>975</v>
       </c>
       <c r="G167" s="14"/>
@@ -15967,10 +15982,10 @@
       <c r="K167" s="123" t="s">
         <v>709</v>
       </c>
-      <c r="L167" s="206" t="s">
+      <c r="L167" s="209" t="s">
         <v>785</v>
       </c>
-      <c r="M167" s="206"/>
+      <c r="M167" s="209"/>
       <c r="N167" s="16"/>
     </row>
     <row r="168">
@@ -15987,7 +16002,7 @@
       <c r="E168" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="F168" s="212" t="s">
+      <c r="F168" s="215" t="s">
         <v>975</v>
       </c>
       <c r="G168" s="14"/>
@@ -15997,10 +16012,10 @@
       <c r="K168" s="123" t="s">
         <v>704</v>
       </c>
-      <c r="L168" s="206" t="s">
+      <c r="L168" s="209" t="s">
         <v>705</v>
       </c>
-      <c r="M168" s="206"/>
+      <c r="M168" s="209"/>
       <c r="N168" s="16"/>
     </row>
     <row r="169">
@@ -16017,7 +16032,7 @@
       <c r="E169" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="F169" s="212" t="s">
+      <c r="F169" s="215" t="s">
         <v>975</v>
       </c>
       <c r="G169" s="14"/>
@@ -16027,10 +16042,10 @@
       <c r="K169" s="123" t="s">
         <v>709</v>
       </c>
-      <c r="L169" s="206" t="s">
+      <c r="L169" s="209" t="s">
         <v>710</v>
       </c>
-      <c r="M169" s="206"/>
+      <c r="M169" s="209"/>
       <c r="N169" s="16"/>
     </row>
   </sheetData>
@@ -16058,639 +16073,639 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="216" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="214" t="s">
+      <c r="B1" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="215" t="s">
+      <c r="C1" s="218" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="215" t="s">
+      <c r="D1" s="218" t="s">
         <v>1065</v>
       </c>
-      <c r="E1" s="213" t="s">
+      <c r="E1" s="216" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="216" t="s">
+      <c r="F1" s="219" t="s">
         <v>1066</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="217" t="s">
+      <c r="A2" s="220" t="s">
         <v>1067</v>
       </c>
-      <c r="B2" s="218" t="s">
+      <c r="B2" s="221" t="s">
         <v>1068</v>
       </c>
-      <c r="C2" s="219" t="s">
+      <c r="C2" s="222" t="s">
         <v>1069</v>
       </c>
-      <c r="D2" s="219"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="221"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="224"/>
     </row>
     <row r="3">
-      <c r="A3" s="217" t="s">
+      <c r="A3" s="220" t="s">
         <v>1070</v>
       </c>
-      <c r="B3" s="218" t="s">
+      <c r="B3" s="221" t="s">
         <v>1071</v>
       </c>
-      <c r="C3" s="218" t="s">
+      <c r="C3" s="221" t="s">
         <v>1072</v>
       </c>
-      <c r="D3" s="218"/>
-      <c r="E3" s="222"/>
-      <c r="F3" s="216" t="s">
+      <c r="D3" s="221"/>
+      <c r="E3" s="225"/>
+      <c r="F3" s="219" t="s">
         <v>1073</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="217" t="s">
+      <c r="A4" s="220" t="s">
         <v>1074</v>
       </c>
-      <c r="B4" s="218" t="s">
+      <c r="B4" s="221" t="s">
         <v>1075</v>
       </c>
-      <c r="C4" s="218" t="s">
+      <c r="C4" s="221" t="s">
         <v>1076</v>
       </c>
-      <c r="D4" s="218"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="221"/>
+      <c r="D4" s="221"/>
+      <c r="E4" s="226"/>
+      <c r="F4" s="224"/>
     </row>
     <row r="5">
-      <c r="A5" s="217" t="s">
+      <c r="A5" s="220" t="s">
         <v>1077</v>
       </c>
-      <c r="B5" s="218" t="s">
+      <c r="B5" s="221" t="s">
         <v>1078</v>
       </c>
-      <c r="C5" s="218" t="s">
+      <c r="C5" s="221" t="s">
         <v>1079</v>
       </c>
-      <c r="D5" s="218"/>
-      <c r="E5" s="223"/>
-      <c r="F5" s="221"/>
+      <c r="D5" s="221"/>
+      <c r="E5" s="226"/>
+      <c r="F5" s="224"/>
     </row>
     <row r="6">
-      <c r="A6" s="217" t="s">
+      <c r="A6" s="220" t="s">
         <v>1080</v>
       </c>
-      <c r="B6" s="224" t="s">
+      <c r="B6" s="227" t="s">
         <v>1081</v>
       </c>
-      <c r="C6" s="218" t="s">
+      <c r="C6" s="221" t="s">
         <v>1082</v>
       </c>
-      <c r="D6" s="218"/>
-      <c r="E6" s="222"/>
-      <c r="F6" s="221"/>
+      <c r="D6" s="221"/>
+      <c r="E6" s="225"/>
+      <c r="F6" s="224"/>
     </row>
     <row r="7">
-      <c r="A7" s="217" t="s">
+      <c r="A7" s="220" t="s">
         <v>1083</v>
       </c>
-      <c r="B7" s="225" t="s">
+      <c r="B7" s="228" t="s">
         <v>1084</v>
       </c>
-      <c r="C7" s="218" t="s">
+      <c r="C7" s="221" t="s">
         <v>1085</v>
       </c>
-      <c r="D7" s="218"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="221"/>
+      <c r="D7" s="221"/>
+      <c r="E7" s="219"/>
+      <c r="F7" s="224"/>
     </row>
     <row r="8">
-      <c r="A8" s="217" t="s">
+      <c r="A8" s="220" t="s">
         <v>1086</v>
       </c>
-      <c r="B8" s="225" t="s">
+      <c r="B8" s="228" t="s">
         <v>1087</v>
       </c>
-      <c r="C8" s="218" t="s">
+      <c r="C8" s="221" t="s">
         <v>1069</v>
       </c>
-      <c r="D8" s="218"/>
-      <c r="E8" s="216"/>
-      <c r="F8" s="221"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="219"/>
+      <c r="F8" s="224"/>
     </row>
     <row r="9">
-      <c r="A9" s="217" t="s">
+      <c r="A9" s="220" t="s">
         <v>1088</v>
       </c>
-      <c r="B9" s="225" t="s">
+      <c r="B9" s="228" t="s">
         <v>1089</v>
       </c>
-      <c r="C9" s="226" t="s">
+      <c r="C9" s="229" t="s">
         <v>1090</v>
       </c>
-      <c r="D9" s="226"/>
-      <c r="E9" s="227"/>
-      <c r="F9" s="221"/>
+      <c r="D9" s="229"/>
+      <c r="E9" s="230"/>
+      <c r="F9" s="224"/>
     </row>
     <row r="10">
-      <c r="A10" s="217" t="s">
+      <c r="A10" s="220" t="s">
         <v>1091</v>
       </c>
-      <c r="B10" s="225" t="s">
+      <c r="B10" s="228" t="s">
         <v>1092</v>
       </c>
-      <c r="C10" s="218" t="s">
+      <c r="C10" s="221" t="s">
         <v>1093</v>
       </c>
-      <c r="D10" s="218"/>
-      <c r="E10" s="216"/>
-      <c r="F10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="219"/>
+      <c r="F10" s="224"/>
     </row>
     <row r="11">
-      <c r="A11" s="217" t="s">
+      <c r="A11" s="220" t="s">
         <v>1094</v>
       </c>
-      <c r="B11" s="218" t="s">
+      <c r="B11" s="221" t="s">
         <v>1095</v>
       </c>
-      <c r="C11" s="218" t="s">
+      <c r="C11" s="221" t="s">
         <v>1096</v>
       </c>
-      <c r="D11" s="218"/>
-      <c r="E11" s="221"/>
-      <c r="F11" s="221"/>
+      <c r="D11" s="221"/>
+      <c r="E11" s="224"/>
+      <c r="F11" s="224"/>
     </row>
     <row r="12">
-      <c r="A12" s="217" t="s">
+      <c r="A12" s="220" t="s">
         <v>1097</v>
       </c>
-      <c r="B12" s="228" t="s">
+      <c r="B12" s="231" t="s">
         <v>1098</v>
       </c>
-      <c r="C12" s="228" t="s">
+      <c r="C12" s="231" t="s">
         <v>1099</v>
       </c>
-      <c r="D12" s="228"/>
-      <c r="E12" s="221"/>
-      <c r="F12" s="221"/>
+      <c r="D12" s="231"/>
+      <c r="E12" s="224"/>
+      <c r="F12" s="224"/>
     </row>
     <row r="13">
-      <c r="A13" s="217" t="s">
+      <c r="A13" s="220" t="s">
         <v>1100</v>
       </c>
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="232" t="s">
         <v>1101</v>
       </c>
-      <c r="C13" s="228" t="s">
+      <c r="C13" s="231" t="s">
         <v>1102</v>
       </c>
-      <c r="D13" s="228"/>
-      <c r="E13" s="221"/>
-      <c r="F13" s="221"/>
+      <c r="D13" s="231"/>
+      <c r="E13" s="224"/>
+      <c r="F13" s="224"/>
     </row>
     <row r="14">
-      <c r="A14" s="217" t="s">
+      <c r="A14" s="220" t="s">
         <v>1103</v>
       </c>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="232" t="s">
         <v>1104</v>
       </c>
-      <c r="C14" s="228" t="s">
+      <c r="C14" s="231" t="s">
         <v>1105</v>
       </c>
-      <c r="D14" s="228"/>
-      <c r="E14" s="221"/>
-      <c r="F14" s="221"/>
+      <c r="D14" s="231"/>
+      <c r="E14" s="224"/>
+      <c r="F14" s="224"/>
     </row>
     <row r="15">
-      <c r="A15" s="217" t="s">
+      <c r="A15" s="220" t="s">
         <v>1106</v>
       </c>
-      <c r="B15" s="229" t="s">
+      <c r="B15" s="232" t="s">
         <v>1107</v>
       </c>
-      <c r="C15" s="228" t="s">
+      <c r="C15" s="231" t="s">
         <v>1108</v>
       </c>
-      <c r="D15" s="228"/>
-      <c r="E15" s="221"/>
-      <c r="F15" s="221"/>
+      <c r="D15" s="231"/>
+      <c r="E15" s="224"/>
+      <c r="F15" s="224"/>
     </row>
     <row r="16">
-      <c r="A16" s="217" t="s">
+      <c r="A16" s="220" t="s">
         <v>1109</v>
       </c>
-      <c r="B16" s="229" t="s">
+      <c r="B16" s="232" t="s">
         <v>1110</v>
       </c>
-      <c r="C16" s="228" t="s">
+      <c r="C16" s="231" t="s">
         <v>1111</v>
       </c>
-      <c r="D16" s="228"/>
-      <c r="E16" s="221"/>
-      <c r="F16" s="221"/>
+      <c r="D16" s="231"/>
+      <c r="E16" s="224"/>
+      <c r="F16" s="224"/>
     </row>
     <row r="17">
-      <c r="A17" s="217" t="s">
+      <c r="A17" s="220" t="s">
         <v>1112</v>
       </c>
-      <c r="B17" s="229" t="s">
+      <c r="B17" s="232" t="s">
         <v>1113</v>
       </c>
-      <c r="C17" s="228" t="s">
+      <c r="C17" s="231" t="s">
         <v>1114</v>
       </c>
-      <c r="D17" s="228"/>
-      <c r="E17" s="221"/>
-      <c r="F17" s="221"/>
+      <c r="D17" s="231"/>
+      <c r="E17" s="224"/>
+      <c r="F17" s="224"/>
     </row>
     <row r="18">
-      <c r="A18" s="217" t="s">
+      <c r="A18" s="220" t="s">
         <v>1115</v>
       </c>
-      <c r="B18" s="229" t="s">
+      <c r="B18" s="232" t="s">
         <v>1116</v>
       </c>
-      <c r="C18" s="228" t="s">
+      <c r="C18" s="231" t="s">
         <v>1117</v>
       </c>
-      <c r="D18" s="228"/>
-      <c r="E18" s="221"/>
-      <c r="F18" s="221"/>
+      <c r="D18" s="231"/>
+      <c r="E18" s="224"/>
+      <c r="F18" s="224"/>
     </row>
     <row r="19">
-      <c r="A19" s="217" t="s">
+      <c r="A19" s="220" t="s">
         <v>1118</v>
       </c>
-      <c r="B19" s="229" t="s">
+      <c r="B19" s="232" t="s">
         <v>1119</v>
       </c>
-      <c r="C19" s="228" t="s">
+      <c r="C19" s="231" t="s">
         <v>1120</v>
       </c>
-      <c r="D19" s="228"/>
-      <c r="E19" s="221"/>
-      <c r="F19" s="221"/>
+      <c r="D19" s="231"/>
+      <c r="E19" s="224"/>
+      <c r="F19" s="224"/>
     </row>
     <row r="20">
-      <c r="A20" s="217" t="s">
+      <c r="A20" s="220" t="s">
         <v>1121</v>
       </c>
-      <c r="B20" s="229" t="s">
+      <c r="B20" s="232" t="s">
         <v>1122</v>
       </c>
-      <c r="C20" s="230" t="s">
+      <c r="C20" s="233" t="s">
         <v>1090</v>
       </c>
-      <c r="D20" s="230"/>
-      <c r="E20" s="221"/>
-      <c r="F20" s="221"/>
+      <c r="D20" s="233"/>
+      <c r="E20" s="224"/>
+      <c r="F20" s="224"/>
     </row>
     <row r="21">
-      <c r="A21" s="217" t="s">
+      <c r="A21" s="220" t="s">
         <v>1123</v>
       </c>
-      <c r="B21" s="231" t="s">
+      <c r="B21" s="234" t="s">
         <v>1124</v>
       </c>
-      <c r="C21" s="228" t="s">
+      <c r="C21" s="231" t="s">
         <v>1125</v>
       </c>
-      <c r="D21" s="228"/>
-      <c r="E21" s="221"/>
-      <c r="F21" s="221"/>
+      <c r="D21" s="231"/>
+      <c r="E21" s="224"/>
+      <c r="F21" s="224"/>
     </row>
     <row r="22">
-      <c r="A22" s="217" t="s">
+      <c r="A22" s="220" t="s">
         <v>1126</v>
       </c>
-      <c r="B22" s="229" t="s">
+      <c r="B22" s="232" t="s">
         <v>1127</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>1128</v>
       </c>
-      <c r="D22" s="232" t="s">
+      <c r="D22" s="235" t="s">
         <v>1129</v>
       </c>
-      <c r="E22" s="216"/>
-      <c r="F22" s="221"/>
+      <c r="E22" s="219"/>
+      <c r="F22" s="224"/>
     </row>
     <row r="23">
-      <c r="A23" s="217" t="s">
+      <c r="A23" s="220" t="s">
         <v>1130</v>
       </c>
-      <c r="B23" s="233" t="s">
+      <c r="B23" s="236" t="s">
         <v>1131</v>
       </c>
-      <c r="C23" s="234" t="s">
+      <c r="C23" s="237" t="s">
         <v>1132</v>
       </c>
-      <c r="D23" s="234"/>
-      <c r="E23" s="221"/>
-      <c r="F23" s="221"/>
+      <c r="D23" s="237"/>
+      <c r="E23" s="224"/>
+      <c r="F23" s="224"/>
     </row>
     <row r="24">
-      <c r="A24" s="217" t="s">
+      <c r="A24" s="220" t="s">
         <v>1133</v>
       </c>
-      <c r="B24" s="233" t="s">
+      <c r="B24" s="236" t="s">
         <v>1134</v>
       </c>
-      <c r="C24" s="234" t="s">
+      <c r="C24" s="237" t="s">
         <v>1135</v>
       </c>
-      <c r="D24" s="234"/>
-      <c r="E24" s="221"/>
-      <c r="F24" s="221"/>
+      <c r="D24" s="237"/>
+      <c r="E24" s="224"/>
+      <c r="F24" s="224"/>
     </row>
     <row r="25">
-      <c r="A25" s="217" t="s">
+      <c r="A25" s="220" t="s">
         <v>1136</v>
       </c>
-      <c r="B25" s="233" t="s">
+      <c r="B25" s="236" t="s">
         <v>1137</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>1128</v>
       </c>
-      <c r="D25" s="234" t="s">
+      <c r="D25" s="237" t="s">
         <v>453</v>
       </c>
-      <c r="E25" s="216"/>
-      <c r="F25" s="221"/>
+      <c r="E25" s="219"/>
+      <c r="F25" s="224"/>
     </row>
     <row r="26">
-      <c r="A26" s="217" t="s">
+      <c r="A26" s="220" t="s">
         <v>1138</v>
       </c>
-      <c r="B26" s="228" t="s">
+      <c r="B26" s="231" t="s">
         <v>1139</v>
       </c>
-      <c r="C26" s="228" t="s">
+      <c r="C26" s="231" t="s">
         <v>1140</v>
       </c>
-      <c r="D26" s="228"/>
-      <c r="E26" s="216"/>
-      <c r="F26" s="221"/>
+      <c r="D26" s="231"/>
+      <c r="E26" s="219"/>
+      <c r="F26" s="224"/>
     </row>
     <row r="27">
-      <c r="A27" s="217" t="s">
+      <c r="A27" s="220" t="s">
         <v>1141</v>
       </c>
-      <c r="B27" s="228" t="s">
+      <c r="B27" s="231" t="s">
         <v>1142</v>
       </c>
-      <c r="C27" s="228" t="s">
+      <c r="C27" s="231" t="s">
         <v>1143</v>
       </c>
-      <c r="D27" s="228"/>
-      <c r="E27" s="221"/>
-      <c r="F27" s="221"/>
+      <c r="D27" s="231"/>
+      <c r="E27" s="224"/>
+      <c r="F27" s="224"/>
     </row>
     <row r="28">
-      <c r="A28" s="217" t="s">
+      <c r="A28" s="220" t="s">
         <v>1144</v>
       </c>
-      <c r="B28" s="228" t="s">
+      <c r="B28" s="231" t="s">
         <v>1145</v>
       </c>
-      <c r="C28" s="228" t="s">
+      <c r="C28" s="231" t="s">
         <v>1146</v>
       </c>
-      <c r="D28" s="228"/>
-      <c r="E28" s="221"/>
-      <c r="F28" s="221"/>
+      <c r="D28" s="231"/>
+      <c r="E28" s="224"/>
+      <c r="F28" s="224"/>
     </row>
     <row r="29">
-      <c r="A29" s="217" t="s">
+      <c r="A29" s="220" t="s">
         <v>1147</v>
       </c>
-      <c r="B29" s="235" t="s">
+      <c r="B29" s="238" t="s">
         <v>1148</v>
       </c>
-      <c r="C29" s="225" t="s">
+      <c r="C29" s="228" t="s">
         <v>1149</v>
       </c>
-      <c r="D29" s="225"/>
-      <c r="E29" s="236"/>
+      <c r="D29" s="228"/>
+      <c r="E29" s="239"/>
     </row>
     <row r="30">
-      <c r="A30" s="217" t="s">
+      <c r="A30" s="220" t="s">
         <v>1150</v>
       </c>
-      <c r="B30" s="235" t="s">
+      <c r="B30" s="238" t="s">
         <v>1151</v>
       </c>
-      <c r="C30" s="225" t="s">
+      <c r="C30" s="228" t="s">
         <v>1152</v>
       </c>
-      <c r="D30" s="225"/>
-      <c r="E30" s="236"/>
+      <c r="D30" s="228"/>
+      <c r="E30" s="239"/>
     </row>
     <row r="31">
-      <c r="A31" s="217" t="s">
+      <c r="A31" s="220" t="s">
         <v>1153</v>
       </c>
-      <c r="B31" s="235" t="s">
+      <c r="B31" s="238" t="s">
         <v>1154</v>
       </c>
-      <c r="C31" s="225" t="s">
+      <c r="C31" s="228" t="s">
         <v>1155</v>
       </c>
-      <c r="D31" s="225"/>
-      <c r="E31" s="236"/>
+      <c r="D31" s="228"/>
+      <c r="E31" s="239"/>
     </row>
     <row r="32">
-      <c r="A32" s="217" t="s">
+      <c r="A32" s="220" t="s">
         <v>1156</v>
       </c>
-      <c r="B32" s="235" t="s">
+      <c r="B32" s="238" t="s">
         <v>1157</v>
       </c>
-      <c r="C32" s="225" t="s">
+      <c r="C32" s="228" t="s">
         <v>1158</v>
       </c>
-      <c r="D32" s="225"/>
-      <c r="E32" s="236"/>
+      <c r="D32" s="228"/>
+      <c r="E32" s="239"/>
     </row>
     <row r="33">
-      <c r="A33" s="217" t="s">
+      <c r="A33" s="220" t="s">
         <v>1159</v>
       </c>
-      <c r="B33" s="235" t="s">
+      <c r="B33" s="238" t="s">
         <v>1160</v>
       </c>
-      <c r="C33" s="225" t="s">
+      <c r="C33" s="228" t="s">
         <v>1161</v>
       </c>
-      <c r="D33" s="225"/>
-      <c r="E33" s="236"/>
+      <c r="D33" s="228"/>
+      <c r="E33" s="239"/>
     </row>
     <row r="34">
-      <c r="A34" s="217" t="s">
+      <c r="A34" s="220" t="s">
         <v>1162</v>
       </c>
-      <c r="B34" s="235" t="s">
+      <c r="B34" s="238" t="s">
         <v>1163</v>
       </c>
-      <c r="C34" s="225" t="s">
+      <c r="C34" s="228" t="s">
         <v>1164</v>
       </c>
-      <c r="D34" s="225"/>
-      <c r="E34" s="236"/>
+      <c r="D34" s="228"/>
+      <c r="E34" s="239"/>
     </row>
     <row r="35">
-      <c r="A35" s="217" t="s">
+      <c r="A35" s="220" t="s">
         <v>1165</v>
       </c>
-      <c r="B35" s="235" t="s">
+      <c r="B35" s="238" t="s">
         <v>1166</v>
       </c>
-      <c r="C35" s="225" t="s">
+      <c r="C35" s="228" t="s">
         <v>1167</v>
       </c>
-      <c r="D35" s="225"/>
-      <c r="E35" s="236"/>
+      <c r="D35" s="228"/>
+      <c r="E35" s="239"/>
     </row>
     <row r="36">
-      <c r="A36" s="217" t="s">
+      <c r="A36" s="220" t="s">
         <v>1168</v>
       </c>
-      <c r="B36" s="235" t="s">
+      <c r="B36" s="238" t="s">
         <v>1169</v>
       </c>
-      <c r="C36" s="225" t="s">
+      <c r="C36" s="228" t="s">
         <v>1170</v>
       </c>
-      <c r="D36" s="225"/>
-      <c r="E36" s="236"/>
+      <c r="D36" s="228"/>
+      <c r="E36" s="239"/>
     </row>
     <row r="37">
-      <c r="A37" s="217" t="s">
+      <c r="A37" s="220" t="s">
         <v>1171</v>
       </c>
-      <c r="B37" s="235" t="s">
+      <c r="B37" s="238" t="s">
         <v>1172</v>
       </c>
-      <c r="C37" s="225" t="s">
+      <c r="C37" s="228" t="s">
         <v>1173</v>
       </c>
-      <c r="D37" s="225"/>
-      <c r="E37" s="236"/>
+      <c r="D37" s="228"/>
+      <c r="E37" s="239"/>
     </row>
     <row r="38">
-      <c r="A38" s="217" t="s">
+      <c r="A38" s="220" t="s">
         <v>1174</v>
       </c>
-      <c r="B38" s="235" t="s">
+      <c r="B38" s="238" t="s">
         <v>1175</v>
       </c>
-      <c r="C38" s="225" t="s">
+      <c r="C38" s="228" t="s">
         <v>1176</v>
       </c>
-      <c r="D38" s="225"/>
-      <c r="E38" s="236"/>
+      <c r="D38" s="228"/>
+      <c r="E38" s="239"/>
     </row>
     <row r="39">
-      <c r="A39" s="217" t="s">
+      <c r="A39" s="220" t="s">
         <v>1177</v>
       </c>
-      <c r="B39" s="237" t="s">
+      <c r="B39" s="240" t="s">
         <v>1178</v>
       </c>
-      <c r="C39" s="233" t="s">
+      <c r="C39" s="236" t="s">
         <v>1179</v>
       </c>
-      <c r="D39" s="233"/>
-      <c r="E39" s="238"/>
-      <c r="F39" s="221"/>
+      <c r="D39" s="236"/>
+      <c r="E39" s="241"/>
+      <c r="F39" s="224"/>
     </row>
     <row r="40">
-      <c r="A40" s="217" t="s">
+      <c r="A40" s="220" t="s">
         <v>1180</v>
       </c>
-      <c r="B40" s="237" t="s">
+      <c r="B40" s="240" t="s">
         <v>1181</v>
       </c>
-      <c r="C40" s="233" t="s">
+      <c r="C40" s="236" t="s">
         <v>1182</v>
       </c>
-      <c r="D40" s="233"/>
-      <c r="E40" s="239"/>
-      <c r="F40" s="221"/>
+      <c r="D40" s="236"/>
+      <c r="E40" s="242"/>
+      <c r="F40" s="224"/>
     </row>
     <row r="41">
-      <c r="A41" s="217" t="s">
+      <c r="A41" s="220" t="s">
         <v>1183</v>
       </c>
-      <c r="B41" s="237" t="s">
+      <c r="B41" s="240" t="s">
         <v>1184</v>
       </c>
-      <c r="C41" s="233" t="s">
+      <c r="C41" s="236" t="s">
         <v>1185</v>
       </c>
-      <c r="D41" s="233"/>
-      <c r="E41" s="238"/>
-      <c r="F41" s="221"/>
+      <c r="D41" s="236"/>
+      <c r="E41" s="241"/>
+      <c r="F41" s="224"/>
     </row>
     <row r="42">
-      <c r="A42" s="217" t="s">
+      <c r="A42" s="220" t="s">
         <v>1186</v>
       </c>
-      <c r="B42" s="237" t="s">
+      <c r="B42" s="240" t="s">
         <v>1081</v>
       </c>
-      <c r="C42" s="240" t="s">
+      <c r="C42" s="243" t="s">
         <v>1187</v>
       </c>
-      <c r="D42" s="240"/>
-      <c r="E42" s="221"/>
-      <c r="F42" s="221"/>
+      <c r="D42" s="243"/>
+      <c r="E42" s="224"/>
+      <c r="F42" s="224"/>
     </row>
     <row r="43">
-      <c r="A43" s="217" t="s">
+      <c r="A43" s="220" t="s">
         <v>1188</v>
       </c>
-      <c r="B43" s="241" t="s">
+      <c r="B43" s="244" t="s">
         <v>1189</v>
       </c>
-      <c r="C43" s="240" t="s">
+      <c r="C43" s="243" t="s">
         <v>1190</v>
       </c>
-      <c r="D43" s="240"/>
-      <c r="E43" s="221"/>
-      <c r="F43" s="221"/>
+      <c r="D43" s="243"/>
+      <c r="E43" s="224"/>
+      <c r="F43" s="224"/>
     </row>
     <row r="44">
-      <c r="A44" s="217" t="s">
+      <c r="A44" s="220" t="s">
         <v>1191</v>
       </c>
-      <c r="B44" s="241" t="s">
+      <c r="B44" s="244" t="s">
         <v>1192</v>
       </c>
-      <c r="C44" s="242" t="s">
+      <c r="C44" s="245" t="s">
         <v>1193</v>
       </c>
-      <c r="D44" s="242"/>
-      <c r="E44" s="221"/>
-      <c r="F44" s="221"/>
+      <c r="D44" s="245"/>
+      <c r="E44" s="224"/>
+      <c r="F44" s="224"/>
     </row>
     <row r="45" ht="20.25" customHeight="1">
-      <c r="A45" s="217" t="s">
+      <c r="A45" s="220" t="s">
         <v>1194</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>1195</v>
       </c>
-      <c r="C45" s="243" t="s">
+      <c r="C45" s="246" t="s">
         <v>308</v>
       </c>
-      <c r="D45" s="243"/>
+      <c r="D45" s="246"/>
       <c r="E45" s="16"/>
       <c r="F45" s="50"/>
     </row>
     <row r="46">
-      <c r="A46" s="217" t="s">
+      <c r="A46" s="220" t="s">
         <v>1196</v>
       </c>
       <c r="B46" s="14" t="s">
@@ -16704,35 +16719,35 @@
       <c r="F46" s="50"/>
     </row>
     <row r="47">
-      <c r="A47" s="217" t="s">
+      <c r="A47" s="220" t="s">
         <v>1198</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>1199</v>
       </c>
-      <c r="C47" s="220" t="s">
+      <c r="C47" s="223" t="s">
         <v>315</v>
       </c>
-      <c r="D47" s="220"/>
+      <c r="D47" s="223"/>
       <c r="E47" s="16"/>
       <c r="F47" s="30"/>
     </row>
     <row r="48">
-      <c r="A48" s="217" t="s">
+      <c r="A48" s="220" t="s">
         <v>1200</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>1201</v>
       </c>
-      <c r="C48" s="220" t="s">
+      <c r="C48" s="223" t="s">
         <v>318</v>
       </c>
-      <c r="D48" s="220"/>
+      <c r="D48" s="223"/>
       <c r="E48" s="16"/>
       <c r="F48" s="30"/>
     </row>
     <row r="49">
-      <c r="A49" s="217" t="s">
+      <c r="A49" s="220" t="s">
         <v>1202</v>
       </c>
       <c r="B49" s="14" t="s">
@@ -16746,7 +16761,7 @@
       <c r="F49" s="30"/>
     </row>
     <row r="50">
-      <c r="A50" s="217" t="s">
+      <c r="A50" s="220" t="s">
         <v>1204</v>
       </c>
       <c r="B50" s="14" t="s">
@@ -16760,21 +16775,21 @@
       <c r="F50" s="30"/>
     </row>
     <row r="51">
-      <c r="A51" s="217" t="s">
+      <c r="A51" s="220" t="s">
         <v>1206</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>1207</v>
       </c>
-      <c r="C51" s="220" t="s">
+      <c r="C51" s="223" t="s">
         <v>327</v>
       </c>
-      <c r="D51" s="220"/>
+      <c r="D51" s="223"/>
       <c r="E51" s="16"/>
       <c r="F51" s="30"/>
     </row>
     <row r="52">
-      <c r="A52" s="217" t="s">
+      <c r="A52" s="220" t="s">
         <v>1208</v>
       </c>
       <c r="B52" s="14" t="s">
@@ -16788,35 +16803,35 @@
       <c r="F52" s="30"/>
     </row>
     <row r="53">
-      <c r="A53" s="217" t="s">
+      <c r="A53" s="220" t="s">
         <v>1210</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>1211</v>
       </c>
-      <c r="C53" s="220" t="s">
+      <c r="C53" s="223" t="s">
         <v>333</v>
       </c>
-      <c r="D53" s="220"/>
+      <c r="D53" s="223"/>
       <c r="E53" s="16"/>
       <c r="F53" s="30"/>
     </row>
     <row r="54">
-      <c r="A54" s="244" t="s">
+      <c r="A54" s="247" t="s">
         <v>1212</v>
       </c>
-      <c r="B54" s="245" t="s">
+      <c r="B54" s="248" t="s">
         <v>1213</v>
       </c>
-      <c r="C54" s="246" t="s">
+      <c r="C54" s="249" t="s">
         <v>336</v>
       </c>
-      <c r="D54" s="246"/>
-      <c r="E54" s="247"/>
-      <c r="F54" s="248"/>
+      <c r="D54" s="249"/>
+      <c r="E54" s="250"/>
+      <c r="F54" s="251"/>
     </row>
     <row r="55">
-      <c r="A55" s="217" t="s">
+      <c r="A55" s="220" t="s">
         <v>1214</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -16888,7 +16903,7 @@
         <v>269</v>
       </c>
       <c r="F2" s="27"/>
-      <c r="G2" s="249"/>
+      <c r="G2" s="252"/>
     </row>
     <row r="3">
       <c r="A3" s="24" t="s">
@@ -17659,7 +17674,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="250" t="s">
+      <c r="A1" s="253" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="108" t="s">
@@ -17668,19 +17683,19 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="250" t="s">
+      <c r="D1" s="253" t="s">
         <v>462</v>
       </c>
-      <c r="E1" s="250" t="s">
+      <c r="E1" s="253" t="s">
         <v>1265</v>
       </c>
-      <c r="F1" s="250" t="s">
+      <c r="F1" s="253" t="s">
         <v>1266</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>1267</v>
       </c>
-      <c r="H1" s="251" t="s">
+      <c r="H1" s="254" t="s">
         <v>471</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -17700,9 +17715,9 @@
       <c r="C2" s="5" t="s">
         <v>1271</v>
       </c>
-      <c r="D2" s="252"/>
-      <c r="F2" s="251"/>
-      <c r="H2" s="253"/>
+      <c r="D2" s="255"/>
+      <c r="F2" s="254"/>
+      <c r="H2" s="256"/>
       <c r="J2" s="5" t="s">
         <v>1272</v>
       </c>
@@ -17717,10 +17732,10 @@
       <c r="C3" s="5" t="s">
         <v>1274</v>
       </c>
-      <c r="D3" s="253"/>
-      <c r="E3" s="251"/>
-      <c r="F3" s="251"/>
-      <c r="H3" s="251"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="254"/>
+      <c r="F3" s="254"/>
+      <c r="H3" s="254"/>
       <c r="J3" s="5" t="s">
         <v>1275</v>
       </c>
@@ -17735,10 +17750,10 @@
       <c r="C4" s="5" t="s">
         <v>1277</v>
       </c>
-      <c r="D4" s="253"/>
-      <c r="E4" s="251"/>
-      <c r="F4" s="251"/>
-      <c r="H4" s="251"/>
+      <c r="D4" s="256"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="H4" s="254"/>
       <c r="J4" s="5" t="s">
         <v>1275</v>
       </c>
@@ -17753,10 +17768,10 @@
       <c r="C5" s="5" t="s">
         <v>1279</v>
       </c>
-      <c r="D5" s="251"/>
-      <c r="E5" s="251"/>
-      <c r="F5" s="251"/>
-      <c r="H5" s="253"/>
+      <c r="D5" s="254"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="254"/>
+      <c r="H5" s="256"/>
       <c r="J5" s="5" t="s">
         <v>1280</v>
       </c>
@@ -17771,9 +17786,9 @@
       <c r="C6" s="5" t="s">
         <v>1282</v>
       </c>
-      <c r="D6" s="251"/>
+      <c r="D6" s="254"/>
       <c r="E6" s="116"/>
-      <c r="F6" s="254"/>
+      <c r="F6" s="257"/>
       <c r="H6" s="5" t="s">
         <v>458</v>
       </c>
@@ -17791,10 +17806,10 @@
       <c r="C7" s="5" t="s">
         <v>1285</v>
       </c>
-      <c r="D7" s="251"/>
-      <c r="E7" s="251"/>
-      <c r="F7" s="251"/>
-      <c r="H7" s="251"/>
+      <c r="D7" s="254"/>
+      <c r="E7" s="254"/>
+      <c r="F7" s="254"/>
+      <c r="H7" s="254"/>
       <c r="J7" s="5" t="s">
         <v>1286</v>
       </c>
@@ -17809,11 +17824,11 @@
       <c r="C8" s="5" t="s">
         <v>1288</v>
       </c>
-      <c r="D8" s="251"/>
-      <c r="E8" s="251"/>
-      <c r="F8" s="251"/>
-      <c r="G8" s="251"/>
-      <c r="H8" s="251"/>
+      <c r="D8" s="254"/>
+      <c r="E8" s="254"/>
+      <c r="F8" s="254"/>
+      <c r="G8" s="254"/>
+      <c r="H8" s="254"/>
       <c r="J8" s="5" t="s">
         <v>1289</v>
       </c>
@@ -17828,10 +17843,10 @@
       <c r="C9" s="5" t="s">
         <v>1291</v>
       </c>
-      <c r="D9" s="251"/>
-      <c r="E9" s="251"/>
-      <c r="F9" s="251"/>
-      <c r="H9" s="251"/>
+      <c r="D9" s="254"/>
+      <c r="E9" s="254"/>
+      <c r="F9" s="254"/>
+      <c r="H9" s="254"/>
       <c r="J9" s="5" t="s">
         <v>1286</v>
       </c>
@@ -17846,10 +17861,10 @@
       <c r="C10" s="5" t="s">
         <v>1293</v>
       </c>
-      <c r="D10" s="251"/>
-      <c r="E10" s="251"/>
-      <c r="F10" s="251"/>
-      <c r="H10" s="253"/>
+      <c r="D10" s="254"/>
+      <c r="E10" s="254"/>
+      <c r="F10" s="254"/>
+      <c r="H10" s="256"/>
       <c r="J10" s="5" t="s">
         <v>1294</v>
       </c>
@@ -17864,11 +17879,11 @@
       <c r="C11" s="5" t="s">
         <v>1296</v>
       </c>
-      <c r="D11" s="251"/>
-      <c r="E11" s="251"/>
-      <c r="F11" s="251"/>
-      <c r="G11" s="251"/>
-      <c r="H11" s="251"/>
+      <c r="D11" s="254"/>
+      <c r="E11" s="254"/>
+      <c r="F11" s="254"/>
+      <c r="G11" s="254"/>
+      <c r="H11" s="254"/>
       <c r="J11" s="14" t="s">
         <v>1275</v>
       </c>
@@ -17883,11 +17898,11 @@
       <c r="C12" s="5" t="s">
         <v>1298</v>
       </c>
-      <c r="D12" s="251"/>
-      <c r="E12" s="251"/>
-      <c r="F12" s="251"/>
-      <c r="G12" s="251"/>
-      <c r="H12" s="251"/>
+      <c r="D12" s="254"/>
+      <c r="E12" s="254"/>
+      <c r="F12" s="254"/>
+      <c r="G12" s="254"/>
+      <c r="H12" s="254"/>
       <c r="J12" s="5" t="s">
         <v>1289</v>
       </c>
@@ -17902,10 +17917,10 @@
       <c r="C13" s="5" t="s">
         <v>1300</v>
       </c>
-      <c r="D13" s="251"/>
-      <c r="E13" s="251"/>
-      <c r="F13" s="251"/>
-      <c r="H13" s="251"/>
+      <c r="D13" s="254"/>
+      <c r="E13" s="254"/>
+      <c r="F13" s="254"/>
+      <c r="H13" s="254"/>
       <c r="J13" s="5" t="s">
         <v>1286</v>
       </c>
@@ -17920,10 +17935,10 @@
       <c r="C14" s="5" t="s">
         <v>1302</v>
       </c>
-      <c r="D14" s="251"/>
-      <c r="E14" s="251"/>
-      <c r="F14" s="251"/>
-      <c r="H14" s="253"/>
+      <c r="D14" s="254"/>
+      <c r="E14" s="254"/>
+      <c r="F14" s="254"/>
+      <c r="H14" s="256"/>
       <c r="J14" s="5" t="s">
         <v>1294</v>
       </c>
@@ -17938,11 +17953,11 @@
       <c r="C15" s="5" t="s">
         <v>1304</v>
       </c>
-      <c r="D15" s="251"/>
-      <c r="E15" s="251"/>
-      <c r="F15" s="251"/>
-      <c r="G15" s="251"/>
-      <c r="H15" s="251"/>
+      <c r="D15" s="254"/>
+      <c r="E15" s="254"/>
+      <c r="F15" s="254"/>
+      <c r="G15" s="254"/>
+      <c r="H15" s="254"/>
       <c r="J15" s="14" t="s">
         <v>1275</v>
       </c>
@@ -17957,13 +17972,13 @@
       <c r="C16" s="5" t="s">
         <v>1306</v>
       </c>
-      <c r="D16" s="253"/>
-      <c r="E16" s="251"/>
-      <c r="F16" s="251"/>
+      <c r="D16" s="256"/>
+      <c r="E16" s="254"/>
+      <c r="F16" s="254"/>
       <c r="H16" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="J16" s="255" t="s">
+      <c r="J16" s="258" t="s">
         <v>1294</v>
       </c>
     </row>
@@ -17977,12 +17992,12 @@
       <c r="C17" s="5" t="s">
         <v>1308</v>
       </c>
-      <c r="E17" s="251"/>
-      <c r="F17" s="256"/>
-      <c r="H17" s="257" t="s">
+      <c r="E17" s="254"/>
+      <c r="F17" s="259"/>
+      <c r="H17" s="260" t="s">
         <v>1309</v>
       </c>
-      <c r="J17" s="255" t="s">
+      <c r="J17" s="258" t="s">
         <v>1294</v>
       </c>
     </row>
@@ -17996,12 +18011,12 @@
       <c r="C18" s="5" t="s">
         <v>1311</v>
       </c>
-      <c r="E18" s="251"/>
-      <c r="F18" s="256"/>
+      <c r="E18" s="254"/>
+      <c r="F18" s="259"/>
       <c r="H18" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="J18" s="255" t="s">
+      <c r="J18" s="258" t="s">
         <v>1294</v>
       </c>
     </row>
@@ -18032,7 +18047,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="258" t="s">
+      <c r="A2" s="261" t="s">
         <v>1313</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -18043,7 +18058,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="258" t="s">
+      <c r="A3" s="261" t="s">
         <v>1316</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -18054,7 +18069,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="258" t="s">
+      <c r="A4" s="261" t="s">
         <v>1318</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -18074,7 +18089,7 @@
     </row>
     <row r="6">
       <c r="A6" s="5"/>
-      <c r="B6" s="259" t="s">
+      <c r="B6" s="262" t="s">
         <v>1321</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -18083,7 +18098,7 @@
     </row>
     <row r="7">
       <c r="A7" s="5"/>
-      <c r="B7" s="259" t="s">
+      <c r="B7" s="262" t="s">
         <v>1323</v>
       </c>
       <c r="C7" s="5" t="s">

--- a/models/ard-arm-cardiac/source/ard-arm-cardiac.xlsx
+++ b/models/ard-arm-cardiac/source/ard-arm-cardiac.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="1393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="1392">
   <si>
     <t>id</t>
   </si>
@@ -2209,7 +2209,7 @@
     <t>ns103_1</t>
   </si>
   <si>
-    <t>A74, A76, A78</t>
+    <t>A74, A78, A78</t>
   </si>
   <si>
     <t>ac-sn-aicg_6</t>
@@ -2408,9 +2408,6 @@
   </si>
   <si>
     <t>ns118_1</t>
-  </si>
-  <si>
-    <t>A74, A78, A78</t>
   </si>
   <si>
     <t>ac-rv0_7</t>
@@ -5711,114 +5708,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="108" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B1" s="108" t="s">
         <v>1324</v>
-      </c>
-      <c r="B1" s="108" t="s">
-        <v>1325</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="263" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B2" s="264" t="s">
         <v>1326</v>
-      </c>
-      <c r="B2" s="264" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="263" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B3" s="265" t="s">
         <v>1328</v>
-      </c>
-      <c r="B3" s="265" t="s">
-        <v>1329</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="263" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B4" s="266" t="s">
         <v>1330</v>
-      </c>
-      <c r="B4" s="266" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="263" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B5" s="266" t="s">
         <v>1332</v>
-      </c>
-      <c r="B5" s="266" t="s">
-        <v>1333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="263" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B6" s="266" t="s">
         <v>1334</v>
-      </c>
-      <c r="B6" s="266" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="263" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B7" s="266" t="s">
         <v>1336</v>
-      </c>
-      <c r="B7" s="266" t="s">
-        <v>1337</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="263" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B8" s="266" t="s">
         <v>1338</v>
-      </c>
-      <c r="B8" s="266" t="s">
-        <v>1339</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="263" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B9" s="266" t="s">
         <v>1340</v>
-      </c>
-      <c r="B9" s="266" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="263" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B10" s="266" t="s">
         <v>1342</v>
-      </c>
-      <c r="B10" s="266" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="263" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B11" s="266" t="s">
         <v>1344</v>
-      </c>
-      <c r="B11" s="266" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B12" s="267" t="s">
         <v>1346</v>
-      </c>
-      <c r="B12" s="267" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="25" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B13" s="268" t="s">
         <v>1348</v>
-      </c>
-      <c r="B13" s="268" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="25" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B14" s="269" t="s">
         <v>1350</v>
-      </c>
-      <c r="B14" s="269" t="s">
-        <v>1351</v>
       </c>
     </row>
   </sheetData>
@@ -5853,16 +5850,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>1352</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>1353</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>1354</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>1355</v>
       </c>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
@@ -5878,13 +5875,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>1356</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="16" t="s">
         <v>1357</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>1358</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
@@ -5925,13 +5922,13 @@
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>1359</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="16" t="s">
         <v>1360</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>1361</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -5948,10 +5945,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>1362</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>1363</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -5966,10 +5963,10 @@
     <row r="7">
       <c r="A7" s="16"/>
       <c r="B7" s="16" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -5984,10 +5981,10 @@
     <row r="8">
       <c r="A8" s="16"/>
       <c r="B8" s="16" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
@@ -6002,10 +5999,10 @@
     <row r="9">
       <c r="A9" s="16"/>
       <c r="B9" s="16" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
@@ -6033,10 +6030,10 @@
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>1367</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>1368</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -6051,10 +6048,10 @@
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B12" s="270" t="s">
         <v>1369</v>
-      </c>
-      <c r="B12" s="270" t="s">
-        <v>1370</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -6069,10 +6066,10 @@
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B13" s="270" t="s">
         <v>1371</v>
-      </c>
-      <c r="B13" s="270" t="s">
-        <v>1372</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -6087,10 +6084,10 @@
     </row>
     <row r="14">
       <c r="A14" s="16" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B14" s="270" t="s">
         <v>1373</v>
-      </c>
-      <c r="B14" s="270" t="s">
-        <v>1374</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -6105,10 +6102,10 @@
     </row>
     <row r="15">
       <c r="A15" s="16" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B15" s="270" t="s">
         <v>1375</v>
-      </c>
-      <c r="B15" s="270" t="s">
-        <v>1376</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -6123,10 +6120,10 @@
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B16" s="93" t="s">
         <v>1377</v>
-      </c>
-      <c r="B16" s="93" t="s">
-        <v>1378</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -6141,10 +6138,10 @@
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -6173,10 +6170,10 @@
     </row>
     <row r="19">
       <c r="A19" s="16" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B19" s="93" t="s">
         <v>1380</v>
-      </c>
-      <c r="B19" s="93" t="s">
-        <v>1381</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -6191,7 +6188,7 @@
     </row>
     <row r="20">
       <c r="A20" s="16" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B20" s="116" t="s">
         <v>6</v>
@@ -6209,10 +6206,10 @@
     </row>
     <row r="21">
       <c r="A21" s="16" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B21" s="116" t="s">
         <v>1383</v>
-      </c>
-      <c r="B21" s="116" t="s">
-        <v>1384</v>
       </c>
       <c r="L21" s="16"/>
     </row>
@@ -6242,28 +6239,28 @@
     </row>
     <row r="28">
       <c r="A28" s="271" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B28" s="272" t="s">
         <v>1385</v>
-      </c>
-      <c r="B28" s="272" t="s">
-        <v>1386</v>
       </c>
       <c r="L28" s="16"/>
     </row>
     <row r="29">
       <c r="A29" s="271" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B29" s="273" t="s">
         <v>1387</v>
-      </c>
-      <c r="B29" s="273" t="s">
-        <v>1388</v>
       </c>
       <c r="L29" s="16"/>
     </row>
     <row r="30">
       <c r="A30" s="271" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B30" s="267" t="s">
         <v>1389</v>
-      </c>
-      <c r="B30" s="267" t="s">
-        <v>1390</v>
       </c>
       <c r="C30" s="272"/>
       <c r="D30" s="272"/>
@@ -6278,13 +6275,13 @@
     </row>
     <row r="31" hidden="1">
       <c r="A31" s="16" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="L31" s="16"/>
     </row>
     <row r="32" hidden="1">
       <c r="A32" s="16" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="L32" s="16"/>
     </row>
@@ -13565,17 +13562,17 @@
         <v>709</v>
       </c>
       <c r="L91" s="121" t="s">
-        <v>785</v>
+        <v>718</v>
       </c>
       <c r="M91" s="121"/>
       <c r="N91" s="34"/>
     </row>
     <row r="92">
       <c r="A92" s="127" t="s">
+        <v>785</v>
+      </c>
+      <c r="B92" s="134" t="s">
         <v>786</v>
-      </c>
-      <c r="B92" s="134" t="s">
-        <v>787</v>
       </c>
       <c r="C92" s="148" t="s">
         <v>484</v>
@@ -13588,7 +13585,7 @@
         <v>774</v>
       </c>
       <c r="G92" s="130" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H92" s="142"/>
       <c r="I92" s="133"/>
@@ -13604,10 +13601,10 @@
     </row>
     <row r="93">
       <c r="A93" s="127" t="s">
+        <v>788</v>
+      </c>
+      <c r="B93" s="134" t="s">
         <v>789</v>
-      </c>
-      <c r="B93" s="134" t="s">
-        <v>790</v>
       </c>
       <c r="C93" s="148" t="s">
         <v>484</v>
@@ -13620,7 +13617,7 @@
         <v>774</v>
       </c>
       <c r="G93" s="130" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H93" s="142"/>
       <c r="I93" s="133"/>
@@ -13636,10 +13633,10 @@
     </row>
     <row r="94">
       <c r="A94" s="24" t="s">
+        <v>791</v>
+      </c>
+      <c r="B94" s="123" t="s">
         <v>792</v>
-      </c>
-      <c r="B94" s="123" t="s">
-        <v>793</v>
       </c>
       <c r="C94" s="156" t="s">
         <v>480</v>
@@ -13649,7 +13646,7 @@
         <v>370</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G94" s="48"/>
       <c r="H94" s="13"/>
@@ -13666,10 +13663,10 @@
     </row>
     <row r="95">
       <c r="A95" s="24" t="s">
+        <v>794</v>
+      </c>
+      <c r="B95" s="123" t="s">
         <v>795</v>
-      </c>
-      <c r="B95" s="123" t="s">
-        <v>796</v>
       </c>
       <c r="C95" s="156" t="s">
         <v>484</v>
@@ -13679,10 +13676,10 @@
         <v>367</v>
       </c>
       <c r="F95" s="14" t="s">
+        <v>796</v>
+      </c>
+      <c r="G95" s="14" t="s">
         <v>797</v>
-      </c>
-      <c r="G95" s="14" t="s">
-        <v>798</v>
       </c>
       <c r="H95" s="13"/>
       <c r="I95" s="16"/>
@@ -13698,10 +13695,10 @@
     </row>
     <row r="96">
       <c r="A96" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="B96" s="123" t="s">
         <v>799</v>
-      </c>
-      <c r="B96" s="123" t="s">
-        <v>800</v>
       </c>
       <c r="C96" s="156" t="s">
         <v>484</v>
@@ -13711,10 +13708,10 @@
         <v>363</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H96" s="13"/>
       <c r="I96" s="16"/>
@@ -13730,10 +13727,10 @@
     </row>
     <row r="97">
       <c r="A97" s="24" t="s">
+        <v>801</v>
+      </c>
+      <c r="B97" s="123" t="s">
         <v>802</v>
-      </c>
-      <c r="B97" s="123" t="s">
-        <v>803</v>
       </c>
       <c r="C97" s="156" t="s">
         <v>484</v>
@@ -13743,10 +13740,10 @@
         <v>363</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H97" s="13"/>
       <c r="I97" s="16"/>
@@ -13762,10 +13759,10 @@
     </row>
     <row r="98">
       <c r="A98" s="24" t="s">
+        <v>804</v>
+      </c>
+      <c r="B98" s="123" t="s">
         <v>805</v>
-      </c>
-      <c r="B98" s="123" t="s">
-        <v>806</v>
       </c>
       <c r="C98" s="156" t="s">
         <v>484</v>
@@ -13775,10 +13772,10 @@
         <v>363</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H98" s="13"/>
       <c r="I98" s="16"/>
@@ -13794,10 +13791,10 @@
     </row>
     <row r="99">
       <c r="A99" s="24" t="s">
+        <v>807</v>
+      </c>
+      <c r="B99" s="123" t="s">
         <v>808</v>
-      </c>
-      <c r="B99" s="123" t="s">
-        <v>809</v>
       </c>
       <c r="C99" s="156" t="s">
         <v>484</v>
@@ -13807,10 +13804,10 @@
         <v>363</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H99" s="13"/>
       <c r="I99" s="16"/>
@@ -13826,10 +13823,10 @@
     </row>
     <row r="100">
       <c r="A100" s="24" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B100" s="123" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C100" s="156" t="s">
         <v>484</v>
@@ -13839,10 +13836,10 @@
         <v>363</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H100" s="13"/>
       <c r="I100" s="16"/>
@@ -13858,10 +13855,10 @@
     </row>
     <row r="101">
       <c r="A101" s="24" t="s">
+        <v>812</v>
+      </c>
+      <c r="B101" s="123" t="s">
         <v>813</v>
-      </c>
-      <c r="B101" s="123" t="s">
-        <v>814</v>
       </c>
       <c r="C101" s="156" t="s">
         <v>480</v>
@@ -13871,7 +13868,7 @@
         <v>370</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G101" s="25"/>
       <c r="H101" s="13"/>
@@ -13888,10 +13885,10 @@
     </row>
     <row r="102">
       <c r="A102" s="24" t="s">
+        <v>815</v>
+      </c>
+      <c r="B102" s="123" t="s">
         <v>816</v>
-      </c>
-      <c r="B102" s="123" t="s">
-        <v>817</v>
       </c>
       <c r="C102" s="156" t="s">
         <v>484</v>
@@ -13901,10 +13898,10 @@
         <v>367</v>
       </c>
       <c r="F102" s="14" t="s">
+        <v>817</v>
+      </c>
+      <c r="G102" s="14" t="s">
         <v>818</v>
-      </c>
-      <c r="G102" s="14" t="s">
-        <v>819</v>
       </c>
       <c r="H102" s="13"/>
       <c r="I102" s="16"/>
@@ -13913,17 +13910,17 @@
         <v>524</v>
       </c>
       <c r="L102" s="123" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="M102" s="123"/>
       <c r="N102" s="16"/>
     </row>
     <row r="103">
       <c r="A103" s="24" t="s">
+        <v>820</v>
+      </c>
+      <c r="B103" s="123" t="s">
         <v>821</v>
-      </c>
-      <c r="B103" s="123" t="s">
-        <v>822</v>
       </c>
       <c r="C103" s="156" t="s">
         <v>484</v>
@@ -13933,10 +13930,10 @@
         <v>363</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G103" s="14" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H103" s="13"/>
       <c r="I103" s="16"/>
@@ -13952,10 +13949,10 @@
     </row>
     <row r="104">
       <c r="A104" s="24" t="s">
+        <v>823</v>
+      </c>
+      <c r="B104" s="123" t="s">
         <v>824</v>
-      </c>
-      <c r="B104" s="123" t="s">
-        <v>825</v>
       </c>
       <c r="C104" s="156" t="s">
         <v>484</v>
@@ -13965,10 +13962,10 @@
         <v>363</v>
       </c>
       <c r="F104" s="14" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G104" s="14" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H104" s="13"/>
       <c r="I104" s="16"/>
@@ -13984,10 +13981,10 @@
     </row>
     <row r="105">
       <c r="A105" s="24" t="s">
+        <v>826</v>
+      </c>
+      <c r="B105" s="123" t="s">
         <v>827</v>
-      </c>
-      <c r="B105" s="123" t="s">
-        <v>828</v>
       </c>
       <c r="C105" s="156" t="s">
         <v>484</v>
@@ -13997,10 +13994,10 @@
         <v>363</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G105" s="14" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H105" s="13"/>
       <c r="I105" s="16"/>
@@ -14009,17 +14006,17 @@
         <v>709</v>
       </c>
       <c r="L105" s="123" t="s">
-        <v>785</v>
+        <v>718</v>
       </c>
       <c r="M105" s="123"/>
       <c r="N105" s="16"/>
     </row>
     <row r="106">
       <c r="A106" s="127" t="s">
+        <v>829</v>
+      </c>
+      <c r="B106" s="134" t="s">
         <v>830</v>
-      </c>
-      <c r="B106" s="134" t="s">
-        <v>831</v>
       </c>
       <c r="C106" s="148" t="s">
         <v>484</v>
@@ -14029,10 +14026,10 @@
         <v>363</v>
       </c>
       <c r="F106" s="130" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G106" s="130" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H106" s="142"/>
       <c r="I106" s="133"/>
@@ -14048,10 +14045,10 @@
     </row>
     <row r="107">
       <c r="A107" s="24" t="s">
+        <v>832</v>
+      </c>
+      <c r="B107" s="123" t="s">
         <v>833</v>
-      </c>
-      <c r="B107" s="123" t="s">
-        <v>834</v>
       </c>
       <c r="C107" s="156" t="s">
         <v>484</v>
@@ -14061,10 +14058,10 @@
         <v>363</v>
       </c>
       <c r="F107" s="14" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G107" s="189" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H107" s="13"/>
       <c r="I107" s="16"/>
@@ -14080,10 +14077,10 @@
     </row>
     <row r="108">
       <c r="A108" s="190" t="s">
+        <v>834</v>
+      </c>
+      <c r="B108" s="123" t="s">
         <v>835</v>
-      </c>
-      <c r="B108" s="123" t="s">
-        <v>836</v>
       </c>
       <c r="C108" s="145" t="s">
         <v>480</v>
@@ -14093,7 +14090,7 @@
         <v>363</v>
       </c>
       <c r="F108" s="32" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G108" s="138"/>
       <c r="H108" s="36"/>
@@ -14110,10 +14107,10 @@
     </row>
     <row r="109">
       <c r="A109" s="191" t="s">
+        <v>837</v>
+      </c>
+      <c r="B109" s="192" t="s">
         <v>838</v>
-      </c>
-      <c r="B109" s="192" t="s">
-        <v>839</v>
       </c>
       <c r="C109" s="193" t="s">
         <v>484</v>
@@ -14123,10 +14120,10 @@
         <v>373</v>
       </c>
       <c r="F109" s="32" t="s">
+        <v>839</v>
+      </c>
+      <c r="G109" s="32" t="s">
         <v>840</v>
-      </c>
-      <c r="G109" s="32" t="s">
-        <v>841</v>
       </c>
       <c r="H109" s="36"/>
       <c r="I109" s="34"/>
@@ -14142,10 +14139,10 @@
     </row>
     <row r="110">
       <c r="A110" s="191" t="s">
+        <v>841</v>
+      </c>
+      <c r="B110" s="192" t="s">
         <v>842</v>
-      </c>
-      <c r="B110" s="192" t="s">
-        <v>843</v>
       </c>
       <c r="C110" s="193" t="s">
         <v>484</v>
@@ -14155,10 +14152,10 @@
         <v>370</v>
       </c>
       <c r="F110" s="32" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G110" s="143" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H110" s="36"/>
       <c r="I110" s="34"/>
@@ -14174,10 +14171,10 @@
     </row>
     <row r="111">
       <c r="A111" s="191" t="s">
+        <v>844</v>
+      </c>
+      <c r="B111" s="192" t="s">
         <v>845</v>
-      </c>
-      <c r="B111" s="192" t="s">
-        <v>846</v>
       </c>
       <c r="C111" s="193" t="s">
         <v>484</v>
@@ -14187,10 +14184,10 @@
         <v>370</v>
       </c>
       <c r="F111" s="32" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G111" s="143" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H111" s="36"/>
       <c r="I111" s="34"/>
@@ -14206,10 +14203,10 @@
     </row>
     <row r="112">
       <c r="A112" s="191" t="s">
+        <v>847</v>
+      </c>
+      <c r="B112" s="192" t="s">
         <v>848</v>
-      </c>
-      <c r="B112" s="192" t="s">
-        <v>849</v>
       </c>
       <c r="C112" s="193" t="s">
         <v>484</v>
@@ -14219,10 +14216,10 @@
         <v>370</v>
       </c>
       <c r="F112" s="32" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G112" s="143" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H112" s="36"/>
       <c r="I112" s="34"/>
@@ -14231,17 +14228,17 @@
         <v>709</v>
       </c>
       <c r="L112" s="121" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="M112" s="121"/>
       <c r="N112" s="34"/>
     </row>
     <row r="113">
       <c r="A113" s="191" t="s">
+        <v>851</v>
+      </c>
+      <c r="B113" s="192" t="s">
         <v>852</v>
-      </c>
-      <c r="B113" s="192" t="s">
-        <v>853</v>
       </c>
       <c r="C113" s="193" t="s">
         <v>484</v>
@@ -14251,10 +14248,10 @@
         <v>370</v>
       </c>
       <c r="F113" s="32" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G113" s="32" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H113" s="36"/>
       <c r="I113" s="34"/>
@@ -14270,10 +14267,10 @@
     </row>
     <row r="114">
       <c r="A114" s="191" t="s">
+        <v>854</v>
+      </c>
+      <c r="B114" s="192" t="s">
         <v>855</v>
-      </c>
-      <c r="B114" s="192" t="s">
-        <v>856</v>
       </c>
       <c r="C114" s="193" t="s">
         <v>484</v>
@@ -14283,10 +14280,10 @@
         <v>370</v>
       </c>
       <c r="F114" s="32" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G114" s="32" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H114" s="36"/>
       <c r="I114" s="34"/>
@@ -14302,10 +14299,10 @@
     </row>
     <row r="115">
       <c r="A115" s="60" t="s">
+        <v>857</v>
+      </c>
+      <c r="B115" s="157" t="s">
         <v>858</v>
-      </c>
-      <c r="B115" s="157" t="s">
-        <v>859</v>
       </c>
       <c r="C115" s="196" t="s">
         <v>480</v>
@@ -14315,10 +14312,10 @@
         <v>363</v>
       </c>
       <c r="F115" s="56" t="s">
+        <v>859</v>
+      </c>
+      <c r="G115" s="56" t="s">
         <v>860</v>
-      </c>
-      <c r="G115" s="56" t="s">
-        <v>861</v>
       </c>
       <c r="H115" s="64"/>
       <c r="I115" s="58"/>
@@ -14334,10 +14331,10 @@
     </row>
     <row r="116">
       <c r="A116" s="137" t="s">
+        <v>861</v>
+      </c>
+      <c r="B116" s="121" t="s">
         <v>862</v>
-      </c>
-      <c r="B116" s="121" t="s">
-        <v>863</v>
       </c>
       <c r="C116" s="145" t="s">
         <v>484</v>
@@ -14347,10 +14344,10 @@
         <v>373</v>
       </c>
       <c r="F116" s="32" t="s">
+        <v>863</v>
+      </c>
+      <c r="G116" s="41" t="s">
         <v>864</v>
-      </c>
-      <c r="G116" s="41" t="s">
-        <v>865</v>
       </c>
       <c r="H116" s="36"/>
       <c r="I116" s="34"/>
@@ -14366,10 +14363,10 @@
     </row>
     <row r="117">
       <c r="A117" s="137" t="s">
+        <v>865</v>
+      </c>
+      <c r="B117" s="121" t="s">
         <v>866</v>
-      </c>
-      <c r="B117" s="121" t="s">
-        <v>867</v>
       </c>
       <c r="C117" s="145" t="s">
         <v>484</v>
@@ -14379,10 +14376,10 @@
         <v>370</v>
       </c>
       <c r="F117" s="41" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G117" s="32" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H117" s="36"/>
       <c r="I117" s="34"/>
@@ -14398,10 +14395,10 @@
     </row>
     <row r="118">
       <c r="A118" s="60" t="s">
+        <v>868</v>
+      </c>
+      <c r="B118" s="157" t="s">
         <v>869</v>
-      </c>
-      <c r="B118" s="157" t="s">
-        <v>870</v>
       </c>
       <c r="C118" s="196" t="s">
         <v>484</v>
@@ -14411,10 +14408,10 @@
         <v>370</v>
       </c>
       <c r="F118" s="41" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G118" s="56" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H118" s="64"/>
       <c r="I118" s="58"/>
@@ -14430,10 +14427,10 @@
     </row>
     <row r="119">
       <c r="A119" s="60" t="s">
+        <v>871</v>
+      </c>
+      <c r="B119" s="157" t="s">
         <v>872</v>
-      </c>
-      <c r="B119" s="157" t="s">
-        <v>873</v>
       </c>
       <c r="C119" s="196" t="s">
         <v>484</v>
@@ -14443,10 +14440,10 @@
         <v>370</v>
       </c>
       <c r="F119" s="41" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G119" s="56" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H119" s="64"/>
       <c r="I119" s="58"/>
@@ -14455,17 +14452,17 @@
         <v>709</v>
       </c>
       <c r="L119" s="157" t="s">
-        <v>785</v>
+        <v>718</v>
       </c>
       <c r="M119" s="157"/>
       <c r="N119" s="58"/>
     </row>
     <row r="120">
       <c r="A120" s="60" t="s">
+        <v>874</v>
+      </c>
+      <c r="B120" s="157" t="s">
         <v>875</v>
-      </c>
-      <c r="B120" s="157" t="s">
-        <v>876</v>
       </c>
       <c r="C120" s="196" t="s">
         <v>484</v>
@@ -14475,10 +14472,10 @@
         <v>370</v>
       </c>
       <c r="F120" s="41" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G120" s="56" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H120" s="64"/>
       <c r="I120" s="58"/>
@@ -14494,10 +14491,10 @@
     </row>
     <row r="121">
       <c r="A121" s="127" t="s">
+        <v>877</v>
+      </c>
+      <c r="B121" s="134" t="s">
         <v>878</v>
-      </c>
-      <c r="B121" s="134" t="s">
-        <v>879</v>
       </c>
       <c r="C121" s="148" t="s">
         <v>484</v>
@@ -14507,10 +14504,10 @@
         <v>370</v>
       </c>
       <c r="F121" s="41" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G121" s="130" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H121" s="142"/>
       <c r="I121" s="133"/>
@@ -14526,10 +14523,10 @@
     </row>
     <row r="122">
       <c r="A122" s="24" t="s">
+        <v>880</v>
+      </c>
+      <c r="B122" s="123" t="s">
         <v>881</v>
-      </c>
-      <c r="B122" s="123" t="s">
-        <v>882</v>
       </c>
       <c r="C122" s="197" t="s">
         <v>480</v>
@@ -14539,10 +14536,10 @@
         <v>370</v>
       </c>
       <c r="F122" s="14" t="s">
+        <v>882</v>
+      </c>
+      <c r="G122" s="14" t="s">
         <v>883</v>
-      </c>
-      <c r="G122" s="14" t="s">
-        <v>884</v>
       </c>
       <c r="H122" s="13"/>
       <c r="I122" s="16"/>
@@ -14558,10 +14555,10 @@
     </row>
     <row r="123">
       <c r="A123" s="24" t="s">
+        <v>884</v>
+      </c>
+      <c r="B123" s="123" t="s">
         <v>885</v>
-      </c>
-      <c r="B123" s="123" t="s">
-        <v>886</v>
       </c>
       <c r="C123" s="197" t="s">
         <v>484</v>
@@ -14571,10 +14568,10 @@
         <v>363</v>
       </c>
       <c r="F123" s="14" t="s">
+        <v>886</v>
+      </c>
+      <c r="G123" s="5" t="s">
         <v>887</v>
-      </c>
-      <c r="G123" s="5" t="s">
-        <v>888</v>
       </c>
       <c r="H123" s="13"/>
       <c r="I123" s="16"/>
@@ -14590,10 +14587,10 @@
     </row>
     <row r="124">
       <c r="A124" s="24" t="s">
+        <v>888</v>
+      </c>
+      <c r="B124" s="123" t="s">
         <v>889</v>
-      </c>
-      <c r="B124" s="123" t="s">
-        <v>890</v>
       </c>
       <c r="C124" s="197" t="s">
         <v>480</v>
@@ -14603,7 +14600,7 @@
         <v>370</v>
       </c>
       <c r="F124" s="14" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G124" s="48"/>
       <c r="H124" s="13"/>
@@ -14620,10 +14617,10 @@
     </row>
     <row r="125">
       <c r="A125" s="24" t="s">
+        <v>891</v>
+      </c>
+      <c r="B125" s="123" t="s">
         <v>892</v>
-      </c>
-      <c r="B125" s="123" t="s">
-        <v>893</v>
       </c>
       <c r="C125" s="197" t="s">
         <v>484</v>
@@ -14633,10 +14630,10 @@
         <v>363</v>
       </c>
       <c r="F125" s="14" t="s">
+        <v>893</v>
+      </c>
+      <c r="G125" s="5" t="s">
         <v>894</v>
-      </c>
-      <c r="G125" s="5" t="s">
-        <v>895</v>
       </c>
       <c r="H125" s="13"/>
       <c r="I125" s="16"/>
@@ -14652,10 +14649,10 @@
     </row>
     <row r="126">
       <c r="A126" s="137" t="s">
+        <v>895</v>
+      </c>
+      <c r="B126" s="121" t="s">
         <v>896</v>
-      </c>
-      <c r="B126" s="121" t="s">
-        <v>897</v>
       </c>
       <c r="C126" s="145" t="s">
         <v>480</v>
@@ -14665,10 +14662,10 @@
         <v>373</v>
       </c>
       <c r="F126" s="32" t="s">
+        <v>897</v>
+      </c>
+      <c r="G126" s="32" t="s">
         <v>898</v>
-      </c>
-      <c r="G126" s="32" t="s">
-        <v>899</v>
       </c>
       <c r="H126" s="36"/>
       <c r="I126" s="34"/>
@@ -14677,17 +14674,17 @@
         <v>512</v>
       </c>
       <c r="L126" s="147" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="M126" s="147"/>
       <c r="N126" s="34"/>
     </row>
     <row r="127">
       <c r="A127" s="137" t="s">
+        <v>900</v>
+      </c>
+      <c r="B127" s="121" t="s">
         <v>901</v>
-      </c>
-      <c r="B127" s="121" t="s">
-        <v>902</v>
       </c>
       <c r="C127" s="145" t="s">
         <v>484</v>
@@ -14697,10 +14694,10 @@
         <v>363</v>
       </c>
       <c r="F127" s="32" t="s">
+        <v>902</v>
+      </c>
+      <c r="G127" s="32" t="s">
         <v>903</v>
-      </c>
-      <c r="G127" s="32" t="s">
-        <v>904</v>
       </c>
       <c r="H127" s="36"/>
       <c r="I127" s="34"/>
@@ -14709,17 +14706,17 @@
         <v>257</v>
       </c>
       <c r="L127" s="147" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="M127" s="147"/>
       <c r="N127" s="34"/>
     </row>
     <row r="128">
       <c r="A128" s="137" t="s">
+        <v>905</v>
+      </c>
+      <c r="B128" s="117" t="s">
         <v>906</v>
-      </c>
-      <c r="B128" s="117" t="s">
-        <v>907</v>
       </c>
       <c r="C128" s="145" t="s">
         <v>480</v>
@@ -14729,10 +14726,10 @@
         <v>370</v>
       </c>
       <c r="F128" s="32" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G128" s="143" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H128" s="36"/>
       <c r="I128" s="34"/>
@@ -14748,10 +14745,10 @@
     </row>
     <row r="129">
       <c r="A129" s="137" t="s">
+        <v>908</v>
+      </c>
+      <c r="B129" s="117" t="s">
         <v>909</v>
-      </c>
-      <c r="B129" s="117" t="s">
-        <v>910</v>
       </c>
       <c r="C129" s="145" t="s">
         <v>480</v>
@@ -14761,10 +14758,10 @@
         <v>370</v>
       </c>
       <c r="F129" s="32" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G129" s="143" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H129" s="36"/>
       <c r="I129" s="34"/>
@@ -14780,10 +14777,10 @@
     </row>
     <row r="130">
       <c r="A130" s="137" t="s">
+        <v>911</v>
+      </c>
+      <c r="B130" s="117" t="s">
         <v>912</v>
-      </c>
-      <c r="B130" s="117" t="s">
-        <v>913</v>
       </c>
       <c r="C130" s="145" t="s">
         <v>480</v>
@@ -14793,10 +14790,10 @@
         <v>370</v>
       </c>
       <c r="F130" s="32" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G130" s="143" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H130" s="36"/>
       <c r="I130" s="34"/>
@@ -14812,10 +14809,10 @@
     </row>
     <row r="131">
       <c r="A131" s="137" t="s">
+        <v>914</v>
+      </c>
+      <c r="B131" s="117" t="s">
         <v>915</v>
-      </c>
-      <c r="B131" s="117" t="s">
-        <v>916</v>
       </c>
       <c r="C131" s="145" t="s">
         <v>480</v>
@@ -14825,10 +14822,10 @@
         <v>373</v>
       </c>
       <c r="F131" s="32" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G131" s="143" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H131" s="36"/>
       <c r="I131" s="34"/>
@@ -14837,17 +14834,17 @@
         <v>0.0</v>
       </c>
       <c r="L131" s="147" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M131" s="147"/>
       <c r="N131" s="34"/>
     </row>
     <row r="132">
       <c r="A132" s="137" t="s">
+        <v>918</v>
+      </c>
+      <c r="B132" s="117" t="s">
         <v>919</v>
-      </c>
-      <c r="B132" s="117" t="s">
-        <v>920</v>
       </c>
       <c r="C132" s="145" t="s">
         <v>480</v>
@@ -14857,10 +14854,10 @@
         <v>373</v>
       </c>
       <c r="F132" s="32" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="G132" s="143" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H132" s="36"/>
       <c r="I132" s="34"/>
@@ -14869,17 +14866,17 @@
         <v>0.0</v>
       </c>
       <c r="L132" s="147" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M132" s="147"/>
       <c r="N132" s="34"/>
     </row>
     <row r="133">
       <c r="A133" s="137" t="s">
+        <v>921</v>
+      </c>
+      <c r="B133" s="117" t="s">
         <v>922</v>
-      </c>
-      <c r="B133" s="117" t="s">
-        <v>923</v>
       </c>
       <c r="C133" s="145" t="s">
         <v>480</v>
@@ -14889,10 +14886,10 @@
         <v>370</v>
       </c>
       <c r="F133" s="32" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="G133" s="143" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H133" s="36"/>
       <c r="I133" s="34"/>
@@ -14908,10 +14905,10 @@
     </row>
     <row r="134">
       <c r="A134" s="137" t="s">
+        <v>924</v>
+      </c>
+      <c r="B134" s="117" t="s">
         <v>925</v>
-      </c>
-      <c r="B134" s="117" t="s">
-        <v>926</v>
       </c>
       <c r="C134" s="145" t="s">
         <v>480</v>
@@ -14921,10 +14918,10 @@
         <v>370</v>
       </c>
       <c r="F134" s="32" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="G134" s="32" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H134" s="36"/>
       <c r="I134" s="34"/>
@@ -14933,17 +14930,17 @@
         <v>709</v>
       </c>
       <c r="L134" s="147" t="s">
-        <v>785</v>
+        <v>718</v>
       </c>
       <c r="M134" s="147"/>
       <c r="N134" s="32"/>
     </row>
     <row r="135">
       <c r="A135" s="137" t="s">
+        <v>927</v>
+      </c>
+      <c r="B135" s="117" t="s">
         <v>928</v>
-      </c>
-      <c r="B135" s="117" t="s">
-        <v>929</v>
       </c>
       <c r="C135" s="145" t="s">
         <v>480</v>
@@ -14953,10 +14950,10 @@
         <v>370</v>
       </c>
       <c r="F135" s="32" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="G135" s="143" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H135" s="36"/>
       <c r="I135" s="34"/>
@@ -14972,10 +14969,10 @@
     </row>
     <row r="136">
       <c r="A136" s="137" t="s">
+        <v>930</v>
+      </c>
+      <c r="B136" s="117" t="s">
         <v>931</v>
-      </c>
-      <c r="B136" s="117" t="s">
-        <v>932</v>
       </c>
       <c r="C136" s="145" t="s">
         <v>480</v>
@@ -14985,10 +14982,10 @@
         <v>370</v>
       </c>
       <c r="F136" s="32" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G136" s="32" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H136" s="36"/>
       <c r="I136" s="34"/>
@@ -14997,17 +14994,17 @@
         <v>704</v>
       </c>
       <c r="L136" s="147" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="M136" s="147"/>
       <c r="N136" s="32"/>
     </row>
     <row r="137">
       <c r="A137" s="137" t="s">
+        <v>934</v>
+      </c>
+      <c r="B137" s="117" t="s">
         <v>935</v>
-      </c>
-      <c r="B137" s="117" t="s">
-        <v>936</v>
       </c>
       <c r="C137" s="145" t="s">
         <v>480</v>
@@ -15017,10 +15014,10 @@
         <v>370</v>
       </c>
       <c r="F137" s="32" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G137" s="32" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H137" s="36"/>
       <c r="I137" s="34"/>
@@ -15029,17 +15026,17 @@
         <v>709</v>
       </c>
       <c r="L137" s="147" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="M137" s="147"/>
       <c r="N137" s="32"/>
     </row>
     <row r="138">
       <c r="A138" s="137" t="s">
+        <v>938</v>
+      </c>
+      <c r="B138" s="117" t="s">
         <v>939</v>
-      </c>
-      <c r="B138" s="117" t="s">
-        <v>940</v>
       </c>
       <c r="C138" s="145" t="s">
         <v>480</v>
@@ -15049,10 +15046,10 @@
         <v>373</v>
       </c>
       <c r="F138" s="32" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="G138" s="143" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H138" s="36"/>
       <c r="I138" s="34"/>
@@ -15068,10 +15065,10 @@
     </row>
     <row r="139">
       <c r="A139" s="137" t="s">
+        <v>941</v>
+      </c>
+      <c r="B139" s="117" t="s">
         <v>942</v>
-      </c>
-      <c r="B139" s="117" t="s">
-        <v>943</v>
       </c>
       <c r="C139" s="145" t="s">
         <v>480</v>
@@ -15081,29 +15078,29 @@
         <v>370</v>
       </c>
       <c r="F139" s="32" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="G139" s="143" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H139" s="36"/>
       <c r="I139" s="34"/>
       <c r="J139" s="34"/>
       <c r="K139" s="121" t="s">
+        <v>944</v>
+      </c>
+      <c r="L139" s="147" t="s">
         <v>945</v>
-      </c>
-      <c r="L139" s="147" t="s">
-        <v>946</v>
       </c>
       <c r="M139" s="147"/>
       <c r="N139" s="34"/>
     </row>
     <row r="140">
       <c r="A140" s="200" t="s">
+        <v>946</v>
+      </c>
+      <c r="B140" s="201" t="s">
         <v>947</v>
-      </c>
-      <c r="B140" s="201" t="s">
-        <v>948</v>
       </c>
       <c r="C140" s="202" t="s">
         <v>480</v>
@@ -15113,29 +15110,29 @@
         <v>370</v>
       </c>
       <c r="F140" s="32" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="G140" s="143" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H140" s="204"/>
       <c r="I140" s="205"/>
       <c r="J140" s="205"/>
       <c r="K140" s="206" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="L140" s="207" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="M140" s="207"/>
       <c r="N140" s="205"/>
     </row>
     <row r="141">
       <c r="A141" s="24" t="s">
+        <v>950</v>
+      </c>
+      <c r="B141" s="115" t="s">
         <v>951</v>
-      </c>
-      <c r="B141" s="115" t="s">
-        <v>952</v>
       </c>
       <c r="C141" s="197" t="s">
         <v>480</v>
@@ -15145,10 +15142,10 @@
         <v>373</v>
       </c>
       <c r="F141" s="14" t="s">
+        <v>952</v>
+      </c>
+      <c r="G141" s="208" t="s">
         <v>953</v>
-      </c>
-      <c r="G141" s="208" t="s">
-        <v>954</v>
       </c>
       <c r="H141" s="13"/>
       <c r="I141" s="16"/>
@@ -15164,10 +15161,10 @@
     </row>
     <row r="142">
       <c r="A142" s="24" t="s">
+        <v>954</v>
+      </c>
+      <c r="B142" s="115" t="s">
         <v>955</v>
-      </c>
-      <c r="B142" s="115" t="s">
-        <v>956</v>
       </c>
       <c r="C142" s="197" t="s">
         <v>484</v>
@@ -15177,10 +15174,10 @@
         <v>363</v>
       </c>
       <c r="F142" s="14" t="s">
+        <v>956</v>
+      </c>
+      <c r="G142" s="14" t="s">
         <v>957</v>
-      </c>
-      <c r="G142" s="14" t="s">
-        <v>958</v>
       </c>
       <c r="H142" s="13"/>
       <c r="I142" s="16"/>
@@ -15196,10 +15193,10 @@
     </row>
     <row r="143">
       <c r="A143" s="24" t="s">
+        <v>958</v>
+      </c>
+      <c r="B143" s="115" t="s">
         <v>959</v>
-      </c>
-      <c r="B143" s="115" t="s">
-        <v>960</v>
       </c>
       <c r="C143" s="197" t="s">
         <v>480</v>
@@ -15209,10 +15206,10 @@
         <v>373</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="G143" s="208" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H143" s="13"/>
       <c r="I143" s="16"/>
@@ -15228,10 +15225,10 @@
     </row>
     <row r="144">
       <c r="A144" s="24" t="s">
+        <v>961</v>
+      </c>
+      <c r="B144" s="115" t="s">
         <v>962</v>
-      </c>
-      <c r="B144" s="115" t="s">
-        <v>963</v>
       </c>
       <c r="C144" s="197" t="s">
         <v>484</v>
@@ -15241,10 +15238,10 @@
         <v>363</v>
       </c>
       <c r="F144" s="5" t="s">
+        <v>963</v>
+      </c>
+      <c r="G144" s="5" t="s">
         <v>964</v>
-      </c>
-      <c r="G144" s="5" t="s">
-        <v>965</v>
       </c>
       <c r="H144" s="13"/>
       <c r="I144" s="16"/>
@@ -15260,10 +15257,10 @@
     </row>
     <row r="145">
       <c r="A145" s="127" t="s">
+        <v>965</v>
+      </c>
+      <c r="B145" s="115" t="s">
         <v>966</v>
-      </c>
-      <c r="B145" s="115" t="s">
-        <v>967</v>
       </c>
       <c r="C145" s="197" t="s">
         <v>480</v>
@@ -15273,10 +15270,10 @@
         <v>370</v>
       </c>
       <c r="F145" s="208" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H145" s="13"/>
       <c r="I145" s="16"/>
@@ -15292,10 +15289,10 @@
     </row>
     <row r="146">
       <c r="A146" s="127" t="s">
+        <v>968</v>
+      </c>
+      <c r="B146" s="115" t="s">
         <v>969</v>
-      </c>
-      <c r="B146" s="115" t="s">
-        <v>970</v>
       </c>
       <c r="C146" s="197" t="s">
         <v>480</v>
@@ -15305,10 +15302,10 @@
         <v>370</v>
       </c>
       <c r="F146" s="208" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H146" s="13"/>
       <c r="I146" s="16"/>
@@ -15324,10 +15321,10 @@
     </row>
     <row r="147">
       <c r="A147" s="137" t="s">
+        <v>971</v>
+      </c>
+      <c r="B147" s="117" t="s">
         <v>972</v>
-      </c>
-      <c r="B147" s="117" t="s">
-        <v>973</v>
       </c>
       <c r="C147" s="145" t="s">
         <v>480</v>
@@ -15337,10 +15334,10 @@
         <v>373</v>
       </c>
       <c r="F147" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="G147" s="143" t="s">
         <v>974</v>
-      </c>
-      <c r="G147" s="143" t="s">
-        <v>975</v>
       </c>
       <c r="H147" s="36"/>
       <c r="I147" s="34"/>
@@ -15349,17 +15346,17 @@
         <v>512</v>
       </c>
       <c r="L147" s="147" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="M147" s="147"/>
       <c r="N147" s="34"/>
     </row>
     <row r="148">
       <c r="A148" s="137" t="s">
+        <v>976</v>
+      </c>
+      <c r="B148" s="117" t="s">
         <v>977</v>
-      </c>
-      <c r="B148" s="117" t="s">
-        <v>978</v>
       </c>
       <c r="C148" s="145" t="s">
         <v>484</v>
@@ -15369,29 +15366,29 @@
         <v>363</v>
       </c>
       <c r="F148" s="32" t="s">
+        <v>978</v>
+      </c>
+      <c r="G148" s="32" t="s">
         <v>979</v>
-      </c>
-      <c r="G148" s="32" t="s">
-        <v>980</v>
       </c>
       <c r="H148" s="38"/>
       <c r="I148" s="34"/>
       <c r="J148" s="34"/>
       <c r="K148" s="211" t="s">
+        <v>980</v>
+      </c>
+      <c r="L148" s="5" t="s">
         <v>981</v>
-      </c>
-      <c r="L148" s="5" t="s">
-        <v>982</v>
       </c>
       <c r="M148" s="5"/>
       <c r="N148" s="34"/>
     </row>
     <row r="149">
       <c r="A149" s="137" t="s">
+        <v>982</v>
+      </c>
+      <c r="B149" s="117" t="s">
         <v>983</v>
-      </c>
-      <c r="B149" s="117" t="s">
-        <v>984</v>
       </c>
       <c r="C149" s="145" t="s">
         <v>480</v>
@@ -15401,10 +15398,10 @@
         <v>373</v>
       </c>
       <c r="F149" s="32" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="G149" s="143" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H149" s="38"/>
       <c r="I149" s="34"/>
@@ -15413,17 +15410,17 @@
         <v>512</v>
       </c>
       <c r="L149" s="212" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="M149" s="212"/>
       <c r="N149" s="34"/>
     </row>
     <row r="150">
       <c r="A150" s="137" t="s">
+        <v>986</v>
+      </c>
+      <c r="B150" s="117" t="s">
         <v>987</v>
-      </c>
-      <c r="B150" s="117" t="s">
-        <v>988</v>
       </c>
       <c r="C150" s="145" t="s">
         <v>484</v>
@@ -15433,29 +15430,29 @@
         <v>363</v>
       </c>
       <c r="F150" s="32" t="s">
+        <v>988</v>
+      </c>
+      <c r="G150" s="143" t="s">
         <v>989</v>
-      </c>
-      <c r="G150" s="143" t="s">
-        <v>990</v>
       </c>
       <c r="H150" s="36"/>
       <c r="I150" s="34"/>
       <c r="J150" s="34"/>
       <c r="K150" s="211" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="L150" s="5" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="M150" s="5"/>
       <c r="N150" s="34"/>
     </row>
     <row r="151">
       <c r="A151" s="137" t="s">
+        <v>991</v>
+      </c>
+      <c r="B151" s="117" t="s">
         <v>992</v>
-      </c>
-      <c r="B151" s="117" t="s">
-        <v>993</v>
       </c>
       <c r="C151" s="145" t="s">
         <v>480</v>
@@ -15465,10 +15462,10 @@
         <v>373</v>
       </c>
       <c r="F151" s="32" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G151" s="143" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H151" s="36"/>
       <c r="I151" s="34"/>
@@ -15477,17 +15474,17 @@
         <v>512</v>
       </c>
       <c r="L151" s="147" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="M151" s="147"/>
       <c r="N151" s="34"/>
     </row>
     <row r="152">
       <c r="A152" s="137" t="s">
+        <v>995</v>
+      </c>
+      <c r="B152" s="117" t="s">
         <v>996</v>
-      </c>
-      <c r="B152" s="117" t="s">
-        <v>997</v>
       </c>
       <c r="C152" s="145" t="s">
         <v>484</v>
@@ -15497,29 +15494,29 @@
         <v>363</v>
       </c>
       <c r="F152" s="32" t="s">
+        <v>997</v>
+      </c>
+      <c r="G152" s="143" t="s">
         <v>998</v>
-      </c>
-      <c r="G152" s="143" t="s">
-        <v>999</v>
       </c>
       <c r="H152" s="36"/>
       <c r="I152" s="34"/>
       <c r="J152" s="34"/>
       <c r="K152" s="211" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="L152" s="5" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="M152" s="5"/>
       <c r="N152" s="34"/>
     </row>
     <row r="153">
       <c r="A153" s="137" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B153" s="117" t="s">
         <v>1001</v>
-      </c>
-      <c r="B153" s="117" t="s">
-        <v>1002</v>
       </c>
       <c r="C153" s="145" t="s">
         <v>480</v>
@@ -15529,10 +15526,10 @@
         <v>373</v>
       </c>
       <c r="F153" s="32" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="G153" s="143" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H153" s="36"/>
       <c r="I153" s="34"/>
@@ -15541,17 +15538,17 @@
         <v>512</v>
       </c>
       <c r="L153" s="149" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="M153" s="149"/>
       <c r="N153" s="34"/>
     </row>
     <row r="154">
       <c r="A154" s="24" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B154" s="115" t="s">
         <v>1005</v>
-      </c>
-      <c r="B154" s="115" t="s">
-        <v>1006</v>
       </c>
       <c r="C154" s="156" t="s">
         <v>484</v>
@@ -15561,29 +15558,29 @@
         <v>363</v>
       </c>
       <c r="F154" s="14" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G154" s="5" t="s">
         <v>1007</v>
-      </c>
-      <c r="G154" s="5" t="s">
-        <v>1008</v>
       </c>
       <c r="H154" s="13"/>
       <c r="I154" s="16"/>
       <c r="J154" s="16"/>
       <c r="K154" s="211" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="L154" s="5" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="M154" s="5"/>
       <c r="N154" s="16"/>
     </row>
     <row r="155">
       <c r="A155" s="24" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B155" s="115" t="s">
         <v>1010</v>
-      </c>
-      <c r="B155" s="115" t="s">
-        <v>1011</v>
       </c>
       <c r="C155" s="156" t="s">
         <v>480</v>
@@ -15593,10 +15590,10 @@
         <v>373</v>
       </c>
       <c r="F155" s="14" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="G155" s="215" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H155" s="13"/>
       <c r="I155" s="16"/>
@@ -15605,17 +15602,17 @@
         <v>512</v>
       </c>
       <c r="L155" s="209" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M155" s="209"/>
       <c r="N155" s="16"/>
     </row>
     <row r="156">
       <c r="A156" s="24" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B156" s="115" t="s">
         <v>1014</v>
-      </c>
-      <c r="B156" s="115" t="s">
-        <v>1015</v>
       </c>
       <c r="C156" s="156" t="s">
         <v>484</v>
@@ -15625,29 +15622,29 @@
         <v>363</v>
       </c>
       <c r="F156" s="14" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G156" s="5" t="s">
         <v>1016</v>
-      </c>
-      <c r="G156" s="5" t="s">
-        <v>1017</v>
       </c>
       <c r="H156" s="13"/>
       <c r="I156" s="16"/>
       <c r="J156" s="16"/>
       <c r="K156" s="211" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="L156" s="5" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="M156" s="5"/>
       <c r="N156" s="16"/>
     </row>
     <row r="157">
       <c r="A157" s="24" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B157" s="115" t="s">
         <v>1019</v>
-      </c>
-      <c r="B157" s="115" t="s">
-        <v>1020</v>
       </c>
       <c r="C157" s="156" t="s">
         <v>480</v>
@@ -15657,10 +15654,10 @@
         <v>373</v>
       </c>
       <c r="F157" s="14" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="G157" s="215" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H157" s="13"/>
       <c r="I157" s="16"/>
@@ -15669,17 +15666,17 @@
         <v>512</v>
       </c>
       <c r="L157" s="209" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="M157" s="209"/>
       <c r="N157" s="16"/>
     </row>
     <row r="158">
       <c r="A158" s="24" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B158" s="115" t="s">
         <v>1023</v>
-      </c>
-      <c r="B158" s="115" t="s">
-        <v>1024</v>
       </c>
       <c r="C158" s="156" t="s">
         <v>484</v>
@@ -15689,29 +15686,29 @@
         <v>363</v>
       </c>
       <c r="F158" s="14" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G158" s="131" t="s">
         <v>1025</v>
-      </c>
-      <c r="G158" s="131" t="s">
-        <v>1026</v>
       </c>
       <c r="H158" s="13"/>
       <c r="I158" s="16"/>
       <c r="J158" s="16"/>
       <c r="K158" s="211" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="L158" s="5" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="M158" s="5"/>
       <c r="N158" s="16"/>
     </row>
     <row r="159">
       <c r="A159" s="24" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B159" s="115" t="s">
         <v>1028</v>
-      </c>
-      <c r="B159" s="115" t="s">
-        <v>1029</v>
       </c>
       <c r="C159" s="156" t="s">
         <v>480</v>
@@ -15721,10 +15718,10 @@
         <v>373</v>
       </c>
       <c r="F159" s="14" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G159" s="215" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H159" s="13"/>
       <c r="I159" s="16"/>
@@ -15733,17 +15730,17 @@
         <v>512</v>
       </c>
       <c r="L159" s="209" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="M159" s="209"/>
       <c r="N159" s="16"/>
     </row>
     <row r="160">
       <c r="A160" s="24" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B160" s="115" t="s">
         <v>1032</v>
-      </c>
-      <c r="B160" s="115" t="s">
-        <v>1033</v>
       </c>
       <c r="C160" s="156" t="s">
         <v>484</v>
@@ -15753,29 +15750,29 @@
         <v>363</v>
       </c>
       <c r="F160" s="14" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G160" s="131" t="s">
         <v>1034</v>
-      </c>
-      <c r="G160" s="131" t="s">
-        <v>1035</v>
       </c>
       <c r="H160" s="13"/>
       <c r="I160" s="16"/>
       <c r="J160" s="16"/>
       <c r="K160" s="211" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="L160" s="5" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="M160" s="5"/>
       <c r="N160" s="16"/>
     </row>
     <row r="161">
       <c r="A161" s="24" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B161" s="115" t="s">
         <v>1037</v>
-      </c>
-      <c r="B161" s="115" t="s">
-        <v>1038</v>
       </c>
       <c r="C161" s="156" t="s">
         <v>480</v>
@@ -15785,10 +15782,10 @@
         <v>373</v>
       </c>
       <c r="F161" s="14" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="G161" s="215" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H161" s="13"/>
       <c r="I161" s="16"/>
@@ -15797,17 +15794,17 @@
         <v>512</v>
       </c>
       <c r="L161" s="209" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="M161" s="209"/>
       <c r="N161" s="16"/>
     </row>
     <row r="162">
       <c r="A162" s="24" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B162" s="115" t="s">
         <v>1041</v>
-      </c>
-      <c r="B162" s="115" t="s">
-        <v>1042</v>
       </c>
       <c r="C162" s="156" t="s">
         <v>484</v>
@@ -15817,29 +15814,29 @@
         <v>363</v>
       </c>
       <c r="F162" s="14" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G162" s="131" t="s">
         <v>1043</v>
-      </c>
-      <c r="G162" s="131" t="s">
-        <v>1044</v>
       </c>
       <c r="H162" s="13"/>
       <c r="I162" s="16"/>
       <c r="J162" s="16"/>
       <c r="K162" s="211" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="L162" s="5" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M162" s="5"/>
       <c r="N162" s="16"/>
     </row>
     <row r="163">
       <c r="A163" s="24" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B163" s="115" t="s">
         <v>1046</v>
-      </c>
-      <c r="B163" s="115" t="s">
-        <v>1047</v>
       </c>
       <c r="C163" s="156" t="s">
         <v>480</v>
@@ -15849,10 +15846,10 @@
         <v>373</v>
       </c>
       <c r="F163" s="14" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="G163" s="215" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H163" s="13"/>
       <c r="I163" s="16"/>
@@ -15861,17 +15858,17 @@
         <v>512</v>
       </c>
       <c r="L163" s="209" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="M163" s="209"/>
       <c r="N163" s="16"/>
     </row>
     <row r="164">
       <c r="A164" s="24" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B164" s="115" t="s">
         <v>1050</v>
-      </c>
-      <c r="B164" s="115" t="s">
-        <v>1051</v>
       </c>
       <c r="C164" s="156" t="s">
         <v>484</v>
@@ -15881,29 +15878,29 @@
         <v>363</v>
       </c>
       <c r="F164" s="14" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G164" s="131" t="s">
         <v>1052</v>
-      </c>
-      <c r="G164" s="131" t="s">
-        <v>1053</v>
       </c>
       <c r="H164" s="13"/>
       <c r="I164" s="16"/>
       <c r="J164" s="16"/>
       <c r="K164" s="211" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="L164" s="5" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="M164" s="5"/>
       <c r="N164" s="16"/>
     </row>
     <row r="165">
       <c r="A165" s="24" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B165" s="115" t="s">
         <v>1055</v>
-      </c>
-      <c r="B165" s="115" t="s">
-        <v>1056</v>
       </c>
       <c r="C165" s="156" t="s">
         <v>480</v>
@@ -15913,7 +15910,7 @@
         <v>370</v>
       </c>
       <c r="F165" s="215" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="G165" s="5"/>
       <c r="H165" s="13"/>
@@ -15930,10 +15927,10 @@
     </row>
     <row r="166">
       <c r="A166" s="24" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B166" s="115" t="s">
         <v>1057</v>
-      </c>
-      <c r="B166" s="115" t="s">
-        <v>1058</v>
       </c>
       <c r="C166" s="156" t="s">
         <v>480</v>
@@ -15943,7 +15940,7 @@
         <v>370</v>
       </c>
       <c r="F166" s="215" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="G166" s="14"/>
       <c r="H166" s="13"/>
@@ -15960,10 +15957,10 @@
     </row>
     <row r="167">
       <c r="A167" s="24" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B167" s="115" t="s">
         <v>1059</v>
-      </c>
-      <c r="B167" s="115" t="s">
-        <v>1060</v>
       </c>
       <c r="C167" s="156" t="s">
         <v>484</v>
@@ -15973,7 +15970,7 @@
         <v>370</v>
       </c>
       <c r="F167" s="215" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="G167" s="14"/>
       <c r="H167" s="25"/>
@@ -15983,17 +15980,17 @@
         <v>709</v>
       </c>
       <c r="L167" s="209" t="s">
-        <v>785</v>
+        <v>718</v>
       </c>
       <c r="M167" s="209"/>
       <c r="N167" s="16"/>
     </row>
     <row r="168">
       <c r="A168" s="18" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B168" s="115" t="s">
         <v>1061</v>
-      </c>
-      <c r="B168" s="115" t="s">
-        <v>1062</v>
       </c>
       <c r="C168" s="156" t="s">
         <v>484</v>
@@ -16003,7 +16000,7 @@
         <v>370</v>
       </c>
       <c r="F168" s="215" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="G168" s="14"/>
       <c r="H168" s="25"/>
@@ -16020,10 +16017,10 @@
     </row>
     <row r="169">
       <c r="A169" s="18" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B169" s="115" t="s">
         <v>1063</v>
-      </c>
-      <c r="B169" s="115" t="s">
-        <v>1064</v>
       </c>
       <c r="C169" s="156" t="s">
         <v>484</v>
@@ -16033,7 +16030,7 @@
         <v>370</v>
       </c>
       <c r="F169" s="215" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="G169" s="14"/>
       <c r="H169" s="25"/>
@@ -16083,24 +16080,24 @@
         <v>2</v>
       </c>
       <c r="D1" s="218" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E1" s="216" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="219" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="220" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B2" s="221" t="s">
         <v>1067</v>
       </c>
-      <c r="B2" s="221" t="s">
+      <c r="C2" s="222" t="s">
         <v>1068</v>
-      </c>
-      <c r="C2" s="222" t="s">
-        <v>1069</v>
       </c>
       <c r="D2" s="222"/>
       <c r="E2" s="223"/>
@@ -16108,29 +16105,29 @@
     </row>
     <row r="3">
       <c r="A3" s="220" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B3" s="221" t="s">
         <v>1070</v>
       </c>
-      <c r="B3" s="221" t="s">
+      <c r="C3" s="221" t="s">
         <v>1071</v>
-      </c>
-      <c r="C3" s="221" t="s">
-        <v>1072</v>
       </c>
       <c r="D3" s="221"/>
       <c r="E3" s="225"/>
       <c r="F3" s="219" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="220" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B4" s="221" t="s">
         <v>1074</v>
       </c>
-      <c r="B4" s="221" t="s">
+      <c r="C4" s="221" t="s">
         <v>1075</v>
-      </c>
-      <c r="C4" s="221" t="s">
-        <v>1076</v>
       </c>
       <c r="D4" s="221"/>
       <c r="E4" s="226"/>
@@ -16138,13 +16135,13 @@
     </row>
     <row r="5">
       <c r="A5" s="220" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B5" s="221" t="s">
         <v>1077</v>
       </c>
-      <c r="B5" s="221" t="s">
+      <c r="C5" s="221" t="s">
         <v>1078</v>
-      </c>
-      <c r="C5" s="221" t="s">
-        <v>1079</v>
       </c>
       <c r="D5" s="221"/>
       <c r="E5" s="226"/>
@@ -16152,13 +16149,13 @@
     </row>
     <row r="6">
       <c r="A6" s="220" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B6" s="227" t="s">
         <v>1080</v>
       </c>
-      <c r="B6" s="227" t="s">
+      <c r="C6" s="221" t="s">
         <v>1081</v>
-      </c>
-      <c r="C6" s="221" t="s">
-        <v>1082</v>
       </c>
       <c r="D6" s="221"/>
       <c r="E6" s="225"/>
@@ -16166,13 +16163,13 @@
     </row>
     <row r="7">
       <c r="A7" s="220" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B7" s="228" t="s">
         <v>1083</v>
       </c>
-      <c r="B7" s="228" t="s">
+      <c r="C7" s="221" t="s">
         <v>1084</v>
-      </c>
-      <c r="C7" s="221" t="s">
-        <v>1085</v>
       </c>
       <c r="D7" s="221"/>
       <c r="E7" s="219"/>
@@ -16180,13 +16177,13 @@
     </row>
     <row r="8">
       <c r="A8" s="220" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B8" s="228" t="s">
         <v>1086</v>
       </c>
-      <c r="B8" s="228" t="s">
-        <v>1087</v>
-      </c>
       <c r="C8" s="221" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D8" s="221"/>
       <c r="E8" s="219"/>
@@ -16194,13 +16191,13 @@
     </row>
     <row r="9">
       <c r="A9" s="220" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B9" s="228" t="s">
         <v>1088</v>
       </c>
-      <c r="B9" s="228" t="s">
+      <c r="C9" s="229" t="s">
         <v>1089</v>
-      </c>
-      <c r="C9" s="229" t="s">
-        <v>1090</v>
       </c>
       <c r="D9" s="229"/>
       <c r="E9" s="230"/>
@@ -16208,13 +16205,13 @@
     </row>
     <row r="10">
       <c r="A10" s="220" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B10" s="228" t="s">
         <v>1091</v>
       </c>
-      <c r="B10" s="228" t="s">
+      <c r="C10" s="221" t="s">
         <v>1092</v>
-      </c>
-      <c r="C10" s="221" t="s">
-        <v>1093</v>
       </c>
       <c r="D10" s="221"/>
       <c r="E10" s="219"/>
@@ -16222,13 +16219,13 @@
     </row>
     <row r="11">
       <c r="A11" s="220" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B11" s="221" t="s">
         <v>1094</v>
       </c>
-      <c r="B11" s="221" t="s">
+      <c r="C11" s="221" t="s">
         <v>1095</v>
-      </c>
-      <c r="C11" s="221" t="s">
-        <v>1096</v>
       </c>
       <c r="D11" s="221"/>
       <c r="E11" s="224"/>
@@ -16236,13 +16233,13 @@
     </row>
     <row r="12">
       <c r="A12" s="220" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B12" s="231" t="s">
         <v>1097</v>
       </c>
-      <c r="B12" s="231" t="s">
+      <c r="C12" s="231" t="s">
         <v>1098</v>
-      </c>
-      <c r="C12" s="231" t="s">
-        <v>1099</v>
       </c>
       <c r="D12" s="231"/>
       <c r="E12" s="224"/>
@@ -16250,13 +16247,13 @@
     </row>
     <row r="13">
       <c r="A13" s="220" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B13" s="232" t="s">
         <v>1100</v>
       </c>
-      <c r="B13" s="232" t="s">
+      <c r="C13" s="231" t="s">
         <v>1101</v>
-      </c>
-      <c r="C13" s="231" t="s">
-        <v>1102</v>
       </c>
       <c r="D13" s="231"/>
       <c r="E13" s="224"/>
@@ -16264,13 +16261,13 @@
     </row>
     <row r="14">
       <c r="A14" s="220" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B14" s="232" t="s">
         <v>1103</v>
       </c>
-      <c r="B14" s="232" t="s">
+      <c r="C14" s="231" t="s">
         <v>1104</v>
-      </c>
-      <c r="C14" s="231" t="s">
-        <v>1105</v>
       </c>
       <c r="D14" s="231"/>
       <c r="E14" s="224"/>
@@ -16278,13 +16275,13 @@
     </row>
     <row r="15">
       <c r="A15" s="220" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B15" s="232" t="s">
         <v>1106</v>
       </c>
-      <c r="B15" s="232" t="s">
+      <c r="C15" s="231" t="s">
         <v>1107</v>
-      </c>
-      <c r="C15" s="231" t="s">
-        <v>1108</v>
       </c>
       <c r="D15" s="231"/>
       <c r="E15" s="224"/>
@@ -16292,13 +16289,13 @@
     </row>
     <row r="16">
       <c r="A16" s="220" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B16" s="232" t="s">
         <v>1109</v>
       </c>
-      <c r="B16" s="232" t="s">
+      <c r="C16" s="231" t="s">
         <v>1110</v>
-      </c>
-      <c r="C16" s="231" t="s">
-        <v>1111</v>
       </c>
       <c r="D16" s="231"/>
       <c r="E16" s="224"/>
@@ -16306,13 +16303,13 @@
     </row>
     <row r="17">
       <c r="A17" s="220" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B17" s="232" t="s">
         <v>1112</v>
       </c>
-      <c r="B17" s="232" t="s">
+      <c r="C17" s="231" t="s">
         <v>1113</v>
-      </c>
-      <c r="C17" s="231" t="s">
-        <v>1114</v>
       </c>
       <c r="D17" s="231"/>
       <c r="E17" s="224"/>
@@ -16320,13 +16317,13 @@
     </row>
     <row r="18">
       <c r="A18" s="220" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B18" s="232" t="s">
         <v>1115</v>
       </c>
-      <c r="B18" s="232" t="s">
+      <c r="C18" s="231" t="s">
         <v>1116</v>
-      </c>
-      <c r="C18" s="231" t="s">
-        <v>1117</v>
       </c>
       <c r="D18" s="231"/>
       <c r="E18" s="224"/>
@@ -16334,13 +16331,13 @@
     </row>
     <row r="19">
       <c r="A19" s="220" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B19" s="232" t="s">
         <v>1118</v>
       </c>
-      <c r="B19" s="232" t="s">
+      <c r="C19" s="231" t="s">
         <v>1119</v>
-      </c>
-      <c r="C19" s="231" t="s">
-        <v>1120</v>
       </c>
       <c r="D19" s="231"/>
       <c r="E19" s="224"/>
@@ -16348,13 +16345,13 @@
     </row>
     <row r="20">
       <c r="A20" s="220" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B20" s="232" t="s">
         <v>1121</v>
       </c>
-      <c r="B20" s="232" t="s">
-        <v>1122</v>
-      </c>
       <c r="C20" s="233" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D20" s="233"/>
       <c r="E20" s="224"/>
@@ -16362,13 +16359,13 @@
     </row>
     <row r="21">
       <c r="A21" s="220" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B21" s="234" t="s">
         <v>1123</v>
       </c>
-      <c r="B21" s="234" t="s">
+      <c r="C21" s="231" t="s">
         <v>1124</v>
-      </c>
-      <c r="C21" s="231" t="s">
-        <v>1125</v>
       </c>
       <c r="D21" s="231"/>
       <c r="E21" s="224"/>
@@ -16376,29 +16373,29 @@
     </row>
     <row r="22">
       <c r="A22" s="220" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B22" s="232" t="s">
         <v>1126</v>
       </c>
-      <c r="B22" s="232" t="s">
+      <c r="C22" s="5" t="s">
         <v>1127</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="235" t="s">
         <v>1128</v>
-      </c>
-      <c r="D22" s="235" t="s">
-        <v>1129</v>
       </c>
       <c r="E22" s="219"/>
       <c r="F22" s="224"/>
     </row>
     <row r="23">
       <c r="A23" s="220" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B23" s="236" t="s">
         <v>1130</v>
       </c>
-      <c r="B23" s="236" t="s">
+      <c r="C23" s="237" t="s">
         <v>1131</v>
-      </c>
-      <c r="C23" s="237" t="s">
-        <v>1132</v>
       </c>
       <c r="D23" s="237"/>
       <c r="E23" s="224"/>
@@ -16406,13 +16403,13 @@
     </row>
     <row r="24">
       <c r="A24" s="220" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B24" s="236" t="s">
         <v>1133</v>
       </c>
-      <c r="B24" s="236" t="s">
+      <c r="C24" s="237" t="s">
         <v>1134</v>
-      </c>
-      <c r="C24" s="237" t="s">
-        <v>1135</v>
       </c>
       <c r="D24" s="237"/>
       <c r="E24" s="224"/>
@@ -16420,13 +16417,13 @@
     </row>
     <row r="25">
       <c r="A25" s="220" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B25" s="236" t="s">
         <v>1136</v>
       </c>
-      <c r="B25" s="236" t="s">
-        <v>1137</v>
-      </c>
       <c r="C25" s="5" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D25" s="237" t="s">
         <v>453</v>
@@ -16436,13 +16433,13 @@
     </row>
     <row r="26">
       <c r="A26" s="220" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B26" s="231" t="s">
         <v>1138</v>
       </c>
-      <c r="B26" s="231" t="s">
+      <c r="C26" s="231" t="s">
         <v>1139</v>
-      </c>
-      <c r="C26" s="231" t="s">
-        <v>1140</v>
       </c>
       <c r="D26" s="231"/>
       <c r="E26" s="219"/>
@@ -16450,13 +16447,13 @@
     </row>
     <row r="27">
       <c r="A27" s="220" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B27" s="231" t="s">
         <v>1141</v>
       </c>
-      <c r="B27" s="231" t="s">
+      <c r="C27" s="231" t="s">
         <v>1142</v>
-      </c>
-      <c r="C27" s="231" t="s">
-        <v>1143</v>
       </c>
       <c r="D27" s="231"/>
       <c r="E27" s="224"/>
@@ -16464,13 +16461,13 @@
     </row>
     <row r="28">
       <c r="A28" s="220" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B28" s="231" t="s">
         <v>1144</v>
       </c>
-      <c r="B28" s="231" t="s">
+      <c r="C28" s="231" t="s">
         <v>1145</v>
-      </c>
-      <c r="C28" s="231" t="s">
-        <v>1146</v>
       </c>
       <c r="D28" s="231"/>
       <c r="E28" s="224"/>
@@ -16478,143 +16475,143 @@
     </row>
     <row r="29">
       <c r="A29" s="220" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B29" s="238" t="s">
         <v>1147</v>
       </c>
-      <c r="B29" s="238" t="s">
+      <c r="C29" s="228" t="s">
         <v>1148</v>
-      </c>
-      <c r="C29" s="228" t="s">
-        <v>1149</v>
       </c>
       <c r="D29" s="228"/>
       <c r="E29" s="239"/>
     </row>
     <row r="30">
       <c r="A30" s="220" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B30" s="238" t="s">
         <v>1150</v>
       </c>
-      <c r="B30" s="238" t="s">
+      <c r="C30" s="228" t="s">
         <v>1151</v>
-      </c>
-      <c r="C30" s="228" t="s">
-        <v>1152</v>
       </c>
       <c r="D30" s="228"/>
       <c r="E30" s="239"/>
     </row>
     <row r="31">
       <c r="A31" s="220" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B31" s="238" t="s">
         <v>1153</v>
       </c>
-      <c r="B31" s="238" t="s">
+      <c r="C31" s="228" t="s">
         <v>1154</v>
-      </c>
-      <c r="C31" s="228" t="s">
-        <v>1155</v>
       </c>
       <c r="D31" s="228"/>
       <c r="E31" s="239"/>
     </row>
     <row r="32">
       <c r="A32" s="220" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B32" s="238" t="s">
         <v>1156</v>
       </c>
-      <c r="B32" s="238" t="s">
+      <c r="C32" s="228" t="s">
         <v>1157</v>
-      </c>
-      <c r="C32" s="228" t="s">
-        <v>1158</v>
       </c>
       <c r="D32" s="228"/>
       <c r="E32" s="239"/>
     </row>
     <row r="33">
       <c r="A33" s="220" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B33" s="238" t="s">
         <v>1159</v>
       </c>
-      <c r="B33" s="238" t="s">
+      <c r="C33" s="228" t="s">
         <v>1160</v>
-      </c>
-      <c r="C33" s="228" t="s">
-        <v>1161</v>
       </c>
       <c r="D33" s="228"/>
       <c r="E33" s="239"/>
     </row>
     <row r="34">
       <c r="A34" s="220" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B34" s="238" t="s">
         <v>1162</v>
       </c>
-      <c r="B34" s="238" t="s">
+      <c r="C34" s="228" t="s">
         <v>1163</v>
-      </c>
-      <c r="C34" s="228" t="s">
-        <v>1164</v>
       </c>
       <c r="D34" s="228"/>
       <c r="E34" s="239"/>
     </row>
     <row r="35">
       <c r="A35" s="220" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B35" s="238" t="s">
         <v>1165</v>
       </c>
-      <c r="B35" s="238" t="s">
+      <c r="C35" s="228" t="s">
         <v>1166</v>
-      </c>
-      <c r="C35" s="228" t="s">
-        <v>1167</v>
       </c>
       <c r="D35" s="228"/>
       <c r="E35" s="239"/>
     </row>
     <row r="36">
       <c r="A36" s="220" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B36" s="238" t="s">
         <v>1168</v>
       </c>
-      <c r="B36" s="238" t="s">
+      <c r="C36" s="228" t="s">
         <v>1169</v>
-      </c>
-      <c r="C36" s="228" t="s">
-        <v>1170</v>
       </c>
       <c r="D36" s="228"/>
       <c r="E36" s="239"/>
     </row>
     <row r="37">
       <c r="A37" s="220" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B37" s="238" t="s">
         <v>1171</v>
       </c>
-      <c r="B37" s="238" t="s">
+      <c r="C37" s="228" t="s">
         <v>1172</v>
-      </c>
-      <c r="C37" s="228" t="s">
-        <v>1173</v>
       </c>
       <c r="D37" s="228"/>
       <c r="E37" s="239"/>
     </row>
     <row r="38">
       <c r="A38" s="220" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B38" s="238" t="s">
         <v>1174</v>
       </c>
-      <c r="B38" s="238" t="s">
+      <c r="C38" s="228" t="s">
         <v>1175</v>
-      </c>
-      <c r="C38" s="228" t="s">
-        <v>1176</v>
       </c>
       <c r="D38" s="228"/>
       <c r="E38" s="239"/>
     </row>
     <row r="39">
       <c r="A39" s="220" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B39" s="240" t="s">
         <v>1177</v>
       </c>
-      <c r="B39" s="240" t="s">
+      <c r="C39" s="236" t="s">
         <v>1178</v>
-      </c>
-      <c r="C39" s="236" t="s">
-        <v>1179</v>
       </c>
       <c r="D39" s="236"/>
       <c r="E39" s="241"/>
@@ -16622,13 +16619,13 @@
     </row>
     <row r="40">
       <c r="A40" s="220" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B40" s="240" t="s">
         <v>1180</v>
       </c>
-      <c r="B40" s="240" t="s">
+      <c r="C40" s="236" t="s">
         <v>1181</v>
-      </c>
-      <c r="C40" s="236" t="s">
-        <v>1182</v>
       </c>
       <c r="D40" s="236"/>
       <c r="E40" s="242"/>
@@ -16636,13 +16633,13 @@
     </row>
     <row r="41">
       <c r="A41" s="220" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B41" s="240" t="s">
         <v>1183</v>
       </c>
-      <c r="B41" s="240" t="s">
+      <c r="C41" s="236" t="s">
         <v>1184</v>
-      </c>
-      <c r="C41" s="236" t="s">
-        <v>1185</v>
       </c>
       <c r="D41" s="236"/>
       <c r="E41" s="241"/>
@@ -16650,13 +16647,13 @@
     </row>
     <row r="42">
       <c r="A42" s="220" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B42" s="240" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C42" s="243" t="s">
         <v>1186</v>
-      </c>
-      <c r="B42" s="240" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C42" s="243" t="s">
-        <v>1187</v>
       </c>
       <c r="D42" s="243"/>
       <c r="E42" s="224"/>
@@ -16664,13 +16661,13 @@
     </row>
     <row r="43">
       <c r="A43" s="220" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B43" s="244" t="s">
         <v>1188</v>
       </c>
-      <c r="B43" s="244" t="s">
+      <c r="C43" s="243" t="s">
         <v>1189</v>
-      </c>
-      <c r="C43" s="243" t="s">
-        <v>1190</v>
       </c>
       <c r="D43" s="243"/>
       <c r="E43" s="224"/>
@@ -16678,13 +16675,13 @@
     </row>
     <row r="44">
       <c r="A44" s="220" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B44" s="244" t="s">
         <v>1191</v>
       </c>
-      <c r="B44" s="244" t="s">
+      <c r="C44" s="245" t="s">
         <v>1192</v>
-      </c>
-      <c r="C44" s="245" t="s">
-        <v>1193</v>
       </c>
       <c r="D44" s="245"/>
       <c r="E44" s="224"/>
@@ -16692,10 +16689,10 @@
     </row>
     <row r="45" ht="20.25" customHeight="1">
       <c r="A45" s="220" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B45" s="14" t="s">
         <v>1194</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>1195</v>
       </c>
       <c r="C45" s="246" t="s">
         <v>308</v>
@@ -16706,10 +16703,10 @@
     </row>
     <row r="46">
       <c r="A46" s="220" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B46" s="14" t="s">
         <v>1196</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>1197</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>312</v>
@@ -16720,10 +16717,10 @@
     </row>
     <row r="47">
       <c r="A47" s="220" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B47" s="14" t="s">
         <v>1198</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>1199</v>
       </c>
       <c r="C47" s="223" t="s">
         <v>315</v>
@@ -16734,10 +16731,10 @@
     </row>
     <row r="48">
       <c r="A48" s="220" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B48" s="14" t="s">
         <v>1200</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>1201</v>
       </c>
       <c r="C48" s="223" t="s">
         <v>318</v>
@@ -16748,10 +16745,10 @@
     </row>
     <row r="49">
       <c r="A49" s="220" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B49" s="14" t="s">
         <v>1202</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>1203</v>
       </c>
       <c r="C49" s="144" t="s">
         <v>321</v>
@@ -16762,10 +16759,10 @@
     </row>
     <row r="50">
       <c r="A50" s="220" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B50" s="14" t="s">
         <v>1204</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>1205</v>
       </c>
       <c r="C50" s="144" t="s">
         <v>324</v>
@@ -16776,10 +16773,10 @@
     </row>
     <row r="51">
       <c r="A51" s="220" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>1206</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>1207</v>
       </c>
       <c r="C51" s="223" t="s">
         <v>327</v>
@@ -16790,10 +16787,10 @@
     </row>
     <row r="52">
       <c r="A52" s="220" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B52" s="14" t="s">
         <v>1208</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>1209</v>
       </c>
       <c r="C52" s="144" t="s">
         <v>330</v>
@@ -16804,10 +16801,10 @@
     </row>
     <row r="53">
       <c r="A53" s="220" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B53" s="14" t="s">
         <v>1210</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>1211</v>
       </c>
       <c r="C53" s="223" t="s">
         <v>333</v>
@@ -16818,10 +16815,10 @@
     </row>
     <row r="54">
       <c r="A54" s="247" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B54" s="248" t="s">
         <v>1212</v>
-      </c>
-      <c r="B54" s="248" t="s">
-        <v>1213</v>
       </c>
       <c r="C54" s="249" t="s">
         <v>336</v>
@@ -16832,13 +16829,13 @@
     </row>
     <row r="55">
       <c r="A55" s="220" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>1214</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="C55" s="5" t="s">
         <v>1215</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>1216</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="16"/>
@@ -16874,13 +16871,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1217</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>1218</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1219</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>12</v>
@@ -16891,7 +16888,7 @@
     </row>
     <row r="2">
       <c r="A2" s="24" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>481</v>
@@ -16907,7 +16904,7 @@
     </row>
     <row r="3">
       <c r="A3" s="24" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>491</v>
@@ -16923,7 +16920,7 @@
     </row>
     <row r="4">
       <c r="A4" s="24" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>499</v>
@@ -16939,7 +16936,7 @@
     </row>
     <row r="5">
       <c r="A5" s="24" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="14" t="s">
@@ -16956,7 +16953,7 @@
     </row>
     <row r="6">
       <c r="A6" s="24" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="14" t="s">
@@ -16973,7 +16970,7 @@
     </row>
     <row r="7">
       <c r="A7" s="24" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="14" t="s">
@@ -16990,7 +16987,7 @@
     </row>
     <row r="8">
       <c r="A8" s="24" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="14" t="s">
@@ -17007,7 +17004,7 @@
     </row>
     <row r="9">
       <c r="A9" s="24" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="14" t="s">
@@ -17024,7 +17021,7 @@
     </row>
     <row r="10">
       <c r="A10" s="24" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="14" t="s">
@@ -17041,7 +17038,7 @@
     </row>
     <row r="11">
       <c r="A11" s="24" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="14" t="s">
@@ -17058,7 +17055,7 @@
     </row>
     <row r="12">
       <c r="A12" s="24" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="14" t="s">
@@ -17075,7 +17072,7 @@
     </row>
     <row r="13">
       <c r="A13" s="60" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B13" s="58"/>
       <c r="C13" s="56" t="s">
@@ -17092,7 +17089,7 @@
     </row>
     <row r="14">
       <c r="A14" s="60" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B14" s="58"/>
       <c r="C14" s="56" t="s">
@@ -17109,7 +17106,7 @@
     </row>
     <row r="15">
       <c r="A15" s="60" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B15" s="58"/>
       <c r="C15" s="56" t="s">
@@ -17126,7 +17123,7 @@
     </row>
     <row r="16">
       <c r="A16" s="60" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B16" s="58"/>
       <c r="C16" s="56" t="s">
@@ -17143,7 +17140,7 @@
     </row>
     <row r="17">
       <c r="A17" s="60" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B17" s="58"/>
       <c r="C17" s="56" t="s">
@@ -17160,7 +17157,7 @@
     </row>
     <row r="18">
       <c r="A18" s="60" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B18" s="58"/>
       <c r="C18" s="56" t="s">
@@ -17177,7 +17174,7 @@
     </row>
     <row r="19">
       <c r="A19" s="24" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="14" t="s">
@@ -17194,7 +17191,7 @@
     </row>
     <row r="20">
       <c r="A20" s="24" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="14" t="s">
@@ -17211,7 +17208,7 @@
     </row>
     <row r="21">
       <c r="A21" s="24" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="14" t="s">
@@ -17228,7 +17225,7 @@
     </row>
     <row r="22">
       <c r="A22" s="24" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="14" t="s">
@@ -17245,7 +17242,7 @@
     </row>
     <row r="23">
       <c r="A23" s="24" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="14" t="s">
@@ -17262,7 +17259,7 @@
     </row>
     <row r="24">
       <c r="A24" s="24" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="14" t="s">
@@ -17279,14 +17276,14 @@
     </row>
     <row r="25">
       <c r="A25" s="24" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="14" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E25" s="24" t="s">
         <v>416</v>
@@ -17296,14 +17293,14 @@
     </row>
     <row r="26">
       <c r="A26" s="24" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="14" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E26" s="24" t="s">
         <v>419</v>
@@ -17313,14 +17310,14 @@
     </row>
     <row r="27">
       <c r="A27" s="24" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="14" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E27" s="24" t="s">
         <v>422</v>
@@ -17330,14 +17327,14 @@
     </row>
     <row r="28">
       <c r="A28" s="24" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="14" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E28" s="24" t="s">
         <v>425</v>
@@ -17347,14 +17344,14 @@
     </row>
     <row r="29">
       <c r="A29" s="24" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="14" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E29" s="24" t="s">
         <v>428</v>
@@ -17364,14 +17361,14 @@
     </row>
     <row r="30">
       <c r="A30" s="24" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="14" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E30" s="24" t="s">
         <v>431</v>
@@ -17381,14 +17378,14 @@
     </row>
     <row r="31">
       <c r="A31" s="24" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="14" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E31" s="24" t="s">
         <v>273</v>
@@ -17398,14 +17395,14 @@
     </row>
     <row r="32">
       <c r="A32" s="24" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="14" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E32" s="24" t="s">
         <v>436</v>
@@ -17415,14 +17412,14 @@
     </row>
     <row r="33">
       <c r="A33" s="24" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="14" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E33" s="24" t="s">
         <v>439</v>
@@ -17432,14 +17429,14 @@
     </row>
     <row r="34">
       <c r="A34" s="24" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="14" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E34" s="24" t="s">
         <v>91</v>
@@ -17449,14 +17446,14 @@
     </row>
     <row r="35">
       <c r="A35" s="24" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B35" s="16"/>
       <c r="C35" s="14" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E35" s="24" t="s">
         <v>96</v>
@@ -17466,14 +17463,14 @@
     </row>
     <row r="36">
       <c r="A36" s="24" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B36" s="16"/>
       <c r="C36" s="14" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E36" s="24" t="s">
         <v>100</v>
@@ -17483,14 +17480,14 @@
     </row>
     <row r="37">
       <c r="A37" s="24" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="14" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E37" s="24" t="s">
         <v>104</v>
@@ -17500,14 +17497,14 @@
     </row>
     <row r="38">
       <c r="A38" s="24" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="14" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E38" s="24" t="s">
         <v>108</v>
@@ -17517,14 +17514,14 @@
     </row>
     <row r="39">
       <c r="A39" s="24" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B39" s="16"/>
       <c r="C39" s="14" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E39" s="24" t="s">
         <v>112</v>
@@ -17534,14 +17531,14 @@
     </row>
     <row r="40">
       <c r="A40" s="24" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B40" s="16"/>
       <c r="C40" s="14" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E40" s="24" t="s">
         <v>116</v>
@@ -17551,14 +17548,14 @@
     </row>
     <row r="41">
       <c r="A41" s="24" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B41" s="16"/>
       <c r="C41" s="14" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E41" s="24" t="s">
         <v>120</v>
@@ -17568,14 +17565,14 @@
     </row>
     <row r="42">
       <c r="A42" s="24" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B42" s="16"/>
       <c r="C42" s="14" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E42" s="24" t="s">
         <v>124</v>
@@ -17615,10 +17612,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>1261</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>1262</v>
       </c>
     </row>
     <row r="2">
@@ -17628,7 +17625,7 @@
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
@@ -17640,7 +17637,7 @@
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
@@ -17687,22 +17684,22 @@
         <v>462</v>
       </c>
       <c r="E1" s="253" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F1" s="253" t="s">
         <v>1265</v>
       </c>
-      <c r="F1" s="253" t="s">
+      <c r="G1" s="5" t="s">
         <v>1266</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>1267</v>
       </c>
       <c r="H1" s="254" t="s">
         <v>471</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>1267</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>1268</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="2">
@@ -17710,16 +17707,16 @@
         <v>380</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>1270</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1271</v>
       </c>
       <c r="D2" s="255"/>
       <c r="F2" s="254"/>
       <c r="H2" s="256"/>
       <c r="J2" s="5" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="3">
@@ -17727,17 +17724,17 @@
         <v>383</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>1273</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1274</v>
       </c>
       <c r="D3" s="256"/>
       <c r="E3" s="254"/>
       <c r="F3" s="254"/>
       <c r="H3" s="254"/>
       <c r="J3" s="5" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="4">
@@ -17745,17 +17742,17 @@
         <v>386</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>1276</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>1277</v>
       </c>
       <c r="D4" s="256"/>
       <c r="E4" s="254"/>
       <c r="F4" s="254"/>
       <c r="H4" s="254"/>
       <c r="J4" s="5" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="5">
@@ -17763,17 +17760,17 @@
         <v>388</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>1278</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>1279</v>
       </c>
       <c r="D5" s="254"/>
       <c r="E5" s="254"/>
       <c r="F5" s="254"/>
       <c r="H5" s="256"/>
       <c r="J5" s="5" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="6">
@@ -17781,10 +17778,10 @@
         <v>391</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>1281</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>1282</v>
       </c>
       <c r="D6" s="254"/>
       <c r="E6" s="116"/>
@@ -17793,7 +17790,7 @@
         <v>458</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="7">
@@ -17801,17 +17798,17 @@
         <v>398</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>1284</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>1285</v>
       </c>
       <c r="D7" s="254"/>
       <c r="E7" s="254"/>
       <c r="F7" s="254"/>
       <c r="H7" s="254"/>
       <c r="J7" s="5" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="8">
@@ -17819,10 +17816,10 @@
         <v>412</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>1287</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>1288</v>
       </c>
       <c r="D8" s="254"/>
       <c r="E8" s="254"/>
@@ -17830,7 +17827,7 @@
       <c r="G8" s="254"/>
       <c r="H8" s="254"/>
       <c r="J8" s="5" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="9">
@@ -17838,17 +17835,17 @@
         <v>418</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>1290</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>1291</v>
       </c>
       <c r="D9" s="254"/>
       <c r="E9" s="254"/>
       <c r="F9" s="254"/>
       <c r="H9" s="254"/>
       <c r="J9" s="5" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="10">
@@ -17856,17 +17853,17 @@
         <v>424</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>1292</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>1293</v>
       </c>
       <c r="D10" s="254"/>
       <c r="E10" s="254"/>
       <c r="F10" s="254"/>
       <c r="H10" s="256"/>
       <c r="J10" s="5" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="11">
@@ -17874,10 +17871,10 @@
         <v>430</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>1295</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>1296</v>
       </c>
       <c r="D11" s="254"/>
       <c r="E11" s="254"/>
@@ -17885,7 +17882,7 @@
       <c r="G11" s="254"/>
       <c r="H11" s="254"/>
       <c r="J11" s="14" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="12">
@@ -17893,10 +17890,10 @@
         <v>415</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>1297</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>1298</v>
       </c>
       <c r="D12" s="254"/>
       <c r="E12" s="254"/>
@@ -17904,7 +17901,7 @@
       <c r="G12" s="254"/>
       <c r="H12" s="254"/>
       <c r="J12" s="5" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="13">
@@ -17912,17 +17909,17 @@
         <v>421</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>1299</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>1300</v>
       </c>
       <c r="D13" s="254"/>
       <c r="E13" s="254"/>
       <c r="F13" s="254"/>
       <c r="H13" s="254"/>
       <c r="J13" s="5" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="14">
@@ -17930,17 +17927,17 @@
         <v>427</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>1301</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>1302</v>
       </c>
       <c r="D14" s="254"/>
       <c r="E14" s="254"/>
       <c r="F14" s="254"/>
       <c r="H14" s="256"/>
       <c r="J14" s="5" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="15">
@@ -17948,10 +17945,10 @@
         <v>433</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>1303</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>1304</v>
       </c>
       <c r="D15" s="254"/>
       <c r="E15" s="254"/>
@@ -17959,7 +17956,7 @@
       <c r="G15" s="254"/>
       <c r="H15" s="254"/>
       <c r="J15" s="14" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="16">
@@ -17967,10 +17964,10 @@
         <v>435</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>1305</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>1306</v>
       </c>
       <c r="D16" s="256"/>
       <c r="E16" s="254"/>
@@ -17979,7 +17976,7 @@
         <v>458</v>
       </c>
       <c r="J16" s="258" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="17">
@@ -17987,18 +17984,18 @@
         <v>438</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>1307</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>1308</v>
       </c>
       <c r="E17" s="254"/>
       <c r="F17" s="259"/>
       <c r="H17" s="260" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J17" s="258" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="18">
@@ -18006,10 +18003,10 @@
         <v>442</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>1310</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>1311</v>
       </c>
       <c r="E18" s="254"/>
       <c r="F18" s="259"/>
@@ -18017,7 +18014,7 @@
         <v>458</v>
       </c>
       <c r="J18" s="258" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
   </sheetData>
@@ -18043,66 +18040,66 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="261" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>1313</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>1314</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1315</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="261" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>1316</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>1317</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="261" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>1318</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>1319</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="5" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5"/>
       <c r="B6" s="262" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>1321</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>1322</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5"/>
       <c r="B7" s="262" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
   </sheetData>

--- a/models/ard-arm-cardiac/source/ard-arm-cardiac.xlsx
+++ b/models/ard-arm-cardiac/source/ard-arm-cardiac.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="1392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="1393">
   <si>
     <t>id</t>
   </si>
@@ -2156,6 +2156,9 @@
   </si>
   <si>
     <t>ns102_2</t>
+  </si>
+  <si>
+    <t>74,74</t>
   </si>
   <si>
     <t>ac-sn-rv2_6</t>
@@ -4425,7 +4428,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4502,6 +4505,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFA4C2F4"/>
         <bgColor rgb="FFA4C2F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -4594,7 +4603,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="274">
+  <cellXfs count="276">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5116,55 +5125,61 @@
     <xf borderId="0" fillId="14" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="14" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="15" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="16" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="16" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="16" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="17" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="17" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="18" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="17" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="18" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="17" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="18" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="17" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="18" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="17" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="18" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="17" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="18" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="17" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="18" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="17" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="18" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="18" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="19" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="19" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="20" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="20" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="19" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="20" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -5182,7 +5197,7 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="18" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -5209,7 +5224,7 @@
     <xf borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="20" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="21" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5221,7 +5236,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="21" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="22" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5230,7 +5245,7 @@
     <xf borderId="0" fillId="9" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="22" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="23" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5270,7 +5285,7 @@
     <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="23" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="24" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5282,7 +5297,7 @@
     <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="23" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="24" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5708,114 +5723,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="108" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B1" s="108" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="263" t="s">
-        <v>1325</v>
-      </c>
-      <c r="B2" s="264" t="s">
+      <c r="A2" s="265" t="s">
         <v>1326</v>
       </c>
+      <c r="B2" s="266" t="s">
+        <v>1327</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="263" t="s">
-        <v>1327</v>
-      </c>
-      <c r="B3" s="265" t="s">
+      <c r="A3" s="265" t="s">
         <v>1328</v>
       </c>
+      <c r="B3" s="267" t="s">
+        <v>1329</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="263" t="s">
-        <v>1329</v>
-      </c>
-      <c r="B4" s="266" t="s">
+      <c r="A4" s="265" t="s">
         <v>1330</v>
       </c>
+      <c r="B4" s="268" t="s">
+        <v>1331</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="263" t="s">
-        <v>1331</v>
-      </c>
-      <c r="B5" s="266" t="s">
+      <c r="A5" s="265" t="s">
         <v>1332</v>
       </c>
+      <c r="B5" s="268" t="s">
+        <v>1333</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="263" t="s">
-        <v>1333</v>
-      </c>
-      <c r="B6" s="266" t="s">
+      <c r="A6" s="265" t="s">
         <v>1334</v>
       </c>
+      <c r="B6" s="268" t="s">
+        <v>1335</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="263" t="s">
-        <v>1335</v>
-      </c>
-      <c r="B7" s="266" t="s">
+      <c r="A7" s="265" t="s">
         <v>1336</v>
       </c>
+      <c r="B7" s="268" t="s">
+        <v>1337</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="263" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B8" s="266" t="s">
+      <c r="A8" s="265" t="s">
         <v>1338</v>
       </c>
+      <c r="B8" s="268" t="s">
+        <v>1339</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="263" t="s">
-        <v>1339</v>
-      </c>
-      <c r="B9" s="266" t="s">
+      <c r="A9" s="265" t="s">
         <v>1340</v>
       </c>
+      <c r="B9" s="268" t="s">
+        <v>1341</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="263" t="s">
-        <v>1341</v>
-      </c>
-      <c r="B10" s="266" t="s">
+      <c r="A10" s="265" t="s">
         <v>1342</v>
       </c>
+      <c r="B10" s="268" t="s">
+        <v>1343</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="263" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B11" s="266" t="s">
+      <c r="A11" s="265" t="s">
         <v>1344</v>
+      </c>
+      <c r="B11" s="268" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>1345</v>
-      </c>
-      <c r="B12" s="267" t="s">
         <v>1346</v>
+      </c>
+      <c r="B12" s="269" t="s">
+        <v>1347</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="25" t="s">
-        <v>1347</v>
-      </c>
-      <c r="B13" s="268" t="s">
         <v>1348</v>
+      </c>
+      <c r="B13" s="270" t="s">
+        <v>1349</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="25" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B14" s="269" t="s">
         <v>1350</v>
+      </c>
+      <c r="B14" s="271" t="s">
+        <v>1351</v>
       </c>
     </row>
   </sheetData>
@@ -5850,16 +5865,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
@@ -5875,13 +5890,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
@@ -5922,13 +5937,13 @@
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -5945,10 +5960,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -5963,10 +5978,10 @@
     <row r="7">
       <c r="A7" s="16"/>
       <c r="B7" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>1363</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>1362</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -5981,10 +5996,10 @@
     <row r="8">
       <c r="A8" s="16"/>
       <c r="B8" s="16" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
@@ -5999,10 +6014,10 @@
     <row r="9">
       <c r="A9" s="16"/>
       <c r="B9" s="16" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
@@ -6030,10 +6045,10 @@
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -6048,10 +6063,10 @@
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B12" s="270" t="s">
         <v>1369</v>
+      </c>
+      <c r="B12" s="272" t="s">
+        <v>1370</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -6066,10 +6081,10 @@
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>1370</v>
-      </c>
-      <c r="B13" s="270" t="s">
         <v>1371</v>
+      </c>
+      <c r="B13" s="272" t="s">
+        <v>1372</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -6084,10 +6099,10 @@
     </row>
     <row r="14">
       <c r="A14" s="16" t="s">
-        <v>1372</v>
-      </c>
-      <c r="B14" s="270" t="s">
         <v>1373</v>
+      </c>
+      <c r="B14" s="272" t="s">
+        <v>1374</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -6102,10 +6117,10 @@
     </row>
     <row r="15">
       <c r="A15" s="16" t="s">
-        <v>1374</v>
-      </c>
-      <c r="B15" s="270" t="s">
         <v>1375</v>
+      </c>
+      <c r="B15" s="272" t="s">
+        <v>1376</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -6120,10 +6135,10 @@
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B16" s="93" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -6138,10 +6153,10 @@
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -6170,10 +6185,10 @@
     </row>
     <row r="19">
       <c r="A19" s="16" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="B19" s="93" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -6188,28 +6203,28 @@
     </row>
     <row r="20">
       <c r="A20" s="16" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B20" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="271"/>
-      <c r="D20" s="271"/>
-      <c r="E20" s="271"/>
-      <c r="F20" s="271"/>
-      <c r="G20" s="271"/>
-      <c r="H20" s="271"/>
-      <c r="I20" s="271"/>
-      <c r="J20" s="271"/>
-      <c r="K20" s="271"/>
+      <c r="C20" s="273"/>
+      <c r="D20" s="273"/>
+      <c r="E20" s="273"/>
+      <c r="F20" s="273"/>
+      <c r="G20" s="273"/>
+      <c r="H20" s="273"/>
+      <c r="I20" s="273"/>
+      <c r="J20" s="273"/>
+      <c r="K20" s="273"/>
       <c r="L20" s="16"/>
     </row>
     <row r="21">
       <c r="A21" s="16" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="B21" s="116" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="L21" s="16"/>
     </row>
@@ -6238,65 +6253,65 @@
       <c r="L27" s="16"/>
     </row>
     <row r="28">
-      <c r="A28" s="271" t="s">
-        <v>1384</v>
-      </c>
-      <c r="B28" s="272" t="s">
+      <c r="A28" s="273" t="s">
         <v>1385</v>
       </c>
+      <c r="B28" s="274" t="s">
+        <v>1386</v>
+      </c>
       <c r="L28" s="16"/>
     </row>
     <row r="29">
-      <c r="A29" s="271" t="s">
-        <v>1386</v>
-      </c>
-      <c r="B29" s="273" t="s">
+      <c r="A29" s="273" t="s">
         <v>1387</v>
       </c>
+      <c r="B29" s="275" t="s">
+        <v>1388</v>
+      </c>
       <c r="L29" s="16"/>
     </row>
     <row r="30">
-      <c r="A30" s="271" t="s">
-        <v>1388</v>
-      </c>
-      <c r="B30" s="267" t="s">
+      <c r="A30" s="273" t="s">
         <v>1389</v>
       </c>
-      <c r="C30" s="272"/>
-      <c r="D30" s="272"/>
-      <c r="E30" s="272"/>
-      <c r="F30" s="272"/>
-      <c r="G30" s="272"/>
-      <c r="H30" s="272"/>
-      <c r="I30" s="272"/>
-      <c r="J30" s="272"/>
-      <c r="K30" s="272"/>
+      <c r="B30" s="269" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C30" s="274"/>
+      <c r="D30" s="274"/>
+      <c r="E30" s="274"/>
+      <c r="F30" s="274"/>
+      <c r="G30" s="274"/>
+      <c r="H30" s="274"/>
+      <c r="I30" s="274"/>
+      <c r="J30" s="274"/>
+      <c r="K30" s="274"/>
       <c r="L30" s="16"/>
     </row>
     <row r="31" hidden="1">
       <c r="A31" s="16" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="L31" s="16"/>
     </row>
     <row r="32" hidden="1">
       <c r="A32" s="16" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="L32" s="16"/>
     </row>
     <row r="33">
       <c r="A33" s="16"/>
-      <c r="B33" s="271"/>
-      <c r="C33" s="271"/>
-      <c r="D33" s="271"/>
-      <c r="E33" s="271"/>
-      <c r="F33" s="271"/>
-      <c r="G33" s="271"/>
-      <c r="H33" s="271"/>
-      <c r="I33" s="271"/>
-      <c r="J33" s="271"/>
-      <c r="K33" s="271"/>
+      <c r="B33" s="273"/>
+      <c r="C33" s="273"/>
+      <c r="D33" s="273"/>
+      <c r="E33" s="273"/>
+      <c r="F33" s="273"/>
+      <c r="G33" s="273"/>
+      <c r="H33" s="273"/>
+      <c r="I33" s="273"/>
+      <c r="J33" s="273"/>
+      <c r="K33" s="273"/>
       <c r="L33" s="16"/>
     </row>
   </sheetData>
@@ -12824,21 +12839,21 @@
       <c r="H68" s="13"/>
       <c r="I68" s="16"/>
       <c r="J68" s="16"/>
-      <c r="K68" s="170">
-        <v>0.0</v>
-      </c>
-      <c r="L68" s="157">
-        <v>74.0</v>
+      <c r="K68" s="176" t="s">
+        <v>512</v>
+      </c>
+      <c r="L68" s="177" t="s">
+        <v>701</v>
       </c>
       <c r="M68" s="157"/>
       <c r="N68" s="16"/>
     </row>
     <row r="69">
       <c r="A69" s="24" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B69" s="123" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C69" s="156" t="s">
         <v>484</v>
@@ -12851,26 +12866,26 @@
         <v>692</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H69" s="13"/>
       <c r="I69" s="16"/>
       <c r="J69" s="16"/>
-      <c r="K69" s="176" t="s">
-        <v>704</v>
+      <c r="K69" s="178" t="s">
+        <v>705</v>
       </c>
       <c r="L69" s="123" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M69" s="123"/>
       <c r="N69" s="16"/>
     </row>
     <row r="70">
       <c r="A70" s="24" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B70" s="123" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C70" s="156" t="s">
         <v>484</v>
@@ -12883,26 +12898,26 @@
         <v>692</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H70" s="13"/>
       <c r="I70" s="16"/>
       <c r="J70" s="16"/>
-      <c r="K70" s="176" t="s">
-        <v>709</v>
+      <c r="K70" s="178" t="s">
+        <v>710</v>
       </c>
       <c r="L70" s="123" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="M70" s="123"/>
       <c r="N70" s="16"/>
     </row>
     <row r="71">
       <c r="A71" s="24" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B71" s="123" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C71" s="156" t="s">
         <v>484</v>
@@ -12915,26 +12930,26 @@
         <v>692</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H71" s="13"/>
       <c r="I71" s="16"/>
       <c r="J71" s="16"/>
-      <c r="K71" s="176" t="s">
-        <v>704</v>
+      <c r="K71" s="178" t="s">
+        <v>705</v>
       </c>
       <c r="L71" s="123" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="M71" s="123"/>
       <c r="N71" s="16"/>
     </row>
     <row r="72">
       <c r="A72" s="24" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B72" s="123" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C72" s="156" t="s">
         <v>484</v>
@@ -12947,26 +12962,26 @@
         <v>692</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H72" s="13"/>
       <c r="I72" s="16"/>
       <c r="J72" s="16"/>
-      <c r="K72" s="176" t="s">
-        <v>709</v>
+      <c r="K72" s="178" t="s">
+        <v>710</v>
       </c>
       <c r="L72" s="123" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M72" s="123"/>
       <c r="N72" s="16"/>
     </row>
     <row r="73">
       <c r="A73" s="24" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B73" s="123" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C73" s="156" t="s">
         <v>484</v>
@@ -12978,8 +12993,8 @@
       <c r="F73" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="G73" s="177" t="s">
-        <v>721</v>
+      <c r="G73" s="179" t="s">
+        <v>722</v>
       </c>
       <c r="H73" s="13"/>
       <c r="I73" s="16"/>
@@ -12988,17 +13003,17 @@
         <v>693</v>
       </c>
       <c r="L73" s="174" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="M73" s="174"/>
       <c r="N73" s="16"/>
     </row>
     <row r="74">
       <c r="A74" s="24" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B74" s="123" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C74" s="156" t="s">
         <v>484</v>
@@ -13011,7 +13026,7 @@
         <v>626</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H74" s="13"/>
       <c r="I74" s="16"/>
@@ -13027,7 +13042,7 @@
     </row>
     <row r="75">
       <c r="A75" s="24" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B75" s="123" t="s">
         <v>699</v>
@@ -13039,30 +13054,30 @@
       <c r="E75" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="F75" s="178" t="s">
-        <v>721</v>
+      <c r="F75" s="180" t="s">
+        <v>722</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H75" s="13"/>
       <c r="I75" s="16"/>
       <c r="J75" s="16"/>
-      <c r="K75" s="170">
-        <v>0.0</v>
-      </c>
-      <c r="L75" s="157">
-        <v>74.0</v>
+      <c r="K75" s="176" t="s">
+        <v>512</v>
+      </c>
+      <c r="L75" s="177" t="s">
+        <v>701</v>
       </c>
       <c r="M75" s="157"/>
       <c r="N75" s="16"/>
     </row>
     <row r="76">
       <c r="A76" s="24" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B76" s="123" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C76" s="156" t="s">
         <v>484</v>
@@ -13071,30 +13086,30 @@
       <c r="E76" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="F76" s="177" t="s">
-        <v>721</v>
+      <c r="F76" s="179" t="s">
+        <v>722</v>
       </c>
       <c r="G76" s="15" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H76" s="13"/>
       <c r="I76" s="16"/>
       <c r="J76" s="16"/>
-      <c r="K76" s="179" t="s">
-        <v>704</v>
+      <c r="K76" s="181" t="s">
+        <v>705</v>
       </c>
       <c r="L76" s="123" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M76" s="123"/>
       <c r="N76" s="16"/>
     </row>
     <row r="77">
       <c r="A77" s="24" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B77" s="123" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C77" s="156" t="s">
         <v>484</v>
@@ -13103,30 +13118,30 @@
       <c r="E77" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="F77" s="177" t="s">
-        <v>721</v>
+      <c r="F77" s="179" t="s">
+        <v>722</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H77" s="13"/>
       <c r="I77" s="16"/>
       <c r="J77" s="16"/>
-      <c r="K77" s="179" t="s">
-        <v>709</v>
+      <c r="K77" s="181" t="s">
+        <v>710</v>
       </c>
       <c r="L77" s="123" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="M77" s="123"/>
       <c r="N77" s="16"/>
     </row>
     <row r="78">
       <c r="A78" s="24" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B78" s="123" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C78" s="156" t="s">
         <v>484</v>
@@ -13135,30 +13150,30 @@
       <c r="E78" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="F78" s="177" t="s">
-        <v>721</v>
+      <c r="F78" s="179" t="s">
+        <v>722</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H78" s="13"/>
       <c r="I78" s="16"/>
       <c r="J78" s="16"/>
       <c r="K78" s="115" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="L78" s="123" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M78" s="123"/>
       <c r="N78" s="16"/>
     </row>
     <row r="79">
       <c r="A79" s="24" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B79" s="123" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C79" s="156" t="s">
         <v>484</v>
@@ -13167,30 +13182,30 @@
       <c r="E79" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="F79" s="177" t="s">
-        <v>721</v>
+      <c r="F79" s="179" t="s">
+        <v>722</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H79" s="13"/>
       <c r="I79" s="16"/>
       <c r="J79" s="16"/>
       <c r="K79" s="115" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="L79" s="123" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="M79" s="123"/>
       <c r="N79" s="16"/>
     </row>
     <row r="80">
       <c r="A80" s="127" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B80" s="134" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C80" s="148" t="s">
         <v>480</v>
@@ -13200,10 +13215,10 @@
         <v>370</v>
       </c>
       <c r="F80" s="130" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G80" s="131" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H80" s="13"/>
       <c r="I80" s="16"/>
@@ -13219,10 +13234,10 @@
     </row>
     <row r="81">
       <c r="A81" s="137" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B81" s="121" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C81" s="145" t="s">
         <v>484</v>
@@ -13232,10 +13247,10 @@
         <v>367</v>
       </c>
       <c r="F81" s="32" t="s">
-        <v>748</v>
-      </c>
-      <c r="G81" s="180" t="s">
         <v>749</v>
+      </c>
+      <c r="G81" s="182" t="s">
+        <v>750</v>
       </c>
       <c r="H81" s="36"/>
       <c r="I81" s="34"/>
@@ -13244,17 +13259,17 @@
         <v>524</v>
       </c>
       <c r="L81" s="121" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="M81" s="121"/>
       <c r="N81" s="34"/>
     </row>
     <row r="82">
       <c r="A82" s="137" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B82" s="121" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C82" s="145" t="s">
         <v>484</v>
@@ -13263,11 +13278,11 @@
       <c r="E82" s="119" t="s">
         <v>363</v>
       </c>
-      <c r="F82" s="180" t="s">
-        <v>749</v>
+      <c r="F82" s="182" t="s">
+        <v>750</v>
       </c>
       <c r="G82" s="143" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H82" s="36"/>
       <c r="I82" s="34"/>
@@ -13283,10 +13298,10 @@
     </row>
     <row r="83">
       <c r="A83" s="137" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B83" s="121" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C83" s="145" t="s">
         <v>484</v>
@@ -13295,30 +13310,30 @@
       <c r="E83" s="119" t="s">
         <v>363</v>
       </c>
-      <c r="F83" s="180" t="s">
-        <v>749</v>
+      <c r="F83" s="182" t="s">
+        <v>750</v>
       </c>
       <c r="G83" s="143" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H83" s="36"/>
       <c r="I83" s="34"/>
       <c r="J83" s="34"/>
       <c r="K83" s="117" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="L83" s="121" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="M83" s="121"/>
       <c r="N83" s="34"/>
     </row>
     <row r="84">
       <c r="A84" s="137" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B84" s="121" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C84" s="145" t="s">
         <v>484</v>
@@ -13327,30 +13342,30 @@
       <c r="E84" s="119" t="s">
         <v>363</v>
       </c>
-      <c r="F84" s="180" t="s">
-        <v>749</v>
+      <c r="F84" s="182" t="s">
+        <v>750</v>
       </c>
       <c r="G84" s="143" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H84" s="36"/>
       <c r="I84" s="34"/>
       <c r="J84" s="34"/>
       <c r="K84" s="117" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="L84" s="121" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="M84" s="121"/>
       <c r="N84" s="34"/>
     </row>
     <row r="85">
       <c r="A85" s="137" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B85" s="121" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C85" s="145" t="s">
         <v>484</v>
@@ -13359,30 +13374,30 @@
       <c r="E85" s="119" t="s">
         <v>363</v>
       </c>
-      <c r="F85" s="180" t="s">
-        <v>749</v>
+      <c r="F85" s="182" t="s">
+        <v>750</v>
       </c>
       <c r="G85" s="32" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H85" s="36"/>
       <c r="I85" s="34"/>
       <c r="J85" s="34"/>
       <c r="K85" s="117" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="L85" s="121" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M85" s="121"/>
       <c r="N85" s="34"/>
     </row>
     <row r="86">
       <c r="A86" s="137" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B86" s="121" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C86" s="145" t="s">
         <v>484</v>
@@ -13391,60 +13406,60 @@
       <c r="E86" s="119" t="s">
         <v>363</v>
       </c>
-      <c r="F86" s="180" t="s">
-        <v>749</v>
+      <c r="F86" s="182" t="s">
+        <v>750</v>
       </c>
       <c r="G86" s="32" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H86" s="36"/>
       <c r="I86" s="34"/>
       <c r="J86" s="34"/>
       <c r="K86" s="117" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="L86" s="121" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="M86" s="121"/>
       <c r="N86" s="34"/>
     </row>
     <row r="87">
-      <c r="A87" s="181" t="s">
-        <v>768</v>
-      </c>
-      <c r="B87" s="182" t="s">
+      <c r="A87" s="183" t="s">
         <v>769</v>
       </c>
-      <c r="C87" s="183" t="s">
+      <c r="B87" s="184" t="s">
+        <v>770</v>
+      </c>
+      <c r="C87" s="185" t="s">
         <v>480</v>
       </c>
-      <c r="D87" s="184"/>
-      <c r="E87" s="185" t="s">
+      <c r="D87" s="186"/>
+      <c r="E87" s="187" t="s">
         <v>370</v>
       </c>
-      <c r="F87" s="186" t="s">
-        <v>770</v>
-      </c>
-      <c r="G87" s="186"/>
-      <c r="H87" s="187"/>
-      <c r="I87" s="188"/>
-      <c r="J87" s="188"/>
-      <c r="K87" s="182">
+      <c r="F87" s="188" t="s">
+        <v>771</v>
+      </c>
+      <c r="G87" s="188"/>
+      <c r="H87" s="189"/>
+      <c r="I87" s="190"/>
+      <c r="J87" s="190"/>
+      <c r="K87" s="184">
         <v>0.0</v>
       </c>
-      <c r="L87" s="182" t="s">
+      <c r="L87" s="184" t="s">
         <v>302</v>
       </c>
-      <c r="M87" s="182"/>
-      <c r="N87" s="188"/>
+      <c r="M87" s="184"/>
+      <c r="N87" s="190"/>
     </row>
     <row r="88">
       <c r="A88" s="137" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B88" s="121" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C88" s="145" t="s">
         <v>484</v>
@@ -13454,10 +13469,10 @@
         <v>367</v>
       </c>
       <c r="F88" s="32" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="G88" s="41" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H88" s="36"/>
       <c r="I88" s="34"/>
@@ -13466,17 +13481,17 @@
         <v>524</v>
       </c>
       <c r="L88" s="121" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M88" s="121"/>
       <c r="N88" s="34"/>
     </row>
     <row r="89">
       <c r="A89" s="137" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B89" s="121" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C89" s="145" t="s">
         <v>484</v>
@@ -13486,10 +13501,10 @@
         <v>363</v>
       </c>
       <c r="F89" s="41" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G89" s="32" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H89" s="36"/>
       <c r="I89" s="34"/>
@@ -13505,10 +13520,10 @@
     </row>
     <row r="90">
       <c r="A90" s="137" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B90" s="121" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C90" s="145" t="s">
         <v>484</v>
@@ -13518,29 +13533,29 @@
         <v>363</v>
       </c>
       <c r="F90" s="41" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G90" s="32" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H90" s="36"/>
       <c r="I90" s="34"/>
       <c r="J90" s="34"/>
-      <c r="K90" s="176" t="s">
-        <v>704</v>
+      <c r="K90" s="178" t="s">
+        <v>705</v>
       </c>
       <c r="L90" s="121" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="M90" s="121"/>
       <c r="N90" s="34"/>
     </row>
     <row r="91">
       <c r="A91" s="137" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B91" s="121" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C91" s="145" t="s">
         <v>484</v>
@@ -13550,29 +13565,29 @@
         <v>363</v>
       </c>
       <c r="F91" s="41" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G91" s="32" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H91" s="36"/>
       <c r="I91" s="34"/>
       <c r="J91" s="34"/>
-      <c r="K91" s="176" t="s">
-        <v>709</v>
+      <c r="K91" s="178" t="s">
+        <v>710</v>
       </c>
       <c r="L91" s="121" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M91" s="121"/>
       <c r="N91" s="34"/>
     </row>
     <row r="92">
       <c r="A92" s="127" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B92" s="134" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C92" s="148" t="s">
         <v>484</v>
@@ -13582,29 +13597,29 @@
         <v>363</v>
       </c>
       <c r="F92" s="41" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G92" s="130" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H92" s="142"/>
       <c r="I92" s="133"/>
       <c r="J92" s="133"/>
       <c r="K92" s="128" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="L92" s="134" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M92" s="134"/>
       <c r="N92" s="133"/>
     </row>
     <row r="93">
       <c r="A93" s="127" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B93" s="134" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C93" s="148" t="s">
         <v>484</v>
@@ -13614,29 +13629,29 @@
         <v>363</v>
       </c>
       <c r="F93" s="41" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G93" s="130" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H93" s="142"/>
       <c r="I93" s="133"/>
       <c r="J93" s="133"/>
       <c r="K93" s="128" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="L93" s="134" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="M93" s="134"/>
       <c r="N93" s="133"/>
     </row>
     <row r="94">
       <c r="A94" s="24" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B94" s="123" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C94" s="156" t="s">
         <v>480</v>
@@ -13646,7 +13661,7 @@
         <v>370</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="G94" s="48"/>
       <c r="H94" s="13"/>
@@ -13663,10 +13678,10 @@
     </row>
     <row r="95">
       <c r="A95" s="24" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B95" s="123" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C95" s="156" t="s">
         <v>484</v>
@@ -13676,10 +13691,10 @@
         <v>367</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="G95" s="14" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H95" s="13"/>
       <c r="I95" s="16"/>
@@ -13688,17 +13703,17 @@
         <v>524</v>
       </c>
       <c r="L95" s="121" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="M95" s="121"/>
       <c r="N95" s="16"/>
     </row>
     <row r="96">
       <c r="A96" s="24" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B96" s="123" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C96" s="156" t="s">
         <v>484</v>
@@ -13708,10 +13723,10 @@
         <v>363</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H96" s="13"/>
       <c r="I96" s="16"/>
@@ -13727,10 +13742,10 @@
     </row>
     <row r="97">
       <c r="A97" s="24" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B97" s="123" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C97" s="156" t="s">
         <v>484</v>
@@ -13740,29 +13755,29 @@
         <v>363</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H97" s="13"/>
       <c r="I97" s="16"/>
       <c r="J97" s="16"/>
       <c r="K97" s="115" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="L97" s="123" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="M97" s="123"/>
       <c r="N97" s="16"/>
     </row>
     <row r="98">
       <c r="A98" s="24" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B98" s="123" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C98" s="156" t="s">
         <v>484</v>
@@ -13772,29 +13787,29 @@
         <v>363</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H98" s="13"/>
       <c r="I98" s="16"/>
       <c r="J98" s="16"/>
       <c r="K98" s="115" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="L98" s="123" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="M98" s="123"/>
       <c r="N98" s="16"/>
     </row>
     <row r="99">
       <c r="A99" s="24" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B99" s="123" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C99" s="156" t="s">
         <v>484</v>
@@ -13804,29 +13819,29 @@
         <v>363</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H99" s="13"/>
       <c r="I99" s="16"/>
       <c r="J99" s="16"/>
       <c r="K99" s="115" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="L99" s="123" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M99" s="123"/>
       <c r="N99" s="16"/>
     </row>
     <row r="100">
       <c r="A100" s="24" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B100" s="123" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C100" s="156" t="s">
         <v>484</v>
@@ -13836,29 +13851,29 @@
         <v>363</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H100" s="13"/>
       <c r="I100" s="16"/>
       <c r="J100" s="16"/>
       <c r="K100" s="115" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="L100" s="123" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="M100" s="123"/>
       <c r="N100" s="16"/>
     </row>
     <row r="101">
       <c r="A101" s="24" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B101" s="123" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C101" s="156" t="s">
         <v>480</v>
@@ -13868,7 +13883,7 @@
         <v>370</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G101" s="25"/>
       <c r="H101" s="13"/>
@@ -13885,10 +13900,10 @@
     </row>
     <row r="102">
       <c r="A102" s="24" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B102" s="123" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C102" s="156" t="s">
         <v>484</v>
@@ -13898,10 +13913,10 @@
         <v>367</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="G102" s="14" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H102" s="13"/>
       <c r="I102" s="16"/>
@@ -13910,17 +13925,17 @@
         <v>524</v>
       </c>
       <c r="L102" s="123" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="M102" s="123"/>
       <c r="N102" s="16"/>
     </row>
     <row r="103">
       <c r="A103" s="24" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B103" s="123" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C103" s="156" t="s">
         <v>484</v>
@@ -13930,10 +13945,10 @@
         <v>363</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G103" s="14" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H103" s="13"/>
       <c r="I103" s="16"/>
@@ -13949,10 +13964,10 @@
     </row>
     <row r="104">
       <c r="A104" s="24" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B104" s="123" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C104" s="156" t="s">
         <v>484</v>
@@ -13962,29 +13977,29 @@
         <v>363</v>
       </c>
       <c r="F104" s="14" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G104" s="14" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H104" s="13"/>
       <c r="I104" s="16"/>
       <c r="J104" s="16"/>
       <c r="K104" s="115" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="L104" s="123" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="M104" s="123"/>
       <c r="N104" s="16"/>
     </row>
     <row r="105">
       <c r="A105" s="24" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B105" s="123" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C105" s="156" t="s">
         <v>484</v>
@@ -13994,29 +14009,29 @@
         <v>363</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G105" s="14" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H105" s="13"/>
       <c r="I105" s="16"/>
       <c r="J105" s="16"/>
       <c r="K105" s="115" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="L105" s="123" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M105" s="123"/>
       <c r="N105" s="16"/>
     </row>
     <row r="106">
       <c r="A106" s="127" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B106" s="134" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C106" s="148" t="s">
         <v>484</v>
@@ -14026,29 +14041,29 @@
         <v>363</v>
       </c>
       <c r="F106" s="130" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G106" s="130" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H106" s="142"/>
       <c r="I106" s="133"/>
       <c r="J106" s="133"/>
-      <c r="K106" s="179" t="s">
-        <v>704</v>
+      <c r="K106" s="181" t="s">
+        <v>705</v>
       </c>
       <c r="L106" s="134" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M106" s="134"/>
       <c r="N106" s="133"/>
     </row>
     <row r="107">
       <c r="A107" s="24" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B107" s="123" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C107" s="156" t="s">
         <v>484</v>
@@ -14058,29 +14073,29 @@
         <v>363</v>
       </c>
       <c r="F107" s="14" t="s">
-        <v>818</v>
-      </c>
-      <c r="G107" s="189" t="s">
-        <v>831</v>
+        <v>819</v>
+      </c>
+      <c r="G107" s="191" t="s">
+        <v>832</v>
       </c>
       <c r="H107" s="13"/>
       <c r="I107" s="16"/>
       <c r="J107" s="16"/>
-      <c r="K107" s="179" t="s">
-        <v>709</v>
+      <c r="K107" s="181" t="s">
+        <v>710</v>
       </c>
       <c r="L107" s="123" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="M107" s="123"/>
       <c r="N107" s="16"/>
     </row>
     <row r="108">
-      <c r="A108" s="190" t="s">
-        <v>834</v>
+      <c r="A108" s="192" t="s">
+        <v>835</v>
       </c>
       <c r="B108" s="123" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C108" s="145" t="s">
         <v>480</v>
@@ -14090,7 +14105,7 @@
         <v>363</v>
       </c>
       <c r="F108" s="32" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="G108" s="138"/>
       <c r="H108" s="36"/>
@@ -14106,13 +14121,13 @@
       <c r="N108" s="34"/>
     </row>
     <row r="109">
-      <c r="A109" s="191" t="s">
-        <v>837</v>
-      </c>
-      <c r="B109" s="192" t="s">
+      <c r="A109" s="193" t="s">
         <v>838</v>
       </c>
-      <c r="C109" s="193" t="s">
+      <c r="B109" s="194" t="s">
+        <v>839</v>
+      </c>
+      <c r="C109" s="195" t="s">
         <v>484</v>
       </c>
       <c r="D109" s="39"/>
@@ -14120,10 +14135,10 @@
         <v>373</v>
       </c>
       <c r="F109" s="32" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="G109" s="32" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H109" s="36"/>
       <c r="I109" s="34"/>
@@ -14132,30 +14147,30 @@
         <v>524</v>
       </c>
       <c r="L109" s="121" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="M109" s="121"/>
       <c r="N109" s="34"/>
     </row>
     <row r="110">
-      <c r="A110" s="191" t="s">
+      <c r="A110" s="193" t="s">
+        <v>842</v>
+      </c>
+      <c r="B110" s="194" t="s">
+        <v>843</v>
+      </c>
+      <c r="C110" s="195" t="s">
+        <v>484</v>
+      </c>
+      <c r="D110" s="39"/>
+      <c r="E110" s="196" t="s">
+        <v>370</v>
+      </c>
+      <c r="F110" s="32" t="s">
         <v>841</v>
       </c>
-      <c r="B110" s="192" t="s">
-        <v>842</v>
-      </c>
-      <c r="C110" s="193" t="s">
-        <v>484</v>
-      </c>
-      <c r="D110" s="39"/>
-      <c r="E110" s="194" t="s">
-        <v>370</v>
-      </c>
-      <c r="F110" s="32" t="s">
-        <v>840</v>
-      </c>
       <c r="G110" s="143" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H110" s="36"/>
       <c r="I110" s="34"/>
@@ -14163,148 +14178,148 @@
       <c r="K110" s="117">
         <v>0.0</v>
       </c>
-      <c r="L110" s="195" t="s">
+      <c r="L110" s="197" t="s">
         <v>274</v>
       </c>
-      <c r="M110" s="195"/>
+      <c r="M110" s="197"/>
       <c r="N110" s="34"/>
     </row>
     <row r="111">
-      <c r="A111" s="191" t="s">
-        <v>844</v>
-      </c>
-      <c r="B111" s="192" t="s">
+      <c r="A111" s="193" t="s">
         <v>845</v>
       </c>
-      <c r="C111" s="193" t="s">
+      <c r="B111" s="194" t="s">
+        <v>846</v>
+      </c>
+      <c r="C111" s="195" t="s">
         <v>484</v>
       </c>
       <c r="D111" s="39"/>
-      <c r="E111" s="194" t="s">
+      <c r="E111" s="196" t="s">
         <v>370</v>
       </c>
       <c r="F111" s="32" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="G111" s="143" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H111" s="36"/>
       <c r="I111" s="34"/>
       <c r="J111" s="34"/>
-      <c r="K111" s="179" t="s">
-        <v>704</v>
+      <c r="K111" s="181" t="s">
+        <v>705</v>
       </c>
       <c r="L111" s="121" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="M111" s="121"/>
       <c r="N111" s="34"/>
     </row>
     <row r="112">
-      <c r="A112" s="191" t="s">
-        <v>847</v>
-      </c>
-      <c r="B112" s="192" t="s">
+      <c r="A112" s="193" t="s">
         <v>848</v>
       </c>
-      <c r="C112" s="193" t="s">
+      <c r="B112" s="194" t="s">
+        <v>849</v>
+      </c>
+      <c r="C112" s="195" t="s">
         <v>484</v>
       </c>
       <c r="D112" s="39"/>
-      <c r="E112" s="194" t="s">
+      <c r="E112" s="196" t="s">
         <v>370</v>
       </c>
       <c r="F112" s="32" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="G112" s="143" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H112" s="36"/>
       <c r="I112" s="34"/>
       <c r="J112" s="34"/>
-      <c r="K112" s="179" t="s">
-        <v>709</v>
+      <c r="K112" s="181" t="s">
+        <v>710</v>
       </c>
       <c r="L112" s="121" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="M112" s="121"/>
       <c r="N112" s="34"/>
     </row>
     <row r="113">
-      <c r="A113" s="191" t="s">
-        <v>851</v>
-      </c>
-      <c r="B113" s="192" t="s">
+      <c r="A113" s="193" t="s">
         <v>852</v>
       </c>
-      <c r="C113" s="193" t="s">
+      <c r="B113" s="194" t="s">
+        <v>853</v>
+      </c>
+      <c r="C113" s="195" t="s">
         <v>484</v>
       </c>
       <c r="D113" s="39"/>
-      <c r="E113" s="194" t="s">
+      <c r="E113" s="196" t="s">
         <v>370</v>
       </c>
       <c r="F113" s="32" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="G113" s="32" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H113" s="36"/>
       <c r="I113" s="34"/>
       <c r="J113" s="34"/>
-      <c r="K113" s="179" t="s">
-        <v>704</v>
+      <c r="K113" s="181" t="s">
+        <v>705</v>
       </c>
       <c r="L113" s="121" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M113" s="121"/>
       <c r="N113" s="34"/>
     </row>
     <row r="114">
-      <c r="A114" s="191" t="s">
-        <v>854</v>
-      </c>
-      <c r="B114" s="192" t="s">
+      <c r="A114" s="193" t="s">
         <v>855</v>
       </c>
-      <c r="C114" s="193" t="s">
+      <c r="B114" s="194" t="s">
+        <v>856</v>
+      </c>
+      <c r="C114" s="195" t="s">
         <v>484</v>
       </c>
       <c r="D114" s="39"/>
-      <c r="E114" s="194" t="s">
+      <c r="E114" s="196" t="s">
         <v>370</v>
       </c>
       <c r="F114" s="32" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="G114" s="32" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H114" s="36"/>
       <c r="I114" s="34"/>
       <c r="J114" s="34"/>
-      <c r="K114" s="179" t="s">
-        <v>709</v>
+      <c r="K114" s="181" t="s">
+        <v>710</v>
       </c>
       <c r="L114" s="121" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="M114" s="121"/>
       <c r="N114" s="34"/>
     </row>
     <row r="115">
       <c r="A115" s="60" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B115" s="157" t="s">
-        <v>858</v>
-      </c>
-      <c r="C115" s="196" t="s">
+        <v>859</v>
+      </c>
+      <c r="C115" s="198" t="s">
         <v>480</v>
       </c>
       <c r="D115" s="59"/>
@@ -14312,10 +14327,10 @@
         <v>363</v>
       </c>
       <c r="F115" s="56" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="G115" s="56" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H115" s="64"/>
       <c r="I115" s="58"/>
@@ -14331,10 +14346,10 @@
     </row>
     <row r="116">
       <c r="A116" s="137" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B116" s="121" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C116" s="145" t="s">
         <v>484</v>
@@ -14344,10 +14359,10 @@
         <v>373</v>
       </c>
       <c r="F116" s="32" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="G116" s="41" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H116" s="36"/>
       <c r="I116" s="34"/>
@@ -14356,30 +14371,30 @@
         <v>524</v>
       </c>
       <c r="L116" s="121" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M116" s="121"/>
       <c r="N116" s="34"/>
     </row>
     <row r="117">
       <c r="A117" s="137" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B117" s="121" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C117" s="145" t="s">
         <v>484</v>
       </c>
       <c r="D117" s="39"/>
-      <c r="E117" s="194" t="s">
+      <c r="E117" s="196" t="s">
         <v>370</v>
       </c>
       <c r="F117" s="41" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="G117" s="32" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="H117" s="36"/>
       <c r="I117" s="34"/>
@@ -14387,148 +14402,148 @@
       <c r="K117" s="117">
         <v>0.0</v>
       </c>
-      <c r="L117" s="195" t="s">
+      <c r="L117" s="197" t="s">
         <v>274</v>
       </c>
-      <c r="M117" s="195"/>
+      <c r="M117" s="197"/>
       <c r="N117" s="34"/>
     </row>
     <row r="118">
       <c r="A118" s="60" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B118" s="157" t="s">
-        <v>869</v>
-      </c>
-      <c r="C118" s="196" t="s">
+        <v>870</v>
+      </c>
+      <c r="C118" s="198" t="s">
         <v>484</v>
       </c>
       <c r="D118" s="59"/>
-      <c r="E118" s="194" t="s">
+      <c r="E118" s="196" t="s">
         <v>370</v>
       </c>
       <c r="F118" s="41" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="G118" s="56" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H118" s="64"/>
       <c r="I118" s="58"/>
       <c r="J118" s="58"/>
-      <c r="K118" s="179" t="s">
-        <v>704</v>
+      <c r="K118" s="181" t="s">
+        <v>705</v>
       </c>
       <c r="L118" s="157" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="M118" s="157"/>
       <c r="N118" s="58"/>
     </row>
     <row r="119">
       <c r="A119" s="60" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B119" s="157" t="s">
-        <v>872</v>
-      </c>
-      <c r="C119" s="196" t="s">
+        <v>873</v>
+      </c>
+      <c r="C119" s="198" t="s">
         <v>484</v>
       </c>
       <c r="D119" s="59"/>
-      <c r="E119" s="194" t="s">
+      <c r="E119" s="196" t="s">
         <v>370</v>
       </c>
       <c r="F119" s="41" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="G119" s="56" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H119" s="64"/>
       <c r="I119" s="58"/>
       <c r="J119" s="58"/>
-      <c r="K119" s="179" t="s">
-        <v>709</v>
+      <c r="K119" s="181" t="s">
+        <v>710</v>
       </c>
       <c r="L119" s="157" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M119" s="157"/>
       <c r="N119" s="58"/>
     </row>
     <row r="120">
       <c r="A120" s="60" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B120" s="157" t="s">
-        <v>875</v>
-      </c>
-      <c r="C120" s="196" t="s">
+        <v>876</v>
+      </c>
+      <c r="C120" s="198" t="s">
         <v>484</v>
       </c>
       <c r="D120" s="59"/>
-      <c r="E120" s="194" t="s">
+      <c r="E120" s="196" t="s">
         <v>370</v>
       </c>
       <c r="F120" s="41" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="G120" s="56" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H120" s="64"/>
       <c r="I120" s="58"/>
       <c r="J120" s="58"/>
-      <c r="K120" s="179" t="s">
-        <v>704</v>
+      <c r="K120" s="181" t="s">
+        <v>705</v>
       </c>
       <c r="L120" s="157" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M120" s="157"/>
       <c r="N120" s="58"/>
     </row>
     <row r="121">
       <c r="A121" s="127" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B121" s="134" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C121" s="148" t="s">
         <v>484</v>
       </c>
       <c r="D121" s="129"/>
-      <c r="E121" s="194" t="s">
+      <c r="E121" s="196" t="s">
         <v>370</v>
       </c>
       <c r="F121" s="41" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="G121" s="130" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H121" s="142"/>
       <c r="I121" s="133"/>
       <c r="J121" s="133"/>
-      <c r="K121" s="179" t="s">
-        <v>709</v>
+      <c r="K121" s="181" t="s">
+        <v>710</v>
       </c>
       <c r="L121" s="134" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="M121" s="134"/>
       <c r="N121" s="133"/>
     </row>
     <row r="122">
       <c r="A122" s="24" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B122" s="123" t="s">
-        <v>881</v>
-      </c>
-      <c r="C122" s="197" t="s">
+        <v>882</v>
+      </c>
+      <c r="C122" s="199" t="s">
         <v>480</v>
       </c>
       <c r="D122" s="25"/>
@@ -14536,10 +14551,10 @@
         <v>370</v>
       </c>
       <c r="F122" s="14" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H122" s="13"/>
       <c r="I122" s="16"/>
@@ -14555,12 +14570,12 @@
     </row>
     <row r="123">
       <c r="A123" s="24" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B123" s="123" t="s">
-        <v>885</v>
-      </c>
-      <c r="C123" s="197" t="s">
+        <v>886</v>
+      </c>
+      <c r="C123" s="199" t="s">
         <v>484</v>
       </c>
       <c r="D123" s="25"/>
@@ -14568,10 +14583,10 @@
         <v>363</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H123" s="13"/>
       <c r="I123" s="16"/>
@@ -14579,20 +14594,20 @@
       <c r="K123" s="115">
         <v>0.0</v>
       </c>
-      <c r="L123" s="198" t="s">
+      <c r="L123" s="200" t="s">
         <v>297</v>
       </c>
-      <c r="M123" s="198"/>
+      <c r="M123" s="200"/>
       <c r="N123" s="16"/>
     </row>
     <row r="124">
       <c r="A124" s="24" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B124" s="123" t="s">
-        <v>889</v>
-      </c>
-      <c r="C124" s="197" t="s">
+        <v>890</v>
+      </c>
+      <c r="C124" s="199" t="s">
         <v>480</v>
       </c>
       <c r="D124" s="25"/>
@@ -14600,7 +14615,7 @@
         <v>370</v>
       </c>
       <c r="F124" s="14" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="G124" s="48"/>
       <c r="H124" s="13"/>
@@ -14617,12 +14632,12 @@
     </row>
     <row r="125">
       <c r="A125" s="24" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B125" s="123" t="s">
-        <v>892</v>
-      </c>
-      <c r="C125" s="197" t="s">
+        <v>893</v>
+      </c>
+      <c r="C125" s="199" t="s">
         <v>484</v>
       </c>
       <c r="D125" s="25"/>
@@ -14630,10 +14645,10 @@
         <v>363</v>
       </c>
       <c r="F125" s="14" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H125" s="13"/>
       <c r="I125" s="16"/>
@@ -14649,10 +14664,10 @@
     </row>
     <row r="126">
       <c r="A126" s="137" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B126" s="121" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C126" s="145" t="s">
         <v>480</v>
@@ -14662,10 +14677,10 @@
         <v>373</v>
       </c>
       <c r="F126" s="32" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="G126" s="32" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H126" s="36"/>
       <c r="I126" s="34"/>
@@ -14674,17 +14689,17 @@
         <v>512</v>
       </c>
       <c r="L126" s="147" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="M126" s="147"/>
       <c r="N126" s="34"/>
     </row>
     <row r="127">
       <c r="A127" s="137" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B127" s="121" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C127" s="145" t="s">
         <v>484</v>
@@ -14694,10 +14709,10 @@
         <v>363</v>
       </c>
       <c r="F127" s="32" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="G127" s="32" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H127" s="36"/>
       <c r="I127" s="34"/>
@@ -14706,17 +14721,17 @@
         <v>257</v>
       </c>
       <c r="L127" s="147" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="M127" s="147"/>
       <c r="N127" s="34"/>
     </row>
     <row r="128">
       <c r="A128" s="137" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B128" s="117" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C128" s="145" t="s">
         <v>480</v>
@@ -14726,10 +14741,10 @@
         <v>370</v>
       </c>
       <c r="F128" s="32" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="G128" s="143" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H128" s="36"/>
       <c r="I128" s="34"/>
@@ -14745,10 +14760,10 @@
     </row>
     <row r="129">
       <c r="A129" s="137" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B129" s="117" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C129" s="145" t="s">
         <v>480</v>
@@ -14758,29 +14773,29 @@
         <v>370</v>
       </c>
       <c r="F129" s="32" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="G129" s="143" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H129" s="36"/>
       <c r="I129" s="34"/>
       <c r="J129" s="34"/>
-      <c r="K129" s="199" t="s">
-        <v>704</v>
+      <c r="K129" s="201" t="s">
+        <v>705</v>
       </c>
       <c r="L129" s="147" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="M129" s="147"/>
       <c r="N129" s="34"/>
     </row>
     <row r="130">
       <c r="A130" s="137" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B130" s="117" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C130" s="145" t="s">
         <v>480</v>
@@ -14790,29 +14805,29 @@
         <v>370</v>
       </c>
       <c r="F130" s="32" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="G130" s="143" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="H130" s="36"/>
       <c r="I130" s="34"/>
       <c r="J130" s="34"/>
-      <c r="K130" s="199" t="s">
-        <v>709</v>
+      <c r="K130" s="201" t="s">
+        <v>710</v>
       </c>
       <c r="L130" s="147" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="M130" s="147"/>
       <c r="N130" s="34"/>
     </row>
     <row r="131">
       <c r="A131" s="137" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B131" s="117" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C131" s="145" t="s">
         <v>480</v>
@@ -14822,10 +14837,10 @@
         <v>373</v>
       </c>
       <c r="F131" s="32" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="G131" s="143" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H131" s="36"/>
       <c r="I131" s="34"/>
@@ -14834,17 +14849,17 @@
         <v>0.0</v>
       </c>
       <c r="L131" s="147" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="M131" s="147"/>
       <c r="N131" s="34"/>
     </row>
     <row r="132">
       <c r="A132" s="137" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B132" s="117" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C132" s="145" t="s">
         <v>480</v>
@@ -14854,10 +14869,10 @@
         <v>373</v>
       </c>
       <c r="F132" s="32" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="G132" s="143" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="H132" s="36"/>
       <c r="I132" s="34"/>
@@ -14866,17 +14881,17 @@
         <v>0.0</v>
       </c>
       <c r="L132" s="147" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="M132" s="147"/>
       <c r="N132" s="34"/>
     </row>
     <row r="133">
       <c r="A133" s="137" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B133" s="117" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C133" s="145" t="s">
         <v>480</v>
@@ -14886,29 +14901,29 @@
         <v>370</v>
       </c>
       <c r="F133" s="32" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="G133" s="143" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H133" s="36"/>
       <c r="I133" s="34"/>
       <c r="J133" s="34"/>
-      <c r="K133" s="199" t="s">
-        <v>704</v>
+      <c r="K133" s="201" t="s">
+        <v>705</v>
       </c>
       <c r="L133" s="147" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="M133" s="147"/>
       <c r="N133" s="34"/>
     </row>
     <row r="134">
       <c r="A134" s="137" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B134" s="117" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C134" s="145" t="s">
         <v>480</v>
@@ -14918,29 +14933,29 @@
         <v>370</v>
       </c>
       <c r="F134" s="32" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="G134" s="32" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H134" s="36"/>
       <c r="I134" s="34"/>
       <c r="J134" s="34"/>
-      <c r="K134" s="199" t="s">
-        <v>709</v>
+      <c r="K134" s="201" t="s">
+        <v>710</v>
       </c>
       <c r="L134" s="147" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M134" s="147"/>
       <c r="N134" s="32"/>
     </row>
     <row r="135">
       <c r="A135" s="137" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B135" s="117" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C135" s="145" t="s">
         <v>480</v>
@@ -14950,10 +14965,10 @@
         <v>370</v>
       </c>
       <c r="F135" s="32" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="G135" s="143" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H135" s="36"/>
       <c r="I135" s="34"/>
@@ -14969,10 +14984,10 @@
     </row>
     <row r="136">
       <c r="A136" s="137" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B136" s="117" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C136" s="145" t="s">
         <v>480</v>
@@ -14982,29 +14997,29 @@
         <v>370</v>
       </c>
       <c r="F136" s="32" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="G136" s="32" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H136" s="36"/>
       <c r="I136" s="34"/>
       <c r="J136" s="34"/>
       <c r="K136" s="150" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="L136" s="147" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="M136" s="147"/>
       <c r="N136" s="32"/>
     </row>
     <row r="137">
       <c r="A137" s="137" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B137" s="117" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C137" s="145" t="s">
         <v>480</v>
@@ -15014,29 +15029,29 @@
         <v>370</v>
       </c>
       <c r="F137" s="32" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="G137" s="32" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H137" s="36"/>
       <c r="I137" s="34"/>
       <c r="J137" s="34"/>
       <c r="K137" s="150" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="L137" s="147" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="M137" s="147"/>
       <c r="N137" s="32"/>
     </row>
     <row r="138">
       <c r="A138" s="137" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B138" s="117" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C138" s="145" t="s">
         <v>480</v>
@@ -15046,10 +15061,10 @@
         <v>373</v>
       </c>
       <c r="F138" s="32" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="G138" s="143" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H138" s="36"/>
       <c r="I138" s="34"/>
@@ -15065,10 +15080,10 @@
     </row>
     <row r="139">
       <c r="A139" s="137" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B139" s="117" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C139" s="145" t="s">
         <v>480</v>
@@ -15078,63 +15093,63 @@
         <v>370</v>
       </c>
       <c r="F139" s="32" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="G139" s="143" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H139" s="36"/>
       <c r="I139" s="34"/>
       <c r="J139" s="34"/>
       <c r="K139" s="121" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="L139" s="147" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="M139" s="147"/>
       <c r="N139" s="34"/>
     </row>
     <row r="140">
-      <c r="A140" s="200" t="s">
-        <v>946</v>
-      </c>
-      <c r="B140" s="201" t="s">
+      <c r="A140" s="202" t="s">
         <v>947</v>
       </c>
-      <c r="C140" s="202" t="s">
+      <c r="B140" s="203" t="s">
+        <v>948</v>
+      </c>
+      <c r="C140" s="204" t="s">
         <v>480</v>
       </c>
-      <c r="D140" s="202"/>
-      <c r="E140" s="203" t="s">
+      <c r="D140" s="204"/>
+      <c r="E140" s="205" t="s">
         <v>370</v>
       </c>
       <c r="F140" s="32" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="G140" s="143" t="s">
-        <v>948</v>
-      </c>
-      <c r="H140" s="204"/>
-      <c r="I140" s="205"/>
-      <c r="J140" s="205"/>
-      <c r="K140" s="206" t="s">
-        <v>944</v>
-      </c>
-      <c r="L140" s="207" t="s">
         <v>949</v>
       </c>
-      <c r="M140" s="207"/>
-      <c r="N140" s="205"/>
+      <c r="H140" s="206"/>
+      <c r="I140" s="207"/>
+      <c r="J140" s="207"/>
+      <c r="K140" s="208" t="s">
+        <v>945</v>
+      </c>
+      <c r="L140" s="209" t="s">
+        <v>950</v>
+      </c>
+      <c r="M140" s="209"/>
+      <c r="N140" s="207"/>
     </row>
     <row r="141">
       <c r="A141" s="24" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B141" s="115" t="s">
-        <v>951</v>
-      </c>
-      <c r="C141" s="197" t="s">
+        <v>952</v>
+      </c>
+      <c r="C141" s="199" t="s">
         <v>480</v>
       </c>
       <c r="D141" s="25"/>
@@ -15142,10 +15157,10 @@
         <v>373</v>
       </c>
       <c r="F141" s="14" t="s">
-        <v>952</v>
-      </c>
-      <c r="G141" s="208" t="s">
         <v>953</v>
+      </c>
+      <c r="G141" s="210" t="s">
+        <v>954</v>
       </c>
       <c r="H141" s="13"/>
       <c r="I141" s="16"/>
@@ -15153,20 +15168,20 @@
       <c r="K141" s="123">
         <v>0.0</v>
       </c>
-      <c r="L141" s="209" t="s">
+      <c r="L141" s="211" t="s">
         <v>230</v>
       </c>
-      <c r="M141" s="209"/>
+      <c r="M141" s="211"/>
       <c r="N141" s="16"/>
     </row>
     <row r="142">
       <c r="A142" s="24" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B142" s="115" t="s">
-        <v>955</v>
-      </c>
-      <c r="C142" s="197" t="s">
+        <v>956</v>
+      </c>
+      <c r="C142" s="199" t="s">
         <v>484</v>
       </c>
       <c r="D142" s="25"/>
@@ -15174,10 +15189,10 @@
         <v>363</v>
       </c>
       <c r="F142" s="14" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="G142" s="14" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H142" s="13"/>
       <c r="I142" s="16"/>
@@ -15185,20 +15200,20 @@
       <c r="K142" s="123">
         <v>0.0</v>
       </c>
-      <c r="L142" s="209" t="s">
+      <c r="L142" s="211" t="s">
         <v>230</v>
       </c>
-      <c r="M142" s="209"/>
+      <c r="M142" s="211"/>
       <c r="N142" s="16"/>
     </row>
     <row r="143">
       <c r="A143" s="24" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B143" s="115" t="s">
-        <v>959</v>
-      </c>
-      <c r="C143" s="197" t="s">
+        <v>960</v>
+      </c>
+      <c r="C143" s="199" t="s">
         <v>480</v>
       </c>
       <c r="D143" s="25"/>
@@ -15206,10 +15221,10 @@
         <v>373</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>960</v>
-      </c>
-      <c r="G143" s="208" t="s">
-        <v>953</v>
+        <v>961</v>
+      </c>
+      <c r="G143" s="210" t="s">
+        <v>954</v>
       </c>
       <c r="H143" s="13"/>
       <c r="I143" s="16"/>
@@ -15217,20 +15232,20 @@
       <c r="K143" s="123">
         <v>0.0</v>
       </c>
-      <c r="L143" s="209" t="s">
+      <c r="L143" s="211" t="s">
         <v>225</v>
       </c>
-      <c r="M143" s="209"/>
+      <c r="M143" s="211"/>
       <c r="N143" s="16"/>
     </row>
     <row r="144">
       <c r="A144" s="24" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B144" s="115" t="s">
-        <v>962</v>
-      </c>
-      <c r="C144" s="197" t="s">
+        <v>963</v>
+      </c>
+      <c r="C144" s="199" t="s">
         <v>484</v>
       </c>
       <c r="D144" s="25"/>
@@ -15238,10 +15253,10 @@
         <v>363</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H144" s="13"/>
       <c r="I144" s="16"/>
@@ -15249,31 +15264,31 @@
       <c r="K144" s="123">
         <v>0.0</v>
       </c>
-      <c r="L144" s="209" t="s">
+      <c r="L144" s="211" t="s">
         <v>225</v>
       </c>
-      <c r="M144" s="209"/>
+      <c r="M144" s="211"/>
       <c r="N144" s="16"/>
     </row>
     <row r="145">
       <c r="A145" s="127" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B145" s="115" t="s">
-        <v>966</v>
-      </c>
-      <c r="C145" s="197" t="s">
+        <v>967</v>
+      </c>
+      <c r="C145" s="199" t="s">
         <v>480</v>
       </c>
       <c r="D145" s="25"/>
       <c r="E145" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="F145" s="208" t="s">
-        <v>953</v>
+      <c r="F145" s="210" t="s">
+        <v>954</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="H145" s="13"/>
       <c r="I145" s="16"/>
@@ -15281,31 +15296,31 @@
       <c r="K145" s="123">
         <v>3.0</v>
       </c>
-      <c r="L145" s="209" t="s">
+      <c r="L145" s="211" t="s">
         <v>346</v>
       </c>
-      <c r="M145" s="209"/>
+      <c r="M145" s="211"/>
       <c r="N145" s="16"/>
     </row>
     <row r="146">
       <c r="A146" s="127" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B146" s="115" t="s">
-        <v>969</v>
-      </c>
-      <c r="C146" s="197" t="s">
+        <v>970</v>
+      </c>
+      <c r="C146" s="199" t="s">
         <v>480</v>
       </c>
       <c r="D146" s="25"/>
       <c r="E146" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="F146" s="208" t="s">
-        <v>953</v>
+      <c r="F146" s="210" t="s">
+        <v>954</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H146" s="13"/>
       <c r="I146" s="16"/>
@@ -15313,18 +15328,18 @@
       <c r="K146" s="123">
         <v>3.0</v>
       </c>
-      <c r="L146" s="209" t="s">
+      <c r="L146" s="211" t="s">
         <v>293</v>
       </c>
-      <c r="M146" s="209"/>
+      <c r="M146" s="211"/>
       <c r="N146" s="16"/>
     </row>
     <row r="147">
       <c r="A147" s="137" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B147" s="117" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C147" s="145" t="s">
         <v>480</v>
@@ -15334,10 +15349,10 @@
         <v>373</v>
       </c>
       <c r="F147" s="32" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="G147" s="143" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H147" s="36"/>
       <c r="I147" s="34"/>
@@ -15346,62 +15361,62 @@
         <v>512</v>
       </c>
       <c r="L147" s="147" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="M147" s="147"/>
       <c r="N147" s="34"/>
     </row>
     <row r="148">
       <c r="A148" s="137" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B148" s="117" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C148" s="145" t="s">
         <v>484</v>
       </c>
-      <c r="D148" s="210"/>
+      <c r="D148" s="212"/>
       <c r="E148" s="137" t="s">
         <v>363</v>
       </c>
       <c r="F148" s="32" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="G148" s="32" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H148" s="38"/>
       <c r="I148" s="34"/>
       <c r="J148" s="34"/>
-      <c r="K148" s="211" t="s">
-        <v>980</v>
+      <c r="K148" s="213" t="s">
+        <v>981</v>
       </c>
       <c r="L148" s="5" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="M148" s="5"/>
       <c r="N148" s="34"/>
     </row>
     <row r="149">
       <c r="A149" s="137" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B149" s="117" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C149" s="145" t="s">
         <v>480</v>
       </c>
-      <c r="D149" s="210"/>
+      <c r="D149" s="212"/>
       <c r="E149" s="137" t="s">
         <v>373</v>
       </c>
       <c r="F149" s="32" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="G149" s="143" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H149" s="38"/>
       <c r="I149" s="34"/>
@@ -15409,63 +15424,63 @@
       <c r="K149" s="134" t="s">
         <v>512</v>
       </c>
-      <c r="L149" s="212" t="s">
-        <v>985</v>
-      </c>
-      <c r="M149" s="212"/>
+      <c r="L149" s="214" t="s">
+        <v>986</v>
+      </c>
+      <c r="M149" s="214"/>
       <c r="N149" s="34"/>
     </row>
     <row r="150">
       <c r="A150" s="137" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B150" s="117" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C150" s="145" t="s">
         <v>484</v>
       </c>
-      <c r="D150" s="210"/>
+      <c r="D150" s="212"/>
       <c r="E150" s="137" t="s">
         <v>363</v>
       </c>
       <c r="F150" s="32" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="G150" s="143" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H150" s="36"/>
       <c r="I150" s="34"/>
       <c r="J150" s="34"/>
-      <c r="K150" s="211" t="s">
-        <v>980</v>
+      <c r="K150" s="213" t="s">
+        <v>981</v>
       </c>
       <c r="L150" s="5" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="M150" s="5"/>
       <c r="N150" s="34"/>
     </row>
     <row r="151">
       <c r="A151" s="137" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B151" s="117" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C151" s="145" t="s">
         <v>480</v>
       </c>
-      <c r="D151" s="210"/>
+      <c r="D151" s="212"/>
       <c r="E151" s="137" t="s">
         <v>373</v>
       </c>
       <c r="F151" s="32" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="G151" s="143" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H151" s="36"/>
       <c r="I151" s="34"/>
@@ -15474,62 +15489,62 @@
         <v>512</v>
       </c>
       <c r="L151" s="147" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="M151" s="147"/>
       <c r="N151" s="34"/>
     </row>
     <row r="152">
       <c r="A152" s="137" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B152" s="117" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C152" s="145" t="s">
         <v>484</v>
       </c>
-      <c r="D152" s="210"/>
+      <c r="D152" s="212"/>
       <c r="E152" s="137" t="s">
         <v>363</v>
       </c>
       <c r="F152" s="32" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="G152" s="143" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H152" s="36"/>
       <c r="I152" s="34"/>
       <c r="J152" s="34"/>
-      <c r="K152" s="211" t="s">
-        <v>980</v>
+      <c r="K152" s="213" t="s">
+        <v>981</v>
       </c>
       <c r="L152" s="5" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="M152" s="5"/>
       <c r="N152" s="34"/>
     </row>
     <row r="153">
       <c r="A153" s="137" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B153" s="117" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C153" s="145" t="s">
         <v>480</v>
       </c>
-      <c r="D153" s="210"/>
+      <c r="D153" s="212"/>
       <c r="E153" s="137" t="s">
         <v>373</v>
       </c>
       <c r="F153" s="32" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="G153" s="143" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H153" s="36"/>
       <c r="I153" s="34"/>
@@ -15538,62 +15553,62 @@
         <v>512</v>
       </c>
       <c r="L153" s="149" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="M153" s="149"/>
       <c r="N153" s="34"/>
     </row>
     <row r="154">
       <c r="A154" s="24" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B154" s="115" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C154" s="156" t="s">
         <v>484</v>
       </c>
-      <c r="D154" s="213"/>
-      <c r="E154" s="214" t="s">
+      <c r="D154" s="215"/>
+      <c r="E154" s="216" t="s">
         <v>363</v>
       </c>
       <c r="F154" s="14" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="G154" s="5" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H154" s="13"/>
       <c r="I154" s="16"/>
       <c r="J154" s="16"/>
-      <c r="K154" s="211" t="s">
-        <v>980</v>
+      <c r="K154" s="213" t="s">
+        <v>981</v>
       </c>
       <c r="L154" s="5" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="M154" s="5"/>
       <c r="N154" s="16"/>
     </row>
     <row r="155">
       <c r="A155" s="24" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B155" s="115" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C155" s="156" t="s">
         <v>480</v>
       </c>
-      <c r="D155" s="213"/>
+      <c r="D155" s="215"/>
       <c r="E155" s="24" t="s">
         <v>373</v>
       </c>
       <c r="F155" s="14" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G155" s="215" t="s">
-        <v>974</v>
+        <v>1012</v>
+      </c>
+      <c r="G155" s="217" t="s">
+        <v>975</v>
       </c>
       <c r="H155" s="13"/>
       <c r="I155" s="16"/>
@@ -15601,63 +15616,63 @@
       <c r="K155" s="123" t="s">
         <v>512</v>
       </c>
-      <c r="L155" s="209" t="s">
-        <v>1012</v>
-      </c>
-      <c r="M155" s="209"/>
+      <c r="L155" s="211" t="s">
+        <v>1013</v>
+      </c>
+      <c r="M155" s="211"/>
       <c r="N155" s="16"/>
     </row>
     <row r="156">
       <c r="A156" s="24" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B156" s="115" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C156" s="156" t="s">
         <v>484</v>
       </c>
-      <c r="D156" s="213"/>
-      <c r="E156" s="214" t="s">
+      <c r="D156" s="215"/>
+      <c r="E156" s="216" t="s">
         <v>363</v>
       </c>
       <c r="F156" s="14" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="H156" s="13"/>
       <c r="I156" s="16"/>
       <c r="J156" s="16"/>
-      <c r="K156" s="211" t="s">
-        <v>980</v>
+      <c r="K156" s="213" t="s">
+        <v>981</v>
       </c>
       <c r="L156" s="5" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="M156" s="5"/>
       <c r="N156" s="16"/>
     </row>
     <row r="157">
       <c r="A157" s="24" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B157" s="115" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C157" s="156" t="s">
         <v>480</v>
       </c>
-      <c r="D157" s="213"/>
+      <c r="D157" s="215"/>
       <c r="E157" s="24" t="s">
         <v>373</v>
       </c>
       <c r="F157" s="14" t="s">
-        <v>1020</v>
-      </c>
-      <c r="G157" s="215" t="s">
-        <v>974</v>
+        <v>1021</v>
+      </c>
+      <c r="G157" s="217" t="s">
+        <v>975</v>
       </c>
       <c r="H157" s="13"/>
       <c r="I157" s="16"/>
@@ -15665,63 +15680,63 @@
       <c r="K157" s="123" t="s">
         <v>512</v>
       </c>
-      <c r="L157" s="209" t="s">
-        <v>1021</v>
-      </c>
-      <c r="M157" s="209"/>
+      <c r="L157" s="211" t="s">
+        <v>1022</v>
+      </c>
+      <c r="M157" s="211"/>
       <c r="N157" s="16"/>
     </row>
     <row r="158">
       <c r="A158" s="24" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B158" s="115" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C158" s="156" t="s">
         <v>484</v>
       </c>
-      <c r="D158" s="213"/>
-      <c r="E158" s="214" t="s">
+      <c r="D158" s="215"/>
+      <c r="E158" s="216" t="s">
         <v>363</v>
       </c>
       <c r="F158" s="14" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="G158" s="131" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="H158" s="13"/>
       <c r="I158" s="16"/>
       <c r="J158" s="16"/>
-      <c r="K158" s="211" t="s">
-        <v>980</v>
+      <c r="K158" s="213" t="s">
+        <v>981</v>
       </c>
       <c r="L158" s="5" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="M158" s="5"/>
       <c r="N158" s="16"/>
     </row>
     <row r="159">
       <c r="A159" s="24" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B159" s="115" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="C159" s="156" t="s">
         <v>480</v>
       </c>
-      <c r="D159" s="213"/>
+      <c r="D159" s="215"/>
       <c r="E159" s="24" t="s">
         <v>373</v>
       </c>
       <c r="F159" s="14" t="s">
-        <v>1029</v>
-      </c>
-      <c r="G159" s="215" t="s">
-        <v>974</v>
+        <v>1030</v>
+      </c>
+      <c r="G159" s="217" t="s">
+        <v>975</v>
       </c>
       <c r="H159" s="13"/>
       <c r="I159" s="16"/>
@@ -15729,63 +15744,63 @@
       <c r="K159" s="123" t="s">
         <v>512</v>
       </c>
-      <c r="L159" s="209" t="s">
-        <v>1030</v>
-      </c>
-      <c r="M159" s="209"/>
+      <c r="L159" s="211" t="s">
+        <v>1031</v>
+      </c>
+      <c r="M159" s="211"/>
       <c r="N159" s="16"/>
     </row>
     <row r="160">
       <c r="A160" s="24" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B160" s="115" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C160" s="156" t="s">
         <v>484</v>
       </c>
-      <c r="D160" s="213"/>
-      <c r="E160" s="214" t="s">
+      <c r="D160" s="215"/>
+      <c r="E160" s="216" t="s">
         <v>363</v>
       </c>
       <c r="F160" s="14" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="G160" s="131" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H160" s="13"/>
       <c r="I160" s="16"/>
       <c r="J160" s="16"/>
-      <c r="K160" s="211" t="s">
-        <v>980</v>
+      <c r="K160" s="213" t="s">
+        <v>981</v>
       </c>
       <c r="L160" s="5" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="M160" s="5"/>
       <c r="N160" s="16"/>
     </row>
     <row r="161">
       <c r="A161" s="24" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B161" s="115" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="C161" s="156" t="s">
         <v>480</v>
       </c>
-      <c r="D161" s="213"/>
+      <c r="D161" s="215"/>
       <c r="E161" s="24" t="s">
         <v>373</v>
       </c>
       <c r="F161" s="14" t="s">
-        <v>1038</v>
-      </c>
-      <c r="G161" s="215" t="s">
-        <v>974</v>
+        <v>1039</v>
+      </c>
+      <c r="G161" s="217" t="s">
+        <v>975</v>
       </c>
       <c r="H161" s="13"/>
       <c r="I161" s="16"/>
@@ -15793,63 +15808,63 @@
       <c r="K161" s="123" t="s">
         <v>512</v>
       </c>
-      <c r="L161" s="209" t="s">
-        <v>1039</v>
-      </c>
-      <c r="M161" s="209"/>
+      <c r="L161" s="211" t="s">
+        <v>1040</v>
+      </c>
+      <c r="M161" s="211"/>
       <c r="N161" s="16"/>
     </row>
     <row r="162">
       <c r="A162" s="24" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B162" s="115" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C162" s="156" t="s">
         <v>484</v>
       </c>
-      <c r="D162" s="213"/>
-      <c r="E162" s="214" t="s">
+      <c r="D162" s="215"/>
+      <c r="E162" s="216" t="s">
         <v>363</v>
       </c>
       <c r="F162" s="14" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="G162" s="131" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="H162" s="13"/>
       <c r="I162" s="16"/>
       <c r="J162" s="16"/>
-      <c r="K162" s="211" t="s">
-        <v>980</v>
+      <c r="K162" s="213" t="s">
+        <v>981</v>
       </c>
       <c r="L162" s="5" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="M162" s="5"/>
       <c r="N162" s="16"/>
     </row>
     <row r="163">
       <c r="A163" s="24" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B163" s="115" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C163" s="156" t="s">
         <v>480</v>
       </c>
-      <c r="D163" s="213"/>
+      <c r="D163" s="215"/>
       <c r="E163" s="24" t="s">
         <v>373</v>
       </c>
       <c r="F163" s="14" t="s">
-        <v>1047</v>
-      </c>
-      <c r="G163" s="215" t="s">
-        <v>974</v>
+        <v>1048</v>
+      </c>
+      <c r="G163" s="217" t="s">
+        <v>975</v>
       </c>
       <c r="H163" s="13"/>
       <c r="I163" s="16"/>
@@ -15857,60 +15872,60 @@
       <c r="K163" s="123" t="s">
         <v>512</v>
       </c>
-      <c r="L163" s="209" t="s">
-        <v>1048</v>
-      </c>
-      <c r="M163" s="209"/>
+      <c r="L163" s="211" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M163" s="211"/>
       <c r="N163" s="16"/>
     </row>
     <row r="164">
       <c r="A164" s="24" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B164" s="115" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C164" s="156" t="s">
         <v>484</v>
       </c>
-      <c r="D164" s="213"/>
-      <c r="E164" s="214" t="s">
+      <c r="D164" s="215"/>
+      <c r="E164" s="216" t="s">
         <v>363</v>
       </c>
       <c r="F164" s="14" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="G164" s="131" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="H164" s="13"/>
       <c r="I164" s="16"/>
       <c r="J164" s="16"/>
-      <c r="K164" s="211" t="s">
-        <v>980</v>
+      <c r="K164" s="213" t="s">
+        <v>981</v>
       </c>
       <c r="L164" s="5" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="M164" s="5"/>
       <c r="N164" s="16"/>
     </row>
     <row r="165">
       <c r="A165" s="24" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B165" s="115" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C165" s="156" t="s">
         <v>480</v>
       </c>
-      <c r="D165" s="213"/>
+      <c r="D165" s="215"/>
       <c r="E165" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="F165" s="215" t="s">
-        <v>974</v>
+      <c r="F165" s="217" t="s">
+        <v>975</v>
       </c>
       <c r="G165" s="5"/>
       <c r="H165" s="13"/>
@@ -15919,48 +15934,48 @@
       <c r="K165" s="123">
         <v>0.0</v>
       </c>
-      <c r="L165" s="209" t="s">
+      <c r="L165" s="211" t="s">
         <v>274</v>
       </c>
-      <c r="M165" s="209"/>
+      <c r="M165" s="211"/>
       <c r="N165" s="16"/>
     </row>
     <row r="166">
       <c r="A166" s="24" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B166" s="115" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="C166" s="156" t="s">
         <v>480</v>
       </c>
-      <c r="D166" s="213"/>
+      <c r="D166" s="215"/>
       <c r="E166" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="F166" s="215" t="s">
-        <v>974</v>
+      <c r="F166" s="217" t="s">
+        <v>975</v>
       </c>
       <c r="G166" s="14"/>
       <c r="H166" s="13"/>
       <c r="I166" s="16"/>
       <c r="J166" s="16"/>
       <c r="K166" s="123" t="s">
-        <v>704</v>
-      </c>
-      <c r="L166" s="209" t="s">
-        <v>714</v>
-      </c>
-      <c r="M166" s="209"/>
+        <v>705</v>
+      </c>
+      <c r="L166" s="211" t="s">
+        <v>715</v>
+      </c>
+      <c r="M166" s="211"/>
       <c r="N166" s="16"/>
     </row>
     <row r="167">
       <c r="A167" s="24" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B167" s="115" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C167" s="156" t="s">
         <v>484</v>
@@ -15969,28 +15984,28 @@
       <c r="E167" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="F167" s="215" t="s">
-        <v>974</v>
+      <c r="F167" s="217" t="s">
+        <v>975</v>
       </c>
       <c r="G167" s="14"/>
       <c r="H167" s="25"/>
       <c r="I167" s="16"/>
       <c r="J167" s="16"/>
       <c r="K167" s="123" t="s">
-        <v>709</v>
-      </c>
-      <c r="L167" s="209" t="s">
-        <v>718</v>
-      </c>
-      <c r="M167" s="209"/>
+        <v>710</v>
+      </c>
+      <c r="L167" s="211" t="s">
+        <v>719</v>
+      </c>
+      <c r="M167" s="211"/>
       <c r="N167" s="16"/>
     </row>
     <row r="168">
       <c r="A168" s="18" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B168" s="115" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C168" s="156" t="s">
         <v>484</v>
@@ -15999,28 +16014,28 @@
       <c r="E168" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="F168" s="215" t="s">
-        <v>974</v>
+      <c r="F168" s="217" t="s">
+        <v>975</v>
       </c>
       <c r="G168" s="14"/>
       <c r="H168" s="25"/>
       <c r="I168" s="16"/>
       <c r="J168" s="16"/>
       <c r="K168" s="123" t="s">
-        <v>704</v>
-      </c>
-      <c r="L168" s="209" t="s">
         <v>705</v>
       </c>
-      <c r="M168" s="209"/>
+      <c r="L168" s="211" t="s">
+        <v>706</v>
+      </c>
+      <c r="M168" s="211"/>
       <c r="N168" s="16"/>
     </row>
     <row r="169">
       <c r="A169" s="18" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B169" s="115" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="C169" s="156" t="s">
         <v>484</v>
@@ -16029,20 +16044,20 @@
       <c r="E169" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="F169" s="215" t="s">
-        <v>974</v>
+      <c r="F169" s="217" t="s">
+        <v>975</v>
       </c>
       <c r="G169" s="14"/>
       <c r="H169" s="25"/>
       <c r="I169" s="16"/>
       <c r="J169" s="16"/>
       <c r="K169" s="123" t="s">
-        <v>709</v>
-      </c>
-      <c r="L169" s="209" t="s">
         <v>710</v>
       </c>
-      <c r="M169" s="209"/>
+      <c r="L169" s="211" t="s">
+        <v>711</v>
+      </c>
+      <c r="M169" s="211"/>
       <c r="N169" s="16"/>
     </row>
   </sheetData>
@@ -16070,643 +16085,643 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="216" t="s">
+      <c r="A1" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="217" t="s">
+      <c r="B1" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="218" t="s">
+      <c r="C1" s="220" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="218" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E1" s="216" t="s">
+      <c r="D1" s="220" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E1" s="218" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="219" t="s">
-        <v>1065</v>
+      <c r="F1" s="221" t="s">
+        <v>1066</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="220" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B2" s="221" t="s">
+      <c r="A2" s="222" t="s">
         <v>1067</v>
       </c>
-      <c r="C2" s="222" t="s">
+      <c r="B2" s="223" t="s">
         <v>1068</v>
       </c>
-      <c r="D2" s="222"/>
-      <c r="E2" s="223"/>
-      <c r="F2" s="224"/>
+      <c r="C2" s="224" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D2" s="224"/>
+      <c r="E2" s="225"/>
+      <c r="F2" s="226"/>
     </row>
     <row r="3">
-      <c r="A3" s="220" t="s">
+      <c r="A3" s="222" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B3" s="223" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C3" s="223" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D3" s="223"/>
+      <c r="E3" s="227"/>
+      <c r="F3" s="221" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="222" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B4" s="223" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C4" s="223" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D4" s="223"/>
+      <c r="E4" s="228"/>
+      <c r="F4" s="226"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="222" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B5" s="223" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C5" s="223" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D5" s="223"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="226"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="222" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B6" s="229" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C6" s="223" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D6" s="223"/>
+      <c r="E6" s="227"/>
+      <c r="F6" s="226"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="222" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B7" s="230" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C7" s="223" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D7" s="223"/>
+      <c r="E7" s="221"/>
+      <c r="F7" s="226"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="222" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B8" s="230" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C8" s="223" t="s">
         <v>1069</v>
       </c>
-      <c r="B3" s="221" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C3" s="221" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D3" s="221"/>
-      <c r="E3" s="225"/>
-      <c r="F3" s="219" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="220" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B4" s="221" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C4" s="221" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D4" s="221"/>
-      <c r="E4" s="226"/>
-      <c r="F4" s="224"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="220" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B5" s="221" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C5" s="221" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D5" s="221"/>
-      <c r="E5" s="226"/>
-      <c r="F5" s="224"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="220" t="s">
-        <v>1079</v>
-      </c>
-      <c r="B6" s="227" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C6" s="221" t="s">
+      <c r="D8" s="223"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="226"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="222" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B9" s="230" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C9" s="231" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D9" s="231"/>
+      <c r="E9" s="232"/>
+      <c r="F9" s="226"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="222" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B10" s="230" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C10" s="223" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D10" s="223"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="226"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="222" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B11" s="223" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C11" s="223" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D11" s="223"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="222" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B12" s="233" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C12" s="233" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D12" s="233"/>
+      <c r="E12" s="226"/>
+      <c r="F12" s="226"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="222" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B13" s="234" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C13" s="233" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D13" s="233"/>
+      <c r="E13" s="226"/>
+      <c r="F13" s="226"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="222" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B14" s="234" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C14" s="233" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D14" s="233"/>
+      <c r="E14" s="226"/>
+      <c r="F14" s="226"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="222" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B15" s="234" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C15" s="233" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D15" s="233"/>
+      <c r="E15" s="226"/>
+      <c r="F15" s="226"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="222" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B16" s="234" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C16" s="233" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D16" s="233"/>
+      <c r="E16" s="226"/>
+      <c r="F16" s="226"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="222" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B17" s="234" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C17" s="233" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D17" s="233"/>
+      <c r="E17" s="226"/>
+      <c r="F17" s="226"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="222" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B18" s="234" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C18" s="233" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D18" s="233"/>
+      <c r="E18" s="226"/>
+      <c r="F18" s="226"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="222" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B19" s="234" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C19" s="233" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D19" s="233"/>
+      <c r="E19" s="226"/>
+      <c r="F19" s="226"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="222" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B20" s="234" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C20" s="235" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D20" s="235"/>
+      <c r="E20" s="226"/>
+      <c r="F20" s="226"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="222" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B21" s="236" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C21" s="233" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D21" s="233"/>
+      <c r="E21" s="226"/>
+      <c r="F21" s="226"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="222" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B22" s="234" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D22" s="237" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E22" s="221"/>
+      <c r="F22" s="226"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="222" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B23" s="238" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C23" s="239" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D23" s="239"/>
+      <c r="E23" s="226"/>
+      <c r="F23" s="226"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="222" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B24" s="238" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C24" s="239" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D24" s="239"/>
+      <c r="E24" s="226"/>
+      <c r="F24" s="226"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="222" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B25" s="238" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D25" s="239" t="s">
+        <v>453</v>
+      </c>
+      <c r="E25" s="221"/>
+      <c r="F25" s="226"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="222" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B26" s="233" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C26" s="233" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D26" s="233"/>
+      <c r="E26" s="221"/>
+      <c r="F26" s="226"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="222" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B27" s="233" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C27" s="233" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D27" s="233"/>
+      <c r="E27" s="226"/>
+      <c r="F27" s="226"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="222" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B28" s="233" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C28" s="233" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D28" s="233"/>
+      <c r="E28" s="226"/>
+      <c r="F28" s="226"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="222" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B29" s="240" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C29" s="230" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D29" s="230"/>
+      <c r="E29" s="241"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="222" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B30" s="240" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C30" s="230" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D30" s="230"/>
+      <c r="E30" s="241"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="222" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B31" s="240" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C31" s="230" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D31" s="230"/>
+      <c r="E31" s="241"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="222" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B32" s="240" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C32" s="230" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D32" s="230"/>
+      <c r="E32" s="241"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="222" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B33" s="240" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C33" s="230" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D33" s="230"/>
+      <c r="E33" s="241"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="222" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B34" s="240" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C34" s="230" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D34" s="230"/>
+      <c r="E34" s="241"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="222" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B35" s="240" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C35" s="230" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D35" s="230"/>
+      <c r="E35" s="241"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="222" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B36" s="240" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C36" s="230" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D36" s="230"/>
+      <c r="E36" s="241"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="222" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B37" s="240" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C37" s="230" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D37" s="230"/>
+      <c r="E37" s="241"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="222" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B38" s="240" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C38" s="230" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D38" s="230"/>
+      <c r="E38" s="241"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="222" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B39" s="242" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C39" s="238" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D39" s="238"/>
+      <c r="E39" s="243"/>
+      <c r="F39" s="226"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="222" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B40" s="242" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C40" s="238" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D40" s="238"/>
+      <c r="E40" s="244"/>
+      <c r="F40" s="226"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="222" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B41" s="242" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C41" s="238" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D41" s="238"/>
+      <c r="E41" s="243"/>
+      <c r="F41" s="226"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="222" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B42" s="242" t="s">
         <v>1081</v>
       </c>
-      <c r="D6" s="221"/>
-      <c r="E6" s="225"/>
-      <c r="F6" s="224"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="220" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B7" s="228" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C7" s="221" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D7" s="221"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="224"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="220" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B8" s="228" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C8" s="221" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D8" s="221"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="224"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="220" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B9" s="228" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C9" s="229" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D9" s="229"/>
-      <c r="E9" s="230"/>
-      <c r="F9" s="224"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="220" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B10" s="228" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C10" s="221" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D10" s="221"/>
-      <c r="E10" s="219"/>
-      <c r="F10" s="224"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="220" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B11" s="221" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C11" s="221" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D11" s="221"/>
-      <c r="E11" s="224"/>
-      <c r="F11" s="224"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="220" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B12" s="231" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C12" s="231" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D12" s="231"/>
-      <c r="E12" s="224"/>
-      <c r="F12" s="224"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="220" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B13" s="232" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C13" s="231" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D13" s="231"/>
-      <c r="E13" s="224"/>
-      <c r="F13" s="224"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="220" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B14" s="232" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C14" s="231" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D14" s="231"/>
-      <c r="E14" s="224"/>
-      <c r="F14" s="224"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="220" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B15" s="232" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C15" s="231" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D15" s="231"/>
-      <c r="E15" s="224"/>
-      <c r="F15" s="224"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="220" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B16" s="232" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C16" s="231" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D16" s="231"/>
-      <c r="E16" s="224"/>
-      <c r="F16" s="224"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="220" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B17" s="232" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C17" s="231" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D17" s="231"/>
-      <c r="E17" s="224"/>
-      <c r="F17" s="224"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="220" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B18" s="232" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C18" s="231" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D18" s="231"/>
-      <c r="E18" s="224"/>
-      <c r="F18" s="224"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="220" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B19" s="232" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C19" s="231" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D19" s="231"/>
-      <c r="E19" s="224"/>
-      <c r="F19" s="224"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="220" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B20" s="232" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C20" s="233" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D20" s="233"/>
-      <c r="E20" s="224"/>
-      <c r="F20" s="224"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="220" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B21" s="234" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C21" s="231" t="s">
-        <v>1124</v>
-      </c>
-      <c r="D21" s="231"/>
-      <c r="E21" s="224"/>
-      <c r="F21" s="224"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="220" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B22" s="232" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D22" s="235" t="s">
-        <v>1128</v>
-      </c>
-      <c r="E22" s="219"/>
-      <c r="F22" s="224"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="220" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B23" s="236" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C23" s="237" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D23" s="237"/>
-      <c r="E23" s="224"/>
-      <c r="F23" s="224"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="220" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B24" s="236" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C24" s="237" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D24" s="237"/>
-      <c r="E24" s="224"/>
-      <c r="F24" s="224"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="220" t="s">
-        <v>1135</v>
-      </c>
-      <c r="B25" s="236" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D25" s="237" t="s">
-        <v>453</v>
-      </c>
-      <c r="E25" s="219"/>
-      <c r="F25" s="224"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="220" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B26" s="231" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C26" s="231" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D26" s="231"/>
-      <c r="E26" s="219"/>
-      <c r="F26" s="224"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="220" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B27" s="231" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C27" s="231" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D27" s="231"/>
-      <c r="E27" s="224"/>
-      <c r="F27" s="224"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="220" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B28" s="231" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C28" s="231" t="s">
-        <v>1145</v>
-      </c>
-      <c r="D28" s="231"/>
-      <c r="E28" s="224"/>
-      <c r="F28" s="224"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="220" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B29" s="238" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C29" s="228" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D29" s="228"/>
-      <c r="E29" s="239"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="220" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B30" s="238" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C30" s="228" t="s">
-        <v>1151</v>
-      </c>
-      <c r="D30" s="228"/>
-      <c r="E30" s="239"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="220" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B31" s="238" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C31" s="228" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D31" s="228"/>
-      <c r="E31" s="239"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="220" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B32" s="238" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C32" s="228" t="s">
-        <v>1157</v>
-      </c>
-      <c r="D32" s="228"/>
-      <c r="E32" s="239"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="220" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B33" s="238" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C33" s="228" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D33" s="228"/>
-      <c r="E33" s="239"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="220" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B34" s="238" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C34" s="228" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D34" s="228"/>
-      <c r="E34" s="239"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="220" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B35" s="238" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C35" s="228" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D35" s="228"/>
-      <c r="E35" s="239"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="220" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B36" s="238" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C36" s="228" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D36" s="228"/>
-      <c r="E36" s="239"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="220" t="s">
-        <v>1170</v>
-      </c>
-      <c r="B37" s="238" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C37" s="228" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D37" s="228"/>
-      <c r="E37" s="239"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="220" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B38" s="238" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C38" s="228" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D38" s="228"/>
-      <c r="E38" s="239"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="220" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B39" s="240" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C39" s="236" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D39" s="236"/>
-      <c r="E39" s="241"/>
-      <c r="F39" s="224"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="220" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B40" s="240" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C40" s="236" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D40" s="236"/>
-      <c r="E40" s="242"/>
-      <c r="F40" s="224"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="220" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B41" s="240" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C41" s="236" t="s">
-        <v>1184</v>
-      </c>
-      <c r="D41" s="236"/>
-      <c r="E41" s="241"/>
-      <c r="F41" s="224"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="220" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B42" s="240" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C42" s="243" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D42" s="243"/>
-      <c r="E42" s="224"/>
-      <c r="F42" s="224"/>
+      <c r="C42" s="245" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D42" s="245"/>
+      <c r="E42" s="226"/>
+      <c r="F42" s="226"/>
     </row>
     <row r="43">
-      <c r="A43" s="220" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B43" s="244" t="s">
+      <c r="A43" s="222" t="s">
         <v>1188</v>
       </c>
-      <c r="C43" s="243" t="s">
+      <c r="B43" s="246" t="s">
         <v>1189</v>
       </c>
-      <c r="D43" s="243"/>
-      <c r="E43" s="224"/>
-      <c r="F43" s="224"/>
+      <c r="C43" s="245" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D43" s="245"/>
+      <c r="E43" s="226"/>
+      <c r="F43" s="226"/>
     </row>
     <row r="44">
-      <c r="A44" s="220" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B44" s="244" t="s">
+      <c r="A44" s="222" t="s">
         <v>1191</v>
       </c>
-      <c r="C44" s="245" t="s">
+      <c r="B44" s="246" t="s">
         <v>1192</v>
       </c>
-      <c r="D44" s="245"/>
-      <c r="E44" s="224"/>
-      <c r="F44" s="224"/>
+      <c r="C44" s="247" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D44" s="247"/>
+      <c r="E44" s="226"/>
+      <c r="F44" s="226"/>
     </row>
     <row r="45" ht="20.25" customHeight="1">
-      <c r="A45" s="220" t="s">
-        <v>1193</v>
+      <c r="A45" s="222" t="s">
+        <v>1194</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C45" s="246" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C45" s="248" t="s">
         <v>308</v>
       </c>
-      <c r="D45" s="246"/>
+      <c r="D45" s="248"/>
       <c r="E45" s="16"/>
       <c r="F45" s="50"/>
     </row>
     <row r="46">
-      <c r="A46" s="220" t="s">
-        <v>1195</v>
+      <c r="A46" s="222" t="s">
+        <v>1196</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>312</v>
@@ -16716,39 +16731,39 @@
       <c r="F46" s="50"/>
     </row>
     <row r="47">
-      <c r="A47" s="220" t="s">
-        <v>1197</v>
+      <c r="A47" s="222" t="s">
+        <v>1198</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C47" s="223" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C47" s="225" t="s">
         <v>315</v>
       </c>
-      <c r="D47" s="223"/>
+      <c r="D47" s="225"/>
       <c r="E47" s="16"/>
       <c r="F47" s="30"/>
     </row>
     <row r="48">
-      <c r="A48" s="220" t="s">
-        <v>1199</v>
+      <c r="A48" s="222" t="s">
+        <v>1200</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C48" s="223" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C48" s="225" t="s">
         <v>318</v>
       </c>
-      <c r="D48" s="223"/>
+      <c r="D48" s="225"/>
       <c r="E48" s="16"/>
       <c r="F48" s="30"/>
     </row>
     <row r="49">
-      <c r="A49" s="220" t="s">
-        <v>1201</v>
+      <c r="A49" s="222" t="s">
+        <v>1202</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="C49" s="144" t="s">
         <v>321</v>
@@ -16758,11 +16773,11 @@
       <c r="F49" s="30"/>
     </row>
     <row r="50">
-      <c r="A50" s="220" t="s">
-        <v>1203</v>
+      <c r="A50" s="222" t="s">
+        <v>1204</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="C50" s="144" t="s">
         <v>324</v>
@@ -16772,25 +16787,25 @@
       <c r="F50" s="30"/>
     </row>
     <row r="51">
-      <c r="A51" s="220" t="s">
-        <v>1205</v>
+      <c r="A51" s="222" t="s">
+        <v>1206</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>1206</v>
-      </c>
-      <c r="C51" s="223" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C51" s="225" t="s">
         <v>327</v>
       </c>
-      <c r="D51" s="223"/>
+      <c r="D51" s="225"/>
       <c r="E51" s="16"/>
       <c r="F51" s="30"/>
     </row>
     <row r="52">
-      <c r="A52" s="220" t="s">
-        <v>1207</v>
+      <c r="A52" s="222" t="s">
+        <v>1208</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="C52" s="144" t="s">
         <v>330</v>
@@ -16800,42 +16815,42 @@
       <c r="F52" s="30"/>
     </row>
     <row r="53">
-      <c r="A53" s="220" t="s">
-        <v>1209</v>
+      <c r="A53" s="222" t="s">
+        <v>1210</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C53" s="223" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C53" s="225" t="s">
         <v>333</v>
       </c>
-      <c r="D53" s="223"/>
+      <c r="D53" s="225"/>
       <c r="E53" s="16"/>
       <c r="F53" s="30"/>
     </row>
     <row r="54">
-      <c r="A54" s="247" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B54" s="248" t="s">
+      <c r="A54" s="249" t="s">
         <v>1212</v>
       </c>
-      <c r="C54" s="249" t="s">
+      <c r="B54" s="250" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C54" s="251" t="s">
         <v>336</v>
       </c>
-      <c r="D54" s="249"/>
-      <c r="E54" s="250"/>
-      <c r="F54" s="251"/>
+      <c r="D54" s="251"/>
+      <c r="E54" s="252"/>
+      <c r="F54" s="253"/>
     </row>
     <row r="55">
-      <c r="A55" s="220" t="s">
-        <v>1213</v>
+      <c r="A55" s="222" t="s">
+        <v>1214</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="16"/>
@@ -16871,13 +16886,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>12</v>
@@ -16888,7 +16903,7 @@
     </row>
     <row r="2">
       <c r="A2" s="24" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>481</v>
@@ -16900,11 +16915,11 @@
         <v>269</v>
       </c>
       <c r="F2" s="27"/>
-      <c r="G2" s="252"/>
+      <c r="G2" s="254"/>
     </row>
     <row r="3">
       <c r="A3" s="24" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>491</v>
@@ -16920,7 +16935,7 @@
     </row>
     <row r="4">
       <c r="A4" s="24" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>499</v>
@@ -16936,7 +16951,7 @@
     </row>
     <row r="5">
       <c r="A5" s="24" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="14" t="s">
@@ -16953,7 +16968,7 @@
     </row>
     <row r="6">
       <c r="A6" s="24" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="14" t="s">
@@ -16970,7 +16985,7 @@
     </row>
     <row r="7">
       <c r="A7" s="24" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="14" t="s">
@@ -16987,7 +17002,7 @@
     </row>
     <row r="8">
       <c r="A8" s="24" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="14" t="s">
@@ -17004,7 +17019,7 @@
     </row>
     <row r="9">
       <c r="A9" s="24" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="14" t="s">
@@ -17021,7 +17036,7 @@
     </row>
     <row r="10">
       <c r="A10" s="24" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="14" t="s">
@@ -17038,7 +17053,7 @@
     </row>
     <row r="11">
       <c r="A11" s="24" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="14" t="s">
@@ -17055,7 +17070,7 @@
     </row>
     <row r="12">
       <c r="A12" s="24" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="14" t="s">
@@ -17072,7 +17087,7 @@
     </row>
     <row r="13">
       <c r="A13" s="60" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="B13" s="58"/>
       <c r="C13" s="56" t="s">
@@ -17089,7 +17104,7 @@
     </row>
     <row r="14">
       <c r="A14" s="60" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B14" s="58"/>
       <c r="C14" s="56" t="s">
@@ -17106,7 +17121,7 @@
     </row>
     <row r="15">
       <c r="A15" s="60" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="B15" s="58"/>
       <c r="C15" s="56" t="s">
@@ -17123,7 +17138,7 @@
     </row>
     <row r="16">
       <c r="A16" s="60" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="B16" s="58"/>
       <c r="C16" s="56" t="s">
@@ -17140,7 +17155,7 @@
     </row>
     <row r="17">
       <c r="A17" s="60" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="B17" s="58"/>
       <c r="C17" s="56" t="s">
@@ -17157,7 +17172,7 @@
     </row>
     <row r="18">
       <c r="A18" s="60" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="B18" s="58"/>
       <c r="C18" s="56" t="s">
@@ -17174,7 +17189,7 @@
     </row>
     <row r="19">
       <c r="A19" s="24" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="14" t="s">
@@ -17191,7 +17206,7 @@
     </row>
     <row r="20">
       <c r="A20" s="24" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="14" t="s">
@@ -17208,7 +17223,7 @@
     </row>
     <row r="21">
       <c r="A21" s="24" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="14" t="s">
@@ -17225,7 +17240,7 @@
     </row>
     <row r="22">
       <c r="A22" s="24" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="14" t="s">
@@ -17242,14 +17257,14 @@
     </row>
     <row r="23">
       <c r="A23" s="24" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="14" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="E23" s="24" t="s">
         <v>410</v>
@@ -17259,14 +17274,14 @@
     </row>
     <row r="24">
       <c r="A24" s="24" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="14" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E24" s="24" t="s">
         <v>413</v>
@@ -17276,14 +17291,14 @@
     </row>
     <row r="25">
       <c r="A25" s="24" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="14" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E25" s="24" t="s">
         <v>416</v>
@@ -17293,14 +17308,14 @@
     </row>
     <row r="26">
       <c r="A26" s="24" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="14" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="E26" s="24" t="s">
         <v>419</v>
@@ -17310,14 +17325,14 @@
     </row>
     <row r="27">
       <c r="A27" s="24" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="14" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="E27" s="24" t="s">
         <v>422</v>
@@ -17327,14 +17342,14 @@
     </row>
     <row r="28">
       <c r="A28" s="24" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="14" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="E28" s="24" t="s">
         <v>425</v>
@@ -17344,14 +17359,14 @@
     </row>
     <row r="29">
       <c r="A29" s="24" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="14" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="E29" s="24" t="s">
         <v>428</v>
@@ -17361,14 +17376,14 @@
     </row>
     <row r="30">
       <c r="A30" s="24" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="14" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="E30" s="24" t="s">
         <v>431</v>
@@ -17378,14 +17393,14 @@
     </row>
     <row r="31">
       <c r="A31" s="24" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="14" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E31" s="24" t="s">
         <v>273</v>
@@ -17395,14 +17410,14 @@
     </row>
     <row r="32">
       <c r="A32" s="24" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="14" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="E32" s="24" t="s">
         <v>436</v>
@@ -17412,14 +17427,14 @@
     </row>
     <row r="33">
       <c r="A33" s="24" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="14" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E33" s="24" t="s">
         <v>439</v>
@@ -17429,14 +17444,14 @@
     </row>
     <row r="34">
       <c r="A34" s="24" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="14" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E34" s="24" t="s">
         <v>91</v>
@@ -17446,14 +17461,14 @@
     </row>
     <row r="35">
       <c r="A35" s="24" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B35" s="16"/>
       <c r="C35" s="14" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E35" s="24" t="s">
         <v>96</v>
@@ -17463,14 +17478,14 @@
     </row>
     <row r="36">
       <c r="A36" s="24" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B36" s="16"/>
       <c r="C36" s="14" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E36" s="24" t="s">
         <v>100</v>
@@ -17480,14 +17495,14 @@
     </row>
     <row r="37">
       <c r="A37" s="24" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="14" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E37" s="24" t="s">
         <v>104</v>
@@ -17497,14 +17512,14 @@
     </row>
     <row r="38">
       <c r="A38" s="24" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="14" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="E38" s="24" t="s">
         <v>108</v>
@@ -17514,14 +17529,14 @@
     </row>
     <row r="39">
       <c r="A39" s="24" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="B39" s="16"/>
       <c r="C39" s="14" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="E39" s="24" t="s">
         <v>112</v>
@@ -17531,14 +17546,14 @@
     </row>
     <row r="40">
       <c r="A40" s="24" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="B40" s="16"/>
       <c r="C40" s="14" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="E40" s="24" t="s">
         <v>116</v>
@@ -17548,14 +17563,14 @@
     </row>
     <row r="41">
       <c r="A41" s="24" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B41" s="16"/>
       <c r="C41" s="14" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="E41" s="24" t="s">
         <v>120</v>
@@ -17565,14 +17580,14 @@
     </row>
     <row r="42">
       <c r="A42" s="24" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="B42" s="16"/>
       <c r="C42" s="14" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="E42" s="24" t="s">
         <v>124</v>
@@ -17612,10 +17627,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="2">
@@ -17625,7 +17640,7 @@
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
@@ -17637,7 +17652,7 @@
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
@@ -17671,7 +17686,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="253" t="s">
+      <c r="A1" s="255" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="108" t="s">
@@ -17680,26 +17695,26 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="253" t="s">
+      <c r="D1" s="255" t="s">
         <v>462</v>
       </c>
-      <c r="E1" s="253" t="s">
-        <v>1264</v>
-      </c>
-      <c r="F1" s="253" t="s">
+      <c r="E1" s="255" t="s">
         <v>1265</v>
       </c>
+      <c r="F1" s="255" t="s">
+        <v>1266</v>
+      </c>
       <c r="G1" s="5" t="s">
-        <v>1266</v>
-      </c>
-      <c r="H1" s="254" t="s">
+        <v>1267</v>
+      </c>
+      <c r="H1" s="256" t="s">
         <v>471</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="2">
@@ -17707,16 +17722,16 @@
         <v>380</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1270</v>
-      </c>
-      <c r="D2" s="255"/>
-      <c r="F2" s="254"/>
-      <c r="H2" s="256"/>
+        <v>1271</v>
+      </c>
+      <c r="D2" s="257"/>
+      <c r="F2" s="256"/>
+      <c r="H2" s="258"/>
       <c r="J2" s="5" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="3">
@@ -17724,17 +17739,17 @@
         <v>383</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1273</v>
-      </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="254"/>
-      <c r="F3" s="254"/>
-      <c r="H3" s="254"/>
+        <v>1274</v>
+      </c>
+      <c r="D3" s="258"/>
+      <c r="E3" s="256"/>
+      <c r="F3" s="256"/>
+      <c r="H3" s="256"/>
       <c r="J3" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="4">
@@ -17742,17 +17757,17 @@
         <v>386</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D4" s="258"/>
+      <c r="E4" s="256"/>
+      <c r="F4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="J4" s="5" t="s">
         <v>1275</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D4" s="256"/>
-      <c r="E4" s="254"/>
-      <c r="F4" s="254"/>
-      <c r="H4" s="254"/>
-      <c r="J4" s="5" t="s">
-        <v>1274</v>
       </c>
     </row>
     <row r="5">
@@ -17760,17 +17775,17 @@
         <v>388</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D5" s="254"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="254"/>
-      <c r="H5" s="256"/>
+        <v>1279</v>
+      </c>
+      <c r="D5" s="256"/>
+      <c r="E5" s="256"/>
+      <c r="F5" s="256"/>
+      <c r="H5" s="258"/>
       <c r="J5" s="5" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="6">
@@ -17778,19 +17793,19 @@
         <v>391</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D6" s="254"/>
+        <v>1282</v>
+      </c>
+      <c r="D6" s="256"/>
       <c r="E6" s="116"/>
-      <c r="F6" s="257"/>
+      <c r="F6" s="259"/>
       <c r="H6" s="5" t="s">
         <v>458</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="7">
@@ -17798,17 +17813,17 @@
         <v>398</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D7" s="254"/>
-      <c r="E7" s="254"/>
-      <c r="F7" s="254"/>
-      <c r="H7" s="254"/>
+        <v>1285</v>
+      </c>
+      <c r="D7" s="256"/>
+      <c r="E7" s="256"/>
+      <c r="F7" s="256"/>
+      <c r="H7" s="256"/>
       <c r="J7" s="5" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="8">
@@ -17816,18 +17831,18 @@
         <v>412</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1287</v>
-      </c>
-      <c r="D8" s="254"/>
-      <c r="E8" s="254"/>
-      <c r="F8" s="254"/>
-      <c r="G8" s="254"/>
-      <c r="H8" s="254"/>
+        <v>1288</v>
+      </c>
+      <c r="D8" s="256"/>
+      <c r="E8" s="256"/>
+      <c r="F8" s="256"/>
+      <c r="G8" s="256"/>
+      <c r="H8" s="256"/>
       <c r="J8" s="5" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="9">
@@ -17835,17 +17850,17 @@
         <v>418</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1290</v>
-      </c>
-      <c r="D9" s="254"/>
-      <c r="E9" s="254"/>
-      <c r="F9" s="254"/>
-      <c r="H9" s="254"/>
+        <v>1291</v>
+      </c>
+      <c r="D9" s="256"/>
+      <c r="E9" s="256"/>
+      <c r="F9" s="256"/>
+      <c r="H9" s="256"/>
       <c r="J9" s="5" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="10">
@@ -17853,17 +17868,17 @@
         <v>424</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1292</v>
-      </c>
-      <c r="D10" s="254"/>
-      <c r="E10" s="254"/>
-      <c r="F10" s="254"/>
-      <c r="H10" s="256"/>
+        <v>1293</v>
+      </c>
+      <c r="D10" s="256"/>
+      <c r="E10" s="256"/>
+      <c r="F10" s="256"/>
+      <c r="H10" s="258"/>
       <c r="J10" s="5" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="11">
@@ -17871,18 +17886,18 @@
         <v>430</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1295</v>
-      </c>
-      <c r="D11" s="254"/>
-      <c r="E11" s="254"/>
-      <c r="F11" s="254"/>
-      <c r="G11" s="254"/>
-      <c r="H11" s="254"/>
+        <v>1296</v>
+      </c>
+      <c r="D11" s="256"/>
+      <c r="E11" s="256"/>
+      <c r="F11" s="256"/>
+      <c r="G11" s="256"/>
+      <c r="H11" s="256"/>
       <c r="J11" s="14" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="12">
@@ -17890,18 +17905,18 @@
         <v>415</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1297</v>
-      </c>
-      <c r="D12" s="254"/>
-      <c r="E12" s="254"/>
-      <c r="F12" s="254"/>
-      <c r="G12" s="254"/>
-      <c r="H12" s="254"/>
+        <v>1298</v>
+      </c>
+      <c r="D12" s="256"/>
+      <c r="E12" s="256"/>
+      <c r="F12" s="256"/>
+      <c r="G12" s="256"/>
+      <c r="H12" s="256"/>
       <c r="J12" s="5" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="13">
@@ -17909,17 +17924,17 @@
         <v>421</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1299</v>
-      </c>
-      <c r="D13" s="254"/>
-      <c r="E13" s="254"/>
-      <c r="F13" s="254"/>
-      <c r="H13" s="254"/>
+        <v>1300</v>
+      </c>
+      <c r="D13" s="256"/>
+      <c r="E13" s="256"/>
+      <c r="F13" s="256"/>
+      <c r="H13" s="256"/>
       <c r="J13" s="5" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="14">
@@ -17927,17 +17942,17 @@
         <v>427</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1301</v>
-      </c>
-      <c r="D14" s="254"/>
-      <c r="E14" s="254"/>
-      <c r="F14" s="254"/>
-      <c r="H14" s="256"/>
+        <v>1302</v>
+      </c>
+      <c r="D14" s="256"/>
+      <c r="E14" s="256"/>
+      <c r="F14" s="256"/>
+      <c r="H14" s="258"/>
       <c r="J14" s="5" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="15">
@@ -17945,18 +17960,18 @@
         <v>433</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1303</v>
-      </c>
-      <c r="D15" s="254"/>
-      <c r="E15" s="254"/>
-      <c r="F15" s="254"/>
-      <c r="G15" s="254"/>
-      <c r="H15" s="254"/>
+        <v>1304</v>
+      </c>
+      <c r="D15" s="256"/>
+      <c r="E15" s="256"/>
+      <c r="F15" s="256"/>
+      <c r="G15" s="256"/>
+      <c r="H15" s="256"/>
       <c r="J15" s="14" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="16">
@@ -17964,19 +17979,19 @@
         <v>435</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1305</v>
-      </c>
-      <c r="D16" s="256"/>
-      <c r="E16" s="254"/>
-      <c r="F16" s="254"/>
+        <v>1306</v>
+      </c>
+      <c r="D16" s="258"/>
+      <c r="E16" s="256"/>
+      <c r="F16" s="256"/>
       <c r="H16" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="J16" s="258" t="s">
-        <v>1293</v>
+      <c r="J16" s="260" t="s">
+        <v>1294</v>
       </c>
     </row>
     <row r="17">
@@ -17984,18 +17999,18 @@
         <v>438</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1307</v>
-      </c>
-      <c r="E17" s="254"/>
-      <c r="F17" s="259"/>
-      <c r="H17" s="260" t="s">
         <v>1308</v>
       </c>
-      <c r="J17" s="258" t="s">
-        <v>1293</v>
+      <c r="E17" s="256"/>
+      <c r="F17" s="261"/>
+      <c r="H17" s="262" t="s">
+        <v>1309</v>
+      </c>
+      <c r="J17" s="260" t="s">
+        <v>1294</v>
       </c>
     </row>
     <row r="18">
@@ -18003,18 +18018,18 @@
         <v>442</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1310</v>
-      </c>
-      <c r="E18" s="254"/>
-      <c r="F18" s="259"/>
+        <v>1311</v>
+      </c>
+      <c r="E18" s="256"/>
+      <c r="F18" s="261"/>
       <c r="H18" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="J18" s="258" t="s">
-        <v>1293</v>
+      <c r="J18" s="260" t="s">
+        <v>1294</v>
       </c>
     </row>
   </sheetData>
@@ -18040,66 +18055,66 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="261" t="s">
-        <v>1312</v>
+      <c r="A2" s="263" t="s">
+        <v>1313</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="261" t="s">
+      <c r="A3" s="263" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>1315</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1314</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="261" t="s">
-        <v>1317</v>
+      <c r="A4" s="263" t="s">
+        <v>1318</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="5" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5"/>
-      <c r="B6" s="262" t="s">
-        <v>1320</v>
+      <c r="B6" s="264" t="s">
+        <v>1321</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5"/>
-      <c r="B7" s="262" t="s">
+      <c r="B7" s="264" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>1322</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>1321</v>
       </c>
     </row>
   </sheetData>

--- a/models/ard-arm-cardiac/source/ard-arm-cardiac.xlsx
+++ b/models/ard-arm-cardiac/source/ard-arm-cardiac.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2546" uniqueCount="1483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2550" uniqueCount="1484">
   <si>
     <t>id</t>
   </si>
@@ -1231,6 +1231,12 @@
     <t>Soma of PSPR neuron in dorsal motor vagus_Neuron 4 (aacar)</t>
   </si>
   <si>
+    <t>sn-c8_5</t>
+  </si>
+  <si>
+    <t>Soma of SPR neuron in C8 layer 6 Neuron 5 (aacar)</t>
+  </si>
+  <si>
     <t>Soma of SPR neuron in T1 layer 6_ Neuron 5 (aacar)</t>
   </si>
   <si>
@@ -1849,7 +1855,7 @@
     <t>A9, A9, A32, A38, A50</t>
   </si>
   <si>
-    <t>0:yy0,1:yy1,2:m5-t1j,3:yy3,4:yy4</t>
+    <t>0:yy0,1:yy1,2:m5-t1j,3:yy3,4:m5-t1</t>
   </si>
   <si>
     <t>ac_c8_5</t>
@@ -3421,6 +3427,9 @@
     <t>Dendrite in layer 1 of c7 spinal cord segment_Neuron 14 (aacar)</t>
   </si>
   <si>
+    <t>ns300_n14</t>
+  </si>
+  <si>
     <t>ns300_1</t>
   </si>
   <si>
@@ -3430,7 +3439,7 @@
     <t>Axon in layer 1 of c7 spinal cord segment to layer X_Neuron 14 (aacar)</t>
   </si>
   <si>
-    <t>ns302</t>
+    <t>ns301_n14</t>
   </si>
   <si>
     <t>ns302_1</t>
@@ -3448,9 +3457,6 @@
     <t>Axon in layer 1 of c7 spinal cord segment_ to layer VII_Neuron 14 (aacar)</t>
   </si>
   <si>
-    <t>ns303</t>
-  </si>
-  <si>
     <t>ns303_1</t>
   </si>
   <si>
@@ -3971,9 +3977,6 @@
   </si>
   <si>
     <t>lnk-sn-c8_5</t>
-  </si>
-  <si>
-    <t>sn-c8_5</t>
   </si>
   <si>
     <t>lnk-sn-t1_5</t>
@@ -6051,122 +6054,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="117" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B1" s="117" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="284" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="B2" s="285" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="284" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B3" s="285" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="284" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="B4" s="286" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="284" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="B5" s="286" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="284" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="B6" s="286" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="284" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="B7" s="286" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="284" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="B8" s="286" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="284" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="B9" s="286" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="284" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="B10" s="286" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="284" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="B11" s="286" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="B12" s="285" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="31" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="B13" s="285" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="31" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="B14" s="285" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B15" s="119" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
   </sheetData>
@@ -6202,16 +6205,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
@@ -6227,13 +6230,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
@@ -6274,13 +6277,13 @@
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -6297,10 +6300,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -6315,10 +6318,10 @@
     <row r="7">
       <c r="A7" s="16"/>
       <c r="B7" s="16" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>1454</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>1453</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -6333,10 +6336,10 @@
     <row r="8">
       <c r="A8" s="16"/>
       <c r="B8" s="16" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
@@ -6351,10 +6354,10 @@
     <row r="9">
       <c r="A9" s="16"/>
       <c r="B9" s="16" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
@@ -6382,10 +6385,10 @@
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -6400,10 +6403,10 @@
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="B12" s="287" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -6418,10 +6421,10 @@
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B13" s="287" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -6436,10 +6439,10 @@
     </row>
     <row r="14">
       <c r="A14" s="16" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B14" s="287" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -6454,10 +6457,10 @@
     </row>
     <row r="15">
       <c r="A15" s="16" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="B15" s="287" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -6472,10 +6475,10 @@
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B16" s="98" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -6490,10 +6493,10 @@
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -6522,10 +6525,10 @@
     </row>
     <row r="19">
       <c r="A19" s="16" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="B19" s="98" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -6540,7 +6543,7 @@
     </row>
     <row r="20">
       <c r="A20" s="16" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="B20" s="126" t="s">
         <v>6</v>
@@ -6558,10 +6561,10 @@
     </row>
     <row r="21">
       <c r="A21" s="16" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B21" s="126" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="L21" s="16"/>
     </row>
@@ -6591,28 +6594,28 @@
     </row>
     <row r="28">
       <c r="A28" s="288" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B28" s="289" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="L28" s="16"/>
     </row>
     <row r="29">
       <c r="A29" s="288" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="B29" s="290" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="L29" s="16"/>
     </row>
     <row r="30">
       <c r="A30" s="288" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B30" s="291" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="C30" s="289"/>
       <c r="D30" s="289"/>
@@ -6627,13 +6630,13 @@
     </row>
     <row r="31" hidden="1">
       <c r="A31" s="16" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="L31" s="16"/>
     </row>
     <row r="32" hidden="1">
       <c r="A32" s="16" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="L32" s="16"/>
     </row>
@@ -9847,10 +9850,10 @@
     </row>
     <row r="111">
       <c r="A111" s="30" t="s">
-        <v>53</v>
+        <v>392</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C111" s="13" t="s">
         <v>381</v>
@@ -9873,13 +9876,11 @@
       <c r="O111" s="16"/>
       <c r="P111" s="16"/>
       <c r="Q111" s="16"/>
-      <c r="R111" s="14" t="s">
-        <v>393</v>
-      </c>
+      <c r="R111" s="14"/>
     </row>
     <row r="112">
       <c r="A112" s="30" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B112" s="14" t="s">
         <v>394</v>
@@ -9905,14 +9906,16 @@
       <c r="O112" s="16"/>
       <c r="P112" s="16"/>
       <c r="Q112" s="16"/>
-      <c r="R112" s="16"/>
+      <c r="R112" s="14" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="30" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C113" s="13" t="s">
         <v>381</v>
@@ -9939,10 +9942,10 @@
     </row>
     <row r="114">
       <c r="A114" s="30" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C114" s="13" t="s">
         <v>381</v>
@@ -9969,10 +9972,10 @@
     </row>
     <row r="115">
       <c r="A115" s="30" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C115" s="13" t="s">
         <v>381</v>
@@ -9999,10 +10002,10 @@
     </row>
     <row r="116">
       <c r="A116" s="30" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C116" s="13" t="s">
         <v>381</v>
@@ -10029,10 +10032,10 @@
     </row>
     <row r="117">
       <c r="A117" s="30" t="s">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C117" s="13" t="s">
         <v>381</v>
@@ -10055,13 +10058,11 @@
       <c r="O117" s="16"/>
       <c r="P117" s="16"/>
       <c r="Q117" s="16"/>
-      <c r="R117" s="14" t="s">
-        <v>400</v>
-      </c>
+      <c r="R117" s="16"/>
     </row>
     <row r="118">
       <c r="A118" s="30" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B118" s="14" t="s">
         <v>401</v>
@@ -10074,7 +10075,7 @@
       <c r="F118" s="102" t="s">
         <v>371</v>
       </c>
-      <c r="G118" s="13"/>
+      <c r="G118" s="16"/>
       <c r="H118" s="17"/>
       <c r="I118" s="16"/>
       <c r="J118" s="16"/>
@@ -10083,18 +10084,20 @@
         <v>229.0</v>
       </c>
       <c r="M118" s="16"/>
-      <c r="N118" s="13"/>
+      <c r="N118" s="16"/>
       <c r="O118" s="16"/>
       <c r="P118" s="16"/>
       <c r="Q118" s="16"/>
-      <c r="R118" s="16"/>
+      <c r="R118" s="14" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="30" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C119" s="13" t="s">
         <v>381</v>
@@ -10104,7 +10107,7 @@
       <c r="F119" s="102" t="s">
         <v>371</v>
       </c>
-      <c r="G119" s="16"/>
+      <c r="G119" s="13"/>
       <c r="H119" s="17"/>
       <c r="I119" s="16"/>
       <c r="J119" s="16"/>
@@ -10113,7 +10116,7 @@
         <v>229.0</v>
       </c>
       <c r="M119" s="16"/>
-      <c r="N119" s="16"/>
+      <c r="N119" s="13"/>
       <c r="O119" s="16"/>
       <c r="P119" s="16"/>
       <c r="Q119" s="16"/>
@@ -10121,10 +10124,10 @@
     </row>
     <row r="120">
       <c r="A120" s="30" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C120" s="13" t="s">
         <v>381</v>
@@ -10151,10 +10154,10 @@
     </row>
     <row r="121">
       <c r="A121" s="30" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C121" s="13" t="s">
         <v>381</v>
@@ -10181,10 +10184,10 @@
     </row>
     <row r="122">
       <c r="A122" s="30" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C122" s="13" t="s">
         <v>381</v>
@@ -10211,7 +10214,7 @@
     </row>
     <row r="123">
       <c r="A123" s="30" t="s">
-        <v>406</v>
+        <v>211</v>
       </c>
       <c r="B123" s="14" t="s">
         <v>407</v>
@@ -10271,10 +10274,10 @@
     </row>
     <row r="125">
       <c r="A125" s="30" t="s">
-        <v>239</v>
+        <v>410</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C125" s="13" t="s">
         <v>381</v>
@@ -10301,10 +10304,10 @@
     </row>
     <row r="126">
       <c r="A126" s="30" t="s">
-        <v>311</v>
+        <v>239</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C126" s="13" t="s">
         <v>381</v>
@@ -10331,7 +10334,7 @@
     </row>
     <row r="127">
       <c r="A127" s="30" t="s">
-        <v>412</v>
+        <v>311</v>
       </c>
       <c r="B127" s="14" t="s">
         <v>413</v>
@@ -10357,16 +10360,14 @@
       <c r="O127" s="16"/>
       <c r="P127" s="16"/>
       <c r="Q127" s="16"/>
-      <c r="R127" s="14" t="s">
-        <v>414</v>
-      </c>
+      <c r="R127" s="16"/>
     </row>
     <row r="128">
       <c r="A128" s="30" t="s">
+        <v>414</v>
+      </c>
+      <c r="B128" s="14" t="s">
         <v>415</v>
-      </c>
-      <c r="B128" s="14" t="s">
-        <v>416</v>
       </c>
       <c r="C128" s="13" t="s">
         <v>381</v>
@@ -10390,15 +10391,15 @@
       <c r="P128" s="16"/>
       <c r="Q128" s="16"/>
       <c r="R128" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="30" t="s">
+        <v>417</v>
+      </c>
+      <c r="B129" s="14" t="s">
         <v>418</v>
-      </c>
-      <c r="B129" s="14" t="s">
-        <v>419</v>
       </c>
       <c r="C129" s="13" t="s">
         <v>381</v>
@@ -10422,15 +10423,15 @@
       <c r="P129" s="16"/>
       <c r="Q129" s="16"/>
       <c r="R129" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="30" t="s">
+        <v>420</v>
+      </c>
+      <c r="B130" s="14" t="s">
         <v>421</v>
-      </c>
-      <c r="B130" s="14" t="s">
-        <v>422</v>
       </c>
       <c r="C130" s="13" t="s">
         <v>381</v>
@@ -10454,15 +10455,15 @@
       <c r="P130" s="16"/>
       <c r="Q130" s="16"/>
       <c r="R130" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="B131" s="14" t="s">
         <v>424</v>
-      </c>
-      <c r="B131" s="14" t="s">
-        <v>425</v>
       </c>
       <c r="C131" s="13" t="s">
         <v>381</v>
@@ -10486,15 +10487,15 @@
       <c r="P131" s="16"/>
       <c r="Q131" s="16"/>
       <c r="R131" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="B132" s="14" t="s">
         <v>427</v>
-      </c>
-      <c r="B132" s="14" t="s">
-        <v>428</v>
       </c>
       <c r="C132" s="13" t="s">
         <v>381</v>
@@ -10518,15 +10519,15 @@
       <c r="P132" s="16"/>
       <c r="Q132" s="16"/>
       <c r="R132" s="14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="B133" s="14" t="s">
         <v>430</v>
-      </c>
-      <c r="B133" s="14" t="s">
-        <v>431</v>
       </c>
       <c r="C133" s="13" t="s">
         <v>381</v>
@@ -10550,15 +10551,15 @@
       <c r="P133" s="16"/>
       <c r="Q133" s="16"/>
       <c r="R133" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="B134" s="14" t="s">
         <v>433</v>
-      </c>
-      <c r="B134" s="14" t="s">
-        <v>434</v>
       </c>
       <c r="C134" s="13" t="s">
         <v>381</v>
@@ -10582,12 +10583,12 @@
       <c r="P134" s="16"/>
       <c r="Q134" s="16"/>
       <c r="R134" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="30" t="s">
-        <v>275</v>
+        <v>435</v>
       </c>
       <c r="B135" s="14" t="s">
         <v>436</v>
@@ -10618,43 +10619,43 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="104" t="s">
+      <c r="A136" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="B136" s="14" t="s">
         <v>438</v>
       </c>
-      <c r="B136" s="105" t="s">
+      <c r="C136" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="D136" s="54"/>
+      <c r="E136" s="31"/>
+      <c r="F136" s="102" t="s">
+        <v>371</v>
+      </c>
+      <c r="G136" s="16"/>
+      <c r="H136" s="17"/>
+      <c r="I136" s="16"/>
+      <c r="J136" s="16"/>
+      <c r="K136" s="31"/>
+      <c r="L136" s="14">
+        <v>229.0</v>
+      </c>
+      <c r="M136" s="16"/>
+      <c r="N136" s="16"/>
+      <c r="O136" s="16"/>
+      <c r="P136" s="16"/>
+      <c r="Q136" s="16"/>
+      <c r="R136" s="14" t="s">
         <v>439</v>
-      </c>
-      <c r="C136" s="106" t="s">
-        <v>381</v>
-      </c>
-      <c r="D136" s="107"/>
-      <c r="E136" s="108"/>
-      <c r="F136" s="109" t="s">
-        <v>371</v>
-      </c>
-      <c r="G136" s="110"/>
-      <c r="H136" s="111"/>
-      <c r="I136" s="110"/>
-      <c r="J136" s="110"/>
-      <c r="K136" s="108"/>
-      <c r="L136" s="105">
-        <v>229.0</v>
-      </c>
-      <c r="M136" s="110"/>
-      <c r="N136" s="110"/>
-      <c r="O136" s="110"/>
-      <c r="P136" s="110"/>
-      <c r="Q136" s="110"/>
-      <c r="R136" s="105" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="104" t="s">
+        <v>440</v>
+      </c>
+      <c r="B137" s="105" t="s">
         <v>441</v>
-      </c>
-      <c r="B137" s="105" t="s">
-        <v>442</v>
       </c>
       <c r="C137" s="106" t="s">
         <v>381</v>
@@ -10677,43 +10678,43 @@
       <c r="O137" s="110"/>
       <c r="P137" s="110"/>
       <c r="Q137" s="110"/>
-      <c r="R137" s="110"/>
+      <c r="R137" s="105" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="138">
-      <c r="A138" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B138" s="14" t="s">
+      <c r="A138" s="104" t="s">
         <v>443</v>
       </c>
-      <c r="C138" s="13" t="s">
+      <c r="B138" s="105" t="s">
+        <v>444</v>
+      </c>
+      <c r="C138" s="106" t="s">
         <v>381</v>
       </c>
-      <c r="D138" s="54"/>
-      <c r="E138" s="31"/>
-      <c r="F138" s="102" t="s">
+      <c r="D138" s="107"/>
+      <c r="E138" s="108"/>
+      <c r="F138" s="109" t="s">
         <v>371</v>
       </c>
-      <c r="G138" s="16"/>
-      <c r="H138" s="17"/>
-      <c r="I138" s="16"/>
-      <c r="J138" s="16"/>
-      <c r="K138" s="31"/>
-      <c r="L138" s="14">
+      <c r="G138" s="110"/>
+      <c r="H138" s="111"/>
+      <c r="I138" s="110"/>
+      <c r="J138" s="110"/>
+      <c r="K138" s="108"/>
+      <c r="L138" s="105">
         <v>229.0</v>
       </c>
-      <c r="M138" s="16"/>
-      <c r="N138" s="16"/>
-      <c r="O138" s="16"/>
-      <c r="P138" s="16"/>
-      <c r="Q138" s="16"/>
-      <c r="R138" s="14" t="s">
-        <v>444</v>
-      </c>
+      <c r="M138" s="110"/>
+      <c r="N138" s="110"/>
+      <c r="O138" s="110"/>
+      <c r="P138" s="110"/>
+      <c r="Q138" s="110"/>
+      <c r="R138" s="110"/>
     </row>
     <row r="139">
       <c r="A139" s="30" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B139" s="14" t="s">
         <v>445</v>
@@ -10739,14 +10740,16 @@
       <c r="O139" s="16"/>
       <c r="P139" s="16"/>
       <c r="Q139" s="16"/>
-      <c r="R139" s="16"/>
+      <c r="R139" s="14" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="30" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C140" s="13" t="s">
         <v>381</v>
@@ -10773,10 +10776,10 @@
     </row>
     <row r="141">
       <c r="A141" s="30" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C141" s="13" t="s">
         <v>381</v>
@@ -10803,10 +10806,10 @@
     </row>
     <row r="142">
       <c r="A142" s="30" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C142" s="13" t="s">
         <v>381</v>
@@ -10833,10 +10836,10 @@
     </row>
     <row r="143">
       <c r="A143" s="30" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C143" s="13" t="s">
         <v>381</v>
@@ -10863,10 +10866,10 @@
     </row>
     <row r="144">
       <c r="A144" s="30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C144" s="13" t="s">
         <v>381</v>
@@ -10893,10 +10896,10 @@
     </row>
     <row r="145">
       <c r="A145" s="30" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C145" s="13" t="s">
         <v>381</v>
@@ -10923,10 +10926,10 @@
     </row>
     <row r="146">
       <c r="A146" s="30" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C146" s="13" t="s">
         <v>381</v>
@@ -10953,23 +10956,27 @@
     </row>
     <row r="147">
       <c r="A147" s="30" t="s">
-        <v>453</v>
+        <v>126</v>
       </c>
       <c r="B147" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="C147" s="15" t="s">
-        <v>455</v>
+      <c r="C147" s="13" t="s">
+        <v>381</v>
       </c>
       <c r="D147" s="54"/>
       <c r="E147" s="31"/>
-      <c r="F147" s="102"/>
+      <c r="F147" s="102" t="s">
+        <v>371</v>
+      </c>
       <c r="G147" s="16"/>
       <c r="H147" s="17"/>
       <c r="I147" s="16"/>
       <c r="J147" s="16"/>
       <c r="K147" s="31"/>
-      <c r="L147" s="14"/>
+      <c r="L147" s="14">
+        <v>229.0</v>
+      </c>
       <c r="M147" s="16"/>
       <c r="N147" s="16"/>
       <c r="O147" s="16"/>
@@ -10979,19 +10986,17 @@
     </row>
     <row r="148">
       <c r="A148" s="30" t="s">
+        <v>455</v>
+      </c>
+      <c r="B148" s="14" t="s">
         <v>456</v>
       </c>
-      <c r="B148" s="14" t="s">
+      <c r="C148" s="15" t="s">
         <v>457</v>
-      </c>
-      <c r="C148" s="15" t="s">
-        <v>458</v>
       </c>
       <c r="D148" s="54"/>
       <c r="E148" s="31"/>
-      <c r="F148" s="102" t="s">
-        <v>371</v>
-      </c>
+      <c r="F148" s="102"/>
       <c r="G148" s="16"/>
       <c r="H148" s="17"/>
       <c r="I148" s="16"/>
@@ -11007,13 +11012,13 @@
     </row>
     <row r="149">
       <c r="A149" s="30" t="s">
+        <v>458</v>
+      </c>
+      <c r="B149" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="B149" s="14" t="s">
+      <c r="C149" s="15" t="s">
         <v>460</v>
-      </c>
-      <c r="C149" s="15" t="s">
-        <v>461</v>
       </c>
       <c r="D149" s="54"/>
       <c r="E149" s="31"/>
@@ -11035,13 +11040,13 @@
     </row>
     <row r="150">
       <c r="A150" s="30" t="s">
+        <v>461</v>
+      </c>
+      <c r="B150" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="B150" s="14" t="s">
+      <c r="C150" s="15" t="s">
         <v>463</v>
-      </c>
-      <c r="C150" s="15" t="s">
-        <v>464</v>
       </c>
       <c r="D150" s="54"/>
       <c r="E150" s="31"/>
@@ -11063,13 +11068,13 @@
     </row>
     <row r="151">
       <c r="A151" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="B151" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="B151" s="14" t="s">
+      <c r="C151" s="15" t="s">
         <v>466</v>
-      </c>
-      <c r="C151" s="112" t="s">
-        <v>467</v>
       </c>
       <c r="D151" s="54"/>
       <c r="E151" s="31"/>
@@ -11091,13 +11096,13 @@
     </row>
     <row r="152">
       <c r="A152" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="B152" s="14" t="s">
         <v>468</v>
       </c>
-      <c r="B152" s="14" t="s">
+      <c r="C152" s="112" t="s">
         <v>469</v>
-      </c>
-      <c r="C152" s="113" t="s">
-        <v>470</v>
       </c>
       <c r="D152" s="54"/>
       <c r="E152" s="31"/>
@@ -11119,27 +11124,31 @@
     </row>
     <row r="153">
       <c r="A153" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="B153" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="B153" s="14" t="s">
+      <c r="C153" s="113" t="s">
         <v>472</v>
       </c>
-      <c r="C153" s="114"/>
-      <c r="D153" s="16"/>
+      <c r="D153" s="54"/>
       <c r="E153" s="31"/>
-      <c r="F153" s="115"/>
+      <c r="F153" s="102" t="s">
+        <v>371</v>
+      </c>
       <c r="G153" s="16"/>
       <c r="H153" s="17"/>
       <c r="I153" s="16"/>
       <c r="J153" s="16"/>
       <c r="K153" s="31"/>
-      <c r="L153" s="33"/>
+      <c r="L153" s="14"/>
       <c r="M153" s="16"/>
       <c r="N153" s="16"/>
       <c r="O153" s="16"/>
       <c r="P153" s="16"/>
       <c r="Q153" s="16"/>
-      <c r="R153" s="14"/>
+      <c r="R153" s="16"/>
     </row>
     <row r="154">
       <c r="A154" s="30" t="s">
@@ -11148,37 +11157,29 @@
       <c r="B154" s="14" t="s">
         <v>474</v>
       </c>
-      <c r="C154" s="13" t="s">
-        <v>381</v>
-      </c>
+      <c r="C154" s="114"/>
       <c r="D154" s="16"/>
       <c r="E154" s="31"/>
-      <c r="F154" s="115" t="s">
-        <v>371</v>
-      </c>
+      <c r="F154" s="115"/>
       <c r="G154" s="16"/>
       <c r="H154" s="17"/>
       <c r="I154" s="16"/>
       <c r="J154" s="16"/>
       <c r="K154" s="31"/>
-      <c r="L154" s="33">
-        <v>229.0</v>
-      </c>
+      <c r="L154" s="33"/>
       <c r="M154" s="16"/>
       <c r="N154" s="16"/>
       <c r="O154" s="16"/>
       <c r="P154" s="16"/>
       <c r="Q154" s="16"/>
-      <c r="R154" s="14" t="s">
-        <v>475</v>
-      </c>
+      <c r="R154" s="14"/>
     </row>
     <row r="155">
       <c r="A155" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="B155" s="14" t="s">
         <v>476</v>
-      </c>
-      <c r="B155" s="14" t="s">
-        <v>477</v>
       </c>
       <c r="C155" s="13" t="s">
         <v>381</v>
@@ -11202,7 +11203,39 @@
       <c r="P155" s="16"/>
       <c r="Q155" s="16"/>
       <c r="R155" s="14" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="30" t="s">
         <v>478</v>
+      </c>
+      <c r="B156" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="C156" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="D156" s="16"/>
+      <c r="E156" s="31"/>
+      <c r="F156" s="115" t="s">
+        <v>371</v>
+      </c>
+      <c r="G156" s="16"/>
+      <c r="H156" s="17"/>
+      <c r="I156" s="16"/>
+      <c r="J156" s="16"/>
+      <c r="K156" s="31"/>
+      <c r="L156" s="33">
+        <v>229.0</v>
+      </c>
+      <c r="M156" s="16"/>
+      <c r="N156" s="16"/>
+      <c r="O156" s="16"/>
+      <c r="P156" s="16"/>
+      <c r="Q156" s="16"/>
+      <c r="R156" s="14" t="s">
+        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -11233,32 +11266,32 @@
         <v>1</v>
       </c>
       <c r="C1" s="117" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D1" s="117" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E1" s="54" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F1" s="54" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="118" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="119" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -11310,58 +11343,58 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="J1" s="121" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K1" s="122" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L1" s="123" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="M1" s="124" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="14" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B2" s="125" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D2" s="126" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="31" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="H2" s="127">
         <v>100.0</v>
@@ -11375,23 +11408,23 @@
     </row>
     <row r="3">
       <c r="A3" s="30" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B3" s="128" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C3" s="129" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D3" s="31"/>
       <c r="E3" s="20" t="s">
         <v>372</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="H3" s="130"/>
       <c r="I3" s="16"/>
@@ -11407,23 +11440,23 @@
     </row>
     <row r="4">
       <c r="A4" s="30" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B4" s="128" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C4" s="129" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D4" s="31"/>
       <c r="E4" s="20" t="s">
         <v>365</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="H4" s="130"/>
       <c r="I4" s="16"/>
@@ -11439,23 +11472,23 @@
     </row>
     <row r="5">
       <c r="A5" s="30" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B5" s="125" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C5" s="129" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="20" t="s">
         <v>372</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="H5" s="130"/>
       <c r="I5" s="16"/>
@@ -11471,23 +11504,23 @@
     </row>
     <row r="6">
       <c r="A6" s="133" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B6" s="134" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C6" s="129" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D6" s="135"/>
       <c r="E6" s="20" t="s">
         <v>365</v>
       </c>
       <c r="F6" s="136" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G6" s="137" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="H6" s="138"/>
       <c r="I6" s="139"/>
@@ -11503,20 +11536,20 @@
     </row>
     <row r="7">
       <c r="A7" s="30" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B7" s="128" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C7" s="129" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D7" s="31"/>
       <c r="E7" s="20" t="s">
         <v>372</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="130"/>
@@ -11533,23 +11566,23 @@
     </row>
     <row r="8">
       <c r="A8" s="30" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B8" s="128" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C8" s="129" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D8" s="31"/>
       <c r="E8" s="20" t="s">
         <v>369</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="16"/>
@@ -11558,27 +11591,27 @@
         <v>259</v>
       </c>
       <c r="L8" s="132" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="M8" s="132"/>
       <c r="N8" s="16"/>
     </row>
     <row r="9">
       <c r="A9" s="30" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B9" s="142" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C9" s="129" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="20" t="s">
         <v>372</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="G9" s="54"/>
       <c r="H9" s="13"/>
@@ -11595,116 +11628,116 @@
     </row>
     <row r="10">
       <c r="A10" s="15" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B10" s="142" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C10" s="129" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="20" t="s">
         <v>369</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
       <c r="K10" s="131" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="L10" s="132" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="M10" s="132"/>
       <c r="N10" s="16"/>
     </row>
     <row r="11">
       <c r="A11" s="15" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B11" s="128" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C11" s="129" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="20" t="s">
         <v>365</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="131" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="L11" s="132" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="M11" s="132"/>
       <c r="N11" s="16"/>
     </row>
     <row r="12">
       <c r="A12" s="15" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B12" s="128" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C12" s="129" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="20" t="s">
         <v>365</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="131" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="L12" s="132" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="M12" s="132"/>
       <c r="N12" s="16"/>
     </row>
     <row r="13">
       <c r="A13" s="143" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B13" s="144" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D13" s="45"/>
       <c r="E13" s="145" t="s">
         <v>372</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="G13" s="146"/>
       <c r="H13" s="42"/>
@@ -11721,20 +11754,20 @@
     </row>
     <row r="14">
       <c r="A14" s="143" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B14" s="144" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D14" s="45"/>
       <c r="E14" s="145" t="s">
         <v>372</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="G14" s="146"/>
       <c r="H14" s="42"/>
@@ -11751,20 +11784,20 @@
     </row>
     <row r="15">
       <c r="A15" s="133" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B15" s="149" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C15" s="135" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D15" s="135"/>
       <c r="E15" s="150" t="s">
         <v>372</v>
       </c>
       <c r="F15" s="136" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="G15" s="151"/>
       <c r="H15" s="114"/>
@@ -11781,20 +11814,20 @@
     </row>
     <row r="16">
       <c r="A16" s="143" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B16" s="144" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D16" s="45"/>
       <c r="E16" s="145" t="s">
         <v>372</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="G16" s="146"/>
       <c r="H16" s="42"/>
@@ -11811,20 +11844,20 @@
     </row>
     <row r="17">
       <c r="A17" s="143" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B17" s="144" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D17" s="45"/>
       <c r="E17" s="145" t="s">
         <v>372</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G17" s="146"/>
       <c r="H17" s="42"/>
@@ -11841,20 +11874,20 @@
     </row>
     <row r="18">
       <c r="A18" s="143" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B18" s="144" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D18" s="45"/>
       <c r="E18" s="145" t="s">
         <v>372</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="G18" s="153"/>
       <c r="H18" s="42"/>
@@ -11871,20 +11904,20 @@
     </row>
     <row r="19">
       <c r="A19" s="143" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B19" s="144" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D19" s="45"/>
       <c r="E19" s="145" t="s">
         <v>372</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="G19" s="154"/>
       <c r="H19" s="42"/>
@@ -11901,375 +11934,375 @@
     </row>
     <row r="20">
       <c r="A20" s="143" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B20" s="144" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D20" s="45"/>
       <c r="E20" s="145" t="s">
         <v>369</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="G20" s="154" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="40"/>
       <c r="J20" s="40"/>
       <c r="K20" s="147" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="L20" s="148" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="M20" s="148"/>
       <c r="N20" s="40"/>
     </row>
     <row r="21">
       <c r="A21" s="143" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B21" s="144" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D21" s="45"/>
       <c r="E21" s="145" t="s">
         <v>369</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="H21" s="42"/>
       <c r="I21" s="40"/>
       <c r="J21" s="40"/>
       <c r="K21" s="147" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="L21" s="148" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="M21" s="148"/>
       <c r="N21" s="40"/>
     </row>
     <row r="22">
       <c r="A22" s="143" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B22" s="144" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D22" s="45"/>
       <c r="E22" s="145" t="s">
         <v>369</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H22" s="42"/>
       <c r="I22" s="40"/>
       <c r="J22" s="40"/>
       <c r="K22" s="147" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="L22" s="148" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="M22" s="148"/>
       <c r="N22" s="40"/>
     </row>
     <row r="23">
       <c r="A23" s="143" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B23" s="144" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D23" s="45"/>
       <c r="E23" s="145" t="s">
         <v>369</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="H23" s="42"/>
       <c r="I23" s="40"/>
       <c r="J23" s="40"/>
       <c r="K23" s="147" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="L23" s="148" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="M23" s="148"/>
       <c r="N23" s="40"/>
     </row>
     <row r="24">
       <c r="A24" s="143" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B24" s="144" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D24" s="45"/>
       <c r="E24" s="145" t="s">
         <v>369</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="H24" s="42"/>
       <c r="I24" s="40"/>
       <c r="J24" s="40"/>
       <c r="K24" s="147" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="L24" s="148" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="M24" s="148"/>
       <c r="N24" s="40"/>
     </row>
     <row r="25">
       <c r="A25" s="143" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B25" s="144" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D25" s="45"/>
       <c r="E25" s="145" t="s">
         <v>369</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="H25" s="42"/>
       <c r="I25" s="40"/>
       <c r="J25" s="40"/>
       <c r="K25" s="147" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="L25" s="148" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="M25" s="148" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="N25" s="40"/>
     </row>
     <row r="26">
       <c r="A26" s="143" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B26" s="144" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D26" s="45"/>
       <c r="E26" s="145" t="s">
         <v>369</v>
       </c>
       <c r="F26" s="155" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="G26" s="153" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="H26" s="42"/>
       <c r="I26" s="40"/>
       <c r="J26" s="40"/>
       <c r="K26" s="147" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="L26" s="156" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="M26" s="156"/>
       <c r="N26" s="40"/>
     </row>
     <row r="27">
       <c r="A27" s="143" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B27" s="144" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C27" s="157" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D27" s="45"/>
       <c r="E27" s="145" t="s">
         <v>365</v>
       </c>
       <c r="F27" s="155" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G27" s="153" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="H27" s="42"/>
       <c r="I27" s="40"/>
       <c r="J27" s="40"/>
       <c r="K27" s="152" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="L27" s="156" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="M27" s="156"/>
       <c r="N27" s="40"/>
     </row>
     <row r="28">
       <c r="A28" s="143" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B28" s="144" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C28" s="157" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D28" s="45"/>
       <c r="E28" s="145" t="s">
         <v>365</v>
       </c>
       <c r="F28" s="47" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G28" s="153" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="H28" s="42"/>
       <c r="I28" s="40"/>
       <c r="J28" s="40"/>
       <c r="K28" s="152" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="L28" s="156" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="M28" s="156"/>
       <c r="N28" s="40"/>
     </row>
     <row r="29">
       <c r="A29" s="30" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B29" s="128" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C29" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D29" s="31"/>
       <c r="E29" s="20" t="s">
         <v>365</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
       <c r="K29" s="127" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="L29" s="159" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="M29" s="159"/>
       <c r="N29" s="16"/>
     </row>
     <row r="30">
       <c r="A30" s="133" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B30" s="160"/>
       <c r="C30" s="157" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D30" s="161"/>
       <c r="E30" s="60" t="s">
         <v>369</v>
       </c>
       <c r="F30" s="154" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="G30" s="162" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="H30" s="163"/>
       <c r="I30" s="164"/>
       <c r="J30" s="164"/>
       <c r="K30" s="148" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="L30" s="148" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="M30" s="165" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="N30" s="164"/>
     </row>
     <row r="31">
       <c r="A31" s="14" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B31" s="128"/>
       <c r="C31" s="157" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D31" s="31"/>
       <c r="E31" s="20" t="s">
         <v>365</v>
       </c>
       <c r="F31" s="154" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="16"/>
@@ -12285,21 +12318,21 @@
     </row>
     <row r="32">
       <c r="A32" s="14" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B32" s="128"/>
       <c r="C32" s="157" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D32" s="31"/>
       <c r="E32" s="20" t="s">
         <v>365</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="16"/>
@@ -12315,21 +12348,21 @@
     </row>
     <row r="33">
       <c r="A33" s="14" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B33" s="128"/>
       <c r="C33" s="157" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D33" s="31"/>
       <c r="E33" s="20" t="s">
         <v>365</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="16"/>
@@ -12345,21 +12378,21 @@
     </row>
     <row r="34">
       <c r="A34" s="14" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B34" s="128"/>
       <c r="C34" s="157" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D34" s="31"/>
       <c r="E34" s="20" t="s">
         <v>365</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="H34" s="13"/>
       <c r="I34" s="16"/>
@@ -12375,21 +12408,21 @@
     </row>
     <row r="35">
       <c r="A35" s="14" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B35" s="128"/>
       <c r="C35" s="157" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D35" s="31"/>
       <c r="E35" s="20" t="s">
         <v>365</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="16"/>
@@ -12405,21 +12438,21 @@
     </row>
     <row r="36">
       <c r="A36" s="14" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B36" s="128"/>
       <c r="C36" s="157" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D36" s="31"/>
       <c r="E36" s="20" t="s">
         <v>365</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="16"/>
@@ -12435,21 +12468,21 @@
     </row>
     <row r="37">
       <c r="A37" s="14" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B37" s="128"/>
       <c r="C37" s="157" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D37" s="31"/>
       <c r="E37" s="20" t="s">
         <v>365</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="16"/>
@@ -12465,21 +12498,21 @@
     </row>
     <row r="38">
       <c r="A38" s="14" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B38" s="128"/>
       <c r="C38" s="157" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D38" s="31"/>
       <c r="E38" s="20" t="s">
         <v>365</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="H38" s="13"/>
       <c r="I38" s="16"/>
@@ -12495,21 +12528,21 @@
     </row>
     <row r="39">
       <c r="A39" s="14" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B39" s="128"/>
       <c r="C39" s="157" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D39" s="31"/>
       <c r="E39" s="20" t="s">
         <v>365</v>
       </c>
       <c r="F39" s="162" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="16"/>
@@ -12525,21 +12558,21 @@
     </row>
     <row r="40">
       <c r="A40" s="154" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B40" s="128"/>
       <c r="C40" s="157" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D40" s="31"/>
       <c r="E40" s="60" t="s">
         <v>369</v>
       </c>
       <c r="F40" s="154" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="G40" s="47" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="H40" s="13"/>
       <c r="I40" s="16"/>
@@ -12555,21 +12588,21 @@
     </row>
     <row r="41">
       <c r="A41" s="14" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B41" s="128"/>
       <c r="C41" s="157" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D41" s="31"/>
       <c r="E41" s="60" t="s">
         <v>369</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="G41" s="47" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="16"/>
@@ -12585,21 +12618,21 @@
     </row>
     <row r="42">
       <c r="A42" s="14" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B42" s="128"/>
       <c r="C42" s="157" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D42" s="31"/>
       <c r="E42" s="60" t="s">
         <v>369</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="G42" s="47" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="16"/>
@@ -12615,21 +12648,21 @@
     </row>
     <row r="43">
       <c r="A43" s="14" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B43" s="128"/>
       <c r="C43" s="157" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D43" s="31"/>
       <c r="E43" s="60" t="s">
         <v>369</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="G43" s="47" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="16"/>
@@ -12645,21 +12678,21 @@
     </row>
     <row r="44">
       <c r="A44" s="38" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B44" s="144"/>
       <c r="C44" s="157" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D44" s="45"/>
       <c r="E44" s="143" t="s">
         <v>369</v>
       </c>
       <c r="F44" s="38" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="G44" s="47" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="H44" s="42"/>
       <c r="I44" s="40"/>
@@ -12675,21 +12708,21 @@
     </row>
     <row r="45">
       <c r="A45" s="38" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B45" s="144"/>
       <c r="C45" s="157" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D45" s="45"/>
       <c r="E45" s="143" t="s">
         <v>369</v>
       </c>
       <c r="F45" s="38" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="G45" s="47" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="H45" s="42"/>
       <c r="I45" s="40"/>
@@ -12705,23 +12738,23 @@
     </row>
     <row r="46">
       <c r="A46" s="30" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B46" s="128" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C46" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D46" s="31"/>
       <c r="E46" s="20" t="s">
         <v>369</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="16"/>
@@ -12730,190 +12763,190 @@
         <v>259</v>
       </c>
       <c r="L46" s="166" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="M46" s="131"/>
       <c r="N46" s="16"/>
     </row>
     <row r="47">
       <c r="A47" s="30" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B47" s="128" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C47" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D47" s="31"/>
       <c r="E47" s="20" t="s">
         <v>369</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="16"/>
       <c r="J47" s="16"/>
       <c r="K47" s="127" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="L47" s="166" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="M47" s="131"/>
       <c r="N47" s="16"/>
     </row>
     <row r="48">
       <c r="A48" s="30" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B48" s="128" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C48" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D48" s="31"/>
       <c r="E48" s="20" t="s">
         <v>369</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="H48" s="13"/>
       <c r="I48" s="16"/>
       <c r="J48" s="16"/>
       <c r="K48" s="127" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="L48" s="166" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="M48" s="131"/>
       <c r="N48" s="16"/>
     </row>
     <row r="49">
       <c r="A49" s="30" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B49" s="128" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C49" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D49" s="31"/>
       <c r="E49" s="20" t="s">
         <v>369</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="16"/>
       <c r="J49" s="16"/>
       <c r="K49" s="127" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="L49" s="166" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="M49" s="131"/>
       <c r="N49" s="16"/>
     </row>
     <row r="50">
       <c r="A50" s="30" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B50" s="128" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C50" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D50" s="31"/>
       <c r="E50" s="20" t="s">
         <v>369</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="16"/>
       <c r="J50" s="16"/>
       <c r="K50" s="127" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="L50" s="166" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="M50" s="131"/>
       <c r="N50" s="16"/>
     </row>
     <row r="51">
       <c r="A51" s="30" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B51" s="128" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C51" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D51" s="31"/>
       <c r="E51" s="20" t="s">
         <v>369</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="16"/>
       <c r="J51" s="16"/>
       <c r="K51" s="127" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="L51" s="166" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="M51" s="131"/>
       <c r="N51" s="16"/>
     </row>
     <row r="52">
       <c r="A52" s="30" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B52" s="128" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C52" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D52" s="31"/>
       <c r="E52" s="20" t="s">
         <v>369</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="H52" s="13"/>
       <c r="I52" s="16"/>
@@ -12929,23 +12962,23 @@
     </row>
     <row r="53">
       <c r="A53" s="30" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B53" s="128" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C53" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D53" s="31"/>
       <c r="E53" s="20" t="s">
         <v>369</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="H53" s="13"/>
       <c r="I53" s="16"/>
@@ -12961,23 +12994,23 @@
     </row>
     <row r="54">
       <c r="A54" s="30" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B54" s="128" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C54" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D54" s="31"/>
       <c r="E54" s="20" t="s">
         <v>369</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="H54" s="13"/>
       <c r="I54" s="16"/>
@@ -12993,23 +13026,23 @@
     </row>
     <row r="55">
       <c r="A55" s="167" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B55" s="168" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C55" s="169" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D55" s="169"/>
       <c r="E55" s="170" t="s">
         <v>369</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="H55" s="171"/>
       <c r="I55" s="172"/>
@@ -13025,20 +13058,20 @@
     </row>
     <row r="56">
       <c r="A56" s="167" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B56" s="168" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C56" s="169" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D56" s="169"/>
       <c r="E56" s="175" t="s">
         <v>372</v>
       </c>
       <c r="F56" s="62" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="G56" s="70"/>
       <c r="H56" s="176"/>
@@ -13055,20 +13088,20 @@
     </row>
     <row r="57">
       <c r="A57" s="30" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B57" s="128" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C57" s="158" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D57" s="31"/>
       <c r="E57" s="179" t="s">
         <v>372</v>
       </c>
       <c r="F57" s="62" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="G57" s="70"/>
       <c r="H57" s="70"/>
@@ -13085,20 +13118,20 @@
     </row>
     <row r="58">
       <c r="A58" s="30" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B58" s="128" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C58" s="158" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D58" s="31"/>
       <c r="E58" s="179" t="s">
         <v>372</v>
       </c>
       <c r="F58" s="62" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="G58" s="70"/>
       <c r="H58" s="70"/>
@@ -13115,20 +13148,20 @@
     </row>
     <row r="59">
       <c r="A59" s="30" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B59" s="128" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C59" s="158" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D59" s="31"/>
       <c r="E59" s="179" t="s">
         <v>372</v>
       </c>
       <c r="F59" s="62" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="G59" s="70"/>
       <c r="H59" s="70"/>
@@ -13145,20 +13178,20 @@
     </row>
     <row r="60">
       <c r="A60" s="30" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B60" s="128" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C60" s="158" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D60" s="31"/>
       <c r="E60" s="179" t="s">
         <v>372</v>
       </c>
       <c r="F60" s="62" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="G60" s="70"/>
       <c r="H60" s="70"/>
@@ -13175,20 +13208,20 @@
     </row>
     <row r="61">
       <c r="A61" s="30" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B61" s="128" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C61" s="158" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D61" s="31"/>
       <c r="E61" s="179" t="s">
         <v>372</v>
       </c>
       <c r="F61" s="62" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="G61" s="70"/>
       <c r="H61" s="70"/>
@@ -13205,20 +13238,20 @@
     </row>
     <row r="62">
       <c r="A62" s="30" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B62" s="128" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C62" s="158" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D62" s="31"/>
       <c r="E62" s="20" t="s">
         <v>372</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
@@ -13235,20 +13268,20 @@
     </row>
     <row r="63">
       <c r="A63" s="30" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B63" s="128" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C63" s="158" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D63" s="31"/>
       <c r="E63" s="20" t="s">
         <v>372</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
@@ -13265,20 +13298,20 @@
     </row>
     <row r="64">
       <c r="A64" s="30" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B64" s="128" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C64" s="158" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D64" s="31"/>
       <c r="E64" s="20" t="s">
         <v>372</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
@@ -13295,20 +13328,20 @@
     </row>
     <row r="65">
       <c r="A65" s="30" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B65" s="128" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C65" s="158" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D65" s="31"/>
       <c r="E65" s="20" t="s">
         <v>372</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="G65" s="13"/>
       <c r="H65" s="13"/>
@@ -13325,471 +13358,471 @@
     </row>
     <row r="66">
       <c r="A66" s="30" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B66" s="128" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C66" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D66" s="31"/>
       <c r="E66" s="20" t="s">
         <v>369</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="G66" s="182" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="16"/>
       <c r="J66" s="16"/>
       <c r="K66" s="183" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="L66" s="184" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="M66" s="184"/>
       <c r="N66" s="16"/>
     </row>
     <row r="67">
       <c r="A67" s="30" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B67" s="128" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C67" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D67" s="31"/>
       <c r="E67" s="20" t="s">
         <v>365</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="H67" s="13"/>
       <c r="I67" s="16"/>
       <c r="J67" s="16"/>
       <c r="K67" s="127" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="L67" s="131" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="M67" s="131"/>
       <c r="N67" s="16"/>
     </row>
     <row r="68">
       <c r="A68" s="30" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B68" s="128" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C68" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D68" s="31"/>
       <c r="E68" s="20" t="s">
         <v>365</v>
       </c>
       <c r="F68" s="185" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="H68" s="13"/>
       <c r="I68" s="16"/>
       <c r="J68" s="16"/>
       <c r="K68" s="186" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="L68" s="187" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="M68" s="166"/>
       <c r="N68" s="16"/>
     </row>
     <row r="69">
       <c r="A69" s="30" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B69" s="128" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C69" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D69" s="31"/>
       <c r="E69" s="20" t="s">
         <v>365</v>
       </c>
       <c r="F69" s="185" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="H69" s="13"/>
       <c r="I69" s="16"/>
       <c r="J69" s="16"/>
       <c r="K69" s="188" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="L69" s="131" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="M69" s="131"/>
       <c r="N69" s="16"/>
     </row>
     <row r="70">
       <c r="A70" s="30" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B70" s="128" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C70" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D70" s="31"/>
       <c r="E70" s="20" t="s">
         <v>365</v>
       </c>
       <c r="F70" s="185" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="H70" s="13"/>
       <c r="I70" s="16"/>
       <c r="J70" s="16"/>
       <c r="K70" s="188" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="L70" s="131" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M70" s="131"/>
       <c r="N70" s="16"/>
     </row>
     <row r="71">
       <c r="A71" s="30" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B71" s="128" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C71" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D71" s="31"/>
       <c r="E71" s="20" t="s">
         <v>365</v>
       </c>
       <c r="F71" s="185" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="H71" s="13"/>
       <c r="I71" s="16"/>
       <c r="J71" s="16"/>
       <c r="K71" s="188" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="L71" s="131" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="M71" s="131"/>
       <c r="N71" s="16"/>
     </row>
     <row r="72">
       <c r="A72" s="30" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B72" s="128" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C72" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D72" s="31"/>
       <c r="E72" s="20" t="s">
         <v>365</v>
       </c>
       <c r="F72" s="185" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="H72" s="13"/>
       <c r="I72" s="16"/>
       <c r="J72" s="16"/>
       <c r="K72" s="188" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="L72" s="131" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="M72" s="131"/>
       <c r="N72" s="16"/>
     </row>
     <row r="73">
       <c r="A73" s="30" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B73" s="128" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C73" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D73" s="31"/>
       <c r="E73" s="20" t="s">
         <v>369</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="G73" s="189" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="H73" s="13"/>
       <c r="I73" s="16"/>
       <c r="J73" s="16"/>
       <c r="K73" s="183" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="L73" s="184" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="M73" s="184"/>
       <c r="N73" s="16"/>
     </row>
     <row r="74">
       <c r="A74" s="30" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B74" s="128" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C74" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D74" s="31"/>
       <c r="E74" s="20" t="s">
         <v>365</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="H74" s="13"/>
       <c r="I74" s="16"/>
       <c r="J74" s="16"/>
       <c r="K74" s="127" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="L74" s="131" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="M74" s="131"/>
       <c r="N74" s="16"/>
     </row>
     <row r="75">
       <c r="A75" s="30" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B75" s="128" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C75" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D75" s="31"/>
       <c r="E75" s="20" t="s">
         <v>365</v>
       </c>
       <c r="F75" s="190" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="H75" s="13"/>
       <c r="I75" s="16"/>
       <c r="J75" s="16"/>
       <c r="K75" s="186" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="L75" s="187" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="M75" s="166"/>
       <c r="N75" s="16"/>
     </row>
     <row r="76">
       <c r="A76" s="30" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B76" s="128" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="C76" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D76" s="31"/>
       <c r="E76" s="20" t="s">
         <v>365</v>
       </c>
       <c r="F76" s="189" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="G76" s="15" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="H76" s="13"/>
       <c r="I76" s="16"/>
       <c r="J76" s="16"/>
       <c r="K76" s="191" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="L76" s="131" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="M76" s="131"/>
       <c r="N76" s="16"/>
     </row>
     <row r="77">
       <c r="A77" s="30" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B77" s="128" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C77" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D77" s="31"/>
       <c r="E77" s="20" t="s">
         <v>365</v>
       </c>
       <c r="F77" s="189" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="H77" s="13"/>
       <c r="I77" s="16"/>
       <c r="J77" s="16"/>
       <c r="K77" s="191" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="L77" s="131" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="M77" s="131"/>
       <c r="N77" s="16"/>
     </row>
     <row r="78">
       <c r="A78" s="30" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B78" s="128" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C78" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D78" s="31"/>
       <c r="E78" s="20" t="s">
         <v>365</v>
       </c>
       <c r="F78" s="189" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="H78" s="13"/>
       <c r="I78" s="16"/>
       <c r="J78" s="16"/>
       <c r="K78" s="127" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="L78" s="131" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="M78" s="131"/>
       <c r="N78" s="16"/>
     </row>
     <row r="79">
       <c r="A79" s="30" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B79" s="128" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="C79" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D79" s="31"/>
       <c r="E79" s="20" t="s">
         <v>365</v>
       </c>
       <c r="F79" s="189" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="H79" s="13"/>
       <c r="I79" s="16"/>
       <c r="J79" s="16"/>
       <c r="K79" s="127" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="L79" s="131" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="M79" s="131"/>
       <c r="N79" s="16"/>
     </row>
     <row r="80">
       <c r="A80" s="133" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B80" s="149" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C80" s="192" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D80" s="135"/>
       <c r="E80" s="150" t="s">
         <v>372</v>
       </c>
       <c r="F80" s="136" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="G80" s="137" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="H80" s="13"/>
       <c r="I80" s="16"/>
@@ -13805,55 +13838,55 @@
     </row>
     <row r="81">
       <c r="A81" s="143" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B81" s="144" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C81" s="157" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D81" s="45"/>
       <c r="E81" s="145" t="s">
         <v>369</v>
       </c>
       <c r="F81" s="38" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="G81" s="193" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="H81" s="42"/>
       <c r="I81" s="40"/>
       <c r="J81" s="40"/>
       <c r="K81" s="152" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="L81" s="147" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="M81" s="147"/>
       <c r="N81" s="40"/>
     </row>
     <row r="82">
       <c r="A82" s="143" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B82" s="144" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C82" s="157" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D82" s="45"/>
       <c r="E82" s="145" t="s">
         <v>365</v>
       </c>
       <c r="F82" s="193" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="G82" s="153" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="H82" s="42"/>
       <c r="I82" s="40"/>
@@ -13869,148 +13902,148 @@
     </row>
     <row r="83">
       <c r="A83" s="143" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B83" s="144" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C83" s="157" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D83" s="45"/>
       <c r="E83" s="145" t="s">
         <v>365</v>
       </c>
       <c r="F83" s="193" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="G83" s="153" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="H83" s="42"/>
       <c r="I83" s="40"/>
       <c r="J83" s="40"/>
       <c r="K83" s="152" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="L83" s="147" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="M83" s="147"/>
       <c r="N83" s="40"/>
     </row>
     <row r="84">
       <c r="A84" s="143" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B84" s="144" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C84" s="157" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D84" s="45"/>
       <c r="E84" s="145" t="s">
         <v>365</v>
       </c>
       <c r="F84" s="193" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="G84" s="153" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="H84" s="42"/>
       <c r="I84" s="40"/>
       <c r="J84" s="40"/>
       <c r="K84" s="152" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="L84" s="147" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="M84" s="147"/>
       <c r="N84" s="40"/>
     </row>
     <row r="85">
       <c r="A85" s="143" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B85" s="144" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="C85" s="157" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D85" s="45"/>
       <c r="E85" s="145" t="s">
         <v>365</v>
       </c>
       <c r="F85" s="193" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="G85" s="38" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="H85" s="42"/>
       <c r="I85" s="40"/>
       <c r="J85" s="40"/>
       <c r="K85" s="152" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="L85" s="147" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="M85" s="147"/>
       <c r="N85" s="40"/>
     </row>
     <row r="86">
       <c r="A86" s="143" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B86" s="144" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="C86" s="157" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D86" s="45"/>
       <c r="E86" s="145" t="s">
         <v>365</v>
       </c>
       <c r="F86" s="193" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="G86" s="38" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="H86" s="42"/>
       <c r="I86" s="40"/>
       <c r="J86" s="40"/>
       <c r="K86" s="152" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="L86" s="147" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="M86" s="147"/>
       <c r="N86" s="40"/>
     </row>
     <row r="87">
       <c r="A87" s="194" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B87" s="195" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C87" s="196" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D87" s="197"/>
       <c r="E87" s="198" t="s">
         <v>372</v>
       </c>
       <c r="F87" s="199" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="G87" s="199"/>
       <c r="H87" s="200"/>
@@ -14027,55 +14060,55 @@
     </row>
     <row r="88">
       <c r="A88" s="143" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B88" s="144" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C88" s="157" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D88" s="45"/>
       <c r="E88" s="145" t="s">
         <v>369</v>
       </c>
       <c r="F88" s="38" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="G88" s="47" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H88" s="42"/>
       <c r="I88" s="40"/>
       <c r="J88" s="40"/>
       <c r="K88" s="152" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="L88" s="147" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="M88" s="147"/>
       <c r="N88" s="40"/>
     </row>
     <row r="89">
       <c r="A89" s="143" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B89" s="144" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C89" s="157" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D89" s="45"/>
       <c r="E89" s="145" t="s">
         <v>365</v>
       </c>
       <c r="F89" s="47" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="G89" s="38" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H89" s="42"/>
       <c r="I89" s="40"/>
@@ -14091,148 +14124,148 @@
     </row>
     <row r="90">
       <c r="A90" s="143" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B90" s="144" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C90" s="157" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D90" s="45"/>
       <c r="E90" s="145" t="s">
         <v>365</v>
       </c>
       <c r="F90" s="47" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="G90" s="38" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="H90" s="42"/>
       <c r="I90" s="40"/>
       <c r="J90" s="40"/>
       <c r="K90" s="188" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="L90" s="147" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="M90" s="147"/>
       <c r="N90" s="40"/>
     </row>
     <row r="91">
       <c r="A91" s="143" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B91" s="144" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="C91" s="157" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D91" s="45"/>
       <c r="E91" s="145" t="s">
         <v>365</v>
       </c>
       <c r="F91" s="47" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="G91" s="38" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="H91" s="42"/>
       <c r="I91" s="40"/>
       <c r="J91" s="40"/>
       <c r="K91" s="188" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="L91" s="147" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="M91" s="147"/>
       <c r="N91" s="40"/>
     </row>
     <row r="92">
       <c r="A92" s="133" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B92" s="149" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="C92" s="192" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D92" s="135"/>
       <c r="E92" s="150" t="s">
         <v>365</v>
       </c>
       <c r="F92" s="47" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="G92" s="136" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="H92" s="114"/>
       <c r="I92" s="139"/>
       <c r="J92" s="139"/>
       <c r="K92" s="203" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="L92" s="140" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="M92" s="140"/>
       <c r="N92" s="139"/>
     </row>
     <row r="93">
       <c r="A93" s="133" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B93" s="149" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="C93" s="192" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D93" s="135"/>
       <c r="E93" s="150" t="s">
         <v>365</v>
       </c>
       <c r="F93" s="47" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="G93" s="136" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="H93" s="114"/>
       <c r="I93" s="139"/>
       <c r="J93" s="139"/>
       <c r="K93" s="203" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="L93" s="140" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M93" s="140"/>
       <c r="N93" s="139"/>
     </row>
     <row r="94">
       <c r="A94" s="30" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B94" s="128" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="C94" s="158" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D94" s="31"/>
       <c r="E94" s="20" t="s">
         <v>372</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="G94" s="54"/>
       <c r="H94" s="13"/>
@@ -14249,55 +14282,55 @@
     </row>
     <row r="95">
       <c r="A95" s="30" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B95" s="128" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="C95" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D95" s="31"/>
       <c r="E95" s="20" t="s">
         <v>369</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="G95" s="14" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="H95" s="13"/>
       <c r="I95" s="16"/>
       <c r="J95" s="16"/>
       <c r="K95" s="152" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="L95" s="147" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="M95" s="147"/>
       <c r="N95" s="16"/>
     </row>
     <row r="96">
       <c r="A96" s="30" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B96" s="128" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="C96" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D96" s="31"/>
       <c r="E96" s="20" t="s">
         <v>365</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="H96" s="13"/>
       <c r="I96" s="16"/>
@@ -14313,148 +14346,148 @@
     </row>
     <row r="97">
       <c r="A97" s="30" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B97" s="128" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="C97" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D97" s="31"/>
       <c r="E97" s="20" t="s">
         <v>365</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="H97" s="13"/>
       <c r="I97" s="16"/>
       <c r="J97" s="16"/>
       <c r="K97" s="127" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="L97" s="131" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="M97" s="131"/>
       <c r="N97" s="16"/>
     </row>
     <row r="98">
       <c r="A98" s="30" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B98" s="128" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="C98" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D98" s="31"/>
       <c r="E98" s="20" t="s">
         <v>365</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="H98" s="13"/>
       <c r="I98" s="16"/>
       <c r="J98" s="16"/>
       <c r="K98" s="127" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="L98" s="131" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="M98" s="131"/>
       <c r="N98" s="16"/>
     </row>
     <row r="99">
       <c r="A99" s="30" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B99" s="128" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C99" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D99" s="31"/>
       <c r="E99" s="20" t="s">
         <v>365</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="H99" s="13"/>
       <c r="I99" s="16"/>
       <c r="J99" s="16"/>
       <c r="K99" s="127" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="L99" s="131" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="M99" s="131"/>
       <c r="N99" s="16"/>
     </row>
     <row r="100">
       <c r="A100" s="30" t="s">
+        <v>845</v>
+      </c>
+      <c r="B100" s="128" t="s">
         <v>843</v>
       </c>
-      <c r="B100" s="128" t="s">
-        <v>841</v>
-      </c>
       <c r="C100" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D100" s="31"/>
       <c r="E100" s="20" t="s">
         <v>365</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="H100" s="13"/>
       <c r="I100" s="16"/>
       <c r="J100" s="16"/>
       <c r="K100" s="127" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="L100" s="131" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="M100" s="131"/>
       <c r="N100" s="16"/>
     </row>
     <row r="101">
       <c r="A101" s="30" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B101" s="128" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="C101" s="158" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D101" s="31"/>
       <c r="E101" s="20" t="s">
         <v>372</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="G101" s="31"/>
       <c r="H101" s="13"/>
@@ -14471,55 +14504,55 @@
     </row>
     <row r="102">
       <c r="A102" s="30" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B102" s="128" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C102" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D102" s="31"/>
       <c r="E102" s="20" t="s">
         <v>369</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="G102" s="14" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="H102" s="13"/>
       <c r="I102" s="16"/>
       <c r="J102" s="16"/>
       <c r="K102" s="127" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="L102" s="131" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="M102" s="131"/>
       <c r="N102" s="16"/>
     </row>
     <row r="103">
       <c r="A103" s="30" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B103" s="128" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="C103" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D103" s="31"/>
       <c r="E103" s="20" t="s">
         <v>365</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="G103" s="14" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="H103" s="13"/>
       <c r="I103" s="16"/>
@@ -14535,148 +14568,148 @@
     </row>
     <row r="104">
       <c r="A104" s="30" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B104" s="128" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C104" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D104" s="31"/>
       <c r="E104" s="20" t="s">
         <v>365</v>
       </c>
       <c r="F104" s="14" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="G104" s="14" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="H104" s="13"/>
       <c r="I104" s="16"/>
       <c r="J104" s="16"/>
       <c r="K104" s="127" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="L104" s="131" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="M104" s="131"/>
       <c r="N104" s="16"/>
     </row>
     <row r="105">
       <c r="A105" s="30" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="B105" s="128" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="C105" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D105" s="31"/>
       <c r="E105" s="20" t="s">
         <v>365</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="G105" s="14" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="H105" s="13"/>
       <c r="I105" s="16"/>
       <c r="J105" s="16"/>
       <c r="K105" s="127" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="L105" s="131" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="M105" s="131"/>
       <c r="N105" s="16"/>
     </row>
     <row r="106">
       <c r="A106" s="133" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B106" s="149" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="C106" s="192" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D106" s="135"/>
       <c r="E106" s="150" t="s">
         <v>365</v>
       </c>
       <c r="F106" s="136" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="G106" s="136" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="H106" s="114"/>
       <c r="I106" s="139"/>
       <c r="J106" s="139"/>
       <c r="K106" s="191" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="L106" s="140" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="M106" s="140"/>
       <c r="N106" s="139"/>
     </row>
     <row r="107">
       <c r="A107" s="30" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B107" s="128" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="C107" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D107" s="31"/>
       <c r="E107" s="20" t="s">
         <v>365</v>
       </c>
       <c r="F107" s="14" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="G107" s="204" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="H107" s="13"/>
       <c r="I107" s="16"/>
       <c r="J107" s="16"/>
       <c r="K107" s="191" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="L107" s="131" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M107" s="131"/>
       <c r="N107" s="16"/>
     </row>
     <row r="108">
       <c r="A108" s="205" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B108" s="128" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="C108" s="157" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D108" s="45"/>
       <c r="E108" s="143" t="s">
         <v>365</v>
       </c>
       <c r="F108" s="38" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="G108" s="146"/>
       <c r="H108" s="42"/>
@@ -14693,55 +14726,55 @@
     </row>
     <row r="109">
       <c r="A109" s="206" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="B109" s="207" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="C109" s="208" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D109" s="45"/>
       <c r="E109" s="60" t="s">
         <v>375</v>
       </c>
       <c r="F109" s="38" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="G109" s="38" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="H109" s="42"/>
       <c r="I109" s="40"/>
       <c r="J109" s="40"/>
       <c r="K109" s="152" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="L109" s="147" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="M109" s="147"/>
       <c r="N109" s="40"/>
     </row>
     <row r="110">
       <c r="A110" s="206" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="B110" s="207" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="C110" s="208" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D110" s="45"/>
       <c r="E110" s="209" t="s">
         <v>372</v>
       </c>
       <c r="F110" s="38" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="G110" s="153" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="H110" s="42"/>
       <c r="I110" s="40"/>
@@ -14757,151 +14790,151 @@
     </row>
     <row r="111">
       <c r="A111" s="206" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="B111" s="207" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="C111" s="208" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D111" s="45"/>
       <c r="E111" s="209" t="s">
         <v>372</v>
       </c>
       <c r="F111" s="38" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="G111" s="153" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="H111" s="42"/>
       <c r="I111" s="40"/>
       <c r="J111" s="40"/>
       <c r="K111" s="191" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="L111" s="147" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="M111" s="147"/>
       <c r="N111" s="40"/>
     </row>
     <row r="112">
       <c r="A112" s="206" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B112" s="207" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C112" s="208" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D112" s="45"/>
       <c r="E112" s="209" t="s">
         <v>372</v>
       </c>
       <c r="F112" s="38" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="G112" s="153" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="H112" s="42"/>
       <c r="I112" s="40"/>
       <c r="J112" s="40"/>
       <c r="K112" s="191" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="L112" s="147" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="M112" s="147"/>
       <c r="N112" s="40"/>
     </row>
     <row r="113">
       <c r="A113" s="206" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B113" s="207" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="C113" s="208" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D113" s="45"/>
       <c r="E113" s="209" t="s">
         <v>372</v>
       </c>
       <c r="F113" s="38" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="G113" s="38" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="H113" s="42"/>
       <c r="I113" s="40"/>
       <c r="J113" s="40"/>
       <c r="K113" s="191" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="L113" s="147" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="M113" s="147"/>
       <c r="N113" s="40"/>
     </row>
     <row r="114">
       <c r="A114" s="206" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="B114" s="207" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="C114" s="208" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D114" s="45"/>
       <c r="E114" s="209" t="s">
         <v>372</v>
       </c>
       <c r="F114" s="38" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="G114" s="38" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="H114" s="42"/>
       <c r="I114" s="40"/>
       <c r="J114" s="40"/>
       <c r="K114" s="191" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="L114" s="147" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="M114" s="147"/>
       <c r="N114" s="40"/>
     </row>
     <row r="115">
       <c r="A115" s="66" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="B115" s="211" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="C115" s="212" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D115" s="65"/>
       <c r="E115" s="60" t="s">
         <v>365</v>
       </c>
       <c r="F115" s="62" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="G115" s="62" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="H115" s="70"/>
       <c r="I115" s="64"/>
@@ -14917,55 +14950,55 @@
     </row>
     <row r="116">
       <c r="A116" s="143" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="B116" s="144" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="C116" s="157" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D116" s="45"/>
       <c r="E116" s="60" t="s">
         <v>375</v>
       </c>
       <c r="F116" s="38" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="G116" s="47" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="H116" s="42"/>
       <c r="I116" s="40"/>
       <c r="J116" s="40"/>
       <c r="K116" s="152" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="L116" s="147" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="M116" s="147"/>
       <c r="N116" s="40"/>
     </row>
     <row r="117">
       <c r="A117" s="143" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="B117" s="144" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="C117" s="157" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D117" s="45"/>
       <c r="E117" s="209" t="s">
         <v>372</v>
       </c>
       <c r="F117" s="47" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="G117" s="38" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="H117" s="42"/>
       <c r="I117" s="40"/>
@@ -14981,151 +15014,151 @@
     </row>
     <row r="118">
       <c r="A118" s="66" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="B118" s="211" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="C118" s="212" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D118" s="65"/>
       <c r="E118" s="209" t="s">
         <v>372</v>
       </c>
       <c r="F118" s="47" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="G118" s="62" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="H118" s="70"/>
       <c r="I118" s="64"/>
       <c r="J118" s="64"/>
       <c r="K118" s="191" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="L118" s="166" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="M118" s="166"/>
       <c r="N118" s="64"/>
     </row>
     <row r="119">
       <c r="A119" s="66" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B119" s="211" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="C119" s="212" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D119" s="65"/>
       <c r="E119" s="209" t="s">
         <v>372</v>
       </c>
       <c r="F119" s="47" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="G119" s="62" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="H119" s="70"/>
       <c r="I119" s="64"/>
       <c r="J119" s="64"/>
       <c r="K119" s="191" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="L119" s="166" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="M119" s="166"/>
       <c r="N119" s="64"/>
     </row>
     <row r="120">
       <c r="A120" s="66" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B120" s="211" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="C120" s="212" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D120" s="65"/>
       <c r="E120" s="209" t="s">
         <v>372</v>
       </c>
       <c r="F120" s="47" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="G120" s="62" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="H120" s="70"/>
       <c r="I120" s="64"/>
       <c r="J120" s="64"/>
       <c r="K120" s="191" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="L120" s="166" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="M120" s="166"/>
       <c r="N120" s="64"/>
     </row>
     <row r="121">
       <c r="A121" s="133" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B121" s="149" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="C121" s="192" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D121" s="135"/>
       <c r="E121" s="209" t="s">
         <v>372</v>
       </c>
       <c r="F121" s="47" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="G121" s="136" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="H121" s="114"/>
       <c r="I121" s="139"/>
       <c r="J121" s="139"/>
       <c r="K121" s="191" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="L121" s="140" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M121" s="140"/>
       <c r="N121" s="139"/>
     </row>
     <row r="122">
       <c r="A122" s="30" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="B122" s="128" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="C122" s="213" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D122" s="31"/>
       <c r="E122" s="30" t="s">
         <v>372</v>
       </c>
       <c r="F122" s="14" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="H122" s="13"/>
       <c r="I122" s="16"/>
@@ -15141,23 +15174,23 @@
     </row>
     <row r="123">
       <c r="A123" s="30" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="B123" s="128" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="C123" s="213" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D123" s="31"/>
       <c r="E123" s="20" t="s">
         <v>365</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="H123" s="13"/>
       <c r="I123" s="16"/>
@@ -15173,23 +15206,23 @@
     </row>
     <row r="124">
       <c r="A124" s="30" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B124" s="128" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="C124" s="213" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D124" s="31"/>
       <c r="E124" s="20" t="s">
         <v>365</v>
       </c>
       <c r="F124" s="14" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="G124" s="14" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="H124" s="13"/>
       <c r="I124" s="16"/>
@@ -15198,27 +15231,27 @@
         <v>259</v>
       </c>
       <c r="L124" s="131" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="M124" s="131"/>
       <c r="N124" s="16"/>
     </row>
     <row r="125">
       <c r="A125" s="30" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="B125" s="128" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="C125" s="213" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D125" s="31"/>
       <c r="E125" s="30" t="s">
         <v>372</v>
       </c>
       <c r="F125" s="14" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="G125" s="54"/>
       <c r="H125" s="13"/>
@@ -15235,23 +15268,23 @@
     </row>
     <row r="126">
       <c r="A126" s="30" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="B126" s="128" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="C126" s="213" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D126" s="31"/>
       <c r="E126" s="20" t="s">
         <v>365</v>
       </c>
       <c r="F126" s="14" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="H126" s="13"/>
       <c r="I126" s="16"/>
@@ -15267,23 +15300,23 @@
     </row>
     <row r="127">
       <c r="A127" s="30" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B127" s="128" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="C127" s="213" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D127" s="31"/>
       <c r="E127" s="20" t="s">
         <v>365</v>
       </c>
       <c r="F127" s="14" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="G127" s="14" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="H127" s="13"/>
       <c r="I127" s="16"/>
@@ -15292,62 +15325,62 @@
         <v>259</v>
       </c>
       <c r="L127" s="127" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="M127" s="127"/>
       <c r="N127" s="16"/>
     </row>
     <row r="128">
       <c r="A128" s="143" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B128" s="144" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="C128" s="157" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D128" s="45"/>
       <c r="E128" s="143" t="s">
         <v>375</v>
       </c>
       <c r="F128" s="38" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="G128" s="38" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="H128" s="42"/>
       <c r="I128" s="40"/>
       <c r="J128" s="40"/>
       <c r="K128" s="147" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="L128" s="156" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="M128" s="156"/>
       <c r="N128" s="40"/>
     </row>
     <row r="129">
       <c r="A129" s="143" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="B129" s="144" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="C129" s="157" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D129" s="45"/>
       <c r="E129" s="145" t="s">
         <v>365</v>
       </c>
       <c r="F129" s="38" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="G129" s="38" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="H129" s="42"/>
       <c r="I129" s="40"/>
@@ -15356,30 +15389,30 @@
         <v>259</v>
       </c>
       <c r="L129" s="156" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="M129" s="156"/>
       <c r="N129" s="40"/>
     </row>
     <row r="130">
       <c r="A130" s="143" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="B130" s="215" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="C130" s="157" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D130" s="45"/>
       <c r="E130" s="145" t="s">
         <v>372</v>
       </c>
       <c r="F130" s="38" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="G130" s="153" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="H130" s="42"/>
       <c r="I130" s="40"/>
@@ -15395,87 +15428,87 @@
     </row>
     <row r="131">
       <c r="A131" s="143" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B131" s="215" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="C131" s="157" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D131" s="45"/>
       <c r="E131" s="145" t="s">
         <v>372</v>
       </c>
       <c r="F131" s="38" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="G131" s="153" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="H131" s="42"/>
       <c r="I131" s="40"/>
       <c r="J131" s="40"/>
       <c r="K131" s="216" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="L131" s="156" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="M131" s="156"/>
       <c r="N131" s="40"/>
     </row>
     <row r="132">
       <c r="A132" s="143" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B132" s="215" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="C132" s="157" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D132" s="45"/>
       <c r="E132" s="145" t="s">
         <v>372</v>
       </c>
       <c r="F132" s="38" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="G132" s="153" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="H132" s="42"/>
       <c r="I132" s="40"/>
       <c r="J132" s="40"/>
       <c r="K132" s="216" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="L132" s="156" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="M132" s="156"/>
       <c r="N132" s="40"/>
     </row>
     <row r="133">
       <c r="A133" s="143" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B133" s="215" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="C133" s="157" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D133" s="45"/>
       <c r="E133" s="143" t="s">
         <v>375</v>
       </c>
       <c r="F133" s="38" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="G133" s="153" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="H133" s="42"/>
       <c r="I133" s="40"/>
@@ -15484,30 +15517,30 @@
         <v>0.0</v>
       </c>
       <c r="L133" s="156" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="M133" s="156"/>
       <c r="N133" s="40"/>
     </row>
     <row r="134">
       <c r="A134" s="143" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="B134" s="215" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="C134" s="157" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D134" s="45"/>
       <c r="E134" s="143" t="s">
         <v>375</v>
       </c>
       <c r="F134" s="38" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="G134" s="153" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="H134" s="42"/>
       <c r="I134" s="40"/>
@@ -15516,94 +15549,94 @@
         <v>0.0</v>
       </c>
       <c r="L134" s="156" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="M134" s="156"/>
       <c r="N134" s="40"/>
     </row>
     <row r="135">
       <c r="A135" s="143" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B135" s="215" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="C135" s="157" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D135" s="45"/>
       <c r="E135" s="145" t="s">
         <v>372</v>
       </c>
       <c r="F135" s="38" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="G135" s="153" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="H135" s="42"/>
       <c r="I135" s="40"/>
       <c r="J135" s="40"/>
       <c r="K135" s="216" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="L135" s="156" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="M135" s="156"/>
       <c r="N135" s="40"/>
     </row>
     <row r="136">
       <c r="A136" s="143" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="B136" s="215" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="C136" s="157" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D136" s="45"/>
       <c r="E136" s="145" t="s">
         <v>372</v>
       </c>
       <c r="F136" s="38" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="G136" s="38" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="H136" s="42"/>
       <c r="I136" s="40"/>
       <c r="J136" s="40"/>
       <c r="K136" s="216" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="L136" s="156" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="M136" s="156"/>
       <c r="N136" s="38"/>
     </row>
     <row r="137">
       <c r="A137" s="143" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="B137" s="215" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="C137" s="157" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D137" s="45"/>
       <c r="E137" s="145" t="s">
         <v>372</v>
       </c>
       <c r="F137" s="38" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="G137" s="153" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="H137" s="42"/>
       <c r="I137" s="40"/>
@@ -15619,87 +15652,87 @@
     </row>
     <row r="138">
       <c r="A138" s="143" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="B138" s="215" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="C138" s="157" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D138" s="45"/>
       <c r="E138" s="145" t="s">
         <v>372</v>
       </c>
       <c r="F138" s="38" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="G138" s="38" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="H138" s="42"/>
       <c r="I138" s="40"/>
       <c r="J138" s="40"/>
       <c r="K138" s="217" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="L138" s="156" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="M138" s="156"/>
       <c r="N138" s="38"/>
     </row>
     <row r="139">
       <c r="A139" s="143" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="B139" s="215" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="C139" s="157" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D139" s="45"/>
       <c r="E139" s="145" t="s">
         <v>372</v>
       </c>
       <c r="F139" s="38" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="G139" s="38" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="H139" s="42"/>
       <c r="I139" s="40"/>
       <c r="J139" s="40"/>
       <c r="K139" s="217" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="L139" s="156" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="M139" s="156"/>
       <c r="N139" s="38"/>
     </row>
     <row r="140">
       <c r="A140" s="143" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="B140" s="215" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="C140" s="157" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D140" s="45"/>
       <c r="E140" s="145" t="s">
         <v>372</v>
       </c>
       <c r="F140" s="38" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="G140" s="153" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="H140" s="42"/>
       <c r="I140" s="40"/>
@@ -15715,23 +15748,23 @@
     </row>
     <row r="141">
       <c r="A141" s="143" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="B141" s="215" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="C141" s="157" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D141" s="45"/>
       <c r="E141" s="145" t="s">
         <v>372</v>
       </c>
       <c r="F141" s="38" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="G141" s="153" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="H141" s="42"/>
       <c r="I141" s="40"/>
@@ -15747,87 +15780,87 @@
     </row>
     <row r="142">
       <c r="A142" s="143" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="B142" s="215" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="C142" s="157" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D142" s="45"/>
       <c r="E142" s="145" t="s">
         <v>372</v>
       </c>
       <c r="F142" s="38" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="G142" s="38" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="H142" s="42"/>
       <c r="I142" s="40"/>
       <c r="J142" s="40"/>
       <c r="K142" s="217" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="L142" s="156" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="M142" s="156"/>
       <c r="N142" s="38"/>
     </row>
     <row r="143">
       <c r="A143" s="143" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B143" s="215" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="C143" s="157" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D143" s="45"/>
       <c r="E143" s="145" t="s">
         <v>372</v>
       </c>
       <c r="F143" s="38" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="G143" s="38" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="H143" s="42"/>
       <c r="I143" s="40"/>
       <c r="J143" s="40"/>
       <c r="K143" s="217" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="L143" s="156" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="M143" s="156"/>
       <c r="N143" s="38"/>
     </row>
     <row r="144">
       <c r="A144" s="143" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="B144" s="215" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="C144" s="157" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D144" s="45"/>
       <c r="E144" s="143" t="s">
         <v>375</v>
       </c>
       <c r="F144" s="38" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="G144" s="153" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="H144" s="42"/>
       <c r="I144" s="40"/>
@@ -15843,87 +15876,87 @@
     </row>
     <row r="145">
       <c r="A145" s="143" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="B145" s="215" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="C145" s="157" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D145" s="45"/>
       <c r="E145" s="145" t="s">
         <v>372</v>
       </c>
       <c r="F145" s="38" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="G145" s="153" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="H145" s="42"/>
       <c r="I145" s="40"/>
       <c r="J145" s="40"/>
       <c r="K145" s="147" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="L145" s="156" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="M145" s="156"/>
       <c r="N145" s="40"/>
     </row>
     <row r="146">
       <c r="A146" s="218" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B146" s="219" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="C146" s="220" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D146" s="220"/>
       <c r="E146" s="221" t="s">
         <v>372</v>
       </c>
       <c r="F146" s="38" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="G146" s="153" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="H146" s="222"/>
       <c r="I146" s="223"/>
       <c r="J146" s="223"/>
       <c r="K146" s="224" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="L146" s="225" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="M146" s="225"/>
       <c r="N146" s="223"/>
     </row>
     <row r="147">
       <c r="A147" s="30" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="B147" s="125" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="C147" s="213" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D147" s="31"/>
       <c r="E147" s="30" t="s">
         <v>375</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="G147" s="226" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="H147" s="13"/>
       <c r="I147" s="16"/>
@@ -15939,23 +15972,23 @@
     </row>
     <row r="148">
       <c r="A148" s="30" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="B148" s="125" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="C148" s="213" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D148" s="31"/>
       <c r="E148" s="30" t="s">
         <v>365</v>
       </c>
       <c r="F148" s="14" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="G148" s="14" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="H148" s="13"/>
       <c r="I148" s="16"/>
@@ -15971,23 +16004,23 @@
     </row>
     <row r="149">
       <c r="A149" s="30" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B149" s="125" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="C149" s="213" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D149" s="31"/>
       <c r="E149" s="30" t="s">
         <v>375</v>
       </c>
       <c r="F149" s="14" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="G149" s="226" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="H149" s="13"/>
       <c r="I149" s="16"/>
@@ -16003,23 +16036,23 @@
     </row>
     <row r="150">
       <c r="A150" s="30" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="B150" s="125" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="C150" s="213" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D150" s="31"/>
       <c r="E150" s="30" t="s">
         <v>365</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="H150" s="13"/>
       <c r="I150" s="16"/>
@@ -16035,660 +16068,660 @@
     </row>
     <row r="151">
       <c r="A151" s="133" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="B151" s="125" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="C151" s="213" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D151" s="31"/>
       <c r="E151" s="20" t="s">
         <v>372</v>
       </c>
       <c r="F151" s="226" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="H151" s="13"/>
       <c r="I151" s="16"/>
       <c r="J151" s="16"/>
       <c r="K151" s="131" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="L151" s="159" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="M151" s="159"/>
       <c r="N151" s="16"/>
     </row>
     <row r="152">
       <c r="A152" s="133" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="B152" s="125" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="C152" s="213" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D152" s="31"/>
       <c r="E152" s="20" t="s">
         <v>372</v>
       </c>
       <c r="F152" s="226" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="G152" s="5" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="H152" s="13"/>
       <c r="I152" s="16"/>
       <c r="J152" s="16"/>
       <c r="K152" s="131" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="L152" s="159" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="M152" s="159"/>
       <c r="N152" s="16"/>
     </row>
     <row r="153">
       <c r="A153" s="143" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="B153" s="215" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="C153" s="157" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D153" s="45"/>
       <c r="E153" s="143" t="s">
         <v>375</v>
       </c>
       <c r="F153" s="38" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="G153" s="153" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="H153" s="42"/>
       <c r="I153" s="40"/>
       <c r="J153" s="40"/>
       <c r="K153" s="140" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="L153" s="156" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="M153" s="156"/>
       <c r="N153" s="40"/>
     </row>
     <row r="154">
       <c r="A154" s="143" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="B154" s="215" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="C154" s="157" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D154" s="227"/>
       <c r="E154" s="143" t="s">
         <v>365</v>
       </c>
       <c r="F154" s="38" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="G154" s="38" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="H154" s="44"/>
       <c r="I154" s="40"/>
       <c r="J154" s="40"/>
       <c r="K154" s="228" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="L154" s="5" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="M154" s="5"/>
       <c r="N154" s="40"/>
     </row>
     <row r="155">
       <c r="A155" s="143" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="B155" s="215" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="C155" s="157" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D155" s="227"/>
       <c r="E155" s="143" t="s">
         <v>375</v>
       </c>
       <c r="F155" s="38" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="G155" s="153" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="H155" s="44"/>
       <c r="I155" s="40"/>
       <c r="J155" s="40"/>
       <c r="K155" s="140" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="L155" s="229" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="M155" s="229"/>
       <c r="N155" s="40"/>
     </row>
     <row r="156">
       <c r="A156" s="143" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="B156" s="215" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="C156" s="157" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D156" s="227"/>
       <c r="E156" s="143" t="s">
         <v>365</v>
       </c>
       <c r="F156" s="38" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="G156" s="153" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="H156" s="42"/>
       <c r="I156" s="40"/>
       <c r="J156" s="40"/>
       <c r="K156" s="228" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="L156" s="5" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="M156" s="5"/>
       <c r="N156" s="40"/>
     </row>
     <row r="157">
       <c r="A157" s="143" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="B157" s="215" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="C157" s="157" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D157" s="227"/>
       <c r="E157" s="143" t="s">
         <v>375</v>
       </c>
       <c r="F157" s="38" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="G157" s="153" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="H157" s="42"/>
       <c r="I157" s="40"/>
       <c r="J157" s="40"/>
       <c r="K157" s="140" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="L157" s="156" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="M157" s="156"/>
       <c r="N157" s="40"/>
     </row>
     <row r="158">
       <c r="A158" s="143" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="B158" s="215" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="C158" s="157" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D158" s="227"/>
       <c r="E158" s="143" t="s">
         <v>365</v>
       </c>
       <c r="F158" s="38" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="G158" s="153" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="H158" s="42"/>
       <c r="I158" s="40"/>
       <c r="J158" s="40"/>
       <c r="K158" s="228" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="L158" s="5" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="M158" s="5"/>
       <c r="N158" s="40"/>
     </row>
     <row r="159">
       <c r="A159" s="143" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="B159" s="215" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="C159" s="157" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D159" s="227"/>
       <c r="E159" s="143" t="s">
         <v>375</v>
       </c>
       <c r="F159" s="38" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="G159" s="153" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="H159" s="42"/>
       <c r="I159" s="40"/>
       <c r="J159" s="40"/>
       <c r="K159" s="140" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="L159" s="230" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="M159" s="230"/>
       <c r="N159" s="40"/>
     </row>
     <row r="160">
       <c r="A160" s="30" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="B160" s="125" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="C160" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D160" s="231"/>
       <c r="E160" s="232" t="s">
         <v>365</v>
       </c>
       <c r="F160" s="14" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="H160" s="13"/>
       <c r="I160" s="16"/>
       <c r="J160" s="16"/>
       <c r="K160" s="228" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="L160" s="5" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="M160" s="5"/>
       <c r="N160" s="16"/>
     </row>
     <row r="161">
       <c r="A161" s="30" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="B161" s="125" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="C161" s="158" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D161" s="231"/>
       <c r="E161" s="30" t="s">
         <v>375</v>
       </c>
       <c r="F161" s="14" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="G161" s="233" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="H161" s="13"/>
       <c r="I161" s="16"/>
       <c r="J161" s="16"/>
       <c r="K161" s="131" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="L161" s="159" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="M161" s="159"/>
       <c r="N161" s="16"/>
     </row>
     <row r="162">
       <c r="A162" s="30" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="B162" s="125" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="C162" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D162" s="231"/>
       <c r="E162" s="232" t="s">
         <v>365</v>
       </c>
       <c r="F162" s="14" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="H162" s="13"/>
       <c r="I162" s="16"/>
       <c r="J162" s="16"/>
       <c r="K162" s="228" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="L162" s="5" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="M162" s="5"/>
       <c r="N162" s="16"/>
     </row>
     <row r="163">
       <c r="A163" s="30" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="B163" s="125" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="C163" s="158" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D163" s="231"/>
       <c r="E163" s="30" t="s">
         <v>375</v>
       </c>
       <c r="F163" s="14" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="G163" s="233" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="H163" s="13"/>
       <c r="I163" s="16"/>
       <c r="J163" s="16"/>
       <c r="K163" s="131" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="L163" s="159" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="M163" s="159"/>
       <c r="N163" s="16"/>
     </row>
     <row r="164">
       <c r="A164" s="30" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="B164" s="125" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="C164" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D164" s="231"/>
       <c r="E164" s="232" t="s">
         <v>365</v>
       </c>
       <c r="F164" s="14" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="G164" s="137" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="H164" s="13"/>
       <c r="I164" s="16"/>
       <c r="J164" s="16"/>
       <c r="K164" s="228" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="L164" s="5" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="M164" s="15"/>
       <c r="N164" s="15"/>
     </row>
     <row r="165">
       <c r="A165" s="30" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="B165" s="125" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="C165" s="158" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D165" s="231"/>
       <c r="E165" s="30" t="s">
         <v>375</v>
       </c>
       <c r="F165" s="14" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="G165" s="233" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="H165" s="13"/>
       <c r="I165" s="16"/>
       <c r="J165" s="16"/>
       <c r="K165" s="131" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="L165" s="159" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="M165" s="15"/>
       <c r="N165" s="15"/>
     </row>
     <row r="166">
       <c r="A166" s="30" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="B166" s="125" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="C166" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D166" s="231"/>
       <c r="E166" s="232" t="s">
         <v>365</v>
       </c>
       <c r="F166" s="14" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="G166" s="137" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="H166" s="13"/>
       <c r="I166" s="16"/>
       <c r="J166" s="16"/>
       <c r="K166" s="228" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="L166" s="5" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="M166" s="15"/>
       <c r="N166" s="15"/>
     </row>
     <row r="167">
       <c r="A167" s="30" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="B167" s="125" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="C167" s="158" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D167" s="231"/>
       <c r="E167" s="30" t="s">
         <v>375</v>
       </c>
       <c r="F167" s="14" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="G167" s="233" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="H167" s="13"/>
       <c r="I167" s="16"/>
       <c r="J167" s="16"/>
       <c r="K167" s="131" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="L167" s="159" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="M167" s="15"/>
       <c r="N167" s="15"/>
     </row>
     <row r="168">
       <c r="A168" s="30" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="B168" s="125" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="C168" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D168" s="231"/>
       <c r="E168" s="232" t="s">
         <v>365</v>
       </c>
       <c r="F168" s="14" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="G168" s="137" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="H168" s="13"/>
       <c r="I168" s="16"/>
       <c r="J168" s="16"/>
       <c r="K168" s="228" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="L168" s="5" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="M168" s="15"/>
       <c r="N168" s="15"/>
     </row>
     <row r="169">
       <c r="A169" s="30" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="B169" s="125" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="C169" s="158" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D169" s="231"/>
       <c r="E169" s="30" t="s">
         <v>375</v>
       </c>
       <c r="F169" s="14" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="G169" s="233" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="H169" s="13"/>
       <c r="I169" s="16"/>
       <c r="J169" s="16"/>
       <c r="K169" s="131" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="L169" s="159" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="M169" s="15"/>
       <c r="N169" s="19"/>
     </row>
     <row r="170">
       <c r="A170" s="30" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="B170" s="125" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="C170" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D170" s="231"/>
       <c r="E170" s="232" t="s">
         <v>365</v>
       </c>
       <c r="F170" s="14" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="G170" s="137" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="H170" s="13"/>
       <c r="I170" s="16"/>
       <c r="J170" s="16"/>
       <c r="K170" s="228" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="L170" s="5" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="M170" s="15"/>
       <c r="N170" s="19"/>
     </row>
     <row r="171">
       <c r="A171" s="30" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="B171" s="125" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="C171" s="158" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D171" s="231"/>
       <c r="E171" s="20" t="s">
         <v>372</v>
       </c>
       <c r="F171" s="233" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="G171" s="5"/>
       <c r="H171" s="13"/>
@@ -16705,143 +16738,143 @@
     </row>
     <row r="172">
       <c r="A172" s="30" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="B172" s="125" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C172" s="158" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D172" s="231"/>
       <c r="E172" s="20" t="s">
         <v>372</v>
       </c>
       <c r="F172" s="233" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="G172" s="14"/>
       <c r="H172" s="13"/>
       <c r="I172" s="16"/>
       <c r="J172" s="16"/>
       <c r="K172" s="131" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="L172" s="159" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="M172" s="159"/>
       <c r="N172" s="16"/>
     </row>
     <row r="173">
       <c r="A173" s="30" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="B173" s="125" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="C173" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D173" s="31"/>
       <c r="E173" s="20" t="s">
         <v>372</v>
       </c>
       <c r="F173" s="233" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="G173" s="14"/>
       <c r="H173" s="31"/>
       <c r="I173" s="16"/>
       <c r="J173" s="16"/>
       <c r="K173" s="131" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="L173" s="159" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="M173" s="159"/>
       <c r="N173" s="16"/>
     </row>
     <row r="174">
       <c r="A174" s="18" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="B174" s="125" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="C174" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D174" s="31"/>
       <c r="E174" s="20" t="s">
         <v>372</v>
       </c>
       <c r="F174" s="233" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="G174" s="14"/>
       <c r="H174" s="31"/>
       <c r="I174" s="16"/>
       <c r="J174" s="16"/>
       <c r="K174" s="131" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="L174" s="159" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="M174" s="159"/>
       <c r="N174" s="16"/>
     </row>
     <row r="175">
       <c r="A175" s="18" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="B175" s="125" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="C175" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D175" s="31"/>
       <c r="E175" s="20" t="s">
         <v>372</v>
       </c>
       <c r="F175" s="233" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="G175" s="14"/>
       <c r="H175" s="31"/>
       <c r="I175" s="16"/>
       <c r="J175" s="16"/>
       <c r="K175" s="131" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="L175" s="159" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M175" s="159"/>
       <c r="N175" s="16"/>
     </row>
     <row r="176">
       <c r="A176" s="30" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="B176" s="128" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="C176" s="158" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D176" s="31"/>
       <c r="E176" s="20" t="s">
         <v>372</v>
       </c>
       <c r="F176" s="14" t="s">
-        <v>566</v>
+        <v>1124</v>
       </c>
       <c r="G176" s="14" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="H176" s="13"/>
       <c r="I176" s="16"/>
@@ -16857,55 +16890,55 @@
     </row>
     <row r="177">
       <c r="A177" s="30" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="B177" s="128" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="C177" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D177" s="31"/>
       <c r="E177" s="30" t="s">
         <v>365</v>
       </c>
       <c r="F177" s="14" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="G177" s="14" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="H177" s="13"/>
       <c r="I177" s="16"/>
       <c r="J177" s="16"/>
       <c r="K177" s="235" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="L177" s="234" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="M177" s="131"/>
       <c r="N177" s="16"/>
     </row>
     <row r="178">
       <c r="A178" s="30" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="B178" s="128" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="C178" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D178" s="31"/>
       <c r="E178" s="30" t="s">
         <v>365</v>
       </c>
       <c r="F178" s="14" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="G178" s="14" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="H178" s="13"/>
       <c r="I178" s="16"/>
@@ -16914,30 +16947,30 @@
         <v>46</v>
       </c>
       <c r="L178" s="234" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="M178" s="131"/>
       <c r="N178" s="16"/>
     </row>
     <row r="179">
       <c r="A179" s="30" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="B179" s="128" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="C179" s="158" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D179" s="31"/>
       <c r="E179" s="20" t="s">
         <v>372</v>
       </c>
       <c r="F179" s="14" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="G179" s="14" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="H179" s="13"/>
       <c r="I179" s="16"/>
@@ -16953,32 +16986,32 @@
     </row>
     <row r="180">
       <c r="A180" s="30" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="B180" s="128" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="C180" s="158" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D180" s="31"/>
       <c r="E180" s="30" t="s">
         <v>365</v>
       </c>
       <c r="F180" s="14" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="G180" s="14" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="H180" s="13"/>
       <c r="I180" s="16"/>
       <c r="J180" s="16"/>
       <c r="K180" s="236" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="L180" s="237" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="M180" s="131"/>
       <c r="N180" s="16"/>
@@ -17018,24 +17051,24 @@
         <v>2</v>
       </c>
       <c r="D1" s="240" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="E1" s="238" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="241" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="242" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="B2" s="243" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="C2" s="244" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="D2" s="244"/>
       <c r="E2" s="245"/>
@@ -17043,29 +17076,29 @@
     </row>
     <row r="3">
       <c r="A3" s="242" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="B3" s="243" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="C3" s="243" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="D3" s="243"/>
       <c r="E3" s="247"/>
       <c r="F3" s="241" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="242" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="B4" s="243" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="C4" s="243" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="D4" s="243"/>
       <c r="E4" s="248"/>
@@ -17073,13 +17106,13 @@
     </row>
     <row r="5">
       <c r="A5" s="242" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="B5" s="243" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="C5" s="243" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="D5" s="243"/>
       <c r="E5" s="248"/>
@@ -17087,13 +17120,13 @@
     </row>
     <row r="6">
       <c r="A6" s="242" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="B6" s="249" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="C6" s="243" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="D6" s="243"/>
       <c r="E6" s="247"/>
@@ -17101,13 +17134,13 @@
     </row>
     <row r="7">
       <c r="A7" s="242" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="B7" s="250" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="C7" s="243" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="D7" s="243"/>
       <c r="E7" s="241"/>
@@ -17115,13 +17148,13 @@
     </row>
     <row r="8">
       <c r="A8" s="242" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="B8" s="250" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="C8" s="243" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="D8" s="243"/>
       <c r="E8" s="241"/>
@@ -17129,13 +17162,13 @@
     </row>
     <row r="9">
       <c r="A9" s="242" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="B9" s="250" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C9" s="251" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D9" s="251"/>
       <c r="E9" s="252"/>
@@ -17143,13 +17176,13 @@
     </row>
     <row r="10">
       <c r="A10" s="242" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="B10" s="250" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="C10" s="243" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="D10" s="243"/>
       <c r="E10" s="241"/>
@@ -17157,13 +17190,13 @@
     </row>
     <row r="11">
       <c r="A11" s="242" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="B11" s="243" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="C11" s="243" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="D11" s="243"/>
       <c r="E11" s="246"/>
@@ -17171,13 +17204,13 @@
     </row>
     <row r="12">
       <c r="A12" s="242" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="B12" s="253" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="C12" s="253" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="D12" s="253"/>
       <c r="E12" s="246"/>
@@ -17185,13 +17218,13 @@
     </row>
     <row r="13">
       <c r="A13" s="242" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="B13" s="254" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="C13" s="253" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="D13" s="253"/>
       <c r="E13" s="246"/>
@@ -17199,13 +17232,13 @@
     </row>
     <row r="14">
       <c r="A14" s="242" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="B14" s="254" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="C14" s="253" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="D14" s="253"/>
       <c r="E14" s="246"/>
@@ -17213,13 +17246,13 @@
     </row>
     <row r="15">
       <c r="A15" s="242" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="B15" s="254" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="C15" s="253" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="D15" s="253"/>
       <c r="E15" s="246"/>
@@ -17227,13 +17260,13 @@
     </row>
     <row r="16">
       <c r="A16" s="242" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="B16" s="254" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="C16" s="253" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="D16" s="253"/>
       <c r="E16" s="246"/>
@@ -17241,13 +17274,13 @@
     </row>
     <row r="17">
       <c r="A17" s="242" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="B17" s="254" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="C17" s="253" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="D17" s="253"/>
       <c r="E17" s="246"/>
@@ -17255,13 +17288,13 @@
     </row>
     <row r="18">
       <c r="A18" s="242" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="B18" s="254" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="C18" s="253" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="D18" s="253"/>
       <c r="E18" s="246"/>
@@ -17269,13 +17302,13 @@
     </row>
     <row r="19">
       <c r="A19" s="242" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="B19" s="254" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="C19" s="253" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="D19" s="253"/>
       <c r="E19" s="246"/>
@@ -17283,13 +17316,13 @@
     </row>
     <row r="20">
       <c r="A20" s="242" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="B20" s="254" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="C20" s="255" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D20" s="255"/>
       <c r="E20" s="246"/>
@@ -17297,13 +17330,13 @@
     </row>
     <row r="21">
       <c r="A21" s="242" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="B21" s="256" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="C21" s="253" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="D21" s="253"/>
       <c r="E21" s="246"/>
@@ -17311,29 +17344,29 @@
     </row>
     <row r="22">
       <c r="A22" s="242" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="B22" s="254" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="D22" s="257" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="E22" s="241"/>
       <c r="F22" s="246"/>
     </row>
     <row r="23">
       <c r="A23" s="242" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="B23" s="258" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="C23" s="259" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="D23" s="259"/>
       <c r="E23" s="246"/>
@@ -17341,13 +17374,13 @@
     </row>
     <row r="24">
       <c r="A24" s="242" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="B24" s="258" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="C24" s="259" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="D24" s="259"/>
       <c r="E24" s="246"/>
@@ -17355,29 +17388,29 @@
     </row>
     <row r="25">
       <c r="A25" s="242" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="B25" s="258" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="D25" s="259" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E25" s="241"/>
       <c r="F25" s="246"/>
     </row>
     <row r="26">
       <c r="A26" s="242" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="B26" s="253" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="C26" s="253" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="D26" s="253"/>
       <c r="E26" s="241"/>
@@ -17385,13 +17418,13 @@
     </row>
     <row r="27">
       <c r="A27" s="242" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="B27" s="253" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="C27" s="253" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="D27" s="253"/>
       <c r="E27" s="246"/>
@@ -17399,13 +17432,13 @@
     </row>
     <row r="28">
       <c r="A28" s="242" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="B28" s="253" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="C28" s="253" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="D28" s="253"/>
       <c r="E28" s="246"/>
@@ -17413,143 +17446,143 @@
     </row>
     <row r="29">
       <c r="A29" s="242" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="B29" s="260" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="C29" s="250" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="D29" s="250"/>
       <c r="E29" s="261"/>
     </row>
     <row r="30">
       <c r="A30" s="242" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="B30" s="260" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="C30" s="250" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="D30" s="250"/>
       <c r="E30" s="261"/>
     </row>
     <row r="31">
       <c r="A31" s="242" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="B31" s="260" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C31" s="250" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="D31" s="250"/>
       <c r="E31" s="261"/>
     </row>
     <row r="32">
       <c r="A32" s="242" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="B32" s="260" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="C32" s="250" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="D32" s="250"/>
       <c r="E32" s="261"/>
     </row>
     <row r="33">
       <c r="A33" s="242" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="B33" s="260" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="C33" s="250" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="D33" s="250"/>
       <c r="E33" s="261"/>
     </row>
     <row r="34">
       <c r="A34" s="242" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="B34" s="260" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="C34" s="250" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="D34" s="250"/>
       <c r="E34" s="261"/>
     </row>
     <row r="35">
       <c r="A35" s="242" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="B35" s="260" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="C35" s="250" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="D35" s="250"/>
       <c r="E35" s="261"/>
     </row>
     <row r="36">
       <c r="A36" s="242" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="B36" s="260" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="C36" s="250" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="D36" s="250"/>
       <c r="E36" s="261"/>
     </row>
     <row r="37">
       <c r="A37" s="242" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="B37" s="260" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="C37" s="250" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="D37" s="250"/>
       <c r="E37" s="261"/>
     </row>
     <row r="38">
       <c r="A38" s="242" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="B38" s="260" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="C38" s="250" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="D38" s="250"/>
       <c r="E38" s="261"/>
     </row>
     <row r="39">
       <c r="A39" s="242" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="B39" s="262" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="C39" s="258" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="D39" s="258"/>
       <c r="E39" s="263"/>
@@ -17557,13 +17590,13 @@
     </row>
     <row r="40">
       <c r="A40" s="242" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="B40" s="262" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="C40" s="258" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="D40" s="258"/>
       <c r="E40" s="264"/>
@@ -17571,13 +17604,13 @@
     </row>
     <row r="41">
       <c r="A41" s="242" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="B41" s="262" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="C41" s="258" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="D41" s="258"/>
       <c r="E41" s="263"/>
@@ -17585,13 +17618,13 @@
     </row>
     <row r="42">
       <c r="A42" s="242" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="B42" s="262" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="C42" s="265" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="D42" s="265"/>
       <c r="E42" s="246"/>
@@ -17599,13 +17632,13 @@
     </row>
     <row r="43">
       <c r="A43" s="242" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="B43" s="266" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="C43" s="265" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="D43" s="265"/>
       <c r="E43" s="246"/>
@@ -17613,13 +17646,13 @@
     </row>
     <row r="44">
       <c r="A44" s="242" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="B44" s="266" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="C44" s="267" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="D44" s="267"/>
       <c r="E44" s="246"/>
@@ -17627,10 +17660,10 @@
     </row>
     <row r="45" ht="20.25" customHeight="1">
       <c r="A45" s="242" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="C45" s="268" t="s">
         <v>310</v>
@@ -17641,10 +17674,10 @@
     </row>
     <row r="46">
       <c r="A46" s="242" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>314</v>
@@ -17655,10 +17688,10 @@
     </row>
     <row r="47">
       <c r="A47" s="242" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="C47" s="245" t="s">
         <v>317</v>
@@ -17669,10 +17702,10 @@
     </row>
     <row r="48">
       <c r="A48" s="242" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="C48" s="245" t="s">
         <v>320</v>
@@ -17683,10 +17716,10 @@
     </row>
     <row r="49">
       <c r="A49" s="242" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="C49" s="154" t="s">
         <v>323</v>
@@ -17697,10 +17730,10 @@
     </row>
     <row r="50">
       <c r="A50" s="242" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="C50" s="154" t="s">
         <v>326</v>
@@ -17711,10 +17744,10 @@
     </row>
     <row r="51">
       <c r="A51" s="242" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="C51" s="245" t="s">
         <v>329</v>
@@ -17725,10 +17758,10 @@
     </row>
     <row r="52">
       <c r="A52" s="242" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="C52" s="154" t="s">
         <v>332</v>
@@ -17739,10 +17772,10 @@
     </row>
     <row r="53">
       <c r="A53" s="242" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="C53" s="245" t="s">
         <v>335</v>
@@ -17753,10 +17786,10 @@
     </row>
     <row r="54">
       <c r="A54" s="269" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="B54" s="270" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="C54" s="271" t="s">
         <v>338</v>
@@ -17767,13 +17800,13 @@
     </row>
     <row r="55">
       <c r="A55" s="242" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="16"/>
@@ -17809,30 +17842,30 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="30" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>271</v>
@@ -17842,13 +17875,13 @@
     </row>
     <row r="3">
       <c r="A3" s="30" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E3" s="30" t="s">
         <v>383</v>
@@ -17858,13 +17891,13 @@
     </row>
     <row r="4">
       <c r="A4" s="30" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="E4" s="30" t="s">
         <v>386</v>
@@ -17874,14 +17907,14 @@
     </row>
     <row r="5">
       <c r="A5" s="30" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="14" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E5" s="30" t="s">
         <v>263</v>
@@ -17891,14 +17924,14 @@
     </row>
     <row r="6">
       <c r="A6" s="30" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="14" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>267</v>
@@ -17908,31 +17941,31 @@
     </row>
     <row r="7">
       <c r="A7" s="30" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="14" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>1306</v>
+        <v>392</v>
       </c>
       <c r="F7" s="33"/>
       <c r="G7" s="16"/>
     </row>
     <row r="8">
       <c r="A8" s="30" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="14" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>53</v>
@@ -17942,14 +17975,14 @@
     </row>
     <row r="9">
       <c r="A9" s="30" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="14" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>58</v>
@@ -17959,14 +17992,14 @@
     </row>
     <row r="10">
       <c r="A10" s="30" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="14" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>62</v>
@@ -17976,14 +18009,14 @@
     </row>
     <row r="11">
       <c r="A11" s="30" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="14" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>66</v>
@@ -17993,14 +18026,14 @@
     </row>
     <row r="12">
       <c r="A12" s="30" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="14" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>70</v>
@@ -18010,14 +18043,14 @@
     </row>
     <row r="13">
       <c r="A13" s="30" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="14" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>74</v>
@@ -18027,14 +18060,14 @@
     </row>
     <row r="14">
       <c r="A14" s="66" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="B14" s="64"/>
       <c r="C14" s="62" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="E14" s="66" t="s">
         <v>191</v>
@@ -18044,14 +18077,14 @@
     </row>
     <row r="15">
       <c r="A15" s="66" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="B15" s="64"/>
       <c r="C15" s="62" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="D15" s="76" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="E15" s="66" t="s">
         <v>195</v>
@@ -18061,14 +18094,14 @@
     </row>
     <row r="16">
       <c r="A16" s="66" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B16" s="64"/>
       <c r="C16" s="62" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="D16" s="62" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E16" s="66" t="s">
         <v>199</v>
@@ -18078,14 +18111,14 @@
     </row>
     <row r="17">
       <c r="A17" s="66" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="B17" s="64"/>
       <c r="C17" s="62" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="D17" s="62" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="E17" s="66" t="s">
         <v>203</v>
@@ -18095,14 +18128,14 @@
     </row>
     <row r="18">
       <c r="A18" s="66" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B18" s="64"/>
       <c r="C18" s="62" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="D18" s="62" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="E18" s="66" t="s">
         <v>207</v>
@@ -18112,14 +18145,14 @@
     </row>
     <row r="19">
       <c r="A19" s="66" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B19" s="64"/>
       <c r="C19" s="62" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D19" s="62" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E19" s="66" t="s">
         <v>211</v>
@@ -18129,48 +18162,48 @@
     </row>
     <row r="20">
       <c r="A20" s="30" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="14" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="16"/>
     </row>
     <row r="21">
       <c r="A21" s="30" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="14" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="16"/>
     </row>
     <row r="22">
       <c r="A22" s="30" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="14" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>239</v>
@@ -18180,14 +18213,14 @@
     </row>
     <row r="23">
       <c r="A23" s="30" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="14" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="E23" s="30" t="s">
         <v>311</v>
@@ -18197,150 +18230,150 @@
     </row>
     <row r="24">
       <c r="A24" s="30" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="14" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="16"/>
     </row>
     <row r="25">
       <c r="A25" s="30" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="14" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="16"/>
     </row>
     <row r="26">
       <c r="A26" s="30" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="14" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F26" s="33"/>
       <c r="G26" s="16"/>
     </row>
     <row r="27">
       <c r="A27" s="30" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="14" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="16"/>
     </row>
     <row r="28">
       <c r="A28" s="30" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="14" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F28" s="33"/>
       <c r="G28" s="16"/>
     </row>
     <row r="29">
       <c r="A29" s="30" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="14" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="16"/>
     </row>
     <row r="30">
       <c r="A30" s="30" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="14" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="16"/>
     </row>
     <row r="31">
       <c r="A31" s="30" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="14" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="16"/>
     </row>
     <row r="32">
       <c r="A32" s="30" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="14" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="E32" s="30" t="s">
         <v>275</v>
@@ -18350,48 +18383,48 @@
     </row>
     <row r="33">
       <c r="A33" s="30" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="14" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="16"/>
     </row>
     <row r="34">
       <c r="A34" s="30" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="14" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="16"/>
     </row>
     <row r="35">
       <c r="A35" s="30" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="B35" s="16"/>
       <c r="C35" s="14" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="E35" s="30" t="s">
         <v>93</v>
@@ -18401,14 +18434,14 @@
     </row>
     <row r="36">
       <c r="A36" s="30" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B36" s="16"/>
       <c r="C36" s="14" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="E36" s="30" t="s">
         <v>98</v>
@@ -18418,14 +18451,14 @@
     </row>
     <row r="37">
       <c r="A37" s="30" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="14" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="E37" s="30" t="s">
         <v>102</v>
@@ -18435,14 +18468,14 @@
     </row>
     <row r="38">
       <c r="A38" s="30" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="14" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="E38" s="30" t="s">
         <v>106</v>
@@ -18452,14 +18485,14 @@
     </row>
     <row r="39">
       <c r="A39" s="30" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="B39" s="16"/>
       <c r="C39" s="14" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="E39" s="30" t="s">
         <v>110</v>
@@ -18469,14 +18502,14 @@
     </row>
     <row r="40">
       <c r="A40" s="30" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B40" s="16"/>
       <c r="C40" s="14" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="E40" s="30" t="s">
         <v>114</v>
@@ -18486,14 +18519,14 @@
     </row>
     <row r="41">
       <c r="A41" s="30" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B41" s="16"/>
       <c r="C41" s="14" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="E41" s="30" t="s">
         <v>118</v>
@@ -18503,14 +18536,14 @@
     </row>
     <row r="42">
       <c r="A42" s="30" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="B42" s="16"/>
       <c r="C42" s="14" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="E42" s="30" t="s">
         <v>122</v>
@@ -18520,14 +18553,14 @@
     </row>
     <row r="43">
       <c r="A43" s="30" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B43" s="16"/>
       <c r="C43" s="14" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="E43" s="30" t="s">
         <v>126</v>
@@ -18537,34 +18570,34 @@
     </row>
     <row r="44">
       <c r="A44" s="30" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B44" s="16"/>
       <c r="C44" s="14" t="s">
-        <v>566</v>
+        <v>1124</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>601</v>
+        <v>1128</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F44" s="33"/>
       <c r="G44" s="16"/>
     </row>
     <row r="45">
       <c r="A45" s="30" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="14" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F45" s="33"/>
       <c r="G45" s="16"/>
@@ -18601,32 +18634,32 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
@@ -18670,25 +18703,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="275" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E1" s="275" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="F1" s="275" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="H1" s="276" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="2">
@@ -18696,16 +18729,16 @@
         <v>382</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="D2" s="277"/>
       <c r="F2" s="276"/>
       <c r="H2" s="278"/>
       <c r="J2" s="5" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="3">
@@ -18713,17 +18746,17 @@
         <v>385</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="D3" s="278"/>
       <c r="E3" s="276"/>
       <c r="F3" s="276"/>
       <c r="H3" s="276"/>
       <c r="J3" s="5" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="4">
@@ -18731,17 +18764,17 @@
         <v>388</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="D4" s="278"/>
       <c r="E4" s="276"/>
       <c r="F4" s="276"/>
       <c r="H4" s="276"/>
       <c r="J4" s="5" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="5">
@@ -18749,66 +18782,66 @@
         <v>390</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="D5" s="276"/>
       <c r="E5" s="276"/>
       <c r="F5" s="276"/>
       <c r="H5" s="278"/>
       <c r="J5" s="5" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="D6" s="276"/>
       <c r="E6" s="126"/>
       <c r="F6" s="279"/>
       <c r="H6" s="5" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="D7" s="276"/>
       <c r="E7" s="276"/>
       <c r="F7" s="276"/>
       <c r="H7" s="276"/>
       <c r="J7" s="5" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="D8" s="276"/>
       <c r="E8" s="276"/>
@@ -18816,54 +18849,54 @@
       <c r="G8" s="276"/>
       <c r="H8" s="276"/>
       <c r="J8" s="5" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="D9" s="276"/>
       <c r="E9" s="276"/>
       <c r="F9" s="276"/>
       <c r="H9" s="276"/>
       <c r="J9" s="5" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="D10" s="276"/>
       <c r="E10" s="276"/>
       <c r="F10" s="276"/>
       <c r="H10" s="278"/>
       <c r="J10" s="5" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="D11" s="276"/>
       <c r="E11" s="276"/>
@@ -18871,18 +18904,18 @@
       <c r="G11" s="276"/>
       <c r="H11" s="276"/>
       <c r="J11" s="14" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="D12" s="276"/>
       <c r="E12" s="276"/>
@@ -18890,54 +18923,54 @@
       <c r="G12" s="276"/>
       <c r="H12" s="276"/>
       <c r="J12" s="5" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="D13" s="276"/>
       <c r="E13" s="276"/>
       <c r="F13" s="276"/>
       <c r="H13" s="276"/>
       <c r="J13" s="5" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="D14" s="276"/>
       <c r="E14" s="276"/>
       <c r="F14" s="276"/>
       <c r="H14" s="278"/>
       <c r="J14" s="5" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="D15" s="276"/>
       <c r="E15" s="276"/>
@@ -18945,99 +18978,99 @@
       <c r="G15" s="276"/>
       <c r="H15" s="276"/>
       <c r="J15" s="14" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="D16" s="278"/>
       <c r="E16" s="276"/>
       <c r="F16" s="276"/>
       <c r="H16" s="5" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="J16" s="280" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="E17" s="276"/>
       <c r="F17" s="281"/>
       <c r="H17" s="5" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="J17" s="280" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="E18" s="276"/>
       <c r="F18" s="281"/>
       <c r="H18" s="5" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="J18" s="280" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="E19" s="276"/>
       <c r="F19" s="281"/>
       <c r="H19" s="5"/>
       <c r="J19" s="280" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="E20" s="276"/>
       <c r="F20" s="281"/>
       <c r="H20" s="5"/>
       <c r="J20" s="5" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
     </row>
   </sheetData>
@@ -19063,66 +19096,66 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="282" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="282" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>1404</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1403</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="282" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="5" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5"/>
       <c r="B6" s="283" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5"/>
       <c r="B7" s="283" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>1411</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>1410</v>
       </c>
     </row>
   </sheetData>

--- a/models/ard-arm-cardiac/source/ard-arm-cardiac.xlsx
+++ b/models/ard-arm-cardiac/source/ard-arm-cardiac.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2557" uniqueCount="1492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2543" uniqueCount="1488">
   <si>
     <t>id</t>
   </si>
@@ -3013,25 +3013,10 @@
     <t>A74,A75,A75</t>
   </si>
   <si>
-    <t>dc-sn-rv_11</t>
-  </si>
-  <si>
-    <t>Dendrite from heart_layer 5 of heart to right ventricle and aorta_Neuron 11 (aacar)</t>
-  </si>
-  <si>
-    <t>ns168_3</t>
-  </si>
-  <si>
-    <t>dc-sn-rv2_11</t>
-  </si>
-  <si>
-    <t>Dendrite from heart_layer 5 to heart rv2_Neuron 11 (aacar)</t>
-  </si>
-  <si>
-    <t>ns168_4</t>
-  </si>
-  <si>
-    <t>dc-sn-la-mus_11</t>
+    <t>dc-sn-rv-mus_11</t>
+  </si>
+  <si>
+    <t>Dendrite from heart to right ventricle layer 2_Neuron 11 (aacar)</t>
   </si>
   <si>
     <t>ns168_1</t>
@@ -3040,7 +3025,10 @@
     <t>A74,A76</t>
   </si>
   <si>
-    <t>dc-sn-la-end_11</t>
+    <t>dc-sn-rv-end_11</t>
+  </si>
+  <si>
+    <t>Dendrite from heart to right ventricle layer 1_Neuron 11 (aacar)</t>
   </si>
   <si>
     <t>ns168_2</t>
@@ -6063,122 +6051,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="114" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="B1" s="114" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="283" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="B2" s="284" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="283" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="B3" s="284" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="283" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="B4" s="285" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="283" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="B5" s="285" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="283" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="B6" s="285" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="283" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="B7" s="285" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="283" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="B8" s="285" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="283" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="B9" s="285" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="283" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="B10" s="285" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="283" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="B11" s="285" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="B12" s="284" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="31" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="B13" s="284" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="31" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="B14" s="284" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="B15" s="116" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
     </row>
   </sheetData>
@@ -6214,16 +6202,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
@@ -6239,13 +6227,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
@@ -6286,13 +6274,13 @@
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -6309,10 +6297,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -6327,10 +6315,10 @@
     <row r="7">
       <c r="A7" s="16"/>
       <c r="B7" s="16" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -6345,10 +6333,10 @@
     <row r="8">
       <c r="A8" s="16"/>
       <c r="B8" s="16" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
@@ -6363,10 +6351,10 @@
     <row r="9">
       <c r="A9" s="16"/>
       <c r="B9" s="16" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
@@ -6394,10 +6382,10 @@
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -6412,10 +6400,10 @@
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="B12" s="286" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -6430,10 +6418,10 @@
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="B13" s="286" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -6448,10 +6436,10 @@
     </row>
     <row r="14">
       <c r="A14" s="16" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="B14" s="286" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -6466,10 +6454,10 @@
     </row>
     <row r="15">
       <c r="A15" s="16" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="B15" s="286" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -6484,10 +6472,10 @@
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="B16" s="98" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -6502,10 +6490,10 @@
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -6534,10 +6522,10 @@
     </row>
     <row r="19">
       <c r="A19" s="16" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="B19" s="98" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -6552,7 +6540,7 @@
     </row>
     <row r="20">
       <c r="A20" s="16" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="B20" s="123" t="s">
         <v>6</v>
@@ -6570,10 +6558,10 @@
     </row>
     <row r="21">
       <c r="A21" s="16" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="B21" s="123" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="L21" s="16"/>
     </row>
@@ -6603,28 +6591,28 @@
     </row>
     <row r="28">
       <c r="A28" s="287" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="B28" s="288" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="L28" s="16"/>
     </row>
     <row r="29">
       <c r="A29" s="287" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="B29" s="289" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="L29" s="16"/>
     </row>
     <row r="30">
       <c r="A30" s="287" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="B30" s="290" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="C30" s="288"/>
       <c r="D30" s="288"/>
@@ -6639,13 +6627,13 @@
     </row>
     <row r="31" hidden="1">
       <c r="A31" s="16" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="L31" s="16"/>
     </row>
     <row r="32" hidden="1">
       <c r="A32" s="16" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="L32" s="16"/>
     </row>
@@ -15746,29 +15734,29 @@
         <v>374</v>
       </c>
       <c r="F140" s="38" t="s">
-        <v>946</v>
-      </c>
-      <c r="G140" s="151" t="s">
+        <v>964</v>
+      </c>
+      <c r="G140" s="38" t="s">
         <v>988</v>
       </c>
       <c r="H140" s="42"/>
       <c r="I140" s="40"/>
       <c r="J140" s="40"/>
-      <c r="K140" s="144">
-        <v>1.0</v>
+      <c r="K140" s="216" t="s">
+        <v>744</v>
       </c>
       <c r="L140" s="155" t="s">
-        <v>287</v>
+        <v>989</v>
       </c>
       <c r="M140" s="155"/>
-      <c r="N140" s="40"/>
+      <c r="N140" s="38"/>
     </row>
     <row r="141">
       <c r="A141" s="140" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B141" s="214" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C141" s="156" t="s">
         <v>509</v>
@@ -15778,61 +15766,61 @@
         <v>374</v>
       </c>
       <c r="F141" s="38" t="s">
-        <v>946</v>
-      </c>
-      <c r="G141" s="151" t="s">
-        <v>991</v>
+        <v>968</v>
+      </c>
+      <c r="G141" s="38" t="s">
+        <v>992</v>
       </c>
       <c r="H141" s="42"/>
       <c r="I141" s="40"/>
       <c r="J141" s="40"/>
-      <c r="K141" s="144">
-        <v>2.0</v>
+      <c r="K141" s="216" t="s">
+        <v>749</v>
       </c>
       <c r="L141" s="155" t="s">
-        <v>287</v>
+        <v>993</v>
       </c>
       <c r="M141" s="155"/>
-      <c r="N141" s="40"/>
+      <c r="N141" s="38"/>
     </row>
     <row r="142">
       <c r="A142" s="140" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="B142" s="214" t="s">
-        <v>957</v>
+        <v>995</v>
       </c>
       <c r="C142" s="156" t="s">
         <v>509</v>
       </c>
       <c r="D142" s="45"/>
-      <c r="E142" s="142" t="s">
-        <v>374</v>
+      <c r="E142" s="140" t="s">
+        <v>377</v>
       </c>
       <c r="F142" s="38" t="s">
         <v>964</v>
       </c>
-      <c r="G142" s="38" t="s">
-        <v>993</v>
+      <c r="G142" s="151" t="s">
+        <v>996</v>
       </c>
       <c r="H142" s="42"/>
       <c r="I142" s="40"/>
       <c r="J142" s="40"/>
-      <c r="K142" s="216" t="s">
-        <v>744</v>
+      <c r="K142" s="144">
+        <v>0.0</v>
       </c>
       <c r="L142" s="155" t="s">
-        <v>994</v>
+        <v>277</v>
       </c>
       <c r="M142" s="155"/>
-      <c r="N142" s="38"/>
+      <c r="N142" s="40"/>
     </row>
     <row r="143">
       <c r="A143" s="140" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B143" s="214" t="s">
-        <v>960</v>
+        <v>998</v>
       </c>
       <c r="C143" s="156" t="s">
         <v>509</v>
@@ -15842,125 +15830,125 @@
         <v>374</v>
       </c>
       <c r="F143" s="38" t="s">
-        <v>968</v>
-      </c>
-      <c r="G143" s="38" t="s">
         <v>996</v>
+      </c>
+      <c r="G143" s="151" t="s">
+        <v>999</v>
       </c>
       <c r="H143" s="42"/>
       <c r="I143" s="40"/>
       <c r="J143" s="40"/>
-      <c r="K143" s="216" t="s">
-        <v>749</v>
+      <c r="K143" s="144" t="s">
+        <v>1000</v>
       </c>
       <c r="L143" s="155" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="M143" s="155"/>
-      <c r="N143" s="38"/>
+      <c r="N143" s="40"/>
     </row>
     <row r="144">
-      <c r="A144" s="140" t="s">
-        <v>998</v>
-      </c>
-      <c r="B144" s="214" t="s">
-        <v>999</v>
-      </c>
-      <c r="C144" s="156" t="s">
+      <c r="A144" s="217" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B144" s="218" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C144" s="219" t="s">
         <v>509</v>
       </c>
-      <c r="D144" s="45"/>
-      <c r="E144" s="140" t="s">
+      <c r="D144" s="219"/>
+      <c r="E144" s="220" t="s">
+        <v>374</v>
+      </c>
+      <c r="F144" s="38" t="s">
+        <v>996</v>
+      </c>
+      <c r="G144" s="151" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H144" s="221"/>
+      <c r="I144" s="222"/>
+      <c r="J144" s="222"/>
+      <c r="K144" s="223" t="s">
+        <v>1000</v>
+      </c>
+      <c r="L144" s="224" t="s">
+        <v>1005</v>
+      </c>
+      <c r="M144" s="224"/>
+      <c r="N144" s="222"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="20" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B145" s="122" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C145" s="212" t="s">
+        <v>509</v>
+      </c>
+      <c r="D145" s="31"/>
+      <c r="E145" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="F144" s="38" t="s">
-        <v>964</v>
-      </c>
-      <c r="G144" s="151" t="s">
-        <v>1000</v>
-      </c>
-      <c r="H144" s="42"/>
-      <c r="I144" s="40"/>
-      <c r="J144" s="40"/>
-      <c r="K144" s="144">
+      <c r="F145" s="14" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G145" s="225" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H145" s="13"/>
+      <c r="I145" s="16"/>
+      <c r="J145" s="16"/>
+      <c r="K145" s="128">
         <v>0.0</v>
       </c>
-      <c r="L144" s="155" t="s">
-        <v>277</v>
-      </c>
-      <c r="M144" s="155"/>
-      <c r="N144" s="40"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="140" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B145" s="214" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C145" s="156" t="s">
-        <v>509</v>
-      </c>
-      <c r="D145" s="45"/>
-      <c r="E145" s="142" t="s">
-        <v>374</v>
-      </c>
-      <c r="F145" s="38" t="s">
-        <v>1000</v>
-      </c>
-      <c r="G145" s="151" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H145" s="42"/>
-      <c r="I145" s="40"/>
-      <c r="J145" s="40"/>
-      <c r="K145" s="144" t="s">
-        <v>1004</v>
-      </c>
-      <c r="L145" s="155" t="s">
-        <v>1005</v>
-      </c>
-      <c r="M145" s="155"/>
-      <c r="N145" s="40"/>
+      <c r="L145" s="158" t="s">
+        <v>233</v>
+      </c>
+      <c r="M145" s="158"/>
+      <c r="N145" s="16"/>
     </row>
     <row r="146">
-      <c r="A146" s="217" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B146" s="218" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C146" s="219" t="s">
-        <v>509</v>
-      </c>
-      <c r="D146" s="219"/>
-      <c r="E146" s="220" t="s">
-        <v>374</v>
-      </c>
-      <c r="F146" s="38" t="s">
-        <v>1000</v>
-      </c>
-      <c r="G146" s="151" t="s">
-        <v>1008</v>
-      </c>
-      <c r="H146" s="221"/>
-      <c r="I146" s="222"/>
-      <c r="J146" s="222"/>
-      <c r="K146" s="223" t="s">
-        <v>1004</v>
-      </c>
-      <c r="L146" s="224" t="s">
-        <v>1009</v>
-      </c>
-      <c r="M146" s="224"/>
-      <c r="N146" s="222"/>
+      <c r="A146" s="20" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B146" s="122" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C146" s="212" t="s">
+        <v>514</v>
+      </c>
+      <c r="D146" s="31"/>
+      <c r="E146" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="F146" s="14" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G146" s="14" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H146" s="13"/>
+      <c r="I146" s="16"/>
+      <c r="J146" s="16"/>
+      <c r="K146" s="128">
+        <v>0.0</v>
+      </c>
+      <c r="L146" s="158" t="s">
+        <v>233</v>
+      </c>
+      <c r="M146" s="158"/>
+      <c r="N146" s="16"/>
     </row>
     <row r="147">
       <c r="A147" s="20" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="B147" s="122" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="C147" s="212" t="s">
         <v>509</v>
@@ -15970,10 +15958,10 @@
         <v>377</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="G147" s="225" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="H147" s="13"/>
       <c r="I147" s="16"/>
@@ -15982,17 +15970,17 @@
         <v>0.0</v>
       </c>
       <c r="L147" s="158" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="M147" s="158"/>
       <c r="N147" s="16"/>
     </row>
     <row r="148">
       <c r="A148" s="20" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="B148" s="122" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="C148" s="212" t="s">
         <v>514</v>
@@ -16001,11 +15989,11 @@
       <c r="E148" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="F148" s="14" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G148" s="14" t="s">
-        <v>1017</v>
+      <c r="F148" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>1020</v>
       </c>
       <c r="H148" s="13"/>
       <c r="I148" s="16"/>
@@ -16014,177 +16002,177 @@
         <v>0.0</v>
       </c>
       <c r="L148" s="158" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="M148" s="158"/>
       <c r="N148" s="16"/>
     </row>
     <row r="149">
-      <c r="A149" s="20" t="s">
-        <v>1018</v>
+      <c r="A149" s="130" t="s">
+        <v>1021</v>
       </c>
       <c r="B149" s="122" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="C149" s="212" t="s">
         <v>509</v>
       </c>
       <c r="D149" s="31"/>
-      <c r="E149" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="F149" s="14" t="s">
-        <v>1020</v>
-      </c>
-      <c r="G149" s="225" t="s">
-        <v>1013</v>
+      <c r="E149" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="F149" s="225" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>1023</v>
       </c>
       <c r="H149" s="13"/>
       <c r="I149" s="16"/>
       <c r="J149" s="16"/>
-      <c r="K149" s="128">
-        <v>0.0</v>
+      <c r="K149" s="128" t="s">
+        <v>1000</v>
       </c>
       <c r="L149" s="158" t="s">
-        <v>228</v>
+        <v>1024</v>
       </c>
       <c r="M149" s="158"/>
       <c r="N149" s="16"/>
     </row>
     <row r="150">
-      <c r="A150" s="20" t="s">
-        <v>1021</v>
+      <c r="A150" s="130" t="s">
+        <v>1025</v>
       </c>
       <c r="B150" s="122" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="C150" s="212" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D150" s="31"/>
-      <c r="E150" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="F150" s="5" t="s">
-        <v>1023</v>
+      <c r="E150" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="F150" s="225" t="s">
+        <v>1009</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="H150" s="13"/>
       <c r="I150" s="16"/>
       <c r="J150" s="16"/>
-      <c r="K150" s="128">
-        <v>0.0</v>
+      <c r="K150" s="128" t="s">
+        <v>1000</v>
       </c>
       <c r="L150" s="158" t="s">
-        <v>228</v>
+        <v>1028</v>
       </c>
       <c r="M150" s="158"/>
       <c r="N150" s="16"/>
     </row>
     <row r="151">
-      <c r="A151" s="130" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B151" s="122" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C151" s="212" t="s">
+      <c r="A151" s="140" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B151" s="214" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C151" s="156" t="s">
         <v>509</v>
       </c>
-      <c r="D151" s="31"/>
-      <c r="E151" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="F151" s="225" t="s">
-        <v>1013</v>
-      </c>
-      <c r="G151" s="5" t="s">
-        <v>1027</v>
-      </c>
-      <c r="H151" s="13"/>
-      <c r="I151" s="16"/>
-      <c r="J151" s="16"/>
-      <c r="K151" s="128" t="s">
-        <v>1004</v>
-      </c>
-      <c r="L151" s="158" t="s">
-        <v>1028</v>
-      </c>
-      <c r="M151" s="158"/>
-      <c r="N151" s="16"/>
+      <c r="D151" s="45"/>
+      <c r="E151" s="140" t="s">
+        <v>377</v>
+      </c>
+      <c r="F151" s="38" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G151" s="151" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H151" s="42"/>
+      <c r="I151" s="40"/>
+      <c r="J151" s="40"/>
+      <c r="K151" s="137" t="s">
+        <v>615</v>
+      </c>
+      <c r="L151" s="155" t="s">
+        <v>1033</v>
+      </c>
+      <c r="M151" s="155"/>
+      <c r="N151" s="40"/>
     </row>
     <row r="152">
-      <c r="A152" s="130" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B152" s="122" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C152" s="212" t="s">
-        <v>509</v>
-      </c>
-      <c r="D152" s="31"/>
-      <c r="E152" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="F152" s="225" t="s">
-        <v>1013</v>
-      </c>
-      <c r="G152" s="5" t="s">
-        <v>1031</v>
-      </c>
-      <c r="H152" s="13"/>
-      <c r="I152" s="16"/>
-      <c r="J152" s="16"/>
-      <c r="K152" s="128" t="s">
-        <v>1004</v>
-      </c>
-      <c r="L152" s="158" t="s">
-        <v>1032</v>
-      </c>
-      <c r="M152" s="158"/>
-      <c r="N152" s="16"/>
+      <c r="A152" s="140" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B152" s="214" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C152" s="156" t="s">
+        <v>514</v>
+      </c>
+      <c r="D152" s="226"/>
+      <c r="E152" s="140" t="s">
+        <v>367</v>
+      </c>
+      <c r="F152" s="38" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G152" s="38" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H152" s="44"/>
+      <c r="I152" s="40"/>
+      <c r="J152" s="40"/>
+      <c r="K152" s="227" t="s">
+        <v>1038</v>
+      </c>
+      <c r="L152" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="M152" s="5"/>
+      <c r="N152" s="40"/>
     </row>
     <row r="153">
       <c r="A153" s="140" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="B153" s="214" t="s">
-        <v>1034</v>
+        <v>1041</v>
       </c>
       <c r="C153" s="156" t="s">
         <v>509</v>
       </c>
-      <c r="D153" s="45"/>
+      <c r="D153" s="226"/>
       <c r="E153" s="140" t="s">
         <v>377</v>
       </c>
       <c r="F153" s="38" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
       <c r="G153" s="151" t="s">
-        <v>1036</v>
-      </c>
-      <c r="H153" s="42"/>
+        <v>1032</v>
+      </c>
+      <c r="H153" s="44"/>
       <c r="I153" s="40"/>
       <c r="J153" s="40"/>
       <c r="K153" s="137" t="s">
         <v>615</v>
       </c>
-      <c r="L153" s="155" t="s">
-        <v>1037</v>
-      </c>
-      <c r="M153" s="155"/>
+      <c r="L153" s="228" t="s">
+        <v>1043</v>
+      </c>
+      <c r="M153" s="228"/>
       <c r="N153" s="40"/>
     </row>
     <row r="154">
       <c r="A154" s="140" t="s">
-        <v>1038</v>
+        <v>1044</v>
       </c>
       <c r="B154" s="214" t="s">
-        <v>1039</v>
+        <v>1045</v>
       </c>
       <c r="C154" s="156" t="s">
         <v>514</v>
@@ -16194,29 +16182,29 @@
         <v>367</v>
       </c>
       <c r="F154" s="38" t="s">
-        <v>1040</v>
-      </c>
-      <c r="G154" s="38" t="s">
-        <v>1041</v>
-      </c>
-      <c r="H154" s="44"/>
+        <v>1046</v>
+      </c>
+      <c r="G154" s="151" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H154" s="42"/>
       <c r="I154" s="40"/>
       <c r="J154" s="40"/>
       <c r="K154" s="227" t="s">
-        <v>1042</v>
+        <v>1048</v>
       </c>
       <c r="L154" s="5" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="M154" s="5"/>
       <c r="N154" s="40"/>
     </row>
     <row r="155">
       <c r="A155" s="140" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="B155" s="214" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="C155" s="156" t="s">
         <v>509</v>
@@ -16226,29 +16214,29 @@
         <v>377</v>
       </c>
       <c r="F155" s="38" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
       <c r="G155" s="151" t="s">
-        <v>1036</v>
-      </c>
-      <c r="H155" s="44"/>
+        <v>1032</v>
+      </c>
+      <c r="H155" s="42"/>
       <c r="I155" s="40"/>
       <c r="J155" s="40"/>
       <c r="K155" s="137" t="s">
         <v>615</v>
       </c>
-      <c r="L155" s="228" t="s">
-        <v>1047</v>
-      </c>
-      <c r="M155" s="228"/>
+      <c r="L155" s="155" t="s">
+        <v>1053</v>
+      </c>
+      <c r="M155" s="155"/>
       <c r="N155" s="40"/>
     </row>
     <row r="156">
       <c r="A156" s="140" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="B156" s="214" t="s">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="C156" s="156" t="s">
         <v>514</v>
@@ -16258,29 +16246,29 @@
         <v>367</v>
       </c>
       <c r="F156" s="38" t="s">
-        <v>1050</v>
+        <v>1056</v>
       </c>
       <c r="G156" s="151" t="s">
-        <v>1051</v>
+        <v>1057</v>
       </c>
       <c r="H156" s="42"/>
       <c r="I156" s="40"/>
       <c r="J156" s="40"/>
       <c r="K156" s="227" t="s">
-        <v>1052</v>
+        <v>1038</v>
       </c>
       <c r="L156" s="5" t="s">
-        <v>1053</v>
+        <v>1058</v>
       </c>
       <c r="M156" s="5"/>
       <c r="N156" s="40"/>
     </row>
     <row r="157">
       <c r="A157" s="140" t="s">
-        <v>1054</v>
+        <v>1059</v>
       </c>
       <c r="B157" s="214" t="s">
-        <v>1055</v>
+        <v>1060</v>
       </c>
       <c r="C157" s="156" t="s">
         <v>509</v>
@@ -16290,10 +16278,10 @@
         <v>377</v>
       </c>
       <c r="F157" s="38" t="s">
-        <v>1056</v>
+        <v>1061</v>
       </c>
       <c r="G157" s="151" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="H157" s="42"/>
       <c r="I157" s="40"/>
@@ -16301,82 +16289,82 @@
       <c r="K157" s="137" t="s">
         <v>615</v>
       </c>
-      <c r="L157" s="155" t="s">
-        <v>1057</v>
-      </c>
-      <c r="M157" s="155"/>
+      <c r="L157" s="229" t="s">
+        <v>1062</v>
+      </c>
+      <c r="M157" s="229"/>
       <c r="N157" s="40"/>
     </row>
     <row r="158">
-      <c r="A158" s="140" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B158" s="214" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C158" s="156" t="s">
+      <c r="A158" s="20" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B158" s="122" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C158" s="157" t="s">
         <v>514</v>
       </c>
-      <c r="D158" s="226"/>
-      <c r="E158" s="140" t="s">
+      <c r="D158" s="230"/>
+      <c r="E158" s="231" t="s">
         <v>367</v>
       </c>
-      <c r="F158" s="38" t="s">
-        <v>1060</v>
-      </c>
-      <c r="G158" s="151" t="s">
-        <v>1061</v>
-      </c>
-      <c r="H158" s="42"/>
-      <c r="I158" s="40"/>
-      <c r="J158" s="40"/>
+      <c r="F158" s="14" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G158" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H158" s="13"/>
+      <c r="I158" s="16"/>
+      <c r="J158" s="16"/>
       <c r="K158" s="227" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="L158" s="5" t="s">
-        <v>1062</v>
+        <v>1067</v>
       </c>
       <c r="M158" s="5"/>
-      <c r="N158" s="40"/>
+      <c r="N158" s="16"/>
     </row>
     <row r="159">
-      <c r="A159" s="140" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B159" s="214" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C159" s="156" t="s">
+      <c r="A159" s="20" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B159" s="122" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C159" s="157" t="s">
         <v>509</v>
       </c>
-      <c r="D159" s="226"/>
-      <c r="E159" s="140" t="s">
+      <c r="D159" s="230"/>
+      <c r="E159" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="F159" s="38" t="s">
-        <v>1065</v>
-      </c>
-      <c r="G159" s="151" t="s">
-        <v>1036</v>
-      </c>
-      <c r="H159" s="42"/>
-      <c r="I159" s="40"/>
-      <c r="J159" s="40"/>
-      <c r="K159" s="137" t="s">
+      <c r="F159" s="14" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G159" s="232" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H159" s="13"/>
+      <c r="I159" s="16"/>
+      <c r="J159" s="16"/>
+      <c r="K159" s="128" t="s">
         <v>615</v>
       </c>
-      <c r="L159" s="229" t="s">
-        <v>1066</v>
-      </c>
-      <c r="M159" s="229"/>
-      <c r="N159" s="40"/>
+      <c r="L159" s="158" t="s">
+        <v>1071</v>
+      </c>
+      <c r="M159" s="158"/>
+      <c r="N159" s="16"/>
     </row>
     <row r="160">
       <c r="A160" s="20" t="s">
-        <v>1067</v>
+        <v>1072</v>
       </c>
       <c r="B160" s="122" t="s">
-        <v>1068</v>
+        <v>1073</v>
       </c>
       <c r="C160" s="157" t="s">
         <v>514</v>
@@ -16386,29 +16374,29 @@
         <v>367</v>
       </c>
       <c r="F160" s="14" t="s">
-        <v>1069</v>
+        <v>1074</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>1070</v>
+        <v>1075</v>
       </c>
       <c r="H160" s="13"/>
       <c r="I160" s="16"/>
       <c r="J160" s="16"/>
       <c r="K160" s="227" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="L160" s="5" t="s">
-        <v>1071</v>
+        <v>1076</v>
       </c>
       <c r="M160" s="5"/>
       <c r="N160" s="16"/>
     </row>
     <row r="161">
       <c r="A161" s="20" t="s">
-        <v>1072</v>
+        <v>1077</v>
       </c>
       <c r="B161" s="122" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="C161" s="157" t="s">
         <v>509</v>
@@ -16418,10 +16406,10 @@
         <v>377</v>
       </c>
       <c r="F161" s="14" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
       <c r="G161" s="232" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="H161" s="13"/>
       <c r="I161" s="16"/>
@@ -16430,17 +16418,17 @@
         <v>615</v>
       </c>
       <c r="L161" s="158" t="s">
-        <v>1075</v>
+        <v>1080</v>
       </c>
       <c r="M161" s="158"/>
       <c r="N161" s="16"/>
     </row>
     <row r="162">
       <c r="A162" s="20" t="s">
-        <v>1076</v>
+        <v>1081</v>
       </c>
       <c r="B162" s="122" t="s">
-        <v>1077</v>
+        <v>1082</v>
       </c>
       <c r="C162" s="157" t="s">
         <v>514</v>
@@ -16450,29 +16438,29 @@
         <v>367</v>
       </c>
       <c r="F162" s="14" t="s">
-        <v>1078</v>
-      </c>
-      <c r="G162" s="5" t="s">
-        <v>1079</v>
+        <v>1083</v>
+      </c>
+      <c r="G162" s="134" t="s">
+        <v>1084</v>
       </c>
       <c r="H162" s="13"/>
       <c r="I162" s="16"/>
       <c r="J162" s="16"/>
       <c r="K162" s="227" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="L162" s="5" t="s">
-        <v>1080</v>
-      </c>
-      <c r="M162" s="5"/>
-      <c r="N162" s="16"/>
+        <v>1085</v>
+      </c>
+      <c r="M162" s="15"/>
+      <c r="N162" s="15"/>
     </row>
     <row r="163">
       <c r="A163" s="20" t="s">
-        <v>1081</v>
+        <v>1086</v>
       </c>
       <c r="B163" s="122" t="s">
-        <v>1082</v>
+        <v>1087</v>
       </c>
       <c r="C163" s="157" t="s">
         <v>509</v>
@@ -16482,10 +16470,10 @@
         <v>377</v>
       </c>
       <c r="F163" s="14" t="s">
-        <v>1083</v>
+        <v>1088</v>
       </c>
       <c r="G163" s="232" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="H163" s="13"/>
       <c r="I163" s="16"/>
@@ -16494,17 +16482,17 @@
         <v>615</v>
       </c>
       <c r="L163" s="158" t="s">
-        <v>1084</v>
-      </c>
-      <c r="M163" s="158"/>
-      <c r="N163" s="16"/>
+        <v>1089</v>
+      </c>
+      <c r="M163" s="15"/>
+      <c r="N163" s="15"/>
     </row>
     <row r="164">
       <c r="A164" s="20" t="s">
-        <v>1085</v>
+        <v>1090</v>
       </c>
       <c r="B164" s="122" t="s">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="C164" s="157" t="s">
         <v>514</v>
@@ -16514,29 +16502,29 @@
         <v>367</v>
       </c>
       <c r="F164" s="14" t="s">
-        <v>1087</v>
+        <v>1092</v>
       </c>
       <c r="G164" s="134" t="s">
-        <v>1088</v>
+        <v>1093</v>
       </c>
       <c r="H164" s="13"/>
       <c r="I164" s="16"/>
       <c r="J164" s="16"/>
       <c r="K164" s="227" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="L164" s="5" t="s">
-        <v>1089</v>
+        <v>1094</v>
       </c>
       <c r="M164" s="15"/>
       <c r="N164" s="15"/>
     </row>
     <row r="165">
       <c r="A165" s="20" t="s">
-        <v>1090</v>
+        <v>1095</v>
       </c>
       <c r="B165" s="122" t="s">
-        <v>1091</v>
+        <v>1096</v>
       </c>
       <c r="C165" s="157" t="s">
         <v>509</v>
@@ -16546,10 +16534,10 @@
         <v>377</v>
       </c>
       <c r="F165" s="14" t="s">
-        <v>1092</v>
+        <v>1097</v>
       </c>
       <c r="G165" s="232" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="H165" s="13"/>
       <c r="I165" s="16"/>
@@ -16558,17 +16546,17 @@
         <v>615</v>
       </c>
       <c r="L165" s="158" t="s">
-        <v>1093</v>
+        <v>1098</v>
       </c>
       <c r="M165" s="15"/>
       <c r="N165" s="15"/>
     </row>
     <row r="166">
       <c r="A166" s="20" t="s">
-        <v>1094</v>
+        <v>1099</v>
       </c>
       <c r="B166" s="122" t="s">
-        <v>1095</v>
+        <v>1100</v>
       </c>
       <c r="C166" s="157" t="s">
         <v>514</v>
@@ -16578,29 +16566,29 @@
         <v>367</v>
       </c>
       <c r="F166" s="14" t="s">
-        <v>1096</v>
+        <v>1101</v>
       </c>
       <c r="G166" s="134" t="s">
-        <v>1097</v>
+        <v>1102</v>
       </c>
       <c r="H166" s="13"/>
       <c r="I166" s="16"/>
       <c r="J166" s="16"/>
       <c r="K166" s="227" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="L166" s="5" t="s">
-        <v>1098</v>
+        <v>1103</v>
       </c>
       <c r="M166" s="15"/>
       <c r="N166" s="15"/>
     </row>
     <row r="167">
       <c r="A167" s="20" t="s">
-        <v>1099</v>
+        <v>1104</v>
       </c>
       <c r="B167" s="122" t="s">
-        <v>1100</v>
+        <v>1105</v>
       </c>
       <c r="C167" s="157" t="s">
         <v>509</v>
@@ -16610,10 +16598,10 @@
         <v>377</v>
       </c>
       <c r="F167" s="14" t="s">
-        <v>1101</v>
+        <v>1106</v>
       </c>
       <c r="G167" s="232" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="H167" s="13"/>
       <c r="I167" s="16"/>
@@ -16622,17 +16610,17 @@
         <v>615</v>
       </c>
       <c r="L167" s="158" t="s">
-        <v>1102</v>
+        <v>1107</v>
       </c>
       <c r="M167" s="15"/>
-      <c r="N167" s="15"/>
+      <c r="N167" s="19"/>
     </row>
     <row r="168">
       <c r="A168" s="20" t="s">
-        <v>1103</v>
+        <v>1108</v>
       </c>
       <c r="B168" s="122" t="s">
-        <v>1104</v>
+        <v>1109</v>
       </c>
       <c r="C168" s="157" t="s">
         <v>514</v>
@@ -16642,86 +16630,82 @@
         <v>367</v>
       </c>
       <c r="F168" s="14" t="s">
-        <v>1105</v>
+        <v>1110</v>
       </c>
       <c r="G168" s="134" t="s">
-        <v>1106</v>
+        <v>1111</v>
       </c>
       <c r="H168" s="13"/>
       <c r="I168" s="16"/>
       <c r="J168" s="16"/>
       <c r="K168" s="227" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="L168" s="5" t="s">
-        <v>1107</v>
+        <v>1112</v>
       </c>
       <c r="M168" s="15"/>
-      <c r="N168" s="15"/>
+      <c r="N168" s="19"/>
     </row>
     <row r="169">
       <c r="A169" s="20" t="s">
-        <v>1108</v>
+        <v>1113</v>
       </c>
       <c r="B169" s="122" t="s">
-        <v>1109</v>
+        <v>1114</v>
       </c>
       <c r="C169" s="157" t="s">
         <v>509</v>
       </c>
       <c r="D169" s="230"/>
-      <c r="E169" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="F169" s="14" t="s">
-        <v>1110</v>
-      </c>
-      <c r="G169" s="232" t="s">
-        <v>1036</v>
-      </c>
+      <c r="E169" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="F169" s="232" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G169" s="5"/>
       <c r="H169" s="13"/>
       <c r="I169" s="16"/>
       <c r="J169" s="16"/>
-      <c r="K169" s="128" t="s">
-        <v>615</v>
+      <c r="K169" s="128">
+        <v>0.0</v>
       </c>
       <c r="L169" s="158" t="s">
-        <v>1111</v>
-      </c>
-      <c r="M169" s="15"/>
-      <c r="N169" s="19"/>
+        <v>277</v>
+      </c>
+      <c r="M169" s="158"/>
+      <c r="N169" s="16"/>
     </row>
     <row r="170">
       <c r="A170" s="20" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="B170" s="122" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="C170" s="157" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D170" s="230"/>
-      <c r="E170" s="231" t="s">
-        <v>367</v>
-      </c>
-      <c r="F170" s="14" t="s">
-        <v>1114</v>
-      </c>
-      <c r="G170" s="134" t="s">
-        <v>1115</v>
-      </c>
+      <c r="E170" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="F170" s="232" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G170" s="14"/>
       <c r="H170" s="13"/>
       <c r="I170" s="16"/>
       <c r="J170" s="16"/>
-      <c r="K170" s="227" t="s">
-        <v>1042</v>
-      </c>
-      <c r="L170" s="5" t="s">
-        <v>1116</v>
-      </c>
-      <c r="M170" s="15"/>
-      <c r="N170" s="19"/>
+      <c r="K170" s="128" t="s">
+        <v>744</v>
+      </c>
+      <c r="L170" s="158" t="s">
+        <v>754</v>
+      </c>
+      <c r="M170" s="158"/>
+      <c r="N170" s="16"/>
     </row>
     <row r="171">
       <c r="A171" s="20" t="s">
@@ -16731,60 +16715,60 @@
         <v>1118</v>
       </c>
       <c r="C171" s="157" t="s">
-        <v>509</v>
-      </c>
-      <c r="D171" s="230"/>
+        <v>514</v>
+      </c>
+      <c r="D171" s="31"/>
       <c r="E171" s="21" t="s">
         <v>374</v>
       </c>
       <c r="F171" s="232" t="s">
-        <v>1036</v>
-      </c>
-      <c r="G171" s="5"/>
-      <c r="H171" s="13"/>
+        <v>1032</v>
+      </c>
+      <c r="G171" s="14"/>
+      <c r="H171" s="31"/>
       <c r="I171" s="16"/>
       <c r="J171" s="16"/>
-      <c r="K171" s="128">
-        <v>0.0</v>
+      <c r="K171" s="128" t="s">
+        <v>749</v>
       </c>
       <c r="L171" s="158" t="s">
-        <v>277</v>
+        <v>758</v>
       </c>
       <c r="M171" s="158"/>
       <c r="N171" s="16"/>
     </row>
     <row r="172">
-      <c r="A172" s="20" t="s">
+      <c r="A172" s="18" t="s">
         <v>1119</v>
       </c>
       <c r="B172" s="122" t="s">
         <v>1120</v>
       </c>
       <c r="C172" s="157" t="s">
-        <v>509</v>
-      </c>
-      <c r="D172" s="230"/>
+        <v>514</v>
+      </c>
+      <c r="D172" s="31"/>
       <c r="E172" s="21" t="s">
         <v>374</v>
       </c>
       <c r="F172" s="232" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="G172" s="14"/>
-      <c r="H172" s="13"/>
+      <c r="H172" s="31"/>
       <c r="I172" s="16"/>
       <c r="J172" s="16"/>
       <c r="K172" s="128" t="s">
         <v>744</v>
       </c>
       <c r="L172" s="158" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="M172" s="158"/>
       <c r="N172" s="16"/>
     </row>
     <row r="173">
-      <c r="A173" s="20" t="s">
+      <c r="A173" s="18" t="s">
         <v>1121</v>
       </c>
       <c r="B173" s="122" t="s">
@@ -16798,7 +16782,7 @@
         <v>374</v>
       </c>
       <c r="F173" s="232" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="G173" s="14"/>
       <c r="H173" s="31"/>
@@ -16808,141 +16792,145 @@
         <v>749</v>
       </c>
       <c r="L173" s="158" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="M173" s="158"/>
       <c r="N173" s="16"/>
     </row>
     <row r="174">
-      <c r="A174" s="18" t="s">
+      <c r="A174" s="20" t="s">
         <v>1123</v>
       </c>
-      <c r="B174" s="122" t="s">
+      <c r="B174" s="125" t="s">
         <v>1124</v>
       </c>
       <c r="C174" s="157" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D174" s="31"/>
       <c r="E174" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="F174" s="232" t="s">
-        <v>1036</v>
-      </c>
-      <c r="G174" s="14"/>
-      <c r="H174" s="31"/>
+      <c r="F174" s="14" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G174" s="14" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H174" s="13"/>
       <c r="I174" s="16"/>
       <c r="J174" s="16"/>
-      <c r="K174" s="128" t="s">
-        <v>744</v>
-      </c>
-      <c r="L174" s="158" t="s">
-        <v>745</v>
-      </c>
-      <c r="M174" s="158"/>
+      <c r="K174" s="233">
+        <v>12.0</v>
+      </c>
+      <c r="L174" s="233" t="s">
+        <v>42</v>
+      </c>
+      <c r="M174" s="128"/>
       <c r="N174" s="16"/>
     </row>
     <row r="175">
-      <c r="A175" s="18" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B175" s="122" t="s">
-        <v>1126</v>
+      <c r="A175" s="20" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B175" s="125" t="s">
+        <v>1128</v>
       </c>
       <c r="C175" s="157" t="s">
         <v>514</v>
       </c>
       <c r="D175" s="31"/>
-      <c r="E175" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="F175" s="232" t="s">
-        <v>1036</v>
-      </c>
-      <c r="G175" s="14"/>
-      <c r="H175" s="31"/>
+      <c r="E175" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="F175" s="14" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G175" s="14" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H175" s="13"/>
       <c r="I175" s="16"/>
       <c r="J175" s="16"/>
-      <c r="K175" s="128" t="s">
-        <v>749</v>
-      </c>
-      <c r="L175" s="158" t="s">
-        <v>750</v>
-      </c>
-      <c r="M175" s="158"/>
+      <c r="K175" s="234" t="s">
+        <v>1131</v>
+      </c>
+      <c r="L175" s="233" t="s">
+        <v>1132</v>
+      </c>
+      <c r="M175" s="128"/>
       <c r="N175" s="16"/>
     </row>
     <row r="176">
       <c r="A176" s="20" t="s">
-        <v>1127</v>
+        <v>1133</v>
       </c>
       <c r="B176" s="125" t="s">
-        <v>1128</v>
+        <v>1134</v>
       </c>
       <c r="C176" s="157" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="D176" s="31"/>
-      <c r="E176" s="21" t="s">
-        <v>374</v>
+      <c r="E176" s="20" t="s">
+        <v>367</v>
       </c>
       <c r="F176" s="14" t="s">
         <v>1129</v>
       </c>
       <c r="G176" s="14" t="s">
-        <v>1130</v>
+        <v>1135</v>
       </c>
       <c r="H176" s="13"/>
       <c r="I176" s="16"/>
       <c r="J176" s="16"/>
-      <c r="K176" s="233">
-        <v>12.0</v>
+      <c r="K176" s="234" t="s">
+        <v>46</v>
       </c>
       <c r="L176" s="233" t="s">
-        <v>42</v>
+        <v>1132</v>
       </c>
       <c r="M176" s="128"/>
       <c r="N176" s="16"/>
     </row>
     <row r="177">
       <c r="A177" s="20" t="s">
-        <v>1131</v>
+        <v>1136</v>
       </c>
       <c r="B177" s="125" t="s">
-        <v>1132</v>
+        <v>1137</v>
       </c>
       <c r="C177" s="157" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D177" s="31"/>
-      <c r="E177" s="20" t="s">
-        <v>367</v>
+      <c r="E177" s="21" t="s">
+        <v>374</v>
       </c>
       <c r="F177" s="14" t="s">
-        <v>1133</v>
+        <v>1138</v>
       </c>
       <c r="G177" s="14" t="s">
-        <v>1134</v>
+        <v>1139</v>
       </c>
       <c r="H177" s="13"/>
       <c r="I177" s="16"/>
       <c r="J177" s="16"/>
-      <c r="K177" s="234" t="s">
-        <v>1135</v>
+      <c r="K177" s="233">
+        <v>2.0</v>
       </c>
       <c r="L177" s="233" t="s">
-        <v>1136</v>
+        <v>42</v>
       </c>
       <c r="M177" s="128"/>
       <c r="N177" s="16"/>
     </row>
     <row r="178">
       <c r="A178" s="20" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="B178" s="125" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="C178" s="157" t="s">
         <v>514</v>
@@ -16952,86 +16940,22 @@
         <v>367</v>
       </c>
       <c r="F178" s="14" t="s">
-        <v>1133</v>
+        <v>1142</v>
       </c>
       <c r="G178" s="14" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
       <c r="H178" s="13"/>
       <c r="I178" s="16"/>
       <c r="J178" s="16"/>
-      <c r="K178" s="234" t="s">
-        <v>46</v>
-      </c>
-      <c r="L178" s="233" t="s">
-        <v>1136</v>
+      <c r="K178" s="235" t="s">
+        <v>1144</v>
+      </c>
+      <c r="L178" s="236" t="s">
+        <v>1145</v>
       </c>
       <c r="M178" s="128"/>
       <c r="N178" s="16"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="20" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B179" s="125" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C179" s="157" t="s">
-        <v>509</v>
-      </c>
-      <c r="D179" s="31"/>
-      <c r="E179" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="F179" s="14" t="s">
-        <v>1142</v>
-      </c>
-      <c r="G179" s="14" t="s">
-        <v>1143</v>
-      </c>
-      <c r="H179" s="13"/>
-      <c r="I179" s="16"/>
-      <c r="J179" s="16"/>
-      <c r="K179" s="233">
-        <v>2.0</v>
-      </c>
-      <c r="L179" s="233" t="s">
-        <v>42</v>
-      </c>
-      <c r="M179" s="128"/>
-      <c r="N179" s="16"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="20" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B180" s="125" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C180" s="157" t="s">
-        <v>514</v>
-      </c>
-      <c r="D180" s="31"/>
-      <c r="E180" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="F180" s="14" t="s">
-        <v>1146</v>
-      </c>
-      <c r="G180" s="14" t="s">
-        <v>1147</v>
-      </c>
-      <c r="H180" s="13"/>
-      <c r="I180" s="16"/>
-      <c r="J180" s="16"/>
-      <c r="K180" s="235" t="s">
-        <v>1148</v>
-      </c>
-      <c r="L180" s="236" t="s">
-        <v>1149</v>
-      </c>
-      <c r="M180" s="128"/>
-      <c r="N180" s="16"/>
     </row>
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>
@@ -17068,24 +16992,24 @@
         <v>2</v>
       </c>
       <c r="D1" s="239" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="E1" s="237" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="240" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="241" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="B2" s="242" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="C2" s="243" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="D2" s="243"/>
       <c r="E2" s="244"/>
@@ -17093,29 +17017,29 @@
     </row>
     <row r="3">
       <c r="A3" s="241" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="B3" s="242" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="C3" s="242" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="D3" s="242"/>
       <c r="E3" s="246"/>
       <c r="F3" s="240" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="241" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="B4" s="242" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="C4" s="242" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="D4" s="242"/>
       <c r="E4" s="247"/>
@@ -17123,13 +17047,13 @@
     </row>
     <row r="5">
       <c r="A5" s="241" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="B5" s="242" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="C5" s="242" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="D5" s="242"/>
       <c r="E5" s="247"/>
@@ -17137,13 +17061,13 @@
     </row>
     <row r="6">
       <c r="A6" s="241" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="B6" s="248" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="C6" s="242" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="D6" s="242"/>
       <c r="E6" s="246"/>
@@ -17151,13 +17075,13 @@
     </row>
     <row r="7">
       <c r="A7" s="241" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="B7" s="249" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="C7" s="242" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="D7" s="242"/>
       <c r="E7" s="240"/>
@@ -17165,13 +17089,13 @@
     </row>
     <row r="8">
       <c r="A8" s="241" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="B8" s="249" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="C8" s="242" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="D8" s="242"/>
       <c r="E8" s="240"/>
@@ -17179,13 +17103,13 @@
     </row>
     <row r="9">
       <c r="A9" s="241" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="B9" s="249" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="C9" s="250" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="D9" s="250"/>
       <c r="E9" s="251"/>
@@ -17193,13 +17117,13 @@
     </row>
     <row r="10">
       <c r="A10" s="241" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="B10" s="249" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="C10" s="242" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="D10" s="242"/>
       <c r="E10" s="240"/>
@@ -17207,13 +17131,13 @@
     </row>
     <row r="11">
       <c r="A11" s="241" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="B11" s="242" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="C11" s="242" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="D11" s="242"/>
       <c r="E11" s="245"/>
@@ -17221,13 +17145,13 @@
     </row>
     <row r="12">
       <c r="A12" s="241" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="B12" s="252" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="C12" s="252" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="D12" s="252"/>
       <c r="E12" s="245"/>
@@ -17235,13 +17159,13 @@
     </row>
     <row r="13">
       <c r="A13" s="241" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="B13" s="253" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="C13" s="252" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="D13" s="252"/>
       <c r="E13" s="245"/>
@@ -17249,13 +17173,13 @@
     </row>
     <row r="14">
       <c r="A14" s="241" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="B14" s="253" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="C14" s="252" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="D14" s="252"/>
       <c r="E14" s="245"/>
@@ -17263,13 +17187,13 @@
     </row>
     <row r="15">
       <c r="A15" s="241" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="B15" s="253" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="C15" s="252" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="D15" s="252"/>
       <c r="E15" s="245"/>
@@ -17277,13 +17201,13 @@
     </row>
     <row r="16">
       <c r="A16" s="241" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="B16" s="253" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="C16" s="252" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="D16" s="252"/>
       <c r="E16" s="245"/>
@@ -17291,13 +17215,13 @@
     </row>
     <row r="17">
       <c r="A17" s="241" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="B17" s="253" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="C17" s="252" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="D17" s="252"/>
       <c r="E17" s="245"/>
@@ -17305,13 +17229,13 @@
     </row>
     <row r="18">
       <c r="A18" s="241" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="B18" s="253" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="C18" s="252" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="D18" s="252"/>
       <c r="E18" s="245"/>
@@ -17319,13 +17243,13 @@
     </row>
     <row r="19">
       <c r="A19" s="241" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="B19" s="253" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="C19" s="252" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="D19" s="252"/>
       <c r="E19" s="245"/>
@@ -17333,13 +17257,13 @@
     </row>
     <row r="20">
       <c r="A20" s="241" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="B20" s="253" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="C20" s="254" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="D20" s="254"/>
       <c r="E20" s="245"/>
@@ -17347,13 +17271,13 @@
     </row>
     <row r="21">
       <c r="A21" s="241" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="B21" s="255" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="C21" s="252" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="D21" s="252"/>
       <c r="E21" s="245"/>
@@ -17361,29 +17285,29 @@
     </row>
     <row r="22">
       <c r="A22" s="241" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="B22" s="253" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="D22" s="256" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="E22" s="240"/>
       <c r="F22" s="245"/>
     </row>
     <row r="23">
       <c r="A23" s="241" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="B23" s="257" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="C23" s="258" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="D23" s="258"/>
       <c r="E23" s="245"/>
@@ -17391,13 +17315,13 @@
     </row>
     <row r="24">
       <c r="A24" s="241" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="B24" s="257" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="C24" s="258" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="D24" s="258"/>
       <c r="E24" s="245"/>
@@ -17405,13 +17329,13 @@
     </row>
     <row r="25">
       <c r="A25" s="241" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="B25" s="257" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="D25" s="258" t="s">
         <v>458</v>
@@ -17421,13 +17345,13 @@
     </row>
     <row r="26">
       <c r="A26" s="241" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="B26" s="252" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="C26" s="252" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="D26" s="252"/>
       <c r="E26" s="240"/>
@@ -17435,13 +17359,13 @@
     </row>
     <row r="27">
       <c r="A27" s="241" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="B27" s="252" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="C27" s="252" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="D27" s="252"/>
       <c r="E27" s="245"/>
@@ -17449,13 +17373,13 @@
     </row>
     <row r="28">
       <c r="A28" s="241" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="B28" s="252" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="C28" s="252" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="D28" s="252"/>
       <c r="E28" s="245"/>
@@ -17463,143 +17387,143 @@
     </row>
     <row r="29">
       <c r="A29" s="241" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="B29" s="259" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="C29" s="249" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="D29" s="249"/>
       <c r="E29" s="260"/>
     </row>
     <row r="30">
       <c r="A30" s="241" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="B30" s="259" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="C30" s="249" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="D30" s="249"/>
       <c r="E30" s="260"/>
     </row>
     <row r="31">
       <c r="A31" s="241" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="B31" s="259" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="C31" s="249" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="D31" s="249"/>
       <c r="E31" s="260"/>
     </row>
     <row r="32">
       <c r="A32" s="241" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="B32" s="259" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="C32" s="249" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="D32" s="249"/>
       <c r="E32" s="260"/>
     </row>
     <row r="33">
       <c r="A33" s="241" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="B33" s="259" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="C33" s="249" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="D33" s="249"/>
       <c r="E33" s="260"/>
     </row>
     <row r="34">
       <c r="A34" s="241" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="B34" s="259" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="C34" s="249" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="D34" s="249"/>
       <c r="E34" s="260"/>
     </row>
     <row r="35">
       <c r="A35" s="241" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="B35" s="259" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="C35" s="249" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="D35" s="249"/>
       <c r="E35" s="260"/>
     </row>
     <row r="36">
       <c r="A36" s="241" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="B36" s="259" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="C36" s="249" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="D36" s="249"/>
       <c r="E36" s="260"/>
     </row>
     <row r="37">
       <c r="A37" s="241" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="B37" s="259" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="C37" s="249" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="D37" s="249"/>
       <c r="E37" s="260"/>
     </row>
     <row r="38">
       <c r="A38" s="241" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="B38" s="259" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="C38" s="249" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="D38" s="249"/>
       <c r="E38" s="260"/>
     </row>
     <row r="39">
       <c r="A39" s="241" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="B39" s="261" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="C39" s="257" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="D39" s="257"/>
       <c r="E39" s="262"/>
@@ -17607,13 +17531,13 @@
     </row>
     <row r="40">
       <c r="A40" s="241" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="B40" s="261" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="C40" s="257" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="D40" s="257"/>
       <c r="E40" s="263"/>
@@ -17621,13 +17545,13 @@
     </row>
     <row r="41">
       <c r="A41" s="241" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="B41" s="261" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="C41" s="257" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="D41" s="257"/>
       <c r="E41" s="262"/>
@@ -17635,13 +17559,13 @@
     </row>
     <row r="42">
       <c r="A42" s="241" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="B42" s="261" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="C42" s="264" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="D42" s="264"/>
       <c r="E42" s="245"/>
@@ -17649,13 +17573,13 @@
     </row>
     <row r="43">
       <c r="A43" s="241" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="B43" s="265" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="C43" s="264" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="D43" s="264"/>
       <c r="E43" s="245"/>
@@ -17663,13 +17587,13 @@
     </row>
     <row r="44">
       <c r="A44" s="241" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="B44" s="265" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="C44" s="266" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="D44" s="266"/>
       <c r="E44" s="245"/>
@@ -17677,10 +17601,10 @@
     </row>
     <row r="45" ht="20.25" customHeight="1">
       <c r="A45" s="241" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="C45" s="267" t="s">
         <v>311</v>
@@ -17691,10 +17615,10 @@
     </row>
     <row r="46">
       <c r="A46" s="241" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>315</v>
@@ -17705,10 +17629,10 @@
     </row>
     <row r="47">
       <c r="A47" s="241" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="C47" s="244" t="s">
         <v>318</v>
@@ -17719,10 +17643,10 @@
     </row>
     <row r="48">
       <c r="A48" s="241" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="C48" s="244" t="s">
         <v>321</v>
@@ -17733,10 +17657,10 @@
     </row>
     <row r="49">
       <c r="A49" s="241" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="C49" s="152" t="s">
         <v>325</v>
@@ -17747,10 +17671,10 @@
     </row>
     <row r="50">
       <c r="A50" s="241" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="C50" s="152" t="s">
         <v>328</v>
@@ -17761,10 +17685,10 @@
     </row>
     <row r="51">
       <c r="A51" s="241" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="C51" s="244" t="s">
         <v>331</v>
@@ -17775,10 +17699,10 @@
     </row>
     <row r="52">
       <c r="A52" s="241" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="C52" s="152" t="s">
         <v>334</v>
@@ -17789,10 +17713,10 @@
     </row>
     <row r="53">
       <c r="A53" s="241" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="C53" s="244" t="s">
         <v>337</v>
@@ -17803,10 +17727,10 @@
     </row>
     <row r="54">
       <c r="A54" s="268" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="B54" s="269" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="C54" s="270" t="s">
         <v>340</v>
@@ -17817,13 +17741,13 @@
     </row>
     <row r="55">
       <c r="A55" s="241" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="16"/>
@@ -17831,13 +17755,13 @@
     </row>
     <row r="56">
       <c r="A56" s="241" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="16"/>
@@ -17873,13 +17797,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>12</v>
@@ -17890,13 +17814,13 @@
     </row>
     <row r="2">
       <c r="A2" s="20" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>272</v>
@@ -17906,7 +17830,7 @@
     </row>
     <row r="3">
       <c r="A3" s="20" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>510</v>
@@ -17922,7 +17846,7 @@
     </row>
     <row r="4">
       <c r="A4" s="20" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>519</v>
@@ -17938,7 +17862,7 @@
     </row>
     <row r="5">
       <c r="A5" s="20" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="14" t="s">
@@ -17955,7 +17879,7 @@
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="14" t="s">
@@ -17972,7 +17896,7 @@
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="14" t="s">
@@ -17989,7 +17913,7 @@
     </row>
     <row r="8">
       <c r="A8" s="20" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="14" t="s">
@@ -18006,7 +17930,7 @@
     </row>
     <row r="9">
       <c r="A9" s="20" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="14" t="s">
@@ -18023,7 +17947,7 @@
     </row>
     <row r="10">
       <c r="A10" s="20" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="14" t="s">
@@ -18040,7 +17964,7 @@
     </row>
     <row r="11">
       <c r="A11" s="20" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="14" t="s">
@@ -18057,7 +17981,7 @@
     </row>
     <row r="12">
       <c r="A12" s="20" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="14" t="s">
@@ -18074,7 +17998,7 @@
     </row>
     <row r="13">
       <c r="A13" s="20" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="14" t="s">
@@ -18091,7 +18015,7 @@
     </row>
     <row r="14">
       <c r="A14" s="66" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="B14" s="64"/>
       <c r="C14" s="62" t="s">
@@ -18108,7 +18032,7 @@
     </row>
     <row r="15">
       <c r="A15" s="66" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="B15" s="64"/>
       <c r="C15" s="62" t="s">
@@ -18125,7 +18049,7 @@
     </row>
     <row r="16">
       <c r="A16" s="66" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="B16" s="64"/>
       <c r="C16" s="62" t="s">
@@ -18142,7 +18066,7 @@
     </row>
     <row r="17">
       <c r="A17" s="66" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="B17" s="64"/>
       <c r="C17" s="62" t="s">
@@ -18159,7 +18083,7 @@
     </row>
     <row r="18">
       <c r="A18" s="66" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="B18" s="64"/>
       <c r="C18" s="62" t="s">
@@ -18176,7 +18100,7 @@
     </row>
     <row r="19">
       <c r="A19" s="66" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="B19" s="64"/>
       <c r="C19" s="62" t="s">
@@ -18193,7 +18117,7 @@
     </row>
     <row r="20">
       <c r="A20" s="20" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="14" t="s">
@@ -18210,7 +18134,7 @@
     </row>
     <row r="21">
       <c r="A21" s="20" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="14" t="s">
@@ -18227,7 +18151,7 @@
     </row>
     <row r="22">
       <c r="A22" s="20" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="14" t="s">
@@ -18244,7 +18168,7 @@
     </row>
     <row r="23">
       <c r="A23" s="20" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="14" t="s">
@@ -18261,7 +18185,7 @@
     </row>
     <row r="24">
       <c r="A24" s="20" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="14" t="s">
@@ -18278,7 +18202,7 @@
     </row>
     <row r="25">
       <c r="A25" s="20" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="14" t="s">
@@ -18295,7 +18219,7 @@
     </row>
     <row r="26">
       <c r="A26" s="20" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="14" t="s">
@@ -18312,7 +18236,7 @@
     </row>
     <row r="27">
       <c r="A27" s="20" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="14" t="s">
@@ -18329,7 +18253,7 @@
     </row>
     <row r="28">
       <c r="A28" s="20" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="14" t="s">
@@ -18346,7 +18270,7 @@
     </row>
     <row r="29">
       <c r="A29" s="20" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="14" t="s">
@@ -18363,7 +18287,7 @@
     </row>
     <row r="30">
       <c r="A30" s="20" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="14" t="s">
@@ -18380,7 +18304,7 @@
     </row>
     <row r="31">
       <c r="A31" s="20" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="14" t="s">
@@ -18397,7 +18321,7 @@
     </row>
     <row r="32">
       <c r="A32" s="20" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="14" t="s">
@@ -18414,14 +18338,14 @@
     </row>
     <row r="33">
       <c r="A33" s="20" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="14" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>1012</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>1016</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>441</v>
@@ -18431,14 +18355,14 @@
     </row>
     <row r="34">
       <c r="A34" s="20" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="14" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>444</v>
@@ -18448,14 +18372,14 @@
     </row>
     <row r="35">
       <c r="A35" s="20" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B35" s="16"/>
       <c r="C35" s="14" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="E35" s="20" t="s">
         <v>94</v>
@@ -18465,14 +18389,14 @@
     </row>
     <row r="36">
       <c r="A36" s="20" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="B36" s="16"/>
       <c r="C36" s="14" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D36" s="14" t="s">
         <v>1046</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>1050</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>99</v>
@@ -18482,14 +18406,14 @@
     </row>
     <row r="37">
       <c r="A37" s="20" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D37" s="14" t="s">
         <v>1056</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>1060</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>103</v>
@@ -18499,14 +18423,14 @@
     </row>
     <row r="38">
       <c r="A38" s="20" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="14" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D38" s="14" t="s">
         <v>1065</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>1069</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>107</v>
@@ -18516,14 +18440,14 @@
     </row>
     <row r="39">
       <c r="A39" s="20" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="B39" s="16"/>
       <c r="C39" s="14" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>1074</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>1078</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>111</v>
@@ -18533,14 +18457,14 @@
     </row>
     <row r="40">
       <c r="A40" s="20" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="B40" s="16"/>
       <c r="C40" s="14" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>1083</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>1087</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>115</v>
@@ -18550,14 +18474,14 @@
     </row>
     <row r="41">
       <c r="A41" s="20" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="B41" s="16"/>
       <c r="C41" s="14" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D41" s="14" t="s">
         <v>1092</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>1096</v>
       </c>
       <c r="E41" s="20" t="s">
         <v>119</v>
@@ -18567,14 +18491,14 @@
     </row>
     <row r="42">
       <c r="A42" s="20" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="B42" s="16"/>
       <c r="C42" s="14" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D42" s="14" t="s">
         <v>1101</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>1105</v>
       </c>
       <c r="E42" s="20" t="s">
         <v>123</v>
@@ -18584,14 +18508,14 @@
     </row>
     <row r="43">
       <c r="A43" s="20" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="B43" s="16"/>
       <c r="C43" s="14" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D43" s="14" t="s">
         <v>1110</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>1114</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>127</v>
@@ -18601,14 +18525,14 @@
     </row>
     <row r="44">
       <c r="A44" s="20" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="B44" s="16"/>
       <c r="C44" s="14" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D44" s="14" t="s">
         <v>1129</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>1133</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>477</v>
@@ -18618,14 +18542,14 @@
     </row>
     <row r="45">
       <c r="A45" s="20" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="14" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D45" s="14" t="s">
         <v>1142</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>1146</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>480</v>
@@ -18665,10 +18589,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="2">
@@ -18678,7 +18602,7 @@
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
@@ -18690,7 +18614,7 @@
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
@@ -18737,22 +18661,22 @@
         <v>491</v>
       </c>
       <c r="E1" s="274" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="F1" s="274" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="H1" s="275" t="s">
         <v>500</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="2">
@@ -18760,16 +18684,16 @@
         <v>384</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="D2" s="276"/>
       <c r="F2" s="275"/>
       <c r="H2" s="277"/>
       <c r="J2" s="5" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="3">
@@ -18777,17 +18701,17 @@
         <v>387</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="D3" s="277"/>
       <c r="E3" s="275"/>
       <c r="F3" s="275"/>
       <c r="H3" s="275"/>
       <c r="J3" s="5" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="4">
@@ -18795,17 +18719,17 @@
         <v>390</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="D4" s="277"/>
       <c r="E4" s="275"/>
       <c r="F4" s="275"/>
       <c r="H4" s="275"/>
       <c r="J4" s="5" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="5">
@@ -18813,17 +18737,17 @@
         <v>392</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="D5" s="275"/>
       <c r="E5" s="275"/>
       <c r="F5" s="275"/>
       <c r="H5" s="277"/>
       <c r="J5" s="5" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="6">
@@ -18831,10 +18755,10 @@
         <v>396</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="D6" s="275"/>
       <c r="E6" s="123"/>
@@ -18843,7 +18767,7 @@
         <v>487</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="7">
@@ -18851,17 +18775,17 @@
         <v>403</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="D7" s="275"/>
       <c r="E7" s="275"/>
       <c r="F7" s="275"/>
       <c r="H7" s="275"/>
       <c r="J7" s="5" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="8">
@@ -18869,10 +18793,10 @@
         <v>417</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="D8" s="275"/>
       <c r="E8" s="275"/>
@@ -18880,7 +18804,7 @@
       <c r="G8" s="275"/>
       <c r="H8" s="275"/>
       <c r="J8" s="5" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="9">
@@ -18888,17 +18812,17 @@
         <v>423</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="D9" s="275"/>
       <c r="E9" s="275"/>
       <c r="F9" s="275"/>
       <c r="H9" s="275"/>
       <c r="J9" s="5" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="10">
@@ -18906,17 +18830,17 @@
         <v>429</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="D10" s="275"/>
       <c r="E10" s="275"/>
       <c r="F10" s="275"/>
       <c r="H10" s="277"/>
       <c r="J10" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="11">
@@ -18924,10 +18848,10 @@
         <v>435</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="D11" s="275"/>
       <c r="E11" s="275"/>
@@ -18935,7 +18859,7 @@
       <c r="G11" s="275"/>
       <c r="H11" s="275"/>
       <c r="J11" s="14" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="12">
@@ -18943,10 +18867,10 @@
         <v>420</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="D12" s="275"/>
       <c r="E12" s="275"/>
@@ -18954,7 +18878,7 @@
       <c r="G12" s="275"/>
       <c r="H12" s="275"/>
       <c r="J12" s="5" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="13">
@@ -18962,17 +18886,17 @@
         <v>426</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="D13" s="275"/>
       <c r="E13" s="275"/>
       <c r="F13" s="275"/>
       <c r="H13" s="275"/>
       <c r="J13" s="5" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="14">
@@ -18980,17 +18904,17 @@
         <v>432</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="D14" s="275"/>
       <c r="E14" s="275"/>
       <c r="F14" s="275"/>
       <c r="H14" s="277"/>
       <c r="J14" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="15">
@@ -18998,10 +18922,10 @@
         <v>438</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="D15" s="275"/>
       <c r="E15" s="275"/>
@@ -19009,7 +18933,7 @@
       <c r="G15" s="275"/>
       <c r="H15" s="275"/>
       <c r="J15" s="14" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="16">
@@ -19017,10 +18941,10 @@
         <v>440</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="D16" s="277"/>
       <c r="E16" s="275"/>
@@ -19029,7 +18953,7 @@
         <v>487</v>
       </c>
       <c r="J16" s="279" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="17">
@@ -19037,18 +18961,18 @@
         <v>443</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="E17" s="275"/>
       <c r="F17" s="280"/>
       <c r="H17" s="5" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="J17" s="279" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="18">
@@ -19056,10 +18980,10 @@
         <v>447</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="E18" s="275"/>
       <c r="F18" s="280"/>
@@ -19067,7 +18991,7 @@
         <v>487</v>
       </c>
       <c r="J18" s="279" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="19">
@@ -19075,16 +18999,16 @@
         <v>479</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="E19" s="275"/>
       <c r="F19" s="280"/>
       <c r="H19" s="5"/>
       <c r="J19" s="279" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="20">
@@ -19092,16 +19016,16 @@
         <v>482</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="E20" s="275"/>
       <c r="F20" s="280"/>
       <c r="H20" s="5"/>
       <c r="J20" s="5" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
     </row>
   </sheetData>
@@ -19131,66 +19055,66 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="281" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="281" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="281" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="5" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5"/>
       <c r="B6" s="282" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5"/>
       <c r="B7" s="282" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
     </row>
   </sheetData>

--- a/models/ard-arm-cardiac/source/ard-arm-cardiac.xlsx
+++ b/models/ard-arm-cardiac/source/ard-arm-cardiac.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2551" uniqueCount="1490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2551" uniqueCount="1491">
   <si>
     <t>id</t>
   </si>
@@ -2677,13 +2677,16 @@
     <t>Axon in right ventricle layer 0 from ventricular ICG_Neuron 8 (aacar)</t>
   </si>
   <si>
-    <t>ns129</t>
+    <t>ns129_0</t>
   </si>
   <si>
     <t>ac-rv1_8</t>
   </si>
   <si>
     <t>Axon in right ventricle layer 1 from ventricular ICG_Neuron 8 (aacar)</t>
+  </si>
+  <si>
+    <t>ns129_1</t>
   </si>
   <si>
     <t>dc-aicg_9</t>
@@ -4904,7 +4907,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="294">
+  <cellXfs count="293">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5512,9 +5515,6 @@
     </xf>
     <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="21" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -6076,122 +6076,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="286" t="s">
-        <v>1421</v>
-      </c>
-      <c r="B2" s="287" t="s">
+      <c r="A2" s="285" t="s">
         <v>1422</v>
       </c>
+      <c r="B2" s="286" t="s">
+        <v>1423</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="286" t="s">
-        <v>1423</v>
-      </c>
-      <c r="B3" s="287" t="s">
+      <c r="A3" s="285" t="s">
         <v>1424</v>
       </c>
+      <c r="B3" s="286" t="s">
+        <v>1425</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="286" t="s">
-        <v>1425</v>
-      </c>
-      <c r="B4" s="288" t="s">
+      <c r="A4" s="285" t="s">
         <v>1426</v>
       </c>
+      <c r="B4" s="287" t="s">
+        <v>1427</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="286" t="s">
-        <v>1427</v>
-      </c>
-      <c r="B5" s="288" t="s">
+      <c r="A5" s="285" t="s">
         <v>1428</v>
       </c>
+      <c r="B5" s="287" t="s">
+        <v>1429</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="286" t="s">
-        <v>1429</v>
-      </c>
-      <c r="B6" s="288" t="s">
+      <c r="A6" s="285" t="s">
         <v>1430</v>
       </c>
+      <c r="B6" s="287" t="s">
+        <v>1431</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="286" t="s">
-        <v>1431</v>
-      </c>
-      <c r="B7" s="288" t="s">
+      <c r="A7" s="285" t="s">
         <v>1432</v>
       </c>
+      <c r="B7" s="287" t="s">
+        <v>1433</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="286" t="s">
-        <v>1433</v>
-      </c>
-      <c r="B8" s="288" t="s">
+      <c r="A8" s="285" t="s">
         <v>1434</v>
       </c>
+      <c r="B8" s="287" t="s">
+        <v>1435</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="286" t="s">
-        <v>1435</v>
-      </c>
-      <c r="B9" s="288" t="s">
+      <c r="A9" s="285" t="s">
         <v>1436</v>
       </c>
+      <c r="B9" s="287" t="s">
+        <v>1437</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="286" t="s">
-        <v>1437</v>
-      </c>
-      <c r="B10" s="288" t="s">
+      <c r="A10" s="285" t="s">
         <v>1438</v>
       </c>
+      <c r="B10" s="287" t="s">
+        <v>1439</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="286" t="s">
-        <v>1439</v>
-      </c>
-      <c r="B11" s="288" t="s">
+      <c r="A11" s="285" t="s">
         <v>1440</v>
+      </c>
+      <c r="B11" s="287" t="s">
+        <v>1441</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>1441</v>
-      </c>
-      <c r="B12" s="287" t="s">
         <v>1442</v>
+      </c>
+      <c r="B12" s="286" t="s">
+        <v>1443</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="36" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B13" s="287" t="s">
         <v>1444</v>
+      </c>
+      <c r="B13" s="286" t="s">
+        <v>1445</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="36" t="s">
-        <v>1445</v>
-      </c>
-      <c r="B14" s="287" t="s">
         <v>1446</v>
+      </c>
+      <c r="B14" s="286" t="s">
+        <v>1447</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="19" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
     </row>
   </sheetData>
@@ -6227,16 +6227,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
@@ -6252,13 +6252,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
@@ -6299,13 +6299,13 @@
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6322,10 +6322,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6340,10 +6340,10 @@
     <row r="7">
       <c r="A7" s="21"/>
       <c r="B7" s="21" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>1461</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>1460</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6358,10 +6358,10 @@
     <row r="8">
       <c r="A8" s="21"/>
       <c r="B8" s="21" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6376,10 +6376,10 @@
     <row r="9">
       <c r="A9" s="21"/>
       <c r="B9" s="21" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6407,10 +6407,10 @@
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -6425,10 +6425,10 @@
     </row>
     <row r="12">
       <c r="A12" s="21" t="s">
-        <v>1466</v>
-      </c>
-      <c r="B12" s="289" t="s">
         <v>1467</v>
+      </c>
+      <c r="B12" s="288" t="s">
+        <v>1468</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
@@ -6443,10 +6443,10 @@
     </row>
     <row r="13">
       <c r="A13" s="21" t="s">
-        <v>1468</v>
-      </c>
-      <c r="B13" s="289" t="s">
         <v>1469</v>
+      </c>
+      <c r="B13" s="288" t="s">
+        <v>1470</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -6461,10 +6461,10 @@
     </row>
     <row r="14">
       <c r="A14" s="21" t="s">
-        <v>1470</v>
-      </c>
-      <c r="B14" s="289" t="s">
         <v>1471</v>
+      </c>
+      <c r="B14" s="288" t="s">
+        <v>1472</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -6479,10 +6479,10 @@
     </row>
     <row r="15">
       <c r="A15" s="21" t="s">
-        <v>1472</v>
-      </c>
-      <c r="B15" s="289" t="s">
         <v>1473</v>
+      </c>
+      <c r="B15" s="288" t="s">
+        <v>1474</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
@@ -6497,10 +6497,10 @@
     </row>
     <row r="16">
       <c r="A16" s="19" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="B16" s="103" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
@@ -6515,10 +6515,10 @@
     </row>
     <row r="17">
       <c r="A17" s="19" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -6547,10 +6547,10 @@
     </row>
     <row r="19">
       <c r="A19" s="21" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="B19" s="103" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -6565,28 +6565,28 @@
     </row>
     <row r="20">
       <c r="A20" s="21" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B20" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="290"/>
-      <c r="D20" s="290"/>
-      <c r="E20" s="290"/>
-      <c r="F20" s="290"/>
-      <c r="G20" s="290"/>
-      <c r="H20" s="290"/>
-      <c r="I20" s="290"/>
-      <c r="J20" s="290"/>
-      <c r="K20" s="290"/>
+      <c r="C20" s="289"/>
+      <c r="D20" s="289"/>
+      <c r="E20" s="289"/>
+      <c r="F20" s="289"/>
+      <c r="G20" s="289"/>
+      <c r="H20" s="289"/>
+      <c r="I20" s="289"/>
+      <c r="J20" s="289"/>
+      <c r="K20" s="289"/>
       <c r="L20" s="21"/>
     </row>
     <row r="21">
       <c r="A21" s="21" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B21" s="124" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="L21" s="21"/>
     </row>
@@ -6615,65 +6615,65 @@
       <c r="L27" s="21"/>
     </row>
     <row r="28">
-      <c r="A28" s="290" t="s">
-        <v>1482</v>
-      </c>
-      <c r="B28" s="291" t="s">
+      <c r="A28" s="289" t="s">
         <v>1483</v>
       </c>
+      <c r="B28" s="290" t="s">
+        <v>1484</v>
+      </c>
       <c r="L28" s="21"/>
     </row>
     <row r="29">
-      <c r="A29" s="290" t="s">
-        <v>1484</v>
-      </c>
-      <c r="B29" s="292" t="s">
+      <c r="A29" s="289" t="s">
         <v>1485</v>
       </c>
+      <c r="B29" s="291" t="s">
+        <v>1486</v>
+      </c>
       <c r="L29" s="21"/>
     </row>
     <row r="30">
-      <c r="A30" s="290" t="s">
-        <v>1486</v>
-      </c>
-      <c r="B30" s="293" t="s">
+      <c r="A30" s="289" t="s">
         <v>1487</v>
       </c>
-      <c r="C30" s="291"/>
-      <c r="D30" s="291"/>
-      <c r="E30" s="291"/>
-      <c r="F30" s="291"/>
-      <c r="G30" s="291"/>
-      <c r="H30" s="291"/>
-      <c r="I30" s="291"/>
-      <c r="J30" s="291"/>
-      <c r="K30" s="291"/>
+      <c r="B30" s="292" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C30" s="290"/>
+      <c r="D30" s="290"/>
+      <c r="E30" s="290"/>
+      <c r="F30" s="290"/>
+      <c r="G30" s="290"/>
+      <c r="H30" s="290"/>
+      <c r="I30" s="290"/>
+      <c r="J30" s="290"/>
+      <c r="K30" s="290"/>
       <c r="L30" s="21"/>
     </row>
     <row r="31" hidden="1">
       <c r="A31" s="21" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="L31" s="21"/>
     </row>
     <row r="32" hidden="1">
       <c r="A32" s="21" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="L32" s="21"/>
     </row>
     <row r="33">
       <c r="A33" s="21"/>
-      <c r="B33" s="290"/>
-      <c r="C33" s="290"/>
-      <c r="D33" s="290"/>
-      <c r="E33" s="290"/>
-      <c r="F33" s="290"/>
-      <c r="G33" s="290"/>
-      <c r="H33" s="290"/>
-      <c r="I33" s="290"/>
-      <c r="J33" s="290"/>
-      <c r="K33" s="290"/>
+      <c r="B33" s="289"/>
+      <c r="C33" s="289"/>
+      <c r="D33" s="289"/>
+      <c r="E33" s="289"/>
+      <c r="F33" s="289"/>
+      <c r="G33" s="289"/>
+      <c r="H33" s="289"/>
+      <c r="I33" s="289"/>
+      <c r="J33" s="289"/>
+      <c r="K33" s="289"/>
       <c r="L33" s="21"/>
     </row>
   </sheetData>
@@ -14737,8 +14737,8 @@
       <c r="F107" s="19" t="s">
         <v>861</v>
       </c>
-      <c r="G107" s="206" t="s">
-        <v>874</v>
+      <c r="G107" s="5" t="s">
+        <v>877</v>
       </c>
       <c r="H107" s="18"/>
       <c r="I107" s="21"/>
@@ -14753,11 +14753,11 @@
       <c r="N107" s="21"/>
     </row>
     <row r="108">
-      <c r="A108" s="207" t="s">
-        <v>877</v>
+      <c r="A108" s="206" t="s">
+        <v>878</v>
       </c>
       <c r="B108" s="126" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C108" s="157" t="s">
         <v>513</v>
@@ -14767,7 +14767,7 @@
         <v>376</v>
       </c>
       <c r="F108" s="44" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="G108" s="144"/>
       <c r="H108" s="48"/>
@@ -14783,13 +14783,13 @@
       <c r="N108" s="46"/>
     </row>
     <row r="109">
-      <c r="A109" s="208" t="s">
-        <v>880</v>
-      </c>
-      <c r="B109" s="209" t="s">
+      <c r="A109" s="207" t="s">
         <v>881</v>
       </c>
-      <c r="C109" s="210" t="s">
+      <c r="B109" s="208" t="s">
+        <v>882</v>
+      </c>
+      <c r="C109" s="209" t="s">
         <v>518</v>
       </c>
       <c r="D109" s="51"/>
@@ -14797,10 +14797,10 @@
         <v>386</v>
       </c>
       <c r="F109" s="44" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="G109" s="44" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H109" s="48"/>
       <c r="I109" s="46"/>
@@ -14815,24 +14815,24 @@
       <c r="N109" s="46"/>
     </row>
     <row r="110">
-      <c r="A110" s="208" t="s">
+      <c r="A110" s="207" t="s">
+        <v>885</v>
+      </c>
+      <c r="B110" s="208" t="s">
+        <v>886</v>
+      </c>
+      <c r="C110" s="209" t="s">
+        <v>518</v>
+      </c>
+      <c r="D110" s="51"/>
+      <c r="E110" s="210" t="s">
+        <v>383</v>
+      </c>
+      <c r="F110" s="44" t="s">
         <v>884</v>
       </c>
-      <c r="B110" s="209" t="s">
-        <v>885</v>
-      </c>
-      <c r="C110" s="210" t="s">
-        <v>518</v>
-      </c>
-      <c r="D110" s="51"/>
-      <c r="E110" s="211" t="s">
-        <v>383</v>
-      </c>
-      <c r="F110" s="44" t="s">
-        <v>883</v>
-      </c>
       <c r="G110" s="152" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H110" s="48"/>
       <c r="I110" s="46"/>
@@ -14840,31 +14840,31 @@
       <c r="K110" s="151">
         <v>0.0</v>
       </c>
-      <c r="L110" s="212" t="s">
+      <c r="L110" s="211" t="s">
         <v>286</v>
       </c>
-      <c r="M110" s="212"/>
+      <c r="M110" s="211"/>
       <c r="N110" s="46"/>
     </row>
     <row r="111">
-      <c r="A111" s="208" t="s">
-        <v>887</v>
-      </c>
-      <c r="B111" s="209" t="s">
+      <c r="A111" s="207" t="s">
         <v>888</v>
       </c>
-      <c r="C111" s="210" t="s">
+      <c r="B111" s="208" t="s">
+        <v>889</v>
+      </c>
+      <c r="C111" s="209" t="s">
         <v>518</v>
       </c>
       <c r="D111" s="51"/>
-      <c r="E111" s="211" t="s">
+      <c r="E111" s="210" t="s">
         <v>383</v>
       </c>
       <c r="F111" s="44" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="G111" s="152" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H111" s="48"/>
       <c r="I111" s="46"/>
@@ -14879,24 +14879,24 @@
       <c r="N111" s="46"/>
     </row>
     <row r="112">
-      <c r="A112" s="208" t="s">
-        <v>890</v>
-      </c>
-      <c r="B112" s="209" t="s">
+      <c r="A112" s="207" t="s">
         <v>891</v>
       </c>
-      <c r="C112" s="210" t="s">
+      <c r="B112" s="208" t="s">
+        <v>892</v>
+      </c>
+      <c r="C112" s="209" t="s">
         <v>518</v>
       </c>
       <c r="D112" s="51"/>
-      <c r="E112" s="211" t="s">
+      <c r="E112" s="210" t="s">
         <v>383</v>
       </c>
       <c r="F112" s="44" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="G112" s="152" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H112" s="48"/>
       <c r="I112" s="46"/>
@@ -14905,30 +14905,30 @@
         <v>752</v>
       </c>
       <c r="L112" s="145" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="M112" s="145"/>
       <c r="N112" s="46"/>
     </row>
     <row r="113">
-      <c r="A113" s="208" t="s">
-        <v>894</v>
-      </c>
-      <c r="B113" s="209" t="s">
+      <c r="A113" s="207" t="s">
         <v>895</v>
       </c>
-      <c r="C113" s="210" t="s">
+      <c r="B113" s="208" t="s">
+        <v>896</v>
+      </c>
+      <c r="C113" s="209" t="s">
         <v>518</v>
       </c>
       <c r="D113" s="51"/>
-      <c r="E113" s="211" t="s">
+      <c r="E113" s="210" t="s">
         <v>383</v>
       </c>
       <c r="F113" s="44" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="G113" s="44" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H113" s="48"/>
       <c r="I113" s="46"/>
@@ -14943,24 +14943,24 @@
       <c r="N113" s="46"/>
     </row>
     <row r="114">
-      <c r="A114" s="208" t="s">
-        <v>897</v>
-      </c>
-      <c r="B114" s="209" t="s">
+      <c r="A114" s="207" t="s">
         <v>898</v>
       </c>
-      <c r="C114" s="210" t="s">
+      <c r="B114" s="208" t="s">
+        <v>899</v>
+      </c>
+      <c r="C114" s="209" t="s">
         <v>518</v>
       </c>
       <c r="D114" s="51"/>
-      <c r="E114" s="211" t="s">
+      <c r="E114" s="210" t="s">
         <v>383</v>
       </c>
       <c r="F114" s="44" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="G114" s="44" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H114" s="48"/>
       <c r="I114" s="46"/>
@@ -14976,12 +14976,12 @@
     </row>
     <row r="115">
       <c r="A115" s="71" t="s">
-        <v>900</v>
-      </c>
-      <c r="B115" s="213" t="s">
         <v>901</v>
       </c>
-      <c r="C115" s="214" t="s">
+      <c r="B115" s="212" t="s">
+        <v>902</v>
+      </c>
+      <c r="C115" s="213" t="s">
         <v>513</v>
       </c>
       <c r="D115" s="70"/>
@@ -14989,10 +14989,10 @@
         <v>376</v>
       </c>
       <c r="F115" s="67" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="G115" s="67" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H115" s="75"/>
       <c r="I115" s="69"/>
@@ -15008,10 +15008,10 @@
     </row>
     <row r="116">
       <c r="A116" s="141" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B116" s="142" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C116" s="157" t="s">
         <v>518</v>
@@ -15021,10 +15021,10 @@
         <v>386</v>
       </c>
       <c r="F116" s="44" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="G116" s="53" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H116" s="48"/>
       <c r="I116" s="46"/>
@@ -15040,23 +15040,23 @@
     </row>
     <row r="117">
       <c r="A117" s="141" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B117" s="142" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C117" s="157" t="s">
         <v>518</v>
       </c>
       <c r="D117" s="51"/>
-      <c r="E117" s="211" t="s">
+      <c r="E117" s="210" t="s">
         <v>383</v>
       </c>
       <c r="F117" s="53" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="G117" s="44" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H117" s="48"/>
       <c r="I117" s="46"/>
@@ -15064,31 +15064,31 @@
       <c r="K117" s="151">
         <v>0.0</v>
       </c>
-      <c r="L117" s="212" t="s">
+      <c r="L117" s="211" t="s">
         <v>286</v>
       </c>
-      <c r="M117" s="212"/>
+      <c r="M117" s="211"/>
       <c r="N117" s="46"/>
     </row>
     <row r="118">
       <c r="A118" s="71" t="s">
-        <v>911</v>
-      </c>
-      <c r="B118" s="213" t="s">
         <v>912</v>
       </c>
-      <c r="C118" s="214" t="s">
+      <c r="B118" s="212" t="s">
+        <v>913</v>
+      </c>
+      <c r="C118" s="213" t="s">
         <v>518</v>
       </c>
       <c r="D118" s="70"/>
-      <c r="E118" s="211" t="s">
+      <c r="E118" s="210" t="s">
         <v>383</v>
       </c>
       <c r="F118" s="53" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="G118" s="67" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="H118" s="75"/>
       <c r="I118" s="69"/>
@@ -15104,23 +15104,23 @@
     </row>
     <row r="119">
       <c r="A119" s="71" t="s">
-        <v>914</v>
-      </c>
-      <c r="B119" s="213" t="s">
         <v>915</v>
       </c>
-      <c r="C119" s="214" t="s">
+      <c r="B119" s="212" t="s">
+        <v>916</v>
+      </c>
+      <c r="C119" s="213" t="s">
         <v>518</v>
       </c>
       <c r="D119" s="70"/>
-      <c r="E119" s="211" t="s">
+      <c r="E119" s="210" t="s">
         <v>383</v>
       </c>
       <c r="F119" s="53" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="G119" s="67" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H119" s="75"/>
       <c r="I119" s="69"/>
@@ -15136,23 +15136,23 @@
     </row>
     <row r="120">
       <c r="A120" s="71" t="s">
-        <v>917</v>
-      </c>
-      <c r="B120" s="213" t="s">
         <v>918</v>
       </c>
-      <c r="C120" s="214" t="s">
+      <c r="B120" s="212" t="s">
+        <v>919</v>
+      </c>
+      <c r="C120" s="213" t="s">
         <v>518</v>
       </c>
       <c r="D120" s="70"/>
-      <c r="E120" s="211" t="s">
+      <c r="E120" s="210" t="s">
         <v>383</v>
       </c>
       <c r="F120" s="53" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="G120" s="67" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H120" s="75"/>
       <c r="I120" s="69"/>
@@ -15168,23 +15168,23 @@
     </row>
     <row r="121">
       <c r="A121" s="131" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B121" s="147" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C121" s="194" t="s">
         <v>518</v>
       </c>
       <c r="D121" s="133"/>
-      <c r="E121" s="211" t="s">
+      <c r="E121" s="210" t="s">
         <v>383</v>
       </c>
       <c r="F121" s="53" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="G121" s="134" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H121" s="150"/>
       <c r="I121" s="137"/>
@@ -15200,12 +15200,12 @@
     </row>
     <row r="122">
       <c r="A122" s="25" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B122" s="126" t="s">
-        <v>924</v>
-      </c>
-      <c r="C122" s="215" t="s">
+        <v>925</v>
+      </c>
+      <c r="C122" s="214" t="s">
         <v>513</v>
       </c>
       <c r="D122" s="36"/>
@@ -15213,10 +15213,10 @@
         <v>383</v>
       </c>
       <c r="F122" s="19" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="G122" s="19" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H122" s="18"/>
       <c r="I122" s="21"/>
@@ -15232,12 +15232,12 @@
     </row>
     <row r="123">
       <c r="A123" s="25" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B123" s="126" t="s">
-        <v>928</v>
-      </c>
-      <c r="C123" s="215" t="s">
+        <v>929</v>
+      </c>
+      <c r="C123" s="214" t="s">
         <v>518</v>
       </c>
       <c r="D123" s="36"/>
@@ -15245,10 +15245,10 @@
         <v>376</v>
       </c>
       <c r="F123" s="19" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H123" s="18"/>
       <c r="I123" s="21"/>
@@ -15256,20 +15256,20 @@
       <c r="K123" s="125">
         <v>0.0</v>
       </c>
-      <c r="L123" s="216" t="s">
+      <c r="L123" s="215" t="s">
         <v>309</v>
       </c>
-      <c r="M123" s="216"/>
+      <c r="M123" s="215"/>
       <c r="N123" s="21"/>
     </row>
     <row r="124">
       <c r="A124" s="25" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B124" s="126" t="s">
-        <v>932</v>
-      </c>
-      <c r="C124" s="215" t="s">
+        <v>933</v>
+      </c>
+      <c r="C124" s="214" t="s">
         <v>518</v>
       </c>
       <c r="D124" s="36"/>
@@ -15277,10 +15277,10 @@
         <v>376</v>
       </c>
       <c r="F124" s="19" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="G124" s="19" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="H124" s="18"/>
       <c r="I124" s="21"/>
@@ -15289,19 +15289,19 @@
         <v>269</v>
       </c>
       <c r="L124" s="129" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="M124" s="129"/>
       <c r="N124" s="21"/>
     </row>
     <row r="125">
       <c r="A125" s="25" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B125" s="126" t="s">
-        <v>936</v>
-      </c>
-      <c r="C125" s="215" t="s">
+        <v>937</v>
+      </c>
+      <c r="C125" s="214" t="s">
         <v>513</v>
       </c>
       <c r="D125" s="36"/>
@@ -15309,7 +15309,7 @@
         <v>383</v>
       </c>
       <c r="F125" s="19" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="G125" s="8"/>
       <c r="H125" s="18"/>
@@ -15326,12 +15326,12 @@
     </row>
     <row r="126">
       <c r="A126" s="25" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B126" s="126" t="s">
-        <v>939</v>
-      </c>
-      <c r="C126" s="215" t="s">
+        <v>940</v>
+      </c>
+      <c r="C126" s="214" t="s">
         <v>518</v>
       </c>
       <c r="D126" s="36"/>
@@ -15339,10 +15339,10 @@
         <v>376</v>
       </c>
       <c r="F126" s="19" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H126" s="18"/>
       <c r="I126" s="21"/>
@@ -15358,12 +15358,12 @@
     </row>
     <row r="127">
       <c r="A127" s="25" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B127" s="126" t="s">
-        <v>939</v>
-      </c>
-      <c r="C127" s="215" t="s">
+        <v>940</v>
+      </c>
+      <c r="C127" s="214" t="s">
         <v>518</v>
       </c>
       <c r="D127" s="36"/>
@@ -15371,10 +15371,10 @@
         <v>376</v>
       </c>
       <c r="F127" s="19" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="G127" s="19" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H127" s="18"/>
       <c r="I127" s="21"/>
@@ -15383,17 +15383,17 @@
         <v>269</v>
       </c>
       <c r="L127" s="125" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="M127" s="125"/>
       <c r="N127" s="21"/>
     </row>
     <row r="128">
       <c r="A128" s="141" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B128" s="142" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C128" s="157" t="s">
         <v>513</v>
@@ -15403,10 +15403,10 @@
         <v>386</v>
       </c>
       <c r="F128" s="44" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="G128" s="44" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="H128" s="48"/>
       <c r="I128" s="46"/>
@@ -15415,17 +15415,17 @@
         <v>536</v>
       </c>
       <c r="L128" s="156" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="M128" s="156"/>
       <c r="N128" s="46"/>
     </row>
     <row r="129">
       <c r="A129" s="141" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B129" s="142" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C129" s="157" t="s">
         <v>518</v>
@@ -15435,10 +15435,10 @@
         <v>376</v>
       </c>
       <c r="F129" s="44" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="G129" s="44" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="H129" s="48"/>
       <c r="I129" s="46"/>
@@ -15447,17 +15447,17 @@
         <v>269</v>
       </c>
       <c r="L129" s="156" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="M129" s="156"/>
       <c r="N129" s="46"/>
     </row>
     <row r="130">
       <c r="A130" s="141" t="s">
-        <v>955</v>
-      </c>
-      <c r="B130" s="217" t="s">
         <v>956</v>
+      </c>
+      <c r="B130" s="216" t="s">
+        <v>957</v>
       </c>
       <c r="C130" s="157" t="s">
         <v>513</v>
@@ -15467,10 +15467,10 @@
         <v>383</v>
       </c>
       <c r="F130" s="44" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="G130" s="152" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H130" s="48"/>
       <c r="I130" s="46"/>
@@ -15486,10 +15486,10 @@
     </row>
     <row r="131">
       <c r="A131" s="141" t="s">
-        <v>958</v>
-      </c>
-      <c r="B131" s="217" t="s">
         <v>959</v>
+      </c>
+      <c r="B131" s="216" t="s">
+        <v>960</v>
       </c>
       <c r="C131" s="157" t="s">
         <v>513</v>
@@ -15499,15 +15499,15 @@
         <v>383</v>
       </c>
       <c r="F131" s="44" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="G131" s="152" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H131" s="48"/>
       <c r="I131" s="46"/>
       <c r="J131" s="46"/>
-      <c r="K131" s="218" t="s">
+      <c r="K131" s="217" t="s">
         <v>747</v>
       </c>
       <c r="L131" s="156" t="s">
@@ -15518,10 +15518,10 @@
     </row>
     <row r="132">
       <c r="A132" s="141" t="s">
-        <v>961</v>
-      </c>
-      <c r="B132" s="217" t="s">
         <v>962</v>
+      </c>
+      <c r="B132" s="216" t="s">
+        <v>963</v>
       </c>
       <c r="C132" s="157" t="s">
         <v>513</v>
@@ -15531,15 +15531,15 @@
         <v>383</v>
       </c>
       <c r="F132" s="44" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="G132" s="152" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H132" s="48"/>
       <c r="I132" s="46"/>
       <c r="J132" s="46"/>
-      <c r="K132" s="218" t="s">
+      <c r="K132" s="217" t="s">
         <v>752</v>
       </c>
       <c r="L132" s="156" t="s">
@@ -15550,10 +15550,10 @@
     </row>
     <row r="133">
       <c r="A133" s="141" t="s">
-        <v>964</v>
-      </c>
-      <c r="B133" s="217" t="s">
         <v>965</v>
+      </c>
+      <c r="B133" s="216" t="s">
+        <v>966</v>
       </c>
       <c r="C133" s="157" t="s">
         <v>513</v>
@@ -15563,10 +15563,10 @@
         <v>386</v>
       </c>
       <c r="F133" s="44" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="G133" s="152" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H133" s="48"/>
       <c r="I133" s="46"/>
@@ -15575,17 +15575,17 @@
         <v>0.0</v>
       </c>
       <c r="L133" s="156" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="M133" s="156"/>
       <c r="N133" s="46"/>
     </row>
     <row r="134">
       <c r="A134" s="141" t="s">
-        <v>968</v>
-      </c>
-      <c r="B134" s="217" t="s">
         <v>969</v>
+      </c>
+      <c r="B134" s="216" t="s">
+        <v>970</v>
       </c>
       <c r="C134" s="157" t="s">
         <v>513</v>
@@ -15595,10 +15595,10 @@
         <v>386</v>
       </c>
       <c r="F134" s="44" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="G134" s="152" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H134" s="48"/>
       <c r="I134" s="46"/>
@@ -15607,17 +15607,17 @@
         <v>0.0</v>
       </c>
       <c r="L134" s="156" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="M134" s="156"/>
       <c r="N134" s="46"/>
     </row>
     <row r="135">
       <c r="A135" s="141" t="s">
-        <v>971</v>
-      </c>
-      <c r="B135" s="217" t="s">
         <v>972</v>
+      </c>
+      <c r="B135" s="216" t="s">
+        <v>973</v>
       </c>
       <c r="C135" s="157" t="s">
         <v>513</v>
@@ -15627,15 +15627,15 @@
         <v>383</v>
       </c>
       <c r="F135" s="44" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="G135" s="152" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H135" s="48"/>
       <c r="I135" s="46"/>
       <c r="J135" s="46"/>
-      <c r="K135" s="218" t="s">
+      <c r="K135" s="217" t="s">
         <v>747</v>
       </c>
       <c r="L135" s="156" t="s">
@@ -15646,10 +15646,10 @@
     </row>
     <row r="136">
       <c r="A136" s="141" t="s">
-        <v>974</v>
-      </c>
-      <c r="B136" s="217" t="s">
         <v>975</v>
+      </c>
+      <c r="B136" s="216" t="s">
+        <v>976</v>
       </c>
       <c r="C136" s="157" t="s">
         <v>513</v>
@@ -15659,15 +15659,15 @@
         <v>383</v>
       </c>
       <c r="F136" s="44" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="G136" s="44" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H136" s="48"/>
       <c r="I136" s="46"/>
       <c r="J136" s="46"/>
-      <c r="K136" s="218" t="s">
+      <c r="K136" s="217" t="s">
         <v>752</v>
       </c>
       <c r="L136" s="156" t="s">
@@ -15678,10 +15678,10 @@
     </row>
     <row r="137">
       <c r="A137" s="141" t="s">
-        <v>977</v>
-      </c>
-      <c r="B137" s="217" t="s">
         <v>978</v>
+      </c>
+      <c r="B137" s="216" t="s">
+        <v>979</v>
       </c>
       <c r="C137" s="157" t="s">
         <v>513</v>
@@ -15691,10 +15691,10 @@
         <v>383</v>
       </c>
       <c r="F137" s="44" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="G137" s="152" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H137" s="48"/>
       <c r="I137" s="46"/>
@@ -15710,10 +15710,10 @@
     </row>
     <row r="138">
       <c r="A138" s="141" t="s">
-        <v>980</v>
-      </c>
-      <c r="B138" s="217" t="s">
         <v>981</v>
+      </c>
+      <c r="B138" s="216" t="s">
+        <v>982</v>
       </c>
       <c r="C138" s="157" t="s">
         <v>513</v>
@@ -15723,29 +15723,29 @@
         <v>383</v>
       </c>
       <c r="F138" s="44" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="G138" s="44" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H138" s="48"/>
       <c r="I138" s="46"/>
       <c r="J138" s="46"/>
-      <c r="K138" s="219" t="s">
+      <c r="K138" s="218" t="s">
         <v>747</v>
       </c>
       <c r="L138" s="156" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="M138" s="156"/>
       <c r="N138" s="44"/>
     </row>
     <row r="139">
       <c r="A139" s="141" t="s">
-        <v>984</v>
-      </c>
-      <c r="B139" s="217" t="s">
         <v>985</v>
+      </c>
+      <c r="B139" s="216" t="s">
+        <v>986</v>
       </c>
       <c r="C139" s="157" t="s">
         <v>513</v>
@@ -15755,29 +15755,29 @@
         <v>383</v>
       </c>
       <c r="F139" s="44" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="G139" s="44" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H139" s="48"/>
       <c r="I139" s="46"/>
       <c r="J139" s="46"/>
-      <c r="K139" s="219" t="s">
+      <c r="K139" s="218" t="s">
         <v>752</v>
       </c>
       <c r="L139" s="156" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="M139" s="156"/>
       <c r="N139" s="44"/>
     </row>
     <row r="140">
       <c r="A140" s="141" t="s">
-        <v>988</v>
-      </c>
-      <c r="B140" s="217" t="s">
         <v>989</v>
+      </c>
+      <c r="B140" s="216" t="s">
+        <v>990</v>
       </c>
       <c r="C140" s="157" t="s">
         <v>513</v>
@@ -15787,29 +15787,29 @@
         <v>383</v>
       </c>
       <c r="F140" s="44" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="G140" s="44" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="H140" s="48"/>
       <c r="I140" s="46"/>
       <c r="J140" s="46"/>
-      <c r="K140" s="219" t="s">
+      <c r="K140" s="218" t="s">
         <v>747</v>
       </c>
       <c r="L140" s="156" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="M140" s="156"/>
       <c r="N140" s="44"/>
     </row>
     <row r="141">
       <c r="A141" s="141" t="s">
-        <v>992</v>
-      </c>
-      <c r="B141" s="217" t="s">
         <v>993</v>
+      </c>
+      <c r="B141" s="216" t="s">
+        <v>994</v>
       </c>
       <c r="C141" s="157" t="s">
         <v>513</v>
@@ -15819,29 +15819,29 @@
         <v>383</v>
       </c>
       <c r="F141" s="44" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="G141" s="44" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H141" s="48"/>
       <c r="I141" s="46"/>
       <c r="J141" s="46"/>
-      <c r="K141" s="219" t="s">
+      <c r="K141" s="218" t="s">
         <v>752</v>
       </c>
       <c r="L141" s="156" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="M141" s="156"/>
       <c r="N141" s="44"/>
     </row>
     <row r="142">
       <c r="A142" s="141" t="s">
-        <v>996</v>
-      </c>
-      <c r="B142" s="217" t="s">
         <v>997</v>
+      </c>
+      <c r="B142" s="216" t="s">
+        <v>998</v>
       </c>
       <c r="C142" s="157" t="s">
         <v>513</v>
@@ -15851,10 +15851,10 @@
         <v>386</v>
       </c>
       <c r="F142" s="44" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="G142" s="152" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H142" s="48"/>
       <c r="I142" s="46"/>
@@ -15870,10 +15870,10 @@
     </row>
     <row r="143">
       <c r="A143" s="141" t="s">
-        <v>999</v>
-      </c>
-      <c r="B143" s="217" t="s">
         <v>1000</v>
+      </c>
+      <c r="B143" s="216" t="s">
+        <v>1001</v>
       </c>
       <c r="C143" s="157" t="s">
         <v>513</v>
@@ -15883,63 +15883,63 @@
         <v>383</v>
       </c>
       <c r="F143" s="44" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="G143" s="152" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="H143" s="48"/>
       <c r="I143" s="46"/>
       <c r="J143" s="46"/>
       <c r="K143" s="145" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="L143" s="156" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="M143" s="156"/>
       <c r="N143" s="46"/>
     </row>
     <row r="144">
-      <c r="A144" s="220" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B144" s="221" t="s">
+      <c r="A144" s="219" t="s">
         <v>1005</v>
       </c>
-      <c r="C144" s="222" t="s">
+      <c r="B144" s="220" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C144" s="221" t="s">
         <v>513</v>
       </c>
-      <c r="D144" s="222"/>
-      <c r="E144" s="223" t="s">
+      <c r="D144" s="221"/>
+      <c r="E144" s="222" t="s">
         <v>383</v>
       </c>
       <c r="F144" s="44" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="G144" s="152" t="s">
-        <v>1006</v>
-      </c>
-      <c r="H144" s="224"/>
-      <c r="I144" s="225"/>
-      <c r="J144" s="225"/>
-      <c r="K144" s="226" t="s">
-        <v>1002</v>
-      </c>
-      <c r="L144" s="227" t="s">
         <v>1007</v>
       </c>
-      <c r="M144" s="227"/>
-      <c r="N144" s="225"/>
+      <c r="H144" s="223"/>
+      <c r="I144" s="224"/>
+      <c r="J144" s="224"/>
+      <c r="K144" s="225" t="s">
+        <v>1003</v>
+      </c>
+      <c r="L144" s="226" t="s">
+        <v>1008</v>
+      </c>
+      <c r="M144" s="226"/>
+      <c r="N144" s="224"/>
     </row>
     <row r="145">
       <c r="A145" s="25" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B145" s="123" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C145" s="215" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C145" s="214" t="s">
         <v>513</v>
       </c>
       <c r="D145" s="36"/>
@@ -15947,10 +15947,10 @@
         <v>386</v>
       </c>
       <c r="F145" s="19" t="s">
-        <v>1010</v>
-      </c>
-      <c r="G145" s="228" t="s">
         <v>1011</v>
+      </c>
+      <c r="G145" s="227" t="s">
+        <v>1012</v>
       </c>
       <c r="H145" s="18"/>
       <c r="I145" s="21"/>
@@ -15966,12 +15966,12 @@
     </row>
     <row r="146">
       <c r="A146" s="25" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B146" s="123" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C146" s="215" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C146" s="214" t="s">
         <v>518</v>
       </c>
       <c r="D146" s="36"/>
@@ -15979,10 +15979,10 @@
         <v>376</v>
       </c>
       <c r="F146" s="19" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="G146" s="19" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H146" s="18"/>
       <c r="I146" s="21"/>
@@ -15998,12 +15998,12 @@
     </row>
     <row r="147">
       <c r="A147" s="25" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B147" s="123" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C147" s="215" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C147" s="214" t="s">
         <v>513</v>
       </c>
       <c r="D147" s="36"/>
@@ -16011,10 +16011,10 @@
         <v>386</v>
       </c>
       <c r="F147" s="19" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G147" s="228" t="s">
-        <v>1011</v>
+        <v>1019</v>
+      </c>
+      <c r="G147" s="227" t="s">
+        <v>1012</v>
       </c>
       <c r="H147" s="18"/>
       <c r="I147" s="21"/>
@@ -16030,12 +16030,12 @@
     </row>
     <row r="148">
       <c r="A148" s="25" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B148" s="123" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C148" s="215" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C148" s="214" t="s">
         <v>518</v>
       </c>
       <c r="D148" s="36"/>
@@ -16043,10 +16043,10 @@
         <v>376</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H148" s="18"/>
       <c r="I148" s="21"/>
@@ -16062,74 +16062,74 @@
     </row>
     <row r="149">
       <c r="A149" s="131" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B149" s="123" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C149" s="215" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C149" s="214" t="s">
         <v>513</v>
       </c>
       <c r="D149" s="36"/>
       <c r="E149" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="F149" s="228" t="s">
-        <v>1011</v>
+      <c r="F149" s="227" t="s">
+        <v>1012</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="H149" s="18"/>
       <c r="I149" s="21"/>
       <c r="J149" s="21"/>
       <c r="K149" s="129" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="L149" s="159" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="M149" s="159"/>
       <c r="N149" s="21"/>
     </row>
     <row r="150">
       <c r="A150" s="131" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B150" s="123" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C150" s="215" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C150" s="214" t="s">
         <v>513</v>
       </c>
       <c r="D150" s="36"/>
       <c r="E150" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="F150" s="228" t="s">
-        <v>1011</v>
+      <c r="F150" s="227" t="s">
+        <v>1012</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="H150" s="18"/>
       <c r="I150" s="21"/>
       <c r="J150" s="21"/>
       <c r="K150" s="129" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="L150" s="159" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="M150" s="159"/>
       <c r="N150" s="21"/>
     </row>
     <row r="151">
       <c r="A151" s="141" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B151" s="217" t="s">
         <v>1032</v>
+      </c>
+      <c r="B151" s="216" t="s">
+        <v>1033</v>
       </c>
       <c r="C151" s="157" t="s">
         <v>513</v>
@@ -16139,10 +16139,10 @@
         <v>386</v>
       </c>
       <c r="F151" s="44" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="G151" s="152" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H151" s="48"/>
       <c r="I151" s="46"/>
@@ -16151,62 +16151,62 @@
         <v>619</v>
       </c>
       <c r="L151" s="156" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="M151" s="156"/>
       <c r="N151" s="46"/>
     </row>
     <row r="152">
       <c r="A152" s="141" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B152" s="217" t="s">
         <v>1037</v>
+      </c>
+      <c r="B152" s="216" t="s">
+        <v>1038</v>
       </c>
       <c r="C152" s="157" t="s">
         <v>518</v>
       </c>
-      <c r="D152" s="229"/>
+      <c r="D152" s="228"/>
       <c r="E152" s="141" t="s">
         <v>376</v>
       </c>
       <c r="F152" s="44" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="G152" s="44" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="H152" s="50"/>
       <c r="I152" s="46"/>
       <c r="J152" s="46"/>
-      <c r="K152" s="230" t="s">
-        <v>1040</v>
+      <c r="K152" s="229" t="s">
+        <v>1041</v>
       </c>
       <c r="L152" s="5" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="M152" s="5"/>
       <c r="N152" s="46"/>
     </row>
     <row r="153">
       <c r="A153" s="141" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B153" s="217" t="s">
         <v>1043</v>
+      </c>
+      <c r="B153" s="216" t="s">
+        <v>1044</v>
       </c>
       <c r="C153" s="157" t="s">
         <v>513</v>
       </c>
-      <c r="D153" s="229"/>
+      <c r="D153" s="228"/>
       <c r="E153" s="141" t="s">
         <v>386</v>
       </c>
       <c r="F153" s="44" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="G153" s="152" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H153" s="50"/>
       <c r="I153" s="46"/>
@@ -16214,63 +16214,63 @@
       <c r="K153" s="138" t="s">
         <v>619</v>
       </c>
-      <c r="L153" s="231" t="s">
-        <v>1045</v>
-      </c>
-      <c r="M153" s="231"/>
+      <c r="L153" s="230" t="s">
+        <v>1046</v>
+      </c>
+      <c r="M153" s="230"/>
       <c r="N153" s="46"/>
     </row>
     <row r="154">
       <c r="A154" s="141" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B154" s="217" t="s">
         <v>1047</v>
+      </c>
+      <c r="B154" s="216" t="s">
+        <v>1048</v>
       </c>
       <c r="C154" s="157" t="s">
         <v>518</v>
       </c>
-      <c r="D154" s="229"/>
+      <c r="D154" s="228"/>
       <c r="E154" s="141" t="s">
         <v>376</v>
       </c>
       <c r="F154" s="44" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="G154" s="152" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="H154" s="48"/>
       <c r="I154" s="46"/>
       <c r="J154" s="46"/>
-      <c r="K154" s="230" t="s">
-        <v>1050</v>
+      <c r="K154" s="229" t="s">
+        <v>1051</v>
       </c>
       <c r="L154" s="5" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="M154" s="5"/>
       <c r="N154" s="46"/>
     </row>
     <row r="155">
       <c r="A155" s="141" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B155" s="217" t="s">
         <v>1053</v>
+      </c>
+      <c r="B155" s="216" t="s">
+        <v>1054</v>
       </c>
       <c r="C155" s="157" t="s">
         <v>513</v>
       </c>
-      <c r="D155" s="229"/>
+      <c r="D155" s="228"/>
       <c r="E155" s="141" t="s">
         <v>386</v>
       </c>
       <c r="F155" s="44" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="G155" s="152" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H155" s="48"/>
       <c r="I155" s="46"/>
@@ -16279,62 +16279,62 @@
         <v>619</v>
       </c>
       <c r="L155" s="156" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="M155" s="156"/>
       <c r="N155" s="46"/>
     </row>
     <row r="156">
       <c r="A156" s="141" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B156" s="217" t="s">
         <v>1057</v>
+      </c>
+      <c r="B156" s="216" t="s">
+        <v>1058</v>
       </c>
       <c r="C156" s="157" t="s">
         <v>518</v>
       </c>
-      <c r="D156" s="229"/>
+      <c r="D156" s="228"/>
       <c r="E156" s="141" t="s">
         <v>376</v>
       </c>
       <c r="F156" s="44" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="G156" s="152" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="H156" s="48"/>
       <c r="I156" s="46"/>
       <c r="J156" s="46"/>
-      <c r="K156" s="230" t="s">
-        <v>1040</v>
+      <c r="K156" s="229" t="s">
+        <v>1041</v>
       </c>
       <c r="L156" s="5" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="M156" s="5"/>
       <c r="N156" s="46"/>
     </row>
     <row r="157">
       <c r="A157" s="141" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B157" s="217" t="s">
         <v>1062</v>
+      </c>
+      <c r="B157" s="216" t="s">
+        <v>1063</v>
       </c>
       <c r="C157" s="157" t="s">
         <v>513</v>
       </c>
-      <c r="D157" s="229"/>
+      <c r="D157" s="228"/>
       <c r="E157" s="141" t="s">
         <v>386</v>
       </c>
       <c r="F157" s="44" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="G157" s="152" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H157" s="48"/>
       <c r="I157" s="46"/>
@@ -16342,63 +16342,63 @@
       <c r="K157" s="138" t="s">
         <v>619</v>
       </c>
-      <c r="L157" s="232" t="s">
-        <v>1064</v>
-      </c>
-      <c r="M157" s="232"/>
+      <c r="L157" s="231" t="s">
+        <v>1065</v>
+      </c>
+      <c r="M157" s="231"/>
       <c r="N157" s="46"/>
     </row>
     <row r="158">
       <c r="A158" s="25" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B158" s="123" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="C158" s="158" t="s">
         <v>518</v>
       </c>
-      <c r="D158" s="233"/>
-      <c r="E158" s="234" t="s">
+      <c r="D158" s="232"/>
+      <c r="E158" s="233" t="s">
         <v>376</v>
       </c>
       <c r="F158" s="19" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="G158" s="5" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H158" s="18"/>
       <c r="I158" s="21"/>
       <c r="J158" s="21"/>
-      <c r="K158" s="230" t="s">
-        <v>1040</v>
+      <c r="K158" s="229" t="s">
+        <v>1041</v>
       </c>
       <c r="L158" s="5" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="M158" s="5"/>
       <c r="N158" s="21"/>
     </row>
     <row r="159">
       <c r="A159" s="25" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B159" s="123" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C159" s="158" t="s">
         <v>513</v>
       </c>
-      <c r="D159" s="233"/>
+      <c r="D159" s="232"/>
       <c r="E159" s="25" t="s">
         <v>386</v>
       </c>
       <c r="F159" s="19" t="s">
-        <v>1072</v>
-      </c>
-      <c r="G159" s="235" t="s">
-        <v>1034</v>
+        <v>1073</v>
+      </c>
+      <c r="G159" s="234" t="s">
+        <v>1035</v>
       </c>
       <c r="H159" s="18"/>
       <c r="I159" s="21"/>
@@ -16407,62 +16407,62 @@
         <v>619</v>
       </c>
       <c r="L159" s="159" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="M159" s="159"/>
       <c r="N159" s="21"/>
     </row>
     <row r="160">
       <c r="A160" s="25" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B160" s="123" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C160" s="158" t="s">
         <v>518</v>
       </c>
-      <c r="D160" s="233"/>
-      <c r="E160" s="234" t="s">
+      <c r="D160" s="232"/>
+      <c r="E160" s="233" t="s">
         <v>376</v>
       </c>
       <c r="F160" s="19" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="H160" s="18"/>
       <c r="I160" s="21"/>
       <c r="J160" s="21"/>
-      <c r="K160" s="230" t="s">
-        <v>1040</v>
+      <c r="K160" s="229" t="s">
+        <v>1041</v>
       </c>
       <c r="L160" s="5" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="M160" s="5"/>
       <c r="N160" s="21"/>
     </row>
     <row r="161">
       <c r="A161" s="25" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B161" s="123" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C161" s="158" t="s">
         <v>513</v>
       </c>
-      <c r="D161" s="233"/>
+      <c r="D161" s="232"/>
       <c r="E161" s="25" t="s">
         <v>386</v>
       </c>
       <c r="F161" s="19" t="s">
-        <v>1081</v>
-      </c>
-      <c r="G161" s="235" t="s">
-        <v>1034</v>
+        <v>1082</v>
+      </c>
+      <c r="G161" s="234" t="s">
+        <v>1035</v>
       </c>
       <c r="H161" s="18"/>
       <c r="I161" s="21"/>
@@ -16471,62 +16471,62 @@
         <v>619</v>
       </c>
       <c r="L161" s="159" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="M161" s="159"/>
       <c r="N161" s="21"/>
     </row>
     <row r="162">
       <c r="A162" s="25" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B162" s="123" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C162" s="158" t="s">
         <v>518</v>
       </c>
-      <c r="D162" s="233"/>
-      <c r="E162" s="234" t="s">
+      <c r="D162" s="232"/>
+      <c r="E162" s="233" t="s">
         <v>376</v>
       </c>
       <c r="F162" s="19" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="G162" s="135" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="H162" s="18"/>
       <c r="I162" s="21"/>
       <c r="J162" s="21"/>
-      <c r="K162" s="230" t="s">
-        <v>1040</v>
+      <c r="K162" s="229" t="s">
+        <v>1041</v>
       </c>
       <c r="L162" s="5" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="M162" s="20"/>
       <c r="N162" s="20"/>
     </row>
     <row r="163">
       <c r="A163" s="25" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B163" s="123" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C163" s="158" t="s">
         <v>513</v>
       </c>
-      <c r="D163" s="233"/>
+      <c r="D163" s="232"/>
       <c r="E163" s="25" t="s">
         <v>386</v>
       </c>
       <c r="F163" s="19" t="s">
-        <v>1090</v>
-      </c>
-      <c r="G163" s="235" t="s">
-        <v>1034</v>
+        <v>1091</v>
+      </c>
+      <c r="G163" s="234" t="s">
+        <v>1035</v>
       </c>
       <c r="H163" s="18"/>
       <c r="I163" s="21"/>
@@ -16535,62 +16535,62 @@
         <v>619</v>
       </c>
       <c r="L163" s="159" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="M163" s="20"/>
       <c r="N163" s="20"/>
     </row>
     <row r="164">
       <c r="A164" s="25" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B164" s="123" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C164" s="158" t="s">
         <v>518</v>
       </c>
-      <c r="D164" s="233"/>
-      <c r="E164" s="234" t="s">
+      <c r="D164" s="232"/>
+      <c r="E164" s="233" t="s">
         <v>376</v>
       </c>
       <c r="F164" s="19" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="G164" s="135" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="H164" s="18"/>
       <c r="I164" s="21"/>
       <c r="J164" s="21"/>
-      <c r="K164" s="230" t="s">
-        <v>1040</v>
+      <c r="K164" s="229" t="s">
+        <v>1041</v>
       </c>
       <c r="L164" s="5" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="M164" s="20"/>
       <c r="N164" s="20"/>
     </row>
     <row r="165">
       <c r="A165" s="25" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B165" s="123" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="C165" s="158" t="s">
         <v>513</v>
       </c>
-      <c r="D165" s="233"/>
+      <c r="D165" s="232"/>
       <c r="E165" s="25" t="s">
         <v>386</v>
       </c>
       <c r="F165" s="19" t="s">
-        <v>1099</v>
-      </c>
-      <c r="G165" s="235" t="s">
-        <v>1034</v>
+        <v>1100</v>
+      </c>
+      <c r="G165" s="234" t="s">
+        <v>1035</v>
       </c>
       <c r="H165" s="18"/>
       <c r="I165" s="21"/>
@@ -16599,62 +16599,62 @@
         <v>619</v>
       </c>
       <c r="L165" s="159" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="M165" s="20"/>
       <c r="N165" s="20"/>
     </row>
     <row r="166">
       <c r="A166" s="25" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B166" s="123" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="C166" s="158" t="s">
         <v>518</v>
       </c>
-      <c r="D166" s="233"/>
-      <c r="E166" s="234" t="s">
+      <c r="D166" s="232"/>
+      <c r="E166" s="233" t="s">
         <v>376</v>
       </c>
       <c r="F166" s="19" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="G166" s="135" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="H166" s="18"/>
       <c r="I166" s="21"/>
       <c r="J166" s="21"/>
-      <c r="K166" s="230" t="s">
-        <v>1040</v>
+      <c r="K166" s="229" t="s">
+        <v>1041</v>
       </c>
       <c r="L166" s="5" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="M166" s="20"/>
       <c r="N166" s="20"/>
     </row>
     <row r="167">
       <c r="A167" s="25" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B167" s="123" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C167" s="158" t="s">
         <v>513</v>
       </c>
-      <c r="D167" s="233"/>
+      <c r="D167" s="232"/>
       <c r="E167" s="25" t="s">
         <v>386</v>
       </c>
       <c r="F167" s="19" t="s">
-        <v>1108</v>
-      </c>
-      <c r="G167" s="235" t="s">
-        <v>1034</v>
+        <v>1109</v>
+      </c>
+      <c r="G167" s="234" t="s">
+        <v>1035</v>
       </c>
       <c r="H167" s="18"/>
       <c r="I167" s="21"/>
@@ -16663,59 +16663,59 @@
         <v>619</v>
       </c>
       <c r="L167" s="159" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="M167" s="20"/>
       <c r="N167" s="24"/>
     </row>
     <row r="168">
       <c r="A168" s="25" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B168" s="123" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C168" s="158" t="s">
         <v>518</v>
       </c>
-      <c r="D168" s="233"/>
-      <c r="E168" s="234" t="s">
+      <c r="D168" s="232"/>
+      <c r="E168" s="233" t="s">
         <v>376</v>
       </c>
       <c r="F168" s="19" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="G168" s="135" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="H168" s="18"/>
       <c r="I168" s="21"/>
       <c r="J168" s="21"/>
-      <c r="K168" s="230" t="s">
-        <v>1040</v>
+      <c r="K168" s="229" t="s">
+        <v>1041</v>
       </c>
       <c r="L168" s="5" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="M168" s="20"/>
       <c r="N168" s="24"/>
     </row>
     <row r="169">
       <c r="A169" s="25" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B169" s="123" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="C169" s="158" t="s">
         <v>513</v>
       </c>
-      <c r="D169" s="233"/>
+      <c r="D169" s="232"/>
       <c r="E169" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="F169" s="235" t="s">
-        <v>1034</v>
+      <c r="F169" s="234" t="s">
+        <v>1035</v>
       </c>
       <c r="G169" s="5"/>
       <c r="H169" s="18"/>
@@ -16732,20 +16732,20 @@
     </row>
     <row r="170">
       <c r="A170" s="25" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B170" s="123" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="C170" s="158" t="s">
         <v>513</v>
       </c>
-      <c r="D170" s="233"/>
+      <c r="D170" s="232"/>
       <c r="E170" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="F170" s="235" t="s">
-        <v>1034</v>
+      <c r="F170" s="234" t="s">
+        <v>1035</v>
       </c>
       <c r="G170" s="19"/>
       <c r="H170" s="18"/>
@@ -16762,10 +16762,10 @@
     </row>
     <row r="171">
       <c r="A171" s="25" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B171" s="123" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="C171" s="158" t="s">
         <v>518</v>
@@ -16774,8 +16774,8 @@
       <c r="E171" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="F171" s="235" t="s">
-        <v>1034</v>
+      <c r="F171" s="234" t="s">
+        <v>1035</v>
       </c>
       <c r="G171" s="19"/>
       <c r="H171" s="36"/>
@@ -16792,10 +16792,10 @@
     </row>
     <row r="172">
       <c r="A172" s="23" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B172" s="123" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C172" s="158" t="s">
         <v>518</v>
@@ -16804,8 +16804,8 @@
       <c r="E172" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="F172" s="235" t="s">
-        <v>1034</v>
+      <c r="F172" s="234" t="s">
+        <v>1035</v>
       </c>
       <c r="G172" s="19"/>
       <c r="H172" s="36"/>
@@ -16822,10 +16822,10 @@
     </row>
     <row r="173">
       <c r="A173" s="23" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B173" s="123" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C173" s="158" t="s">
         <v>518</v>
@@ -16834,8 +16834,8 @@
       <c r="E173" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="F173" s="235" t="s">
-        <v>1034</v>
+      <c r="F173" s="234" t="s">
+        <v>1035</v>
       </c>
       <c r="G173" s="19"/>
       <c r="H173" s="36"/>
@@ -16852,10 +16852,10 @@
     </row>
     <row r="174">
       <c r="A174" s="25" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B174" s="126" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="C174" s="158" t="s">
         <v>513</v>
@@ -16865,18 +16865,18 @@
         <v>383</v>
       </c>
       <c r="F174" s="19" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="G174" s="19" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="H174" s="18"/>
       <c r="I174" s="21"/>
       <c r="J174" s="21"/>
-      <c r="K174" s="236">
+      <c r="K174" s="235">
         <v>12.0</v>
       </c>
-      <c r="L174" s="236" t="s">
+      <c r="L174" s="235" t="s">
         <v>50</v>
       </c>
       <c r="M174" s="129"/>
@@ -16884,10 +16884,10 @@
     </row>
     <row r="175">
       <c r="A175" s="25" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B175" s="126" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="C175" s="158" t="s">
         <v>518</v>
@@ -16897,29 +16897,29 @@
         <v>376</v>
       </c>
       <c r="F175" s="19" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="G175" s="19" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="H175" s="18"/>
       <c r="I175" s="21"/>
       <c r="J175" s="21"/>
-      <c r="K175" s="237" t="s">
-        <v>1133</v>
-      </c>
-      <c r="L175" s="236" t="s">
+      <c r="K175" s="236" t="s">
         <v>1134</v>
+      </c>
+      <c r="L175" s="235" t="s">
+        <v>1135</v>
       </c>
       <c r="M175" s="129"/>
       <c r="N175" s="21"/>
     </row>
     <row r="176">
       <c r="A176" s="25" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B176" s="126" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="C176" s="158" t="s">
         <v>518</v>
@@ -16929,29 +16929,29 @@
         <v>376</v>
       </c>
       <c r="F176" s="19" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="G176" s="19" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="H176" s="18"/>
       <c r="I176" s="21"/>
       <c r="J176" s="21"/>
-      <c r="K176" s="237" t="s">
+      <c r="K176" s="236" t="s">
         <v>54</v>
       </c>
-      <c r="L176" s="236" t="s">
-        <v>1134</v>
+      <c r="L176" s="235" t="s">
+        <v>1135</v>
       </c>
       <c r="M176" s="129"/>
       <c r="N176" s="21"/>
     </row>
     <row r="177">
       <c r="A177" s="25" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B177" s="126" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="C177" s="158" t="s">
         <v>513</v>
@@ -16961,18 +16961,18 @@
         <v>383</v>
       </c>
       <c r="F177" s="19" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="G177" s="19" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="H177" s="18"/>
       <c r="I177" s="21"/>
       <c r="J177" s="21"/>
-      <c r="K177" s="236">
+      <c r="K177" s="235">
         <v>2.0</v>
       </c>
-      <c r="L177" s="236" t="s">
+      <c r="L177" s="235" t="s">
         <v>50</v>
       </c>
       <c r="M177" s="129"/>
@@ -16980,10 +16980,10 @@
     </row>
     <row r="178">
       <c r="A178" s="25" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B178" s="126" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="C178" s="158" t="s">
         <v>518</v>
@@ -16993,19 +16993,19 @@
         <v>376</v>
       </c>
       <c r="F178" s="19" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="G178" s="19" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H178" s="18"/>
       <c r="I178" s="21"/>
       <c r="J178" s="21"/>
-      <c r="K178" s="238" t="s">
-        <v>1146</v>
-      </c>
-      <c r="L178" s="239" t="s">
+      <c r="K178" s="237" t="s">
         <v>1147</v>
+      </c>
+      <c r="L178" s="238" t="s">
+        <v>1148</v>
       </c>
       <c r="M178" s="129"/>
       <c r="N178" s="21"/>
@@ -17035,643 +17035,643 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="240" t="s">
+      <c r="A1" s="239" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="241" t="s">
+      <c r="B1" s="240" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="242" t="s">
+      <c r="C1" s="241" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="242" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E1" s="240" t="s">
+      <c r="D1" s="241" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E1" s="239" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="243" t="s">
-        <v>1149</v>
+      <c r="F1" s="242" t="s">
+        <v>1150</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="244" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B2" s="245" t="s">
+      <c r="A2" s="243" t="s">
         <v>1151</v>
       </c>
-      <c r="C2" s="246" t="s">
+      <c r="B2" s="244" t="s">
         <v>1152</v>
       </c>
-      <c r="D2" s="246"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="248"/>
+      <c r="C2" s="245" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D2" s="245"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="247"/>
     </row>
     <row r="3">
-      <c r="A3" s="244" t="s">
+      <c r="A3" s="243" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B3" s="244" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C3" s="244" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D3" s="244"/>
+      <c r="E3" s="248"/>
+      <c r="F3" s="242" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="243" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B4" s="244" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C4" s="244" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D4" s="244"/>
+      <c r="E4" s="249"/>
+      <c r="F4" s="247"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="243" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B5" s="244" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C5" s="244" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D5" s="244"/>
+      <c r="E5" s="249"/>
+      <c r="F5" s="247"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="243" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B6" s="250" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C6" s="244" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D6" s="244"/>
+      <c r="E6" s="248"/>
+      <c r="F6" s="247"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="243" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B7" s="251" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C7" s="244" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D7" s="244"/>
+      <c r="E7" s="242"/>
+      <c r="F7" s="247"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="243" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B8" s="251" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C8" s="244" t="s">
         <v>1153</v>
       </c>
-      <c r="B3" s="245" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C3" s="245" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D3" s="245"/>
-      <c r="E3" s="249"/>
-      <c r="F3" s="243" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="244" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B4" s="245" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C4" s="245" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D4" s="245"/>
-      <c r="E4" s="250"/>
-      <c r="F4" s="248"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="244" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B5" s="245" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C5" s="245" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D5" s="245"/>
-      <c r="E5" s="250"/>
-      <c r="F5" s="248"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="244" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B6" s="251" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C6" s="245" t="s">
+      <c r="D8" s="244"/>
+      <c r="E8" s="242"/>
+      <c r="F8" s="247"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="243" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B9" s="251" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C9" s="252" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D9" s="252"/>
+      <c r="E9" s="253"/>
+      <c r="F9" s="247"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="243" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B10" s="251" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C10" s="244" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D10" s="244"/>
+      <c r="E10" s="242"/>
+      <c r="F10" s="247"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="243" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B11" s="244" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C11" s="244" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D11" s="244"/>
+      <c r="E11" s="247"/>
+      <c r="F11" s="247"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="243" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B12" s="254" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C12" s="254" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D12" s="254"/>
+      <c r="E12" s="247"/>
+      <c r="F12" s="247"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="243" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B13" s="255" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C13" s="254" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D13" s="254"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="243" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B14" s="255" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C14" s="254" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D14" s="254"/>
+      <c r="E14" s="247"/>
+      <c r="F14" s="247"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="243" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B15" s="255" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C15" s="254" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D15" s="254"/>
+      <c r="E15" s="247"/>
+      <c r="F15" s="247"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="243" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B16" s="255" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C16" s="254" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D16" s="254"/>
+      <c r="E16" s="247"/>
+      <c r="F16" s="247"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="243" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B17" s="255" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C17" s="254" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D17" s="254"/>
+      <c r="E17" s="247"/>
+      <c r="F17" s="247"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="243" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B18" s="255" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C18" s="254" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D18" s="254"/>
+      <c r="E18" s="247"/>
+      <c r="F18" s="247"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="243" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B19" s="255" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C19" s="254" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D19" s="254"/>
+      <c r="E19" s="247"/>
+      <c r="F19" s="247"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="243" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B20" s="255" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C20" s="256" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D20" s="256"/>
+      <c r="E20" s="247"/>
+      <c r="F20" s="247"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="243" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B21" s="257" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C21" s="254" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D21" s="254"/>
+      <c r="E21" s="247"/>
+      <c r="F21" s="247"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="243" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B22" s="255" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D22" s="258" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E22" s="242"/>
+      <c r="F22" s="247"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="243" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B23" s="259" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C23" s="260" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D23" s="260"/>
+      <c r="E23" s="247"/>
+      <c r="F23" s="247"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="243" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B24" s="259" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C24" s="260" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D24" s="260"/>
+      <c r="E24" s="247"/>
+      <c r="F24" s="247"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="243" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B25" s="259" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D25" s="260" t="s">
+        <v>467</v>
+      </c>
+      <c r="E25" s="242"/>
+      <c r="F25" s="247"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="243" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B26" s="254" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C26" s="254" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D26" s="254"/>
+      <c r="E26" s="242"/>
+      <c r="F26" s="247"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="243" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B27" s="254" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C27" s="254" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D27" s="254"/>
+      <c r="E27" s="247"/>
+      <c r="F27" s="247"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="243" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B28" s="254" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C28" s="254" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D28" s="254"/>
+      <c r="E28" s="247"/>
+      <c r="F28" s="247"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="243" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B29" s="261" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C29" s="251" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D29" s="251"/>
+      <c r="E29" s="262"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="243" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B30" s="261" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C30" s="251" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D30" s="251"/>
+      <c r="E30" s="262"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="243" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B31" s="261" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C31" s="251" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D31" s="251"/>
+      <c r="E31" s="262"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="243" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B32" s="261" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C32" s="251" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D32" s="251"/>
+      <c r="E32" s="262"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="243" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B33" s="261" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C33" s="251" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D33" s="251"/>
+      <c r="E33" s="262"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="243" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B34" s="261" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C34" s="251" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D34" s="251"/>
+      <c r="E34" s="262"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="243" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B35" s="261" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C35" s="251" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D35" s="251"/>
+      <c r="E35" s="262"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="243" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B36" s="261" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C36" s="251" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D36" s="251"/>
+      <c r="E36" s="262"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="243" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B37" s="261" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C37" s="251" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D37" s="251"/>
+      <c r="E37" s="262"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="243" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B38" s="261" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C38" s="251" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D38" s="251"/>
+      <c r="E38" s="262"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="243" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B39" s="263" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C39" s="259" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D39" s="259"/>
+      <c r="E39" s="264"/>
+      <c r="F39" s="247"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="243" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B40" s="263" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C40" s="259" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D40" s="259"/>
+      <c r="E40" s="265"/>
+      <c r="F40" s="247"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="243" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B41" s="263" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C41" s="259" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D41" s="259"/>
+      <c r="E41" s="264"/>
+      <c r="F41" s="247"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="243" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B42" s="263" t="s">
         <v>1165</v>
       </c>
-      <c r="D6" s="245"/>
-      <c r="E6" s="249"/>
-      <c r="F6" s="248"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="244" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B7" s="252" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C7" s="245" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D7" s="245"/>
-      <c r="E7" s="243"/>
-      <c r="F7" s="248"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="244" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B8" s="252" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C8" s="245" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D8" s="245"/>
-      <c r="E8" s="243"/>
-      <c r="F8" s="248"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="244" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B9" s="252" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C9" s="253" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D9" s="253"/>
-      <c r="E9" s="254"/>
-      <c r="F9" s="248"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="244" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B10" s="252" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C10" s="245" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D10" s="245"/>
-      <c r="E10" s="243"/>
-      <c r="F10" s="248"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="244" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B11" s="245" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C11" s="245" t="s">
-        <v>1179</v>
-      </c>
-      <c r="D11" s="245"/>
-      <c r="E11" s="248"/>
-      <c r="F11" s="248"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="244" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B12" s="255" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C12" s="255" t="s">
-        <v>1182</v>
-      </c>
-      <c r="D12" s="255"/>
-      <c r="E12" s="248"/>
-      <c r="F12" s="248"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="244" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B13" s="256" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C13" s="255" t="s">
-        <v>1185</v>
-      </c>
-      <c r="D13" s="255"/>
-      <c r="E13" s="248"/>
-      <c r="F13" s="248"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="244" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B14" s="256" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C14" s="255" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D14" s="255"/>
-      <c r="E14" s="248"/>
-      <c r="F14" s="248"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="244" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B15" s="256" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C15" s="255" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D15" s="255"/>
-      <c r="E15" s="248"/>
-      <c r="F15" s="248"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="244" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B16" s="256" t="s">
-        <v>1193</v>
-      </c>
-      <c r="C16" s="255" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D16" s="255"/>
-      <c r="E16" s="248"/>
-      <c r="F16" s="248"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="244" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B17" s="256" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C17" s="255" t="s">
-        <v>1197</v>
-      </c>
-      <c r="D17" s="255"/>
-      <c r="E17" s="248"/>
-      <c r="F17" s="248"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="244" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B18" s="256" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C18" s="255" t="s">
-        <v>1200</v>
-      </c>
-      <c r="D18" s="255"/>
-      <c r="E18" s="248"/>
-      <c r="F18" s="248"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="244" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B19" s="256" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C19" s="255" t="s">
-        <v>1203</v>
-      </c>
-      <c r="D19" s="255"/>
-      <c r="E19" s="248"/>
-      <c r="F19" s="248"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="244" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B20" s="256" t="s">
-        <v>1205</v>
-      </c>
-      <c r="C20" s="257" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D20" s="257"/>
-      <c r="E20" s="248"/>
-      <c r="F20" s="248"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="244" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B21" s="258" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C21" s="255" t="s">
-        <v>1208</v>
-      </c>
-      <c r="D21" s="255"/>
-      <c r="E21" s="248"/>
-      <c r="F21" s="248"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="244" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B22" s="256" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>1211</v>
-      </c>
-      <c r="D22" s="259" t="s">
-        <v>1212</v>
-      </c>
-      <c r="E22" s="243"/>
-      <c r="F22" s="248"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="244" t="s">
-        <v>1213</v>
-      </c>
-      <c r="B23" s="260" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C23" s="261" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D23" s="261"/>
-      <c r="E23" s="248"/>
-      <c r="F23" s="248"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="244" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B24" s="260" t="s">
-        <v>1217</v>
-      </c>
-      <c r="C24" s="261" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D24" s="261"/>
-      <c r="E24" s="248"/>
-      <c r="F24" s="248"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="244" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B25" s="260" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>1211</v>
-      </c>
-      <c r="D25" s="261" t="s">
-        <v>467</v>
-      </c>
-      <c r="E25" s="243"/>
-      <c r="F25" s="248"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="244" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B26" s="255" t="s">
-        <v>1222</v>
-      </c>
-      <c r="C26" s="255" t="s">
-        <v>1223</v>
-      </c>
-      <c r="D26" s="255"/>
-      <c r="E26" s="243"/>
-      <c r="F26" s="248"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="244" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B27" s="255" t="s">
-        <v>1225</v>
-      </c>
-      <c r="C27" s="255" t="s">
-        <v>1226</v>
-      </c>
-      <c r="D27" s="255"/>
-      <c r="E27" s="248"/>
-      <c r="F27" s="248"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="244" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B28" s="255" t="s">
-        <v>1228</v>
-      </c>
-      <c r="C28" s="255" t="s">
-        <v>1229</v>
-      </c>
-      <c r="D28" s="255"/>
-      <c r="E28" s="248"/>
-      <c r="F28" s="248"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="244" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B29" s="262" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C29" s="252" t="s">
-        <v>1232</v>
-      </c>
-      <c r="D29" s="252"/>
-      <c r="E29" s="263"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="244" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B30" s="262" t="s">
-        <v>1234</v>
-      </c>
-      <c r="C30" s="252" t="s">
-        <v>1235</v>
-      </c>
-      <c r="D30" s="252"/>
-      <c r="E30" s="263"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="244" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B31" s="262" t="s">
-        <v>1237</v>
-      </c>
-      <c r="C31" s="252" t="s">
-        <v>1238</v>
-      </c>
-      <c r="D31" s="252"/>
-      <c r="E31" s="263"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="244" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B32" s="262" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C32" s="252" t="s">
-        <v>1241</v>
-      </c>
-      <c r="D32" s="252"/>
-      <c r="E32" s="263"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="244" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B33" s="262" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C33" s="252" t="s">
-        <v>1244</v>
-      </c>
-      <c r="D33" s="252"/>
-      <c r="E33" s="263"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="244" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B34" s="262" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C34" s="252" t="s">
-        <v>1247</v>
-      </c>
-      <c r="D34" s="252"/>
-      <c r="E34" s="263"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="244" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B35" s="262" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C35" s="252" t="s">
-        <v>1250</v>
-      </c>
-      <c r="D35" s="252"/>
-      <c r="E35" s="263"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="244" t="s">
-        <v>1251</v>
-      </c>
-      <c r="B36" s="262" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C36" s="252" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D36" s="252"/>
-      <c r="E36" s="263"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="244" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B37" s="262" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C37" s="252" t="s">
-        <v>1256</v>
-      </c>
-      <c r="D37" s="252"/>
-      <c r="E37" s="263"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="244" t="s">
-        <v>1257</v>
-      </c>
-      <c r="B38" s="262" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C38" s="252" t="s">
-        <v>1259</v>
-      </c>
-      <c r="D38" s="252"/>
-      <c r="E38" s="263"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="244" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B39" s="264" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C39" s="260" t="s">
-        <v>1262</v>
-      </c>
-      <c r="D39" s="260"/>
-      <c r="E39" s="265"/>
-      <c r="F39" s="248"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="244" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B40" s="264" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C40" s="260" t="s">
-        <v>1265</v>
-      </c>
-      <c r="D40" s="260"/>
-      <c r="E40" s="266"/>
-      <c r="F40" s="248"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="244" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B41" s="264" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C41" s="260" t="s">
-        <v>1268</v>
-      </c>
-      <c r="D41" s="260"/>
-      <c r="E41" s="265"/>
-      <c r="F41" s="248"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="244" t="s">
-        <v>1269</v>
-      </c>
-      <c r="B42" s="264" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C42" s="267" t="s">
-        <v>1270</v>
-      </c>
-      <c r="D42" s="267"/>
-      <c r="E42" s="248"/>
-      <c r="F42" s="248"/>
+      <c r="C42" s="266" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D42" s="266"/>
+      <c r="E42" s="247"/>
+      <c r="F42" s="247"/>
     </row>
     <row r="43">
-      <c r="A43" s="244" t="s">
-        <v>1271</v>
-      </c>
-      <c r="B43" s="268" t="s">
+      <c r="A43" s="243" t="s">
         <v>1272</v>
       </c>
-      <c r="C43" s="267" t="s">
+      <c r="B43" s="267" t="s">
         <v>1273</v>
       </c>
-      <c r="D43" s="267"/>
-      <c r="E43" s="248"/>
-      <c r="F43" s="248"/>
+      <c r="C43" s="266" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D43" s="266"/>
+      <c r="E43" s="247"/>
+      <c r="F43" s="247"/>
     </row>
     <row r="44">
-      <c r="A44" s="244" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B44" s="268" t="s">
+      <c r="A44" s="243" t="s">
         <v>1275</v>
       </c>
-      <c r="C44" s="269" t="s">
+      <c r="B44" s="267" t="s">
         <v>1276</v>
       </c>
-      <c r="D44" s="269"/>
-      <c r="E44" s="248"/>
-      <c r="F44" s="248"/>
+      <c r="C44" s="268" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D44" s="268"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
     </row>
     <row r="45" ht="20.25" customHeight="1">
-      <c r="A45" s="244" t="s">
-        <v>1277</v>
+      <c r="A45" s="243" t="s">
+        <v>1278</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C45" s="270" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C45" s="269" t="s">
         <v>320</v>
       </c>
-      <c r="D45" s="270"/>
+      <c r="D45" s="269"/>
       <c r="E45" s="21"/>
       <c r="F45" s="61"/>
     </row>
     <row r="46">
-      <c r="A46" s="244" t="s">
-        <v>1279</v>
+      <c r="A46" s="243" t="s">
+        <v>1280</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="C46" s="20" t="s">
         <v>324</v>
@@ -17681,39 +17681,39 @@
       <c r="F46" s="61"/>
     </row>
     <row r="47">
-      <c r="A47" s="244" t="s">
-        <v>1281</v>
+      <c r="A47" s="243" t="s">
+        <v>1282</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C47" s="247" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C47" s="246" t="s">
         <v>327</v>
       </c>
-      <c r="D47" s="247"/>
+      <c r="D47" s="246"/>
       <c r="E47" s="21"/>
       <c r="F47" s="42"/>
     </row>
     <row r="48">
-      <c r="A48" s="244" t="s">
-        <v>1283</v>
+      <c r="A48" s="243" t="s">
+        <v>1284</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C48" s="247" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C48" s="246" t="s">
         <v>330</v>
       </c>
-      <c r="D48" s="247"/>
+      <c r="D48" s="246"/>
       <c r="E48" s="21"/>
       <c r="F48" s="42"/>
     </row>
     <row r="49">
-      <c r="A49" s="244" t="s">
-        <v>1285</v>
+      <c r="A49" s="243" t="s">
+        <v>1286</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="C49" s="153" t="s">
         <v>334</v>
@@ -17723,11 +17723,11 @@
       <c r="F49" s="42"/>
     </row>
     <row r="50">
-      <c r="A50" s="244" t="s">
-        <v>1287</v>
+      <c r="A50" s="243" t="s">
+        <v>1288</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="C50" s="153" t="s">
         <v>337</v>
@@ -17737,25 +17737,25 @@
       <c r="F50" s="42"/>
     </row>
     <row r="51">
-      <c r="A51" s="244" t="s">
-        <v>1289</v>
+      <c r="A51" s="243" t="s">
+        <v>1290</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C51" s="247" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C51" s="246" t="s">
         <v>340</v>
       </c>
-      <c r="D51" s="247"/>
+      <c r="D51" s="246"/>
       <c r="E51" s="21"/>
       <c r="F51" s="42"/>
     </row>
     <row r="52">
-      <c r="A52" s="244" t="s">
-        <v>1291</v>
+      <c r="A52" s="243" t="s">
+        <v>1292</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="C52" s="153" t="s">
         <v>343</v>
@@ -17765,56 +17765,56 @@
       <c r="F52" s="42"/>
     </row>
     <row r="53">
-      <c r="A53" s="244" t="s">
-        <v>1293</v>
+      <c r="A53" s="243" t="s">
+        <v>1294</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C53" s="247" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C53" s="246" t="s">
         <v>346</v>
       </c>
-      <c r="D53" s="247"/>
+      <c r="D53" s="246"/>
       <c r="E53" s="21"/>
       <c r="F53" s="42"/>
     </row>
     <row r="54">
-      <c r="A54" s="271" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B54" s="272" t="s">
+      <c r="A54" s="270" t="s">
         <v>1296</v>
       </c>
-      <c r="C54" s="273" t="s">
+      <c r="B54" s="271" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C54" s="272" t="s">
         <v>349</v>
       </c>
-      <c r="D54" s="273"/>
-      <c r="E54" s="274"/>
-      <c r="F54" s="275"/>
+      <c r="D54" s="272"/>
+      <c r="E54" s="273"/>
+      <c r="F54" s="274"/>
     </row>
     <row r="55">
-      <c r="A55" s="244" t="s">
-        <v>1297</v>
+      <c r="A55" s="243" t="s">
+        <v>1298</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="21"/>
       <c r="F55" s="42"/>
     </row>
     <row r="56">
-      <c r="A56" s="244" t="s">
-        <v>1300</v>
+      <c r="A56" s="243" t="s">
+        <v>1301</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="21"/>
@@ -17850,13 +17850,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>20</v>
@@ -17867,23 +17867,23 @@
     </row>
     <row r="2">
       <c r="A2" s="25" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>281</v>
       </c>
       <c r="F2" s="38"/>
-      <c r="G2" s="276"/>
+      <c r="G2" s="275"/>
     </row>
     <row r="3">
       <c r="A3" s="25" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>514</v>
@@ -17899,7 +17899,7 @@
     </row>
     <row r="4">
       <c r="A4" s="25" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>523</v>
@@ -17915,7 +17915,7 @@
     </row>
     <row r="5">
       <c r="A5" s="25" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="19" t="s">
@@ -17932,7 +17932,7 @@
     </row>
     <row r="6">
       <c r="A6" s="25" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="19" t="s">
@@ -17949,7 +17949,7 @@
     </row>
     <row r="7">
       <c r="A7" s="25" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="19" t="s">
@@ -17966,7 +17966,7 @@
     </row>
     <row r="8">
       <c r="A8" s="25" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="19" t="s">
@@ -17983,7 +17983,7 @@
     </row>
     <row r="9">
       <c r="A9" s="25" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="19" t="s">
@@ -18000,7 +18000,7 @@
     </row>
     <row r="10">
       <c r="A10" s="25" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="19" t="s">
@@ -18017,7 +18017,7 @@
     </row>
     <row r="11">
       <c r="A11" s="25" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="19" t="s">
@@ -18034,7 +18034,7 @@
     </row>
     <row r="12">
       <c r="A12" s="25" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="19" t="s">
@@ -18051,7 +18051,7 @@
     </row>
     <row r="13">
       <c r="A13" s="25" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="19" t="s">
@@ -18068,7 +18068,7 @@
     </row>
     <row r="14">
       <c r="A14" s="71" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B14" s="69"/>
       <c r="C14" s="67" t="s">
@@ -18085,7 +18085,7 @@
     </row>
     <row r="15">
       <c r="A15" s="71" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="B15" s="69"/>
       <c r="C15" s="67" t="s">
@@ -18102,7 +18102,7 @@
     </row>
     <row r="16">
       <c r="A16" s="71" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B16" s="69"/>
       <c r="C16" s="67" t="s">
@@ -18119,7 +18119,7 @@
     </row>
     <row r="17">
       <c r="A17" s="71" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B17" s="69"/>
       <c r="C17" s="67" t="s">
@@ -18136,7 +18136,7 @@
     </row>
     <row r="18">
       <c r="A18" s="71" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="B18" s="69"/>
       <c r="C18" s="67" t="s">
@@ -18153,7 +18153,7 @@
     </row>
     <row r="19">
       <c r="A19" s="71" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="B19" s="69"/>
       <c r="C19" s="67" t="s">
@@ -18170,7 +18170,7 @@
     </row>
     <row r="20">
       <c r="A20" s="25" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="19" t="s">
@@ -18187,7 +18187,7 @@
     </row>
     <row r="21">
       <c r="A21" s="25" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="19" t="s">
@@ -18204,7 +18204,7 @@
     </row>
     <row r="22">
       <c r="A22" s="25" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="19" t="s">
@@ -18221,7 +18221,7 @@
     </row>
     <row r="23">
       <c r="A23" s="25" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="19" t="s">
@@ -18238,7 +18238,7 @@
     </row>
     <row r="24">
       <c r="A24" s="25" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="19" t="s">
@@ -18255,7 +18255,7 @@
     </row>
     <row r="25">
       <c r="A25" s="25" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="19" t="s">
@@ -18272,7 +18272,7 @@
     </row>
     <row r="26">
       <c r="A26" s="25" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="19" t="s">
@@ -18289,7 +18289,7 @@
     </row>
     <row r="27">
       <c r="A27" s="25" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="19" t="s">
@@ -18306,14 +18306,14 @@
     </row>
     <row r="28">
       <c r="A28" s="25" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="19" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="E28" s="25" t="s">
         <v>436</v>
@@ -18323,14 +18323,14 @@
     </row>
     <row r="29">
       <c r="A29" s="25" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="19" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E29" s="25" t="s">
         <v>439</v>
@@ -18340,14 +18340,14 @@
     </row>
     <row r="30">
       <c r="A30" s="25" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="19" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E30" s="25" t="s">
         <v>442</v>
@@ -18357,14 +18357,14 @@
     </row>
     <row r="31">
       <c r="A31" s="25" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="19" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E31" s="25" t="s">
         <v>445</v>
@@ -18374,14 +18374,14 @@
     </row>
     <row r="32">
       <c r="A32" s="25" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="19" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E32" s="25" t="s">
         <v>285</v>
@@ -18391,14 +18391,14 @@
     </row>
     <row r="33">
       <c r="A33" s="25" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="19" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E33" s="25" t="s">
         <v>450</v>
@@ -18408,14 +18408,14 @@
     </row>
     <row r="34">
       <c r="A34" s="25" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="19" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E34" s="25" t="s">
         <v>453</v>
@@ -18425,14 +18425,14 @@
     </row>
     <row r="35">
       <c r="A35" s="25" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="B35" s="21"/>
       <c r="C35" s="19" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="E35" s="25" t="s">
         <v>102</v>
@@ -18442,14 +18442,14 @@
     </row>
     <row r="36">
       <c r="A36" s="25" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B36" s="21"/>
       <c r="C36" s="19" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="E36" s="25" t="s">
         <v>107</v>
@@ -18459,14 +18459,14 @@
     </row>
     <row r="37">
       <c r="A37" s="25" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B37" s="21"/>
       <c r="C37" s="19" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="E37" s="25" t="s">
         <v>111</v>
@@ -18476,14 +18476,14 @@
     </row>
     <row r="38">
       <c r="A38" s="25" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B38" s="21"/>
       <c r="C38" s="19" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="E38" s="25" t="s">
         <v>115</v>
@@ -18493,14 +18493,14 @@
     </row>
     <row r="39">
       <c r="A39" s="25" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="B39" s="21"/>
       <c r="C39" s="19" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="E39" s="25" t="s">
         <v>119</v>
@@ -18510,14 +18510,14 @@
     </row>
     <row r="40">
       <c r="A40" s="25" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B40" s="21"/>
       <c r="C40" s="19" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="E40" s="25" t="s">
         <v>123</v>
@@ -18527,14 +18527,14 @@
     </row>
     <row r="41">
       <c r="A41" s="25" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="B41" s="21"/>
       <c r="C41" s="19" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="E41" s="25" t="s">
         <v>127</v>
@@ -18544,14 +18544,14 @@
     </row>
     <row r="42">
       <c r="A42" s="25" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B42" s="21"/>
       <c r="C42" s="19" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="E42" s="25" t="s">
         <v>131</v>
@@ -18561,14 +18561,14 @@
     </row>
     <row r="43">
       <c r="A43" s="25" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B43" s="21"/>
       <c r="C43" s="19" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="E43" s="25" t="s">
         <v>135</v>
@@ -18578,14 +18578,14 @@
     </row>
     <row r="44">
       <c r="A44" s="25" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B44" s="21"/>
       <c r="C44" s="19" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="E44" s="25" t="s">
         <v>486</v>
@@ -18595,14 +18595,14 @@
     </row>
     <row r="45">
       <c r="A45" s="25" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B45" s="21"/>
       <c r="C45" s="19" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="E45" s="25" t="s">
         <v>489</v>
@@ -18642,10 +18642,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="2">
@@ -18655,7 +18655,7 @@
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
       <c r="D2" s="21" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
@@ -18667,7 +18667,7 @@
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
@@ -18701,7 +18701,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="277" t="s">
+      <c r="A1" s="276" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -18710,26 +18710,26 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="277" t="s">
+      <c r="D1" s="276" t="s">
         <v>495</v>
       </c>
-      <c r="E1" s="277" t="s">
-        <v>1356</v>
-      </c>
-      <c r="F1" s="277" t="s">
+      <c r="E1" s="276" t="s">
         <v>1357</v>
       </c>
+      <c r="F1" s="276" t="s">
+        <v>1358</v>
+      </c>
       <c r="G1" s="5" t="s">
-        <v>1358</v>
-      </c>
-      <c r="H1" s="278" t="s">
+        <v>1359</v>
+      </c>
+      <c r="H1" s="277" t="s">
         <v>504</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="2">
@@ -18737,16 +18737,16 @@
         <v>393</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1362</v>
-      </c>
-      <c r="D2" s="279"/>
-      <c r="F2" s="278"/>
-      <c r="H2" s="280"/>
+        <v>1363</v>
+      </c>
+      <c r="D2" s="278"/>
+      <c r="F2" s="277"/>
+      <c r="H2" s="279"/>
       <c r="J2" s="5" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="3">
@@ -18754,17 +18754,17 @@
         <v>396</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1365</v>
-      </c>
-      <c r="D3" s="280"/>
-      <c r="E3" s="278"/>
-      <c r="F3" s="278"/>
-      <c r="H3" s="278"/>
+        <v>1366</v>
+      </c>
+      <c r="D3" s="279"/>
+      <c r="E3" s="277"/>
+      <c r="F3" s="277"/>
+      <c r="H3" s="277"/>
       <c r="J3" s="5" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="4">
@@ -18772,17 +18772,17 @@
         <v>399</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D4" s="279"/>
+      <c r="E4" s="277"/>
+      <c r="F4" s="277"/>
+      <c r="H4" s="277"/>
+      <c r="J4" s="5" t="s">
         <v>1367</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>1368</v>
-      </c>
-      <c r="D4" s="280"/>
-      <c r="E4" s="278"/>
-      <c r="F4" s="278"/>
-      <c r="H4" s="278"/>
-      <c r="J4" s="5" t="s">
-        <v>1366</v>
       </c>
     </row>
     <row r="5">
@@ -18790,17 +18790,17 @@
         <v>401</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1370</v>
-      </c>
-      <c r="D5" s="278"/>
-      <c r="E5" s="278"/>
-      <c r="F5" s="278"/>
-      <c r="H5" s="280"/>
+        <v>1371</v>
+      </c>
+      <c r="D5" s="277"/>
+      <c r="E5" s="277"/>
+      <c r="F5" s="277"/>
+      <c r="H5" s="279"/>
       <c r="J5" s="5" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="6">
@@ -18808,19 +18808,19 @@
         <v>405</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1373</v>
-      </c>
-      <c r="D6" s="278"/>
+        <v>1374</v>
+      </c>
+      <c r="D6" s="277"/>
       <c r="E6" s="124"/>
-      <c r="F6" s="281"/>
+      <c r="F6" s="280"/>
       <c r="H6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="7">
@@ -18828,17 +18828,17 @@
         <v>412</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1376</v>
-      </c>
-      <c r="D7" s="278"/>
-      <c r="E7" s="278"/>
-      <c r="F7" s="278"/>
-      <c r="H7" s="278"/>
+        <v>1377</v>
+      </c>
+      <c r="D7" s="277"/>
+      <c r="E7" s="277"/>
+      <c r="F7" s="277"/>
+      <c r="H7" s="277"/>
       <c r="J7" s="5" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="8">
@@ -18846,18 +18846,18 @@
         <v>426</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1379</v>
-      </c>
-      <c r="D8" s="278"/>
-      <c r="E8" s="278"/>
-      <c r="F8" s="278"/>
-      <c r="G8" s="278"/>
-      <c r="H8" s="278"/>
+        <v>1380</v>
+      </c>
+      <c r="D8" s="277"/>
+      <c r="E8" s="277"/>
+      <c r="F8" s="277"/>
+      <c r="G8" s="277"/>
+      <c r="H8" s="277"/>
       <c r="J8" s="5" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="9">
@@ -18865,17 +18865,17 @@
         <v>432</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1382</v>
-      </c>
-      <c r="D9" s="278"/>
-      <c r="E9" s="278"/>
-      <c r="F9" s="278"/>
-      <c r="H9" s="278"/>
+        <v>1383</v>
+      </c>
+      <c r="D9" s="277"/>
+      <c r="E9" s="277"/>
+      <c r="F9" s="277"/>
+      <c r="H9" s="277"/>
       <c r="J9" s="5" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="10">
@@ -18883,17 +18883,17 @@
         <v>438</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1384</v>
-      </c>
-      <c r="D10" s="278"/>
-      <c r="E10" s="278"/>
-      <c r="F10" s="278"/>
-      <c r="H10" s="280"/>
+        <v>1385</v>
+      </c>
+      <c r="D10" s="277"/>
+      <c r="E10" s="277"/>
+      <c r="F10" s="277"/>
+      <c r="H10" s="279"/>
       <c r="J10" s="5" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="11">
@@ -18901,18 +18901,18 @@
         <v>444</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D11" s="278"/>
-      <c r="E11" s="278"/>
-      <c r="F11" s="278"/>
-      <c r="G11" s="278"/>
-      <c r="H11" s="278"/>
+        <v>1388</v>
+      </c>
+      <c r="D11" s="277"/>
+      <c r="E11" s="277"/>
+      <c r="F11" s="277"/>
+      <c r="G11" s="277"/>
+      <c r="H11" s="277"/>
       <c r="J11" s="19" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="12">
@@ -18920,18 +18920,18 @@
         <v>429</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1389</v>
-      </c>
-      <c r="D12" s="278"/>
-      <c r="E12" s="278"/>
-      <c r="F12" s="278"/>
-      <c r="G12" s="278"/>
-      <c r="H12" s="278"/>
+        <v>1390</v>
+      </c>
+      <c r="D12" s="277"/>
+      <c r="E12" s="277"/>
+      <c r="F12" s="277"/>
+      <c r="G12" s="277"/>
+      <c r="H12" s="277"/>
       <c r="J12" s="5" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="13">
@@ -18939,17 +18939,17 @@
         <v>435</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1391</v>
-      </c>
-      <c r="D13" s="278"/>
-      <c r="E13" s="278"/>
-      <c r="F13" s="278"/>
-      <c r="H13" s="278"/>
+        <v>1392</v>
+      </c>
+      <c r="D13" s="277"/>
+      <c r="E13" s="277"/>
+      <c r="F13" s="277"/>
+      <c r="H13" s="277"/>
       <c r="J13" s="5" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="14">
@@ -18957,17 +18957,17 @@
         <v>441</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1393</v>
-      </c>
-      <c r="D14" s="278"/>
-      <c r="E14" s="278"/>
-      <c r="F14" s="278"/>
-      <c r="H14" s="280"/>
+        <v>1394</v>
+      </c>
+      <c r="D14" s="277"/>
+      <c r="E14" s="277"/>
+      <c r="F14" s="277"/>
+      <c r="H14" s="279"/>
       <c r="J14" s="5" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="15">
@@ -18975,18 +18975,18 @@
         <v>447</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1395</v>
-      </c>
-      <c r="D15" s="278"/>
-      <c r="E15" s="278"/>
-      <c r="F15" s="278"/>
-      <c r="G15" s="278"/>
-      <c r="H15" s="278"/>
+        <v>1396</v>
+      </c>
+      <c r="D15" s="277"/>
+      <c r="E15" s="277"/>
+      <c r="F15" s="277"/>
+      <c r="G15" s="277"/>
+      <c r="H15" s="277"/>
       <c r="J15" s="19" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="16">
@@ -18994,19 +18994,19 @@
         <v>449</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D16" s="280"/>
-      <c r="E16" s="278"/>
-      <c r="F16" s="278"/>
+        <v>1398</v>
+      </c>
+      <c r="D16" s="279"/>
+      <c r="E16" s="277"/>
+      <c r="F16" s="277"/>
       <c r="H16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="282" t="s">
-        <v>1385</v>
+      <c r="J16" s="281" t="s">
+        <v>1386</v>
       </c>
     </row>
     <row r="17">
@@ -19014,18 +19014,18 @@
         <v>452</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1399</v>
-      </c>
-      <c r="E17" s="278"/>
-      <c r="F17" s="283"/>
+        <v>1400</v>
+      </c>
+      <c r="E17" s="277"/>
+      <c r="F17" s="282"/>
       <c r="H17" s="5" t="s">
-        <v>1400</v>
-      </c>
-      <c r="J17" s="282" t="s">
-        <v>1385</v>
+        <v>1401</v>
+      </c>
+      <c r="J17" s="281" t="s">
+        <v>1386</v>
       </c>
     </row>
     <row r="18">
@@ -19033,18 +19033,18 @@
         <v>456</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E18" s="278"/>
-      <c r="F18" s="283"/>
+        <v>1403</v>
+      </c>
+      <c r="E18" s="277"/>
+      <c r="F18" s="282"/>
       <c r="H18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="282" t="s">
-        <v>1385</v>
+      <c r="J18" s="281" t="s">
+        <v>1386</v>
       </c>
     </row>
     <row r="19">
@@ -19052,16 +19052,16 @@
         <v>488</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1404</v>
-      </c>
-      <c r="E19" s="278"/>
-      <c r="F19" s="283"/>
+        <v>1405</v>
+      </c>
+      <c r="E19" s="277"/>
+      <c r="F19" s="282"/>
       <c r="H19" s="5"/>
-      <c r="J19" s="282" t="s">
-        <v>1380</v>
+      <c r="J19" s="281" t="s">
+        <v>1381</v>
       </c>
     </row>
     <row r="20">
@@ -19069,16 +19069,16 @@
         <v>491</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E20" s="278"/>
-      <c r="F20" s="283"/>
+        <v>1407</v>
+      </c>
+      <c r="E20" s="277"/>
+      <c r="F20" s="282"/>
       <c r="H20" s="5"/>
       <c r="J20" s="5" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
   </sheetData>
@@ -19108,66 +19108,66 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="284" t="s">
-        <v>1408</v>
+      <c r="A2" s="283" t="s">
+        <v>1409</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="284" t="s">
+      <c r="A3" s="283" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>1411</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>1412</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1410</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="284" t="s">
-        <v>1413</v>
+      <c r="A4" s="283" t="s">
+        <v>1414</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="5" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5"/>
-      <c r="B6" s="285" t="s">
-        <v>1416</v>
+      <c r="B6" s="284" t="s">
+        <v>1417</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5"/>
-      <c r="B7" s="285" t="s">
+      <c r="B7" s="284" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>1418</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>1417</v>
       </c>
     </row>
   </sheetData>
